--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Move Prob - %" sheetId="10" r:id="rId9"/>
     <sheet name="Players" sheetId="11" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -12191,168 +12188,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Monster"/>
-      <sheetName val="Magic"/>
-      <sheetName val="Evolve"/>
-      <sheetName val="Weapon"/>
-      <sheetName val="Treasure"/>
-      <sheetName val="Shops"/>
-      <sheetName val="Hex"/>
-      <sheetName val="FF1"/>
-      <sheetName val="neoFFL2"/>
-      <sheetName val="Move Selection"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="147">
-          <cell r="L147">
-            <v>23</v>
-          </cell>
-          <cell r="M147">
-            <v>23</v>
-          </cell>
-          <cell r="N147">
-            <v>26</v>
-          </cell>
-          <cell r="O147">
-            <v>26</v>
-          </cell>
-          <cell r="P147">
-            <v>64</v>
-          </cell>
-          <cell r="Q147">
-            <v>67</v>
-          </cell>
-          <cell r="R147">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="K148" t="str">
-            <v>Damage=(M1-M2/8)*Mod</v>
-          </cell>
-          <cell r="L148">
-            <v>92</v>
-          </cell>
-          <cell r="M148">
-            <v>101</v>
-          </cell>
-          <cell r="N148">
-            <v>112</v>
-          </cell>
-          <cell r="O148">
-            <v>286</v>
-          </cell>
-          <cell r="P148">
-            <v>721</v>
-          </cell>
-          <cell r="Q148">
-            <v>611</v>
-          </cell>
-          <cell r="R148">
-            <v>623</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="L151">
-            <v>23</v>
-          </cell>
-          <cell r="M151">
-            <v>23</v>
-          </cell>
-          <cell r="N151">
-            <v>26</v>
-          </cell>
-          <cell r="O151">
-            <v>64</v>
-          </cell>
-          <cell r="P151">
-            <v>64</v>
-          </cell>
-          <cell r="Q151">
-            <v>67</v>
-          </cell>
-          <cell r="R151">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="K152" t="str">
-            <v>Damage=(M1-M2/8)*Mod</v>
-          </cell>
-          <cell r="L152">
-            <v>129</v>
-          </cell>
-          <cell r="M152">
-            <v>138</v>
-          </cell>
-          <cell r="N152">
-            <v>153</v>
-          </cell>
-          <cell r="O152">
-            <v>357</v>
-          </cell>
-          <cell r="P152">
-            <v>385</v>
-          </cell>
-          <cell r="Q152">
-            <v>372</v>
-          </cell>
-          <cell r="R152">
-            <v>395</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="E227">
-            <v>1</v>
-          </cell>
-          <cell r="F227">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="E239">
-            <v>1</v>
-          </cell>
-          <cell r="F239">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="E251">
-            <v>1</v>
-          </cell>
-          <cell r="F251">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="E263">
-            <v>0.95890410958904104</v>
-          </cell>
-          <cell r="F263">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -28576,8 +28411,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28816,7 +28651,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -38472,9 +38307,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:W264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39400,11 +39235,11 @@
     <row r="17" spans="1:22">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>RapierSword</v>
+        <v>Rapier</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>RapierSword</v>
+        <f>C17</f>
+        <v>Rapier</v>
       </c>
       <c r="C17" s="96" t="s">
         <v>1715</v>
@@ -40394,11 +40229,11 @@
     <row r="36" spans="1:20">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>XcalibrSword</v>
+        <v>Xcalibr</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
-        <v>XcalibrSword</v>
+        <f>C36</f>
+        <v>Xcalibr</v>
       </c>
       <c r="C36" s="96" t="s">
         <v>1780</v>
@@ -42418,7 +42253,7 @@
       <c r="O78" s="5" t="s">
         <v>1664</v>
       </c>
-      <c r="P78" s="19" t="s">
+      <c r="P78" t="s">
         <v>3456</v>
       </c>
       <c r="R78" t="s">

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9350" uniqueCount="3458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9356" uniqueCount="3460">
   <si>
     <t>Monster</t>
   </si>
@@ -11309,6 +11309,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Jerk</t>
+  </si>
+  <si>
+    <t>Flammie</t>
   </si>
 </sst>
 </file>
@@ -11690,7 +11696,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -12169,6 +12175,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_BuiltIn_Currency" xfId="2"/>
@@ -12474,11 +12489,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X251"/>
+  <dimension ref="A1:X252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S54" sqref="S54"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24886,7 +24901,7 @@
     </row>
     <row r="195" spans="1:22">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A251" si="3">B195</f>
+        <f t="shared" ref="A195:A252" si="3">B195</f>
         <v>Fenrir</v>
       </c>
       <c r="B195" s="13" t="s">
@@ -28400,6 +28415,42 @@
       <c r="T251" s="9"/>
       <c r="U251" s="9"/>
       <c r="V251" s="10"/>
+    </row>
+    <row r="252" spans="1:22">
+      <c r="A252" t="str">
+        <f t="shared" si="3"/>
+        <v>Jerk</v>
+      </c>
+      <c r="B252" s="163" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="G252" s="155">
+        <v>1</v>
+      </c>
+      <c r="H252" s="155">
+        <v>0</v>
+      </c>
+      <c r="I252" s="164">
+        <v>1000</v>
+      </c>
+      <c r="J252" s="164">
+        <v>1</v>
+      </c>
+      <c r="K252" s="164">
+        <v>20</v>
+      </c>
+      <c r="L252" s="164">
+        <v>20</v>
+      </c>
+      <c r="M252" s="164">
+        <v>20</v>
+      </c>
+      <c r="O252" s="165" t="s">
+        <v>441</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28409,10 +28460,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28520,7 +28571,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A6" si="0">B3</f>
+        <f t="shared" ref="A3:A7" si="0">B3</f>
         <v>MUTE</v>
       </c>
       <c r="B3" t="s">
@@ -28530,7 +28581,7 @@
         <v>3404</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="1">IF(D3="Human",0,IF(D3="Mutant",1,IF(D3="Robot",3,2)))</f>
+        <f t="shared" ref="E3:E7" si="1">IF(D3="Human",0,IF(D3="Mutant",1,IF(D3="Robot",3,2)))</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -28661,6 +28712,43 @@
       </c>
       <c r="K6" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Flammie</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>999</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>99</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -38308,8 +38396,8 @@
   <dimension ref="A1:W264"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P78" sqref="P78"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -928,7 +928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10924" uniqueCount="3479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10924" uniqueCount="3478">
   <si>
     <t>Monster</t>
   </si>
@@ -11220,9 +11220,6 @@
   </si>
   <si>
     <t>S7 Chance</t>
-  </si>
-  <si>
-    <t>ColtGun</t>
   </si>
   <si>
     <t>All Allies</t>
@@ -24261,7 +24258,7 @@
         <v>25</v>
       </c>
       <c r="Q183" s="6" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="R183" s="6" t="s">
         <v>543</v>
@@ -28483,7 +28480,7 @@
         <v>Jerk</v>
       </c>
       <c r="B252" s="163" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -29067,7 +29064,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29168,10 +29165,10 @@
         <v>3406</v>
       </c>
       <c r="L2" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="M2" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -29208,7 +29205,7 @@
         <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="P3" t="s">
         <v>1715</v>
@@ -29282,7 +29279,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>3427</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -29291,7 +29288,7 @@
         <v>Zappo</v>
       </c>
       <c r="B6" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="D6" t="s">
         <v>3404</v>
@@ -29325,7 +29322,7 @@
         <v>Flammie</v>
       </c>
       <c r="B7" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="D7" t="s">
         <v>3405</v>
@@ -39001,8 +38998,8 @@
   <dimension ref="A1:Y213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W211" sqref="W211"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X62" sqref="X62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39070,27 +39067,27 @@
         <v>3393</v>
       </c>
       <c r="T1" s="160" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="U1" s="160" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="V1" s="160" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="W1" s="160" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="X1" s="160" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="Y1" s="160" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="str">
-        <f>B2</f>
+        <f t="shared" ref="A2:A47" si="0">B2</f>
         <v>LaserSword</v>
       </c>
       <c r="B2" t="str">
@@ -39132,7 +39129,7 @@
         <v>3381</v>
       </c>
       <c r="R2" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S2" t="s">
         <v>3382</v>
@@ -39140,7 +39137,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="str">
-        <f>B3</f>
+        <f t="shared" si="0"/>
         <v>Sabre</v>
       </c>
       <c r="B3" t="str">
@@ -39185,7 +39182,7 @@
         <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S3" t="s">
         <v>3382</v>
@@ -39193,7 +39190,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="str">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>CatClaw</v>
       </c>
       <c r="B4" t="str">
@@ -39238,7 +39235,7 @@
         <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S4" t="s">
         <v>3382</v>
@@ -39246,7 +39243,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="str">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>Rapier</v>
       </c>
       <c r="B5" t="str">
@@ -39291,7 +39288,7 @@
         <v>7</v>
       </c>
       <c r="R5" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S5" t="s">
         <v>3382</v>
@@ -39299,11 +39296,11 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="str">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>Beak</v>
       </c>
       <c r="B6" t="str">
-        <f>C6&amp;D6</f>
+        <f t="shared" ref="B6:B47" si="1">C6&amp;D6</f>
         <v>Beak</v>
       </c>
       <c r="C6" s="96" t="s">
@@ -39342,7 +39339,7 @@
         <v>6</v>
       </c>
       <c r="R6" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S6" t="s">
         <v>3382</v>
@@ -39350,11 +39347,11 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="str">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>Tail</v>
       </c>
       <c r="B7" t="str">
-        <f>C7&amp;D7</f>
+        <f t="shared" si="1"/>
         <v>Tail</v>
       </c>
       <c r="C7" s="96" t="s">
@@ -39393,7 +39390,7 @@
         <v>8</v>
       </c>
       <c r="R7" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S7" t="s">
         <v>3382</v>
@@ -39401,11 +39398,11 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="str">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>Fin</v>
       </c>
       <c r="B8" t="str">
-        <f>C8&amp;D8</f>
+        <f t="shared" si="1"/>
         <v>Fin</v>
       </c>
       <c r="C8" s="96" t="s">
@@ -39444,7 +39441,7 @@
         <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S8" t="s">
         <v>3382</v>
@@ -39452,11 +39449,11 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="str">
-        <f>B9</f>
+        <f t="shared" si="0"/>
         <v>ComVirus</v>
       </c>
       <c r="B9" t="str">
-        <f>C9&amp;D9</f>
+        <f t="shared" si="1"/>
         <v>ComVirus</v>
       </c>
       <c r="C9" s="96" t="s">
@@ -39500,11 +39497,11 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="str">
-        <f>B10</f>
+        <f t="shared" si="0"/>
         <v>PsiGun</v>
       </c>
       <c r="B10" t="str">
-        <f>C10&amp;D10</f>
+        <f t="shared" si="1"/>
         <v>PsiGun</v>
       </c>
       <c r="C10" s="96" t="s">
@@ -39542,7 +39539,7 @@
         <v>6</v>
       </c>
       <c r="R10" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S10" t="s">
         <v>3386</v>
@@ -39550,11 +39547,11 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="str">
-        <f>B11</f>
+        <f t="shared" si="0"/>
         <v>VampicSword</v>
       </c>
       <c r="B11" t="str">
-        <f>C11&amp;D11</f>
+        <f t="shared" si="1"/>
         <v>VampicSword</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -39595,7 +39592,7 @@
         <v>6</v>
       </c>
       <c r="R11" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S11" t="s">
         <v>3382</v>
@@ -39609,11 +39606,11 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="str">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>Touch</v>
       </c>
       <c r="B12" t="str">
-        <f>C12&amp;D12</f>
+        <f t="shared" si="1"/>
         <v>Touch</v>
       </c>
       <c r="C12" s="96" t="s">
@@ -39650,7 +39647,7 @@
         <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S12" t="s">
         <v>3382</v>
@@ -39667,11 +39664,11 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="str">
-        <f>B13</f>
+        <f t="shared" si="0"/>
         <v>Dissolve</v>
       </c>
       <c r="B13" t="str">
-        <f>C13&amp;D13</f>
+        <f t="shared" si="1"/>
         <v>Dissolve</v>
       </c>
       <c r="C13" s="96" t="s">
@@ -39708,7 +39705,7 @@
         <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S13" t="s">
         <v>3382</v>
@@ -39725,11 +39722,11 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="str">
-        <f>B14</f>
+        <f t="shared" si="0"/>
         <v>Absorb</v>
       </c>
       <c r="B14" t="str">
-        <f>C14&amp;D14</f>
+        <f t="shared" si="1"/>
         <v>Absorb</v>
       </c>
       <c r="C14" s="96" t="s">
@@ -39766,7 +39763,7 @@
         <v>6</v>
       </c>
       <c r="R14" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S14" t="s">
         <v>3382</v>
@@ -39783,11 +39780,11 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="str">
-        <f>B15</f>
+        <f t="shared" si="0"/>
         <v>PsiKnife</v>
       </c>
       <c r="B15" t="str">
-        <f>C15&amp;D15</f>
+        <f t="shared" si="1"/>
         <v>PsiKnife</v>
       </c>
       <c r="C15" s="96" t="s">
@@ -39825,7 +39822,7 @@
         <v>6</v>
       </c>
       <c r="R15" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S15" t="s">
         <v>3382</v>
@@ -39833,11 +39830,11 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="str">
-        <f>B16</f>
+        <f t="shared" si="0"/>
         <v>PsiSword</v>
       </c>
       <c r="B16" t="str">
-        <f>C16&amp;D16</f>
+        <f t="shared" si="1"/>
         <v>PsiSword</v>
       </c>
       <c r="C16" s="96" t="s">
@@ -39875,7 +39872,7 @@
         <v>6</v>
       </c>
       <c r="R16" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S16" t="s">
         <v>3382</v>
@@ -39883,11 +39880,11 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="str">
-        <f>B17</f>
+        <f t="shared" si="0"/>
         <v>FlareBook</v>
       </c>
       <c r="B17" t="str">
-        <f>C17&amp;D17</f>
+        <f t="shared" si="1"/>
         <v>FlareBook</v>
       </c>
       <c r="C17" s="96" t="s">
@@ -39936,11 +39933,11 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="str">
-        <f>B18</f>
+        <f t="shared" si="0"/>
         <v>MageStaff</v>
       </c>
       <c r="B18" t="str">
-        <f>C18&amp;D18</f>
+        <f t="shared" si="1"/>
         <v>MageStaff</v>
       </c>
       <c r="C18" s="96" t="s">
@@ -39992,11 +39989,11 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="str">
-        <f>B19</f>
+        <f t="shared" si="0"/>
         <v>Flame</v>
       </c>
       <c r="B19" t="str">
-        <f>C19&amp;D19</f>
+        <f t="shared" si="1"/>
         <v>Flame</v>
       </c>
       <c r="C19" s="96" t="s">
@@ -40044,11 +40041,11 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="str">
-        <f>B20</f>
+        <f t="shared" si="0"/>
         <v>Gas</v>
       </c>
       <c r="B20" t="str">
-        <f>C20&amp;D20</f>
+        <f t="shared" si="1"/>
         <v>Gas</v>
       </c>
       <c r="C20" s="96" t="s">
@@ -40096,11 +40093,11 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="str">
-        <f>B21</f>
+        <f t="shared" si="0"/>
         <v>Blizzard</v>
       </c>
       <c r="B21" t="str">
-        <f>C21&amp;D21</f>
+        <f t="shared" si="1"/>
         <v>Blizzard</v>
       </c>
       <c r="C21" s="96" t="s">
@@ -40148,11 +40145,11 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="str">
-        <f>B22</f>
+        <f t="shared" si="0"/>
         <v>Lightng</v>
       </c>
       <c r="B22" t="str">
-        <f>C22&amp;D22</f>
+        <f t="shared" si="1"/>
         <v>Lightng</v>
       </c>
       <c r="C22" s="96" t="s">
@@ -40200,11 +40197,11 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="str">
-        <f>B23</f>
+        <f t="shared" si="0"/>
         <v>P-Blast</v>
       </c>
       <c r="B23" t="str">
-        <f>C23&amp;D23</f>
+        <f t="shared" si="1"/>
         <v>P-Blast</v>
       </c>
       <c r="C23" s="96" t="s">
@@ -40249,11 +40246,11 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="str">
-        <f>B24</f>
+        <f t="shared" si="0"/>
         <v>Tornado</v>
       </c>
       <c r="B24" t="str">
-        <f>C24&amp;D24</f>
+        <f t="shared" si="1"/>
         <v>Tornado</v>
       </c>
       <c r="C24" s="96" t="s">
@@ -40298,11 +40295,11 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="str">
-        <f>B25</f>
+        <f t="shared" si="0"/>
         <v>Quake</v>
       </c>
       <c r="B25" t="str">
-        <f>C25&amp;D25</f>
+        <f t="shared" si="1"/>
         <v>Quake</v>
       </c>
       <c r="C25" s="96" t="s">
@@ -40350,11 +40347,11 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="str">
-        <f>B26</f>
+        <f t="shared" si="0"/>
         <v>Whirl</v>
       </c>
       <c r="B26" t="str">
-        <f>C26&amp;D26</f>
+        <f t="shared" si="1"/>
         <v>Whirl</v>
       </c>
       <c r="C26" s="96" t="s">
@@ -40399,11 +40396,11 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="str">
-        <f>B27</f>
+        <f t="shared" si="0"/>
         <v>Flare</v>
       </c>
       <c r="B27" t="str">
-        <f>C27&amp;D27</f>
+        <f t="shared" si="1"/>
         <v>Flare</v>
       </c>
       <c r="C27" s="96" t="s">
@@ -40448,11 +40445,11 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="str">
-        <f>B28</f>
+        <f t="shared" si="0"/>
         <v>Acid</v>
       </c>
       <c r="B28" t="str">
-        <f>C28&amp;D28</f>
+        <f t="shared" si="1"/>
         <v>Acid</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -40500,11 +40497,11 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="str">
-        <f>B29</f>
+        <f t="shared" si="0"/>
         <v>HealStaff</v>
       </c>
       <c r="B29" t="str">
-        <f>C29&amp;D29</f>
+        <f t="shared" si="1"/>
         <v>HealStaff</v>
       </c>
       <c r="C29" s="96" t="s">
@@ -40550,11 +40547,11 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="str">
-        <f>B30</f>
+        <f t="shared" si="0"/>
         <v>CureBook</v>
       </c>
       <c r="B30" t="str">
-        <f>C30&amp;D30</f>
+        <f t="shared" si="1"/>
         <v>CureBook</v>
       </c>
       <c r="C30" s="96" t="s">
@@ -40600,11 +40597,11 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="str">
-        <f>B31</f>
+        <f t="shared" si="0"/>
         <v>Cure</v>
       </c>
       <c r="B31" t="str">
-        <f>C31&amp;D31</f>
+        <f t="shared" si="1"/>
         <v>Cure</v>
       </c>
       <c r="C31" s="96" t="s">
@@ -40649,11 +40646,11 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="str">
-        <f>B32</f>
+        <f t="shared" si="0"/>
         <v>Honey</v>
       </c>
       <c r="B32" t="str">
-        <f>C32&amp;D32</f>
+        <f t="shared" si="1"/>
         <v>Honey</v>
       </c>
       <c r="C32" s="96" t="s">
@@ -40698,11 +40695,11 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="str">
-        <f>B33</f>
+        <f t="shared" si="0"/>
         <v>Heal</v>
       </c>
       <c r="B33" t="str">
-        <f>C33&amp;D33</f>
+        <f t="shared" si="1"/>
         <v>Heal</v>
       </c>
       <c r="C33" s="96" t="s">
@@ -40747,11 +40744,11 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="str">
-        <f>B34</f>
+        <f t="shared" si="0"/>
         <v>Burning</v>
       </c>
       <c r="B34" t="str">
-        <f>C34&amp;D34</f>
+        <f t="shared" si="1"/>
         <v>Burning</v>
       </c>
       <c r="C34" s="96" t="s">
@@ -40799,11 +40796,11 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="str">
-        <f>B35</f>
+        <f t="shared" si="0"/>
         <v>PrayerBook</v>
       </c>
       <c r="B35" t="str">
-        <f>C35&amp;D35</f>
+        <f t="shared" si="1"/>
         <v>PrayerBook</v>
       </c>
       <c r="C35" s="96" t="s">
@@ -40847,16 +40844,16 @@
         <v>3386</v>
       </c>
       <c r="T35" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="str">
-        <f>B36</f>
+        <f t="shared" si="0"/>
         <v>FireBook</v>
       </c>
       <c r="B36" t="str">
-        <f>C36&amp;D36</f>
+        <f t="shared" si="1"/>
         <v>FireBook</v>
       </c>
       <c r="C36" s="96" t="s">
@@ -40905,11 +40902,11 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="str">
-        <f>B37</f>
+        <f t="shared" si="0"/>
         <v>IceBook</v>
       </c>
       <c r="B37" t="str">
-        <f>C37&amp;D37</f>
+        <f t="shared" si="1"/>
         <v>IceBook</v>
       </c>
       <c r="C37" s="96" t="s">
@@ -40958,11 +40955,11 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="str">
-        <f>B38</f>
+        <f t="shared" si="0"/>
         <v>ThunderBook</v>
       </c>
       <c r="B38" t="str">
-        <f>C38&amp;D38</f>
+        <f t="shared" si="1"/>
         <v>ThunderBook</v>
       </c>
       <c r="C38" s="96" t="s">
@@ -41011,11 +41008,11 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="str">
-        <f>B39</f>
+        <f t="shared" si="0"/>
         <v>FogBook</v>
       </c>
       <c r="B39" t="str">
-        <f>C39&amp;D39</f>
+        <f t="shared" si="1"/>
         <v>FogBook</v>
       </c>
       <c r="C39" s="96" t="s">
@@ -41064,11 +41061,11 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="str">
-        <f>B40</f>
+        <f t="shared" si="0"/>
         <v>Thunder</v>
       </c>
       <c r="B40" t="str">
-        <f>C40&amp;D40</f>
+        <f t="shared" si="1"/>
         <v>Thunder</v>
       </c>
       <c r="C40" s="96" t="s">
@@ -41116,11 +41113,11 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="str">
-        <f>B41</f>
+        <f t="shared" si="0"/>
         <v>Ice</v>
       </c>
       <c r="B41" t="str">
-        <f>C41&amp;D41</f>
+        <f t="shared" si="1"/>
         <v>Ice</v>
       </c>
       <c r="C41" s="96" t="s">
@@ -41168,11 +41165,11 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="str">
-        <f>B42</f>
+        <f t="shared" si="0"/>
         <v>Fire</v>
       </c>
       <c r="B42" t="str">
-        <f>C42&amp;D42</f>
+        <f t="shared" si="1"/>
         <v>Fire</v>
       </c>
       <c r="C42" s="96" t="s">
@@ -41220,11 +41217,11 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="str">
-        <f>B43</f>
+        <f t="shared" si="0"/>
         <v>Beam</v>
       </c>
       <c r="B43" t="str">
-        <f>C43&amp;D43</f>
+        <f t="shared" si="1"/>
         <v>Beam</v>
       </c>
       <c r="C43" s="96" t="s">
@@ -41269,11 +41266,11 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="str">
-        <f>B44</f>
+        <f t="shared" si="0"/>
         <v>Dispel</v>
       </c>
       <c r="B44" t="str">
-        <f>C44&amp;D44</f>
+        <f t="shared" si="1"/>
         <v>Dispel</v>
       </c>
       <c r="C44" s="96" t="s">
@@ -41316,16 +41313,16 @@
         <v>3386</v>
       </c>
       <c r="T44" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="str">
-        <f>B45</f>
+        <f t="shared" si="0"/>
         <v>D-Beam</v>
       </c>
       <c r="B45" t="str">
-        <f>C45&amp;D45</f>
+        <f t="shared" si="1"/>
         <v>D-Beam</v>
       </c>
       <c r="C45" s="96" t="s">
@@ -41368,16 +41365,16 @@
         <v>3386</v>
       </c>
       <c r="T45" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="str">
-        <f>B46</f>
+        <f t="shared" si="0"/>
         <v>Squirt</v>
       </c>
       <c r="B46" t="str">
-        <f>C46&amp;D46</f>
+        <f t="shared" si="1"/>
         <v>Squirt</v>
       </c>
       <c r="C46" s="96" t="s">
@@ -41425,11 +41422,11 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="str">
-        <f>B47</f>
+        <f t="shared" si="0"/>
         <v>SunBurst</v>
       </c>
       <c r="B47" t="str">
-        <f>C47&amp;D47</f>
+        <f t="shared" si="1"/>
         <v>SunBurst</v>
       </c>
       <c r="C47" s="96" t="s">
@@ -41472,15 +41469,15 @@
         <v>3386</v>
       </c>
       <c r="T47" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="B48" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="C48" s="96" t="s">
         <v>75</v>
@@ -41518,13 +41515,13 @@
         <v>6</v>
       </c>
       <c r="R48" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S48" t="s">
         <v>3388</v>
       </c>
       <c r="Y48" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -41570,10 +41567,10 @@
         <v>13</v>
       </c>
       <c r="P49" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R49" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S49" t="s">
         <v>3387</v>
@@ -41581,7 +41578,7 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="str">
-        <f>B50</f>
+        <f t="shared" ref="A50:A81" si="2">B50</f>
         <v>NukeBomb</v>
       </c>
       <c r="B50" t="str">
@@ -41622,10 +41619,10 @@
         <v>16</v>
       </c>
       <c r="P50" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R50" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S50" t="s">
         <v>3387</v>
@@ -41633,7 +41630,7 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="str">
-        <f>B51</f>
+        <f t="shared" si="2"/>
         <v>SamuraiBow</v>
       </c>
       <c r="B51" t="str">
@@ -41676,10 +41673,10 @@
         <v>1786</v>
       </c>
       <c r="P51" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R51" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S51" t="s">
         <v>3386</v>
@@ -41687,7 +41684,7 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="str">
-        <f>B52</f>
+        <f t="shared" si="2"/>
         <v>SMG</v>
       </c>
       <c r="B52" t="s">
@@ -41729,10 +41726,10 @@
         <v>5</v>
       </c>
       <c r="P52" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R52" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S52" t="s">
         <v>3386</v>
@@ -41743,7 +41740,7 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="str">
-        <f>B53</f>
+        <f t="shared" si="2"/>
         <v>Grenade</v>
       </c>
       <c r="B53" t="str">
@@ -41784,10 +41781,10 @@
         <v>7</v>
       </c>
       <c r="P53" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R53" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S53" t="s">
         <v>3386</v>
@@ -41798,7 +41795,7 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="str">
-        <f>B54</f>
+        <f t="shared" si="2"/>
         <v>Bazooka</v>
       </c>
       <c r="B54" t="str">
@@ -41839,10 +41836,10 @@
         <v>9</v>
       </c>
       <c r="P54" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R54" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S54" t="s">
         <v>3386</v>
@@ -41853,7 +41850,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="str">
-        <f>B55</f>
+        <f t="shared" si="2"/>
         <v>Vulcan</v>
       </c>
       <c r="B55" t="str">
@@ -41894,10 +41891,10 @@
         <v>11</v>
       </c>
       <c r="P55" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R55" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S55" t="s">
         <v>3386</v>
@@ -41908,7 +41905,7 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="str">
-        <f>B56</f>
+        <f t="shared" si="2"/>
         <v>Tank</v>
       </c>
       <c r="B56" t="str">
@@ -41949,10 +41946,10 @@
         <v>13</v>
       </c>
       <c r="P56" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R56" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S56" t="s">
         <v>3386</v>
@@ -41969,7 +41966,7 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="str">
-        <f>B57</f>
+        <f t="shared" si="2"/>
         <v>FireGun</v>
       </c>
       <c r="B57" t="str">
@@ -42012,10 +42009,10 @@
         <v>9</v>
       </c>
       <c r="P57" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R57" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S57" t="s">
         <v>3386</v>
@@ -42029,7 +42026,7 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" t="str">
-        <f>B58</f>
+        <f t="shared" si="2"/>
         <v>Bow</v>
       </c>
       <c r="B58" t="str">
@@ -42072,10 +42069,10 @@
         <v>1739</v>
       </c>
       <c r="P58" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R58" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S58" t="s">
         <v>3382</v>
@@ -42089,7 +42086,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" t="str">
-        <f>B59</f>
+        <f t="shared" si="2"/>
         <v>GoldBow</v>
       </c>
       <c r="B59" t="str">
@@ -42132,10 +42129,10 @@
         <v>1743</v>
       </c>
       <c r="P59" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R59" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S59" t="s">
         <v>3382</v>
@@ -42149,7 +42146,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" t="str">
-        <f>B60</f>
+        <f t="shared" si="2"/>
         <v>Coin</v>
       </c>
       <c r="B60" t="str">
@@ -42190,10 +42187,10 @@
         <v>1877</v>
       </c>
       <c r="P60" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R60" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S60" t="s">
         <v>3382</v>
@@ -42207,7 +42204,7 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" t="str">
-        <f>B61</f>
+        <f t="shared" si="2"/>
         <v>Rocket</v>
       </c>
       <c r="B61" t="str">
@@ -42248,10 +42245,10 @@
         <v>1673</v>
       </c>
       <c r="P61" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R61" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S61" t="s">
         <v>3382</v>
@@ -42262,10 +42259,13 @@
       <c r="V61">
         <v>55</v>
       </c>
+      <c r="X61">
+        <v>87</v>
+      </c>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" t="str">
-        <f>B62</f>
+        <f t="shared" si="2"/>
         <v>Colt</v>
       </c>
       <c r="B62" t="str">
@@ -42312,10 +42312,10 @@
         <v>1664</v>
       </c>
       <c r="P62" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R62" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S62" t="s">
         <v>3382</v>
@@ -42332,7 +42332,7 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="str">
-        <f>B63</f>
+        <f t="shared" si="2"/>
         <v>Musket</v>
       </c>
       <c r="B63" t="str">
@@ -42377,10 +42377,10 @@
         <v>1677</v>
       </c>
       <c r="P63" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R63" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S63" t="s">
         <v>3382</v>
@@ -42397,7 +42397,7 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="str">
-        <f>B64</f>
+        <f t="shared" si="2"/>
         <v>Magnum</v>
       </c>
       <c r="B64" t="str">
@@ -42442,10 +42442,10 @@
         <v>1700</v>
       </c>
       <c r="P64" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R64" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S64" t="s">
         <v>3382</v>
@@ -42462,7 +42462,7 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="str">
-        <f>B65</f>
+        <f t="shared" si="2"/>
         <v>LaserGun</v>
       </c>
       <c r="B65" t="str">
@@ -42501,10 +42501,10 @@
         <v>1786</v>
       </c>
       <c r="P65" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R65" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S65" t="s">
         <v>3382</v>
@@ -42518,7 +42518,7 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="str">
-        <f>B66</f>
+        <f t="shared" si="2"/>
         <v>GlassSword</v>
       </c>
       <c r="B66" t="str">
@@ -42559,16 +42559,16 @@
         <v>1695</v>
       </c>
       <c r="P66" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R66" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S66" t="s">
         <v>3382</v>
       </c>
       <c r="T66" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="U66">
         <v>1000</v>
@@ -42579,7 +42579,7 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="str">
-        <f>B67</f>
+        <f t="shared" si="2"/>
         <v>Temptat</v>
       </c>
       <c r="B67" t="str">
@@ -42616,7 +42616,7 @@
         <v>1714</v>
       </c>
       <c r="P67" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R67" t="s">
         <v>1854</v>
@@ -42630,7 +42630,7 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="str">
-        <f>B68</f>
+        <f t="shared" si="2"/>
         <v>StunGun</v>
       </c>
       <c r="B68" t="s">
@@ -42668,10 +42668,10 @@
         <v>1883</v>
       </c>
       <c r="P68" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R68" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S68" t="s">
         <v>3382</v>
@@ -42682,7 +42682,7 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="str">
-        <f>B69</f>
+        <f t="shared" si="2"/>
         <v>WizardStaff</v>
       </c>
       <c r="B69" t="str">
@@ -42721,7 +42721,7 @@
         <v>1813</v>
       </c>
       <c r="P69" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R69" t="s">
         <v>1854</v>
@@ -42730,12 +42730,12 @@
         <v>3387</v>
       </c>
       <c r="W69" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="str">
-        <f>B70</f>
+        <f t="shared" si="2"/>
         <v>SleepBook</v>
       </c>
       <c r="B70" t="str">
@@ -42774,7 +42774,7 @@
         <v>1714</v>
       </c>
       <c r="P70" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R70" t="s">
         <v>1854</v>
@@ -42788,7 +42788,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="str">
-        <f>B71</f>
+        <f t="shared" si="2"/>
         <v>StoneBook</v>
       </c>
       <c r="B71" t="str">
@@ -42827,7 +42827,7 @@
         <v>1801</v>
       </c>
       <c r="P71" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R71" t="s">
         <v>1854</v>
@@ -42841,7 +42841,7 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="str">
-        <f>B72</f>
+        <f t="shared" si="2"/>
         <v>DeathBook</v>
       </c>
       <c r="B72" t="str">
@@ -42880,7 +42880,7 @@
         <v>1804</v>
       </c>
       <c r="P72" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R72" t="s">
         <v>1854</v>
@@ -42889,15 +42889,15 @@
         <v>3386</v>
       </c>
       <c r="T72" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="W72" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="str">
-        <f>B73</f>
+        <f t="shared" si="2"/>
         <v>Xcalibr</v>
       </c>
       <c r="B73" t="str">
@@ -42944,7 +42944,7 @@
         <v>15</v>
       </c>
       <c r="R73" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S73" t="s">
         <v>3386</v>
@@ -42955,7 +42955,7 @@
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="str">
-        <f>B74</f>
+        <f t="shared" si="2"/>
         <v>Gungnir</v>
       </c>
       <c r="B74" t="str">
@@ -43000,7 +43000,7 @@
         <v>15</v>
       </c>
       <c r="R74" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S74" t="s">
         <v>3386</v>
@@ -43011,11 +43011,11 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="str">
-        <f>B75</f>
+        <f t="shared" si="2"/>
         <v>SevenSword</v>
       </c>
       <c r="B75" t="str">
-        <f>C75&amp;D75</f>
+        <f t="shared" ref="B75:B89" si="3">C75&amp;D75</f>
         <v>SevenSword</v>
       </c>
       <c r="C75" s="96" t="s">
@@ -43056,7 +43056,7 @@
         <v>15</v>
       </c>
       <c r="R75" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S75" t="s">
         <v>3382</v>
@@ -43064,11 +43064,11 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="str">
-        <f>B76</f>
+        <f t="shared" si="2"/>
         <v>RevengeSword</v>
       </c>
       <c r="B76" t="str">
-        <f>C76&amp;D76</f>
+        <f t="shared" si="3"/>
         <v>RevengeSword</v>
       </c>
       <c r="C76" s="96" t="s">
@@ -43106,7 +43106,7 @@
         <v>4</v>
       </c>
       <c r="R76" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S76" t="s">
         <v>121</v>
@@ -43117,11 +43117,11 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="str">
-        <f>B77</f>
+        <f t="shared" si="2"/>
         <v>Counter</v>
       </c>
       <c r="B77" t="str">
-        <f>C77&amp;D77</f>
+        <f t="shared" si="3"/>
         <v>Counter</v>
       </c>
       <c r="C77" s="96" t="s">
@@ -43159,7 +43159,7 @@
         <v>4</v>
       </c>
       <c r="R77" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S77" t="s">
         <v>121</v>
@@ -43170,15 +43170,15 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="str">
-        <f>B78</f>
+        <f t="shared" si="2"/>
         <v>Backlash</v>
       </c>
       <c r="B78" t="str">
-        <f>C78&amp;D78</f>
+        <f t="shared" si="3"/>
         <v>Backlash</v>
       </c>
       <c r="C78" s="96" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D78" s="98"/>
       <c r="E78" s="99" t="s">
@@ -43208,7 +43208,7 @@
         <v>4</v>
       </c>
       <c r="R78" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S78" t="s">
         <v>121</v>
@@ -43217,16 +43217,16 @@
         <v>121</v>
       </c>
       <c r="Y78" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="str">
-        <f>B79</f>
+        <f t="shared" si="2"/>
         <v>W-Pincer</v>
       </c>
       <c r="B79" t="str">
-        <f>C79&amp;D79</f>
+        <f t="shared" si="3"/>
         <v>W-Pincer</v>
       </c>
       <c r="C79" s="96" t="s">
@@ -43263,19 +43263,19 @@
         <v>8</v>
       </c>
       <c r="R79" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S79" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="str">
-        <f>B80</f>
+        <f t="shared" si="2"/>
         <v>W-Attack</v>
       </c>
       <c r="B80" t="str">
-        <f>C80&amp;D80</f>
+        <f t="shared" si="3"/>
         <v>W-Attack</v>
       </c>
       <c r="C80" s="96" t="s">
@@ -43314,19 +43314,19 @@
         <v>6</v>
       </c>
       <c r="R80" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S80" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="str">
-        <f>B81</f>
+        <f t="shared" si="2"/>
         <v>4-Heads</v>
       </c>
       <c r="B81" t="str">
-        <f>C81&amp;D81</f>
+        <f t="shared" si="3"/>
         <v>4-Heads</v>
       </c>
       <c r="C81" s="96" t="s">
@@ -43365,19 +43365,19 @@
         <v>5</v>
       </c>
       <c r="R81" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S81" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="str">
-        <f>B82</f>
+        <f t="shared" ref="A82:A113" si="4">B82</f>
         <v>8-Legs</v>
       </c>
       <c r="B82" t="str">
-        <f>C82&amp;D82</f>
+        <f t="shared" si="3"/>
         <v>8-Legs</v>
       </c>
       <c r="C82" s="96" t="s">
@@ -43416,19 +43416,19 @@
         <v>5</v>
       </c>
       <c r="R82" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S82" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="str">
-        <f>B83</f>
+        <f t="shared" si="4"/>
         <v>2-Swords</v>
       </c>
       <c r="B83" t="str">
-        <f>C83&amp;D83</f>
+        <f t="shared" si="3"/>
         <v>2-Swords</v>
       </c>
       <c r="C83" s="96" t="s">
@@ -43465,19 +43465,19 @@
         <v>8</v>
       </c>
       <c r="R83" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S83" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="str">
-        <f>B84</f>
+        <f t="shared" si="4"/>
         <v>2-Tusks</v>
       </c>
       <c r="B84" t="str">
-        <f>C84&amp;D84</f>
+        <f t="shared" si="3"/>
         <v>2-Tusks</v>
       </c>
       <c r="C84" s="96" t="s">
@@ -43514,19 +43514,19 @@
         <v>8</v>
       </c>
       <c r="R84" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S84" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="str">
-        <f>B85</f>
+        <f t="shared" si="4"/>
         <v>3-Heads</v>
       </c>
       <c r="B85" t="str">
-        <f>C85&amp;D85</f>
+        <f t="shared" si="3"/>
         <v>3-Heads</v>
       </c>
       <c r="C85" s="96" t="s">
@@ -43565,19 +43565,19 @@
         <v>6</v>
       </c>
       <c r="R85" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S85" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="str">
-        <f>B86</f>
+        <f t="shared" si="4"/>
         <v>3-Horns</v>
       </c>
       <c r="B86" t="str">
-        <f>C86&amp;D86</f>
+        <f t="shared" si="3"/>
         <v>3-Horns</v>
       </c>
       <c r="C86" s="96" t="s">
@@ -43616,19 +43616,19 @@
         <v>8</v>
       </c>
       <c r="R86" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S86" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="str">
-        <f>B87</f>
+        <f t="shared" si="4"/>
         <v>6-Arms</v>
       </c>
       <c r="B87" t="str">
-        <f>C87&amp;D87</f>
+        <f t="shared" si="3"/>
         <v>6-Arms</v>
       </c>
       <c r="C87" s="96" t="s">
@@ -43665,19 +43665,19 @@
         <v>5</v>
       </c>
       <c r="R87" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S87" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="str">
-        <f>B88</f>
+        <f t="shared" si="4"/>
         <v>W-Kick</v>
       </c>
       <c r="B88" t="str">
-        <f>C88&amp;D88</f>
+        <f t="shared" si="3"/>
         <v>W-Kick</v>
       </c>
       <c r="C88" s="96" t="s">
@@ -43714,19 +43714,19 @@
         <v>8</v>
       </c>
       <c r="R88" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S88" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="str">
-        <f>B89</f>
+        <f t="shared" si="4"/>
         <v>Abacus</v>
       </c>
       <c r="B89" t="str">
-        <f>C89&amp;D89</f>
+        <f t="shared" si="3"/>
         <v>Abacus</v>
       </c>
       <c r="C89" s="96" t="s">
@@ -43765,7 +43765,7 @@
         <v>10</v>
       </c>
       <c r="R89" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S89" t="s">
         <v>3382</v>
@@ -43773,7 +43773,7 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="str">
-        <f>B90</f>
+        <f t="shared" si="4"/>
         <v>Whip</v>
       </c>
       <c r="B90" t="s">
@@ -43817,7 +43817,7 @@
         <v>7</v>
       </c>
       <c r="R90" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S90" t="s">
         <v>3382</v>
@@ -43831,11 +43831,11 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="str">
-        <f>B91</f>
+        <f t="shared" si="4"/>
         <v>BlitzWhip</v>
       </c>
       <c r="B91" t="str">
-        <f>C91&amp;D91</f>
+        <f t="shared" ref="B91:B106" si="5">C91&amp;D91</f>
         <v>BlitzWhip</v>
       </c>
       <c r="C91" s="96" t="s">
@@ -43876,7 +43876,7 @@
         <v>10</v>
       </c>
       <c r="R91" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S91" t="s">
         <v>3382</v>
@@ -43890,11 +43890,11 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="str">
-        <f>B92</f>
+        <f t="shared" si="4"/>
         <v>Nail</v>
       </c>
       <c r="B92" t="str">
-        <f>C92&amp;D92</f>
+        <f t="shared" si="5"/>
         <v>Nail</v>
       </c>
       <c r="C92" s="96" t="s">
@@ -43933,7 +43933,7 @@
         <v>6</v>
       </c>
       <c r="R92" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S92" t="s">
         <v>3382</v>
@@ -43941,11 +43941,11 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="str">
-        <f>B93</f>
+        <f t="shared" si="4"/>
         <v>Tusk</v>
       </c>
       <c r="B93" t="str">
-        <f>C93&amp;D93</f>
+        <f t="shared" si="5"/>
         <v>Tusk</v>
       </c>
       <c r="C93" s="96" t="s">
@@ -43984,7 +43984,7 @@
         <v>8</v>
       </c>
       <c r="R93" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S93" t="s">
         <v>3382</v>
@@ -43992,11 +43992,11 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="str">
-        <f>B94</f>
+        <f t="shared" si="4"/>
         <v>Tongue</v>
       </c>
       <c r="B94" t="str">
-        <f>C94&amp;D94</f>
+        <f t="shared" si="5"/>
         <v>Tongue</v>
       </c>
       <c r="C94" s="96" t="s">
@@ -44035,7 +44035,7 @@
         <v>6</v>
       </c>
       <c r="R94" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S94" t="s">
         <v>3382</v>
@@ -44043,11 +44043,11 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="str">
-        <f>B95</f>
+        <f t="shared" si="4"/>
         <v>Stab</v>
       </c>
       <c r="B95" t="str">
-        <f>C95&amp;D95</f>
+        <f t="shared" si="5"/>
         <v>Stab</v>
       </c>
       <c r="C95" s="96" t="s">
@@ -44086,7 +44086,7 @@
         <v>6</v>
       </c>
       <c r="R95" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S95" t="s">
         <v>3382</v>
@@ -44094,11 +44094,11 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="str">
-        <f>B96</f>
+        <f t="shared" si="4"/>
         <v>Branch</v>
       </c>
       <c r="B96" t="str">
-        <f>C96&amp;D96</f>
+        <f t="shared" si="5"/>
         <v>Branch</v>
       </c>
       <c r="C96" s="96" t="s">
@@ -44137,7 +44137,7 @@
         <v>6</v>
       </c>
       <c r="R96" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S96" t="s">
         <v>3382</v>
@@ -44145,11 +44145,11 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="str">
-        <f>B97</f>
+        <f t="shared" si="4"/>
         <v>Bash</v>
       </c>
       <c r="B97" t="str">
-        <f>C97&amp;D97</f>
+        <f t="shared" si="5"/>
         <v>Bash</v>
       </c>
       <c r="C97" s="96" t="s">
@@ -44188,7 +44188,7 @@
         <v>8</v>
       </c>
       <c r="R97" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S97" t="s">
         <v>3382</v>
@@ -44196,11 +44196,11 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="str">
-        <f>B98</f>
+        <f t="shared" si="4"/>
         <v>Punch</v>
       </c>
       <c r="B98" t="str">
-        <f>C98&amp;D98</f>
+        <f t="shared" si="5"/>
         <v>Punch</v>
       </c>
       <c r="C98" s="96" t="s">
@@ -44239,7 +44239,7 @@
         <v>6</v>
       </c>
       <c r="R98" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S98" t="s">
         <v>3382</v>
@@ -44247,11 +44247,11 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="str">
-        <f>B99</f>
+        <f t="shared" si="4"/>
         <v>Kick</v>
       </c>
       <c r="B99" t="str">
-        <f>C99&amp;D99</f>
+        <f t="shared" si="5"/>
         <v>Kick</v>
       </c>
       <c r="C99" s="96" t="s">
@@ -44290,7 +44290,7 @@
         <v>8</v>
       </c>
       <c r="R99" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S99" t="s">
         <v>3382</v>
@@ -44298,11 +44298,11 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="str">
-        <f>B100</f>
+        <f t="shared" si="4"/>
         <v>Horn</v>
       </c>
       <c r="B100" t="str">
-        <f>C100&amp;D100</f>
+        <f t="shared" si="5"/>
         <v>Horn</v>
       </c>
       <c r="C100" s="96" t="s">
@@ -44341,7 +44341,7 @@
         <v>8</v>
       </c>
       <c r="R100" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S100" t="s">
         <v>3382</v>
@@ -44349,11 +44349,11 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="str">
-        <f>B101</f>
+        <f t="shared" si="4"/>
         <v>Thorn</v>
       </c>
       <c r="B101" t="str">
-        <f>C101&amp;D101</f>
+        <f t="shared" si="5"/>
         <v>Thorn</v>
       </c>
       <c r="C101" s="96" t="s">
@@ -44392,7 +44392,7 @@
         <v>6</v>
       </c>
       <c r="R101" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S101" t="s">
         <v>3382</v>
@@ -44400,11 +44400,11 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="str">
-        <f>B102</f>
+        <f t="shared" si="4"/>
         <v>Tentacle</v>
       </c>
       <c r="B102" t="str">
-        <f>C102&amp;D102</f>
+        <f t="shared" si="5"/>
         <v>Tentacle</v>
       </c>
       <c r="C102" s="96" t="s">
@@ -44443,7 +44443,7 @@
         <v>6</v>
       </c>
       <c r="R102" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S102" t="s">
         <v>3382</v>
@@ -44451,11 +44451,11 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="str">
-        <f>B103</f>
+        <f t="shared" si="4"/>
         <v>Hammer</v>
       </c>
       <c r="B103" t="str">
-        <f>C103&amp;D103</f>
+        <f t="shared" si="5"/>
         <v>Hammer</v>
       </c>
       <c r="C103" s="97" t="s">
@@ -44494,7 +44494,7 @@
         <v>6</v>
       </c>
       <c r="R103" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S103" t="s">
         <v>3382</v>
@@ -44502,11 +44502,11 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="str">
-        <f>B104</f>
+        <f t="shared" si="4"/>
         <v>LongSword</v>
       </c>
       <c r="B104" t="str">
-        <f>C104&amp;D104</f>
+        <f t="shared" si="5"/>
         <v>LongSword</v>
       </c>
       <c r="C104" s="96" t="s">
@@ -44547,7 +44547,7 @@
         <v>7</v>
       </c>
       <c r="R104" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S104" t="s">
         <v>3382</v>
@@ -44555,11 +44555,11 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="str">
-        <f>B105</f>
+        <f t="shared" si="4"/>
         <v>AxeAxe</v>
       </c>
       <c r="B105" t="str">
-        <f>C105&amp;D105</f>
+        <f t="shared" si="5"/>
         <v>AxeAxe</v>
       </c>
       <c r="C105" s="96" t="s">
@@ -44600,7 +44600,7 @@
         <v>8</v>
       </c>
       <c r="R105" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S105" t="s">
         <v>3382</v>
@@ -44608,11 +44608,11 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="str">
-        <f>B106</f>
+        <f t="shared" si="4"/>
         <v>BattleSword</v>
       </c>
       <c r="B106" t="str">
-        <f>C106&amp;D106</f>
+        <f t="shared" si="5"/>
         <v>BattleSword</v>
       </c>
       <c r="C106" s="96" t="s">
@@ -44653,7 +44653,7 @@
         <v>9</v>
       </c>
       <c r="R106" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S106" t="s">
         <v>3382</v>
@@ -44661,7 +44661,7 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="str">
-        <f>B107</f>
+        <f t="shared" si="4"/>
         <v>Katana</v>
       </c>
       <c r="B107" t="str">
@@ -44706,7 +44706,7 @@
         <v>10</v>
       </c>
       <c r="R107" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S107" t="s">
         <v>3382</v>
@@ -44714,11 +44714,11 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="str">
-        <f>B108</f>
+        <f t="shared" si="4"/>
         <v>GoldSword</v>
       </c>
       <c r="B108" t="str">
-        <f>C108&amp;D108</f>
+        <f t="shared" ref="B108:B117" si="6">C108&amp;D108</f>
         <v>GoldSword</v>
       </c>
       <c r="C108" s="96" t="s">
@@ -44759,7 +44759,7 @@
         <v>11</v>
       </c>
       <c r="R108" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S108" t="s">
         <v>3382</v>
@@ -44767,11 +44767,11 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="str">
-        <f>B109</f>
+        <f t="shared" si="4"/>
         <v>CoralSword</v>
       </c>
       <c r="B109" t="str">
-        <f>C109&amp;D109</f>
+        <f t="shared" si="6"/>
         <v>CoralSword</v>
       </c>
       <c r="C109" s="96" t="s">
@@ -44812,7 +44812,7 @@
         <v>13</v>
       </c>
       <c r="R109" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S109" t="s">
         <v>3382</v>
@@ -44823,11 +44823,11 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="str">
-        <f>B110</f>
+        <f t="shared" si="4"/>
         <v>OgreAxe</v>
       </c>
       <c r="B110" t="str">
-        <f>C110&amp;D110</f>
+        <f t="shared" si="6"/>
         <v>OgreAxe</v>
       </c>
       <c r="C110" s="96" t="s">
@@ -44868,7 +44868,7 @@
         <v>13</v>
       </c>
       <c r="R110" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S110" t="s">
         <v>3382</v>
@@ -44879,11 +44879,11 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="str">
-        <f>B111</f>
+        <f t="shared" si="4"/>
         <v>DragonSword</v>
       </c>
       <c r="B111" t="str">
-        <f>C111&amp;D111</f>
+        <f t="shared" si="6"/>
         <v>DragonSword</v>
       </c>
       <c r="C111" s="96" t="s">
@@ -44924,7 +44924,7 @@
         <v>14</v>
       </c>
       <c r="R111" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S111" t="s">
         <v>3382</v>
@@ -44935,11 +44935,11 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="str">
-        <f>B112</f>
+        <f t="shared" si="4"/>
         <v>SunSword</v>
       </c>
       <c r="B112" t="str">
-        <f>C112&amp;D112</f>
+        <f t="shared" si="6"/>
         <v>SunSword</v>
       </c>
       <c r="C112" s="96" t="s">
@@ -44980,22 +44980,22 @@
         <v>15</v>
       </c>
       <c r="R112" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S112" t="s">
         <v>3382</v>
       </c>
       <c r="T112" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="113" spans="1:24">
       <c r="A113" t="str">
-        <f>B113</f>
+        <f t="shared" si="4"/>
         <v>FlameSword</v>
       </c>
       <c r="B113" t="str">
-        <f>C113&amp;D113</f>
+        <f t="shared" si="6"/>
         <v>FlameSword</v>
       </c>
       <c r="C113" s="96" t="s">
@@ -45038,7 +45038,7 @@
         <v>12</v>
       </c>
       <c r="R113" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S113" t="s">
         <v>3382</v>
@@ -45049,11 +45049,11 @@
     </row>
     <row r="114" spans="1:24">
       <c r="A114" t="str">
-        <f>B114</f>
+        <f t="shared" ref="A114:A145" si="7">B114</f>
         <v>IceSword</v>
       </c>
       <c r="B114" t="str">
-        <f>C114&amp;D114</f>
+        <f t="shared" si="6"/>
         <v>IceSword</v>
       </c>
       <c r="C114" s="96" t="s">
@@ -45096,7 +45096,7 @@
         <v>12</v>
       </c>
       <c r="R114" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S114" t="s">
         <v>3382</v>
@@ -45107,11 +45107,11 @@
     </row>
     <row r="115" spans="1:24">
       <c r="A115" t="str">
-        <f>B115</f>
+        <f t="shared" si="7"/>
         <v>ThunderAxe</v>
       </c>
       <c r="B115" t="str">
-        <f>C115&amp;D115</f>
+        <f t="shared" si="6"/>
         <v>ThunderAxe</v>
       </c>
       <c r="C115" s="96" t="s">
@@ -45154,7 +45154,7 @@
         <v>12</v>
       </c>
       <c r="R115" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S115" t="s">
         <v>3382</v>
@@ -45165,11 +45165,11 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116" t="str">
-        <f>B116</f>
+        <f t="shared" si="7"/>
         <v>DefendSword</v>
       </c>
       <c r="B116" t="str">
-        <f>C116&amp;D116</f>
+        <f t="shared" si="6"/>
         <v>DefendSword</v>
       </c>
       <c r="C116" s="96" t="s">
@@ -45212,7 +45212,7 @@
         <v>14</v>
       </c>
       <c r="R116" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S116" t="s">
         <v>3382</v>
@@ -45226,11 +45226,11 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117" t="str">
-        <f>B117</f>
+        <f t="shared" si="7"/>
         <v>RuneAxe</v>
       </c>
       <c r="B117" t="str">
-        <f>C117&amp;D117</f>
+        <f t="shared" si="6"/>
         <v>RuneAxe</v>
       </c>
       <c r="C117" s="96" t="s">
@@ -45271,13 +45271,13 @@
         <v>12</v>
       </c>
       <c r="R117" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S117" t="s">
         <v>3382</v>
       </c>
       <c r="W117" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="X117">
         <v>100</v>
@@ -45285,7 +45285,7 @@
     </row>
     <row r="118" spans="1:24">
       <c r="A118" t="str">
-        <f>B118</f>
+        <f t="shared" si="7"/>
         <v>Muramas</v>
       </c>
       <c r="B118" t="str">
@@ -45330,22 +45330,22 @@
         <v>15</v>
       </c>
       <c r="R118" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S118" t="s">
         <v>3382</v>
       </c>
       <c r="T118" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="119" spans="1:24">
       <c r="A119" t="str">
-        <f>B119</f>
+        <f t="shared" si="7"/>
         <v>Sword</v>
       </c>
       <c r="B119" t="str">
-        <f>C119&amp;D119</f>
+        <f t="shared" ref="B119:B150" si="8">C119&amp;D119</f>
         <v>Sword</v>
       </c>
       <c r="C119" s="96" t="s">
@@ -45384,7 +45384,7 @@
         <v>8</v>
       </c>
       <c r="R119" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S119" t="s">
         <v>3382</v>
@@ -45392,11 +45392,11 @@
     </row>
     <row r="120" spans="1:24">
       <c r="A120" t="str">
-        <f>B120</f>
+        <f t="shared" si="7"/>
         <v>Head</v>
       </c>
       <c r="B120" t="str">
-        <f>C120&amp;D120</f>
+        <f t="shared" si="8"/>
         <v>Head</v>
       </c>
       <c r="C120" s="96" t="s">
@@ -45435,7 +45435,7 @@
         <v>8</v>
       </c>
       <c r="R120" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S120" t="s">
         <v>3382</v>
@@ -45443,11 +45443,11 @@
     </row>
     <row r="121" spans="1:24">
       <c r="A121" t="str">
-        <f>B121</f>
+        <f t="shared" si="7"/>
         <v>Pincer</v>
       </c>
       <c r="B121" t="str">
-        <f>C121&amp;D121</f>
+        <f t="shared" si="8"/>
         <v>Pincer</v>
       </c>
       <c r="C121" s="96" t="s">
@@ -45486,7 +45486,7 @@
         <v>8</v>
       </c>
       <c r="R121" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S121" t="s">
         <v>3382</v>
@@ -45494,11 +45494,11 @@
     </row>
     <row r="122" spans="1:24">
       <c r="A122" t="str">
-        <f>B122</f>
+        <f t="shared" si="7"/>
         <v>Critical</v>
       </c>
       <c r="B122" t="str">
-        <f>C122&amp;D122</f>
+        <f t="shared" si="8"/>
         <v>Critical</v>
       </c>
       <c r="C122" s="96" t="s">
@@ -45535,7 +45535,7 @@
         <v>8</v>
       </c>
       <c r="R122" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S122" t="s">
         <v>3382</v>
@@ -45546,11 +45546,11 @@
     </row>
     <row r="123" spans="1:24">
       <c r="A123" t="str">
-        <f>B123</f>
+        <f t="shared" si="7"/>
         <v>Axe</v>
       </c>
       <c r="B123" t="str">
-        <f>C123&amp;D123</f>
+        <f t="shared" si="8"/>
         <v>Axe</v>
       </c>
       <c r="C123" s="96" t="s">
@@ -45589,7 +45589,7 @@
         <v>8</v>
       </c>
       <c r="R123" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S123" t="s">
         <v>3382</v>
@@ -45597,11 +45597,11 @@
     </row>
     <row r="124" spans="1:24">
       <c r="A124" t="str">
-        <f>B124</f>
+        <f t="shared" si="7"/>
         <v>Surprise</v>
       </c>
       <c r="B124" t="str">
-        <f>C124&amp;D124</f>
+        <f t="shared" si="8"/>
         <v>Surprise</v>
       </c>
       <c r="C124" s="96" t="s">
@@ -45632,16 +45632,16 @@
         <v>1</v>
       </c>
       <c r="R124" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" t="str">
-        <f>B125</f>
+        <f t="shared" si="7"/>
         <v>Warning</v>
       </c>
       <c r="B125" t="str">
-        <f>C125&amp;D125</f>
+        <f t="shared" si="8"/>
         <v>Warning</v>
       </c>
       <c r="C125" s="96" t="s">
@@ -45672,16 +45672,16 @@
         <v>1</v>
       </c>
       <c r="R125" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="126" spans="1:24">
       <c r="A126" t="str">
-        <f>B126</f>
+        <f t="shared" si="7"/>
         <v>QuakeO</v>
       </c>
       <c r="B126" t="str">
-        <f>C126&amp;D126</f>
+        <f t="shared" si="8"/>
         <v>QuakeO</v>
       </c>
       <c r="C126" s="96" t="s">
@@ -45714,16 +45714,16 @@
         <v>1</v>
       </c>
       <c r="R126" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="127" spans="1:24">
       <c r="A127" t="str">
-        <f>B127</f>
+        <f t="shared" si="7"/>
         <v>ChangeO</v>
       </c>
       <c r="B127" t="str">
-        <f>C127&amp;D127</f>
+        <f t="shared" si="8"/>
         <v>ChangeO</v>
       </c>
       <c r="C127" s="96" t="s">
@@ -45756,16 +45756,16 @@
         <v>1</v>
       </c>
       <c r="R127" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="128" spans="1:24">
       <c r="A128" t="str">
-        <f>B128</f>
+        <f t="shared" si="7"/>
         <v>FireO</v>
       </c>
       <c r="B128" t="str">
-        <f>C128&amp;D128</f>
+        <f t="shared" si="8"/>
         <v>FireO</v>
       </c>
       <c r="C128" s="96" t="s">
@@ -45798,16 +45798,16 @@
         <v>1</v>
       </c>
       <c r="R128" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="129" spans="1:24">
       <c r="A129" t="str">
-        <f>B129</f>
+        <f t="shared" si="7"/>
         <v>PoisonO</v>
       </c>
       <c r="B129" t="str">
-        <f>C129&amp;D129</f>
+        <f t="shared" si="8"/>
         <v>PoisonO</v>
       </c>
       <c r="C129" s="96" t="s">
@@ -45840,16 +45840,16 @@
         <v>1</v>
       </c>
       <c r="R129" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="130" spans="1:24">
       <c r="A130" t="str">
-        <f>B130</f>
+        <f t="shared" si="7"/>
         <v>DamageO</v>
       </c>
       <c r="B130" t="str">
-        <f>C130&amp;D130</f>
+        <f t="shared" si="8"/>
         <v>DamageO</v>
       </c>
       <c r="C130" s="96" t="s">
@@ -45882,16 +45882,16 @@
         <v>1</v>
       </c>
       <c r="R130" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="131" spans="1:24">
       <c r="A131" t="str">
-        <f>B131</f>
+        <f t="shared" si="7"/>
         <v>WeaponO</v>
       </c>
       <c r="B131" t="str">
-        <f>C131&amp;D131</f>
+        <f t="shared" si="8"/>
         <v>WeaponO</v>
       </c>
       <c r="C131" s="96" t="s">
@@ -45924,16 +45924,16 @@
         <v>1</v>
       </c>
       <c r="R131" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="132" spans="1:24">
       <c r="A132" t="str">
-        <f>B132</f>
+        <f t="shared" si="7"/>
         <v>Pa/PoO</v>
       </c>
       <c r="B132" t="str">
-        <f>C132&amp;D132</f>
+        <f t="shared" si="8"/>
         <v>Pa/PoO</v>
       </c>
       <c r="C132" s="96" t="s">
@@ -45966,16 +45966,16 @@
         <v>1</v>
       </c>
       <c r="R132" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="133" spans="1:24">
       <c r="A133" t="str">
-        <f>B133</f>
+        <f t="shared" si="7"/>
         <v>ParaO</v>
       </c>
       <c r="B133" t="str">
-        <f>C133&amp;D133</f>
+        <f t="shared" si="8"/>
         <v>ParaO</v>
       </c>
       <c r="C133" s="96" t="s">
@@ -46008,16 +46008,16 @@
         <v>1</v>
       </c>
       <c r="R133" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="134" spans="1:24">
       <c r="A134" t="str">
-        <f>B134</f>
+        <f t="shared" si="7"/>
         <v>IceO</v>
       </c>
       <c r="B134" t="str">
-        <f>C134&amp;D134</f>
+        <f t="shared" si="8"/>
         <v>IceO</v>
       </c>
       <c r="C134" s="96" t="s">
@@ -46050,16 +46050,16 @@
         <v>1</v>
       </c>
       <c r="R134" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="135" spans="1:24">
       <c r="A135" t="str">
-        <f>B135</f>
+        <f t="shared" si="7"/>
         <v>StoneO</v>
       </c>
       <c r="B135" t="str">
-        <f>C135&amp;D135</f>
+        <f t="shared" si="8"/>
         <v>StoneO</v>
       </c>
       <c r="C135" s="96" t="s">
@@ -46092,16 +46092,16 @@
         <v>1</v>
       </c>
       <c r="R135" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="136" spans="1:24">
       <c r="A136" t="str">
-        <f>B136</f>
+        <f t="shared" si="7"/>
         <v>FireX</v>
       </c>
       <c r="B136" t="str">
-        <f>C136&amp;D136</f>
+        <f t="shared" si="8"/>
         <v>FireX</v>
       </c>
       <c r="C136" s="96" t="s">
@@ -46134,16 +46134,16 @@
         <v>1</v>
       </c>
       <c r="R136" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="137" spans="1:24">
       <c r="A137" t="str">
-        <f>B137</f>
+        <f t="shared" si="7"/>
         <v>IceX</v>
       </c>
       <c r="B137" t="str">
-        <f>C137&amp;D137</f>
+        <f t="shared" si="8"/>
         <v>IceX</v>
       </c>
       <c r="C137" s="96" t="s">
@@ -46176,16 +46176,16 @@
         <v>1</v>
       </c>
       <c r="R137" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="138" spans="1:24">
       <c r="A138" t="str">
-        <f>B138</f>
+        <f t="shared" si="7"/>
         <v>ThunderX</v>
       </c>
       <c r="B138" t="str">
-        <f>C138&amp;D138</f>
+        <f t="shared" si="8"/>
         <v>ThunderX</v>
       </c>
       <c r="C138" s="96" t="s">
@@ -46218,16 +46218,16 @@
         <v>1</v>
       </c>
       <c r="R138" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="139" spans="1:24">
       <c r="A139" t="str">
-        <f>B139</f>
+        <f t="shared" si="7"/>
         <v>AllO</v>
       </c>
       <c r="B139" t="str">
-        <f>C139&amp;D139</f>
+        <f t="shared" si="8"/>
         <v>AllO</v>
       </c>
       <c r="C139" s="96" t="s">
@@ -46260,16 +46260,16 @@
         <v>1</v>
       </c>
       <c r="R139" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="140" spans="1:24">
       <c r="A140" t="str">
-        <f>B140</f>
+        <f t="shared" si="7"/>
         <v>DNA</v>
       </c>
       <c r="B140" t="str">
-        <f>C140&amp;D140</f>
+        <f t="shared" si="8"/>
         <v>DNA</v>
       </c>
       <c r="C140" s="96" t="s">
@@ -46310,11 +46310,11 @@
     </row>
     <row r="141" spans="1:24">
       <c r="A141" t="str">
-        <f>B141</f>
+        <f t="shared" si="7"/>
         <v>SpeedUp</v>
       </c>
       <c r="B141" t="str">
-        <f>C141&amp;D141</f>
+        <f t="shared" si="8"/>
         <v>SpeedUp</v>
       </c>
       <c r="C141" s="96" t="s">
@@ -46355,11 +46355,11 @@
     </row>
     <row r="142" spans="1:24">
       <c r="A142" t="str">
-        <f>B142</f>
+        <f t="shared" si="7"/>
         <v>Heat</v>
       </c>
       <c r="B142" t="str">
-        <f>C142&amp;D142</f>
+        <f t="shared" si="8"/>
         <v>Heat</v>
       </c>
       <c r="C142" s="96" t="s">
@@ -46400,11 +46400,11 @@
     </row>
     <row r="143" spans="1:24">
       <c r="A143" t="str">
-        <f>B143</f>
+        <f t="shared" si="7"/>
         <v>BronzeShield</v>
       </c>
       <c r="B143" t="str">
-        <f>C143&amp;D143</f>
+        <f t="shared" si="8"/>
         <v>BronzeShield</v>
       </c>
       <c r="C143" s="96" t="s">
@@ -46450,11 +46450,11 @@
     </row>
     <row r="144" spans="1:24">
       <c r="A144" t="str">
-        <f>B144</f>
+        <f t="shared" si="7"/>
         <v>SilverShield</v>
       </c>
       <c r="B144" t="str">
-        <f>C144&amp;D144</f>
+        <f t="shared" si="8"/>
         <v>SilverShield</v>
       </c>
       <c r="C144" s="96" t="s">
@@ -46500,11 +46500,11 @@
     </row>
     <row r="145" spans="1:24">
       <c r="A145" t="str">
-        <f>B145</f>
+        <f t="shared" si="7"/>
         <v>GoldShield</v>
       </c>
       <c r="B145" t="str">
-        <f>C145&amp;D145</f>
+        <f t="shared" si="8"/>
         <v>GoldShield</v>
       </c>
       <c r="C145" s="96" t="s">
@@ -46550,11 +46550,11 @@
     </row>
     <row r="146" spans="1:24">
       <c r="A146" t="str">
-        <f>B146</f>
+        <f t="shared" ref="A146:A177" si="9">B146</f>
         <v>SamuraiShield</v>
       </c>
       <c r="B146" t="str">
-        <f>C146&amp;D146</f>
+        <f t="shared" si="8"/>
         <v>SamuraiShield</v>
       </c>
       <c r="C146" s="96" t="s">
@@ -46603,11 +46603,11 @@
     </row>
     <row r="147" spans="1:24">
       <c r="A147" t="str">
-        <f>B147</f>
+        <f t="shared" si="9"/>
         <v>FlameShield</v>
       </c>
       <c r="B147" t="str">
-        <f>C147&amp;D147</f>
+        <f t="shared" si="8"/>
         <v>FlameShield</v>
       </c>
       <c r="C147" s="96" t="s">
@@ -46632,7 +46632,7 @@
         <v>1757</v>
       </c>
       <c r="J147" s="43" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="K147" s="19"/>
       <c r="L147" s="19"/>
@@ -46648,7 +46648,7 @@
         <v>3383</v>
       </c>
       <c r="W147" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="X147">
         <v>80</v>
@@ -46656,11 +46656,11 @@
     </row>
     <row r="148" spans="1:24">
       <c r="A148" t="str">
-        <f>B148</f>
+        <f t="shared" si="9"/>
         <v>IceShield</v>
       </c>
       <c r="B148" t="str">
-        <f>C148&amp;D148</f>
+        <f t="shared" si="8"/>
         <v>IceShield</v>
       </c>
       <c r="C148" s="96" t="s">
@@ -46701,7 +46701,7 @@
         <v>3383</v>
       </c>
       <c r="W148" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="X148">
         <v>80</v>
@@ -46709,11 +46709,11 @@
     </row>
     <row r="149" spans="1:24">
       <c r="A149" t="str">
-        <f>B149</f>
+        <f t="shared" si="9"/>
         <v>DragonShield</v>
       </c>
       <c r="B149" t="str">
-        <f>C149&amp;D149</f>
+        <f t="shared" si="8"/>
         <v>DragonShield</v>
       </c>
       <c r="C149" s="96" t="s">
@@ -46754,7 +46754,7 @@
         <v>3383</v>
       </c>
       <c r="W149" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="X149">
         <v>90</v>
@@ -46762,11 +46762,11 @@
     </row>
     <row r="150" spans="1:24">
       <c r="A150" t="str">
-        <f>B150</f>
+        <f t="shared" si="9"/>
         <v>Defense</v>
       </c>
       <c r="B150" t="str">
-        <f>C150&amp;D150</f>
+        <f t="shared" si="8"/>
         <v>Defense</v>
       </c>
       <c r="C150" s="96" t="s">
@@ -46811,11 +46811,11 @@
     </row>
     <row r="151" spans="1:24">
       <c r="A151" t="str">
-        <f>B151</f>
+        <f t="shared" si="9"/>
         <v>Shell</v>
       </c>
       <c r="B151" t="str">
-        <f>C151&amp;D151</f>
+        <f t="shared" ref="B151:B182" si="10">C151&amp;D151</f>
         <v>Shell</v>
       </c>
       <c r="C151" s="96" t="s">
@@ -46860,11 +46860,11 @@
     </row>
     <row r="152" spans="1:24">
       <c r="A152" t="str">
-        <f>B152</f>
+        <f t="shared" si="9"/>
         <v>Mirror</v>
       </c>
       <c r="B152" t="str">
-        <f>C152&amp;D152</f>
+        <f t="shared" si="10"/>
         <v>Mirror</v>
       </c>
       <c r="C152" s="96" t="s">
@@ -46906,11 +46906,11 @@
     </row>
     <row r="153" spans="1:24">
       <c r="A153" t="str">
-        <f>B153</f>
+        <f t="shared" si="9"/>
         <v>HyperCannon</v>
       </c>
       <c r="B153" t="str">
-        <f>C153&amp;D153</f>
+        <f t="shared" si="10"/>
         <v>HyperCannon</v>
       </c>
       <c r="C153" s="96" t="s">
@@ -46947,7 +46947,7 @@
         <v>16</v>
       </c>
       <c r="R153" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S153" t="s">
         <v>3387</v>
@@ -46955,11 +46955,11 @@
     </row>
     <row r="154" spans="1:24">
       <c r="A154" t="str">
-        <f>B154</f>
+        <f t="shared" si="9"/>
         <v>Breath</v>
       </c>
       <c r="B154" t="str">
-        <f>C154&amp;D154</f>
+        <f t="shared" si="10"/>
         <v>Breath</v>
       </c>
       <c r="C154" s="96" t="s">
@@ -46990,7 +46990,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S154" t="s">
         <v>3382</v>
@@ -47001,11 +47001,11 @@
     </row>
     <row r="155" spans="1:24">
       <c r="A155" t="str">
-        <f>B155</f>
+        <f t="shared" si="9"/>
         <v>P-Skin</v>
       </c>
       <c r="B155" t="str">
-        <f>C155&amp;D155</f>
+        <f t="shared" si="10"/>
         <v>P-Skin</v>
       </c>
       <c r="C155" s="96" t="s">
@@ -47036,7 +47036,7 @@
         <v>1</v>
       </c>
       <c r="R155" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S155" t="s">
         <v>121</v>
@@ -47047,11 +47047,11 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156" t="str">
-        <f>B156</f>
+        <f t="shared" si="9"/>
         <v>ParaSkin</v>
       </c>
       <c r="B156" t="str">
-        <f>C156&amp;D156</f>
+        <f t="shared" si="10"/>
         <v>ParaSkin</v>
       </c>
       <c r="C156" s="96" t="s">
@@ -47082,7 +47082,7 @@
         <v>1</v>
       </c>
       <c r="R156" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S156" t="s">
         <v>121</v>
@@ -47093,11 +47093,11 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157" t="str">
-        <f>B157</f>
+        <f t="shared" si="9"/>
         <v>StonSkin</v>
       </c>
       <c r="B157" t="str">
-        <f>C157&amp;D157</f>
+        <f t="shared" si="10"/>
         <v>StonSkin</v>
       </c>
       <c r="C157" s="96" t="s">
@@ -47128,7 +47128,7 @@
         <v>1</v>
       </c>
       <c r="R157" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S157" t="s">
         <v>121</v>
@@ -47139,11 +47139,11 @@
     </row>
     <row r="158" spans="1:24">
       <c r="A158" t="str">
-        <f>B158</f>
+        <f t="shared" si="9"/>
         <v>KickArt</v>
       </c>
       <c r="B158" t="str">
-        <f>C158&amp;D158</f>
+        <f t="shared" si="10"/>
         <v>KickArt</v>
       </c>
       <c r="C158" s="96" t="s">
@@ -47180,7 +47180,7 @@
         <v>1883</v>
       </c>
       <c r="R158" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S158" t="s">
         <v>3382</v>
@@ -47188,11 +47188,11 @@
     </row>
     <row r="159" spans="1:24">
       <c r="A159" t="str">
-        <f>B159</f>
+        <f t="shared" si="9"/>
         <v>HeadButArt</v>
       </c>
       <c r="B159" t="str">
-        <f>C159&amp;D159</f>
+        <f t="shared" si="10"/>
         <v>HeadButArt</v>
       </c>
       <c r="C159" s="96" t="s">
@@ -47229,7 +47229,7 @@
         <v>1743</v>
       </c>
       <c r="R159" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S159" t="s">
         <v>3382</v>
@@ -47237,11 +47237,11 @@
     </row>
     <row r="160" spans="1:24">
       <c r="A160" t="str">
-        <f>B160</f>
+        <f t="shared" si="9"/>
         <v>X-KickArt</v>
       </c>
       <c r="B160" t="str">
-        <f>C160&amp;D160</f>
+        <f t="shared" si="10"/>
         <v>X-KickArt</v>
       </c>
       <c r="C160" s="96" t="s">
@@ -47278,7 +47278,7 @@
         <v>1889</v>
       </c>
       <c r="R160" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S160" t="s">
         <v>3382</v>
@@ -47286,11 +47286,11 @@
     </row>
     <row r="161" spans="1:25">
       <c r="A161" t="str">
-        <f>B161</f>
+        <f t="shared" si="9"/>
         <v>JyudoArt</v>
       </c>
       <c r="B161" t="str">
-        <f>C161&amp;D161</f>
+        <f t="shared" si="10"/>
         <v>JyudoArt</v>
       </c>
       <c r="C161" s="96" t="s">
@@ -47327,7 +47327,7 @@
         <v>1786</v>
       </c>
       <c r="R161" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S161" t="s">
         <v>3382</v>
@@ -47335,11 +47335,11 @@
     </row>
     <row r="162" spans="1:25">
       <c r="A162" t="str">
-        <f>B162</f>
+        <f t="shared" si="9"/>
         <v>KarateArt</v>
       </c>
       <c r="B162" t="str">
-        <f>C162&amp;D162</f>
+        <f t="shared" si="10"/>
         <v>KarateArt</v>
       </c>
       <c r="C162" s="96" t="s">
@@ -47378,7 +47378,7 @@
         <v>1896</v>
       </c>
       <c r="R162" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S162" t="s">
         <v>3382</v>
@@ -47386,11 +47386,11 @@
     </row>
     <row r="163" spans="1:25">
       <c r="A163" t="str">
-        <f>B163</f>
+        <f t="shared" si="9"/>
         <v>Sypha</v>
       </c>
       <c r="B163" t="str">
-        <f>C163&amp;D163</f>
+        <f t="shared" si="10"/>
         <v>Sypha</v>
       </c>
       <c r="C163" s="96" t="s">
@@ -47423,7 +47423,7 @@
         <v>1677</v>
       </c>
       <c r="R163" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S163" t="s">
         <v>3382</v>
@@ -47434,11 +47434,11 @@
     </row>
     <row r="164" spans="1:25">
       <c r="A164" t="str">
-        <f>B164</f>
+        <f t="shared" si="9"/>
         <v>Saw</v>
       </c>
       <c r="B164" t="str">
-        <f>C164&amp;D164</f>
+        <f t="shared" si="10"/>
         <v>Saw</v>
       </c>
       <c r="C164" s="96" t="s">
@@ -47469,22 +47469,22 @@
         <v>1</v>
       </c>
       <c r="R164" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S164" t="s">
         <v>3382</v>
       </c>
       <c r="W164" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" t="str">
-        <f>B165</f>
+        <f t="shared" si="9"/>
         <v>ChainSaw</v>
       </c>
       <c r="B165" t="str">
-        <f>C165&amp;D165</f>
+        <f t="shared" si="10"/>
         <v>ChainSaw</v>
       </c>
       <c r="C165" s="96" t="s">
@@ -47517,22 +47517,22 @@
         <v>1673</v>
       </c>
       <c r="R165" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S165" t="s">
         <v>3382</v>
       </c>
       <c r="W165" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" t="str">
-        <f>B166</f>
+        <f t="shared" si="9"/>
         <v>ChopArt</v>
       </c>
       <c r="B166" t="str">
-        <f>C166&amp;D166</f>
+        <f t="shared" si="10"/>
         <v>ChopArt</v>
       </c>
       <c r="C166" s="96" t="s">
@@ -47569,7 +47569,7 @@
         <v>1739</v>
       </c>
       <c r="R166" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S166" t="s">
         <v>3382</v>
@@ -47580,11 +47580,11 @@
     </row>
     <row r="167" spans="1:25">
       <c r="A167" t="str">
-        <f>B167</f>
+        <f t="shared" si="9"/>
         <v>ParaNail</v>
       </c>
       <c r="B167" t="str">
-        <f>C167&amp;D167</f>
+        <f t="shared" si="10"/>
         <v>ParaNail</v>
       </c>
       <c r="C167" s="96" t="s">
@@ -47615,7 +47615,7 @@
         <v>1</v>
       </c>
       <c r="R167" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S167" t="s">
         <v>3382</v>
@@ -47626,11 +47626,11 @@
     </row>
     <row r="168" spans="1:25">
       <c r="A168" t="str">
-        <f>B168</f>
+        <f t="shared" si="9"/>
         <v>Wind Up</v>
       </c>
       <c r="B168" t="str">
-        <f>C168&amp;D168</f>
+        <f t="shared" si="10"/>
         <v>Wind Up</v>
       </c>
       <c r="C168" s="96" t="s">
@@ -47661,7 +47661,7 @@
         <v>1</v>
       </c>
       <c r="R168" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S168" t="s">
         <v>3382</v>
@@ -47672,11 +47672,11 @@
     </row>
     <row r="169" spans="1:25">
       <c r="A169" t="str">
-        <f>B169</f>
+        <f t="shared" si="9"/>
         <v>Tie Up</v>
       </c>
       <c r="B169" t="str">
-        <f>C169&amp;D169</f>
+        <f t="shared" si="10"/>
         <v>Tie Up</v>
       </c>
       <c r="C169" s="96" t="s">
@@ -47707,7 +47707,7 @@
         <v>1</v>
       </c>
       <c r="R169" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S169" t="s">
         <v>3382</v>
@@ -47718,11 +47718,11 @@
     </row>
     <row r="170" spans="1:25">
       <c r="A170" t="str">
-        <f>B170</f>
+        <f t="shared" si="9"/>
         <v>Poison</v>
       </c>
       <c r="B170" t="str">
-        <f>C170&amp;D170</f>
+        <f t="shared" si="10"/>
         <v>Poison</v>
       </c>
       <c r="C170" s="96" t="s">
@@ -47753,7 +47753,7 @@
         <v>1</v>
       </c>
       <c r="R170" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S170" t="s">
         <v>3382</v>
@@ -47764,11 +47764,11 @@
     </row>
     <row r="171" spans="1:25">
       <c r="A171" t="str">
-        <f>B171</f>
+        <f t="shared" si="9"/>
         <v>Petrify</v>
       </c>
       <c r="B171" t="str">
-        <f>C171&amp;D171</f>
+        <f t="shared" si="10"/>
         <v>Petrify</v>
       </c>
       <c r="C171" s="96" t="s">
@@ -47799,7 +47799,7 @@
         <v>1</v>
       </c>
       <c r="R171" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S171" t="s">
         <v>3382</v>
@@ -47810,11 +47810,11 @@
     </row>
     <row r="172" spans="1:25">
       <c r="A172" t="str">
-        <f>B172</f>
+        <f t="shared" si="9"/>
         <v>Steal</v>
       </c>
       <c r="B172" t="str">
-        <f>C172&amp;D172</f>
+        <f t="shared" si="10"/>
         <v>Steal</v>
       </c>
       <c r="C172" s="96" t="s">
@@ -47845,7 +47845,7 @@
         <v>1739</v>
       </c>
       <c r="R172" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S172" t="s">
         <v>3382</v>
@@ -47853,11 +47853,11 @@
     </row>
     <row r="173" spans="1:25">
       <c r="A173" t="str">
-        <f>B173</f>
+        <f t="shared" si="9"/>
         <v>Explode</v>
       </c>
       <c r="B173" t="str">
-        <f>C173&amp;D173</f>
+        <f t="shared" si="10"/>
         <v>Explode</v>
       </c>
       <c r="C173" s="96" t="s">
@@ -47897,16 +47897,16 @@
         <v>1200</v>
       </c>
       <c r="W173" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="174" spans="1:25">
       <c r="A174" t="str">
-        <f>B174</f>
+        <f t="shared" si="9"/>
         <v>Riddle</v>
       </c>
       <c r="B174" t="str">
-        <f>C174&amp;D174</f>
+        <f t="shared" si="10"/>
         <v>Riddle</v>
       </c>
       <c r="C174" s="96" t="s">
@@ -47948,11 +47948,11 @@
     </row>
     <row r="175" spans="1:25">
       <c r="A175" t="str">
-        <f>B175</f>
+        <f t="shared" si="9"/>
         <v>CursSong</v>
       </c>
       <c r="B175" t="str">
-        <f>C175&amp;D175</f>
+        <f t="shared" si="10"/>
         <v>CursSong</v>
       </c>
       <c r="C175" s="96" t="s">
@@ -47994,11 +47994,11 @@
     </row>
     <row r="176" spans="1:25">
       <c r="A176" t="str">
-        <f>B176</f>
+        <f t="shared" si="9"/>
         <v>MadSong</v>
       </c>
       <c r="B176" t="str">
-        <f>C176&amp;D176</f>
+        <f t="shared" si="10"/>
         <v>MadSong</v>
       </c>
       <c r="C176" s="96" t="s">
@@ -48040,15 +48040,15 @@
     </row>
     <row r="177" spans="1:25">
       <c r="A177" t="str">
-        <f>B177</f>
+        <f t="shared" si="9"/>
         <v>PoisonBurst</v>
       </c>
       <c r="B177" t="str">
-        <f>C177&amp;D177</f>
+        <f t="shared" si="10"/>
         <v>PoisonBurst</v>
       </c>
       <c r="C177" s="96" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="D177" s="98"/>
       <c r="E177" s="99" t="s">
@@ -48084,16 +48084,16 @@
         <v>20</v>
       </c>
       <c r="Y177" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="178" spans="1:25">
       <c r="A178" t="str">
-        <f>B178</f>
+        <f t="shared" ref="A178:A209" si="11">B178</f>
         <v>SleepGas</v>
       </c>
       <c r="B178" t="str">
-        <f>C178&amp;D178</f>
+        <f t="shared" si="10"/>
         <v>SleepGas</v>
       </c>
       <c r="C178" s="96" t="s">
@@ -48135,11 +48135,11 @@
     </row>
     <row r="179" spans="1:25">
       <c r="A179" t="str">
-        <f>B179</f>
+        <f t="shared" si="11"/>
         <v>Sleep</v>
       </c>
       <c r="B179" t="str">
-        <f>C179&amp;D179</f>
+        <f t="shared" si="10"/>
         <v>Sleep</v>
       </c>
       <c r="C179" s="96" t="s">
@@ -48181,11 +48181,11 @@
     </row>
     <row r="180" spans="1:25">
       <c r="A180" t="str">
-        <f>B180</f>
+        <f t="shared" si="11"/>
         <v>StonGaze</v>
       </c>
       <c r="B180" t="str">
-        <f>C180&amp;D180</f>
+        <f t="shared" si="10"/>
         <v>StonGaze</v>
       </c>
       <c r="C180" s="96" t="s">
@@ -48227,11 +48227,11 @@
     </row>
     <row r="181" spans="1:25">
       <c r="A181" t="str">
-        <f>B181</f>
+        <f t="shared" si="11"/>
         <v>Stone</v>
       </c>
       <c r="B181" t="str">
-        <f>C181&amp;D181</f>
+        <f t="shared" si="10"/>
         <v>Stone</v>
       </c>
       <c r="C181" s="96" t="s">
@@ -48273,11 +48273,11 @@
     </row>
     <row r="182" spans="1:25">
       <c r="A182" t="str">
-        <f>B182</f>
+        <f t="shared" si="11"/>
         <v>StoneGas</v>
       </c>
       <c r="B182" t="str">
-        <f>C182&amp;D182</f>
+        <f t="shared" si="10"/>
         <v>StoneGas</v>
       </c>
       <c r="C182" s="96" t="s">
@@ -48319,11 +48319,11 @@
     </row>
     <row r="183" spans="1:25">
       <c r="A183" t="str">
-        <f>B183</f>
+        <f t="shared" si="11"/>
         <v>FatalGas</v>
       </c>
       <c r="B183" t="str">
-        <f>C183&amp;D183</f>
+        <f t="shared" ref="B183:B214" si="12">C183&amp;D183</f>
         <v>FatalGas</v>
       </c>
       <c r="C183" s="96" t="s">
@@ -48360,16 +48360,16 @@
         <v>3386</v>
       </c>
       <c r="W183" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="184" spans="1:25">
       <c r="A184" t="str">
-        <f>B184</f>
+        <f t="shared" si="11"/>
         <v>X-Gaze</v>
       </c>
       <c r="B184" t="str">
-        <f>C184&amp;D184</f>
+        <f t="shared" si="12"/>
         <v>X-Gaze</v>
       </c>
       <c r="C184" s="96" t="s">
@@ -48406,16 +48406,16 @@
         <v>3386</v>
       </c>
       <c r="W184" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="185" spans="1:25">
       <c r="A185" t="str">
-        <f>B185</f>
+        <f t="shared" si="11"/>
         <v>Erase</v>
       </c>
       <c r="B185" t="str">
-        <f>C185&amp;D185</f>
+        <f t="shared" si="12"/>
         <v>Erase</v>
       </c>
       <c r="C185" s="96" t="s">
@@ -48452,16 +48452,16 @@
         <v>3386</v>
       </c>
       <c r="W185" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="186" spans="1:25">
       <c r="A186" t="str">
-        <f>B186</f>
+        <f t="shared" si="11"/>
         <v>Blind</v>
       </c>
       <c r="B186" t="str">
-        <f>C186&amp;D186</f>
+        <f t="shared" si="12"/>
         <v>Blind</v>
       </c>
       <c r="C186" s="96" t="s">
@@ -48503,11 +48503,11 @@
     </row>
     <row r="187" spans="1:25">
       <c r="A187" t="str">
-        <f>B187</f>
+        <f t="shared" si="11"/>
         <v>Flash</v>
       </c>
       <c r="B187" t="str">
-        <f>C187&amp;D187</f>
+        <f t="shared" si="12"/>
         <v>Flash</v>
       </c>
       <c r="C187" s="96" t="s">
@@ -48549,11 +48549,11 @@
     </row>
     <row r="188" spans="1:25">
       <c r="A188" t="str">
-        <f>B188</f>
+        <f t="shared" si="11"/>
         <v>Ink</v>
       </c>
       <c r="B188" t="str">
-        <f>C188&amp;D188</f>
+        <f t="shared" si="12"/>
         <v>Ink</v>
       </c>
       <c r="C188" s="96" t="s">
@@ -48595,15 +48595,15 @@
     </row>
     <row r="189" spans="1:25">
       <c r="A189" t="str">
-        <f>B189</f>
+        <f t="shared" si="11"/>
         <v>PoisonCloud</v>
       </c>
       <c r="B189" t="str">
-        <f>C189&amp;D189</f>
+        <f t="shared" si="12"/>
         <v>PoisonCloud</v>
       </c>
       <c r="C189" s="96" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="D189" s="98"/>
       <c r="E189" s="99" t="s">
@@ -48641,11 +48641,11 @@
     </row>
     <row r="190" spans="1:25">
       <c r="A190" t="str">
-        <f>B190</f>
+        <f t="shared" si="11"/>
         <v>Gaze</v>
       </c>
       <c r="B190" t="str">
-        <f>C190&amp;D190</f>
+        <f t="shared" si="12"/>
         <v>Gaze</v>
       </c>
       <c r="C190" s="96" t="s">
@@ -48687,11 +48687,11 @@
     </row>
     <row r="191" spans="1:25">
       <c r="A191" t="str">
-        <f>B191</f>
+        <f t="shared" si="11"/>
         <v>Stunner</v>
       </c>
       <c r="B191" t="str">
-        <f>C191&amp;D191</f>
+        <f t="shared" si="12"/>
         <v>Stunner</v>
       </c>
       <c r="C191" s="96" t="s">
@@ -48733,11 +48733,11 @@
     </row>
     <row r="192" spans="1:25">
       <c r="A192" t="str">
-        <f>B192</f>
+        <f t="shared" si="11"/>
         <v>Gaze</v>
       </c>
       <c r="B192" t="str">
-        <f>C192&amp;D192</f>
+        <f t="shared" si="12"/>
         <v>Gaze</v>
       </c>
       <c r="C192" s="96" t="s">
@@ -48779,11 +48779,11 @@
     </row>
     <row r="193" spans="1:23">
       <c r="A193" t="str">
-        <f>B193</f>
+        <f t="shared" si="11"/>
         <v>Charm</v>
       </c>
       <c r="B193" t="str">
-        <f>C193&amp;D193</f>
+        <f t="shared" si="12"/>
         <v>Charm</v>
       </c>
       <c r="C193" s="96" t="s">
@@ -48825,11 +48825,11 @@
     </row>
     <row r="194" spans="1:23">
       <c r="A194" t="str">
-        <f>B194</f>
+        <f t="shared" si="11"/>
         <v>Hypnos</v>
       </c>
       <c r="B194" t="str">
-        <f>C194&amp;D194</f>
+        <f t="shared" si="12"/>
         <v>Hypnos</v>
       </c>
       <c r="C194" s="96" t="s">
@@ -48871,15 +48871,15 @@
     </row>
     <row r="195" spans="1:23">
       <c r="A195" t="str">
-        <f>B195</f>
+        <f t="shared" si="11"/>
         <v>Remedy</v>
       </c>
       <c r="B195" t="str">
-        <f>C195&amp;D195</f>
+        <f t="shared" si="12"/>
         <v>Remedy</v>
       </c>
       <c r="C195" s="96" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="D195" s="98"/>
       <c r="E195" s="99" t="s">
@@ -48914,11 +48914,11 @@
     </row>
     <row r="196" spans="1:23">
       <c r="A196" t="str">
-        <f>B196</f>
+        <f t="shared" si="11"/>
         <v>HeartMagi</v>
       </c>
       <c r="B196" t="str">
-        <f>C196&amp;D196</f>
+        <f t="shared" si="12"/>
         <v>HeartMagi</v>
       </c>
       <c r="C196" s="96" t="s">
@@ -48953,19 +48953,19 @@
         <v>1</v>
       </c>
       <c r="R196" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="S196" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="197" spans="1:23">
       <c r="A197" t="str">
-        <f>B197</f>
+        <f t="shared" si="11"/>
         <v>AegisMagi</v>
       </c>
       <c r="B197" t="str">
-        <f>C197&amp;D197</f>
+        <f t="shared" si="12"/>
         <v>AegisMagi</v>
       </c>
       <c r="C197" s="96" t="s">
@@ -49000,22 +49000,22 @@
         <v>1</v>
       </c>
       <c r="R197" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="S197" t="s">
         <v>3383</v>
       </c>
       <c r="W197" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="198" spans="1:23">
       <c r="A198" t="str">
-        <f>B198</f>
+        <f t="shared" si="11"/>
         <v>MasmuneMagi</v>
       </c>
       <c r="B198" t="str">
-        <f>C198&amp;D198</f>
+        <f t="shared" si="12"/>
         <v>MasmuneMagi</v>
       </c>
       <c r="C198" s="96" t="s">
@@ -49050,13 +49050,13 @@
         <v>1</v>
       </c>
       <c r="R198" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="S198" t="s">
         <v>3382</v>
       </c>
       <c r="T198" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="U198">
         <v>500</v>
@@ -49067,7 +49067,7 @@
     </row>
     <row r="199" spans="1:23">
       <c r="A199" t="str">
-        <f>B199</f>
+        <f t="shared" si="11"/>
         <v>EyeDrop</v>
       </c>
       <c r="B199" t="str">
@@ -49106,7 +49106,7 @@
         <v>1</v>
       </c>
       <c r="R199" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S199" t="s">
         <v>3385</v>
@@ -49114,11 +49114,11 @@
     </row>
     <row r="200" spans="1:23">
       <c r="A200" t="str">
-        <f>B200</f>
+        <f t="shared" si="11"/>
         <v>Elixier</v>
       </c>
       <c r="B200" t="str">
-        <f>C200&amp;D200</f>
+        <f t="shared" ref="B200:B213" si="13">C200&amp;D200</f>
         <v>Elixier</v>
       </c>
       <c r="C200" s="96" t="s">
@@ -49151,7 +49151,7 @@
         <v>1</v>
       </c>
       <c r="R200" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S200" t="s">
         <v>3385</v>
@@ -49159,11 +49159,11 @@
     </row>
     <row r="201" spans="1:23">
       <c r="A201" t="str">
-        <f>B201</f>
+        <f t="shared" si="11"/>
         <v>SoftPotion</v>
       </c>
       <c r="B201" t="str">
-        <f>C201&amp;D201</f>
+        <f t="shared" si="13"/>
         <v>SoftPotion</v>
       </c>
       <c r="C201" s="96" t="s">
@@ -49198,7 +49198,7 @@
         <v>1</v>
       </c>
       <c r="R201" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S201" t="s">
         <v>3385</v>
@@ -49206,11 +49206,11 @@
     </row>
     <row r="202" spans="1:23">
       <c r="A202" t="str">
-        <f>B202</f>
+        <f t="shared" si="11"/>
         <v>CurePotion</v>
       </c>
       <c r="B202" t="str">
-        <f>C202&amp;D202</f>
+        <f t="shared" si="13"/>
         <v>CurePotion</v>
       </c>
       <c r="C202" s="96" t="s">
@@ -49245,7 +49245,7 @@
         <v>1</v>
       </c>
       <c r="R202" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S202" t="s">
         <v>3385</v>
@@ -49253,11 +49253,11 @@
     </row>
     <row r="203" spans="1:23">
       <c r="A203" t="str">
-        <f>B203</f>
+        <f t="shared" si="11"/>
         <v>X-CurePotion</v>
       </c>
       <c r="B203" t="str">
-        <f>C203&amp;D203</f>
+        <f t="shared" si="13"/>
         <v>X-CurePotion</v>
       </c>
       <c r="C203" s="96" t="s">
@@ -49292,7 +49292,7 @@
         <v>1</v>
       </c>
       <c r="R203" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S203" t="s">
         <v>3385</v>
@@ -49300,11 +49300,11 @@
     </row>
     <row r="204" spans="1:23">
       <c r="A204" t="str">
-        <f>B204</f>
+        <f t="shared" si="11"/>
         <v>CursePotion</v>
       </c>
       <c r="B204" t="str">
-        <f>C204&amp;D204</f>
+        <f t="shared" si="13"/>
         <v>CursePotion</v>
       </c>
       <c r="C204" s="96" t="s">
@@ -49339,7 +49339,7 @@
         <v>1</v>
       </c>
       <c r="R204" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S204" t="s">
         <v>3385</v>
@@ -49347,11 +49347,11 @@
     </row>
     <row r="205" spans="1:23">
       <c r="A205" t="str">
-        <f>B205</f>
+        <f t="shared" si="11"/>
         <v>Sand</v>
       </c>
       <c r="B205" t="str">
-        <f>C205&amp;D205</f>
+        <f t="shared" si="13"/>
         <v>Sand</v>
       </c>
       <c r="C205" s="96" t="s">
@@ -49382,7 +49382,7 @@
         <v>1</v>
       </c>
       <c r="R205" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="S205" t="s">
         <v>3386</v>
@@ -49396,11 +49396,11 @@
     </row>
     <row r="206" spans="1:23">
       <c r="A206" t="str">
-        <f>B206</f>
+        <f t="shared" si="11"/>
         <v>Cobweb</v>
       </c>
       <c r="B206" t="str">
-        <f>C206&amp;D206</f>
+        <f t="shared" si="13"/>
         <v>Cobweb</v>
       </c>
       <c r="C206" s="96" t="s">
@@ -49431,7 +49431,7 @@
         <v>1</v>
       </c>
       <c r="R206" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="S206" t="s">
         <v>3386</v>
@@ -49445,11 +49445,11 @@
     </row>
     <row r="207" spans="1:23">
       <c r="A207" t="str">
-        <f>B207</f>
+        <f t="shared" si="11"/>
         <v>Blitz</v>
       </c>
       <c r="B207" t="str">
-        <f>C207&amp;D207</f>
+        <f t="shared" si="13"/>
         <v>Blitz</v>
       </c>
       <c r="C207" s="96" t="s">
@@ -49480,7 +49480,7 @@
         <v>2030</v>
       </c>
       <c r="R207" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="S207" t="s">
         <v>3386</v>
@@ -49494,11 +49494,11 @@
     </row>
     <row r="208" spans="1:23">
       <c r="A208" t="str">
-        <f>B208</f>
+        <f t="shared" si="11"/>
         <v>Drain</v>
       </c>
       <c r="B208" t="str">
-        <f>C208&amp;D208</f>
+        <f t="shared" si="13"/>
         <v>Drain</v>
       </c>
       <c r="C208" s="96" t="s">
@@ -49529,7 +49529,7 @@
         <v>1</v>
       </c>
       <c r="R208" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="S208" t="s">
         <v>3382</v>
@@ -49543,11 +49543,11 @@
     </row>
     <row r="209" spans="1:23">
       <c r="A209" t="str">
-        <f>B209</f>
+        <f t="shared" si="11"/>
         <v>Stench</v>
       </c>
       <c r="B209" t="str">
-        <f>C209&amp;D209</f>
+        <f t="shared" si="13"/>
         <v>Stench</v>
       </c>
       <c r="C209" s="96" t="s">
@@ -49578,7 +49578,7 @@
         <v>1</v>
       </c>
       <c r="R209" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="S209" t="s">
         <v>3382</v>
@@ -49592,15 +49592,15 @@
     </row>
     <row r="210" spans="1:23">
       <c r="A210" t="str">
-        <f>B210</f>
+        <f t="shared" ref="A210:A241" si="14">B210</f>
         <v>Haste</v>
       </c>
       <c r="B210" t="str">
-        <f>C210&amp;D210</f>
+        <f t="shared" si="13"/>
         <v>Haste</v>
       </c>
       <c r="C210" s="96" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="D210" s="98"/>
       <c r="E210" s="99" t="s">
@@ -49627,7 +49627,7 @@
         <v>2030</v>
       </c>
       <c r="R210" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="S210" t="s">
         <v>3384</v>
@@ -49641,11 +49641,11 @@
     </row>
     <row r="211" spans="1:23">
       <c r="A211" t="str">
-        <f>B211</f>
+        <f t="shared" si="14"/>
         <v>Multiply</v>
       </c>
       <c r="B211" t="str">
-        <f>C211&amp;D211</f>
+        <f t="shared" si="13"/>
         <v>Multiply</v>
       </c>
       <c r="C211" s="96" t="s">
@@ -49676,7 +49676,7 @@
         <v>1</v>
       </c>
       <c r="R211" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="S211" t="s">
         <v>3384</v>
@@ -49684,11 +49684,11 @@
     </row>
     <row r="212" spans="1:23">
       <c r="A212" t="str">
-        <f>B212</f>
+        <f t="shared" si="14"/>
         <v>FlareApollo</v>
       </c>
       <c r="B212" t="str">
-        <f>C212&amp;D212</f>
+        <f t="shared" si="13"/>
         <v>FlareApollo</v>
       </c>
       <c r="C212" s="96" t="s">
@@ -49721,16 +49721,16 @@
         <v>1</v>
       </c>
       <c r="R212" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="213" spans="1:23">
       <c r="A213" t="str">
-        <f>B213</f>
+        <f t="shared" si="14"/>
         <v>Smasher</v>
       </c>
       <c r="B213" t="str">
-        <f>C213&amp;D213</f>
+        <f t="shared" si="13"/>
         <v>Smasher</v>
       </c>
       <c r="C213" s="96" t="s">
@@ -49761,7 +49761,7 @@
         <v>1</v>
       </c>
       <c r="R213" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
     </row>
   </sheetData>
@@ -49849,13 +49849,13 @@
         <v>3393</v>
       </c>
       <c r="T1" s="160" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="U1" s="160" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="V1" s="160" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -49903,13 +49903,13 @@
         <v>6</v>
       </c>
       <c r="R2" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S2" t="s">
         <v>3382</v>
       </c>
       <c r="T2" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -49959,13 +49959,13 @@
         <v>7</v>
       </c>
       <c r="R3" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S3" t="s">
         <v>3382</v>
       </c>
       <c r="T3" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -50015,13 +50015,13 @@
         <v>8</v>
       </c>
       <c r="R4" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S4" t="s">
         <v>3382</v>
       </c>
       <c r="T4" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -50071,13 +50071,13 @@
         <v>9</v>
       </c>
       <c r="R5" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S5" t="s">
         <v>3382</v>
       </c>
       <c r="T5" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -50127,13 +50127,13 @@
         <v>10</v>
       </c>
       <c r="R6" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S6" t="s">
         <v>3382</v>
       </c>
       <c r="T6" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -50183,13 +50183,13 @@
         <v>11</v>
       </c>
       <c r="R7" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S7" t="s">
         <v>3382</v>
       </c>
       <c r="T7" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -50239,13 +50239,13 @@
         <v>13</v>
       </c>
       <c r="R8" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S8" t="s">
         <v>3382</v>
       </c>
       <c r="T8" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -50295,13 +50295,13 @@
         <v>13</v>
       </c>
       <c r="R9" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S9" t="s">
         <v>3382</v>
       </c>
       <c r="T9" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -50351,13 +50351,13 @@
         <v>14</v>
       </c>
       <c r="R10" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S10" t="s">
         <v>3382</v>
       </c>
       <c r="T10" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -50407,13 +50407,13 @@
         <v>15</v>
       </c>
       <c r="R11" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S11" t="s">
         <v>3382</v>
       </c>
       <c r="T11" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -50465,7 +50465,7 @@
         <v>12</v>
       </c>
       <c r="R12" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S12" t="s">
         <v>3382</v>
@@ -50523,7 +50523,7 @@
         <v>12</v>
       </c>
       <c r="R13" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S13" t="s">
         <v>3382</v>
@@ -50581,7 +50581,7 @@
         <v>12</v>
       </c>
       <c r="R14" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S14" t="s">
         <v>3382</v>
@@ -50639,13 +50639,13 @@
         <v>14</v>
       </c>
       <c r="R15" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S15" t="s">
         <v>3382</v>
       </c>
       <c r="T15" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="U15" t="s">
         <v>3383</v>
@@ -50701,16 +50701,16 @@
         <v>12</v>
       </c>
       <c r="R16" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S16" t="s">
         <v>3382</v>
       </c>
       <c r="T16" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="U16" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="V16">
         <v>100</v>
@@ -50763,13 +50763,13 @@
         <v>7</v>
       </c>
       <c r="R17" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S17" t="s">
         <v>3382</v>
       </c>
       <c r="T17" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -50819,13 +50819,13 @@
         <v>9</v>
       </c>
       <c r="R18" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S18" t="s">
         <v>3382</v>
       </c>
       <c r="T18" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -50875,13 +50875,13 @@
         <v>13</v>
       </c>
       <c r="R19" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S19" t="s">
         <v>3382</v>
       </c>
       <c r="T19" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -50931,7 +50931,7 @@
         <v>6</v>
       </c>
       <c r="R20" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S20" t="s">
         <v>3382</v>
@@ -50983,16 +50983,16 @@
         <v>1695</v>
       </c>
       <c r="P21" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R21" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S21" t="s">
         <v>3382</v>
       </c>
       <c r="T21" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -51039,7 +51039,7 @@
         <v>4</v>
       </c>
       <c r="R22" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S22" t="s">
         <v>121</v>
@@ -51093,16 +51093,16 @@
         <v>1739</v>
       </c>
       <c r="P23" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R23" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S23" t="s">
         <v>3382</v>
       </c>
       <c r="T23" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -51150,16 +51150,16 @@
         <v>1743</v>
       </c>
       <c r="P24" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R24" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S24" t="s">
         <v>3382</v>
       </c>
       <c r="T24" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -51343,7 +51343,7 @@
         <v>1757</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -51359,7 +51359,7 @@
         <v>3383</v>
       </c>
       <c r="U28" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="V28">
         <v>80</v>
@@ -51412,7 +51412,7 @@
         <v>3383</v>
       </c>
       <c r="U29" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="V29">
         <v>80</v>
@@ -51465,7 +51465,7 @@
         <v>3383</v>
       </c>
       <c r="U30" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="V30">
         <v>90</v>
@@ -51512,7 +51512,7 @@
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S31" t="s">
         <v>3385</v>
@@ -51559,7 +51559,7 @@
         <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S32" t="s">
         <v>3385</v>
@@ -51606,7 +51606,7 @@
         <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S33" t="s">
         <v>3385</v>
@@ -51653,7 +51653,7 @@
         <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S34" t="s">
         <v>3385</v>
@@ -51701,13 +51701,13 @@
         <v>4</v>
       </c>
       <c r="R35" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S35" t="s">
         <v>3382</v>
       </c>
       <c r="T35" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -51756,13 +51756,13 @@
         <v>4</v>
       </c>
       <c r="R36" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S36" t="s">
         <v>3386</v>
       </c>
       <c r="T36" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -51810,16 +51810,16 @@
         <v>1786</v>
       </c>
       <c r="P37" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R37" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S37" t="s">
         <v>3386</v>
       </c>
       <c r="T37" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -52163,7 +52163,7 @@
         <v>1714</v>
       </c>
       <c r="P44" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R44" t="s">
         <v>1854</v>
@@ -52213,7 +52213,7 @@
         <v>1801</v>
       </c>
       <c r="P45" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R45" t="s">
         <v>1854</v>
@@ -52263,7 +52263,7 @@
         <v>1804</v>
       </c>
       <c r="P46" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R46" t="s">
         <v>1854</v>
@@ -52366,7 +52366,7 @@
         <v>1813</v>
       </c>
       <c r="P48" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R48" t="s">
         <v>1854</v>
@@ -53221,7 +53221,7 @@
         <v>1</v>
       </c>
       <c r="R67" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S67" t="s">
         <v>3385</v>
@@ -53268,7 +53268,7 @@
         <v>1</v>
       </c>
       <c r="R68" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S68" t="s">
         <v>3385</v>
@@ -53315,7 +53315,7 @@
         <v>1</v>
       </c>
       <c r="R69" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -53359,7 +53359,7 @@
         <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -53403,7 +53403,7 @@
         <v>1</v>
       </c>
       <c r="R71" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -53447,7 +53447,7 @@
         <v>1</v>
       </c>
       <c r="R72" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -53489,7 +53489,7 @@
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -53535,7 +53535,7 @@
         <v>4</v>
       </c>
       <c r="R74" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S74" t="s">
         <v>3382</v>
@@ -53585,7 +53585,7 @@
         <v>4</v>
       </c>
       <c r="R75" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S75" t="s">
         <v>3382</v>
@@ -53630,7 +53630,7 @@
         <v>1673</v>
       </c>
       <c r="R76" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S76" t="s">
         <v>3382</v>
@@ -53680,7 +53680,7 @@
         <v>4</v>
       </c>
       <c r="R77" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S77" t="s">
         <v>121</v>
@@ -53738,10 +53738,10 @@
         <v>1664</v>
       </c>
       <c r="P78" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R78" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S78" t="s">
         <v>3382</v>
@@ -53797,10 +53797,10 @@
         <v>1677</v>
       </c>
       <c r="P79" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R79" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S79" t="s">
         <v>3382</v>
@@ -53856,10 +53856,10 @@
         <v>1700</v>
       </c>
       <c r="P80" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R80" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S80" t="s">
         <v>3382</v>
@@ -53911,7 +53911,7 @@
         <v>1739</v>
       </c>
       <c r="R81" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S81" t="s">
         <v>3382</v>
@@ -53963,7 +53963,7 @@
         <v>1883</v>
       </c>
       <c r="R82" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S82" t="s">
         <v>3382</v>
@@ -54012,7 +54012,7 @@
         <v>1743</v>
       </c>
       <c r="R83" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S83" t="s">
         <v>3382</v>
@@ -54061,7 +54061,7 @@
         <v>1889</v>
       </c>
       <c r="R84" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S84" t="s">
         <v>3382</v>
@@ -54110,7 +54110,7 @@
         <v>1786</v>
       </c>
       <c r="R85" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S85" t="s">
         <v>3382</v>
@@ -54161,7 +54161,7 @@
         <v>1896</v>
       </c>
       <c r="R86" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S86" t="s">
         <v>3382</v>
@@ -54206,7 +54206,7 @@
         <v>1714</v>
       </c>
       <c r="P87" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R87" t="s">
         <v>2179</v>
@@ -54255,10 +54255,10 @@
         <v>1883</v>
       </c>
       <c r="P88" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="R88" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S88" t="s">
         <v>3382</v>
@@ -54446,10 +54446,10 @@
         <v>5</v>
       </c>
       <c r="P92" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R92" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S92" t="s">
         <v>3386</v>
@@ -54498,10 +54498,10 @@
         <v>7</v>
       </c>
       <c r="P93" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R93" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S93" t="s">
         <v>3386</v>
@@ -54550,10 +54550,10 @@
         <v>9</v>
       </c>
       <c r="P94" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R94" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S94" t="s">
         <v>3386</v>
@@ -54602,10 +54602,10 @@
         <v>11</v>
       </c>
       <c r="P95" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R95" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S95" t="s">
         <v>3386</v>
@@ -54654,10 +54654,10 @@
         <v>13</v>
       </c>
       <c r="P96" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R96" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S96" t="s">
         <v>3386</v>
@@ -54708,10 +54708,10 @@
         <v>9</v>
       </c>
       <c r="P97" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R97" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S97" t="s">
         <v>3386</v>
@@ -54760,10 +54760,10 @@
         <v>13</v>
       </c>
       <c r="P98" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R98" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S98" t="s">
         <v>3387</v>
@@ -54812,10 +54812,10 @@
         <v>16</v>
       </c>
       <c r="P99" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="R99" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S99" t="s">
         <v>3387</v>
@@ -55036,7 +55036,7 @@
         <v>1677</v>
       </c>
       <c r="R104" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S104" t="s">
         <v>3382</v>
@@ -55088,7 +55088,7 @@
         <v>1877</v>
       </c>
       <c r="R105" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S105" t="s">
         <v>3382</v>
@@ -55232,7 +55232,7 @@
         <v>4</v>
       </c>
       <c r="R108" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S108" t="s">
         <v>3382</v>
@@ -55282,7 +55282,7 @@
         <v>4</v>
       </c>
       <c r="R109" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S109" t="s">
         <v>3386</v>
@@ -55332,7 +55332,7 @@
         <v>3381</v>
       </c>
       <c r="R110" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S110" t="s">
         <v>3382</v>
@@ -55382,7 +55382,7 @@
         <v>6</v>
       </c>
       <c r="R111" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S111" t="s">
         <v>3382</v>
@@ -55432,7 +55432,7 @@
         <v>6</v>
       </c>
       <c r="R112" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S112" t="s">
         <v>3382</v>
@@ -55479,7 +55479,7 @@
         <v>1786</v>
       </c>
       <c r="R113" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S113" t="s">
         <v>3382</v>
@@ -55573,7 +55573,7 @@
         <v>1673</v>
       </c>
       <c r="R115" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S115" t="s">
         <v>3382</v>
@@ -55623,7 +55623,7 @@
         <v>6</v>
       </c>
       <c r="R116" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S116" t="s">
         <v>3386</v>
@@ -55716,7 +55716,7 @@
         <v>16</v>
       </c>
       <c r="R118" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S118" t="s">
         <v>3387</v>
@@ -55849,7 +55849,7 @@
         <v>1</v>
       </c>
       <c r="R121" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -55893,7 +55893,7 @@
         <v>1</v>
       </c>
       <c r="R122" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -55935,7 +55935,7 @@
         <v>1</v>
       </c>
       <c r="R123" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -55979,7 +55979,7 @@
         <v>1</v>
       </c>
       <c r="R124" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="S124" t="s">
         <v>3382</v>
@@ -56026,7 +56026,7 @@
         <v>1</v>
       </c>
       <c r="R125" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="S125" t="s">
         <v>3383</v>
@@ -56076,10 +56076,10 @@
         <v>1</v>
       </c>
       <c r="R126" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="S126" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -56123,7 +56123,7 @@
         <v>1</v>
       </c>
       <c r="R127" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -56214,7 +56214,7 @@
         <v>4</v>
       </c>
       <c r="R129" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S129" t="s">
         <v>3382</v>
@@ -56265,7 +56265,7 @@
         <v>6</v>
       </c>
       <c r="R130" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S130" t="s">
         <v>3382</v>
@@ -56316,7 +56316,7 @@
         <v>8</v>
       </c>
       <c r="R131" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S131" t="s">
         <v>3382</v>
@@ -56367,7 +56367,7 @@
         <v>6</v>
       </c>
       <c r="R132" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S132" t="s">
         <v>3382</v>
@@ -56418,7 +56418,7 @@
         <v>6</v>
       </c>
       <c r="R133" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S133" t="s">
         <v>3382</v>
@@ -56469,7 +56469,7 @@
         <v>6</v>
       </c>
       <c r="R134" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S134" t="s">
         <v>3382</v>
@@ -56520,7 +56520,7 @@
         <v>8</v>
       </c>
       <c r="R135" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S135" t="s">
         <v>3382</v>
@@ -56571,7 +56571,7 @@
         <v>6</v>
       </c>
       <c r="R136" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S136" t="s">
         <v>3382</v>
@@ -56622,7 +56622,7 @@
         <v>8</v>
       </c>
       <c r="R137" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S137" t="s">
         <v>3382</v>
@@ -56673,7 +56673,7 @@
         <v>8</v>
       </c>
       <c r="R138" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S138" t="s">
         <v>3382</v>
@@ -56724,7 +56724,7 @@
         <v>6</v>
       </c>
       <c r="R139" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S139" t="s">
         <v>3382</v>
@@ -56775,7 +56775,7 @@
         <v>8</v>
       </c>
       <c r="R140" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S140" t="s">
         <v>3382</v>
@@ -56826,7 +56826,7 @@
         <v>8</v>
       </c>
       <c r="R141" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S141" t="s">
         <v>3382</v>
@@ -56877,7 +56877,7 @@
         <v>6</v>
       </c>
       <c r="R142" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S142" t="s">
         <v>3382</v>
@@ -56928,7 +56928,7 @@
         <v>8</v>
       </c>
       <c r="R143" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S143" t="s">
         <v>3382</v>
@@ -56979,7 +56979,7 @@
         <v>8</v>
       </c>
       <c r="R144" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S144" t="s">
         <v>3382</v>
@@ -57030,7 +57030,7 @@
         <v>6</v>
       </c>
       <c r="R145" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S145" t="s">
         <v>3382</v>
@@ -57081,7 +57081,7 @@
         <v>6</v>
       </c>
       <c r="R146" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S146" t="s">
         <v>3382</v>
@@ -57130,7 +57130,7 @@
         <v>8</v>
       </c>
       <c r="R147" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S147" t="s">
         <v>3382</v>
@@ -57181,7 +57181,7 @@
         <v>6</v>
       </c>
       <c r="R148" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S148" t="s">
         <v>3382</v>
@@ -57232,7 +57232,7 @@
         <v>5</v>
       </c>
       <c r="R149" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S149" t="s">
         <v>3382</v>
@@ -57283,7 +57283,7 @@
         <v>5</v>
       </c>
       <c r="R150" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S150" t="s">
         <v>3382</v>
@@ -57332,7 +57332,7 @@
         <v>6</v>
       </c>
       <c r="R151" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S151" t="s">
         <v>3382</v>
@@ -57378,13 +57378,13 @@
         <v>1</v>
       </c>
       <c r="R152" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S152" t="s">
         <v>3382</v>
       </c>
       <c r="U152" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -57430,7 +57430,7 @@
         <v>6</v>
       </c>
       <c r="R153" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S153" t="s">
         <v>3382</v>
@@ -57482,7 +57482,7 @@
         <v>6</v>
       </c>
       <c r="R154" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S154" t="s">
         <v>3382</v>
@@ -57718,7 +57718,7 @@
         <v>4</v>
       </c>
       <c r="R159" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S159" t="s">
         <v>121</v>
@@ -57819,7 +57819,7 @@
         <v>8</v>
       </c>
       <c r="R161" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S161" t="s">
         <v>3382</v>
@@ -57868,7 +57868,7 @@
         <v>8</v>
       </c>
       <c r="R162" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S162" t="s">
         <v>3382</v>
@@ -57919,7 +57919,7 @@
         <v>6</v>
       </c>
       <c r="R163" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S163" t="s">
         <v>3382</v>
@@ -57970,7 +57970,7 @@
         <v>8</v>
       </c>
       <c r="R164" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S164" t="s">
         <v>3382</v>
@@ -58019,7 +58019,7 @@
         <v>5</v>
       </c>
       <c r="R165" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S165" t="s">
         <v>3382</v>
@@ -58068,7 +58068,7 @@
         <v>8</v>
       </c>
       <c r="R166" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S166" t="s">
         <v>3382</v>
@@ -58122,7 +58122,7 @@
         <v>8</v>
       </c>
       <c r="R167" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S167" t="s">
         <v>3382</v>
@@ -58271,7 +58271,7 @@
         <v>6</v>
       </c>
       <c r="R170" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="S170" t="s">
         <v>3388</v>
@@ -58320,7 +58320,7 @@
         <v>8</v>
       </c>
       <c r="R171" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="S171" t="s">
         <v>3382</v>
@@ -58363,7 +58363,7 @@
         <v>1</v>
       </c>
       <c r="R172" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S172" t="s">
         <v>3382</v>
@@ -58406,7 +58406,7 @@
         <v>1</v>
       </c>
       <c r="R173" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S173" t="s">
         <v>3382</v>
@@ -58449,7 +58449,7 @@
         <v>1</v>
       </c>
       <c r="R174" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S174" t="s">
         <v>3382</v>
@@ -58492,7 +58492,7 @@
         <v>1</v>
       </c>
       <c r="R175" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="S175" t="s">
         <v>3382</v>
@@ -58535,7 +58535,7 @@
         <v>1</v>
       </c>
       <c r="R176" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S176" t="s">
         <v>3382</v>
@@ -58578,7 +58578,7 @@
         <v>1</v>
       </c>
       <c r="R177" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S177" t="s">
         <v>121</v>
@@ -58624,7 +58624,7 @@
         <v>1</v>
       </c>
       <c r="R178" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S178" t="s">
         <v>121</v>
@@ -58670,7 +58670,7 @@
         <v>1</v>
       </c>
       <c r="R179" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S179" t="s">
         <v>3382</v>
@@ -58713,7 +58713,7 @@
         <v>1</v>
       </c>
       <c r="R180" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S180" t="s">
         <v>121</v>
@@ -59842,7 +59842,7 @@
         <v>P-Cloud</v>
       </c>
       <c r="C205" s="96" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D205" s="98"/>
       <c r="E205" s="99" t="s">
@@ -59875,7 +59875,7 @@
         <v>3386</v>
       </c>
       <c r="U205" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="206" spans="1:21">
@@ -60318,7 +60318,7 @@
         <v>Haste</v>
       </c>
       <c r="C216" s="96" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="D216" s="98"/>
       <c r="E216" s="99" t="s">
@@ -60584,7 +60584,7 @@
         <v>1739</v>
       </c>
       <c r="R221" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="S221" t="s">
         <v>3382</v>
@@ -60848,7 +60848,7 @@
         <v>1</v>
       </c>
       <c r="R227" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="228" spans="1:19">
@@ -60888,7 +60888,7 @@
         <v>1</v>
       </c>
       <c r="R228" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="229" spans="1:19">
@@ -60973,7 +60973,7 @@
         <v>1</v>
       </c>
       <c r="R230" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="231" spans="1:19">
@@ -61015,7 +61015,7 @@
         <v>1</v>
       </c>
       <c r="R231" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="232" spans="1:19">
@@ -61057,7 +61057,7 @@
         <v>1</v>
       </c>
       <c r="R232" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="233" spans="1:19">
@@ -61099,7 +61099,7 @@
         <v>1</v>
       </c>
       <c r="R233" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="234" spans="1:19">
@@ -61141,7 +61141,7 @@
         <v>1</v>
       </c>
       <c r="R234" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="235" spans="1:19">
@@ -61183,7 +61183,7 @@
         <v>1</v>
       </c>
       <c r="R235" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="236" spans="1:19">
@@ -61225,7 +61225,7 @@
         <v>1</v>
       </c>
       <c r="R236" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="237" spans="1:19">
@@ -61267,7 +61267,7 @@
         <v>1</v>
       </c>
       <c r="R237" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="238" spans="1:19">
@@ -61309,7 +61309,7 @@
         <v>1</v>
       </c>
       <c r="R238" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="239" spans="1:19">
@@ -61351,7 +61351,7 @@
         <v>1</v>
       </c>
       <c r="R239" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="240" spans="1:19">
@@ -61393,7 +61393,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="241" spans="1:19">
@@ -61435,7 +61435,7 @@
         <v>1</v>
       </c>
       <c r="R241" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="242" spans="1:19">
@@ -61477,7 +61477,7 @@
         <v>1</v>
       </c>
       <c r="R242" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="243" spans="1:19">
@@ -61530,7 +61530,7 @@
         <v>Remedy</v>
       </c>
       <c r="C244" s="96" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="D244" s="98"/>
       <c r="E244" s="99" t="s">
@@ -61599,7 +61599,7 @@
         <v>1</v>
       </c>
       <c r="R245" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="246" spans="1:19">
@@ -61612,7 +61612,7 @@
         <v>PoisonNova</v>
       </c>
       <c r="C246" s="96" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="D246" s="98"/>
       <c r="E246" s="99" t="s">
@@ -61684,7 +61684,7 @@
         <v>1</v>
       </c>
       <c r="R247" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="248" spans="1:19">
@@ -61724,7 +61724,7 @@
         <v>1</v>
       </c>
       <c r="R248" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="249" spans="1:19">
@@ -61764,7 +61764,7 @@
         <v>1</v>
       </c>
       <c r="R249" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="250" spans="1:19">
@@ -61804,7 +61804,7 @@
         <v>1</v>
       </c>
       <c r="R250" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="251" spans="1:19">
@@ -61846,7 +61846,7 @@
         <v>1683</v>
       </c>
       <c r="R251" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="252" spans="1:19">
@@ -61888,7 +61888,7 @@
         <v>1727</v>
       </c>
       <c r="R252" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="253" spans="1:19">
@@ -61930,7 +61930,7 @@
         <v>11</v>
       </c>
       <c r="R253" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="254" spans="1:19">
@@ -61972,7 +61972,7 @@
         <v>1947</v>
       </c>
       <c r="R254" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="255" spans="1:19">
@@ -62014,7 +62014,7 @@
         <v>11</v>
       </c>
       <c r="R255" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="256" spans="1:19">
@@ -62056,7 +62056,7 @@
         <v>11</v>
       </c>
       <c r="R256" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="257" spans="1:19">
@@ -62098,7 +62098,7 @@
         <v>11</v>
       </c>
       <c r="R257" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="258" spans="1:19">
@@ -62140,7 +62140,7 @@
         <v>11</v>
       </c>
       <c r="R258" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="259" spans="1:19">
@@ -62182,7 +62182,7 @@
         <v>1683</v>
       </c>
       <c r="R259" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="S259" t="s">
         <v>3382</v>
@@ -62227,7 +62227,7 @@
         <v>1947</v>
       </c>
       <c r="R260" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="S260" t="s">
         <v>3383</v>
@@ -62272,7 +62272,7 @@
         <v>11</v>
       </c>
       <c r="R261" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="262" spans="1:19">
@@ -62314,7 +62314,7 @@
         <v>11</v>
       </c>
       <c r="R262" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="263" spans="1:19">
@@ -62356,7 +62356,7 @@
         <v>11</v>
       </c>
       <c r="R263" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="264" spans="1:19">
@@ -62398,7 +62398,7 @@
         <v>11</v>
       </c>
       <c r="R264" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
   </sheetData>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74460DF8-9A8D-4DB7-B24D-352734DA0E35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -22,17 +28,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$Y$213</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>A</author>
   </authors>
   <commentList>
-    <comment ref="F100" authorId="0">
+    <comment ref="F100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H100" authorId="0">
+    <comment ref="H100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F103" authorId="0">
+    <comment ref="F103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H103" authorId="0">
+    <comment ref="H103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H106" authorId="0">
+    <comment ref="H106" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F109" authorId="0">
+    <comment ref="F109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H109" authorId="0">
+    <comment ref="H109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F112" authorId="0">
+    <comment ref="F112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -436,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H112" authorId="0">
+    <comment ref="H112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F115" authorId="0">
+    <comment ref="F115" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -542,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H115" authorId="0">
+    <comment ref="H115" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -605,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F121" authorId="0">
+    <comment ref="F121" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -648,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H121" authorId="0">
+    <comment ref="H121" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -711,7 +717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F124" authorId="0">
+    <comment ref="F124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -754,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H124" authorId="0">
+    <comment ref="H124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -817,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F142" authorId="0">
+    <comment ref="F142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000010000000}">
       <text>
         <r>
           <rPr>
@@ -860,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H142" authorId="0">
+    <comment ref="H142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000011000000}">
       <text>
         <r>
           <rPr>
@@ -928,7 +934,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10924" uniqueCount="3478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10944" uniqueCount="3478">
   <si>
     <t>Monster</t>
   </si>
@@ -11342,9 +11348,6 @@
     <t>Holy</t>
   </si>
   <si>
-    <t>Unholy</t>
-  </si>
-  <si>
     <t>Debuff</t>
   </si>
   <si>
@@ -11372,13 +11375,16 @@
     <t>Sacrifice</t>
   </si>
   <si>
-    <t>AllO</t>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Damage=target.maxHP * 10 / attacker.initiative + 2; one group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot; $(&quot;#,##0.00&quot;)&quot;;&quot; $-&quot;#&quot; &quot;;@&quot; &quot;"/>
   </numFmts>
@@ -12244,7 +12250,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel_BuiltIn_Currency" xfId="2"/>
+    <cellStyle name="Excel_BuiltIn_Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -12304,7 +12310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12336,9 +12342,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12370,6 +12394,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12545,7 +12587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X252"/>
   <sheetViews>
@@ -28516,7 +28558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -29059,12 +29101,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29281,6 +29323,9 @@
       <c r="K5" t="s">
         <v>1867</v>
       </c>
+      <c r="L5" t="s">
+        <v>1908</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="str">
@@ -29359,7 +29404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N162"/>
   <sheetViews>
@@ -34847,7 +34892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T117"/>
   <sheetViews>
@@ -38993,13 +39038,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X62" sqref="X62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S214" sqref="S214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39012,6 +39057,7 @@
     <col min="11" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -39073,7 +39119,7 @@
         <v>3464</v>
       </c>
       <c r="V1" s="160" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="W1" s="160" t="s">
         <v>3432</v>
@@ -39128,6 +39174,9 @@
       <c r="P2" t="s">
         <v>3381</v>
       </c>
+      <c r="Q2">
+        <v>11</v>
+      </c>
       <c r="R2" t="s">
         <v>3436</v>
       </c>
@@ -39488,6 +39537,9 @@
       <c r="P9" t="s">
         <v>6</v>
       </c>
+      <c r="Q9">
+        <v>13</v>
+      </c>
       <c r="R9" t="s">
         <v>2179</v>
       </c>
@@ -39538,6 +39590,9 @@
       <c r="P10" t="s">
         <v>6</v>
       </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
       <c r="R10" t="s">
         <v>3437</v>
       </c>
@@ -39821,6 +39876,9 @@
       <c r="P15" t="s">
         <v>6</v>
       </c>
+      <c r="Q15">
+        <v>8</v>
+      </c>
       <c r="R15" t="s">
         <v>3436</v>
       </c>
@@ -39871,6 +39929,9 @@
       <c r="P16" t="s">
         <v>6</v>
       </c>
+      <c r="Q16">
+        <v>12</v>
+      </c>
       <c r="R16" t="s">
         <v>3436</v>
       </c>
@@ -39878,7 +39939,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:23">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>FlareBook</v>
@@ -39931,7 +39992,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:23">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>MageStaff</v>
@@ -39987,7 +40048,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:23">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Flame</v>
@@ -40039,7 +40100,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:23">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Gas</v>
@@ -40091,7 +40152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:23">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Blizzard</v>
@@ -40143,7 +40204,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:23">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Lightng</v>
@@ -40195,7 +40256,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:23">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>P-Blast</v>
@@ -40244,7 +40305,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:23">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Tornado</v>
@@ -40293,7 +40354,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:23">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Quake</v>
@@ -40345,7 +40406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:23">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Whirl</v>
@@ -40394,7 +40455,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:23">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Flare</v>
@@ -40443,7 +40504,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:23">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Acid</v>
@@ -40495,7 +40556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:23">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>HealStaff</v>
@@ -40538,6 +40599,9 @@
       <c r="P29" t="s">
         <v>6</v>
       </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
       <c r="R29" t="s">
         <v>1854</v>
       </c>
@@ -40545,7 +40609,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:23">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>CureBook</v>
@@ -40588,14 +40652,20 @@
       <c r="P30" t="s">
         <v>6</v>
       </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
       <c r="R30" t="s">
         <v>1854</v>
       </c>
       <c r="S30" t="s">
         <v>3385</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="W30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Cure</v>
@@ -40643,8 +40713,11 @@
       <c r="S31" t="s">
         <v>3385</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="W31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Honey</v>
@@ -40692,6 +40765,9 @@
       <c r="S32" t="s">
         <v>3385</v>
       </c>
+      <c r="W32" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="str">
@@ -40741,6 +40817,9 @@
       <c r="S33" t="s">
         <v>3385</v>
       </c>
+      <c r="W33" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="str">
@@ -40837,6 +40916,9 @@
       <c r="P35" t="s">
         <v>6</v>
       </c>
+      <c r="Q35">
+        <v>13</v>
+      </c>
       <c r="R35" t="s">
         <v>1854</v>
       </c>
@@ -40890,6 +40972,9 @@
       <c r="P36" t="s">
         <v>6</v>
       </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
       <c r="R36" t="s">
         <v>1854</v>
       </c>
@@ -40943,6 +41028,9 @@
       <c r="P37" t="s">
         <v>6</v>
       </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
       <c r="R37" t="s">
         <v>1854</v>
       </c>
@@ -40996,6 +41084,9 @@
       <c r="P38" t="s">
         <v>6</v>
       </c>
+      <c r="Q38">
+        <v>10</v>
+      </c>
       <c r="R38" t="s">
         <v>1854</v>
       </c>
@@ -41049,6 +41140,9 @@
       <c r="P39" t="s">
         <v>6</v>
       </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
       <c r="R39" t="s">
         <v>1854</v>
       </c>
@@ -41365,7 +41459,7 @@
         <v>3386</v>
       </c>
       <c r="T45" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -41474,10 +41568,10 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="B48" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="C48" s="96" t="s">
         <v>75</v>
@@ -41520,8 +41614,11 @@
       <c r="S48" t="s">
         <v>3388</v>
       </c>
+      <c r="W48" t="s">
+        <v>74</v>
+      </c>
       <c r="Y48" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -41575,6 +41672,12 @@
       <c r="S49" t="s">
         <v>3387</v>
       </c>
+      <c r="U49">
+        <v>200</v>
+      </c>
+      <c r="V49">
+        <v>100</v>
+      </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="str">
@@ -41627,6 +41730,12 @@
       <c r="S50" t="s">
         <v>3387</v>
       </c>
+      <c r="U50">
+        <v>600</v>
+      </c>
+      <c r="V50">
+        <v>100</v>
+      </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="str">
@@ -41737,6 +41846,9 @@
       <c r="U52">
         <v>250</v>
       </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="str">
@@ -41791,6 +41903,9 @@
       </c>
       <c r="U53">
         <v>350</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -41847,6 +41962,9 @@
       <c r="U54">
         <v>490</v>
       </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="str">
@@ -41902,6 +42020,9 @@
       <c r="U55">
         <v>660</v>
       </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="str">
@@ -41957,6 +42078,9 @@
       <c r="U56">
         <v>850</v>
       </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
       <c r="W56" t="s">
         <v>3383</v>
       </c>
@@ -42023,6 +42147,9 @@
       <c r="U57">
         <v>250</v>
       </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" t="str">
@@ -42080,6 +42207,9 @@
       <c r="U58">
         <v>50</v>
       </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
       <c r="X58">
         <v>60</v>
       </c>
@@ -42140,6 +42270,9 @@
       <c r="U59">
         <v>320</v>
       </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
       <c r="X59">
         <v>164</v>
       </c>
@@ -42197,6 +42330,9 @@
       </c>
       <c r="U60">
         <v>50</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
       </c>
       <c r="X60">
         <v>80</v>
@@ -42889,7 +43025,7 @@
         <v>3386</v>
       </c>
       <c r="T72" t="s">
-        <v>3467</v>
+        <v>1802</v>
       </c>
       <c r="W72" t="s">
         <v>3465</v>
@@ -42951,6 +43087,9 @@
       </c>
       <c r="U73">
         <v>1050</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -43008,6 +43147,9 @@
       <c r="U74">
         <v>1050</v>
       </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="str">
@@ -43178,7 +43320,7 @@
         <v>Backlash</v>
       </c>
       <c r="C78" s="96" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="D78" s="98"/>
       <c r="E78" s="99" t="s">
@@ -43217,7 +43359,7 @@
         <v>121</v>
       </c>
       <c r="Y78" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -43266,6 +43408,9 @@
         <v>3436</v>
       </c>
       <c r="S79" t="s">
+        <v>3382</v>
+      </c>
+      <c r="W79" t="s">
         <v>3441</v>
       </c>
     </row>
@@ -43317,6 +43462,9 @@
         <v>3436</v>
       </c>
       <c r="S80" t="s">
+        <v>3382</v>
+      </c>
+      <c r="W80" t="s">
         <v>3441</v>
       </c>
     </row>
@@ -43368,6 +43516,9 @@
         <v>3436</v>
       </c>
       <c r="S81" t="s">
+        <v>3382</v>
+      </c>
+      <c r="W81" t="s">
         <v>3441</v>
       </c>
     </row>
@@ -43419,6 +43570,9 @@
         <v>3436</v>
       </c>
       <c r="S82" t="s">
+        <v>3382</v>
+      </c>
+      <c r="W82" t="s">
         <v>3441</v>
       </c>
     </row>
@@ -43468,6 +43622,9 @@
         <v>3436</v>
       </c>
       <c r="S83" t="s">
+        <v>3382</v>
+      </c>
+      <c r="W83" t="s">
         <v>3441</v>
       </c>
     </row>
@@ -43517,6 +43674,9 @@
         <v>3436</v>
       </c>
       <c r="S84" t="s">
+        <v>3382</v>
+      </c>
+      <c r="W84" t="s">
         <v>3441</v>
       </c>
     </row>
@@ -43568,6 +43728,9 @@
         <v>3436</v>
       </c>
       <c r="S85" t="s">
+        <v>3382</v>
+      </c>
+      <c r="W85" t="s">
         <v>3441</v>
       </c>
     </row>
@@ -43619,6 +43782,9 @@
         <v>3436</v>
       </c>
       <c r="S86" t="s">
+        <v>3382</v>
+      </c>
+      <c r="W86" t="s">
         <v>3441</v>
       </c>
     </row>
@@ -43668,6 +43834,9 @@
         <v>3436</v>
       </c>
       <c r="S87" t="s">
+        <v>3382</v>
+      </c>
+      <c r="W87" t="s">
         <v>3441</v>
       </c>
     </row>
@@ -43717,6 +43886,9 @@
         <v>3436</v>
       </c>
       <c r="S88" t="s">
+        <v>3382</v>
+      </c>
+      <c r="W88" t="s">
         <v>3441</v>
       </c>
     </row>
@@ -45221,7 +45393,7 @@
         <v>3383</v>
       </c>
       <c r="X116">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -45277,7 +45449,7 @@
         <v>3382</v>
       </c>
       <c r="W117" t="s">
-        <v>3459</v>
+        <v>3389</v>
       </c>
       <c r="X117">
         <v>100</v>
@@ -45336,7 +45508,7 @@
         <v>3382</v>
       </c>
       <c r="T118" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -46292,7 +46464,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="43" t="s">
-        <v>1907</v>
+        <v>3477</v>
       </c>
       <c r="K140" s="19"/>
       <c r="L140" s="19"/>
@@ -46347,7 +46519,7 @@
         <v>5</v>
       </c>
       <c r="R141" t="s">
-        <v>2179</v>
+        <v>3468</v>
       </c>
       <c r="S141" t="s">
         <v>3384</v>
@@ -46444,6 +46616,9 @@
       <c r="S143" t="s">
         <v>3383</v>
       </c>
+      <c r="W143" t="s">
+        <v>363</v>
+      </c>
       <c r="X143">
         <v>50</v>
       </c>
@@ -46494,6 +46669,9 @@
       <c r="S144" t="s">
         <v>3383</v>
       </c>
+      <c r="W144" t="s">
+        <v>363</v>
+      </c>
       <c r="X144">
         <v>60</v>
       </c>
@@ -46544,6 +46722,9 @@
       <c r="S145" t="s">
         <v>3383</v>
       </c>
+      <c r="W145" t="s">
+        <v>363</v>
+      </c>
       <c r="X145">
         <v>70</v>
       </c>
@@ -46595,7 +46776,7 @@
         <v>3383</v>
       </c>
       <c r="W146" t="s">
-        <v>3383</v>
+        <v>70</v>
       </c>
       <c r="X146">
         <v>99</v>
@@ -46648,7 +46829,7 @@
         <v>3383</v>
       </c>
       <c r="W147" t="s">
-        <v>3450</v>
+        <v>270</v>
       </c>
       <c r="X147">
         <v>80</v>
@@ -46701,7 +46882,7 @@
         <v>3383</v>
       </c>
       <c r="W148" t="s">
-        <v>3451</v>
+        <v>50</v>
       </c>
       <c r="X148">
         <v>80</v>
@@ -46754,7 +46935,7 @@
         <v>3383</v>
       </c>
       <c r="W149" t="s">
-        <v>3452</v>
+        <v>105</v>
       </c>
       <c r="X149">
         <v>90</v>
@@ -46802,9 +46983,6 @@
       <c r="S150" t="s">
         <v>3383</v>
       </c>
-      <c r="W150" t="s">
-        <v>3383</v>
-      </c>
       <c r="X150">
         <v>50</v>
       </c>
@@ -46851,9 +47029,6 @@
       <c r="S151" t="s">
         <v>3383</v>
       </c>
-      <c r="W151" t="s">
-        <v>3383</v>
-      </c>
       <c r="X151">
         <v>50</v>
       </c>
@@ -46900,9 +47075,6 @@
       <c r="S152" t="s">
         <v>3389</v>
       </c>
-      <c r="W152" t="s">
-        <v>3389</v>
-      </c>
     </row>
     <row r="153" spans="1:24">
       <c r="A153" t="str">
@@ -47179,6 +47351,9 @@
       <c r="O158" s="5" t="s">
         <v>1883</v>
       </c>
+      <c r="Q158">
+        <v>5</v>
+      </c>
       <c r="R158" t="s">
         <v>3436</v>
       </c>
@@ -47228,6 +47403,9 @@
       <c r="O159" s="5" t="s">
         <v>1743</v>
       </c>
+      <c r="Q159">
+        <v>6</v>
+      </c>
       <c r="R159" t="s">
         <v>3436</v>
       </c>
@@ -47277,6 +47455,9 @@
       <c r="O160" s="5" t="s">
         <v>1889</v>
       </c>
+      <c r="Q160">
+        <v>7</v>
+      </c>
       <c r="R160" t="s">
         <v>3436</v>
       </c>
@@ -47326,6 +47507,9 @@
       <c r="O161" s="5" t="s">
         <v>1786</v>
       </c>
+      <c r="Q161">
+        <v>9</v>
+      </c>
       <c r="R161" t="s">
         <v>3436</v>
       </c>
@@ -47376,6 +47560,9 @@
       </c>
       <c r="O162" s="5" t="s">
         <v>1896</v>
+      </c>
+      <c r="Q162">
+        <v>12</v>
       </c>
       <c r="R162" t="s">
         <v>3436</v>
@@ -47422,6 +47609,9 @@
       <c r="O163" s="5" t="s">
         <v>1677</v>
       </c>
+      <c r="Q163">
+        <v>6</v>
+      </c>
       <c r="R163" t="s">
         <v>3436</v>
       </c>
@@ -47568,6 +47758,9 @@
       <c r="O166" s="5" t="s">
         <v>1739</v>
       </c>
+      <c r="Q166">
+        <v>4</v>
+      </c>
       <c r="R166" t="s">
         <v>3436</v>
       </c>
@@ -47850,6 +48043,9 @@
       <c r="S172" t="s">
         <v>3382</v>
       </c>
+      <c r="W172" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" t="str">
@@ -47896,8 +48092,11 @@
       <c r="U173">
         <v>1200</v>
       </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
       <c r="W173" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="174" spans="1:25">
@@ -48323,7 +48522,7 @@
         <v>FatalGas</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" ref="B183:B214" si="12">C183&amp;D183</f>
+        <f t="shared" ref="B183:B198" si="12">C183&amp;D183</f>
         <v>FatalGas</v>
       </c>
       <c r="C183" s="96" t="s">
@@ -48777,7 +48976,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="str">
         <f t="shared" si="11"/>
         <v>Charm</v>
@@ -48823,7 +49022,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="str">
         <f t="shared" si="11"/>
         <v>Hypnos</v>
@@ -48869,7 +49068,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="str">
         <f t="shared" si="11"/>
         <v>Remedy</v>
@@ -48912,7 +49111,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="str">
         <f t="shared" si="11"/>
         <v>HeartMagi</v>
@@ -48956,10 +49155,10 @@
         <v>3440</v>
       </c>
       <c r="S196" t="s">
-        <v>3427</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" t="str">
         <f t="shared" si="11"/>
         <v>AegisMagi</v>
@@ -49006,10 +49205,13 @@
         <v>3383</v>
       </c>
       <c r="W197" t="s">
-        <v>3477</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23">
+        <v>572</v>
+      </c>
+      <c r="X197">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24">
       <c r="A198" t="str">
         <f t="shared" si="11"/>
         <v>MasmuneMagi</v>
@@ -49065,7 +49267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="str">
         <f t="shared" si="11"/>
         <v>EyeDrop</v>
@@ -49112,7 +49314,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="str">
         <f t="shared" si="11"/>
         <v>Elixier</v>
@@ -49156,8 +49358,11 @@
       <c r="S200" t="s">
         <v>3385</v>
       </c>
-    </row>
-    <row r="201" spans="1:23">
+      <c r="W200" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24">
       <c r="A201" t="str">
         <f t="shared" si="11"/>
         <v>SoftPotion</v>
@@ -49204,7 +49409,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="str">
         <f t="shared" si="11"/>
         <v>CurePotion</v>
@@ -49250,8 +49455,14 @@
       <c r="S202" t="s">
         <v>3385</v>
       </c>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="U202">
+        <v>20</v>
+      </c>
+      <c r="W202" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24">
       <c r="A203" t="str">
         <f t="shared" si="11"/>
         <v>X-CurePotion</v>
@@ -49297,8 +49508,14 @@
       <c r="S203" t="s">
         <v>3385</v>
       </c>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="U203">
+        <v>50</v>
+      </c>
+      <c r="W203" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24">
       <c r="A204" t="str">
         <f t="shared" si="11"/>
         <v>CursePotion</v>
@@ -49345,7 +49562,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="str">
         <f t="shared" si="11"/>
         <v>Sand</v>
@@ -49382,7 +49599,7 @@
         <v>1</v>
       </c>
       <c r="R205" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="S205" t="s">
         <v>3386</v>
@@ -49394,7 +49611,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="str">
         <f t="shared" si="11"/>
         <v>Cobweb</v>
@@ -49431,7 +49648,7 @@
         <v>1</v>
       </c>
       <c r="R206" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="S206" t="s">
         <v>3386</v>
@@ -49443,7 +49660,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="str">
         <f t="shared" si="11"/>
         <v>Blitz</v>
@@ -49480,7 +49697,7 @@
         <v>2030</v>
       </c>
       <c r="R207" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="S207" t="s">
         <v>3386</v>
@@ -49492,7 +49709,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="str">
         <f t="shared" si="11"/>
         <v>Drain</v>
@@ -49529,7 +49746,7 @@
         <v>1</v>
       </c>
       <c r="R208" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="S208" t="s">
         <v>3382</v>
@@ -49578,7 +49795,7 @@
         <v>1</v>
       </c>
       <c r="R209" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="S209" t="s">
         <v>3382</v>
@@ -49592,7 +49809,7 @@
     </row>
     <row r="210" spans="1:23">
       <c r="A210" t="str">
-        <f t="shared" ref="A210:A241" si="14">B210</f>
+        <f t="shared" ref="A210:A213" si="14">B210</f>
         <v>Haste</v>
       </c>
       <c r="B210" t="str">
@@ -49627,7 +49844,7 @@
         <v>2030</v>
       </c>
       <c r="R210" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="S210" t="s">
         <v>3384</v>
@@ -49676,7 +49893,7 @@
         <v>1</v>
       </c>
       <c r="R211" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="S211" t="s">
         <v>3384</v>
@@ -49765,6 +49982,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y213" xr:uid="{07A39CE9-4A1A-4BF5-BD67-D0564DB834D2}"/>
   <sortState ref="A2:Y213">
     <sortCondition ref="P2:P213"/>
     <sortCondition descending="1" ref="R2:R213"/>
@@ -49772,11 +49990,12 @@
     <sortCondition ref="E2:E213"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W264"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -62407,7 +62626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M261"/>
   <sheetViews>
@@ -67972,7 +68191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -68824,7 +69043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AC340"/>
   <sheetViews>
@@ -83751,7 +83970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I16"/>
   <sheetViews>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408FF6C3-88BD-4ED2-A169-122D5EA5FA34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -27,17 +26,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$Y$213</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>A</author>
   </authors>
   <commentList>
-    <comment ref="F100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="F100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="H100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="F103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="H103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H106" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
+    <comment ref="H106" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
+    <comment ref="F109" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
+    <comment ref="H109" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
+    <comment ref="F112" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
+    <comment ref="H112" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F115" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
+    <comment ref="F115" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H115" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000B000000}">
+    <comment ref="H115" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F121" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000C000000}">
+    <comment ref="F121" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H121" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000D000000}">
+    <comment ref="H121" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -716,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000E000000}">
+    <comment ref="F124" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -759,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000F000000}">
+    <comment ref="H124" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -822,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000010000000}">
+    <comment ref="F142" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000011000000}">
+    <comment ref="H142" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +932,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10901" uniqueCount="3461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10902" uniqueCount="3461">
   <si>
     <t>Monster</t>
   </si>
@@ -11332,7 +11331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot; $(&quot;#,##0.00&quot;)&quot;;&quot; $-&quot;#&quot; &quot;;@&quot; &quot;"/>
   </numFmts>
@@ -12198,7 +12197,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel_BuiltIn_Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel_BuiltIn_Currency" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -12291,23 +12290,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -12343,23 +12325,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12535,7 +12500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X252"/>
   <sheetViews>
@@ -28506,7 +28471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -29049,7 +29014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N162"/>
   <sheetViews>
@@ -34537,7 +34502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T117"/>
   <sheetViews>
@@ -38686,13 +38651,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:Y213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38779,7 +38744,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" hidden="1">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A47" si="0">B2</f>
         <v>Laser Sword</v>
@@ -38832,7 +38797,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" hidden="1">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Sabre</v>
@@ -38885,7 +38850,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" hidden="1">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>CatClaw</v>
@@ -38938,7 +38903,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" hidden="1">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Rapier</v>
@@ -38991,7 +38956,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" hidden="1">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Beak</v>
@@ -39042,7 +39007,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" hidden="1">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Tail</v>
@@ -39093,7 +39058,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" hidden="1">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Fin</v>
@@ -39144,7 +39109,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" hidden="1">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>ComVirus</v>
@@ -39195,7 +39160,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" hidden="1">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Psi Gun</v>
@@ -39248,7 +39213,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" hidden="1">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Vampic Sword</v>
@@ -39307,7 +39272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" hidden="1">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Touch</v>
@@ -39365,7 +39330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" hidden="1">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Dissolve</v>
@@ -39423,7 +39388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" hidden="1">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Absorb</v>
@@ -39481,7 +39446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" hidden="1">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Psi Knife</v>
@@ -39534,7 +39499,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" hidden="1">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Psi Sword</v>
@@ -39587,7 +39552,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" hidden="1">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Flare Book</v>
@@ -39640,7 +39605,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" hidden="1">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Mage Staff</v>
@@ -39696,7 +39661,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" hidden="1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Flame</v>
@@ -39748,7 +39713,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" hidden="1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Gas</v>
@@ -39800,7 +39765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" hidden="1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Blizzard</v>
@@ -39852,7 +39817,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" hidden="1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Lightng</v>
@@ -39904,7 +39869,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" hidden="1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>P-Blast</v>
@@ -39953,7 +39918,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" hidden="1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Tornado</v>
@@ -40002,7 +39967,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" hidden="1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Quake</v>
@@ -40054,7 +40019,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" hidden="1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Whirl</v>
@@ -40103,7 +40068,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" hidden="1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Flare</v>
@@ -40152,7 +40117,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" hidden="1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Acid</v>
@@ -40256,8 +40221,11 @@
       <c r="S29" t="s">
         <v>3388</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="W29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" hidden="1">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Cure Book</v>
@@ -40313,7 +40281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" hidden="1">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Cure</v>
@@ -40365,7 +40333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" hidden="1">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Honey</v>
@@ -40417,7 +40385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" hidden="1">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Heal</v>
@@ -40469,7 +40437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" hidden="1">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Burning</v>
@@ -40521,7 +40489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" hidden="1">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Prayer Book</v>
@@ -40577,7 +40545,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" hidden="1">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Fire Book</v>
@@ -40633,7 +40601,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" hidden="1">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Ice Book</v>
@@ -40689,7 +40657,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Book</v>
@@ -40745,7 +40713,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Fog Book</v>
@@ -40801,7 +40769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Thunder</v>
@@ -40853,7 +40821,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" hidden="1">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Ice</v>
@@ -40905,7 +40873,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" hidden="1">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Fire</v>
@@ -40957,7 +40925,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" hidden="1">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Beam</v>
@@ -41006,7 +40974,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" hidden="1">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Dispel</v>
@@ -41058,7 +41026,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" hidden="1">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>D-Beam</v>
@@ -41110,7 +41078,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" hidden="1">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Squirt</v>
@@ -41162,7 +41130,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" hidden="1">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>SunBurst</v>
@@ -41269,7 +41237,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" hidden="1">
       <c r="A49" t="str">
         <f>B49</f>
         <v>Missile Cannon</v>
@@ -41327,7 +41295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" hidden="1">
       <c r="A50" t="str">
         <f t="shared" ref="A50:A81" si="7">B50</f>
         <v>NukeBomb</v>
@@ -41385,7 +41353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" hidden="1">
       <c r="A51" t="str">
         <f t="shared" si="7"/>
         <v>Samurai Bow</v>
@@ -41439,7 +41407,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" hidden="1">
       <c r="A52" t="str">
         <f t="shared" si="7"/>
         <v>SMG Gun</v>
@@ -41500,7 +41468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" hidden="1">
       <c r="A53" t="str">
         <f t="shared" si="7"/>
         <v>Grenade</v>
@@ -41558,7 +41526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" hidden="1">
       <c r="A54" t="str">
         <f t="shared" si="7"/>
         <v>Bazooka Cannon</v>
@@ -41617,7 +41585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" hidden="1">
       <c r="A55" t="str">
         <f t="shared" si="7"/>
         <v>Vulcan Cannon</v>
@@ -41676,7 +41644,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" hidden="1">
       <c r="A56" t="str">
         <f t="shared" si="7"/>
         <v>Tank Cannon</v>
@@ -41741,7 +41709,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" hidden="1">
       <c r="A57" t="str">
         <f t="shared" si="7"/>
         <v>Fire Gun</v>
@@ -41805,7 +41773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" hidden="1">
       <c r="A58" t="str">
         <f t="shared" si="7"/>
         <v>Bow Bow</v>
@@ -41868,7 +41836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" hidden="1">
       <c r="A59" t="str">
         <f t="shared" si="7"/>
         <v>Gold Bow</v>
@@ -41931,7 +41899,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" hidden="1">
       <c r="A60" t="str">
         <f t="shared" si="7"/>
         <v>Coin</v>
@@ -41992,7 +41960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" hidden="1">
       <c r="A61" t="str">
         <f t="shared" si="7"/>
         <v>Rocket</v>
@@ -42053,7 +42021,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" hidden="1">
       <c r="A62" t="str">
         <f t="shared" si="7"/>
         <v>Colt Gun</v>
@@ -42120,7 +42088,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" hidden="1">
       <c r="A63" t="str">
         <f t="shared" si="7"/>
         <v>Musket Gun</v>
@@ -42185,7 +42153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" hidden="1">
       <c r="A64" t="str">
         <f t="shared" si="7"/>
         <v>Magnum Gun</v>
@@ -42250,7 +42218,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" hidden="1">
       <c r="A65" t="str">
         <f t="shared" si="7"/>
         <v>Laser Gun</v>
@@ -42306,7 +42274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" hidden="1">
       <c r="A66" t="str">
         <f t="shared" si="7"/>
         <v>Glass Sword</v>
@@ -42367,7 +42335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" hidden="1">
       <c r="A67" t="str">
         <f t="shared" si="7"/>
         <v>Temptat</v>
@@ -42418,7 +42386,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" hidden="1">
       <c r="A68" t="str">
         <f t="shared" si="7"/>
         <v>StunGun Gun</v>
@@ -42471,7 +42439,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" hidden="1">
       <c r="A69" t="str">
         <f t="shared" si="7"/>
         <v>Wizard Staff</v>
@@ -42524,7 +42492,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" hidden="1">
       <c r="A70" t="str">
         <f t="shared" si="7"/>
         <v>Sleep Book</v>
@@ -42577,7 +42545,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" hidden="1">
       <c r="A71" t="str">
         <f t="shared" si="7"/>
         <v>Stone Book</v>
@@ -42630,7 +42598,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" hidden="1">
       <c r="A72" t="str">
         <f t="shared" si="7"/>
         <v>Death Book</v>
@@ -42686,7 +42654,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" hidden="1">
       <c r="A73" t="str">
         <f t="shared" si="7"/>
         <v>Xcalibr Sword</v>
@@ -42747,7 +42715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" hidden="1">
       <c r="A74" t="str">
         <f t="shared" si="7"/>
         <v>Gungnir Spear</v>
@@ -42806,7 +42774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" hidden="1">
       <c r="A75" t="str">
         <f t="shared" si="7"/>
         <v>Seven Sword</v>
@@ -42859,7 +42827,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" hidden="1">
       <c r="A76" t="str">
         <f t="shared" si="7"/>
         <v>Revenge Sword</v>
@@ -42912,7 +42880,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" hidden="1">
       <c r="A77" t="str">
         <f t="shared" si="7"/>
         <v>Counter</v>
@@ -42965,7 +42933,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" hidden="1">
       <c r="A78" t="str">
         <f t="shared" si="7"/>
         <v>Backlash</v>
@@ -43017,7 +42985,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" hidden="1">
       <c r="A79" t="str">
         <f t="shared" si="7"/>
         <v>W-Pincer</v>
@@ -43069,7 +43037,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" hidden="1">
       <c r="A80" t="str">
         <f t="shared" si="7"/>
         <v>W-Attack</v>
@@ -43123,7 +43091,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" hidden="1">
       <c r="A81" t="str">
         <f t="shared" si="7"/>
         <v>4-Heads</v>
@@ -43177,7 +43145,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" hidden="1">
       <c r="A82" t="str">
         <f t="shared" ref="A82:A113" si="11">B82</f>
         <v>8-Legs</v>
@@ -43231,7 +43199,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" hidden="1">
       <c r="A83" t="str">
         <f t="shared" si="11"/>
         <v>2-Swords</v>
@@ -43283,7 +43251,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" hidden="1">
       <c r="A84" t="str">
         <f t="shared" si="11"/>
         <v>2-Tusks</v>
@@ -43335,7 +43303,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" hidden="1">
       <c r="A85" t="str">
         <f t="shared" si="11"/>
         <v>3-Heads</v>
@@ -43389,7 +43357,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" hidden="1">
       <c r="A86" t="str">
         <f t="shared" si="11"/>
         <v>3-Horns</v>
@@ -43443,7 +43411,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" hidden="1">
       <c r="A87" t="str">
         <f t="shared" si="11"/>
         <v>6-Arms</v>
@@ -43495,7 +43463,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" hidden="1">
       <c r="A88" t="str">
         <f t="shared" si="11"/>
         <v>W-Kick</v>
@@ -43547,7 +43515,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" hidden="1">
       <c r="A89" t="str">
         <f t="shared" si="11"/>
         <v>Abacus</v>
@@ -43598,7 +43566,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" hidden="1">
       <c r="A90" t="str">
         <f t="shared" si="11"/>
         <v>Whip</v>
@@ -43656,7 +43624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" hidden="1">
       <c r="A91" t="str">
         <f t="shared" si="11"/>
         <v>Blitz Whip</v>
@@ -43715,7 +43683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" hidden="1">
       <c r="A92" t="str">
         <f t="shared" si="11"/>
         <v>Nail</v>
@@ -43766,7 +43734,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" hidden="1">
       <c r="A93" t="str">
         <f t="shared" si="11"/>
         <v>Tusk</v>
@@ -43817,7 +43785,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" hidden="1">
       <c r="A94" t="str">
         <f t="shared" si="11"/>
         <v>Tongue</v>
@@ -43868,7 +43836,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" hidden="1">
       <c r="A95" t="str">
         <f t="shared" si="11"/>
         <v>Stab</v>
@@ -43919,7 +43887,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" hidden="1">
       <c r="A96" t="str">
         <f t="shared" si="11"/>
         <v>Branch</v>
@@ -43970,7 +43938,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" hidden="1">
       <c r="A97" t="str">
         <f t="shared" si="11"/>
         <v>Bash</v>
@@ -44021,7 +43989,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" hidden="1">
       <c r="A98" t="str">
         <f t="shared" si="11"/>
         <v>Punch</v>
@@ -44072,7 +44040,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" hidden="1">
       <c r="A99" t="str">
         <f t="shared" si="11"/>
         <v>Kick</v>
@@ -44123,7 +44091,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" hidden="1">
       <c r="A100" t="str">
         <f t="shared" si="11"/>
         <v>Horn</v>
@@ -44174,7 +44142,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" hidden="1">
       <c r="A101" t="str">
         <f t="shared" si="11"/>
         <v>Thorn</v>
@@ -44225,7 +44193,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" hidden="1">
       <c r="A102" t="str">
         <f t="shared" si="11"/>
         <v>Tentacle</v>
@@ -44276,7 +44244,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" hidden="1">
       <c r="A103" t="str">
         <f t="shared" si="11"/>
         <v>Hammer</v>
@@ -44327,7 +44295,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" hidden="1">
       <c r="A104" t="str">
         <f t="shared" si="11"/>
         <v>Long Sword</v>
@@ -44380,7 +44348,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" hidden="1">
       <c r="A105" t="str">
         <f t="shared" si="11"/>
         <v>Axe</v>
@@ -44433,7 +44401,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" hidden="1">
       <c r="A106" t="str">
         <f t="shared" si="11"/>
         <v>Battle Sword</v>
@@ -44486,7 +44454,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" hidden="1">
       <c r="A107" t="str">
         <f t="shared" si="11"/>
         <v>Katana</v>
@@ -44539,7 +44507,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" hidden="1">
       <c r="A108" t="str">
         <f t="shared" si="11"/>
         <v>Gold Sword</v>
@@ -44592,7 +44560,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" hidden="1">
       <c r="A109" t="str">
         <f t="shared" si="11"/>
         <v>Coral Sword</v>
@@ -44648,7 +44616,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" hidden="1">
       <c r="A110" t="str">
         <f t="shared" si="11"/>
         <v>Ogre Axe</v>
@@ -44704,7 +44672,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" hidden="1">
       <c r="A111" t="str">
         <f t="shared" si="11"/>
         <v>Dragon Sword</v>
@@ -44760,7 +44728,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" hidden="1">
       <c r="A112" t="str">
         <f t="shared" si="11"/>
         <v>Sun Sword</v>
@@ -44816,7 +44784,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" hidden="1">
       <c r="A113" t="str">
         <f t="shared" si="11"/>
         <v>Flame Sword</v>
@@ -44874,7 +44842,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" hidden="1">
       <c r="A114" t="str">
         <f t="shared" ref="A114:A145" si="15">B114</f>
         <v>Ice Sword</v>
@@ -44932,7 +44900,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" hidden="1">
       <c r="A115" t="str">
         <f t="shared" si="15"/>
         <v>Thunder Axe</v>
@@ -44990,7 +44958,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" hidden="1">
       <c r="A116" t="str">
         <f t="shared" si="15"/>
         <v>Defend Sword</v>
@@ -45051,7 +45019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" hidden="1">
       <c r="A117" t="str">
         <f t="shared" si="15"/>
         <v>Rune Axe</v>
@@ -45110,7 +45078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" hidden="1">
       <c r="A118" t="str">
         <f t="shared" si="15"/>
         <v>Muramas</v>
@@ -45166,7 +45134,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" hidden="1">
       <c r="A119" t="str">
         <f t="shared" si="15"/>
         <v>Sword</v>
@@ -45217,7 +45185,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" hidden="1">
       <c r="A120" t="str">
         <f t="shared" si="15"/>
         <v>Head</v>
@@ -45268,7 +45236,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" hidden="1">
       <c r="A121" t="str">
         <f t="shared" si="15"/>
         <v>Pincer</v>
@@ -45319,7 +45287,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" hidden="1">
       <c r="A122" t="str">
         <f t="shared" si="15"/>
         <v>Critical</v>
@@ -45371,7 +45339,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" hidden="1">
       <c r="A123" t="str">
         <f t="shared" si="15"/>
         <v>Axe</v>
@@ -45422,7 +45390,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" hidden="1">
       <c r="A124" t="str">
         <f t="shared" si="15"/>
         <v>Surprise</v>
@@ -45462,7 +45430,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" hidden="1">
       <c r="A125" t="str">
         <f t="shared" si="15"/>
         <v>Warning</v>
@@ -45502,7 +45470,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" hidden="1">
       <c r="A126" t="str">
         <f t="shared" si="15"/>
         <v>O-Quake</v>
@@ -45544,7 +45512,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" hidden="1">
       <c r="A127" t="str">
         <f t="shared" si="15"/>
         <v>O-Change</v>
@@ -45586,7 +45554,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" hidden="1">
       <c r="A128" t="str">
         <f t="shared" si="15"/>
         <v>O-Fire</v>
@@ -45628,7 +45596,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" hidden="1">
       <c r="A129" t="str">
         <f t="shared" si="15"/>
         <v>O-Poison</v>
@@ -45670,7 +45638,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" hidden="1">
       <c r="A130" t="str">
         <f t="shared" si="15"/>
         <v>O-Damage</v>
@@ -45712,7 +45680,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" hidden="1">
       <c r="A131" t="str">
         <f t="shared" si="15"/>
         <v>O-Weapon</v>
@@ -45754,7 +45722,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" hidden="1">
       <c r="A132" t="str">
         <f t="shared" si="15"/>
         <v>O-Pa/Po</v>
@@ -45796,7 +45764,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" hidden="1">
       <c r="A133" t="str">
         <f t="shared" si="15"/>
         <v>O-Para</v>
@@ -45838,7 +45806,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" hidden="1">
       <c r="A134" t="str">
         <f t="shared" si="15"/>
         <v>O-Ice</v>
@@ -45880,7 +45848,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" hidden="1">
       <c r="A135" t="str">
         <f t="shared" si="15"/>
         <v>O-Stone</v>
@@ -45922,7 +45890,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" hidden="1">
       <c r="A136" t="str">
         <f t="shared" si="15"/>
         <v>X-Fire</v>
@@ -45964,7 +45932,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" hidden="1">
       <c r="A137" t="str">
         <f t="shared" si="15"/>
         <v>X-Ice</v>
@@ -46006,7 +45974,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" hidden="1">
       <c r="A138" t="str">
         <f t="shared" si="15"/>
         <v>X-Thunder</v>
@@ -46048,7 +46016,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" hidden="1">
       <c r="A139" t="str">
         <f t="shared" si="15"/>
         <v>O-All</v>
@@ -46090,7 +46058,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" hidden="1">
       <c r="A140" t="str">
         <f t="shared" si="15"/>
         <v>DNA</v>
@@ -46135,7 +46103,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" hidden="1">
       <c r="A141" t="str">
         <f t="shared" si="15"/>
         <v>SpeedUp</v>
@@ -46186,7 +46154,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" hidden="1">
       <c r="A142" t="str">
         <f t="shared" si="15"/>
         <v>Heat</v>
@@ -46231,7 +46199,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" hidden="1">
       <c r="A143" t="str">
         <f t="shared" si="15"/>
         <v>Bronze Shield</v>
@@ -46284,7 +46252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" hidden="1">
       <c r="A144" t="str">
         <f t="shared" si="15"/>
         <v>Silver Shield</v>
@@ -46337,7 +46305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" hidden="1">
       <c r="A145" t="str">
         <f t="shared" si="15"/>
         <v>Gold Shield</v>
@@ -46390,7 +46358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" hidden="1">
       <c r="A146" t="str">
         <f t="shared" ref="A146:A177" si="19">B146</f>
         <v>Samurai Shield</v>
@@ -46443,7 +46411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" hidden="1">
       <c r="A147" t="str">
         <f t="shared" si="19"/>
         <v>Flame Shield</v>
@@ -46496,7 +46464,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" hidden="1">
       <c r="A148" t="str">
         <f t="shared" si="19"/>
         <v>Ice Shield</v>
@@ -46549,7 +46517,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" hidden="1">
       <c r="A149" t="str">
         <f t="shared" si="19"/>
         <v>Dragon Shield</v>
@@ -46602,7 +46570,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" hidden="1">
       <c r="A150" t="str">
         <f t="shared" si="19"/>
         <v>Defense</v>
@@ -46648,7 +46616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:24" hidden="1">
       <c r="A151" t="str">
         <f t="shared" si="19"/>
         <v>Shell</v>
@@ -46694,7 +46662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:24">
+    <row r="152" spans="1:24" hidden="1">
       <c r="A152" t="str">
         <f t="shared" si="19"/>
         <v>Mirror</v>
@@ -46737,7 +46705,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:24" hidden="1">
       <c r="A153" t="str">
         <f t="shared" si="19"/>
         <v>Hyper Cannon</v>
@@ -46789,7 +46757,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:24" hidden="1">
       <c r="A154" t="str">
         <f t="shared" si="19"/>
         <v>Breath</v>
@@ -46835,7 +46803,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:24" hidden="1">
       <c r="A155" t="str">
         <f t="shared" si="19"/>
         <v>P-Skin</v>
@@ -46881,7 +46849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:24" hidden="1">
       <c r="A156" t="str">
         <f t="shared" si="19"/>
         <v>ParaSkin</v>
@@ -46927,7 +46895,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" hidden="1">
       <c r="A157" t="str">
         <f t="shared" si="19"/>
         <v>StonSkin</v>
@@ -46973,7 +46941,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:24" hidden="1">
       <c r="A158" t="str">
         <f t="shared" si="19"/>
         <v>Kick Art</v>
@@ -47025,7 +46993,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:24" hidden="1">
       <c r="A159" t="str">
         <f t="shared" si="19"/>
         <v>HeadBut Art</v>
@@ -47077,7 +47045,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:24" hidden="1">
       <c r="A160" t="str">
         <f t="shared" si="19"/>
         <v>X-Kick Art</v>
@@ -47129,7 +47097,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" hidden="1">
       <c r="A161" t="str">
         <f t="shared" si="19"/>
         <v>Jyudo Art</v>
@@ -47181,7 +47149,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:25" hidden="1">
       <c r="A162" t="str">
         <f t="shared" si="19"/>
         <v>Karate Art</v>
@@ -47235,7 +47203,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:25" hidden="1">
       <c r="A163" t="str">
         <f t="shared" si="19"/>
         <v>Sypha</v>
@@ -47286,7 +47254,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" hidden="1">
       <c r="A164" t="str">
         <f t="shared" si="19"/>
         <v>Saw</v>
@@ -47332,7 +47300,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:25" hidden="1">
       <c r="A165" t="str">
         <f t="shared" si="19"/>
         <v>ChainSaw</v>
@@ -47380,7 +47348,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:25" hidden="1">
       <c r="A166" t="str">
         <f t="shared" si="19"/>
         <v>Chop Art</v>
@@ -47435,7 +47403,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" hidden="1">
       <c r="A167" t="str">
         <f t="shared" si="19"/>
         <v>ParaNail</v>
@@ -47481,7 +47449,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:25" hidden="1">
       <c r="A168" t="str">
         <f t="shared" si="19"/>
         <v>Wind Up</v>
@@ -47527,7 +47495,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" hidden="1">
       <c r="A169" t="str">
         <f t="shared" si="19"/>
         <v>Tie Up</v>
@@ -47573,7 +47541,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:25" hidden="1">
       <c r="A170" t="str">
         <f t="shared" si="19"/>
         <v>Poison</v>
@@ -47619,7 +47587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" hidden="1">
       <c r="A171" t="str">
         <f t="shared" si="19"/>
         <v>Petrify</v>
@@ -47665,7 +47633,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="172" spans="1:25">
+    <row r="172" spans="1:25" hidden="1">
       <c r="A172" t="str">
         <f t="shared" si="19"/>
         <v>Steal</v>
@@ -47711,7 +47679,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" hidden="1">
       <c r="A173" t="str">
         <f t="shared" si="19"/>
         <v>Explode</v>
@@ -47763,7 +47731,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" hidden="1">
       <c r="A174" t="str">
         <f t="shared" si="19"/>
         <v>Riddle</v>
@@ -47809,7 +47777,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" hidden="1">
       <c r="A175" t="str">
         <f t="shared" si="19"/>
         <v>CursSong</v>
@@ -47855,7 +47823,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:25" hidden="1">
       <c r="A176" t="str">
         <f t="shared" si="19"/>
         <v>MadSong</v>
@@ -47901,7 +47869,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="177" spans="1:25">
+    <row r="177" spans="1:25" hidden="1">
       <c r="A177" t="str">
         <f t="shared" si="19"/>
         <v>PoisonBurst</v>
@@ -47950,7 +47918,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:25" hidden="1">
       <c r="A178" t="str">
         <f t="shared" ref="A178:A209" si="24">B178</f>
         <v>SleepGas</v>
@@ -47996,7 +47964,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="179" spans="1:25">
+    <row r="179" spans="1:25" hidden="1">
       <c r="A179" t="str">
         <f t="shared" si="24"/>
         <v>Sleep</v>
@@ -48042,7 +48010,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="180" spans="1:25">
+    <row r="180" spans="1:25" hidden="1">
       <c r="A180" t="str">
         <f t="shared" si="24"/>
         <v>StonGaze</v>
@@ -48088,7 +48056,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:25" hidden="1">
       <c r="A181" t="str">
         <f t="shared" si="24"/>
         <v>Stone</v>
@@ -48134,7 +48102,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="182" spans="1:25">
+    <row r="182" spans="1:25" hidden="1">
       <c r="A182" t="str">
         <f t="shared" si="24"/>
         <v>StoneGas</v>
@@ -48180,7 +48148,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="1:25">
+    <row r="183" spans="1:25" hidden="1">
       <c r="A183" t="str">
         <f t="shared" si="24"/>
         <v>FatalGas</v>
@@ -48226,7 +48194,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:25" hidden="1">
       <c r="A184" t="str">
         <f t="shared" si="24"/>
         <v>X-Gaze</v>
@@ -48272,7 +48240,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="185" spans="1:25">
+    <row r="185" spans="1:25" hidden="1">
       <c r="A185" t="str">
         <f t="shared" si="24"/>
         <v>Erase</v>
@@ -48318,7 +48286,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="186" spans="1:25">
+    <row r="186" spans="1:25" hidden="1">
       <c r="A186" t="str">
         <f t="shared" si="24"/>
         <v>Blind</v>
@@ -48364,7 +48332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:25">
+    <row r="187" spans="1:25" hidden="1">
       <c r="A187" t="str">
         <f t="shared" si="24"/>
         <v>Flash</v>
@@ -48410,7 +48378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:25">
+    <row r="188" spans="1:25" hidden="1">
       <c r="A188" t="str">
         <f t="shared" si="24"/>
         <v>Ink</v>
@@ -48456,7 +48424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:25">
+    <row r="189" spans="1:25" hidden="1">
       <c r="A189" t="str">
         <f t="shared" si="24"/>
         <v>PoisonCloud</v>
@@ -48502,7 +48470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:25">
+    <row r="190" spans="1:25" hidden="1">
       <c r="A190" t="str">
         <f t="shared" si="24"/>
         <v>Gaze</v>
@@ -48548,7 +48516,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="191" spans="1:25">
+    <row r="191" spans="1:25" hidden="1">
       <c r="A191" t="str">
         <f t="shared" si="24"/>
         <v>Stunner</v>
@@ -48594,7 +48562,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="192" spans="1:25">
+    <row r="192" spans="1:25" hidden="1">
       <c r="A192" t="str">
         <f t="shared" si="24"/>
         <v>Gaze</v>
@@ -48640,7 +48608,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="193" spans="1:24">
+    <row r="193" spans="1:24" hidden="1">
       <c r="A193" t="str">
         <f t="shared" si="24"/>
         <v>Charm</v>
@@ -48686,7 +48654,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="194" spans="1:24">
+    <row r="194" spans="1:24" hidden="1">
       <c r="A194" t="str">
         <f t="shared" si="24"/>
         <v>Hypnos</v>
@@ -48732,7 +48700,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="195" spans="1:24">
+    <row r="195" spans="1:24" hidden="1">
       <c r="A195" t="str">
         <f t="shared" si="24"/>
         <v>Remedy</v>
@@ -48822,7 +48790,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="197" spans="1:24">
+    <row r="197" spans="1:24" hidden="1">
       <c r="A197" t="str">
         <f t="shared" si="24"/>
         <v>Aegis Magi</v>
@@ -48875,7 +48843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:24">
+    <row r="198" spans="1:24" hidden="1">
       <c r="A198" t="str">
         <f t="shared" si="24"/>
         <v>Masmune Magi</v>
@@ -48931,7 +48899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:24">
+    <row r="199" spans="1:24" hidden="1">
       <c r="A199" t="str">
         <f t="shared" si="24"/>
         <v>EyeDrop</v>
@@ -48978,7 +48946,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="200" spans="1:24">
+    <row r="200" spans="1:24" hidden="1">
       <c r="A200" t="str">
         <f t="shared" si="24"/>
         <v>Elixier</v>
@@ -49026,7 +48994,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="201" spans="1:24">
+    <row r="201" spans="1:24" hidden="1">
       <c r="A201" t="str">
         <f t="shared" si="24"/>
         <v>Soft Potion</v>
@@ -49073,7 +49041,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="202" spans="1:24">
+    <row r="202" spans="1:24" hidden="1">
       <c r="A202" t="str">
         <f t="shared" si="24"/>
         <v>Cure Potion</v>
@@ -49126,7 +49094,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="203" spans="1:24">
+    <row r="203" spans="1:24" hidden="1">
       <c r="A203" t="str">
         <f t="shared" si="24"/>
         <v>X-Cure Potion</v>
@@ -49179,7 +49147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:24">
+    <row r="204" spans="1:24" hidden="1">
       <c r="A204" t="str">
         <f t="shared" si="24"/>
         <v>Curse Potion</v>
@@ -49226,7 +49194,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="205" spans="1:24">
+    <row r="205" spans="1:24" hidden="1">
       <c r="A205" t="str">
         <f t="shared" si="24"/>
         <v>Sand</v>
@@ -49275,7 +49243,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="206" spans="1:24">
+    <row r="206" spans="1:24" hidden="1">
       <c r="A206" t="str">
         <f t="shared" si="24"/>
         <v>Cobweb</v>
@@ -49324,7 +49292,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="207" spans="1:24">
+    <row r="207" spans="1:24" hidden="1">
       <c r="A207" t="str">
         <f t="shared" si="24"/>
         <v>Blitz</v>
@@ -49373,7 +49341,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="208" spans="1:24">
+    <row r="208" spans="1:24" hidden="1">
       <c r="A208" t="str">
         <f t="shared" si="24"/>
         <v>Drain</v>
@@ -49422,7 +49390,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:23" hidden="1">
       <c r="A209" t="str">
         <f t="shared" si="24"/>
         <v>Stench</v>
@@ -49471,7 +49439,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:23" hidden="1">
       <c r="A210" t="str">
         <f t="shared" ref="A210:A213" si="29">B210</f>
         <v>Haste</v>
@@ -49520,7 +49488,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:23" hidden="1">
       <c r="A211" t="str">
         <f t="shared" si="29"/>
         <v>Multiply</v>
@@ -49563,7 +49531,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:23" hidden="1">
       <c r="A212" t="str">
         <f t="shared" si="29"/>
         <v>FlareApollo</v>
@@ -49605,7 +49573,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:23" hidden="1">
       <c r="A213" t="str">
         <f t="shared" si="29"/>
         <v>Smasher</v>
@@ -49646,7 +49614,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y213" xr:uid="{07A39CE9-4A1A-4BF5-BD67-D0564DB834D2}"/>
+  <autoFilter ref="A1:Y213">
+    <filterColumn colId="18">
+      <filters>
+        <filter val="Allies"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:Y213">
     <sortCondition ref="P2:P213"/>
     <sortCondition descending="1" ref="R2:R213"/>
@@ -49659,7 +49633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W264"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -62290,7 +62264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M261"/>
   <sheetViews>
@@ -67855,7 +67829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -68707,7 +68681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AC340"/>
   <sheetViews>
@@ -83634,7 +83608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I16"/>
   <sheetViews>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -932,7 +932,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10902" uniqueCount="3461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10902" uniqueCount="3462">
   <si>
     <t>Monster</t>
   </si>
@@ -11326,6 +11326,9 @@
   </si>
   <si>
     <t>Damage=target.maxHP * 10 / attacker.initiative + 2; one group</t>
+  </si>
+  <si>
+    <t>All enemies; Stun</t>
   </si>
 </sst>
 </file>
@@ -38655,9 +38658,9 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:Y213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W48" sqref="W48"/>
+      <selection pane="bottomLeft" activeCell="P214" sqref="P214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38785,7 +38788,7 @@
         <v>1877</v>
       </c>
       <c r="P2" t="s">
-        <v>3381</v>
+        <v>5</v>
       </c>
       <c r="Q2">
         <v>11</v>
@@ -40169,7 +40172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" hidden="1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Heal Staff</v>
@@ -41182,7 +41185,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" hidden="1">
       <c r="A48" t="s">
         <v>3452</v>
       </c>
@@ -42335,7 +42338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:25" hidden="1">
+    <row r="67" spans="1:25">
       <c r="A67" t="str">
         <f t="shared" si="7"/>
         <v>Temptat</v>
@@ -42386,14 +42389,14 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1">
+    <row r="68" spans="1:25">
       <c r="A68" t="str">
         <f t="shared" si="7"/>
-        <v>StunGun Gun</v>
+        <v>StunGun</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="9"/>
-        <v>StunGun Gun</v>
+        <f>C68</f>
+        <v>StunGun</v>
       </c>
       <c r="C68" s="94" t="s">
         <v>562</v>
@@ -42439,7 +42442,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1">
+    <row r="69" spans="1:25">
       <c r="A69" t="str">
         <f t="shared" si="7"/>
         <v>Wizard Staff</v>
@@ -42470,7 +42473,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="43" t="s">
-        <v>1812</v>
+        <v>3461</v>
       </c>
       <c r="K69" s="19"/>
       <c r="L69" s="19"/>
@@ -42492,7 +42495,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1">
+    <row r="70" spans="1:25">
       <c r="A70" t="str">
         <f t="shared" si="7"/>
         <v>Sleep Book</v>
@@ -42545,7 +42548,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1">
+    <row r="71" spans="1:25">
       <c r="A71" t="str">
         <f t="shared" si="7"/>
         <v>Stone Book</v>
@@ -42598,7 +42601,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1">
+    <row r="72" spans="1:25">
       <c r="A72" t="str">
         <f t="shared" si="7"/>
         <v>Death Book</v>
@@ -48743,7 +48746,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="196" spans="1:24">
+    <row r="196" spans="1:24" hidden="1">
       <c r="A196" t="str">
         <f t="shared" si="24"/>
         <v>Heart Magi</v>
@@ -49615,9 +49618,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Y213">
-    <filterColumn colId="18">
+    <filterColumn colId="15">
       <filters>
-        <filter val="Allies"/>
+        <filter val="Status"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8301,8 +8301,8 @@
   <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1:V1048576"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P166" sqref="P166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33894,9 +33894,9 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:Y257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W164" sqref="W164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33905,7 +33905,7 @@
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.42578125" customWidth="1"/>
     <col min="11" max="14" width="9.140625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -34782,7 +34782,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" hidden="1">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Flare Book</v>
@@ -34835,7 +34835,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" hidden="1">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Mage Staff</v>
@@ -34891,7 +34891,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" hidden="1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Flame</v>
@@ -34943,7 +34943,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" hidden="1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Gas</v>
@@ -34995,7 +34995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" hidden="1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Blizzard</v>
@@ -35047,7 +35047,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" hidden="1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Lightning</v>
@@ -35099,7 +35099,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" hidden="1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>P-Blast</v>
@@ -35148,7 +35148,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" hidden="1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Tornado</v>
@@ -35197,7 +35197,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" hidden="1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Quake</v>
@@ -35249,7 +35249,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" hidden="1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Whirl</v>
@@ -35298,7 +35298,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" hidden="1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Flare</v>
@@ -35347,7 +35347,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" hidden="1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Acid</v>
@@ -35399,7 +35399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" hidden="1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Heal Staff</v>
@@ -35455,7 +35455,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" hidden="1">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Cure Book</v>
@@ -35511,7 +35511,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" hidden="1">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Cure</v>
@@ -35563,7 +35563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" hidden="1">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Honey</v>
@@ -35615,7 +35615,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" hidden="1">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Heal</v>
@@ -35667,7 +35667,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" hidden="1">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Burning</v>
@@ -35719,7 +35719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" hidden="1">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Prayer Book</v>
@@ -35775,7 +35775,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" hidden="1">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Fire Book</v>
@@ -35831,7 +35831,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" hidden="1">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Ice Book</v>
@@ -35887,7 +35887,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Book</v>
@@ -35943,7 +35943,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Fog Book</v>
@@ -35999,7 +35999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Thunder</v>
@@ -36051,7 +36051,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" hidden="1">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Ice</v>
@@ -36103,7 +36103,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" hidden="1">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Fire</v>
@@ -36155,7 +36155,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" hidden="1">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Beam</v>
@@ -36204,7 +36204,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" hidden="1">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Dispel</v>
@@ -36256,7 +36256,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" hidden="1">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>D-Beam</v>
@@ -36308,7 +36308,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" hidden="1">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Squirt</v>
@@ -36360,7 +36360,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" hidden="1">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>SunBurst</v>
@@ -37566,7 +37566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" hidden="1">
       <c r="A67" t="str">
         <f t="shared" si="9"/>
         <v>Temptat</v>
@@ -37670,7 +37670,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" hidden="1">
       <c r="A69" t="str">
         <f t="shared" si="9"/>
         <v>Wizard Staff</v>
@@ -37723,7 +37723,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" hidden="1">
       <c r="A70" t="str">
         <f t="shared" si="9"/>
         <v>Sleep Book</v>
@@ -37776,7 +37776,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" hidden="1">
       <c r="A71" t="str">
         <f t="shared" si="9"/>
         <v>Stone Book</v>
@@ -37829,7 +37829,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" hidden="1">
       <c r="A72" t="str">
         <f t="shared" si="9"/>
         <v>Death Book</v>
@@ -42961,7 +42961,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" hidden="1">
       <c r="A173" t="str">
         <f t="shared" si="16"/>
         <v>Explode</v>
@@ -43013,7 +43013,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" hidden="1">
       <c r="A174" t="str">
         <f t="shared" si="16"/>
         <v>Riddle</v>
@@ -43059,7 +43059,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" hidden="1">
       <c r="A175" t="str">
         <f t="shared" si="16"/>
         <v>CursSong</v>
@@ -43105,7 +43105,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:25" hidden="1">
       <c r="A176" t="str">
         <f t="shared" si="16"/>
         <v>MadSong</v>
@@ -43151,7 +43151,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="177" spans="1:25">
+    <row r="177" spans="1:25" hidden="1">
       <c r="A177" t="str">
         <f t="shared" si="16"/>
         <v>PoisonBurst</v>
@@ -43200,7 +43200,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:25" hidden="1">
       <c r="A178" t="str">
         <f t="shared" si="16"/>
         <v>SleepGas</v>
@@ -43246,7 +43246,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="179" spans="1:25">
+    <row r="179" spans="1:25" hidden="1">
       <c r="A179" t="str">
         <f t="shared" si="16"/>
         <v>Sleep</v>
@@ -43292,7 +43292,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="180" spans="1:25">
+    <row r="180" spans="1:25" hidden="1">
       <c r="A180" t="str">
         <f t="shared" si="16"/>
         <v>StonGaze</v>
@@ -43338,7 +43338,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:25" hidden="1">
       <c r="A181" t="str">
         <f t="shared" si="16"/>
         <v>Stone</v>
@@ -43384,7 +43384,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="182" spans="1:25">
+    <row r="182" spans="1:25" hidden="1">
       <c r="A182" t="str">
         <f t="shared" si="16"/>
         <v>StoneGas</v>
@@ -43430,7 +43430,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="1:25">
+    <row r="183" spans="1:25" hidden="1">
       <c r="A183" t="str">
         <f t="shared" si="16"/>
         <v>FatalGas</v>
@@ -43476,7 +43476,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:25" hidden="1">
       <c r="A184" t="str">
         <f t="shared" si="16"/>
         <v>X-Gaze</v>
@@ -43522,7 +43522,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="185" spans="1:25">
+    <row r="185" spans="1:25" hidden="1">
       <c r="A185" t="str">
         <f t="shared" si="16"/>
         <v>Erase</v>
@@ -43568,7 +43568,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="186" spans="1:25">
+    <row r="186" spans="1:25" hidden="1">
       <c r="A186" t="str">
         <f t="shared" si="16"/>
         <v>Blind</v>
@@ -43614,7 +43614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:25">
+    <row r="187" spans="1:25" hidden="1">
       <c r="A187" t="str">
         <f t="shared" si="16"/>
         <v>Flash</v>
@@ -43660,7 +43660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:25">
+    <row r="188" spans="1:25" hidden="1">
       <c r="A188" t="str">
         <f t="shared" si="16"/>
         <v>Ink</v>
@@ -43706,7 +43706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:25">
+    <row r="189" spans="1:25" hidden="1">
       <c r="A189" t="str">
         <f t="shared" si="16"/>
         <v>PoisonCloud</v>
@@ -43752,7 +43752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:25">
+    <row r="190" spans="1:25" hidden="1">
       <c r="A190" t="str">
         <f t="shared" si="16"/>
         <v>Gaze</v>
@@ -43798,7 +43798,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="191" spans="1:25">
+    <row r="191" spans="1:25" hidden="1">
       <c r="A191" t="str">
         <f t="shared" si="16"/>
         <v>Stunner</v>
@@ -43844,7 +43844,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="192" spans="1:25">
+    <row r="192" spans="1:25" hidden="1">
       <c r="A192" t="str">
         <f t="shared" si="16"/>
         <v>Gaze</v>
@@ -43890,7 +43890,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="193" spans="1:24">
+    <row r="193" spans="1:24" hidden="1">
       <c r="A193" t="str">
         <f t="shared" si="16"/>
         <v>Charm</v>
@@ -43936,7 +43936,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="194" spans="1:24">
+    <row r="194" spans="1:24" hidden="1">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A257" si="23">B194</f>
         <v>Hypnos</v>
@@ -43982,7 +43982,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="195" spans="1:24">
+    <row r="195" spans="1:24" hidden="1">
       <c r="A195" t="str">
         <f t="shared" si="23"/>
         <v>Remedy</v>
@@ -46686,7 +46686,6 @@
   <autoFilter ref="A1:Y257">
     <filterColumn colId="17">
       <filters>
-        <filter val="Magic"/>
         <filter val="Melee"/>
         <filter val="Ranged"/>
       </filters>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC141D-B1D2-452C-BE2A-AF2EF9477066}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -24,14 +25,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Items!$A$1:$W$257</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$Y$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$Z$257</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9472" uniqueCount="2401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9503" uniqueCount="2401">
   <si>
     <t>Monster</t>
   </si>
@@ -7239,7 +7240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot; $(&quot;#,##0.00&quot;)&quot;;&quot; $-&quot;#&quot; &quot;;@&quot; &quot;"/>
   </numFmts>
@@ -7993,7 +7994,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel_BuiltIn_Currency" xfId="2"/>
+    <cellStyle name="Excel_BuiltIn_Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -8086,6 +8087,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8121,6 +8139,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8296,13 +8331,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P166" sqref="P166"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P172" sqref="P172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24253,7 +24288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N162"/>
   <sheetViews>
@@ -29741,7 +29776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T117"/>
   <sheetViews>
@@ -33890,13 +33925,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4" filterMode="1"/>
-  <dimension ref="A1:Y257"/>
+  <dimension ref="A1:Z257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33909,10 +33944,10 @@
     <col min="11" max="14" width="9.140625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>2320</v>
       </c>
@@ -33974,16 +34009,19 @@
         <v>2378</v>
       </c>
       <c r="W1" s="121" t="s">
+        <v>2364</v>
+      </c>
+      <c r="X1" s="121" t="s">
         <v>2344</v>
       </c>
-      <c r="X1" s="121" t="s">
+      <c r="Y1" s="121" t="s">
         <v>2358</v>
       </c>
-      <c r="Y1" s="121" t="s">
+      <c r="Z1" s="121" t="s">
         <v>2370</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26" hidden="1">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">B2</f>
         <v>Laser Sword</v>
@@ -34036,7 +34074,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26" hidden="1">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Sabre</v>
@@ -34089,7 +34127,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26" hidden="1">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>CatClaw</v>
@@ -34142,7 +34180,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26" hidden="1">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Rapier</v>
@@ -34195,7 +34233,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26" hidden="1">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Beak</v>
@@ -34246,7 +34284,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26" hidden="1">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Tail</v>
@@ -34297,7 +34335,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26" hidden="1">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Fin</v>
@@ -34348,7 +34386,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1">
+    <row r="9" spans="1:26" hidden="1">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>ComVirus</v>
@@ -34399,7 +34437,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26" hidden="1">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Psi Gun</v>
@@ -34452,7 +34490,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26" hidden="1">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Vampic Sword</v>
@@ -34504,14 +34542,14 @@
       <c r="S11" t="s">
         <v>2307</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>54</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26" hidden="1">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Touch</v>
@@ -34559,14 +34597,14 @@
       <c r="S12" t="s">
         <v>2307</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>54</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26" hidden="1">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Dissolve</v>
@@ -34614,14 +34652,14 @@
       <c r="S13" t="s">
         <v>2307</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>54</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26" hidden="1">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Absorb</v>
@@ -34669,14 +34707,14 @@
       <c r="S14" t="s">
         <v>2307</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>54</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26" hidden="1">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Psi Knife</v>
@@ -34729,7 +34767,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26" hidden="1">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Psi Sword</v>
@@ -34782,7 +34820,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1">
+    <row r="17" spans="1:24" hidden="1">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Flare Book</v>
@@ -34835,7 +34873,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1">
+    <row r="18" spans="1:24" hidden="1">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Mage Staff</v>
@@ -34891,7 +34929,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1">
+    <row r="19" spans="1:24" hidden="1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Flame</v>
@@ -34943,7 +34981,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1">
+    <row r="20" spans="1:24" hidden="1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Gas</v>
@@ -34995,7 +35033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1">
+    <row r="21" spans="1:24" hidden="1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Blizzard</v>
@@ -35047,7 +35085,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1">
+    <row r="22" spans="1:24" hidden="1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Lightning</v>
@@ -35099,7 +35137,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1">
+    <row r="23" spans="1:24" hidden="1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>P-Blast</v>
@@ -35148,7 +35186,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1">
+    <row r="24" spans="1:24" hidden="1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Tornado</v>
@@ -35197,7 +35235,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1">
+    <row r="25" spans="1:24" hidden="1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Quake</v>
@@ -35249,7 +35287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1">
+    <row r="26" spans="1:24" hidden="1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Whirl</v>
@@ -35298,7 +35336,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1">
+    <row r="27" spans="1:24" hidden="1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Flare</v>
@@ -35347,7 +35385,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1">
+    <row r="28" spans="1:24" hidden="1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Acid</v>
@@ -35399,7 +35437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1">
+    <row r="29" spans="1:24" hidden="1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Heal Staff</v>
@@ -35451,11 +35489,11 @@
       <c r="S29" t="s">
         <v>2313</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1">
+    <row r="30" spans="1:24" hidden="1">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Cure Book</v>
@@ -35507,11 +35545,11 @@
       <c r="S30" t="s">
         <v>2310</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1">
+    <row r="31" spans="1:24" hidden="1">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Cure</v>
@@ -35559,11 +35597,11 @@
       <c r="S31" t="s">
         <v>2310</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1">
+    <row r="32" spans="1:24" hidden="1">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Honey</v>
@@ -35611,11 +35649,11 @@
       <c r="S32" t="s">
         <v>2310</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1">
+    <row r="33" spans="1:26" hidden="1">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Heal</v>
@@ -35663,11 +35701,11 @@
       <c r="S33" t="s">
         <v>2310</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1">
+    <row r="34" spans="1:26" hidden="1">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Burning</v>
@@ -35715,11 +35753,11 @@
       <c r="T34" t="s">
         <v>159</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:25" hidden="1">
+    <row r="35" spans="1:26" hidden="1">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Prayer Book</v>
@@ -35775,7 +35813,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1">
+    <row r="36" spans="1:26" hidden="1">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Fire Book</v>
@@ -35831,7 +35869,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:25" hidden="1">
+    <row r="37" spans="1:26" hidden="1">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Ice Book</v>
@@ -35887,7 +35925,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1">
+    <row r="38" spans="1:26" hidden="1">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Book</v>
@@ -35943,7 +35981,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1">
+    <row r="39" spans="1:26" hidden="1">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Fog Book</v>
@@ -35999,7 +36037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1">
+    <row r="40" spans="1:26" hidden="1">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Thunder</v>
@@ -36051,7 +36089,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1">
+    <row r="41" spans="1:26" hidden="1">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Ice</v>
@@ -36103,7 +36141,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1">
+    <row r="42" spans="1:26" hidden="1">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Fire</v>
@@ -36155,7 +36193,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1">
+    <row r="43" spans="1:26" hidden="1">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Beam</v>
@@ -36204,7 +36242,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1">
+    <row r="44" spans="1:26" hidden="1">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Dispel</v>
@@ -36256,7 +36294,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1">
+    <row r="45" spans="1:26" hidden="1">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>D-Beam</v>
@@ -36308,7 +36346,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1">
+    <row r="46" spans="1:26" hidden="1">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Squirt</v>
@@ -36360,7 +36398,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1">
+    <row r="47" spans="1:26" hidden="1">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>SunBurst</v>
@@ -36412,7 +36450,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1">
+    <row r="48" spans="1:26" hidden="1">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>MegaCure</v>
@@ -36461,14 +36499,14 @@
       <c r="S48" t="s">
         <v>2313</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>74</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:25" hidden="1">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Missile Cannon</v>
@@ -36526,7 +36564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:25" hidden="1">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>NukeBomb</v>
@@ -36584,7 +36622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:25" hidden="1">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
@@ -36638,7 +36676,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:25" hidden="1">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>SMG Gun</v>
@@ -36699,7 +36737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:25" hidden="1">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Grenade</v>
@@ -36757,7 +36795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:25" hidden="1">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Bazooka Cannon</v>
@@ -36816,7 +36854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:25" hidden="1">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Vulcan Cannon</v>
@@ -36875,7 +36913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:25" hidden="1">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Tank Cannon</v>
@@ -36933,14 +36971,14 @@
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>2308</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:25" hidden="1">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Fire Gun</v>
@@ -37004,7 +37042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:25" hidden="1">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Bow Bow</v>
@@ -37063,11 +37101,11 @@
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:25" hidden="1">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -37126,11 +37164,11 @@
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:25" hidden="1">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Coin</v>
@@ -37187,11 +37225,11 @@
       <c r="V60">
         <v>0</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:25" hidden="1">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Rocket</v>
@@ -37248,11 +37286,11 @@
       <c r="V61">
         <v>55</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:25" hidden="1">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Colt Gun</v>
@@ -37315,11 +37353,11 @@
       <c r="V62">
         <v>45</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:25" hidden="1">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Musket Gun</v>
@@ -37380,11 +37418,11 @@
       <c r="V63">
         <v>75</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:25" hidden="1">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Magnum Gun</v>
@@ -37445,11 +37483,11 @@
       <c r="V64">
         <v>150</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:26" hidden="1">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Laser Gun</v>
@@ -37505,7 +37543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:26" hidden="1">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="9">B66</f>
         <v>Glass Sword</v>
@@ -37566,7 +37604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:25" hidden="1">
+    <row r="67" spans="1:26">
       <c r="A67" t="str">
         <f t="shared" si="9"/>
         <v>Temptat</v>
@@ -37617,7 +37655,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:26">
       <c r="A68" t="str">
         <f t="shared" si="9"/>
         <v>StunGun</v>
@@ -37670,7 +37708,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1">
+    <row r="69" spans="1:26">
       <c r="A69" t="str">
         <f t="shared" si="9"/>
         <v>Wizard Staff</v>
@@ -37723,7 +37761,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1">
+    <row r="70" spans="1:26">
       <c r="A70" t="str">
         <f t="shared" si="9"/>
         <v>Sleep Book</v>
@@ -37776,7 +37814,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1">
+    <row r="71" spans="1:26">
       <c r="A71" t="str">
         <f t="shared" si="9"/>
         <v>Stone Book</v>
@@ -37829,7 +37867,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1">
+    <row r="72" spans="1:26">
       <c r="A72" t="str">
         <f t="shared" si="9"/>
         <v>Death Book</v>
@@ -37885,7 +37923,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:26" hidden="1">
       <c r="A73" t="str">
         <f t="shared" si="9"/>
         <v>Xcalibr Sword</v>
@@ -37946,7 +37984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:26" hidden="1">
       <c r="A74" t="str">
         <f t="shared" si="9"/>
         <v>Gungnir Spear</v>
@@ -38005,7 +38043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" hidden="1">
+    <row r="75" spans="1:26" hidden="1">
       <c r="A75" t="str">
         <f t="shared" si="9"/>
         <v>Seven Sword</v>
@@ -38058,7 +38096,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:26" hidden="1">
       <c r="A76" t="str">
         <f t="shared" si="9"/>
         <v>Revenge Sword</v>
@@ -38107,11 +38145,11 @@
       <c r="S76" t="s">
         <v>121</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:26" hidden="1">
       <c r="A77" t="str">
         <f t="shared" si="9"/>
         <v>Counter</v>
@@ -38160,11 +38198,11 @@
       <c r="S77" t="s">
         <v>121</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:26" hidden="1">
       <c r="A78" t="str">
         <f t="shared" si="9"/>
         <v>Backlash</v>
@@ -38209,14 +38247,14 @@
       <c r="S78" t="s">
         <v>121</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>121</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>2380</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:26" hidden="1">
       <c r="A79" t="str">
         <f t="shared" si="9"/>
         <v>W-Pincer</v>
@@ -38264,11 +38302,11 @@
       <c r="S79" t="s">
         <v>2307</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:26" hidden="1">
       <c r="A80" t="str">
         <f t="shared" si="9"/>
         <v>W-Attack</v>
@@ -38318,11 +38356,11 @@
       <c r="S80" t="s">
         <v>2307</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:25" hidden="1">
       <c r="A81" t="str">
         <f t="shared" si="9"/>
         <v>4-Heads</v>
@@ -38372,11 +38410,11 @@
       <c r="S81" t="s">
         <v>2307</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:25" hidden="1">
       <c r="A82" t="str">
         <f t="shared" si="9"/>
         <v>8-Legs</v>
@@ -38426,11 +38464,11 @@
       <c r="S82" t="s">
         <v>2307</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:25" hidden="1">
       <c r="A83" t="str">
         <f t="shared" si="9"/>
         <v>2-Swords</v>
@@ -38478,11 +38516,11 @@
       <c r="S83" t="s">
         <v>2307</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:25" hidden="1">
       <c r="A84" t="str">
         <f t="shared" si="9"/>
         <v>2-Tusks</v>
@@ -38530,11 +38568,11 @@
       <c r="S84" t="s">
         <v>2307</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:25" hidden="1">
       <c r="A85" t="str">
         <f t="shared" si="9"/>
         <v>3-Heads</v>
@@ -38584,11 +38622,11 @@
       <c r="S85" t="s">
         <v>2307</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:25" hidden="1">
       <c r="A86" t="str">
         <f t="shared" si="9"/>
         <v>3-Horns</v>
@@ -38638,11 +38676,11 @@
       <c r="S86" t="s">
         <v>2307</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:25" hidden="1">
       <c r="A87" t="str">
         <f t="shared" si="9"/>
         <v>6-Arms</v>
@@ -38690,11 +38728,11 @@
       <c r="S87" t="s">
         <v>2307</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:25" hidden="1">
       <c r="A88" t="str">
         <f t="shared" si="9"/>
         <v>W-Kick</v>
@@ -38742,11 +38780,11 @@
       <c r="S88" t="s">
         <v>2307</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:25" hidden="1">
       <c r="A89" t="str">
         <f t="shared" si="9"/>
         <v>Abacus</v>
@@ -38797,7 +38835,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:25">
       <c r="A90" t="str">
         <f t="shared" si="9"/>
         <v>Whip</v>
@@ -38851,11 +38889,11 @@
       <c r="W90" t="s">
         <v>1890</v>
       </c>
-      <c r="X90">
+      <c r="Y90">
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:25">
       <c r="A91" t="str">
         <f t="shared" si="9"/>
         <v>Blitz Whip</v>
@@ -38910,11 +38948,11 @@
       <c r="W91" t="s">
         <v>1890</v>
       </c>
-      <c r="X91">
+      <c r="Y91">
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:25" hidden="1">
       <c r="A92" t="str">
         <f t="shared" si="9"/>
         <v>Nail</v>
@@ -38965,7 +39003,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:25" hidden="1">
       <c r="A93" t="str">
         <f t="shared" si="9"/>
         <v>Tusk</v>
@@ -39016,7 +39054,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:25" hidden="1">
       <c r="A94" t="str">
         <f t="shared" si="9"/>
         <v>Tongue</v>
@@ -39067,7 +39105,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:25" hidden="1">
       <c r="A95" t="str">
         <f t="shared" si="9"/>
         <v>Stab</v>
@@ -39118,7 +39156,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:25" hidden="1">
       <c r="A96" t="str">
         <f t="shared" si="9"/>
         <v>Branch</v>
@@ -39169,7 +39207,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" hidden="1">
       <c r="A97" t="str">
         <f t="shared" si="9"/>
         <v>Bash</v>
@@ -39220,7 +39258,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" hidden="1">
       <c r="A98" t="str">
         <f t="shared" si="9"/>
         <v>Punch</v>
@@ -39271,7 +39309,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" hidden="1">
       <c r="A99" t="str">
         <f t="shared" si="9"/>
         <v>Kick</v>
@@ -39322,7 +39360,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" hidden="1">
       <c r="A100" t="str">
         <f t="shared" si="9"/>
         <v>Horn</v>
@@ -39373,7 +39411,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" hidden="1">
       <c r="A101" t="str">
         <f t="shared" si="9"/>
         <v>Thorn</v>
@@ -39424,7 +39462,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" hidden="1">
       <c r="A102" t="str">
         <f t="shared" si="9"/>
         <v>Tentacle</v>
@@ -39475,7 +39513,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" hidden="1">
       <c r="A103" t="str">
         <f t="shared" si="9"/>
         <v>Hammer</v>
@@ -39526,7 +39564,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" hidden="1">
       <c r="A104" t="str">
         <f t="shared" si="9"/>
         <v>Long Sword</v>
@@ -39579,7 +39617,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" hidden="1">
       <c r="A105" t="str">
         <f t="shared" si="9"/>
         <v>Axe</v>
@@ -39632,7 +39670,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" hidden="1">
       <c r="A106" t="str">
         <f t="shared" si="9"/>
         <v>Battle Sword</v>
@@ -39685,7 +39723,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" hidden="1">
       <c r="A107" t="str">
         <f t="shared" si="9"/>
         <v>Katana</v>
@@ -39738,7 +39776,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" hidden="1">
       <c r="A108" t="str">
         <f t="shared" si="9"/>
         <v>Gold Sword</v>
@@ -39791,7 +39829,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" hidden="1">
       <c r="A109" t="str">
         <f t="shared" si="9"/>
         <v>Coral Sword</v>
@@ -39847,7 +39885,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" hidden="1">
       <c r="A110" t="str">
         <f t="shared" si="9"/>
         <v>Ogre Axe</v>
@@ -39903,7 +39941,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" hidden="1">
       <c r="A111" t="str">
         <f t="shared" si="9"/>
         <v>Dragon Sword</v>
@@ -39959,7 +39997,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" hidden="1">
       <c r="A112" t="str">
         <f t="shared" si="9"/>
         <v>Sun Sword</v>
@@ -40015,7 +40053,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:25" hidden="1">
       <c r="A113" t="str">
         <f t="shared" si="9"/>
         <v>Flame Sword</v>
@@ -40073,7 +40111,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:25" hidden="1">
       <c r="A114" t="str">
         <f t="shared" si="9"/>
         <v>Ice Sword</v>
@@ -40131,7 +40169,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:25" hidden="1">
       <c r="A115" t="str">
         <f t="shared" si="9"/>
         <v>Thunder Axe</v>
@@ -40189,7 +40227,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:25" hidden="1">
       <c r="A116" t="str">
         <f t="shared" si="9"/>
         <v>Defend Sword</v>
@@ -40243,14 +40281,14 @@
       <c r="S116" t="s">
         <v>2307</v>
       </c>
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>2308</v>
       </c>
-      <c r="X116">
+      <c r="Y116">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:25" hidden="1">
       <c r="A117" t="str">
         <f t="shared" si="9"/>
         <v>Rune Axe</v>
@@ -40302,14 +40340,14 @@
       <c r="S117" t="s">
         <v>2307</v>
       </c>
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>2314</v>
       </c>
-      <c r="X117">
+      <c r="Y117">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:25" hidden="1">
       <c r="A118" t="str">
         <f t="shared" si="9"/>
         <v>Muramas</v>
@@ -40365,7 +40403,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:25" hidden="1">
       <c r="A119" t="str">
         <f t="shared" si="9"/>
         <v>Sword</v>
@@ -40416,7 +40454,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:25" hidden="1">
       <c r="A120" t="str">
         <f t="shared" si="9"/>
         <v>Head</v>
@@ -40467,7 +40505,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:25" hidden="1">
       <c r="A121" t="str">
         <f t="shared" si="9"/>
         <v>Pincer</v>
@@ -40518,7 +40556,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:25" hidden="1">
       <c r="A122" t="str">
         <f t="shared" si="9"/>
         <v>Critical</v>
@@ -40566,11 +40604,11 @@
       <c r="S122" t="s">
         <v>2307</v>
       </c>
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:25" hidden="1">
       <c r="A123" t="str">
         <f t="shared" si="9"/>
         <v>Axe</v>
@@ -40621,7 +40659,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="124" spans="1:24" hidden="1">
+    <row r="124" spans="1:25" hidden="1">
       <c r="A124" t="str">
         <f t="shared" si="9"/>
         <v>Surprise</v>
@@ -40661,7 +40699,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="125" spans="1:24" hidden="1">
+    <row r="125" spans="1:25" hidden="1">
       <c r="A125" t="str">
         <f t="shared" si="9"/>
         <v>Warning</v>
@@ -40701,7 +40739,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="126" spans="1:24" hidden="1">
+    <row r="126" spans="1:25" hidden="1">
       <c r="A126" t="str">
         <f t="shared" si="9"/>
         <v>O-Quake</v>
@@ -40746,7 +40784,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="1:24" hidden="1">
+    <row r="127" spans="1:25" hidden="1">
       <c r="A127" t="str">
         <f t="shared" si="9"/>
         <v>O-Change</v>
@@ -40791,7 +40829,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="128" spans="1:24" hidden="1">
+    <row r="128" spans="1:25" hidden="1">
       <c r="A128" t="str">
         <f t="shared" si="9"/>
         <v>O-Fire</v>
@@ -40836,7 +40874,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1">
+    <row r="129" spans="1:25" hidden="1">
       <c r="A129" t="str">
         <f t="shared" si="9"/>
         <v>O-Poison</v>
@@ -40881,7 +40919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1">
+    <row r="130" spans="1:25" hidden="1">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="16">B130</f>
         <v>O-Damage</v>
@@ -40926,7 +40964,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1">
+    <row r="131" spans="1:25" hidden="1">
       <c r="A131" t="str">
         <f t="shared" si="16"/>
         <v>O-Weapon</v>
@@ -40971,7 +41009,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="132" spans="1:24" hidden="1">
+    <row r="132" spans="1:25" hidden="1">
       <c r="A132" t="str">
         <f t="shared" si="16"/>
         <v>O-Pa/Po</v>
@@ -41016,7 +41054,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="133" spans="1:24" hidden="1">
+    <row r="133" spans="1:25" hidden="1">
       <c r="A133" t="str">
         <f t="shared" si="16"/>
         <v>O-Para</v>
@@ -41061,7 +41099,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="134" spans="1:24" hidden="1">
+    <row r="134" spans="1:25" hidden="1">
       <c r="A134" t="str">
         <f t="shared" si="16"/>
         <v>O-Ice</v>
@@ -41106,7 +41144,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="135" spans="1:24" hidden="1">
+    <row r="135" spans="1:25" hidden="1">
       <c r="A135" t="str">
         <f t="shared" si="16"/>
         <v>O-Stone</v>
@@ -41151,7 +41189,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="136" spans="1:24" hidden="1">
+    <row r="136" spans="1:25" hidden="1">
       <c r="A136" t="str">
         <f t="shared" si="16"/>
         <v>X-Fire</v>
@@ -41195,11 +41233,11 @@
       <c r="T136" t="s">
         <v>159</v>
       </c>
-      <c r="W136" t="s">
+      <c r="X136" t="s">
         <v>2397</v>
       </c>
     </row>
-    <row r="137" spans="1:24" hidden="1">
+    <row r="137" spans="1:25" hidden="1">
       <c r="A137" t="str">
         <f t="shared" si="16"/>
         <v>X-Ice</v>
@@ -41243,11 +41281,11 @@
       <c r="T137" t="s">
         <v>441</v>
       </c>
-      <c r="W137" t="s">
+      <c r="X137" t="s">
         <v>2397</v>
       </c>
     </row>
-    <row r="138" spans="1:24" hidden="1">
+    <row r="138" spans="1:25" hidden="1">
       <c r="A138" t="str">
         <f t="shared" si="16"/>
         <v>X-Thunder</v>
@@ -41291,11 +41329,11 @@
       <c r="T138" t="s">
         <v>242</v>
       </c>
-      <c r="W138" t="s">
+      <c r="X138" t="s">
         <v>2397</v>
       </c>
     </row>
-    <row r="139" spans="1:24" hidden="1">
+    <row r="139" spans="1:25" hidden="1">
       <c r="A139" t="str">
         <f t="shared" si="16"/>
         <v>O-All</v>
@@ -41340,7 +41378,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="140" spans="1:24" hidden="1">
+    <row r="140" spans="1:25" hidden="1">
       <c r="A140" t="str">
         <f t="shared" si="16"/>
         <v>DNA</v>
@@ -41385,7 +41423,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="141" spans="1:24" hidden="1">
+    <row r="141" spans="1:25" hidden="1">
       <c r="A141" t="str">
         <f t="shared" si="16"/>
         <v>SpeedUp</v>
@@ -41432,11 +41470,11 @@
       <c r="U141">
         <v>10</v>
       </c>
-      <c r="W141" t="s">
+      <c r="X141" t="s">
         <v>2301</v>
       </c>
     </row>
-    <row r="142" spans="1:24" hidden="1">
+    <row r="142" spans="1:25" hidden="1">
       <c r="A142" t="str">
         <f t="shared" si="16"/>
         <v>Heat</v>
@@ -41481,7 +41519,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="143" spans="1:24" hidden="1">
+    <row r="143" spans="1:25" hidden="1">
       <c r="A143" t="str">
         <f t="shared" si="16"/>
         <v>Bronze Shield</v>
@@ -41527,14 +41565,14 @@
       <c r="S143" t="s">
         <v>2308</v>
       </c>
-      <c r="W143" t="s">
+      <c r="X143" t="s">
         <v>363</v>
       </c>
-      <c r="X143">
+      <c r="Y143">
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:24" hidden="1">
+    <row r="144" spans="1:25" hidden="1">
       <c r="A144" t="str">
         <f t="shared" si="16"/>
         <v>Silver Shield</v>
@@ -41580,14 +41618,14 @@
       <c r="S144" t="s">
         <v>2308</v>
       </c>
-      <c r="W144" t="s">
+      <c r="X144" t="s">
         <v>363</v>
       </c>
-      <c r="X144">
+      <c r="Y144">
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:24" hidden="1">
+    <row r="145" spans="1:25" hidden="1">
       <c r="A145" t="str">
         <f t="shared" si="16"/>
         <v>Gold Shield</v>
@@ -41633,14 +41671,14 @@
       <c r="S145" t="s">
         <v>2308</v>
       </c>
-      <c r="W145" t="s">
+      <c r="X145" t="s">
         <v>363</v>
       </c>
-      <c r="X145">
+      <c r="Y145">
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:24" hidden="1">
+    <row r="146" spans="1:25" hidden="1">
       <c r="A146" t="str">
         <f t="shared" si="16"/>
         <v>Samurai Shield</v>
@@ -41686,14 +41724,14 @@
       <c r="S146" t="s">
         <v>2308</v>
       </c>
-      <c r="W146" t="s">
+      <c r="X146" t="s">
         <v>70</v>
       </c>
-      <c r="X146">
+      <c r="Y146">
         <v>99</v>
       </c>
     </row>
-    <row r="147" spans="1:24" hidden="1">
+    <row r="147" spans="1:25" hidden="1">
       <c r="A147" t="str">
         <f t="shared" si="16"/>
         <v>Flame Shield</v>
@@ -41739,14 +41777,14 @@
       <c r="S147" t="s">
         <v>2308</v>
       </c>
-      <c r="W147" t="s">
+      <c r="X147" t="s">
         <v>270</v>
       </c>
-      <c r="X147">
+      <c r="Y147">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:24" hidden="1">
+    <row r="148" spans="1:25" hidden="1">
       <c r="A148" t="str">
         <f t="shared" si="16"/>
         <v>Ice Shield</v>
@@ -41792,14 +41830,14 @@
       <c r="S148" t="s">
         <v>2308</v>
       </c>
-      <c r="W148" t="s">
+      <c r="X148" t="s">
         <v>50</v>
       </c>
-      <c r="X148">
+      <c r="Y148">
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:24" hidden="1">
+    <row r="149" spans="1:25" hidden="1">
       <c r="A149" t="str">
         <f t="shared" si="16"/>
         <v>Dragon Shield</v>
@@ -41845,14 +41883,14 @@
       <c r="S149" t="s">
         <v>2308</v>
       </c>
-      <c r="W149" t="s">
+      <c r="X149" t="s">
         <v>105</v>
       </c>
-      <c r="X149">
+      <c r="Y149">
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:24" hidden="1">
+    <row r="150" spans="1:25" hidden="1">
       <c r="A150" t="str">
         <f t="shared" si="16"/>
         <v>Defense</v>
@@ -41894,11 +41932,11 @@
       <c r="S150" t="s">
         <v>2308</v>
       </c>
-      <c r="X150">
+      <c r="Y150">
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:24" hidden="1">
+    <row r="151" spans="1:25" hidden="1">
       <c r="A151" t="str">
         <f t="shared" si="16"/>
         <v>Shell</v>
@@ -41940,11 +41978,11 @@
       <c r="S151" t="s">
         <v>2308</v>
       </c>
-      <c r="X151">
+      <c r="Y151">
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:24" hidden="1">
+    <row r="152" spans="1:25" hidden="1">
       <c r="A152" t="str">
         <f t="shared" si="16"/>
         <v>Mirror</v>
@@ -41987,7 +42025,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:25" hidden="1">
       <c r="A153" t="str">
         <f t="shared" si="16"/>
         <v>Hyper Cannon</v>
@@ -42035,11 +42073,11 @@
       <c r="S153" t="s">
         <v>2312</v>
       </c>
-      <c r="W153" t="s">
+      <c r="X153" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:25">
       <c r="A154" t="str">
         <f t="shared" si="16"/>
         <v>Breath</v>
@@ -42075,6 +42113,9 @@
       <c r="O154" s="5">
         <v>1</v>
       </c>
+      <c r="P154" t="s">
+        <v>2364</v>
+      </c>
       <c r="R154" t="s">
         <v>2346</v>
       </c>
@@ -42085,7 +42126,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:25">
       <c r="A155" t="str">
         <f t="shared" si="16"/>
         <v>P-Skin</v>
@@ -42121,6 +42162,9 @@
       <c r="O155" s="5">
         <v>1</v>
       </c>
+      <c r="P155" t="s">
+        <v>2364</v>
+      </c>
       <c r="R155" t="s">
         <v>2345</v>
       </c>
@@ -42131,7 +42175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:25">
       <c r="A156" t="str">
         <f t="shared" si="16"/>
         <v>ParaSkin</v>
@@ -42167,6 +42211,9 @@
       <c r="O156" s="5">
         <v>1</v>
       </c>
+      <c r="P156" t="s">
+        <v>2364</v>
+      </c>
       <c r="R156" t="s">
         <v>2345</v>
       </c>
@@ -42177,7 +42224,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:25">
       <c r="A157" t="str">
         <f t="shared" si="16"/>
         <v>StonSkin</v>
@@ -42213,6 +42260,9 @@
       <c r="O157" s="5">
         <v>1</v>
       </c>
+      <c r="P157" t="s">
+        <v>2364</v>
+      </c>
       <c r="R157" t="s">
         <v>2345</v>
       </c>
@@ -42223,7 +42273,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:25" hidden="1">
       <c r="A158" t="str">
         <f t="shared" si="16"/>
         <v>Kick Art</v>
@@ -42275,7 +42325,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:25" hidden="1">
       <c r="A159" t="str">
         <f t="shared" si="16"/>
         <v>HeadBut Art</v>
@@ -42327,7 +42377,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:25" hidden="1">
       <c r="A160" t="str">
         <f t="shared" si="16"/>
         <v>X-Kick Art</v>
@@ -42379,7 +42429,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:26" hidden="1">
       <c r="A161" t="str">
         <f t="shared" si="16"/>
         <v>Jyudo Art</v>
@@ -42431,7 +42481,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:26" hidden="1">
       <c r="A162" t="str">
         <f t="shared" si="16"/>
         <v>Karate Art</v>
@@ -42485,7 +42535,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:26" hidden="1">
       <c r="A163" t="str">
         <f t="shared" si="16"/>
         <v>Sypha</v>
@@ -42532,11 +42582,11 @@
       <c r="S163" t="s">
         <v>2307</v>
       </c>
-      <c r="W163" t="s">
+      <c r="X163" t="s">
         <v>2308</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:26" hidden="1">
       <c r="A164" t="str">
         <f t="shared" si="16"/>
         <v>Saw</v>
@@ -42578,11 +42628,11 @@
       <c r="S164" t="s">
         <v>2307</v>
       </c>
-      <c r="W164" t="s">
+      <c r="X164" t="s">
         <v>2400</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:26" hidden="1">
       <c r="A165" t="str">
         <f t="shared" si="16"/>
         <v>ChainSaw</v>
@@ -42626,11 +42676,11 @@
       <c r="S165" t="s">
         <v>2307</v>
       </c>
-      <c r="W165" t="s">
+      <c r="X165" t="s">
         <v>2400</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:26" hidden="1">
       <c r="A166" t="str">
         <f t="shared" si="16"/>
         <v>Chop Art</v>
@@ -42681,11 +42731,11 @@
       <c r="S166" t="s">
         <v>2307</v>
       </c>
-      <c r="Y166" t="s">
+      <c r="Z166" t="s">
         <v>2316</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:26">
       <c r="A167" t="str">
         <f t="shared" si="16"/>
         <v>ParaNail</v>
@@ -42721,6 +42771,9 @@
       <c r="O167" s="5">
         <v>1</v>
       </c>
+      <c r="P167" t="s">
+        <v>2364</v>
+      </c>
       <c r="R167" t="s">
         <v>2345</v>
       </c>
@@ -42731,7 +42784,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:26">
       <c r="A168" t="str">
         <f t="shared" si="16"/>
         <v>Wind Up</v>
@@ -42767,6 +42820,9 @@
       <c r="O168" s="5">
         <v>1</v>
       </c>
+      <c r="P168" t="s">
+        <v>2364</v>
+      </c>
       <c r="R168" t="s">
         <v>2345</v>
       </c>
@@ -42777,7 +42833,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:26">
       <c r="A169" t="str">
         <f t="shared" si="16"/>
         <v>Tie Up</v>
@@ -42813,6 +42869,9 @@
       <c r="O169" s="5">
         <v>1</v>
       </c>
+      <c r="P169" t="s">
+        <v>2364</v>
+      </c>
       <c r="R169" t="s">
         <v>2345</v>
       </c>
@@ -42823,7 +42882,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:26">
       <c r="A170" t="str">
         <f t="shared" si="16"/>
         <v>Poison</v>
@@ -42859,6 +42918,9 @@
       <c r="O170" s="5">
         <v>1</v>
       </c>
+      <c r="P170" t="s">
+        <v>2364</v>
+      </c>
       <c r="R170" t="s">
         <v>2345</v>
       </c>
@@ -42869,7 +42931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:26">
       <c r="A171" t="str">
         <f t="shared" si="16"/>
         <v>Petrify</v>
@@ -42905,6 +42967,9 @@
       <c r="O171" s="5">
         <v>1</v>
       </c>
+      <c r="P171" t="s">
+        <v>2364</v>
+      </c>
       <c r="R171" t="s">
         <v>2345</v>
       </c>
@@ -42912,10 +42977,10 @@
         <v>2307</v>
       </c>
       <c r="W171" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" hidden="1">
       <c r="A172" t="str">
         <f t="shared" si="16"/>
         <v>Steal</v>
@@ -42957,11 +43022,11 @@
       <c r="S172" t="s">
         <v>2307</v>
       </c>
-      <c r="W172" t="s">
+      <c r="X172" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="173" spans="1:25" hidden="1">
+    <row r="173" spans="1:26" hidden="1">
       <c r="A173" t="str">
         <f t="shared" si="16"/>
         <v>Explode</v>
@@ -43009,11 +43074,11 @@
       <c r="V173">
         <v>0</v>
       </c>
-      <c r="W173" t="s">
+      <c r="X173" t="s">
         <v>2382</v>
       </c>
     </row>
-    <row r="174" spans="1:25" hidden="1">
+    <row r="174" spans="1:26">
       <c r="A174" t="str">
         <f t="shared" si="16"/>
         <v>Riddle</v>
@@ -43049,6 +43114,9 @@
       <c r="O174" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P174" t="s">
+        <v>2364</v>
+      </c>
       <c r="R174" t="s">
         <v>1846</v>
       </c>
@@ -43059,7 +43127,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="175" spans="1:25" hidden="1">
+    <row r="175" spans="1:26">
       <c r="A175" t="str">
         <f t="shared" si="16"/>
         <v>CursSong</v>
@@ -43095,6 +43163,9 @@
       <c r="O175" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P175" t="s">
+        <v>2364</v>
+      </c>
       <c r="R175" t="s">
         <v>1846</v>
       </c>
@@ -43105,7 +43176,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="176" spans="1:25" hidden="1">
+    <row r="176" spans="1:26">
       <c r="A176" t="str">
         <f t="shared" si="16"/>
         <v>MadSong</v>
@@ -43141,6 +43212,9 @@
       <c r="O176" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P176" t="s">
+        <v>2364</v>
+      </c>
       <c r="R176" t="s">
         <v>1846</v>
       </c>
@@ -43151,7 +43225,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="177" spans="1:25" hidden="1">
+    <row r="177" spans="1:26">
       <c r="A177" t="str">
         <f t="shared" si="16"/>
         <v>PoisonBurst</v>
@@ -43187,6 +43261,9 @@
       <c r="O177" s="5">
         <v>1</v>
       </c>
+      <c r="P177" t="s">
+        <v>2364</v>
+      </c>
       <c r="R177" t="s">
         <v>1846</v>
       </c>
@@ -43196,11 +43273,11 @@
       <c r="W177" t="s">
         <v>20</v>
       </c>
-      <c r="Y177" t="s">
+      <c r="Z177" t="s">
         <v>2369</v>
       </c>
     </row>
-    <row r="178" spans="1:25" hidden="1">
+    <row r="178" spans="1:26">
       <c r="A178" t="str">
         <f t="shared" si="16"/>
         <v>SleepGas</v>
@@ -43236,6 +43313,9 @@
       <c r="O178" s="5">
         <v>1</v>
       </c>
+      <c r="P178" t="s">
+        <v>2364</v>
+      </c>
       <c r="R178" t="s">
         <v>1846</v>
       </c>
@@ -43246,7 +43326,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="179" spans="1:25" hidden="1">
+    <row r="179" spans="1:26">
       <c r="A179" t="str">
         <f t="shared" si="16"/>
         <v>Sleep</v>
@@ -43282,6 +43362,9 @@
       <c r="O179" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P179" t="s">
+        <v>2364</v>
+      </c>
       <c r="R179" t="s">
         <v>1846</v>
       </c>
@@ -43292,7 +43375,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="180" spans="1:25" hidden="1">
+    <row r="180" spans="1:26">
       <c r="A180" t="str">
         <f t="shared" si="16"/>
         <v>StonGaze</v>
@@ -43328,6 +43411,9 @@
       <c r="O180" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P180" t="s">
+        <v>2364</v>
+      </c>
       <c r="R180" t="s">
         <v>1846</v>
       </c>
@@ -43338,7 +43424,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="181" spans="1:25" hidden="1">
+    <row r="181" spans="1:26">
       <c r="A181" t="str">
         <f t="shared" si="16"/>
         <v>Stone</v>
@@ -43374,6 +43460,9 @@
       <c r="O181" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P181" t="s">
+        <v>2364</v>
+      </c>
       <c r="R181" t="s">
         <v>1846</v>
       </c>
@@ -43384,7 +43473,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="182" spans="1:25" hidden="1">
+    <row r="182" spans="1:26">
       <c r="A182" t="str">
         <f t="shared" si="16"/>
         <v>StoneGas</v>
@@ -43420,6 +43509,9 @@
       <c r="O182" s="5">
         <v>1</v>
       </c>
+      <c r="P182" t="s">
+        <v>2364</v>
+      </c>
       <c r="R182" t="s">
         <v>1846</v>
       </c>
@@ -43430,7 +43522,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="1:25" hidden="1">
+    <row r="183" spans="1:26">
       <c r="A183" t="str">
         <f t="shared" si="16"/>
         <v>FatalGas</v>
@@ -43466,6 +43558,9 @@
       <c r="O183" s="5">
         <v>1</v>
       </c>
+      <c r="P183" t="s">
+        <v>2364</v>
+      </c>
       <c r="R183" t="s">
         <v>1846</v>
       </c>
@@ -43476,7 +43571,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="184" spans="1:25" hidden="1">
+    <row r="184" spans="1:26">
       <c r="A184" t="str">
         <f t="shared" si="16"/>
         <v>X-Gaze</v>
@@ -43512,6 +43607,9 @@
       <c r="O184" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P184" t="s">
+        <v>2364</v>
+      </c>
       <c r="R184" t="s">
         <v>1846</v>
       </c>
@@ -43522,7 +43620,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="185" spans="1:25" hidden="1">
+    <row r="185" spans="1:26">
       <c r="A185" t="str">
         <f t="shared" si="16"/>
         <v>Erase</v>
@@ -43558,6 +43656,9 @@
       <c r="O185" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P185" t="s">
+        <v>2364</v>
+      </c>
       <c r="R185" t="s">
         <v>1846</v>
       </c>
@@ -43568,7 +43669,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="186" spans="1:25" hidden="1">
+    <row r="186" spans="1:26">
       <c r="A186" t="str">
         <f t="shared" si="16"/>
         <v>Blind</v>
@@ -43604,6 +43705,9 @@
       <c r="O186" s="5">
         <v>1</v>
       </c>
+      <c r="P186" t="s">
+        <v>2364</v>
+      </c>
       <c r="R186" t="s">
         <v>1846</v>
       </c>
@@ -43614,7 +43718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:25" hidden="1">
+    <row r="187" spans="1:26">
       <c r="A187" t="str">
         <f t="shared" si="16"/>
         <v>Flash</v>
@@ -43650,6 +43754,9 @@
       <c r="O187" s="5">
         <v>1</v>
       </c>
+      <c r="P187" t="s">
+        <v>2364</v>
+      </c>
       <c r="R187" t="s">
         <v>1846</v>
       </c>
@@ -43660,7 +43767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:25" hidden="1">
+    <row r="188" spans="1:26">
       <c r="A188" t="str">
         <f t="shared" si="16"/>
         <v>Ink</v>
@@ -43696,6 +43803,9 @@
       <c r="O188" s="5">
         <v>1</v>
       </c>
+      <c r="P188" t="s">
+        <v>2364</v>
+      </c>
       <c r="R188" t="s">
         <v>1846</v>
       </c>
@@ -43706,7 +43816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:25" hidden="1">
+    <row r="189" spans="1:26">
       <c r="A189" t="str">
         <f t="shared" si="16"/>
         <v>PoisonCloud</v>
@@ -43742,6 +43852,9 @@
       <c r="O189" s="5">
         <v>1</v>
       </c>
+      <c r="P189" t="s">
+        <v>2364</v>
+      </c>
       <c r="R189" t="s">
         <v>1846</v>
       </c>
@@ -43752,7 +43865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:25" hidden="1">
+    <row r="190" spans="1:26">
       <c r="A190" t="str">
         <f t="shared" si="16"/>
         <v>Gaze</v>
@@ -43788,6 +43901,9 @@
       <c r="O190" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P190" t="s">
+        <v>2364</v>
+      </c>
       <c r="R190" t="s">
         <v>1846</v>
       </c>
@@ -43798,7 +43914,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="191" spans="1:25" hidden="1">
+    <row r="191" spans="1:26">
       <c r="A191" t="str">
         <f t="shared" si="16"/>
         <v>Stunner</v>
@@ -43834,6 +43950,9 @@
       <c r="O191" s="5">
         <v>1</v>
       </c>
+      <c r="P191" t="s">
+        <v>2364</v>
+      </c>
       <c r="R191" t="s">
         <v>1846</v>
       </c>
@@ -43844,7 +43963,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="192" spans="1:25" hidden="1">
+    <row r="192" spans="1:26">
       <c r="A192" t="str">
         <f t="shared" si="16"/>
         <v>Gaze</v>
@@ -43880,6 +43999,9 @@
       <c r="O192" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P192" t="s">
+        <v>2364</v>
+      </c>
       <c r="R192" t="s">
         <v>1846</v>
       </c>
@@ -43890,7 +44012,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="193" spans="1:24" hidden="1">
+    <row r="193" spans="1:25">
       <c r="A193" t="str">
         <f t="shared" si="16"/>
         <v>Charm</v>
@@ -43926,6 +44048,9 @@
       <c r="O193" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P193" t="s">
+        <v>2364</v>
+      </c>
       <c r="R193" t="s">
         <v>1846</v>
       </c>
@@ -43936,7 +44061,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="194" spans="1:24" hidden="1">
+    <row r="194" spans="1:25">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A257" si="23">B194</f>
         <v>Hypnos</v>
@@ -43972,6 +44097,9 @@
       <c r="O194" s="5" t="s">
         <v>2014</v>
       </c>
+      <c r="P194" t="s">
+        <v>2364</v>
+      </c>
       <c r="R194" t="s">
         <v>1846</v>
       </c>
@@ -43982,7 +44110,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="195" spans="1:24" hidden="1">
+    <row r="195" spans="1:25" hidden="1">
       <c r="A195" t="str">
         <f t="shared" si="23"/>
         <v>Remedy</v>
@@ -44025,7 +44153,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="196" spans="1:24" hidden="1">
+    <row r="196" spans="1:25" hidden="1">
       <c r="A196" t="str">
         <f t="shared" si="23"/>
         <v>Heart Magi</v>
@@ -44072,7 +44200,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="197" spans="1:24" hidden="1">
+    <row r="197" spans="1:25" hidden="1">
       <c r="A197" t="str">
         <f t="shared" si="23"/>
         <v>Aegis Magi</v>
@@ -44121,14 +44249,14 @@
       <c r="T197" t="s">
         <v>2391</v>
       </c>
-      <c r="W197" t="s">
+      <c r="X197" t="s">
         <v>572</v>
       </c>
-      <c r="X197">
+      <c r="Y197">
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:24" hidden="1">
+    <row r="198" spans="1:25" hidden="1">
       <c r="A198" t="str">
         <f t="shared" si="23"/>
         <v>Masmune Magi</v>
@@ -44184,7 +44312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:24" hidden="1">
+    <row r="199" spans="1:25" hidden="1">
       <c r="A199" t="str">
         <f t="shared" si="23"/>
         <v>EyeDrop</v>
@@ -44231,7 +44359,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="200" spans="1:24" hidden="1">
+    <row r="200" spans="1:25" hidden="1">
       <c r="A200" t="str">
         <f t="shared" si="23"/>
         <v>Elixier</v>
@@ -44275,11 +44403,11 @@
       <c r="S200" t="s">
         <v>2310</v>
       </c>
-      <c r="W200" t="s">
+      <c r="X200" t="s">
         <v>2383</v>
       </c>
     </row>
-    <row r="201" spans="1:24" hidden="1">
+    <row r="201" spans="1:25" hidden="1">
       <c r="A201" t="str">
         <f t="shared" si="23"/>
         <v>Soft Potion</v>
@@ -44326,7 +44454,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="202" spans="1:24" hidden="1">
+    <row r="202" spans="1:25" hidden="1">
       <c r="A202" t="str">
         <f t="shared" si="23"/>
         <v>Cure Potion</v>
@@ -44375,11 +44503,11 @@
       <c r="U202">
         <v>20</v>
       </c>
-      <c r="W202" t="s">
+      <c r="X202" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="203" spans="1:24" hidden="1">
+    <row r="203" spans="1:25" hidden="1">
       <c r="A203" t="str">
         <f t="shared" si="23"/>
         <v>X-Cure Potion</v>
@@ -44428,11 +44556,11 @@
       <c r="U203">
         <v>50</v>
       </c>
-      <c r="W203" t="s">
+      <c r="X203" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:24" hidden="1">
+    <row r="204" spans="1:25" hidden="1">
       <c r="A204" t="str">
         <f t="shared" si="23"/>
         <v>Curse Potion</v>
@@ -44479,7 +44607,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="205" spans="1:24" hidden="1">
+    <row r="205" spans="1:25" hidden="1">
       <c r="A205" t="str">
         <f t="shared" si="23"/>
         <v>Sand</v>
@@ -44524,11 +44652,11 @@
       <c r="U205">
         <v>10</v>
       </c>
-      <c r="W205" t="s">
+      <c r="X205" t="s">
         <v>2301</v>
       </c>
     </row>
-    <row r="206" spans="1:24" hidden="1">
+    <row r="206" spans="1:25" hidden="1">
       <c r="A206" t="str">
         <f t="shared" si="23"/>
         <v>Cobweb</v>
@@ -44573,11 +44701,11 @@
       <c r="U206">
         <v>10</v>
       </c>
-      <c r="W206" t="s">
+      <c r="X206" t="s">
         <v>2301</v>
       </c>
     </row>
-    <row r="207" spans="1:24" hidden="1">
+    <row r="207" spans="1:25" hidden="1">
       <c r="A207" t="str">
         <f t="shared" si="23"/>
         <v>Blitz</v>
@@ -44622,11 +44750,11 @@
       <c r="U207">
         <v>10</v>
       </c>
-      <c r="W207" t="s">
+      <c r="X207" t="s">
         <v>2301</v>
       </c>
     </row>
-    <row r="208" spans="1:24" hidden="1">
+    <row r="208" spans="1:25" hidden="1">
       <c r="A208" t="str">
         <f t="shared" si="23"/>
         <v>Drain</v>
@@ -44671,11 +44799,11 @@
       <c r="U208">
         <v>10</v>
       </c>
-      <c r="W208" t="s">
+      <c r="X208" t="s">
         <v>2300</v>
       </c>
     </row>
-    <row r="209" spans="1:23" hidden="1">
+    <row r="209" spans="1:24" hidden="1">
       <c r="A209" t="str">
         <f t="shared" si="23"/>
         <v>Stench</v>
@@ -44720,11 +44848,11 @@
       <c r="U209">
         <v>10</v>
       </c>
-      <c r="W209" t="s">
+      <c r="X209" t="s">
         <v>2300</v>
       </c>
     </row>
-    <row r="210" spans="1:23" hidden="1">
+    <row r="210" spans="1:24" hidden="1">
       <c r="A210" t="str">
         <f t="shared" si="23"/>
         <v>Haste</v>
@@ -44769,11 +44897,11 @@
       <c r="U210">
         <v>10</v>
       </c>
-      <c r="W210" t="s">
+      <c r="X210" t="s">
         <v>2301</v>
       </c>
     </row>
-    <row r="211" spans="1:23" hidden="1">
+    <row r="211" spans="1:24" hidden="1">
       <c r="A211" t="str">
         <f t="shared" si="23"/>
         <v>Multiply</v>
@@ -44816,7 +44944,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="212" spans="1:23" hidden="1">
+    <row r="212" spans="1:24" hidden="1">
       <c r="A212" t="str">
         <f t="shared" si="23"/>
         <v>FlareApollo</v>
@@ -44858,7 +44986,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="213" spans="1:23" hidden="1">
+    <row r="213" spans="1:24" hidden="1">
       <c r="A213" t="str">
         <f t="shared" si="23"/>
         <v>Smasher</v>
@@ -44898,7 +45026,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="214" spans="1:23" hidden="1">
+    <row r="214" spans="1:24" hidden="1">
       <c r="A214" t="str">
         <f t="shared" si="23"/>
         <v>Recover</v>
@@ -44934,7 +45062,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="215" spans="1:23" hidden="1">
+    <row r="215" spans="1:24" hidden="1">
       <c r="A215" t="str">
         <f t="shared" si="23"/>
         <v>Pegasus Magi</v>
@@ -44975,7 +45103,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="216" spans="1:23" hidden="1">
+    <row r="216" spans="1:24" hidden="1">
       <c r="A216" t="str">
         <f t="shared" si="23"/>
         <v>Power Magi</v>
@@ -45016,7 +45144,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="217" spans="1:23" hidden="1">
+    <row r="217" spans="1:24" hidden="1">
       <c r="A217" t="str">
         <f t="shared" si="23"/>
         <v>Speed Magi</v>
@@ -45057,7 +45185,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="218" spans="1:23" hidden="1">
+    <row r="218" spans="1:24" hidden="1">
       <c r="A218" t="str">
         <f t="shared" si="23"/>
         <v>Mana Magi</v>
@@ -45098,7 +45226,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="219" spans="1:23" hidden="1">
+    <row r="219" spans="1:24" hidden="1">
       <c r="A219" t="str">
         <f t="shared" si="23"/>
         <v>Defense Magi</v>
@@ -45139,7 +45267,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="220" spans="1:23" hidden="1">
+    <row r="220" spans="1:24" hidden="1">
       <c r="A220" t="str">
         <f t="shared" si="23"/>
         <v>Fire Magi</v>
@@ -45183,7 +45311,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="221" spans="1:23" hidden="1">
+    <row r="221" spans="1:24" hidden="1">
       <c r="A221" t="str">
         <f t="shared" si="23"/>
         <v>Ice Magi</v>
@@ -45227,7 +45355,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="222" spans="1:23" hidden="1">
+    <row r="222" spans="1:24" hidden="1">
       <c r="A222" t="str">
         <f t="shared" si="23"/>
         <v>Thunder Magi</v>
@@ -45271,7 +45399,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="223" spans="1:23" hidden="1">
+    <row r="223" spans="1:24" hidden="1">
       <c r="A223" t="str">
         <f t="shared" si="23"/>
         <v>Poison Magi</v>
@@ -45315,7 +45443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:23" hidden="1">
+    <row r="224" spans="1:24" hidden="1">
       <c r="A224" t="str">
         <f t="shared" si="23"/>
         <v>Bronze Helm</v>
@@ -46007,7 +46135,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="241" spans="1:24" hidden="1">
+    <row r="241" spans="1:25" hidden="1">
       <c r="A241" t="str">
         <f t="shared" si="23"/>
         <v>Army Helm</v>
@@ -46047,7 +46175,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="242" spans="1:24" hidden="1">
+    <row r="242" spans="1:25" hidden="1">
       <c r="A242" t="str">
         <f t="shared" si="23"/>
         <v>Army Armor</v>
@@ -46087,7 +46215,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="243" spans="1:24" hidden="1">
+    <row r="243" spans="1:25" hidden="1">
       <c r="A243" t="str">
         <f t="shared" si="23"/>
         <v>Geta Boot</v>
@@ -46127,7 +46255,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="244" spans="1:24" hidden="1">
+    <row r="244" spans="1:25" hidden="1">
       <c r="A244" t="str">
         <f t="shared" si="23"/>
         <v>Kimono Armor</v>
@@ -46167,7 +46295,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="245" spans="1:24" hidden="1">
+    <row r="245" spans="1:25" hidden="1">
       <c r="A245" t="str">
         <f t="shared" si="23"/>
         <v>Giant Helm</v>
@@ -46207,7 +46335,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="246" spans="1:24" hidden="1">
+    <row r="246" spans="1:25" hidden="1">
       <c r="A246" t="str">
         <f t="shared" si="23"/>
         <v>Battle Armor</v>
@@ -46247,7 +46375,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="247" spans="1:24" hidden="1">
+    <row r="247" spans="1:25" hidden="1">
       <c r="A247" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">Parasuit </v>
@@ -46288,7 +46416,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="248" spans="1:24" hidden="1">
+    <row r="248" spans="1:25" hidden="1">
       <c r="A248" t="str">
         <f t="shared" si="23"/>
         <v>Power Potion</v>
@@ -46328,7 +46456,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="249" spans="1:24" hidden="1">
+    <row r="249" spans="1:25" hidden="1">
       <c r="A249" t="str">
         <f t="shared" si="23"/>
         <v>Speed Potion</v>
@@ -46368,7 +46496,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="250" spans="1:24" hidden="1">
+    <row r="250" spans="1:25" hidden="1">
       <c r="A250" t="str">
         <f t="shared" si="23"/>
         <v>Magic Potion</v>
@@ -46408,7 +46536,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="251" spans="1:24" hidden="1">
+    <row r="251" spans="1:25" hidden="1">
       <c r="A251" t="str">
         <f t="shared" si="23"/>
         <v>Body Potion</v>
@@ -46448,7 +46576,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="252" spans="1:24" hidden="1">
+    <row r="252" spans="1:25" hidden="1">
       <c r="A252" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">Tent </v>
@@ -46486,7 +46614,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="253" spans="1:24" hidden="1">
+    <row r="253" spans="1:25" hidden="1">
       <c r="A253" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">Door </v>
@@ -46524,7 +46652,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="254" spans="1:24" hidden="1">
+    <row r="254" spans="1:25" hidden="1">
       <c r="A254" t="str">
         <f t="shared" si="23"/>
         <v>Micron Potion</v>
@@ -46564,7 +46692,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="255" spans="1:24" hidden="1">
+    <row r="255" spans="1:25" hidden="1">
       <c r="A255" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">Key </v>
@@ -46602,7 +46730,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="256" spans="1:24" hidden="1">
+    <row r="256" spans="1:25" hidden="1">
       <c r="A256" t="str">
         <f t="shared" si="23"/>
         <v>Selfix</v>
@@ -46639,10 +46767,10 @@
       <c r="R256" t="s">
         <v>1818</v>
       </c>
-      <c r="W256" t="s">
+      <c r="X256" t="s">
         <v>2389</v>
       </c>
-      <c r="X256">
+      <c r="Y256">
         <v>10</v>
       </c>
     </row>
@@ -46683,15 +46811,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y257">
+  <autoFilter ref="A1:Z257" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="17">
       <filters>
+        <filter val="Magic"/>
         <filter val="Melee"/>
         <filter val="Ranged"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="22">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
-  <sortState ref="A2:Y213">
+  <sortState ref="A2:Z213">
     <sortCondition ref="P2:P213"/>
     <sortCondition descending="1" ref="R2:R213"/>
     <sortCondition ref="S2:S213"/>
@@ -46703,7 +46837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W257"/>
   <sheetViews>
@@ -59030,7 +59164,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W257">
+  <autoFilter ref="A1:W257" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <filterColumn colId="17">
       <filters>
         <filter val="Magic"/>
@@ -59042,7 +59176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B242"/>
   <sheetViews>
@@ -60642,7 +60776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -61494,7 +61628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -61977,7 +62111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J16"/>
   <sheetViews>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CBE811-92F1-46BC-BF52-7DB192EE7618}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE98B14-BC8B-498F-95DA-B5FFEEE49ADC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11963" uniqueCount="2578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11960" uniqueCount="2578">
   <si>
     <t>Monster</t>
   </si>
@@ -35059,7 +35059,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X40" sqref="X40"/>
+      <selection pane="bottomLeft" activeCell="Y98" sqref="Y98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35919,7 +35919,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1">
+    <row r="15" spans="1:27">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Defend Sword</v>
@@ -35984,7 +35984,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1">
+    <row r="16" spans="1:27">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Rune Axe</v>
@@ -36221,9 +36221,6 @@
       <c r="T19" t="s">
         <v>2308</v>
       </c>
-      <c r="Y19" t="s">
-        <v>363</v>
-      </c>
       <c r="Z19">
         <v>50</v>
       </c>
@@ -36278,9 +36275,6 @@
       <c r="T20" t="s">
         <v>2308</v>
       </c>
-      <c r="Y20" t="s">
-        <v>363</v>
-      </c>
       <c r="Z20">
         <v>60</v>
       </c>
@@ -36335,9 +36329,6 @@
       <c r="T21" t="s">
         <v>2308</v>
       </c>
-      <c r="Y21" t="s">
-        <v>363</v>
-      </c>
       <c r="Z21">
         <v>70</v>
       </c>
@@ -37273,7 +37264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Sleep Book</v>
@@ -37330,7 +37321,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Stone Book</v>
@@ -37387,7 +37378,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Death Book</v>
@@ -37507,7 +37498,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" hidden="1">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Wizard Staff</v>
@@ -38718,7 +38709,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" hidden="1">
       <c r="A68" t="str">
         <f t="shared" si="6"/>
         <v>Whip</v>
@@ -38780,7 +38771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" hidden="1">
       <c r="A69" t="str">
         <f t="shared" si="6"/>
         <v>Blitz Whip</v>
@@ -38843,7 +38834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1">
+    <row r="70" spans="1:27">
       <c r="A70" t="str">
         <f t="shared" si="6"/>
         <v>ChainSaw</v>
@@ -38885,6 +38876,9 @@
       <c r="P70" s="5" t="s">
         <v>1672</v>
       </c>
+      <c r="Q70" t="s">
+        <v>4</v>
+      </c>
       <c r="S70" t="s">
         <v>2345</v>
       </c>
@@ -38946,9 +38940,6 @@
         <v>2345</v>
       </c>
       <c r="T71" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y71" t="s">
         <v>121</v>
       </c>
     </row>
@@ -39502,7 +39493,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" hidden="1">
       <c r="A81" t="str">
         <f t="shared" si="6"/>
         <v>Temptat</v>
@@ -39557,7 +39548,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" hidden="1">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
         <v>StunGun</v>
@@ -40457,7 +40448,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="98" spans="1:26" hidden="1">
+    <row r="98" spans="1:26">
       <c r="A98" t="str">
         <f t="shared" si="6"/>
         <v>Sypha</v>
@@ -42782,7 +42773,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="141" spans="1:25" hidden="1">
+    <row r="141" spans="1:25">
       <c r="A141" t="str">
         <f t="shared" si="11"/>
         <v>W-Pincer</v>
@@ -42838,7 +42829,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="142" spans="1:25" hidden="1">
+    <row r="142" spans="1:25">
       <c r="A142" t="str">
         <f t="shared" si="11"/>
         <v>W-Attack</v>
@@ -42896,7 +42887,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="143" spans="1:25" hidden="1">
+    <row r="143" spans="1:25">
       <c r="A143" t="str">
         <f t="shared" si="11"/>
         <v>4-Heads</v>
@@ -42954,7 +42945,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1">
+    <row r="144" spans="1:25">
       <c r="A144" t="str">
         <f t="shared" si="11"/>
         <v>8-Legs</v>
@@ -43012,7 +43003,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="145" spans="1:27" hidden="1">
+    <row r="145" spans="1:27">
       <c r="A145" t="str">
         <f t="shared" si="11"/>
         <v>Touch</v>
@@ -43071,7 +43062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:27" hidden="1">
+    <row r="146" spans="1:27">
       <c r="A146" t="str">
         <f t="shared" si="11"/>
         <v>Saw</v>
@@ -43111,6 +43102,9 @@
       <c r="P146" s="5">
         <v>1</v>
       </c>
+      <c r="Q146" t="s">
+        <v>4</v>
+      </c>
       <c r="S146" t="s">
         <v>2345</v>
       </c>
@@ -43121,7 +43115,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="147" spans="1:27" hidden="1">
+    <row r="147" spans="1:27">
       <c r="A147" t="str">
         <f t="shared" si="11"/>
         <v>Dissolve</v>
@@ -43180,7 +43174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:27" hidden="1">
+    <row r="148" spans="1:27">
       <c r="A148" t="str">
         <f t="shared" si="11"/>
         <v>Absorb</v>
@@ -43491,9 +43485,6 @@
       <c r="T153" t="s">
         <v>121</v>
       </c>
-      <c r="Y153" t="s">
-        <v>121</v>
-      </c>
       <c r="AA153" t="s">
         <v>2380</v>
       </c>
@@ -43554,7 +43545,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="155" spans="1:27" hidden="1">
+    <row r="155" spans="1:27">
       <c r="A155" t="str">
         <f t="shared" si="11"/>
         <v>2-Swords</v>
@@ -43610,7 +43601,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="156" spans="1:27" hidden="1">
+    <row r="156" spans="1:27">
       <c r="A156" t="str">
         <f t="shared" si="11"/>
         <v>2-Tusks</v>
@@ -43666,7 +43657,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="157" spans="1:27" hidden="1">
+    <row r="157" spans="1:27">
       <c r="A157" t="str">
         <f t="shared" si="11"/>
         <v>3-Heads</v>
@@ -43724,7 +43715,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="158" spans="1:27" hidden="1">
+    <row r="158" spans="1:27">
       <c r="A158" t="str">
         <f t="shared" si="11"/>
         <v>3-Horns</v>
@@ -43782,7 +43773,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="159" spans="1:27" hidden="1">
+    <row r="159" spans="1:27">
       <c r="A159" t="str">
         <f t="shared" si="11"/>
         <v>6-Arms</v>
@@ -43838,7 +43829,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="160" spans="1:27" hidden="1">
+    <row r="160" spans="1:27">
       <c r="A160" t="str">
         <f t="shared" si="11"/>
         <v>Critical</v>
@@ -44121,7 +44112,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="165" spans="1:27" hidden="1">
+    <row r="165" spans="1:27">
       <c r="A165" t="str">
         <f t="shared" si="11"/>
         <v>W-Kick</v>
@@ -44177,7 +44168,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" hidden="1">
       <c r="A166" t="str">
         <f t="shared" si="11"/>
         <v>ParaNail</v>
@@ -44230,7 +44221,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" hidden="1">
       <c r="A167" t="str">
         <f t="shared" si="11"/>
         <v>Wind Up</v>
@@ -44283,7 +44274,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" hidden="1">
       <c r="A168" t="str">
         <f t="shared" si="11"/>
         <v>Tie Up</v>
@@ -44336,7 +44327,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" hidden="1">
       <c r="A169" t="str">
         <f t="shared" si="11"/>
         <v>Breath</v>
@@ -44389,7 +44380,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" hidden="1">
       <c r="A170" t="str">
         <f t="shared" si="11"/>
         <v>Poison</v>
@@ -44442,7 +44433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" hidden="1">
       <c r="A171" t="str">
         <f t="shared" si="11"/>
         <v>P-Skin</v>
@@ -44495,7 +44486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" hidden="1">
       <c r="A172" t="str">
         <f t="shared" si="11"/>
         <v>ParaSkin</v>
@@ -44548,7 +44539,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" hidden="1">
       <c r="A173" t="str">
         <f t="shared" si="11"/>
         <v>Petrify</v>
@@ -44601,7 +44592,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" hidden="1">
       <c r="A174" t="str">
         <f t="shared" si="11"/>
         <v>StonSkin</v>
@@ -45376,7 +45367,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="188" spans="1:24">
+    <row r="188" spans="1:24" hidden="1">
       <c r="A188" t="str">
         <f t="shared" si="11"/>
         <v>SleepGas</v>
@@ -45429,7 +45420,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="189" spans="1:24">
+    <row r="189" spans="1:24" hidden="1">
       <c r="A189" t="str">
         <f t="shared" si="11"/>
         <v>Sleep</v>
@@ -45482,7 +45473,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="190" spans="1:24">
+    <row r="190" spans="1:24" hidden="1">
       <c r="A190" t="str">
         <f t="shared" si="11"/>
         <v>StonGaze</v>
@@ -45535,7 +45526,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="191" spans="1:24">
+    <row r="191" spans="1:24" hidden="1">
       <c r="A191" t="str">
         <f t="shared" si="11"/>
         <v>Stone</v>
@@ -45588,7 +45579,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="192" spans="1:24">
+    <row r="192" spans="1:24" hidden="1">
       <c r="A192" t="str">
         <f t="shared" si="11"/>
         <v>StoneGas</v>
@@ -45641,7 +45632,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:25">
+    <row r="193" spans="1:25" hidden="1">
       <c r="A193" t="str">
         <f t="shared" si="11"/>
         <v>FatalGas</v>
@@ -45694,7 +45685,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="194" spans="1:25">
+    <row r="194" spans="1:25" hidden="1">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A257" si="14">B194</f>
         <v>X-Gaze</v>
@@ -45747,7 +45738,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="195" spans="1:25">
+    <row r="195" spans="1:25" hidden="1">
       <c r="A195" t="str">
         <f t="shared" si="14"/>
         <v>Erase</v>
@@ -45800,7 +45791,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="196" spans="1:25">
+    <row r="196" spans="1:25" hidden="1">
       <c r="A196" t="str">
         <f t="shared" si="14"/>
         <v>Blind</v>
@@ -45853,7 +45844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:25">
+    <row r="197" spans="1:25" hidden="1">
       <c r="A197" t="str">
         <f t="shared" si="14"/>
         <v>Flash</v>
@@ -45906,7 +45897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:25">
+    <row r="198" spans="1:25" hidden="1">
       <c r="A198" t="str">
         <f t="shared" si="14"/>
         <v>Ink</v>
@@ -45959,7 +45950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:25">
+    <row r="199" spans="1:25" hidden="1">
       <c r="A199" t="str">
         <f t="shared" si="14"/>
         <v>PoisonCloud</v>
@@ -46012,7 +46003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:25">
+    <row r="200" spans="1:25" hidden="1">
       <c r="A200" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -46065,7 +46056,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="201" spans="1:25">
+    <row r="201" spans="1:25" hidden="1">
       <c r="A201" t="str">
         <f t="shared" si="14"/>
         <v>Stunner</v>
@@ -46118,7 +46109,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="202" spans="1:25">
+    <row r="202" spans="1:25" hidden="1">
       <c r="A202" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -46171,7 +46162,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="203" spans="1:25">
+    <row r="203" spans="1:25" hidden="1">
       <c r="A203" t="str">
         <f t="shared" si="14"/>
         <v>Charm</v>
@@ -46224,7 +46215,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="204" spans="1:25">
+    <row r="204" spans="1:25" hidden="1">
       <c r="A204" t="str">
         <f t="shared" si="14"/>
         <v>Hypnos</v>
@@ -46810,7 +46801,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="215" spans="1:25" hidden="1">
+    <row r="215" spans="1:25">
       <c r="A215" t="str">
         <f t="shared" si="14"/>
         <v>Steal</v>
@@ -46850,6 +46841,9 @@
       <c r="P215" s="5" t="s">
         <v>1737</v>
       </c>
+      <c r="Q215" t="s">
+        <v>5</v>
+      </c>
       <c r="S215" t="s">
         <v>2345</v>
       </c>
@@ -46972,7 +46966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:25">
+    <row r="218" spans="1:25" hidden="1">
       <c r="A218" t="str">
         <f t="shared" si="14"/>
         <v>Riddle</v>
@@ -47025,7 +47019,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="219" spans="1:25">
+    <row r="219" spans="1:25" hidden="1">
       <c r="A219" t="str">
         <f t="shared" si="14"/>
         <v>CursSong</v>
@@ -47078,7 +47072,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="220" spans="1:25">
+    <row r="220" spans="1:25" hidden="1">
       <c r="A220" t="str">
         <f t="shared" si="14"/>
         <v>MadSong</v>
@@ -48048,7 +48042,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" hidden="1">
       <c r="A240" t="str">
         <f t="shared" si="14"/>
         <v>PoisonBurst</v>
@@ -48663,7 +48657,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="253" spans="1:26" hidden="1">
+    <row r="253" spans="1:26">
       <c r="A253" t="str">
         <f t="shared" si="14"/>
         <v>Vampic Sword</v>
@@ -48844,9 +48838,6 @@
       <c r="T255" t="s">
         <v>121</v>
       </c>
-      <c r="Y255" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="256" spans="1:26" hidden="1">
       <c r="A256" t="str">
@@ -48974,7 +48965,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AA257" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="23">
+    <filterColumn colId="18">
+      <filters>
+        <filter val="Melee"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="24">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE98B14-BC8B-498F-95DA-B5FFEEE49ADC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDE9D4-89DA-471F-A8C8-3FE5DAA9757E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Items!$A$1:$W$257</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$AA$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$AA$258</definedName>
     <definedName name="Item_Hex" localSheetId="7">'Item Hex'!$A$1:$U$137</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11960" uniqueCount="2578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11968" uniqueCount="2582">
   <si>
     <t>Monster</t>
   </si>
@@ -7213,9 +7213,6 @@
     <t>Sacrifice</t>
   </si>
   <si>
-    <t>Full</t>
-  </si>
-  <si>
     <t>Damage=target.maxHP * 10 / attacker.initiative + 2; one group</t>
   </si>
   <si>
@@ -7796,6 +7793,21 @@
   </si>
   <si>
     <t>Glass Sword</t>
+  </si>
+  <si>
+    <t>Revive</t>
+  </si>
+  <si>
+    <t>Full Restore</t>
+  </si>
+  <si>
+    <t>Fire, Ice, Thunder, Poison</t>
+  </si>
+  <si>
+    <t>For Dragon Shield</t>
+  </si>
+  <si>
+    <t>O-Dragon</t>
   </si>
 </sst>
 </file>
@@ -8921,8 +8933,8 @@
   <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P172" sqref="P172"/>
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R248" sqref="R248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15638,7 +15650,7 @@
         <v>150</v>
       </c>
       <c r="R105" s="9" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="S105" s="9" t="s">
         <v>101</v>
@@ -15892,7 +15904,7 @@
         <v>25</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="U109" s="6" t="s">
         <v>139</v>
@@ -15956,7 +15968,7 @@
         <v>25</v>
       </c>
       <c r="S110" s="9" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="T110" s="9" t="s">
         <v>110</v>
@@ -21054,7 +21066,7 @@
         <v>37</v>
       </c>
       <c r="Q190" s="9" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="R190" s="9" t="s">
         <v>101</v>
@@ -24647,7 +24659,7 @@
         <v>772</v>
       </c>
       <c r="P248" s="6" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="Q248" s="6" t="s">
         <v>441</v>
@@ -24719,7 +24731,7 @@
         <v>268</v>
       </c>
       <c r="S249" s="6" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
@@ -35054,12 +35066,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4" filterMode="1"/>
-  <dimension ref="A1:AA257"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AA258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y98" sqref="Y98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35073,7 +35085,7 @@
     <col min="12" max="15" width="9.140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -35090,7 +35102,7 @@
         <v>1644</v>
       </c>
       <c r="E1" s="135" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="F1" s="88" t="s">
         <v>1645</v>
@@ -35153,7 +35165,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1">
+    <row r="2" spans="1:27">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">B2</f>
         <v>Hammer</v>
@@ -35208,7 +35220,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1">
+    <row r="3" spans="1:27">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Long Sword</v>
@@ -35265,7 +35277,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1">
+    <row r="4" spans="1:27">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Axe</v>
@@ -35322,7 +35334,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1">
+    <row r="5" spans="1:27">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Battle Sword</v>
@@ -35379,7 +35391,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1">
+    <row r="6" spans="1:27">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Katana</v>
@@ -35436,7 +35448,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1">
+    <row r="7" spans="1:27">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Gold Sword</v>
@@ -35493,7 +35505,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1">
+    <row r="8" spans="1:27">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Coral Sword</v>
@@ -35553,7 +35565,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1">
+    <row r="9" spans="1:27">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Ogre Axe</v>
@@ -35613,7 +35625,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1">
+    <row r="10" spans="1:27">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Sword</v>
@@ -35673,7 +35685,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1">
+    <row r="11" spans="1:27">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Sun Sword</v>
@@ -35733,7 +35745,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1">
+    <row r="12" spans="1:27">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Flame Sword</v>
@@ -35795,7 +35807,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1">
+    <row r="13" spans="1:27">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Ice Sword</v>
@@ -35857,7 +35869,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1">
+    <row r="14" spans="1:27">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Axe</v>
@@ -36047,7 +36059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:26" hidden="1">
+    <row r="17" spans="1:26">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Rapier</v>
@@ -36104,7 +36116,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="18" spans="1:26" hidden="1">
+    <row r="18" spans="1:26">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -36171,7 +36183,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1">
+    <row r="19" spans="1:26">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Shield</v>
@@ -36225,7 +36237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1">
+    <row r="20" spans="1:26">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Silver Shield</v>
@@ -36279,7 +36291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1">
+    <row r="21" spans="1:26">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Gold Shield</v>
@@ -36333,7 +36345,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1">
+    <row r="22" spans="1:26">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Flame Shield</v>
@@ -36390,7 +36402,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1">
+    <row r="23" spans="1:26">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Ice Shield</v>
@@ -36447,7 +36459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1">
+    <row r="24" spans="1:26">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Shield</v>
@@ -36498,13 +36510,13 @@
         <v>2308</v>
       </c>
       <c r="Y24" t="s">
-        <v>105</v>
+        <v>2581</v>
       </c>
       <c r="Z24">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1">
+    <row r="25" spans="1:26">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Cure Potion</v>
@@ -36561,7 +36573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1">
+    <row r="26" spans="1:26">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>X-Cure Potion</v>
@@ -36618,7 +36630,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1">
+    <row r="27" spans="1:26">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Curse Potion</v>
@@ -36668,8 +36680,11 @@
       <c r="T27" t="s">
         <v>2310</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" hidden="1">
+      <c r="Y27" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EyeDrop</v>
@@ -36719,8 +36734,11 @@
       <c r="T28" t="s">
         <v>2310</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" hidden="1">
+      <c r="Y28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Abacus</v>
@@ -36775,7 +36793,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1">
+    <row r="30" spans="1:26">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Xcalibr Sword</v>
@@ -36840,7 +36858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1">
+    <row r="31" spans="1:26">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
@@ -36904,7 +36922,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1">
+    <row r="32" spans="1:26">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Cure Book</v>
@@ -36964,7 +36982,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1">
+    <row r="33" spans="1:25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Prayer Book</v>
@@ -37024,7 +37042,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1">
+    <row r="34" spans="1:25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Fire Book</v>
@@ -37084,7 +37102,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:25" hidden="1">
+    <row r="35" spans="1:25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Ice Book</v>
@@ -37144,7 +37162,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1">
+    <row r="36" spans="1:25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Book</v>
@@ -37204,7 +37222,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:25" hidden="1">
+    <row r="37" spans="1:25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Fog Book</v>
@@ -37264,7 +37282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1">
+    <row r="38" spans="1:25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Sleep Book</v>
@@ -37321,7 +37339,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1">
+    <row r="39" spans="1:25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Stone Book</v>
@@ -37378,7 +37396,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1">
+    <row r="40" spans="1:25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Death Book</v>
@@ -37438,7 +37456,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1">
+    <row r="41" spans="1:25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Mage Staff</v>
@@ -37498,7 +37516,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1">
+    <row r="42" spans="1:25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Wizard Staff</v>
@@ -37533,7 +37551,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="43" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
@@ -37555,7 +37573,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1">
+    <row r="43" spans="1:25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Heal Staff</v>
@@ -37615,7 +37633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1">
+    <row r="44" spans="1:25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Flare Book</v>
@@ -37672,7 +37690,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1">
+    <row r="45" spans="1:25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Helm</v>
@@ -37716,7 +37734,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1">
+    <row r="46" spans="1:25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Silver Helm</v>
@@ -37760,7 +37778,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1">
+    <row r="47" spans="1:25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Gold Helm</v>
@@ -37804,7 +37822,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1">
+    <row r="48" spans="1:25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Helm</v>
@@ -37851,7 +37869,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="49" spans="1:25" hidden="1">
+    <row r="49" spans="1:25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Armor</v>
@@ -37895,7 +37913,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="50" spans="1:25" hidden="1">
+    <row r="50" spans="1:25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Silver Armor</v>
@@ -37939,7 +37957,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1">
+    <row r="51" spans="1:25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Gold Armor</v>
@@ -37983,7 +38001,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1">
+    <row r="52" spans="1:25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Armor</v>
@@ -38027,10 +38045,10 @@
         <v>1818</v>
       </c>
       <c r="U52" t="s">
-        <v>2388</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" hidden="1">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Arthur Armor</v>
@@ -38077,7 +38095,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1">
+    <row r="54" spans="1:25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Glove</v>
@@ -38121,7 +38139,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1">
+    <row r="55" spans="1:25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Silver Glove</v>
@@ -38165,7 +38183,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1">
+    <row r="56" spans="1:25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Gold Glove</v>
@@ -38209,7 +38227,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1">
+    <row r="57" spans="1:25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Giant Glove</v>
@@ -38253,7 +38271,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1">
+    <row r="58" spans="1:25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Ninja Glove</v>
@@ -38300,7 +38318,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1">
+    <row r="59" spans="1:25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Hermes Boot</v>
@@ -38344,7 +38362,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1">
+    <row r="60" spans="1:25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Hecate Boot</v>
@@ -38388,7 +38406,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1">
+    <row r="61" spans="1:25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Elixier</v>
@@ -38437,10 +38455,10 @@
         <v>2310</v>
       </c>
       <c r="Y61" t="s">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" hidden="1">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Soft Potion</v>
@@ -38490,8 +38508,11 @@
       <c r="T62" t="s">
         <v>2310</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" hidden="1">
+      <c r="Y62" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Power Potion</v>
@@ -38535,7 +38556,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1">
+    <row r="64" spans="1:25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Speed Potion</v>
@@ -38579,7 +38600,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1">
+    <row r="65" spans="1:27">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Magic Potion</v>
@@ -38623,7 +38644,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1">
+    <row r="66" spans="1:27">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="6">B66</f>
         <v>Body Potion</v>
@@ -38667,7 +38688,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1">
+    <row r="67" spans="1:27">
       <c r="A67" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Tent </v>
@@ -38709,7 +38730,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1">
+    <row r="68" spans="1:27">
       <c r="A68" t="str">
         <f t="shared" si="6"/>
         <v>Whip</v>
@@ -38771,7 +38792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1">
+    <row r="69" spans="1:27">
       <c r="A69" t="str">
         <f t="shared" si="6"/>
         <v>Blitz Whip</v>
@@ -38886,10 +38907,10 @@
         <v>2307</v>
       </c>
       <c r="Y70" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" hidden="1">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
         <v>Counter</v>
@@ -38943,7 +38964,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1">
+    <row r="72" spans="1:27">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
         <v>Colt Gun</v>
@@ -39014,7 +39035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1">
+    <row r="73" spans="1:27">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
         <v>Musket Gun</v>
@@ -39083,7 +39104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:27" hidden="1">
+    <row r="74" spans="1:27">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
         <v>Magnum Gun</v>
@@ -39152,7 +39173,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1">
+    <row r="75" spans="1:27">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
         <v>Chop Art</v>
@@ -39211,7 +39232,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1">
+    <row r="76" spans="1:27">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
         <v>Kick Art</v>
@@ -39267,7 +39288,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1">
+    <row r="77" spans="1:27">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
         <v>HeadBut Art</v>
@@ -39323,7 +39344,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="78" spans="1:27" hidden="1">
+    <row r="78" spans="1:27">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
         <v>X-Kick Art</v>
@@ -39379,7 +39400,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1">
+    <row r="79" spans="1:27">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
         <v>Jyudo Art</v>
@@ -39435,7 +39456,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1">
+    <row r="80" spans="1:27">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
         <v>Karate Art</v>
@@ -39493,7 +39514,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="81" spans="1:26" hidden="1">
+    <row r="81" spans="1:26">
       <c r="A81" t="str">
         <f t="shared" si="6"/>
         <v>Temptat</v>
@@ -39548,7 +39569,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="82" spans="1:26" hidden="1">
+    <row r="82" spans="1:26">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
         <v>StunGun</v>
@@ -39605,7 +39626,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="83" spans="1:26" hidden="1">
+    <row r="83" spans="1:26">
       <c r="A83" t="str">
         <f t="shared" si="6"/>
         <v>Heat</v>
@@ -39654,7 +39675,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="84" spans="1:26" hidden="1">
+    <row r="84" spans="1:26">
       <c r="A84" t="str">
         <f t="shared" si="6"/>
         <v>ComVirus</v>
@@ -39709,7 +39730,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="85" spans="1:26" hidden="1">
+    <row r="85" spans="1:26">
       <c r="A85" t="str">
         <f t="shared" si="6"/>
         <v>DNA</v>
@@ -39742,7 +39763,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="43" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
@@ -39758,7 +39779,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="86" spans="1:26" hidden="1">
+    <row r="86" spans="1:26">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
         <v>SMG Gun</v>
@@ -39823,7 +39844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:26" hidden="1">
+    <row r="87" spans="1:26">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
         <v>Grenade</v>
@@ -39885,7 +39906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" hidden="1">
+    <row r="88" spans="1:26">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
         <v>Bazooka Cannon</v>
@@ -39948,7 +39969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:26" hidden="1">
+    <row r="89" spans="1:26">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
         <v>Vulcan Cannon</v>
@@ -40011,7 +40032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:26" hidden="1">
+    <row r="90" spans="1:26">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
         <v>Tank Cannon</v>
@@ -40080,7 +40101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:26" hidden="1">
+    <row r="91" spans="1:26">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
         <v>Fire Gun</v>
@@ -40148,7 +40169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" hidden="1">
+    <row r="92" spans="1:26">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
         <v>Missile Cannon</v>
@@ -40210,7 +40231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:26" hidden="1">
+    <row r="93" spans="1:26">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
         <v>NukeBomb</v>
@@ -40272,7 +40293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:26" hidden="1">
+    <row r="94" spans="1:26">
       <c r="A94" t="str">
         <f t="shared" si="6"/>
         <v>Giant Armor</v>
@@ -40316,7 +40337,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="95" spans="1:26" hidden="1">
+    <row r="95" spans="1:26">
       <c r="A95" t="str">
         <f t="shared" si="6"/>
         <v>Army Helm</v>
@@ -40360,7 +40381,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="96" spans="1:26" hidden="1">
+    <row r="96" spans="1:26">
       <c r="A96" t="str">
         <f t="shared" si="6"/>
         <v>Army Armor</v>
@@ -40404,7 +40425,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="97" spans="1:26" hidden="1">
+    <row r="97" spans="1:26">
       <c r="A97" t="str">
         <f t="shared" si="6"/>
         <v>Geta Boot</v>
@@ -40503,7 +40524,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="99" spans="1:26" hidden="1">
+    <row r="99" spans="1:26">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
         <v>Coin</v>
@@ -40568,7 +40589,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:26" hidden="1">
+    <row r="100" spans="1:26">
       <c r="A100" t="str">
         <f t="shared" si="6"/>
         <v>Kimono Armor</v>
@@ -40612,7 +40633,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="101" spans="1:26" hidden="1">
+    <row r="101" spans="1:26">
       <c r="A101" t="str">
         <f t="shared" si="6"/>
         <v>Samurai Shield</v>
@@ -40662,14 +40683,11 @@
       <c r="T101" t="s">
         <v>2308</v>
       </c>
-      <c r="Y101" t="s">
-        <v>70</v>
-      </c>
       <c r="Z101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:26" hidden="1">
+    <row r="102" spans="1:26">
       <c r="A102" t="str">
         <f t="shared" si="6"/>
         <v>Muramas</v>
@@ -40729,7 +40747,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="103" spans="1:26" hidden="1">
+    <row r="103" spans="1:26">
       <c r="A103" t="str">
         <f t="shared" si="6"/>
         <v>Gungnir Spear</v>
@@ -40792,7 +40810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26" hidden="1">
+    <row r="104" spans="1:26">
       <c r="A104" t="str">
         <f t="shared" si="6"/>
         <v>Laser Sword</v>
@@ -40849,7 +40867,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="105" spans="1:26" hidden="1">
+    <row r="105" spans="1:26">
       <c r="A105" t="str">
         <f t="shared" si="6"/>
         <v>Psi Knife</v>
@@ -40906,7 +40924,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="106" spans="1:26" hidden="1">
+    <row r="106" spans="1:26">
       <c r="A106" t="str">
         <f t="shared" si="6"/>
         <v>Psi Sword</v>
@@ -40963,7 +40981,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="107" spans="1:26" hidden="1">
+    <row r="107" spans="1:26">
       <c r="A107" t="str">
         <f t="shared" si="6"/>
         <v>Laser Gun</v>
@@ -41023,7 +41041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:26" hidden="1">
+    <row r="108" spans="1:26">
       <c r="A108" t="str">
         <f t="shared" si="6"/>
         <v>SpeedUp</v>
@@ -41078,7 +41096,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="109" spans="1:26" hidden="1">
+    <row r="109" spans="1:26">
       <c r="A109" t="str">
         <f t="shared" si="6"/>
         <v>Rocket</v>
@@ -41143,7 +41161,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:26" hidden="1">
+    <row r="110" spans="1:26">
       <c r="A110" t="str">
         <f t="shared" si="6"/>
         <v>Psi Gun</v>
@@ -41200,7 +41218,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="111" spans="1:26" hidden="1">
+    <row r="111" spans="1:26">
       <c r="A111" t="str">
         <f t="shared" si="6"/>
         <v>Giant Helm</v>
@@ -41244,7 +41262,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="112" spans="1:26" hidden="1">
+    <row r="112" spans="1:26">
       <c r="A112" t="str">
         <f t="shared" si="6"/>
         <v>Hyper Cannon</v>
@@ -41300,7 +41318,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="113" spans="1:26" hidden="1">
+    <row r="113" spans="1:26">
       <c r="A113" t="str">
         <f t="shared" si="6"/>
         <v>Battle Armor</v>
@@ -41344,7 +41362,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="114" spans="1:26" hidden="1">
+    <row r="114" spans="1:26">
       <c r="A114" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Parasuit </v>
@@ -41386,10 +41404,10 @@
         <v>1818</v>
       </c>
       <c r="U114" t="s">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" hidden="1">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
       <c r="A115" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Door </v>
@@ -41431,7 +41449,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="116" spans="1:26" hidden="1">
+    <row r="116" spans="1:26">
       <c r="A116" t="str">
         <f t="shared" si="6"/>
         <v>Micron Potion</v>
@@ -41475,7 +41493,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="117" spans="1:26" hidden="1">
+    <row r="117" spans="1:26">
       <c r="A117" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Key </v>
@@ -41517,7 +41535,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="118" spans="1:26" hidden="1">
+    <row r="118" spans="1:26">
       <c r="A118" t="str">
         <f t="shared" si="6"/>
         <v>Masmune Magi</v>
@@ -41577,7 +41595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:26" hidden="1">
+    <row r="119" spans="1:26">
       <c r="A119" t="str">
         <f t="shared" si="6"/>
         <v>Aegis Magi</v>
@@ -41628,7 +41646,7 @@
         <v>2308</v>
       </c>
       <c r="U119" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="Y119" t="s">
         <v>572</v>
@@ -41637,7 +41655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:26" hidden="1">
+    <row r="120" spans="1:26">
       <c r="A120" t="str">
         <f t="shared" si="6"/>
         <v>Heart Magi</v>
@@ -41687,8 +41705,11 @@
       <c r="T120" t="s">
         <v>2313</v>
       </c>
-    </row>
-    <row r="121" spans="1:26" hidden="1">
+      <c r="Y120" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26">
       <c r="A121" t="str">
         <f t="shared" si="6"/>
         <v>Pegasus Magi</v>
@@ -41733,7 +41754,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="122" spans="1:26" hidden="1">
+    <row r="122" spans="1:26">
       <c r="A122" t="str">
         <f t="shared" si="6"/>
         <v>Selfix</v>
@@ -41766,7 +41787,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="43" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="P122" s="5">
         <v>1</v>
@@ -41775,13 +41796,13 @@
         <v>1818</v>
       </c>
       <c r="Y122" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="Z122">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:26" hidden="1">
+    <row r="123" spans="1:26">
       <c r="A123" t="str">
         <f t="shared" si="6"/>
         <v>Seven Sword</v>
@@ -41838,7 +41859,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="124" spans="1:26" hidden="1">
+    <row r="124" spans="1:26">
       <c r="A124" t="str">
         <f t="shared" si="6"/>
         <v>Nail</v>
@@ -41893,7 +41914,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="125" spans="1:26" hidden="1">
+    <row r="125" spans="1:26">
       <c r="A125" t="str">
         <f t="shared" si="6"/>
         <v>Tusk</v>
@@ -41948,7 +41969,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="126" spans="1:26" hidden="1">
+    <row r="126" spans="1:26">
       <c r="A126" t="str">
         <f t="shared" si="6"/>
         <v>Tongue</v>
@@ -42003,7 +42024,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="127" spans="1:26" hidden="1">
+    <row r="127" spans="1:26">
       <c r="A127" t="str">
         <f t="shared" si="6"/>
         <v>Stab</v>
@@ -42058,7 +42079,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="128" spans="1:26" hidden="1">
+    <row r="128" spans="1:26">
       <c r="A128" t="str">
         <f t="shared" si="6"/>
         <v>Branch</v>
@@ -42113,7 +42134,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="129" spans="1:25" hidden="1">
+    <row r="129" spans="1:25">
       <c r="A129" t="str">
         <f t="shared" si="6"/>
         <v>Bash</v>
@@ -42168,7 +42189,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="130" spans="1:25" hidden="1">
+    <row r="130" spans="1:25">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="11">B130</f>
         <v>Punch</v>
@@ -42223,7 +42244,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="131" spans="1:25" hidden="1">
+    <row r="131" spans="1:25">
       <c r="A131" t="str">
         <f t="shared" si="11"/>
         <v>Kick</v>
@@ -42278,7 +42299,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="132" spans="1:25" hidden="1">
+    <row r="132" spans="1:25">
       <c r="A132" t="str">
         <f t="shared" si="11"/>
         <v>Horn</v>
@@ -42333,7 +42354,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1">
+    <row r="133" spans="1:25">
       <c r="A133" t="str">
         <f t="shared" si="11"/>
         <v>Thorn</v>
@@ -42388,7 +42409,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1">
+    <row r="134" spans="1:25">
       <c r="A134" t="str">
         <f t="shared" si="11"/>
         <v>Sword</v>
@@ -42443,7 +42464,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1">
+    <row r="135" spans="1:25">
       <c r="A135" t="str">
         <f t="shared" si="11"/>
         <v>Head</v>
@@ -42498,7 +42519,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1">
+    <row r="136" spans="1:25">
       <c r="A136" t="str">
         <f t="shared" si="11"/>
         <v>Beak</v>
@@ -42553,7 +42574,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="137" spans="1:25" hidden="1">
+    <row r="137" spans="1:25">
       <c r="A137" t="str">
         <f t="shared" si="11"/>
         <v>Tail</v>
@@ -42608,7 +42629,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="138" spans="1:25" hidden="1">
+    <row r="138" spans="1:25">
       <c r="A138" t="str">
         <f t="shared" si="11"/>
         <v>Pincer</v>
@@ -42663,7 +42684,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="139" spans="1:25" hidden="1">
+    <row r="139" spans="1:25">
       <c r="A139" t="str">
         <f t="shared" si="11"/>
         <v>Fin</v>
@@ -42718,7 +42739,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="140" spans="1:25" hidden="1">
+    <row r="140" spans="1:25">
       <c r="A140" t="str">
         <f t="shared" si="11"/>
         <v>Tentacle</v>
@@ -43112,7 +43133,7 @@
         <v>2307</v>
       </c>
       <c r="Y146" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="147" spans="1:27">
@@ -43233,7 +43254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:27" hidden="1">
+    <row r="149" spans="1:27">
       <c r="A149" t="str">
         <f t="shared" si="11"/>
         <v>Cure</v>
@@ -43289,7 +43310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:27" hidden="1">
+    <row r="150" spans="1:27">
       <c r="A150" t="str">
         <f t="shared" si="11"/>
         <v>Defense</v>
@@ -43339,7 +43360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:27" hidden="1">
+    <row r="151" spans="1:27">
       <c r="A151" t="str">
         <f t="shared" si="11"/>
         <v>Shell</v>
@@ -43389,7 +43410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:27" hidden="1">
+    <row r="152" spans="1:27">
       <c r="A152" t="str">
         <f t="shared" si="11"/>
         <v>Mirror</v>
@@ -43436,7 +43457,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="153" spans="1:27" hidden="1">
+    <row r="153" spans="1:27">
       <c r="A153" t="str">
         <f t="shared" si="11"/>
         <v>Backlash</v>
@@ -43489,7 +43510,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="154" spans="1:27" hidden="1">
+    <row r="154" spans="1:27">
       <c r="A154" t="str">
         <f t="shared" si="11"/>
         <v>Burning</v>
@@ -43885,7 +43906,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:27" hidden="1">
+    <row r="161" spans="1:27">
       <c r="A161" t="str">
         <f t="shared" si="11"/>
         <v>Axe</v>
@@ -43940,7 +43961,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="162" spans="1:27" hidden="1">
+    <row r="162" spans="1:27">
       <c r="A162" t="str">
         <f t="shared" si="11"/>
         <v>Honey</v>
@@ -43996,7 +44017,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:27" hidden="1">
+    <row r="163" spans="1:27">
       <c r="A163" t="str">
         <f t="shared" si="11"/>
         <v>Heal</v>
@@ -44052,7 +44073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:27" hidden="1">
+    <row r="164" spans="1:27">
       <c r="A164" t="str">
         <f t="shared" si="11"/>
         <v>MegaCure</v>
@@ -44168,7 +44189,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="166" spans="1:27" hidden="1">
+    <row r="166" spans="1:27">
       <c r="A166" t="str">
         <f t="shared" si="11"/>
         <v>ParaNail</v>
@@ -44221,7 +44242,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="167" spans="1:27" hidden="1">
+    <row r="167" spans="1:27">
       <c r="A167" t="str">
         <f t="shared" si="11"/>
         <v>Wind Up</v>
@@ -44274,7 +44295,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="168" spans="1:27" hidden="1">
+    <row r="168" spans="1:27">
       <c r="A168" t="str">
         <f t="shared" si="11"/>
         <v>Tie Up</v>
@@ -44327,7 +44348,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="169" spans="1:27" hidden="1">
+    <row r="169" spans="1:27">
       <c r="A169" t="str">
         <f t="shared" si="11"/>
         <v>Breath</v>
@@ -44380,7 +44401,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="170" spans="1:27" hidden="1">
+    <row r="170" spans="1:27">
       <c r="A170" t="str">
         <f t="shared" si="11"/>
         <v>Poison</v>
@@ -44433,7 +44454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:27" hidden="1">
+    <row r="171" spans="1:27">
       <c r="A171" t="str">
         <f t="shared" si="11"/>
         <v>P-Skin</v>
@@ -44486,7 +44507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:27" hidden="1">
+    <row r="172" spans="1:27">
       <c r="A172" t="str">
         <f t="shared" si="11"/>
         <v>ParaSkin</v>
@@ -44539,7 +44560,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="173" spans="1:27" hidden="1">
+    <row r="173" spans="1:27">
       <c r="A173" t="str">
         <f t="shared" si="11"/>
         <v>Petrify</v>
@@ -44592,7 +44613,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="174" spans="1:27" hidden="1">
+    <row r="174" spans="1:27">
       <c r="A174" t="str">
         <f t="shared" si="11"/>
         <v>StonSkin</v>
@@ -44645,7 +44666,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="175" spans="1:27" hidden="1">
+    <row r="175" spans="1:27">
       <c r="A175" t="str">
         <f t="shared" si="11"/>
         <v>Thunder</v>
@@ -44701,7 +44722,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:27" hidden="1">
+    <row r="176" spans="1:27">
       <c r="A176" t="str">
         <f t="shared" si="11"/>
         <v>Ice</v>
@@ -44757,7 +44778,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="177" spans="1:24" hidden="1">
+    <row r="177" spans="1:24">
       <c r="A177" t="str">
         <f t="shared" si="11"/>
         <v>Fire</v>
@@ -44813,7 +44834,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:24" hidden="1">
+    <row r="178" spans="1:24">
       <c r="A178" t="str">
         <f t="shared" si="11"/>
         <v>Flame</v>
@@ -44869,7 +44890,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:24" hidden="1">
+    <row r="179" spans="1:24">
       <c r="A179" t="str">
         <f t="shared" si="11"/>
         <v>Gas</v>
@@ -44925,7 +44946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:24" hidden="1">
+    <row r="180" spans="1:24">
       <c r="A180" t="str">
         <f t="shared" si="11"/>
         <v>Blizzard</v>
@@ -44981,7 +45002,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="181" spans="1:24" hidden="1">
+    <row r="181" spans="1:24">
       <c r="A181" t="str">
         <f t="shared" si="11"/>
         <v>Lightning</v>
@@ -44991,7 +45012,7 @@
         <v>Lightning</v>
       </c>
       <c r="C181" s="94" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D181" s="96"/>
       <c r="E181" s="136">
@@ -45037,7 +45058,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:24" hidden="1">
+    <row r="182" spans="1:24">
       <c r="A182" t="str">
         <f t="shared" si="11"/>
         <v>Beam</v>
@@ -45090,7 +45111,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="183" spans="1:24" hidden="1">
+    <row r="183" spans="1:24">
       <c r="A183" t="str">
         <f t="shared" si="11"/>
         <v>P-Blast</v>
@@ -45143,7 +45164,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="184" spans="1:24" hidden="1">
+    <row r="184" spans="1:24">
       <c r="A184" t="str">
         <f t="shared" si="11"/>
         <v>Dispel</v>
@@ -45199,7 +45220,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="185" spans="1:24" hidden="1">
+    <row r="185" spans="1:24">
       <c r="A185" t="str">
         <f t="shared" si="11"/>
         <v>D-Beam</v>
@@ -45255,7 +45276,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="186" spans="1:24" hidden="1">
+    <row r="186" spans="1:24">
       <c r="A186" t="str">
         <f t="shared" si="11"/>
         <v>Squirt</v>
@@ -45311,7 +45332,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="187" spans="1:24" hidden="1">
+    <row r="187" spans="1:24">
       <c r="A187" t="str">
         <f t="shared" si="11"/>
         <v>SunBurst</v>
@@ -45367,7 +45388,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="188" spans="1:24" hidden="1">
+    <row r="188" spans="1:24">
       <c r="A188" t="str">
         <f t="shared" si="11"/>
         <v>SleepGas</v>
@@ -45420,7 +45441,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="189" spans="1:24" hidden="1">
+    <row r="189" spans="1:24">
       <c r="A189" t="str">
         <f t="shared" si="11"/>
         <v>Sleep</v>
@@ -45473,7 +45494,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="190" spans="1:24" hidden="1">
+    <row r="190" spans="1:24">
       <c r="A190" t="str">
         <f t="shared" si="11"/>
         <v>StonGaze</v>
@@ -45526,7 +45547,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="191" spans="1:24" hidden="1">
+    <row r="191" spans="1:24">
       <c r="A191" t="str">
         <f t="shared" si="11"/>
         <v>Stone</v>
@@ -45579,7 +45600,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="192" spans="1:24" hidden="1">
+    <row r="192" spans="1:24">
       <c r="A192" t="str">
         <f t="shared" si="11"/>
         <v>StoneGas</v>
@@ -45632,7 +45653,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:25" hidden="1">
+    <row r="193" spans="1:25">
       <c r="A193" t="str">
         <f t="shared" si="11"/>
         <v>FatalGas</v>
@@ -45685,9 +45706,9 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="194" spans="1:25" hidden="1">
+    <row r="194" spans="1:25">
       <c r="A194" t="str">
-        <f t="shared" ref="A194:A257" si="14">B194</f>
+        <f t="shared" ref="A194:A258" si="14">B194</f>
         <v>X-Gaze</v>
       </c>
       <c r="B194" t="str">
@@ -45738,7 +45759,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="195" spans="1:25" hidden="1">
+    <row r="195" spans="1:25">
       <c r="A195" t="str">
         <f t="shared" si="14"/>
         <v>Erase</v>
@@ -45791,7 +45812,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="196" spans="1:25" hidden="1">
+    <row r="196" spans="1:25">
       <c r="A196" t="str">
         <f t="shared" si="14"/>
         <v>Blind</v>
@@ -45844,7 +45865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:25" hidden="1">
+    <row r="197" spans="1:25">
       <c r="A197" t="str">
         <f t="shared" si="14"/>
         <v>Flash</v>
@@ -45897,7 +45918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:25" hidden="1">
+    <row r="198" spans="1:25">
       <c r="A198" t="str">
         <f t="shared" si="14"/>
         <v>Ink</v>
@@ -45950,7 +45971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:25" hidden="1">
+    <row r="199" spans="1:25">
       <c r="A199" t="str">
         <f t="shared" si="14"/>
         <v>PoisonCloud</v>
@@ -46003,7 +46024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:25" hidden="1">
+    <row r="200" spans="1:25">
       <c r="A200" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -46056,7 +46077,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="201" spans="1:25" hidden="1">
+    <row r="201" spans="1:25">
       <c r="A201" t="str">
         <f t="shared" si="14"/>
         <v>Stunner</v>
@@ -46109,7 +46130,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="202" spans="1:25" hidden="1">
+    <row r="202" spans="1:25">
       <c r="A202" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -46162,7 +46183,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="203" spans="1:25" hidden="1">
+    <row r="203" spans="1:25">
       <c r="A203" t="str">
         <f t="shared" si="14"/>
         <v>Charm</v>
@@ -46215,7 +46236,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="204" spans="1:25" hidden="1">
+    <row r="204" spans="1:25">
       <c r="A204" t="str">
         <f t="shared" si="14"/>
         <v>Hypnos</v>
@@ -46268,7 +46289,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="205" spans="1:25" hidden="1">
+    <row r="205" spans="1:25">
       <c r="A205" t="str">
         <f t="shared" si="14"/>
         <v>Sand</v>
@@ -46321,7 +46342,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="206" spans="1:25" hidden="1">
+    <row r="206" spans="1:25">
       <c r="A206" t="str">
         <f t="shared" si="14"/>
         <v>Cobweb</v>
@@ -46374,7 +46395,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="207" spans="1:25" hidden="1">
+    <row r="207" spans="1:25">
       <c r="A207" t="str">
         <f t="shared" si="14"/>
         <v>Blitz</v>
@@ -46427,7 +46448,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="208" spans="1:25" hidden="1">
+    <row r="208" spans="1:25">
       <c r="A208" t="str">
         <f t="shared" si="14"/>
         <v>Drain</v>
@@ -46480,7 +46501,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="209" spans="1:25" hidden="1">
+    <row r="209" spans="1:25">
       <c r="A209" t="str">
         <f t="shared" si="14"/>
         <v>Stench</v>
@@ -46533,7 +46554,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="210" spans="1:25" hidden="1">
+    <row r="210" spans="1:25">
       <c r="A210" t="str">
         <f t="shared" si="14"/>
         <v>Haste</v>
@@ -46586,7 +46607,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="211" spans="1:25" hidden="1">
+    <row r="211" spans="1:25">
       <c r="A211" t="str">
         <f t="shared" si="14"/>
         <v>Tornado</v>
@@ -46639,7 +46660,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="212" spans="1:25" hidden="1">
+    <row r="212" spans="1:25">
       <c r="A212" t="str">
         <f t="shared" si="14"/>
         <v>Quake</v>
@@ -46695,7 +46716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="213" spans="1:25" hidden="1">
+    <row r="213" spans="1:25">
       <c r="A213" t="str">
         <f t="shared" si="14"/>
         <v>Whirl</v>
@@ -46748,7 +46769,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="214" spans="1:25" hidden="1">
+    <row r="214" spans="1:25">
       <c r="A214" t="str">
         <f t="shared" si="14"/>
         <v>Flare</v>
@@ -46854,7 +46875,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="216" spans="1:25" hidden="1">
+    <row r="216" spans="1:25">
       <c r="A216" t="str">
         <f t="shared" si="14"/>
         <v>Explode</v>
@@ -46910,7 +46931,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="217" spans="1:25" hidden="1">
+    <row r="217" spans="1:25">
       <c r="A217" t="str">
         <f t="shared" si="14"/>
         <v>Acid</v>
@@ -46966,7 +46987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:25" hidden="1">
+    <row r="218" spans="1:25">
       <c r="A218" t="str">
         <f t="shared" si="14"/>
         <v>Riddle</v>
@@ -47019,7 +47040,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="219" spans="1:25" hidden="1">
+    <row r="219" spans="1:25">
       <c r="A219" t="str">
         <f t="shared" si="14"/>
         <v>CursSong</v>
@@ -47072,7 +47093,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="220" spans="1:25" hidden="1">
+    <row r="220" spans="1:25">
       <c r="A220" t="str">
         <f t="shared" si="14"/>
         <v>MadSong</v>
@@ -47125,7 +47146,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="221" spans="1:25" hidden="1">
+    <row r="221" spans="1:25">
       <c r="A221" t="str">
         <f t="shared" si="14"/>
         <v>Surprise</v>
@@ -47169,7 +47190,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="222" spans="1:25" hidden="1">
+    <row r="222" spans="1:25">
       <c r="A222" t="str">
         <f t="shared" si="14"/>
         <v>Warning</v>
@@ -47213,7 +47234,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="223" spans="1:25" hidden="1">
+    <row r="223" spans="1:25">
       <c r="A223" t="str">
         <f t="shared" si="14"/>
         <v>Multiply</v>
@@ -47260,7 +47281,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="224" spans="1:25" hidden="1">
+    <row r="224" spans="1:25">
       <c r="A224" t="str">
         <f t="shared" si="14"/>
         <v>O-Quake</v>
@@ -47309,7 +47330,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="225" spans="1:27" hidden="1">
+    <row r="225" spans="1:27">
       <c r="A225" t="str">
         <f t="shared" si="14"/>
         <v>O-Change</v>
@@ -47355,10 +47376,10 @@
         <v>2354</v>
       </c>
       <c r="U225" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27" hidden="1">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
       <c r="A226" t="str">
         <f t="shared" si="14"/>
         <v>O-Fire</v>
@@ -47407,7 +47428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="227" spans="1:27" hidden="1">
+    <row r="227" spans="1:27">
       <c r="A227" t="str">
         <f t="shared" si="14"/>
         <v>O-Poison</v>
@@ -47456,7 +47477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:27" hidden="1">
+    <row r="228" spans="1:27">
       <c r="A228" t="str">
         <f t="shared" si="14"/>
         <v>O-Damage</v>
@@ -47502,10 +47523,10 @@
         <v>2354</v>
       </c>
       <c r="U228" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27" hidden="1">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
       <c r="A229" t="str">
         <f t="shared" si="14"/>
         <v>O-Weapon</v>
@@ -47554,7 +47575,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="230" spans="1:27" hidden="1">
+    <row r="230" spans="1:27">
       <c r="A230" t="str">
         <f t="shared" si="14"/>
         <v>O-Pa/Po</v>
@@ -47600,10 +47621,10 @@
         <v>2354</v>
       </c>
       <c r="U230" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="231" spans="1:27" hidden="1">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
       <c r="A231" t="str">
         <f t="shared" si="14"/>
         <v>O-Para</v>
@@ -47649,10 +47670,10 @@
         <v>2354</v>
       </c>
       <c r="U231" t="s">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="232" spans="1:27" hidden="1">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
       <c r="A232" t="str">
         <f t="shared" si="14"/>
         <v>O-Ice</v>
@@ -47701,7 +47722,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="233" spans="1:27" hidden="1">
+    <row r="233" spans="1:27">
       <c r="A233" t="str">
         <f t="shared" si="14"/>
         <v>O-Stone</v>
@@ -47750,7 +47771,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="234" spans="1:27" hidden="1">
+    <row r="234" spans="1:27">
       <c r="A234" t="str">
         <f t="shared" si="14"/>
         <v>X-Fire</v>
@@ -47799,10 +47820,10 @@
         <v>159</v>
       </c>
       <c r="Y234" t="s">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="235" spans="1:27" hidden="1">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27">
       <c r="A235" t="str">
         <f t="shared" si="14"/>
         <v>X-Ice</v>
@@ -47851,10 +47872,10 @@
         <v>441</v>
       </c>
       <c r="Y235" t="s">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="236" spans="1:27" hidden="1">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27">
       <c r="A236" t="str">
         <f t="shared" si="14"/>
         <v>X-Thunder</v>
@@ -47903,10 +47924,10 @@
         <v>242</v>
       </c>
       <c r="Y236" t="s">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="237" spans="1:27" hidden="1">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27">
       <c r="A237" t="str">
         <f t="shared" si="14"/>
         <v>Teleport</v>
@@ -47946,7 +47967,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="238" spans="1:27" hidden="1">
+    <row r="238" spans="1:27">
       <c r="A238" t="str">
         <f t="shared" si="14"/>
         <v>Remedy</v>
@@ -47993,7 +48014,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="239" spans="1:27" hidden="1">
+    <row r="239" spans="1:27">
       <c r="A239" t="str">
         <f t="shared" si="14"/>
         <v>O-All</v>
@@ -48039,10 +48060,10 @@
         <v>2354</v>
       </c>
       <c r="U239" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="240" spans="1:27" hidden="1">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27">
       <c r="A240" t="str">
         <f t="shared" si="14"/>
         <v>PoisonBurst</v>
@@ -48098,7 +48119,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="241" spans="1:26" hidden="1">
+    <row r="241" spans="1:26">
       <c r="A241" t="str">
         <f t="shared" si="14"/>
         <v>FlareApollo</v>
@@ -48144,7 +48165,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="242" spans="1:26" hidden="1">
+    <row r="242" spans="1:26">
       <c r="A242" t="str">
         <f t="shared" si="14"/>
         <v>Smasher</v>
@@ -48188,7 +48209,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="243" spans="1:26" hidden="1">
+    <row r="243" spans="1:26">
       <c r="A243" t="str">
         <f t="shared" si="14"/>
         <v>Recover</v>
@@ -48228,7 +48249,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="244" spans="1:26" hidden="1">
+    <row r="244" spans="1:26">
       <c r="A244" t="str">
         <f t="shared" si="14"/>
         <v>Power Magi</v>
@@ -48273,7 +48294,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="245" spans="1:26" hidden="1">
+    <row r="245" spans="1:26">
       <c r="A245" t="str">
         <f t="shared" si="14"/>
         <v>Speed Magi</v>
@@ -48318,7 +48339,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="246" spans="1:26" hidden="1">
+    <row r="246" spans="1:26">
       <c r="A246" t="str">
         <f t="shared" si="14"/>
         <v>Mana Magi</v>
@@ -48363,7 +48384,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="247" spans="1:26" hidden="1">
+    <row r="247" spans="1:26">
       <c r="A247" t="str">
         <f t="shared" si="14"/>
         <v>Defense Magi</v>
@@ -48408,7 +48429,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="248" spans="1:26" hidden="1">
+    <row r="248" spans="1:26">
       <c r="A248" t="str">
         <f t="shared" si="14"/>
         <v>Fire Magi</v>
@@ -48456,7 +48477,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:26" hidden="1">
+    <row r="249" spans="1:26">
       <c r="A249" t="str">
         <f t="shared" si="14"/>
         <v>Ice Magi</v>
@@ -48504,7 +48525,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:26" hidden="1">
+    <row r="250" spans="1:26">
       <c r="A250" t="str">
         <f t="shared" si="14"/>
         <v>Thunder Magi</v>
@@ -48552,7 +48573,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:26" hidden="1">
+    <row r="251" spans="1:26">
       <c r="A251" t="str">
         <f t="shared" si="14"/>
         <v>Poison Magi</v>
@@ -48600,7 +48621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:26" hidden="1">
+    <row r="252" spans="1:26">
       <c r="A252" t="str">
         <f t="shared" si="14"/>
         <v>CatClaw</v>
@@ -48720,7 +48741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:26" hidden="1">
+    <row r="254" spans="1:26">
       <c r="A254" t="str">
         <f t="shared" si="14"/>
         <v>Glass Sword</v>
@@ -48785,7 +48806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:26" hidden="1">
+    <row r="255" spans="1:26">
       <c r="A255" t="str">
         <f t="shared" si="14"/>
         <v>Revenge Sword</v>
@@ -48839,7 +48860,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:26" hidden="1">
+    <row r="256" spans="1:26">
       <c r="A256" t="str">
         <f t="shared" si="14"/>
         <v>Bow</v>
@@ -48906,7 +48927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:20" hidden="1">
+    <row r="257" spans="1:27">
       <c r="A257" t="str">
         <f t="shared" si="14"/>
         <v>Sabre</v>
@@ -48963,18 +48984,36 @@
         <v>2307</v>
       </c>
     </row>
+    <row r="258" spans="1:27">
+      <c r="A258" t="str">
+        <f t="shared" si="14"/>
+        <v>O-Dragon</v>
+      </c>
+      <c r="B258" t="str">
+        <f>CONCATENATE(D258,"-",C258)</f>
+        <v>O-Dragon</v>
+      </c>
+      <c r="C258" s="94" t="s">
+        <v>338</v>
+      </c>
+      <c r="D258" s="96" t="s">
+        <v>2090</v>
+      </c>
+      <c r="P258" s="5">
+        <v>1</v>
+      </c>
+      <c r="S258" t="s">
+        <v>2354</v>
+      </c>
+      <c r="U258" t="s">
+        <v>2579</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>2580</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AA257" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="18">
-      <filters>
-        <filter val="Melee"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="24">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A1:AA258" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <sortState ref="A2:AA257">
       <sortCondition ref="E1:E257"/>
     </sortState>
@@ -62053,7 +62092,7 @@
     <row r="110" spans="1:2">
       <c r="A110" s="101"/>
       <c r="B110" s="101" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -62579,7 +62618,7 @@
     <row r="190" spans="1:2">
       <c r="A190" s="101"/>
       <c r="B190" s="101" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -63812,7 +63851,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="134" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C1" s="137" t="s">
         <v>2347</v>
@@ -63872,7 +63911,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="134" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B2" s="117" t="e">
         <f>VLOOKUP(C2,#REF!,2,FALSE)</f>
@@ -63900,7 +63939,7 @@
         <v>77</v>
       </c>
       <c r="J2" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="K2" s="134" t="s">
         <v>599</v>
@@ -63938,7 +63977,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="134" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B3" s="117" t="e">
         <f>VLOOKUP(C3,#REF!,2,FALSE)</f>
@@ -63966,7 +64005,7 @@
         <v>77</v>
       </c>
       <c r="J3" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="K3" s="134" t="s">
         <v>599</v>
@@ -64005,7 +64044,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="134" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B4" s="117" t="e">
         <f>VLOOKUP(C4,#REF!,2,FALSE)</f>
@@ -64071,7 +64110,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="134" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B5" s="117" t="e">
         <f>VLOOKUP(C5,#REF!,2,FALSE)</f>
@@ -64105,7 +64144,7 @@
         <v>57</v>
       </c>
       <c r="L5" s="117" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="M5" s="139">
         <v>7</v>
@@ -64129,7 +64168,7 @@
         <v>1683</v>
       </c>
       <c r="T5" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="U5" s="134" t="s">
         <v>57</v>
@@ -64137,7 +64176,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="134" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B6" s="117" t="e">
         <f>VLOOKUP(C6,#REF!,2,FALSE)</f>
@@ -64192,7 +64231,7 @@
         <v>1690</v>
       </c>
       <c r="S6" s="134" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="T6" s="134" t="s">
         <v>1691</v>
@@ -64203,7 +64242,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="134" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B7" s="117" t="e">
         <f>VLOOKUP(C7,#REF!,2,FALSE)</f>
@@ -64269,7 +64308,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="134" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B8" s="117" t="e">
         <f>VLOOKUP(C8,#REF!,2,FALSE)</f>
@@ -64335,7 +64374,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="134" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B9" s="117" t="e">
         <f>VLOOKUP(C9,#REF!,2,FALSE)</f>
@@ -64363,7 +64402,7 @@
         <v>77</v>
       </c>
       <c r="J9" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="K9" s="134" t="s">
         <v>599</v>
@@ -64401,7 +64440,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="134" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B10" s="117" t="e">
         <f>VLOOKUP(C10,#REF!,2,FALSE)</f>
@@ -64467,7 +64506,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="134" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B11" s="117" t="e">
         <f>VLOOKUP(C11,#REF!,2,FALSE)</f>
@@ -64492,7 +64531,7 @@
         <v>545</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="J11" s="134" t="s">
         <v>1727</v>
@@ -64501,7 +64540,7 @@
         <v>57</v>
       </c>
       <c r="L11" s="117" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="M11" s="139">
         <v>19</v>
@@ -64533,7 +64572,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="134" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B12" s="117" t="e">
         <f>VLOOKUP(C12,#REF!,2,FALSE)</f>
@@ -64599,7 +64638,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="134" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B13" s="117" t="e">
         <f>VLOOKUP(C13,#REF!,2,FALSE)</f>
@@ -64624,7 +64663,7 @@
         <v>714</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="J13" s="134" t="s">
         <v>1735</v>
@@ -64665,7 +64704,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="134" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B14" s="117" t="e">
         <f>VLOOKUP(C14,#REF!,2,FALSE)</f>
@@ -64731,7 +64770,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="134" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B15" s="117" t="e">
         <f>VLOOKUP(C15,#REF!,2,FALSE)</f>
@@ -64797,7 +64836,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="134" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B16" s="117" t="e">
         <f>VLOOKUP(C16,#REF!,2,FALSE)</f>
@@ -64863,7 +64902,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="134" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B17" s="117" t="e">
         <f>VLOOKUP(C17,#REF!,2,FALSE)</f>
@@ -64885,7 +64924,7 @@
         <v>128</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="I17" s="134" t="s">
         <v>778</v>
@@ -64897,7 +64936,7 @@
         <v>1502</v>
       </c>
       <c r="L17" s="117" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="M17" s="139">
         <v>31</v>
@@ -64929,7 +64968,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="134" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B18" s="117" t="e">
         <f>VLOOKUP(C18,#REF!,2,FALSE)</f>
@@ -64995,7 +65034,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="134" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B19" s="117" t="e">
         <f>VLOOKUP(C19,#REF!,2,FALSE)</f>
@@ -65050,7 +65089,7 @@
         <v>1780</v>
       </c>
       <c r="S19" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="T19" s="134" t="s">
         <v>1735</v>
@@ -65061,7 +65100,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="134" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B20" s="117" t="e">
         <f>VLOOKUP(C20,#REF!,2,FALSE)</f>
@@ -65116,7 +65155,7 @@
         <v>1680</v>
       </c>
       <c r="S20" s="134" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="T20" s="134" t="s">
         <v>1786</v>
@@ -65127,7 +65166,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="134" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B21" s="117" t="e">
         <f>VLOOKUP(C21,#REF!,2,FALSE)</f>
@@ -65188,12 +65227,12 @@
         <v>487</v>
       </c>
       <c r="U21" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="134" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B22" s="117" t="e">
         <f>VLOOKUP(C22,#REF!,2,FALSE)</f>
@@ -65259,7 +65298,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="134" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B23" s="117" t="e">
         <f>VLOOKUP(C23,#REF!,2,FALSE)</f>
@@ -65325,7 +65364,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="134" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B24" s="117" t="e">
         <f>VLOOKUP(C24,#REF!,2,FALSE)</f>
@@ -65391,7 +65430,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="134" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B25" s="117" t="e">
         <f>VLOOKUP(C25,#REF!,2,FALSE)</f>
@@ -65457,7 +65496,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="134" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B26" s="117" t="e">
         <f>VLOOKUP(C26,#REF!,2,FALSE)</f>
@@ -65488,7 +65527,7 @@
         <v>1686</v>
       </c>
       <c r="K26" s="134" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="L26" s="117" t="s">
         <v>699</v>
@@ -65523,7 +65562,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="134" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B27" s="117" t="e">
         <f>VLOOKUP(C27,#REF!,2,FALSE)</f>
@@ -65589,7 +65628,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="134" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B28" s="117" t="e">
         <f>VLOOKUP(C28,#REF!,2,FALSE)</f>
@@ -65605,7 +65644,7 @@
         <v>77</v>
       </c>
       <c r="F28" s="134" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="G28" s="134" t="s">
         <v>77</v>
@@ -65655,7 +65694,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="134" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B29" s="117" t="e">
         <f>VLOOKUP(C29,#REF!,2,FALSE)</f>
@@ -65721,7 +65760,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="134" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B30" s="117" t="e">
         <f>VLOOKUP(C30,#REF!,2,FALSE)</f>
@@ -65737,7 +65776,7 @@
         <v>77</v>
       </c>
       <c r="F30" s="134" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="G30" s="134" t="s">
         <v>77</v>
@@ -65755,7 +65794,7 @@
         <v>77</v>
       </c>
       <c r="L30" s="117" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="M30" s="139">
         <v>57</v>
@@ -65767,7 +65806,7 @@
         <v>77</v>
       </c>
       <c r="P30" s="134" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="Q30" s="134" t="s">
         <v>77</v>
@@ -65787,7 +65826,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="134" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B31" s="117" t="e">
         <f>VLOOKUP(C31,#REF!,2,FALSE)</f>
@@ -65853,7 +65892,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="134" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B32" s="117" t="e">
         <f>VLOOKUP(C32,#REF!,2,FALSE)</f>
@@ -65919,7 +65958,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="134" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B33" s="117" t="e">
         <f>VLOOKUP(C33,#REF!,2,FALSE)</f>
@@ -65935,7 +65974,7 @@
         <v>77</v>
       </c>
       <c r="F33" s="134" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="G33" s="134" t="s">
         <v>77</v>
@@ -65953,7 +65992,7 @@
         <v>77</v>
       </c>
       <c r="L33" s="117" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="M33" s="139">
         <v>63</v>
@@ -65985,7 +66024,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="134" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B34" s="117" t="e">
         <f>VLOOKUP(C34,#REF!,2,FALSE)</f>
@@ -66051,7 +66090,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="134" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B35" s="117" t="e">
         <f>VLOOKUP(C35,#REF!,2,FALSE)</f>
@@ -66085,7 +66124,7 @@
         <v>1502</v>
       </c>
       <c r="L35" s="117" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="M35" s="139">
         <v>67</v>
@@ -66117,7 +66156,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="134" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B36" s="117" t="e">
         <f>VLOOKUP(C36,#REF!,2,FALSE)</f>
@@ -66151,7 +66190,7 @@
         <v>1502</v>
       </c>
       <c r="L36" s="117" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="M36" s="139">
         <v>69</v>
@@ -66183,7 +66222,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="134" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B37" s="117" t="e">
         <f>VLOOKUP(C37,#REF!,2,FALSE)</f>
@@ -66217,7 +66256,7 @@
         <v>1502</v>
       </c>
       <c r="L37" s="117" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="M37" s="139">
         <v>71</v>
@@ -66249,7 +66288,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="134" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B38" s="117" t="e">
         <f>VLOOKUP(C38,#REF!,2,FALSE)</f>
@@ -66277,7 +66316,7 @@
         <v>778</v>
       </c>
       <c r="J38" s="134" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="K38" s="134" t="s">
         <v>182</v>
@@ -66315,7 +66354,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="134" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B39" s="117" t="e">
         <f>VLOOKUP(C39,#REF!,2,FALSE)</f>
@@ -66343,7 +66382,7 @@
         <v>1669</v>
       </c>
       <c r="J39" s="134" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="K39" s="134" t="s">
         <v>523</v>
@@ -66373,7 +66412,7 @@
         <v>77</v>
       </c>
       <c r="T39" s="134" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="U39" s="134" t="s">
         <v>334</v>
@@ -66381,7 +66420,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="134" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B40" s="117" t="e">
         <f>VLOOKUP(C40,#REF!,2,FALSE)</f>
@@ -66409,7 +66448,7 @@
         <v>1803</v>
       </c>
       <c r="J40" s="134" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="K40" s="134" t="s">
         <v>545</v>
@@ -66436,10 +66475,10 @@
         <v>465</v>
       </c>
       <c r="S40" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="T40" s="134" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="U40" s="134" t="s">
         <v>545</v>
@@ -66447,7 +66486,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="134" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B41" s="117" t="e">
         <f>VLOOKUP(C41,#REF!,2,FALSE)</f>
@@ -66472,16 +66511,16 @@
         <v>27</v>
       </c>
       <c r="I41" s="134" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="J41" s="134" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="K41" s="134" t="s">
         <v>545</v>
       </c>
       <c r="L41" s="117" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="M41" s="139">
         <v>79</v>
@@ -66505,7 +66544,7 @@
         <v>27</v>
       </c>
       <c r="T41" s="134" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="U41" s="134" t="s">
         <v>334</v>
@@ -66513,7 +66552,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="134" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B42" s="117" t="e">
         <f>VLOOKUP(C42,#REF!,2,FALSE)</f>
@@ -66547,7 +66586,7 @@
         <v>334</v>
       </c>
       <c r="L42" s="117" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="M42" s="139">
         <v>81</v>
@@ -66579,7 +66618,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="134" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B43" s="117" t="e">
         <f>VLOOKUP(C43,#REF!,2,FALSE)</f>
@@ -66613,7 +66652,7 @@
         <v>334</v>
       </c>
       <c r="L43" s="117" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="M43" s="139">
         <v>83</v>
@@ -66634,7 +66673,7 @@
         <v>1009</v>
       </c>
       <c r="S43" s="134" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="T43" s="134" t="s">
         <v>1881</v>
@@ -66645,7 +66684,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="134" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B44" s="117" t="e">
         <f>VLOOKUP(C44,#REF!,2,FALSE)</f>
@@ -66711,7 +66750,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="134" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B45" s="117" t="e">
         <f>VLOOKUP(C45,#REF!,2,FALSE)</f>
@@ -66777,7 +66816,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="134" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B46" s="117" t="e">
         <f>VLOOKUP(C46,#REF!,2,FALSE)</f>
@@ -66843,7 +66882,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="134" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B47" s="117" t="e">
         <f>VLOOKUP(C47,#REF!,2,FALSE)</f>
@@ -66871,7 +66910,7 @@
         <v>77</v>
       </c>
       <c r="J47" s="134" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="K47" s="134" t="s">
         <v>35</v>
@@ -66901,7 +66940,7 @@
         <v>77</v>
       </c>
       <c r="T47" s="134" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="U47" s="134" t="s">
         <v>696</v>
@@ -66909,7 +66948,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="134" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B48" s="117" t="e">
         <f>VLOOKUP(C48,#REF!,2,FALSE)</f>
@@ -66931,7 +66970,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="134" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="I48" s="134" t="s">
         <v>77</v>
@@ -66967,7 +67006,7 @@
         <v>77</v>
       </c>
       <c r="T48" s="134" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="U48" s="134" t="s">
         <v>35</v>
@@ -66975,7 +67014,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="134" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B49" s="117" t="e">
         <f>VLOOKUP(C49,#REF!,2,FALSE)</f>
@@ -67041,7 +67080,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="134" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B50" s="117" t="e">
         <f>VLOOKUP(C50,#REF!,2,FALSE)</f>
@@ -67063,10 +67102,10 @@
         <v>446</v>
       </c>
       <c r="H50" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="I50" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="J50" s="134" t="s">
         <v>1683</v>
@@ -67096,7 +67135,7 @@
         <v>1780</v>
       </c>
       <c r="S50" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="T50" s="134" t="s">
         <v>1914</v>
@@ -67107,7 +67146,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="134" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B51" s="117" t="e">
         <f>VLOOKUP(C51,#REF!,2,FALSE)</f>
@@ -67173,7 +67212,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="134" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B52" s="117" t="e">
         <f>VLOOKUP(C52,#REF!,2,FALSE)</f>
@@ -67207,7 +67246,7 @@
         <v>77</v>
       </c>
       <c r="L52" s="117" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="M52" s="139">
         <v>101</v>
@@ -67239,7 +67278,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="134" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B53" s="117" t="e">
         <f>VLOOKUP(C53,#REF!,2,FALSE)</f>
@@ -67267,7 +67306,7 @@
         <v>77</v>
       </c>
       <c r="J53" s="134" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="K53" s="134" t="s">
         <v>1716</v>
@@ -67297,7 +67336,7 @@
         <v>465</v>
       </c>
       <c r="T53" s="134" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="U53" s="134" t="s">
         <v>163</v>
@@ -67305,7 +67344,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="134" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B54" s="117" t="e">
         <f>VLOOKUP(C54,#REF!,2,FALSE)</f>
@@ -67330,7 +67369,7 @@
         <v>523</v>
       </c>
       <c r="I54" s="134" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="J54" s="134" t="s">
         <v>460</v>
@@ -67357,10 +67396,10 @@
         <v>545</v>
       </c>
       <c r="R54" s="134" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="S54" s="134" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="T54" s="134" t="s">
         <v>1893</v>
@@ -67371,7 +67410,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="134" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B55" s="117" t="e">
         <f>VLOOKUP(C55,#REF!,2,FALSE)</f>
@@ -67405,7 +67444,7 @@
         <v>57</v>
       </c>
       <c r="L55" s="117" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="M55" s="139">
         <v>107</v>
@@ -67437,7 +67476,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="134" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B56" s="117" t="e">
         <f>VLOOKUP(C56,#REF!,2,FALSE)</f>
@@ -67503,7 +67542,7 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="134" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B57" s="117" t="e">
         <f>VLOOKUP(C57,#REF!,2,FALSE)</f>
@@ -67569,7 +67608,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="134" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B58" s="117" t="e">
         <f>VLOOKUP(C58,#REF!,2,FALSE)</f>
@@ -67627,7 +67666,7 @@
         <v>188</v>
       </c>
       <c r="T58" s="134" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="U58" s="134" t="s">
         <v>334</v>
@@ -67635,7 +67674,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="134" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B59" s="117" t="e">
         <f>VLOOKUP(C59,#REF!,2,FALSE)</f>
@@ -67701,7 +67740,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="134" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B60" s="117" t="e">
         <f>VLOOKUP(C60,#REF!,2,FALSE)</f>
@@ -67767,7 +67806,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="134" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="B61" s="117" t="e">
         <f>VLOOKUP(C61,#REF!,2,FALSE)</f>
@@ -67801,7 +67840,7 @@
         <v>77</v>
       </c>
       <c r="L61" s="117" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="M61" s="139">
         <v>119</v>
@@ -67833,7 +67872,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="134" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B62" s="117" t="e">
         <f>VLOOKUP(C62,#REF!,2,FALSE)</f>
@@ -67867,7 +67906,7 @@
         <v>1502</v>
       </c>
       <c r="L62" s="117" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="M62" s="139">
         <v>121</v>
@@ -67899,7 +67938,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="134" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B63" s="117" t="e">
         <f>VLOOKUP(C63,#REF!,2,FALSE)</f>
@@ -67951,10 +67990,10 @@
         <v>696</v>
       </c>
       <c r="R63" s="134" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="S63" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="T63" s="134" t="s">
         <v>460</v>
@@ -67965,7 +68004,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="134" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B64" s="117" t="e">
         <f>VLOOKUP(C64,#REF!,2,FALSE)</f>
@@ -68031,7 +68070,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="134" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B65" s="117" t="e">
         <f>VLOOKUP(C65,#REF!,2,FALSE)</f>
@@ -68097,7 +68136,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="134" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B66" s="117" t="e">
         <f>VLOOKUP(C66,#REF!,2,FALSE)</f>
@@ -68125,7 +68164,7 @@
         <v>77</v>
       </c>
       <c r="J66" s="134" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="K66" s="134" t="s">
         <v>334</v>
@@ -68163,7 +68202,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="134" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B67" s="117" t="e">
         <f>VLOOKUP(C67,#REF!,2,FALSE)</f>
@@ -68229,7 +68268,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="134" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B68" s="117" t="e">
         <f>VLOOKUP(C68,#REF!,2,FALSE)</f>
@@ -68295,7 +68334,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="134" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B69" s="117" t="e">
         <f>VLOOKUP(C69,#REF!,2,FALSE)</f>
@@ -68323,7 +68362,7 @@
         <v>77</v>
       </c>
       <c r="J69" s="134" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="K69" s="134" t="s">
         <v>334</v>
@@ -68361,7 +68400,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="134" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B70" s="117" t="e">
         <f>VLOOKUP(C70,#REF!,2,FALSE)</f>
@@ -68427,7 +68466,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="134" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B71" s="117" t="e">
         <f>VLOOKUP(C71,#REF!,2,FALSE)</f>
@@ -68493,7 +68532,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="134" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B72" s="117" t="e">
         <f>VLOOKUP(C72,#REF!,2,FALSE)</f>
@@ -68521,7 +68560,7 @@
         <v>77</v>
       </c>
       <c r="J72" s="134" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="K72" s="134" t="s">
         <v>1716</v>
@@ -68551,7 +68590,7 @@
         <v>77</v>
       </c>
       <c r="T72" s="134" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="U72" s="134" t="s">
         <v>334</v>
@@ -68559,7 +68598,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="134" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B73" s="117" t="e">
         <f>VLOOKUP(C73,#REF!,2,FALSE)</f>
@@ -68625,7 +68664,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="134" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B74" s="117" t="e">
         <f>VLOOKUP(C74,#REF!,2,FALSE)</f>
@@ -68653,7 +68692,7 @@
         <v>77</v>
       </c>
       <c r="J74" s="134" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="K74" s="134" t="s">
         <v>334</v>
@@ -68691,7 +68730,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="134" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B75" s="117" t="e">
         <f>VLOOKUP(C75,#REF!,2,FALSE)</f>
@@ -68757,7 +68796,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="134" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B76" s="117" t="e">
         <f>VLOOKUP(C76,#REF!,2,FALSE)</f>
@@ -68785,7 +68824,7 @@
         <v>1004</v>
       </c>
       <c r="J76" s="134" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="K76" s="134" t="s">
         <v>334</v>
@@ -68812,7 +68851,7 @@
         <v>545</v>
       </c>
       <c r="S76" s="134" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="T76" s="134" t="s">
         <v>2011</v>
@@ -68823,7 +68862,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="134" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B77" s="117" t="e">
         <f>VLOOKUP(C77,#REF!,2,FALSE)</f>
@@ -68851,7 +68890,7 @@
         <v>1669</v>
       </c>
       <c r="J77" s="134" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="K77" s="134" t="s">
         <v>162</v>
@@ -68889,7 +68928,7 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="134" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B78" s="117" t="e">
         <f>VLOOKUP(C78,#REF!,2,FALSE)</f>
@@ -68955,7 +68994,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="134" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B79" s="117" t="e">
         <f>VLOOKUP(C79,#REF!,2,FALSE)</f>
@@ -69021,7 +69060,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="134" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B80" s="117" t="e">
         <f>VLOOKUP(C80,#REF!,2,FALSE)</f>
@@ -69087,7 +69126,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="134" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B81" s="117" t="e">
         <f>VLOOKUP(C81,#REF!,2,FALSE)</f>
@@ -69153,7 +69192,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="134" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B82" s="117" t="e">
         <f>VLOOKUP(C82,#REF!,2,FALSE)</f>
@@ -69219,7 +69258,7 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="134" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B83" s="117" t="e">
         <f>VLOOKUP(C83,#REF!,2,FALSE)</f>
@@ -69285,7 +69324,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="134" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B84" s="117" t="e">
         <f>VLOOKUP(C84,#REF!,2,FALSE)</f>
@@ -69351,7 +69390,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="134" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B85" s="117" t="e">
         <f>VLOOKUP(C85,#REF!,2,FALSE)</f>
@@ -69379,7 +69418,7 @@
         <v>77</v>
       </c>
       <c r="J85" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="K85" s="134" t="s">
         <v>599</v>
@@ -69417,7 +69456,7 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="134" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B86" s="117" t="e">
         <f>VLOOKUP(C86,#REF!,2,FALSE)</f>
@@ -69483,7 +69522,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="134" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B87" s="117" t="e">
         <f>VLOOKUP(C87,#REF!,2,FALSE)</f>
@@ -69549,7 +69588,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="134" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B88" s="117" t="e">
         <f>VLOOKUP(C88,#REF!,2,FALSE)</f>
@@ -69615,7 +69654,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="134" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B89" s="117" t="e">
         <f>VLOOKUP(C89,#REF!,2,FALSE)</f>
@@ -69681,7 +69720,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="134" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B90" s="117" t="e">
         <f>VLOOKUP(C90,#REF!,2,FALSE)</f>
@@ -69747,7 +69786,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="134" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B91" s="117" t="e">
         <f>VLOOKUP(C91,#REF!,2,FALSE)</f>
@@ -69805,7 +69844,7 @@
         <v>162</v>
       </c>
       <c r="T91" s="134" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="U91" s="134" t="s">
         <v>1795</v>
@@ -69813,7 +69852,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="134" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B92" s="117" t="e">
         <f>VLOOKUP(C92,#REF!,2,FALSE)</f>
@@ -69879,7 +69918,7 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="134" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B93" s="117" t="e">
         <f>VLOOKUP(C93,#REF!,2,FALSE)</f>
@@ -69910,7 +69949,7 @@
         <v>487</v>
       </c>
       <c r="K93" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="L93" s="117" t="s">
         <v>159</v>
@@ -69945,7 +69984,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="134" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B94" s="117" t="e">
         <f>VLOOKUP(C94,#REF!,2,FALSE)</f>
@@ -69955,7 +69994,7 @@
         <v>184</v>
       </c>
       <c r="D94" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E94" s="134" t="s">
         <v>77</v>
@@ -69985,7 +70024,7 @@
         <v>185</v>
       </c>
       <c r="N94" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O94" s="134" t="s">
         <v>77</v>
@@ -70011,7 +70050,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="134" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B95" s="117" t="e">
         <f>VLOOKUP(C95,#REF!,2,FALSE)</f>
@@ -70021,7 +70060,7 @@
         <v>186</v>
       </c>
       <c r="D95" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E95" s="134" t="s">
         <v>77</v>
@@ -70042,16 +70081,16 @@
         <v>1828</v>
       </c>
       <c r="K95" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="L95" s="117" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="M95" s="139">
         <v>187</v>
       </c>
       <c r="N95" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O95" s="134" t="s">
         <v>77</v>
@@ -70077,7 +70116,7 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="134" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B96" s="117" t="e">
         <f>VLOOKUP(C96,#REF!,2,FALSE)</f>
@@ -70117,7 +70156,7 @@
         <v>189</v>
       </c>
       <c r="N96" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O96" s="134" t="s">
         <v>77</v>
@@ -70143,7 +70182,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="134" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B97" s="117" t="e">
         <f>VLOOKUP(C97,#REF!,2,FALSE)</f>
@@ -70168,7 +70207,7 @@
         <v>1680</v>
       </c>
       <c r="I97" s="134" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="J97" s="134" t="s">
         <v>1786</v>
@@ -70209,7 +70248,7 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="134" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B98" s="117" t="e">
         <f>VLOOKUP(C98,#REF!,2,FALSE)</f>
@@ -70264,7 +70303,7 @@
         <v>1680</v>
       </c>
       <c r="S98" s="134" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="T98" s="134" t="s">
         <v>2044</v>
@@ -70275,7 +70314,7 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="134" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B99" s="117" t="e">
         <f>VLOOKUP(C99,#REF!,2,FALSE)</f>
@@ -70341,7 +70380,7 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="134" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B100" s="117" t="e">
         <f>VLOOKUP(C100,#REF!,2,FALSE)</f>
@@ -70407,7 +70446,7 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="134" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B101" s="117" t="e">
         <f>VLOOKUP(C101,#REF!,2,FALSE)</f>
@@ -70473,7 +70512,7 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="134" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B102" s="117" t="e">
         <f>VLOOKUP(C102,#REF!,2,FALSE)</f>
@@ -70539,7 +70578,7 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="134" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B103" s="117" t="e">
         <f>VLOOKUP(C103,#REF!,2,FALSE)</f>
@@ -70605,7 +70644,7 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="134" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B104" s="117" t="e">
         <f>VLOOKUP(C104,#REF!,2,FALSE)</f>
@@ -70671,7 +70710,7 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" s="134" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B105" s="117" t="e">
         <f>VLOOKUP(C105,#REF!,2,FALSE)</f>
@@ -70737,7 +70776,7 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" s="134" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B106" s="117" t="e">
         <f>VLOOKUP(C106,#REF!,2,FALSE)</f>
@@ -70803,7 +70842,7 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="134" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B107" s="117" t="e">
         <f>VLOOKUP(C107,#REF!,2,FALSE)</f>
@@ -70869,7 +70908,7 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="134" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B108" s="117" t="e">
         <f>VLOOKUP(C108,#REF!,2,FALSE)</f>
@@ -70935,7 +70974,7 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="134" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B109" s="117" t="e">
         <f>VLOOKUP(C109,#REF!,2,FALSE)</f>
@@ -71001,7 +71040,7 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="134" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B110" s="117" t="e">
         <f>VLOOKUP(C110,#REF!,2,FALSE)</f>
@@ -71041,7 +71080,7 @@
         <v>217</v>
       </c>
       <c r="N110" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O110" s="134" t="s">
         <v>77</v>
@@ -71059,7 +71098,7 @@
         <v>77</v>
       </c>
       <c r="T110" s="134" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="U110" s="134" t="s">
         <v>36</v>
@@ -71067,7 +71106,7 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="134" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B111" s="117" t="e">
         <f>VLOOKUP(C111,#REF!,2,FALSE)</f>
@@ -71077,7 +71116,7 @@
         <v>218</v>
       </c>
       <c r="D111" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E111" s="134" t="s">
         <v>77</v>
@@ -71107,7 +71146,7 @@
         <v>219</v>
       </c>
       <c r="N111" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O111" s="134" t="s">
         <v>77</v>
@@ -71133,7 +71172,7 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" s="134" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B112" s="117" t="e">
         <f>VLOOKUP(C112,#REF!,2,FALSE)</f>
@@ -71143,7 +71182,7 @@
         <v>220</v>
       </c>
       <c r="D112" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E112" s="134" t="s">
         <v>77</v>
@@ -71164,7 +71203,7 @@
         <v>1686</v>
       </c>
       <c r="K112" s="134" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="L112" s="117" t="s">
         <v>202</v>
@@ -71173,7 +71212,7 @@
         <v>221</v>
       </c>
       <c r="N112" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O112" s="134" t="s">
         <v>77</v>
@@ -71199,7 +71238,7 @@
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="134" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B113" s="117" t="e">
         <f>VLOOKUP(C113,#REF!,2,FALSE)</f>
@@ -71209,7 +71248,7 @@
         <v>222</v>
       </c>
       <c r="D113" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E113" s="134" t="s">
         <v>77</v>
@@ -71239,7 +71278,7 @@
         <v>223</v>
       </c>
       <c r="N113" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O113" s="134" t="s">
         <v>77</v>
@@ -71265,7 +71304,7 @@
     </row>
     <row r="114" spans="1:21">
       <c r="A114" s="134" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B114" s="117" t="e">
         <f>VLOOKUP(C114,#REF!,2,FALSE)</f>
@@ -71275,7 +71314,7 @@
         <v>224</v>
       </c>
       <c r="D114" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E114" s="134" t="s">
         <v>77</v>
@@ -71305,7 +71344,7 @@
         <v>225</v>
       </c>
       <c r="N114" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="O114" s="134" t="s">
         <v>77</v>
@@ -71331,7 +71370,7 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" s="134" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B115" s="117" t="e">
         <f>VLOOKUP(C115,#REF!,2,FALSE)</f>
@@ -71341,7 +71380,7 @@
         <v>226</v>
       </c>
       <c r="D115" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E115" s="134" t="s">
         <v>77</v>
@@ -71397,7 +71436,7 @@
     </row>
     <row r="116" spans="1:21">
       <c r="A116" s="134" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B116" s="117" t="e">
         <f>VLOOKUP(C116,#REF!,2,FALSE)</f>
@@ -71463,7 +71502,7 @@
     </row>
     <row r="117" spans="1:21">
       <c r="A117" s="134" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B117" s="117" t="e">
         <f>VLOOKUP(C117,#REF!,2,FALSE)</f>
@@ -71479,7 +71518,7 @@
         <v>77</v>
       </c>
       <c r="F117" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="G117" s="134" t="s">
         <v>77</v>
@@ -71509,7 +71548,7 @@
         <v>77</v>
       </c>
       <c r="P117" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="Q117" s="134" t="s">
         <v>77</v>
@@ -71529,7 +71568,7 @@
     </row>
     <row r="118" spans="1:21">
       <c r="A118" s="134" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B118" s="117" t="e">
         <f>VLOOKUP(C118,#REF!,2,FALSE)</f>
@@ -71545,7 +71584,7 @@
         <v>77</v>
       </c>
       <c r="F118" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="G118" s="134" t="s">
         <v>77</v>
@@ -71575,7 +71614,7 @@
         <v>77</v>
       </c>
       <c r="P118" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="Q118" s="134" t="s">
         <v>77</v>
@@ -71595,7 +71634,7 @@
     </row>
     <row r="119" spans="1:21">
       <c r="A119" s="134" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B119" s="117" t="e">
         <f>VLOOKUP(C119,#REF!,2,FALSE)</f>
@@ -71611,7 +71650,7 @@
         <v>77</v>
       </c>
       <c r="F119" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="G119" s="134" t="s">
         <v>77</v>
@@ -71641,7 +71680,7 @@
         <v>77</v>
       </c>
       <c r="P119" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="Q119" s="134" t="s">
         <v>77</v>
@@ -71661,7 +71700,7 @@
     </row>
     <row r="120" spans="1:21">
       <c r="A120" s="134" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B120" s="117" t="e">
         <f>VLOOKUP(C120,#REF!,2,FALSE)</f>
@@ -71677,7 +71716,7 @@
         <v>77</v>
       </c>
       <c r="F120" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="G120" s="134" t="s">
         <v>77</v>
@@ -71707,7 +71746,7 @@
         <v>77</v>
       </c>
       <c r="P120" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="Q120" s="134" t="s">
         <v>77</v>
@@ -71727,7 +71766,7 @@
     </row>
     <row r="121" spans="1:21">
       <c r="A121" s="134" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B121" s="117" t="e">
         <f>VLOOKUP(C121,#REF!,2,FALSE)</f>
@@ -71743,7 +71782,7 @@
         <v>77</v>
       </c>
       <c r="F121" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="G121" s="134" t="s">
         <v>77</v>
@@ -71773,7 +71812,7 @@
         <v>77</v>
       </c>
       <c r="P121" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="Q121" s="134" t="s">
         <v>77</v>
@@ -71793,7 +71832,7 @@
     </row>
     <row r="122" spans="1:21">
       <c r="A122" s="134" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B122" s="117" t="e">
         <f>VLOOKUP(C122,#REF!,2,FALSE)</f>
@@ -71859,7 +71898,7 @@
     </row>
     <row r="123" spans="1:21">
       <c r="A123" s="134" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B123" s="117" t="e">
         <f>VLOOKUP(C123,#REF!,2,FALSE)</f>
@@ -71925,7 +71964,7 @@
     </row>
     <row r="124" spans="1:21">
       <c r="A124" s="134" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B124" s="117" t="e">
         <f>VLOOKUP(C124,#REF!,2,FALSE)</f>
@@ -71971,7 +72010,7 @@
         <v>77</v>
       </c>
       <c r="P124" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="Q124" s="134" t="s">
         <v>77</v>
@@ -71980,7 +72019,7 @@
         <v>77</v>
       </c>
       <c r="S124" s="134" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="T124" s="134" t="s">
         <v>460</v>
@@ -71991,7 +72030,7 @@
     </row>
     <row r="125" spans="1:21">
       <c r="A125" s="134" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B125" s="117" t="e">
         <f>VLOOKUP(C125,#REF!,2,FALSE)</f>
@@ -72001,7 +72040,7 @@
         <v>246</v>
       </c>
       <c r="D125" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E125" s="134" t="s">
         <v>77</v>
@@ -72043,10 +72082,10 @@
         <v>599</v>
       </c>
       <c r="R125" s="134" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="S125" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="T125" s="134" t="s">
         <v>460</v>
@@ -72057,7 +72096,7 @@
     </row>
     <row r="126" spans="1:21">
       <c r="A126" s="134" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B126" s="117" t="e">
         <f>VLOOKUP(C126,#REF!,2,FALSE)</f>
@@ -72123,7 +72162,7 @@
     </row>
     <row r="127" spans="1:21">
       <c r="A127" s="134" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B127" s="117" t="e">
         <f>VLOOKUP(C127,#REF!,2,FALSE)</f>
@@ -72133,7 +72172,7 @@
         <v>250</v>
       </c>
       <c r="D127" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E127" s="134" t="s">
         <v>77</v>
@@ -72154,7 +72193,7 @@
         <v>1686</v>
       </c>
       <c r="K127" s="134" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="L127" s="117" t="e">
         <v>#N/A</v>
@@ -72189,7 +72228,7 @@
     </row>
     <row r="128" spans="1:21">
       <c r="A128" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B128" s="117" t="e">
         <f>VLOOKUP(C128,#REF!,2,FALSE)</f>
@@ -72214,7 +72253,7 @@
         <v>93</v>
       </c>
       <c r="I128" s="134" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="J128" s="134" t="s">
         <v>1759</v>
@@ -72255,7 +72294,7 @@
     </row>
     <row r="129" spans="1:21">
       <c r="A129" s="134" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B129" s="117" t="e">
         <f>VLOOKUP(C129,#REF!,2,FALSE)</f>
@@ -72321,7 +72360,7 @@
     </row>
     <row r="130" spans="1:21">
       <c r="A130" s="134" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B130" s="117" t="e">
         <f>VLOOKUP(C130,#REF!,2,FALSE)</f>
@@ -72355,7 +72394,7 @@
         <v>128</v>
       </c>
       <c r="L130" s="117" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="M130" s="139">
         <v>257</v>
@@ -72387,7 +72426,7 @@
     </row>
     <row r="131" spans="1:21">
       <c r="A131" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B131" s="117" t="e">
         <f>VLOOKUP(C131,#REF!,2,FALSE)</f>
@@ -72421,7 +72460,7 @@
         <v>128</v>
       </c>
       <c r="L131" s="117" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="M131" s="139">
         <v>259</v>
@@ -72453,7 +72492,7 @@
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="134" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B132" s="117" t="e">
         <f>VLOOKUP(C132,#REF!,2,FALSE)</f>
@@ -72487,7 +72526,7 @@
         <v>128</v>
       </c>
       <c r="L132" s="117" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="M132" s="139">
         <v>261</v>
@@ -72519,7 +72558,7 @@
     </row>
     <row r="133" spans="1:21">
       <c r="A133" s="134" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B133" s="117" t="e">
         <f>VLOOKUP(C133,#REF!,2,FALSE)</f>
@@ -72553,7 +72592,7 @@
         <v>128</v>
       </c>
       <c r="L133" s="117" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="M133" s="139">
         <v>263</v>
@@ -72585,7 +72624,7 @@
     </row>
     <row r="134" spans="1:21">
       <c r="A134" s="134" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B134" s="117" t="e">
         <f>VLOOKUP(C134,#REF!,2,FALSE)</f>
@@ -72637,10 +72676,10 @@
         <v>696</v>
       </c>
       <c r="R134" s="134" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="S134" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="T134" s="134" t="s">
         <v>460</v>
@@ -72651,7 +72690,7 @@
     </row>
     <row r="135" spans="1:21">
       <c r="A135" s="134" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B135" s="117" t="e">
         <f>VLOOKUP(C135,#REF!,2,FALSE)</f>
@@ -72717,7 +72756,7 @@
     </row>
     <row r="136" spans="1:21">
       <c r="A136" s="134" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B136" s="117" t="e">
         <f>VLOOKUP(C136,#REF!,2,FALSE)</f>
@@ -72783,7 +72822,7 @@
     </row>
     <row r="137" spans="1:21">
       <c r="A137" s="134" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B137" s="117" t="e">
         <f>VLOOKUP(C137,#REF!,2,FALSE)</f>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDE9D4-89DA-471F-A8C8-3FE5DAA9757E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -29,13 +28,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$AA$258</definedName>
     <definedName name="Item_Hex" localSheetId="7">'Item Hex'!$A$1:$U$137</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{D8E53B05-3CC2-4693-BB7A-C5A4F3F59CC5}" name="Item Hex" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item Hex" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Action IV\Documents\GitHub\pillar\Item Hex.txt" delimited="0">
       <textFields count="17">
         <textField type="text"/>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11968" uniqueCount="2582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11968" uniqueCount="2580">
   <si>
     <t>Monster</t>
   </si>
@@ -7244,12 +7243,6 @@
   </si>
   <si>
     <t>O-Change, O-Damage</t>
-  </si>
-  <si>
-    <t>O-Para, Poison</t>
-  </si>
-  <si>
-    <t>Weapon, O-Pa/Po, Stone</t>
   </si>
   <si>
     <t>Weak</t>
@@ -7813,7 +7806,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot; $(&quot;#,##0.00&quot;)&quot;;&quot; $-&quot;#&quot; &quot;;@&quot; &quot;"/>
   </numFmts>
@@ -8587,7 +8580,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel_BuiltIn_Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel_BuiltIn_Currency" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -8605,7 +8598,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Item Hex" connectionId="1" xr16:uid="{298BBB91-47C7-4E99-B5A2-8F651B8852BB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Item Hex" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8684,23 +8677,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8736,23 +8712,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8928,7 +8887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V252"/>
   <sheetViews>
@@ -24885,7 +24844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -25428,7 +25387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N162"/>
   <sheetViews>
@@ -30916,7 +30875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T117"/>
   <sheetViews>
@@ -35065,13 +35024,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AA258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C176" sqref="C176"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U231" sqref="U231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35102,7 +35061,7 @@
         <v>1644</v>
       </c>
       <c r="E1" s="135" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="F1" s="88" t="s">
         <v>1645</v>
@@ -35165,7 +35124,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" hidden="1">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">B2</f>
         <v>Hammer</v>
@@ -35220,7 +35179,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" hidden="1">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Long Sword</v>
@@ -35277,7 +35236,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" hidden="1">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Axe</v>
@@ -35334,7 +35293,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" hidden="1">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Battle Sword</v>
@@ -35391,7 +35350,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" hidden="1">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Katana</v>
@@ -35448,7 +35407,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" hidden="1">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Gold Sword</v>
@@ -35505,7 +35464,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" hidden="1">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Coral Sword</v>
@@ -35565,7 +35524,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" hidden="1">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Ogre Axe</v>
@@ -35625,7 +35584,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" hidden="1">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Sword</v>
@@ -35685,7 +35644,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" hidden="1">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Sun Sword</v>
@@ -35745,7 +35704,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" hidden="1">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Flame Sword</v>
@@ -35807,7 +35766,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" hidden="1">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Ice Sword</v>
@@ -35869,7 +35828,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" hidden="1">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Axe</v>
@@ -35931,7 +35890,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" hidden="1">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Defend Sword</v>
@@ -35996,7 +35955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" hidden="1">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Rune Axe</v>
@@ -36059,7 +36018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" hidden="1">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Rapier</v>
@@ -36116,7 +36075,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" hidden="1">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -36183,7 +36142,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" hidden="1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Shield</v>
@@ -36237,7 +36196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" hidden="1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Silver Shield</v>
@@ -36291,7 +36250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" hidden="1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Gold Shield</v>
@@ -36345,7 +36304,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" hidden="1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Flame Shield</v>
@@ -36402,7 +36361,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" hidden="1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Ice Shield</v>
@@ -36459,7 +36418,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" hidden="1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Shield</v>
@@ -36510,13 +36469,13 @@
         <v>2308</v>
       </c>
       <c r="Y24" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="Z24">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" hidden="1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Cure Potion</v>
@@ -36573,7 +36532,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" hidden="1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>X-Cure Potion</v>
@@ -36630,7 +36589,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" hidden="1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Curse Potion</v>
@@ -36684,7 +36643,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" hidden="1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EyeDrop</v>
@@ -36738,7 +36697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" hidden="1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Abacus</v>
@@ -36793,7 +36752,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" hidden="1">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Xcalibr Sword</v>
@@ -36858,7 +36817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" hidden="1">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
@@ -36922,7 +36881,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" hidden="1">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Cure Book</v>
@@ -36982,7 +36941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" hidden="1">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Prayer Book</v>
@@ -37042,7 +37001,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" hidden="1">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Fire Book</v>
@@ -37102,7 +37061,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" hidden="1">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Ice Book</v>
@@ -37162,7 +37121,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" hidden="1">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Book</v>
@@ -37222,7 +37181,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" hidden="1">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Fog Book</v>
@@ -37282,7 +37241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Sleep Book</v>
@@ -37339,7 +37298,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Stone Book</v>
@@ -37396,7 +37355,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Death Book</v>
@@ -37456,7 +37415,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" hidden="1">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Mage Staff</v>
@@ -37516,7 +37475,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" hidden="1">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Wizard Staff</v>
@@ -37573,7 +37532,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" hidden="1">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Heal Staff</v>
@@ -37633,7 +37592,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" hidden="1">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Flare Book</v>
@@ -37690,7 +37649,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" hidden="1">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Helm</v>
@@ -37734,7 +37693,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" hidden="1">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Silver Helm</v>
@@ -37778,7 +37737,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" hidden="1">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Gold Helm</v>
@@ -37822,7 +37781,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" hidden="1">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Helm</v>
@@ -37869,7 +37828,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" hidden="1">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Armor</v>
@@ -37913,7 +37872,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" hidden="1">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Silver Armor</v>
@@ -37957,7 +37916,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" hidden="1">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Gold Armor</v>
@@ -38001,7 +37960,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" hidden="1">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Armor</v>
@@ -38048,7 +38007,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" hidden="1">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Arthur Armor</v>
@@ -38095,7 +38054,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" hidden="1">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Glove</v>
@@ -38139,7 +38098,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" hidden="1">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Silver Glove</v>
@@ -38183,7 +38142,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" hidden="1">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Gold Glove</v>
@@ -38227,7 +38186,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" hidden="1">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Giant Glove</v>
@@ -38271,7 +38230,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" hidden="1">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Ninja Glove</v>
@@ -38318,7 +38277,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" hidden="1">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Hermes Boot</v>
@@ -38362,7 +38321,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" hidden="1">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Hecate Boot</v>
@@ -38406,7 +38365,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" hidden="1">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Elixier</v>
@@ -38455,10 +38414,10 @@
         <v>2310</v>
       </c>
       <c r="Y61" t="s">
-        <v>2578</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" hidden="1">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Soft Potion</v>
@@ -38512,7 +38471,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" hidden="1">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Power Potion</v>
@@ -38556,7 +38515,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" hidden="1">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Speed Potion</v>
@@ -38600,7 +38559,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" hidden="1">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Magic Potion</v>
@@ -38644,7 +38603,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" hidden="1">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="6">B66</f>
         <v>Body Potion</v>
@@ -38688,7 +38647,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" hidden="1">
       <c r="A67" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Tent </v>
@@ -38730,7 +38689,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" hidden="1">
       <c r="A68" t="str">
         <f t="shared" si="6"/>
         <v>Whip</v>
@@ -38792,7 +38751,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" hidden="1">
       <c r="A69" t="str">
         <f t="shared" si="6"/>
         <v>Blitz Whip</v>
@@ -38855,7 +38814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" hidden="1">
       <c r="A70" t="str">
         <f t="shared" si="6"/>
         <v>ChainSaw</v>
@@ -38907,10 +38866,10 @@
         <v>2307</v>
       </c>
       <c r="Y70" t="s">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" hidden="1">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
         <v>Counter</v>
@@ -38964,7 +38923,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" hidden="1">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
         <v>Colt Gun</v>
@@ -39035,7 +38994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" hidden="1">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
         <v>Musket Gun</v>
@@ -39104,7 +39063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" hidden="1">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
         <v>Magnum Gun</v>
@@ -39173,7 +39132,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" hidden="1">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
         <v>Chop Art</v>
@@ -39232,7 +39191,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" hidden="1">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
         <v>Kick Art</v>
@@ -39288,7 +39247,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" hidden="1">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
         <v>HeadBut Art</v>
@@ -39344,7 +39303,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" hidden="1">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
         <v>X-Kick Art</v>
@@ -39400,7 +39359,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" hidden="1">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
         <v>Jyudo Art</v>
@@ -39456,7 +39415,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" hidden="1">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
         <v>Karate Art</v>
@@ -39514,7 +39473,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" hidden="1">
       <c r="A81" t="str">
         <f t="shared" si="6"/>
         <v>Temptat</v>
@@ -39569,7 +39528,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" hidden="1">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
         <v>StunGun</v>
@@ -39626,7 +39585,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" hidden="1">
       <c r="A83" t="str">
         <f t="shared" si="6"/>
         <v>Heat</v>
@@ -39675,7 +39634,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" hidden="1">
       <c r="A84" t="str">
         <f t="shared" si="6"/>
         <v>ComVirus</v>
@@ -39730,7 +39689,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" hidden="1">
       <c r="A85" t="str">
         <f t="shared" si="6"/>
         <v>DNA</v>
@@ -39779,7 +39738,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" hidden="1">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
         <v>SMG Gun</v>
@@ -39844,7 +39803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" hidden="1">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
         <v>Grenade</v>
@@ -39906,7 +39865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" hidden="1">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
         <v>Bazooka Cannon</v>
@@ -39969,7 +39928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" hidden="1">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
         <v>Vulcan Cannon</v>
@@ -40032,7 +39991,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" hidden="1">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
         <v>Tank Cannon</v>
@@ -40101,7 +40060,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" hidden="1">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
         <v>Fire Gun</v>
@@ -40169,7 +40128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" hidden="1">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
         <v>Missile Cannon</v>
@@ -40231,7 +40190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" hidden="1">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
         <v>NukeBomb</v>
@@ -40293,7 +40252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" hidden="1">
       <c r="A94" t="str">
         <f t="shared" si="6"/>
         <v>Giant Armor</v>
@@ -40337,7 +40296,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" hidden="1">
       <c r="A95" t="str">
         <f t="shared" si="6"/>
         <v>Army Helm</v>
@@ -40381,7 +40340,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" hidden="1">
       <c r="A96" t="str">
         <f t="shared" si="6"/>
         <v>Army Armor</v>
@@ -40425,7 +40384,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" hidden="1">
       <c r="A97" t="str">
         <f t="shared" si="6"/>
         <v>Geta Boot</v>
@@ -40469,7 +40428,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" hidden="1">
       <c r="A98" t="str">
         <f t="shared" si="6"/>
         <v>Sypha</v>
@@ -40524,7 +40483,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" hidden="1">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
         <v>Coin</v>
@@ -40589,7 +40548,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" hidden="1">
       <c r="A100" t="str">
         <f t="shared" si="6"/>
         <v>Kimono Armor</v>
@@ -40633,7 +40592,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" hidden="1">
       <c r="A101" t="str">
         <f t="shared" si="6"/>
         <v>Samurai Shield</v>
@@ -40687,7 +40646,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" hidden="1">
       <c r="A102" t="str">
         <f t="shared" si="6"/>
         <v>Muramas</v>
@@ -40747,7 +40706,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" hidden="1">
       <c r="A103" t="str">
         <f t="shared" si="6"/>
         <v>Gungnir Spear</v>
@@ -40810,7 +40769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" hidden="1">
       <c r="A104" t="str">
         <f t="shared" si="6"/>
         <v>Laser Sword</v>
@@ -40867,7 +40826,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" hidden="1">
       <c r="A105" t="str">
         <f t="shared" si="6"/>
         <v>Psi Knife</v>
@@ -40924,7 +40883,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" hidden="1">
       <c r="A106" t="str">
         <f t="shared" si="6"/>
         <v>Psi Sword</v>
@@ -40981,7 +40940,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" hidden="1">
       <c r="A107" t="str">
         <f t="shared" si="6"/>
         <v>Laser Gun</v>
@@ -41041,7 +41000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" hidden="1">
       <c r="A108" t="str">
         <f t="shared" si="6"/>
         <v>SpeedUp</v>
@@ -41096,7 +41055,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" hidden="1">
       <c r="A109" t="str">
         <f t="shared" si="6"/>
         <v>Rocket</v>
@@ -41161,7 +41120,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" hidden="1">
       <c r="A110" t="str">
         <f t="shared" si="6"/>
         <v>Psi Gun</v>
@@ -41218,7 +41177,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" hidden="1">
       <c r="A111" t="str">
         <f t="shared" si="6"/>
         <v>Giant Helm</v>
@@ -41262,7 +41221,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" hidden="1">
       <c r="A112" t="str">
         <f t="shared" si="6"/>
         <v>Hyper Cannon</v>
@@ -41318,7 +41277,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" hidden="1">
       <c r="A113" t="str">
         <f t="shared" si="6"/>
         <v>Battle Armor</v>
@@ -41362,7 +41321,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" hidden="1">
       <c r="A114" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Parasuit </v>
@@ -41407,7 +41366,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" hidden="1">
       <c r="A115" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Door </v>
@@ -41449,7 +41408,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" hidden="1">
       <c r="A116" t="str">
         <f t="shared" si="6"/>
         <v>Micron Potion</v>
@@ -41493,7 +41452,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" hidden="1">
       <c r="A117" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Key </v>
@@ -41535,7 +41494,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" hidden="1">
       <c r="A118" t="str">
         <f t="shared" si="6"/>
         <v>Masmune Magi</v>
@@ -41595,7 +41554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" hidden="1">
       <c r="A119" t="str">
         <f t="shared" si="6"/>
         <v>Aegis Magi</v>
@@ -41655,7 +41614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" hidden="1">
       <c r="A120" t="str">
         <f t="shared" si="6"/>
         <v>Heart Magi</v>
@@ -41706,10 +41665,10 @@
         <v>2313</v>
       </c>
       <c r="Y120" t="s">
-        <v>2577</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" hidden="1">
       <c r="A121" t="str">
         <f t="shared" si="6"/>
         <v>Pegasus Magi</v>
@@ -41754,7 +41713,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" hidden="1">
       <c r="A122" t="str">
         <f t="shared" si="6"/>
         <v>Selfix</v>
@@ -41802,7 +41761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" hidden="1">
       <c r="A123" t="str">
         <f t="shared" si="6"/>
         <v>Seven Sword</v>
@@ -41859,7 +41818,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" hidden="1">
       <c r="A124" t="str">
         <f t="shared" si="6"/>
         <v>Nail</v>
@@ -41914,7 +41873,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" hidden="1">
       <c r="A125" t="str">
         <f t="shared" si="6"/>
         <v>Tusk</v>
@@ -41969,7 +41928,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" hidden="1">
       <c r="A126" t="str">
         <f t="shared" si="6"/>
         <v>Tongue</v>
@@ -42024,7 +41983,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" hidden="1">
       <c r="A127" t="str">
         <f t="shared" si="6"/>
         <v>Stab</v>
@@ -42079,7 +42038,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" hidden="1">
       <c r="A128" t="str">
         <f t="shared" si="6"/>
         <v>Branch</v>
@@ -42134,7 +42093,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" hidden="1">
       <c r="A129" t="str">
         <f t="shared" si="6"/>
         <v>Bash</v>
@@ -42189,7 +42148,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" hidden="1">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="11">B130</f>
         <v>Punch</v>
@@ -42244,7 +42203,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" hidden="1">
       <c r="A131" t="str">
         <f t="shared" si="11"/>
         <v>Kick</v>
@@ -42299,7 +42258,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" hidden="1">
       <c r="A132" t="str">
         <f t="shared" si="11"/>
         <v>Horn</v>
@@ -42354,7 +42313,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" hidden="1">
       <c r="A133" t="str">
         <f t="shared" si="11"/>
         <v>Thorn</v>
@@ -42409,7 +42368,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" hidden="1">
       <c r="A134" t="str">
         <f t="shared" si="11"/>
         <v>Sword</v>
@@ -42464,7 +42423,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" hidden="1">
       <c r="A135" t="str">
         <f t="shared" si="11"/>
         <v>Head</v>
@@ -42519,7 +42478,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" hidden="1">
       <c r="A136" t="str">
         <f t="shared" si="11"/>
         <v>Beak</v>
@@ -42574,7 +42533,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" hidden="1">
       <c r="A137" t="str">
         <f t="shared" si="11"/>
         <v>Tail</v>
@@ -42629,7 +42588,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" hidden="1">
       <c r="A138" t="str">
         <f t="shared" si="11"/>
         <v>Pincer</v>
@@ -42684,7 +42643,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" hidden="1">
       <c r="A139" t="str">
         <f t="shared" si="11"/>
         <v>Fin</v>
@@ -42739,7 +42698,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" hidden="1">
       <c r="A140" t="str">
         <f t="shared" si="11"/>
         <v>Tentacle</v>
@@ -42794,7 +42753,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" hidden="1">
       <c r="A141" t="str">
         <f t="shared" si="11"/>
         <v>W-Pincer</v>
@@ -42850,7 +42809,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" hidden="1">
       <c r="A142" t="str">
         <f t="shared" si="11"/>
         <v>W-Attack</v>
@@ -42908,7 +42867,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" hidden="1">
       <c r="A143" t="str">
         <f t="shared" si="11"/>
         <v>4-Heads</v>
@@ -42966,7 +42925,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" hidden="1">
       <c r="A144" t="str">
         <f t="shared" si="11"/>
         <v>8-Legs</v>
@@ -43024,7 +42983,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" hidden="1">
       <c r="A145" t="str">
         <f t="shared" si="11"/>
         <v>Touch</v>
@@ -43083,7 +43042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" hidden="1">
       <c r="A146" t="str">
         <f t="shared" si="11"/>
         <v>Saw</v>
@@ -43133,10 +43092,10 @@
         <v>2307</v>
       </c>
       <c r="Y146" t="s">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" hidden="1">
       <c r="A147" t="str">
         <f t="shared" si="11"/>
         <v>Dissolve</v>
@@ -43195,7 +43154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" hidden="1">
       <c r="A148" t="str">
         <f t="shared" si="11"/>
         <v>Absorb</v>
@@ -43254,7 +43213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" hidden="1">
       <c r="A149" t="str">
         <f t="shared" si="11"/>
         <v>Cure</v>
@@ -43310,7 +43269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" hidden="1">
       <c r="A150" t="str">
         <f t="shared" si="11"/>
         <v>Defense</v>
@@ -43360,7 +43319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" hidden="1">
       <c r="A151" t="str">
         <f t="shared" si="11"/>
         <v>Shell</v>
@@ -43410,7 +43369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" hidden="1">
       <c r="A152" t="str">
         <f t="shared" si="11"/>
         <v>Mirror</v>
@@ -43457,7 +43416,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" hidden="1">
       <c r="A153" t="str">
         <f t="shared" si="11"/>
         <v>Backlash</v>
@@ -43510,7 +43469,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" hidden="1">
       <c r="A154" t="str">
         <f t="shared" si="11"/>
         <v>Burning</v>
@@ -43566,7 +43525,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" hidden="1">
       <c r="A155" t="str">
         <f t="shared" si="11"/>
         <v>2-Swords</v>
@@ -43622,7 +43581,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" hidden="1">
       <c r="A156" t="str">
         <f t="shared" si="11"/>
         <v>2-Tusks</v>
@@ -43678,7 +43637,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" hidden="1">
       <c r="A157" t="str">
         <f t="shared" si="11"/>
         <v>3-Heads</v>
@@ -43736,7 +43695,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" hidden="1">
       <c r="A158" t="str">
         <f t="shared" si="11"/>
         <v>3-Horns</v>
@@ -43794,7 +43753,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" hidden="1">
       <c r="A159" t="str">
         <f t="shared" si="11"/>
         <v>6-Arms</v>
@@ -43850,7 +43809,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" hidden="1">
       <c r="A160" t="str">
         <f t="shared" si="11"/>
         <v>Critical</v>
@@ -43906,7 +43865,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" hidden="1">
       <c r="A161" t="str">
         <f t="shared" si="11"/>
         <v>Axe</v>
@@ -43961,7 +43920,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" hidden="1">
       <c r="A162" t="str">
         <f t="shared" si="11"/>
         <v>Honey</v>
@@ -44017,7 +43976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" hidden="1">
       <c r="A163" t="str">
         <f t="shared" si="11"/>
         <v>Heal</v>
@@ -44073,7 +44032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" hidden="1">
       <c r="A164" t="str">
         <f t="shared" si="11"/>
         <v>MegaCure</v>
@@ -44133,7 +44092,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" hidden="1">
       <c r="A165" t="str">
         <f t="shared" si="11"/>
         <v>W-Kick</v>
@@ -44189,7 +44148,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" hidden="1">
       <c r="A166" t="str">
         <f t="shared" si="11"/>
         <v>ParaNail</v>
@@ -44242,7 +44201,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" hidden="1">
       <c r="A167" t="str">
         <f t="shared" si="11"/>
         <v>Wind Up</v>
@@ -44295,7 +44254,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" hidden="1">
       <c r="A168" t="str">
         <f t="shared" si="11"/>
         <v>Tie Up</v>
@@ -44348,7 +44307,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" hidden="1">
       <c r="A169" t="str">
         <f t="shared" si="11"/>
         <v>Breath</v>
@@ -44401,7 +44360,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" hidden="1">
       <c r="A170" t="str">
         <f t="shared" si="11"/>
         <v>Poison</v>
@@ -44454,7 +44413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" hidden="1">
       <c r="A171" t="str">
         <f t="shared" si="11"/>
         <v>P-Skin</v>
@@ -44507,7 +44466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" hidden="1">
       <c r="A172" t="str">
         <f t="shared" si="11"/>
         <v>ParaSkin</v>
@@ -44560,7 +44519,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" hidden="1">
       <c r="A173" t="str">
         <f t="shared" si="11"/>
         <v>Petrify</v>
@@ -44613,7 +44572,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" hidden="1">
       <c r="A174" t="str">
         <f t="shared" si="11"/>
         <v>StonSkin</v>
@@ -44666,7 +44625,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" hidden="1">
       <c r="A175" t="str">
         <f t="shared" si="11"/>
         <v>Thunder</v>
@@ -44722,7 +44681,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" hidden="1">
       <c r="A176" t="str">
         <f t="shared" si="11"/>
         <v>Ice</v>
@@ -44778,7 +44737,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:24" hidden="1">
       <c r="A177" t="str">
         <f t="shared" si="11"/>
         <v>Fire</v>
@@ -44834,7 +44793,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:24">
+    <row r="178" spans="1:24" hidden="1">
       <c r="A178" t="str">
         <f t="shared" si="11"/>
         <v>Flame</v>
@@ -44890,7 +44849,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:24">
+    <row r="179" spans="1:24" hidden="1">
       <c r="A179" t="str">
         <f t="shared" si="11"/>
         <v>Gas</v>
@@ -44946,7 +44905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:24">
+    <row r="180" spans="1:24" hidden="1">
       <c r="A180" t="str">
         <f t="shared" si="11"/>
         <v>Blizzard</v>
@@ -45002,7 +44961,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="181" spans="1:24">
+    <row r="181" spans="1:24" hidden="1">
       <c r="A181" t="str">
         <f t="shared" si="11"/>
         <v>Lightning</v>
@@ -45058,7 +45017,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:24">
+    <row r="182" spans="1:24" hidden="1">
       <c r="A182" t="str">
         <f t="shared" si="11"/>
         <v>Beam</v>
@@ -45111,7 +45070,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="183" spans="1:24">
+    <row r="183" spans="1:24" hidden="1">
       <c r="A183" t="str">
         <f t="shared" si="11"/>
         <v>P-Blast</v>
@@ -45164,7 +45123,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="184" spans="1:24">
+    <row r="184" spans="1:24" hidden="1">
       <c r="A184" t="str">
         <f t="shared" si="11"/>
         <v>Dispel</v>
@@ -45220,7 +45179,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="185" spans="1:24">
+    <row r="185" spans="1:24" hidden="1">
       <c r="A185" t="str">
         <f t="shared" si="11"/>
         <v>D-Beam</v>
@@ -45276,7 +45235,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="186" spans="1:24">
+    <row r="186" spans="1:24" hidden="1">
       <c r="A186" t="str">
         <f t="shared" si="11"/>
         <v>Squirt</v>
@@ -45332,7 +45291,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="187" spans="1:24">
+    <row r="187" spans="1:24" hidden="1">
       <c r="A187" t="str">
         <f t="shared" si="11"/>
         <v>SunBurst</v>
@@ -45388,7 +45347,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="188" spans="1:24">
+    <row r="188" spans="1:24" hidden="1">
       <c r="A188" t="str">
         <f t="shared" si="11"/>
         <v>SleepGas</v>
@@ -45441,7 +45400,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="189" spans="1:24">
+    <row r="189" spans="1:24" hidden="1">
       <c r="A189" t="str">
         <f t="shared" si="11"/>
         <v>Sleep</v>
@@ -45494,7 +45453,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="190" spans="1:24">
+    <row r="190" spans="1:24" hidden="1">
       <c r="A190" t="str">
         <f t="shared" si="11"/>
         <v>StonGaze</v>
@@ -45547,7 +45506,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="191" spans="1:24">
+    <row r="191" spans="1:24" hidden="1">
       <c r="A191" t="str">
         <f t="shared" si="11"/>
         <v>Stone</v>
@@ -45600,7 +45559,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="192" spans="1:24">
+    <row r="192" spans="1:24" hidden="1">
       <c r="A192" t="str">
         <f t="shared" si="11"/>
         <v>StoneGas</v>
@@ -45653,7 +45612,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:25">
+    <row r="193" spans="1:25" hidden="1">
       <c r="A193" t="str">
         <f t="shared" si="11"/>
         <v>FatalGas</v>
@@ -45706,7 +45665,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="194" spans="1:25">
+    <row r="194" spans="1:25" hidden="1">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A258" si="14">B194</f>
         <v>X-Gaze</v>
@@ -45759,7 +45718,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="195" spans="1:25">
+    <row r="195" spans="1:25" hidden="1">
       <c r="A195" t="str">
         <f t="shared" si="14"/>
         <v>Erase</v>
@@ -45812,7 +45771,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="196" spans="1:25">
+    <row r="196" spans="1:25" hidden="1">
       <c r="A196" t="str">
         <f t="shared" si="14"/>
         <v>Blind</v>
@@ -45865,7 +45824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:25">
+    <row r="197" spans="1:25" hidden="1">
       <c r="A197" t="str">
         <f t="shared" si="14"/>
         <v>Flash</v>
@@ -45918,7 +45877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:25">
+    <row r="198" spans="1:25" hidden="1">
       <c r="A198" t="str">
         <f t="shared" si="14"/>
         <v>Ink</v>
@@ -45971,7 +45930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:25">
+    <row r="199" spans="1:25" hidden="1">
       <c r="A199" t="str">
         <f t="shared" si="14"/>
         <v>PoisonCloud</v>
@@ -46024,7 +45983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:25">
+    <row r="200" spans="1:25" hidden="1">
       <c r="A200" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -46077,7 +46036,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="201" spans="1:25">
+    <row r="201" spans="1:25" hidden="1">
       <c r="A201" t="str">
         <f t="shared" si="14"/>
         <v>Stunner</v>
@@ -46130,7 +46089,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="202" spans="1:25">
+    <row r="202" spans="1:25" hidden="1">
       <c r="A202" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -46183,7 +46142,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="203" spans="1:25">
+    <row r="203" spans="1:25" hidden="1">
       <c r="A203" t="str">
         <f t="shared" si="14"/>
         <v>Charm</v>
@@ -46236,7 +46195,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="204" spans="1:25">
+    <row r="204" spans="1:25" hidden="1">
       <c r="A204" t="str">
         <f t="shared" si="14"/>
         <v>Hypnos</v>
@@ -46289,7 +46248,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="205" spans="1:25">
+    <row r="205" spans="1:25" hidden="1">
       <c r="A205" t="str">
         <f t="shared" si="14"/>
         <v>Sand</v>
@@ -46342,7 +46301,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="206" spans="1:25">
+    <row r="206" spans="1:25" hidden="1">
       <c r="A206" t="str">
         <f t="shared" si="14"/>
         <v>Cobweb</v>
@@ -46395,7 +46354,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="207" spans="1:25">
+    <row r="207" spans="1:25" hidden="1">
       <c r="A207" t="str">
         <f t="shared" si="14"/>
         <v>Blitz</v>
@@ -46448,7 +46407,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="208" spans="1:25">
+    <row r="208" spans="1:25" hidden="1">
       <c r="A208" t="str">
         <f t="shared" si="14"/>
         <v>Drain</v>
@@ -46501,7 +46460,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="209" spans="1:25">
+    <row r="209" spans="1:25" hidden="1">
       <c r="A209" t="str">
         <f t="shared" si="14"/>
         <v>Stench</v>
@@ -46554,7 +46513,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="210" spans="1:25">
+    <row r="210" spans="1:25" hidden="1">
       <c r="A210" t="str">
         <f t="shared" si="14"/>
         <v>Haste</v>
@@ -46607,7 +46566,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="211" spans="1:25">
+    <row r="211" spans="1:25" hidden="1">
       <c r="A211" t="str">
         <f t="shared" si="14"/>
         <v>Tornado</v>
@@ -46660,7 +46619,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="212" spans="1:25">
+    <row r="212" spans="1:25" hidden="1">
       <c r="A212" t="str">
         <f t="shared" si="14"/>
         <v>Quake</v>
@@ -46716,7 +46675,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="213" spans="1:25">
+    <row r="213" spans="1:25" hidden="1">
       <c r="A213" t="str">
         <f t="shared" si="14"/>
         <v>Whirl</v>
@@ -46769,7 +46728,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="214" spans="1:25">
+    <row r="214" spans="1:25" hidden="1">
       <c r="A214" t="str">
         <f t="shared" si="14"/>
         <v>Flare</v>
@@ -46822,7 +46781,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="215" spans="1:25">
+    <row r="215" spans="1:25" hidden="1">
       <c r="A215" t="str">
         <f t="shared" si="14"/>
         <v>Steal</v>
@@ -46875,7 +46834,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="216" spans="1:25">
+    <row r="216" spans="1:25" hidden="1">
       <c r="A216" t="str">
         <f t="shared" si="14"/>
         <v>Explode</v>
@@ -46931,7 +46890,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="217" spans="1:25">
+    <row r="217" spans="1:25" hidden="1">
       <c r="A217" t="str">
         <f t="shared" si="14"/>
         <v>Acid</v>
@@ -46987,7 +46946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:25">
+    <row r="218" spans="1:25" hidden="1">
       <c r="A218" t="str">
         <f t="shared" si="14"/>
         <v>Riddle</v>
@@ -47040,7 +46999,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="219" spans="1:25">
+    <row r="219" spans="1:25" hidden="1">
       <c r="A219" t="str">
         <f t="shared" si="14"/>
         <v>CursSong</v>
@@ -47093,7 +47052,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="220" spans="1:25">
+    <row r="220" spans="1:25" hidden="1">
       <c r="A220" t="str">
         <f t="shared" si="14"/>
         <v>MadSong</v>
@@ -47234,7 +47193,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="223" spans="1:25">
+    <row r="223" spans="1:25" hidden="1">
       <c r="A223" t="str">
         <f t="shared" si="14"/>
         <v>Multiply</v>
@@ -47376,7 +47335,7 @@
         <v>2354</v>
       </c>
       <c r="U225" t="s">
-        <v>2395</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="226" spans="1:27">
@@ -47621,7 +47580,7 @@
         <v>2354</v>
       </c>
       <c r="U230" t="s">
-        <v>2394</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="231" spans="1:27">
@@ -47820,7 +47779,7 @@
         <v>159</v>
       </c>
       <c r="Y234" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="235" spans="1:27">
@@ -47872,7 +47831,7 @@
         <v>441</v>
       </c>
       <c r="Y235" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="236" spans="1:27">
@@ -47924,10 +47883,10 @@
         <v>242</v>
       </c>
       <c r="Y236" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="237" spans="1:27">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27" hidden="1">
       <c r="A237" t="str">
         <f t="shared" si="14"/>
         <v>Teleport</v>
@@ -47967,7 +47926,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="238" spans="1:27">
+    <row r="238" spans="1:27" hidden="1">
       <c r="A238" t="str">
         <f t="shared" si="14"/>
         <v>Remedy</v>
@@ -48063,7 +48022,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" hidden="1">
       <c r="A240" t="str">
         <f t="shared" si="14"/>
         <v>PoisonBurst</v>
@@ -48119,7 +48078,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="241" spans="1:26">
+    <row r="241" spans="1:26" hidden="1">
       <c r="A241" t="str">
         <f t="shared" si="14"/>
         <v>FlareApollo</v>
@@ -48165,7 +48124,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="242" spans="1:26">
+    <row r="242" spans="1:26" hidden="1">
       <c r="A242" t="str">
         <f t="shared" si="14"/>
         <v>Smasher</v>
@@ -48249,7 +48208,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="244" spans="1:26">
+    <row r="244" spans="1:26" hidden="1">
       <c r="A244" t="str">
         <f t="shared" si="14"/>
         <v>Power Magi</v>
@@ -48294,7 +48253,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="245" spans="1:26">
+    <row r="245" spans="1:26" hidden="1">
       <c r="A245" t="str">
         <f t="shared" si="14"/>
         <v>Speed Magi</v>
@@ -48339,7 +48298,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="246" spans="1:26">
+    <row r="246" spans="1:26" hidden="1">
       <c r="A246" t="str">
         <f t="shared" si="14"/>
         <v>Mana Magi</v>
@@ -48384,7 +48343,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="247" spans="1:26">
+    <row r="247" spans="1:26" hidden="1">
       <c r="A247" t="str">
         <f t="shared" si="14"/>
         <v>Defense Magi</v>
@@ -48429,7 +48388,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="248" spans="1:26">
+    <row r="248" spans="1:26" hidden="1">
       <c r="A248" t="str">
         <f t="shared" si="14"/>
         <v>Fire Magi</v>
@@ -48477,7 +48436,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:26">
+    <row r="249" spans="1:26" hidden="1">
       <c r="A249" t="str">
         <f t="shared" si="14"/>
         <v>Ice Magi</v>
@@ -48525,7 +48484,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:26">
+    <row r="250" spans="1:26" hidden="1">
       <c r="A250" t="str">
         <f t="shared" si="14"/>
         <v>Thunder Magi</v>
@@ -48573,7 +48532,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:26">
+    <row r="251" spans="1:26" hidden="1">
       <c r="A251" t="str">
         <f t="shared" si="14"/>
         <v>Poison Magi</v>
@@ -48621,7 +48580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:26">
+    <row r="252" spans="1:26" hidden="1">
       <c r="A252" t="str">
         <f t="shared" si="14"/>
         <v>CatClaw</v>
@@ -48678,7 +48637,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="253" spans="1:26">
+    <row r="253" spans="1:26" hidden="1">
       <c r="A253" t="str">
         <f t="shared" si="14"/>
         <v>Vampic Sword</v>
@@ -48741,7 +48700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:26">
+    <row r="254" spans="1:26" hidden="1">
       <c r="A254" t="str">
         <f t="shared" si="14"/>
         <v>Glass Sword</v>
@@ -48806,7 +48765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:26">
+    <row r="255" spans="1:26" hidden="1">
       <c r="A255" t="str">
         <f t="shared" si="14"/>
         <v>Revenge Sword</v>
@@ -48860,7 +48819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:26">
+    <row r="256" spans="1:26" hidden="1">
       <c r="A256" t="str">
         <f t="shared" si="14"/>
         <v>Bow</v>
@@ -48927,7 +48886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" hidden="1">
       <c r="A257" t="str">
         <f t="shared" si="14"/>
         <v>Sabre</v>
@@ -49006,14 +48965,19 @@
         <v>2354</v>
       </c>
       <c r="U258" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="AA258" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA258" xr:uid="{00000000-0009-0000-0000-000003000000}">
+  <autoFilter ref="A1:AA258">
+    <filterColumn colId="18">
+      <filters>
+        <filter val="Trait"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:AA257">
       <sortCondition ref="E1:E257"/>
     </sortState>
@@ -49030,7 +48994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W257"/>
   <sheetViews>
@@ -61357,7 +61321,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W257" xr:uid="{00000000-0009-0000-0000-000004000000}">
+  <autoFilter ref="A1:W257">
     <filterColumn colId="17">
       <filters>
         <filter val="Magic"/>
@@ -61369,7 +61333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B242"/>
   <sheetViews>
@@ -62092,7 +62056,7 @@
     <row r="110" spans="1:2">
       <c r="A110" s="101"/>
       <c r="B110" s="101" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -62618,7 +62582,7 @@
     <row r="190" spans="1:2">
       <c r="A190" s="101"/>
       <c r="B190" s="101" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -62969,7 +62933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -63821,7 +63785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F86378-F39B-4105-999B-E7495EE65149}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -63851,7 +63815,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="134" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="C1" s="137" t="s">
         <v>2347</v>
@@ -63911,7 +63875,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="134" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B2" s="117" t="e">
         <f>VLOOKUP(C2,#REF!,2,FALSE)</f>
@@ -63939,7 +63903,7 @@
         <v>77</v>
       </c>
       <c r="J2" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="K2" s="134" t="s">
         <v>599</v>
@@ -63977,7 +63941,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="134" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="B3" s="117" t="e">
         <f>VLOOKUP(C3,#REF!,2,FALSE)</f>
@@ -64005,7 +63969,7 @@
         <v>77</v>
       </c>
       <c r="J3" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="K3" s="134" t="s">
         <v>599</v>
@@ -64044,7 +64008,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="134" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="B4" s="117" t="e">
         <f>VLOOKUP(C4,#REF!,2,FALSE)</f>
@@ -64110,7 +64074,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="134" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="B5" s="117" t="e">
         <f>VLOOKUP(C5,#REF!,2,FALSE)</f>
@@ -64144,7 +64108,7 @@
         <v>57</v>
       </c>
       <c r="L5" s="117" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="M5" s="139">
         <v>7</v>
@@ -64168,7 +64132,7 @@
         <v>1683</v>
       </c>
       <c r="T5" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="U5" s="134" t="s">
         <v>57</v>
@@ -64176,7 +64140,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="134" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="B6" s="117" t="e">
         <f>VLOOKUP(C6,#REF!,2,FALSE)</f>
@@ -64231,7 +64195,7 @@
         <v>1690</v>
       </c>
       <c r="S6" s="134" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="T6" s="134" t="s">
         <v>1691</v>
@@ -64242,7 +64206,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="134" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="B7" s="117" t="e">
         <f>VLOOKUP(C7,#REF!,2,FALSE)</f>
@@ -64308,7 +64272,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="134" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="B8" s="117" t="e">
         <f>VLOOKUP(C8,#REF!,2,FALSE)</f>
@@ -64374,7 +64338,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="134" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="B9" s="117" t="e">
         <f>VLOOKUP(C9,#REF!,2,FALSE)</f>
@@ -64402,7 +64366,7 @@
         <v>77</v>
       </c>
       <c r="J9" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="K9" s="134" t="s">
         <v>599</v>
@@ -64440,7 +64404,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="134" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B10" s="117" t="e">
         <f>VLOOKUP(C10,#REF!,2,FALSE)</f>
@@ -64506,7 +64470,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="134" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="B11" s="117" t="e">
         <f>VLOOKUP(C11,#REF!,2,FALSE)</f>
@@ -64531,7 +64495,7 @@
         <v>545</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="J11" s="134" t="s">
         <v>1727</v>
@@ -64540,7 +64504,7 @@
         <v>57</v>
       </c>
       <c r="L11" s="117" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="M11" s="139">
         <v>19</v>
@@ -64572,7 +64536,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="134" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B12" s="117" t="e">
         <f>VLOOKUP(C12,#REF!,2,FALSE)</f>
@@ -64638,7 +64602,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="134" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B13" s="117" t="e">
         <f>VLOOKUP(C13,#REF!,2,FALSE)</f>
@@ -64663,7 +64627,7 @@
         <v>714</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="J13" s="134" t="s">
         <v>1735</v>
@@ -64704,7 +64668,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="134" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B14" s="117" t="e">
         <f>VLOOKUP(C14,#REF!,2,FALSE)</f>
@@ -64770,7 +64734,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="134" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="B15" s="117" t="e">
         <f>VLOOKUP(C15,#REF!,2,FALSE)</f>
@@ -64836,7 +64800,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="134" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B16" s="117" t="e">
         <f>VLOOKUP(C16,#REF!,2,FALSE)</f>
@@ -64902,7 +64866,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="134" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="B17" s="117" t="e">
         <f>VLOOKUP(C17,#REF!,2,FALSE)</f>
@@ -64924,7 +64888,7 @@
         <v>128</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="I17" s="134" t="s">
         <v>778</v>
@@ -64936,7 +64900,7 @@
         <v>1502</v>
       </c>
       <c r="L17" s="117" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="M17" s="139">
         <v>31</v>
@@ -64968,7 +64932,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="134" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B18" s="117" t="e">
         <f>VLOOKUP(C18,#REF!,2,FALSE)</f>
@@ -65034,7 +64998,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="134" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="B19" s="117" t="e">
         <f>VLOOKUP(C19,#REF!,2,FALSE)</f>
@@ -65089,7 +65053,7 @@
         <v>1780</v>
       </c>
       <c r="S19" s="134" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="T19" s="134" t="s">
         <v>1735</v>
@@ -65100,7 +65064,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="134" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="B20" s="117" t="e">
         <f>VLOOKUP(C20,#REF!,2,FALSE)</f>
@@ -65155,7 +65119,7 @@
         <v>1680</v>
       </c>
       <c r="S20" s="134" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="T20" s="134" t="s">
         <v>1786</v>
@@ -65166,7 +65130,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="134" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="B21" s="117" t="e">
         <f>VLOOKUP(C21,#REF!,2,FALSE)</f>
@@ -65227,12 +65191,12 @@
         <v>487</v>
       </c>
       <c r="U21" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="134" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="B22" s="117" t="e">
         <f>VLOOKUP(C22,#REF!,2,FALSE)</f>
@@ -65298,7 +65262,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="134" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="B23" s="117" t="e">
         <f>VLOOKUP(C23,#REF!,2,FALSE)</f>
@@ -65364,7 +65328,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="134" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B24" s="117" t="e">
         <f>VLOOKUP(C24,#REF!,2,FALSE)</f>
@@ -65430,7 +65394,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="134" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="B25" s="117" t="e">
         <f>VLOOKUP(C25,#REF!,2,FALSE)</f>
@@ -65496,7 +65460,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="134" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="B26" s="117" t="e">
         <f>VLOOKUP(C26,#REF!,2,FALSE)</f>
@@ -65527,7 +65491,7 @@
         <v>1686</v>
       </c>
       <c r="K26" s="134" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="L26" s="117" t="s">
         <v>699</v>
@@ -65562,7 +65526,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="134" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="B27" s="117" t="e">
         <f>VLOOKUP(C27,#REF!,2,FALSE)</f>
@@ -65628,7 +65592,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="134" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B28" s="117" t="e">
         <f>VLOOKUP(C28,#REF!,2,FALSE)</f>
@@ -65644,7 +65608,7 @@
         <v>77</v>
       </c>
       <c r="F28" s="134" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="G28" s="134" t="s">
         <v>77</v>
@@ -65694,7 +65658,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="134" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B29" s="117" t="e">
         <f>VLOOKUP(C29,#REF!,2,FALSE)</f>
@@ -65760,7 +65724,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="134" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="B30" s="117" t="e">
         <f>VLOOKUP(C30,#REF!,2,FALSE)</f>
@@ -65776,7 +65740,7 @@
         <v>77</v>
       </c>
       <c r="F30" s="134" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="G30" s="134" t="s">
         <v>77</v>
@@ -65794,7 +65758,7 @@
         <v>77</v>
       </c>
       <c r="L30" s="117" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="M30" s="139">
         <v>57</v>
@@ -65806,7 +65770,7 @@
         <v>77</v>
       </c>
       <c r="P30" s="134" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="Q30" s="134" t="s">
         <v>77</v>
@@ -65826,7 +65790,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="134" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B31" s="117" t="e">
         <f>VLOOKUP(C31,#REF!,2,FALSE)</f>
@@ -65892,7 +65856,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="134" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="B32" s="117" t="e">
         <f>VLOOKUP(C32,#REF!,2,FALSE)</f>
@@ -65958,7 +65922,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="134" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="B33" s="117" t="e">
         <f>VLOOKUP(C33,#REF!,2,FALSE)</f>
@@ -65974,7 +65938,7 @@
         <v>77</v>
       </c>
       <c r="F33" s="134" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="G33" s="134" t="s">
         <v>77</v>
@@ -65992,7 +65956,7 @@
         <v>77</v>
       </c>
       <c r="L33" s="117" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="M33" s="139">
         <v>63</v>
@@ -66024,7 +65988,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="134" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="B34" s="117" t="e">
         <f>VLOOKUP(C34,#REF!,2,FALSE)</f>
@@ -66090,7 +66054,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="134" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B35" s="117" t="e">
         <f>VLOOKUP(C35,#REF!,2,FALSE)</f>
@@ -66124,7 +66088,7 @@
         <v>1502</v>
       </c>
       <c r="L35" s="117" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="M35" s="139">
         <v>67</v>
@@ -66156,7 +66120,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="134" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="B36" s="117" t="e">
         <f>VLOOKUP(C36,#REF!,2,FALSE)</f>
@@ -66190,7 +66154,7 @@
         <v>1502</v>
       </c>
       <c r="L36" s="117" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="M36" s="139">
         <v>69</v>
@@ -66222,7 +66186,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="134" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="B37" s="117" t="e">
         <f>VLOOKUP(C37,#REF!,2,FALSE)</f>
@@ -66256,7 +66220,7 @@
         <v>1502</v>
       </c>
       <c r="L37" s="117" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="M37" s="139">
         <v>71</v>
@@ -66288,7 +66252,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="134" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="B38" s="117" t="e">
         <f>VLOOKUP(C38,#REF!,2,FALSE)</f>
@@ -66316,7 +66280,7 @@
         <v>778</v>
       </c>
       <c r="J38" s="134" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="K38" s="134" t="s">
         <v>182</v>
@@ -66354,7 +66318,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="134" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="B39" s="117" t="e">
         <f>VLOOKUP(C39,#REF!,2,FALSE)</f>
@@ -66382,7 +66346,7 @@
         <v>1669</v>
       </c>
       <c r="J39" s="134" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="K39" s="134" t="s">
         <v>523</v>
@@ -66412,7 +66376,7 @@
         <v>77</v>
       </c>
       <c r="T39" s="134" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="U39" s="134" t="s">
         <v>334</v>
@@ -66420,7 +66384,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="134" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="B40" s="117" t="e">
         <f>VLOOKUP(C40,#REF!,2,FALSE)</f>
@@ -66448,7 +66412,7 @@
         <v>1803</v>
       </c>
       <c r="J40" s="134" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="K40" s="134" t="s">
         <v>545</v>
@@ -66475,10 +66439,10 @@
         <v>465</v>
       </c>
       <c r="S40" s="134" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="T40" s="134" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="U40" s="134" t="s">
         <v>545</v>
@@ -66486,7 +66450,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="134" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="B41" s="117" t="e">
         <f>VLOOKUP(C41,#REF!,2,FALSE)</f>
@@ -66511,16 +66475,16 @@
         <v>27</v>
       </c>
       <c r="I41" s="134" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="J41" s="134" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="K41" s="134" t="s">
         <v>545</v>
       </c>
       <c r="L41" s="117" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="M41" s="139">
         <v>79</v>
@@ -66544,7 +66508,7 @@
         <v>27</v>
       </c>
       <c r="T41" s="134" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="U41" s="134" t="s">
         <v>334</v>
@@ -66552,7 +66516,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="134" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="B42" s="117" t="e">
         <f>VLOOKUP(C42,#REF!,2,FALSE)</f>
@@ -66586,7 +66550,7 @@
         <v>334</v>
       </c>
       <c r="L42" s="117" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="M42" s="139">
         <v>81</v>
@@ -66618,7 +66582,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="134" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="B43" s="117" t="e">
         <f>VLOOKUP(C43,#REF!,2,FALSE)</f>
@@ -66652,7 +66616,7 @@
         <v>334</v>
       </c>
       <c r="L43" s="117" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="M43" s="139">
         <v>83</v>
@@ -66673,7 +66637,7 @@
         <v>1009</v>
       </c>
       <c r="S43" s="134" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="T43" s="134" t="s">
         <v>1881</v>
@@ -66684,7 +66648,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="134" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="B44" s="117" t="e">
         <f>VLOOKUP(C44,#REF!,2,FALSE)</f>
@@ -66750,7 +66714,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="134" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="B45" s="117" t="e">
         <f>VLOOKUP(C45,#REF!,2,FALSE)</f>
@@ -66816,7 +66780,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="134" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="B46" s="117" t="e">
         <f>VLOOKUP(C46,#REF!,2,FALSE)</f>
@@ -66882,7 +66846,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="134" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B47" s="117" t="e">
         <f>VLOOKUP(C47,#REF!,2,FALSE)</f>
@@ -66910,7 +66874,7 @@
         <v>77</v>
       </c>
       <c r="J47" s="134" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="K47" s="134" t="s">
         <v>35</v>
@@ -66940,7 +66904,7 @@
         <v>77</v>
       </c>
       <c r="T47" s="134" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="U47" s="134" t="s">
         <v>696</v>
@@ -66948,7 +66912,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="134" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="B48" s="117" t="e">
         <f>VLOOKUP(C48,#REF!,2,FALSE)</f>
@@ -66970,7 +66934,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="134" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="I48" s="134" t="s">
         <v>77</v>
@@ -67006,7 +66970,7 @@
         <v>77</v>
       </c>
       <c r="T48" s="134" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="U48" s="134" t="s">
         <v>35</v>
@@ -67014,7 +66978,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="134" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="B49" s="117" t="e">
         <f>VLOOKUP(C49,#REF!,2,FALSE)</f>
@@ -67080,7 +67044,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="134" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="B50" s="117" t="e">
         <f>VLOOKUP(C50,#REF!,2,FALSE)</f>
@@ -67102,10 +67066,10 @@
         <v>446</v>
       </c>
       <c r="H50" s="134" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="I50" s="134" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="J50" s="134" t="s">
         <v>1683</v>
@@ -67135,7 +67099,7 @@
         <v>1780</v>
       </c>
       <c r="S50" s="134" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="T50" s="134" t="s">
         <v>1914</v>
@@ -67146,7 +67110,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="134" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="B51" s="117" t="e">
         <f>VLOOKUP(C51,#REF!,2,FALSE)</f>
@@ -67212,7 +67176,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="134" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="B52" s="117" t="e">
         <f>VLOOKUP(C52,#REF!,2,FALSE)</f>
@@ -67246,7 +67210,7 @@
         <v>77</v>
       </c>
       <c r="L52" s="117" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="M52" s="139">
         <v>101</v>
@@ -67278,7 +67242,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="134" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="B53" s="117" t="e">
         <f>VLOOKUP(C53,#REF!,2,FALSE)</f>
@@ -67306,7 +67270,7 @@
         <v>77</v>
       </c>
       <c r="J53" s="134" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="K53" s="134" t="s">
         <v>1716</v>
@@ -67336,7 +67300,7 @@
         <v>465</v>
       </c>
       <c r="T53" s="134" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="U53" s="134" t="s">
         <v>163</v>
@@ -67344,7 +67308,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="134" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="B54" s="117" t="e">
         <f>VLOOKUP(C54,#REF!,2,FALSE)</f>
@@ -67369,7 +67333,7 @@
         <v>523</v>
       </c>
       <c r="I54" s="134" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="J54" s="134" t="s">
         <v>460</v>
@@ -67396,10 +67360,10 @@
         <v>545</v>
       </c>
       <c r="R54" s="134" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="S54" s="134" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="T54" s="134" t="s">
         <v>1893</v>
@@ -67410,7 +67374,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="134" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="B55" s="117" t="e">
         <f>VLOOKUP(C55,#REF!,2,FALSE)</f>
@@ -67444,7 +67408,7 @@
         <v>57</v>
       </c>
       <c r="L55" s="117" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="M55" s="139">
         <v>107</v>
@@ -67476,7 +67440,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="134" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="B56" s="117" t="e">
         <f>VLOOKUP(C56,#REF!,2,FALSE)</f>
@@ -67542,7 +67506,7 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="134" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="B57" s="117" t="e">
         <f>VLOOKUP(C57,#REF!,2,FALSE)</f>
@@ -67608,7 +67572,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="134" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="B58" s="117" t="e">
         <f>VLOOKUP(C58,#REF!,2,FALSE)</f>
@@ -67666,7 +67630,7 @@
         <v>188</v>
       </c>
       <c r="T58" s="134" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="U58" s="134" t="s">
         <v>334</v>
@@ -67674,7 +67638,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="134" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="B59" s="117" t="e">
         <f>VLOOKUP(C59,#REF!,2,FALSE)</f>
@@ -67740,7 +67704,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="134" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="B60" s="117" t="e">
         <f>VLOOKUP(C60,#REF!,2,FALSE)</f>
@@ -67806,7 +67770,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="134" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="B61" s="117" t="e">
         <f>VLOOKUP(C61,#REF!,2,FALSE)</f>
@@ -67840,7 +67804,7 @@
         <v>77</v>
       </c>
       <c r="L61" s="117" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="M61" s="139">
         <v>119</v>
@@ -67872,7 +67836,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="134" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="B62" s="117" t="e">
         <f>VLOOKUP(C62,#REF!,2,FALSE)</f>
@@ -67906,7 +67870,7 @@
         <v>1502</v>
       </c>
       <c r="L62" s="117" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="M62" s="139">
         <v>121</v>
@@ -67938,7 +67902,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="134" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="B63" s="117" t="e">
         <f>VLOOKUP(C63,#REF!,2,FALSE)</f>
@@ -67990,10 +67954,10 @@
         <v>696</v>
       </c>
       <c r="R63" s="134" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="S63" s="134" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="T63" s="134" t="s">
         <v>460</v>
@@ -68004,7 +67968,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="134" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="B64" s="117" t="e">
         <f>VLOOKUP(C64,#REF!,2,FALSE)</f>
@@ -68070,7 +68034,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="134" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="B65" s="117" t="e">
         <f>VLOOKUP(C65,#REF!,2,FALSE)</f>
@@ -68136,7 +68100,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="134" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="B66" s="117" t="e">
         <f>VLOOKUP(C66,#REF!,2,FALSE)</f>
@@ -68164,7 +68128,7 @@
         <v>77</v>
       </c>
       <c r="J66" s="134" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="K66" s="134" t="s">
         <v>334</v>
@@ -68202,7 +68166,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="134" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="B67" s="117" t="e">
         <f>VLOOKUP(C67,#REF!,2,FALSE)</f>
@@ -68268,7 +68232,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="134" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="B68" s="117" t="e">
         <f>VLOOKUP(C68,#REF!,2,FALSE)</f>
@@ -68334,7 +68298,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="134" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="B69" s="117" t="e">
         <f>VLOOKUP(C69,#REF!,2,FALSE)</f>
@@ -68362,7 +68326,7 @@
         <v>77</v>
       </c>
       <c r="J69" s="134" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="K69" s="134" t="s">
         <v>334</v>
@@ -68400,7 +68364,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="134" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="B70" s="117" t="e">
         <f>VLOOKUP(C70,#REF!,2,FALSE)</f>
@@ -68466,7 +68430,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="134" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="B71" s="117" t="e">
         <f>VLOOKUP(C71,#REF!,2,FALSE)</f>
@@ -68532,7 +68496,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="134" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="B72" s="117" t="e">
         <f>VLOOKUP(C72,#REF!,2,FALSE)</f>
@@ -68560,7 +68524,7 @@
         <v>77</v>
       </c>
       <c r="J72" s="134" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="K72" s="134" t="s">
         <v>1716</v>
@@ -68590,7 +68554,7 @@
         <v>77</v>
       </c>
       <c r="T72" s="134" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="U72" s="134" t="s">
         <v>334</v>
@@ -68598,7 +68562,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="134" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="B73" s="117" t="e">
         <f>VLOOKUP(C73,#REF!,2,FALSE)</f>
@@ -68664,7 +68628,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="134" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="B74" s="117" t="e">
         <f>VLOOKUP(C74,#REF!,2,FALSE)</f>
@@ -68692,7 +68656,7 @@
         <v>77</v>
       </c>
       <c r="J74" s="134" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="K74" s="134" t="s">
         <v>334</v>
@@ -68730,7 +68694,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="134" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="B75" s="117" t="e">
         <f>VLOOKUP(C75,#REF!,2,FALSE)</f>
@@ -68796,7 +68760,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="134" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="B76" s="117" t="e">
         <f>VLOOKUP(C76,#REF!,2,FALSE)</f>
@@ -68824,7 +68788,7 @@
         <v>1004</v>
       </c>
       <c r="J76" s="134" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="K76" s="134" t="s">
         <v>334</v>
@@ -68851,7 +68815,7 @@
         <v>545</v>
       </c>
       <c r="S76" s="134" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="T76" s="134" t="s">
         <v>2011</v>
@@ -68862,7 +68826,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="134" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="B77" s="117" t="e">
         <f>VLOOKUP(C77,#REF!,2,FALSE)</f>
@@ -68890,7 +68854,7 @@
         <v>1669</v>
       </c>
       <c r="J77" s="134" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="K77" s="134" t="s">
         <v>162</v>
@@ -68928,7 +68892,7 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="134" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="B78" s="117" t="e">
         <f>VLOOKUP(C78,#REF!,2,FALSE)</f>
@@ -68994,7 +68958,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="134" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="B79" s="117" t="e">
         <f>VLOOKUP(C79,#REF!,2,FALSE)</f>
@@ -69060,7 +69024,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="134" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="B80" s="117" t="e">
         <f>VLOOKUP(C80,#REF!,2,FALSE)</f>
@@ -69126,7 +69090,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="134" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="B81" s="117" t="e">
         <f>VLOOKUP(C81,#REF!,2,FALSE)</f>
@@ -69192,7 +69156,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="134" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="B82" s="117" t="e">
         <f>VLOOKUP(C82,#REF!,2,FALSE)</f>
@@ -69258,7 +69222,7 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="134" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B83" s="117" t="e">
         <f>VLOOKUP(C83,#REF!,2,FALSE)</f>
@@ -69324,7 +69288,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="134" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="B84" s="117" t="e">
         <f>VLOOKUP(C84,#REF!,2,FALSE)</f>
@@ -69390,7 +69354,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="134" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="B85" s="117" t="e">
         <f>VLOOKUP(C85,#REF!,2,FALSE)</f>
@@ -69418,7 +69382,7 @@
         <v>77</v>
       </c>
       <c r="J85" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="K85" s="134" t="s">
         <v>599</v>
@@ -69456,7 +69420,7 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="134" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="B86" s="117" t="e">
         <f>VLOOKUP(C86,#REF!,2,FALSE)</f>
@@ -69522,7 +69486,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="134" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="B87" s="117" t="e">
         <f>VLOOKUP(C87,#REF!,2,FALSE)</f>
@@ -69588,7 +69552,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="134" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="B88" s="117" t="e">
         <f>VLOOKUP(C88,#REF!,2,FALSE)</f>
@@ -69654,7 +69618,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="134" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="B89" s="117" t="e">
         <f>VLOOKUP(C89,#REF!,2,FALSE)</f>
@@ -69720,7 +69684,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="134" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B90" s="117" t="e">
         <f>VLOOKUP(C90,#REF!,2,FALSE)</f>
@@ -69786,7 +69750,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="134" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B91" s="117" t="e">
         <f>VLOOKUP(C91,#REF!,2,FALSE)</f>
@@ -69844,7 +69808,7 @@
         <v>162</v>
       </c>
       <c r="T91" s="134" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="U91" s="134" t="s">
         <v>1795</v>
@@ -69852,7 +69816,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="134" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B92" s="117" t="e">
         <f>VLOOKUP(C92,#REF!,2,FALSE)</f>
@@ -69918,7 +69882,7 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="134" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B93" s="117" t="e">
         <f>VLOOKUP(C93,#REF!,2,FALSE)</f>
@@ -69949,7 +69913,7 @@
         <v>487</v>
       </c>
       <c r="K93" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="L93" s="117" t="s">
         <v>159</v>
@@ -69984,7 +69948,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="134" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B94" s="117" t="e">
         <f>VLOOKUP(C94,#REF!,2,FALSE)</f>
@@ -69994,7 +69958,7 @@
         <v>184</v>
       </c>
       <c r="D94" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="E94" s="134" t="s">
         <v>77</v>
@@ -70024,7 +69988,7 @@
         <v>185</v>
       </c>
       <c r="N94" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="O94" s="134" t="s">
         <v>77</v>
@@ -70050,7 +70014,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="134" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B95" s="117" t="e">
         <f>VLOOKUP(C95,#REF!,2,FALSE)</f>
@@ -70060,7 +70024,7 @@
         <v>186</v>
       </c>
       <c r="D95" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="E95" s="134" t="s">
         <v>77</v>
@@ -70081,7 +70045,7 @@
         <v>1828</v>
       </c>
       <c r="K95" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="L95" s="117" t="s">
         <v>2386</v>
@@ -70090,7 +70054,7 @@
         <v>187</v>
       </c>
       <c r="N95" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="O95" s="134" t="s">
         <v>77</v>
@@ -70116,7 +70080,7 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="134" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B96" s="117" t="e">
         <f>VLOOKUP(C96,#REF!,2,FALSE)</f>
@@ -70156,7 +70120,7 @@
         <v>189</v>
       </c>
       <c r="N96" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="O96" s="134" t="s">
         <v>77</v>
@@ -70182,7 +70146,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="134" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B97" s="117" t="e">
         <f>VLOOKUP(C97,#REF!,2,FALSE)</f>
@@ -70207,7 +70171,7 @@
         <v>1680</v>
       </c>
       <c r="I97" s="134" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="J97" s="134" t="s">
         <v>1786</v>
@@ -70248,7 +70212,7 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="134" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B98" s="117" t="e">
         <f>VLOOKUP(C98,#REF!,2,FALSE)</f>
@@ -70303,7 +70267,7 @@
         <v>1680</v>
       </c>
       <c r="S98" s="134" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="T98" s="134" t="s">
         <v>2044</v>
@@ -70314,7 +70278,7 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="134" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B99" s="117" t="e">
         <f>VLOOKUP(C99,#REF!,2,FALSE)</f>
@@ -70380,7 +70344,7 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="134" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="B100" s="117" t="e">
         <f>VLOOKUP(C100,#REF!,2,FALSE)</f>
@@ -70446,7 +70410,7 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="134" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="B101" s="117" t="e">
         <f>VLOOKUP(C101,#REF!,2,FALSE)</f>
@@ -70512,7 +70476,7 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="134" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="B102" s="117" t="e">
         <f>VLOOKUP(C102,#REF!,2,FALSE)</f>
@@ -70578,7 +70542,7 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="134" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="B103" s="117" t="e">
         <f>VLOOKUP(C103,#REF!,2,FALSE)</f>
@@ -70644,7 +70608,7 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="134" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B104" s="117" t="e">
         <f>VLOOKUP(C104,#REF!,2,FALSE)</f>
@@ -70710,7 +70674,7 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" s="134" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="B105" s="117" t="e">
         <f>VLOOKUP(C105,#REF!,2,FALSE)</f>
@@ -70776,7 +70740,7 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" s="134" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="B106" s="117" t="e">
         <f>VLOOKUP(C106,#REF!,2,FALSE)</f>
@@ -70842,7 +70806,7 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="134" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B107" s="117" t="e">
         <f>VLOOKUP(C107,#REF!,2,FALSE)</f>
@@ -70908,7 +70872,7 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="134" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B108" s="117" t="e">
         <f>VLOOKUP(C108,#REF!,2,FALSE)</f>
@@ -70974,7 +70938,7 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="134" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="B109" s="117" t="e">
         <f>VLOOKUP(C109,#REF!,2,FALSE)</f>
@@ -71040,7 +71004,7 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="134" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B110" s="117" t="e">
         <f>VLOOKUP(C110,#REF!,2,FALSE)</f>
@@ -71080,7 +71044,7 @@
         <v>217</v>
       </c>
       <c r="N110" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="O110" s="134" t="s">
         <v>77</v>
@@ -71098,7 +71062,7 @@
         <v>77</v>
       </c>
       <c r="T110" s="134" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="U110" s="134" t="s">
         <v>36</v>
@@ -71106,7 +71070,7 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="134" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="B111" s="117" t="e">
         <f>VLOOKUP(C111,#REF!,2,FALSE)</f>
@@ -71116,7 +71080,7 @@
         <v>218</v>
       </c>
       <c r="D111" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="E111" s="134" t="s">
         <v>77</v>
@@ -71146,7 +71110,7 @@
         <v>219</v>
       </c>
       <c r="N111" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="O111" s="134" t="s">
         <v>77</v>
@@ -71172,7 +71136,7 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" s="134" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="B112" s="117" t="e">
         <f>VLOOKUP(C112,#REF!,2,FALSE)</f>
@@ -71182,7 +71146,7 @@
         <v>220</v>
       </c>
       <c r="D112" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="E112" s="134" t="s">
         <v>77</v>
@@ -71203,7 +71167,7 @@
         <v>1686</v>
       </c>
       <c r="K112" s="134" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="L112" s="117" t="s">
         <v>202</v>
@@ -71212,7 +71176,7 @@
         <v>221</v>
       </c>
       <c r="N112" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="O112" s="134" t="s">
         <v>77</v>
@@ -71238,7 +71202,7 @@
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="134" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="B113" s="117" t="e">
         <f>VLOOKUP(C113,#REF!,2,FALSE)</f>
@@ -71248,7 +71212,7 @@
         <v>222</v>
       </c>
       <c r="D113" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="E113" s="134" t="s">
         <v>77</v>
@@ -71278,7 +71242,7 @@
         <v>223</v>
       </c>
       <c r="N113" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="O113" s="134" t="s">
         <v>77</v>
@@ -71304,7 +71268,7 @@
     </row>
     <row r="114" spans="1:21">
       <c r="A114" s="134" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="B114" s="117" t="e">
         <f>VLOOKUP(C114,#REF!,2,FALSE)</f>
@@ -71314,7 +71278,7 @@
         <v>224</v>
       </c>
       <c r="D114" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="E114" s="134" t="s">
         <v>77</v>
@@ -71344,7 +71308,7 @@
         <v>225</v>
       </c>
       <c r="N114" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="O114" s="134" t="s">
         <v>77</v>
@@ -71370,7 +71334,7 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" s="134" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B115" s="117" t="e">
         <f>VLOOKUP(C115,#REF!,2,FALSE)</f>
@@ -71380,7 +71344,7 @@
         <v>226</v>
       </c>
       <c r="D115" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="E115" s="134" t="s">
         <v>77</v>
@@ -71436,7 +71400,7 @@
     </row>
     <row r="116" spans="1:21">
       <c r="A116" s="134" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="B116" s="117" t="e">
         <f>VLOOKUP(C116,#REF!,2,FALSE)</f>
@@ -71502,7 +71466,7 @@
     </row>
     <row r="117" spans="1:21">
       <c r="A117" s="134" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="B117" s="117" t="e">
         <f>VLOOKUP(C117,#REF!,2,FALSE)</f>
@@ -71518,7 +71482,7 @@
         <v>77</v>
       </c>
       <c r="F117" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="G117" s="134" t="s">
         <v>77</v>
@@ -71548,7 +71512,7 @@
         <v>77</v>
       </c>
       <c r="P117" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="Q117" s="134" t="s">
         <v>77</v>
@@ -71568,7 +71532,7 @@
     </row>
     <row r="118" spans="1:21">
       <c r="A118" s="134" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B118" s="117" t="e">
         <f>VLOOKUP(C118,#REF!,2,FALSE)</f>
@@ -71584,7 +71548,7 @@
         <v>77</v>
       </c>
       <c r="F118" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="G118" s="134" t="s">
         <v>77</v>
@@ -71614,7 +71578,7 @@
         <v>77</v>
       </c>
       <c r="P118" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="Q118" s="134" t="s">
         <v>77</v>
@@ -71634,7 +71598,7 @@
     </row>
     <row r="119" spans="1:21">
       <c r="A119" s="134" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B119" s="117" t="e">
         <f>VLOOKUP(C119,#REF!,2,FALSE)</f>
@@ -71650,7 +71614,7 @@
         <v>77</v>
       </c>
       <c r="F119" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="G119" s="134" t="s">
         <v>77</v>
@@ -71680,7 +71644,7 @@
         <v>77</v>
       </c>
       <c r="P119" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="Q119" s="134" t="s">
         <v>77</v>
@@ -71700,7 +71664,7 @@
     </row>
     <row r="120" spans="1:21">
       <c r="A120" s="134" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="B120" s="117" t="e">
         <f>VLOOKUP(C120,#REF!,2,FALSE)</f>
@@ -71716,7 +71680,7 @@
         <v>77</v>
       </c>
       <c r="F120" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="G120" s="134" t="s">
         <v>77</v>
@@ -71746,7 +71710,7 @@
         <v>77</v>
       </c>
       <c r="P120" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="Q120" s="134" t="s">
         <v>77</v>
@@ -71766,7 +71730,7 @@
     </row>
     <row r="121" spans="1:21">
       <c r="A121" s="134" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="B121" s="117" t="e">
         <f>VLOOKUP(C121,#REF!,2,FALSE)</f>
@@ -71782,7 +71746,7 @@
         <v>77</v>
       </c>
       <c r="F121" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="G121" s="134" t="s">
         <v>77</v>
@@ -71812,7 +71776,7 @@
         <v>77</v>
       </c>
       <c r="P121" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="Q121" s="134" t="s">
         <v>77</v>
@@ -71832,7 +71796,7 @@
     </row>
     <row r="122" spans="1:21">
       <c r="A122" s="134" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B122" s="117" t="e">
         <f>VLOOKUP(C122,#REF!,2,FALSE)</f>
@@ -71898,7 +71862,7 @@
     </row>
     <row r="123" spans="1:21">
       <c r="A123" s="134" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B123" s="117" t="e">
         <f>VLOOKUP(C123,#REF!,2,FALSE)</f>
@@ -71964,7 +71928,7 @@
     </row>
     <row r="124" spans="1:21">
       <c r="A124" s="134" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="B124" s="117" t="e">
         <f>VLOOKUP(C124,#REF!,2,FALSE)</f>
@@ -72010,7 +71974,7 @@
         <v>77</v>
       </c>
       <c r="P124" s="134" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="Q124" s="134" t="s">
         <v>77</v>
@@ -72019,7 +71983,7 @@
         <v>77</v>
       </c>
       <c r="S124" s="134" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="T124" s="134" t="s">
         <v>460</v>
@@ -72030,7 +71994,7 @@
     </row>
     <row r="125" spans="1:21">
       <c r="A125" s="134" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="B125" s="117" t="e">
         <f>VLOOKUP(C125,#REF!,2,FALSE)</f>
@@ -72040,7 +72004,7 @@
         <v>246</v>
       </c>
       <c r="D125" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="E125" s="134" t="s">
         <v>77</v>
@@ -72082,10 +72046,10 @@
         <v>599</v>
       </c>
       <c r="R125" s="134" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="S125" s="134" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="T125" s="134" t="s">
         <v>460</v>
@@ -72096,7 +72060,7 @@
     </row>
     <row r="126" spans="1:21">
       <c r="A126" s="134" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="B126" s="117" t="e">
         <f>VLOOKUP(C126,#REF!,2,FALSE)</f>
@@ -72162,7 +72126,7 @@
     </row>
     <row r="127" spans="1:21">
       <c r="A127" s="134" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="B127" s="117" t="e">
         <f>VLOOKUP(C127,#REF!,2,FALSE)</f>
@@ -72172,7 +72136,7 @@
         <v>250</v>
       </c>
       <c r="D127" s="134" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="E127" s="134" t="s">
         <v>77</v>
@@ -72193,7 +72157,7 @@
         <v>1686</v>
       </c>
       <c r="K127" s="134" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="L127" s="117" t="e">
         <v>#N/A</v>
@@ -72228,7 +72192,7 @@
     </row>
     <row r="128" spans="1:21">
       <c r="A128" s="134" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="B128" s="117" t="e">
         <f>VLOOKUP(C128,#REF!,2,FALSE)</f>
@@ -72253,7 +72217,7 @@
         <v>93</v>
       </c>
       <c r="I128" s="134" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="J128" s="134" t="s">
         <v>1759</v>
@@ -72294,7 +72258,7 @@
     </row>
     <row r="129" spans="1:21">
       <c r="A129" s="134" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="B129" s="117" t="e">
         <f>VLOOKUP(C129,#REF!,2,FALSE)</f>
@@ -72360,7 +72324,7 @@
     </row>
     <row r="130" spans="1:21">
       <c r="A130" s="134" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="B130" s="117" t="e">
         <f>VLOOKUP(C130,#REF!,2,FALSE)</f>
@@ -72394,7 +72358,7 @@
         <v>128</v>
       </c>
       <c r="L130" s="117" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="M130" s="139">
         <v>257</v>
@@ -72426,7 +72390,7 @@
     </row>
     <row r="131" spans="1:21">
       <c r="A131" s="134" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B131" s="117" t="e">
         <f>VLOOKUP(C131,#REF!,2,FALSE)</f>
@@ -72460,7 +72424,7 @@
         <v>128</v>
       </c>
       <c r="L131" s="117" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="M131" s="139">
         <v>259</v>
@@ -72492,7 +72456,7 @@
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="134" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="B132" s="117" t="e">
         <f>VLOOKUP(C132,#REF!,2,FALSE)</f>
@@ -72526,7 +72490,7 @@
         <v>128</v>
       </c>
       <c r="L132" s="117" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="M132" s="139">
         <v>261</v>
@@ -72558,7 +72522,7 @@
     </row>
     <row r="133" spans="1:21">
       <c r="A133" s="134" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="B133" s="117" t="e">
         <f>VLOOKUP(C133,#REF!,2,FALSE)</f>
@@ -72592,7 +72556,7 @@
         <v>128</v>
       </c>
       <c r="L133" s="117" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="M133" s="139">
         <v>263</v>
@@ -72624,7 +72588,7 @@
     </row>
     <row r="134" spans="1:21">
       <c r="A134" s="134" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="B134" s="117" t="e">
         <f>VLOOKUP(C134,#REF!,2,FALSE)</f>
@@ -72676,10 +72640,10 @@
         <v>696</v>
       </c>
       <c r="R134" s="134" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="S134" s="134" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="T134" s="134" t="s">
         <v>460</v>
@@ -72690,7 +72654,7 @@
     </row>
     <row r="135" spans="1:21">
       <c r="A135" s="134" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="B135" s="117" t="e">
         <f>VLOOKUP(C135,#REF!,2,FALSE)</f>
@@ -72756,7 +72720,7 @@
     </row>
     <row r="136" spans="1:21">
       <c r="A136" s="134" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B136" s="117" t="e">
         <f>VLOOKUP(C136,#REF!,2,FALSE)</f>
@@ -72822,7 +72786,7 @@
     </row>
     <row r="137" spans="1:21">
       <c r="A137" s="134" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="B137" s="117" t="e">
         <f>VLOOKUP(C137,#REF!,2,FALSE)</f>
@@ -72892,7 +72856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I16"/>
   <sheetViews>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11968" uniqueCount="2580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11979" uniqueCount="2586">
   <si>
     <t>Monster</t>
   </si>
@@ -7801,6 +7801,24 @@
   </si>
   <si>
     <t>O-Dragon</t>
+  </si>
+  <si>
+    <t>Reduced multiplier from 11</t>
+  </si>
+  <si>
+    <t>Reduced multiplier by 13</t>
+  </si>
+  <si>
+    <t>Reduced multiplier by 9</t>
+  </si>
+  <si>
+    <t>Reduced multiplier from 7</t>
+  </si>
+  <si>
+    <t>Change to a Group or All attack?</t>
+  </si>
+  <si>
+    <t>Damage=Str*15; attack up to 7 times, depending on Agl vs mob;</t>
   </si>
 </sst>
 </file>
@@ -8584,7 +8602,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8891,9 +8924,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R248" sqref="R248"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24811,7 +24844,7 @@
         <v>2365</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G252" s="117">
         <v>1</v>
@@ -24837,8 +24870,16 @@
       <c r="O252" s="126" t="s">
         <v>441</v>
       </c>
+      <c r="P252" s="126" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A252">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25396,6 +25437,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="18" t="s">
@@ -35025,16 +35070,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" filterMode="1"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AA258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U231" sqref="U231"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="117"/>
@@ -35124,7 +35170,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1">
+    <row r="2" spans="1:27">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">B2</f>
         <v>Hammer</v>
@@ -35179,7 +35225,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1">
+    <row r="3" spans="1:27">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Long Sword</v>
@@ -35236,7 +35282,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1">
+    <row r="4" spans="1:27">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Axe</v>
@@ -35293,7 +35339,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1">
+    <row r="5" spans="1:27">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Battle Sword</v>
@@ -35350,7 +35396,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1">
+    <row r="6" spans="1:27">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Katana</v>
@@ -35407,7 +35453,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1">
+    <row r="7" spans="1:27">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Gold Sword</v>
@@ -35464,7 +35510,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1">
+    <row r="8" spans="1:27">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Coral Sword</v>
@@ -35524,7 +35570,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1">
+    <row r="9" spans="1:27">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Ogre Axe</v>
@@ -35584,7 +35630,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1">
+    <row r="10" spans="1:27">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Sword</v>
@@ -35644,7 +35690,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1">
+    <row r="11" spans="1:27">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Sun Sword</v>
@@ -35704,7 +35750,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1">
+    <row r="12" spans="1:27">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Flame Sword</v>
@@ -35766,7 +35812,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1">
+    <row r="13" spans="1:27">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Ice Sword</v>
@@ -35828,7 +35874,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1">
+    <row r="14" spans="1:27">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Axe</v>
@@ -35890,7 +35936,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1">
+    <row r="15" spans="1:27">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Defend Sword</v>
@@ -35955,7 +36001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1">
+    <row r="16" spans="1:27">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Rune Axe</v>
@@ -36018,7 +36064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:26" hidden="1">
+    <row r="17" spans="1:27">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Rapier</v>
@@ -36074,8 +36120,14 @@
       <c r="T17" t="s">
         <v>2307</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" hidden="1">
+      <c r="U17" t="s">
+        <v>2343</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -36142,7 +36194,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1">
+    <row r="19" spans="1:27">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Shield</v>
@@ -36196,7 +36248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1">
+    <row r="20" spans="1:27">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Silver Shield</v>
@@ -36250,7 +36302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1">
+    <row r="21" spans="1:27">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Gold Shield</v>
@@ -36304,7 +36356,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1">
+    <row r="22" spans="1:27">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Flame Shield</v>
@@ -36361,7 +36413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1">
+    <row r="23" spans="1:27">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Ice Shield</v>
@@ -36418,7 +36470,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1">
+    <row r="24" spans="1:27">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Shield</v>
@@ -36475,7 +36527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1">
+    <row r="25" spans="1:27">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Cure Potion</v>
@@ -36532,7 +36584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1">
+    <row r="26" spans="1:27">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>X-Cure Potion</v>
@@ -36589,7 +36641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1">
+    <row r="27" spans="1:27">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Curse Potion</v>
@@ -36643,7 +36695,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1">
+    <row r="28" spans="1:27">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EyeDrop</v>
@@ -36697,7 +36749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1">
+    <row r="29" spans="1:27">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Abacus</v>
@@ -36752,7 +36804,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1">
+    <row r="30" spans="1:27">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Xcalibr Sword</v>
@@ -36817,7 +36869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1">
+    <row r="31" spans="1:27">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
@@ -36881,7 +36933,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1">
+    <row r="32" spans="1:27">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Cure Book</v>
@@ -36941,7 +36993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1">
+    <row r="33" spans="1:25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Prayer Book</v>
@@ -37001,7 +37053,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1">
+    <row r="34" spans="1:25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Fire Book</v>
@@ -37061,7 +37113,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:25" hidden="1">
+    <row r="35" spans="1:25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Ice Book</v>
@@ -37121,7 +37173,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1">
+    <row r="36" spans="1:25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Book</v>
@@ -37181,7 +37233,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:25" hidden="1">
+    <row r="37" spans="1:25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Fog Book</v>
@@ -37241,7 +37293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1">
+    <row r="38" spans="1:25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Sleep Book</v>
@@ -37298,7 +37350,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1">
+    <row r="39" spans="1:25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Stone Book</v>
@@ -37355,7 +37407,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1">
+    <row r="40" spans="1:25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Death Book</v>
@@ -37415,7 +37467,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1">
+    <row r="41" spans="1:25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Mage Staff</v>
@@ -37475,7 +37527,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1">
+    <row r="42" spans="1:25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Wizard Staff</v>
@@ -37532,7 +37584,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1">
+    <row r="43" spans="1:25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Heal Staff</v>
@@ -37592,7 +37644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1">
+    <row r="44" spans="1:25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Flare Book</v>
@@ -37649,7 +37701,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1">
+    <row r="45" spans="1:25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Helm</v>
@@ -37693,7 +37745,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1">
+    <row r="46" spans="1:25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Silver Helm</v>
@@ -37737,7 +37789,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1">
+    <row r="47" spans="1:25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Gold Helm</v>
@@ -37781,7 +37833,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1">
+    <row r="48" spans="1:25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Helm</v>
@@ -37828,7 +37880,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="49" spans="1:25" hidden="1">
+    <row r="49" spans="1:25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Armor</v>
@@ -37872,7 +37924,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="50" spans="1:25" hidden="1">
+    <row r="50" spans="1:25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Silver Armor</v>
@@ -37916,7 +37968,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1">
+    <row r="51" spans="1:25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Gold Armor</v>
@@ -37960,7 +38012,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1">
+    <row r="52" spans="1:25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Armor</v>
@@ -38007,7 +38059,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1">
+    <row r="53" spans="1:25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Arthur Armor</v>
@@ -38054,7 +38106,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1">
+    <row r="54" spans="1:25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Glove</v>
@@ -38098,7 +38150,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1">
+    <row r="55" spans="1:25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Silver Glove</v>
@@ -38142,7 +38194,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1">
+    <row r="56" spans="1:25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Gold Glove</v>
@@ -38186,7 +38238,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1">
+    <row r="57" spans="1:25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Giant Glove</v>
@@ -38230,7 +38282,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1">
+    <row r="58" spans="1:25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Ninja Glove</v>
@@ -38277,7 +38329,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1">
+    <row r="59" spans="1:25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Hermes Boot</v>
@@ -38321,7 +38373,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1">
+    <row r="60" spans="1:25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Hecate Boot</v>
@@ -38365,7 +38417,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1">
+    <row r="61" spans="1:25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Elixier</v>
@@ -38417,7 +38469,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1">
+    <row r="62" spans="1:25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Soft Potion</v>
@@ -38471,7 +38523,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1">
+    <row r="63" spans="1:25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Power Potion</v>
@@ -38515,7 +38567,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1">
+    <row r="64" spans="1:25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Speed Potion</v>
@@ -38559,7 +38611,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1">
+    <row r="65" spans="1:27">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Magic Potion</v>
@@ -38603,7 +38655,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1">
+    <row r="66" spans="1:27">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="6">B66</f>
         <v>Body Potion</v>
@@ -38647,7 +38699,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1">
+    <row r="67" spans="1:27">
       <c r="A67" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Tent </v>
@@ -38689,7 +38741,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1">
+    <row r="68" spans="1:27">
       <c r="A68" t="str">
         <f t="shared" si="6"/>
         <v>Whip</v>
@@ -38751,7 +38803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1">
+    <row r="69" spans="1:27">
       <c r="A69" t="str">
         <f t="shared" si="6"/>
         <v>Blitz Whip</v>
@@ -38814,7 +38866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1">
+    <row r="70" spans="1:27">
       <c r="A70" t="str">
         <f t="shared" si="6"/>
         <v>ChainSaw</v>
@@ -38869,7 +38921,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1">
+    <row r="71" spans="1:27">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
         <v>Counter</v>
@@ -38923,7 +38975,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1">
+    <row r="72" spans="1:27">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
         <v>Colt Gun</v>
@@ -38994,7 +39046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1">
+    <row r="73" spans="1:27">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
         <v>Musket Gun</v>
@@ -39063,7 +39115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:27" hidden="1">
+    <row r="74" spans="1:27">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
         <v>Magnum Gun</v>
@@ -39132,7 +39184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1">
+    <row r="75" spans="1:27">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
         <v>Chop Art</v>
@@ -39191,7 +39243,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1">
+    <row r="76" spans="1:27">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
         <v>Kick Art</v>
@@ -39247,7 +39299,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1">
+    <row r="77" spans="1:27">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
         <v>HeadBut Art</v>
@@ -39303,7 +39355,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="78" spans="1:27" hidden="1">
+    <row r="78" spans="1:27">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
         <v>X-Kick Art</v>
@@ -39359,7 +39411,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1">
+    <row r="79" spans="1:27">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
         <v>Jyudo Art</v>
@@ -39415,7 +39467,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1">
+    <row r="80" spans="1:27">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
         <v>Karate Art</v>
@@ -39473,7 +39525,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="81" spans="1:26" hidden="1">
+    <row r="81" spans="1:26">
       <c r="A81" t="str">
         <f t="shared" si="6"/>
         <v>Temptat</v>
@@ -39528,7 +39580,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="82" spans="1:26" hidden="1">
+    <row r="82" spans="1:26">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
         <v>StunGun</v>
@@ -39585,7 +39637,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="83" spans="1:26" hidden="1">
+    <row r="83" spans="1:26">
       <c r="A83" t="str">
         <f t="shared" si="6"/>
         <v>Heat</v>
@@ -39634,7 +39686,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="84" spans="1:26" hidden="1">
+    <row r="84" spans="1:26">
       <c r="A84" t="str">
         <f t="shared" si="6"/>
         <v>ComVirus</v>
@@ -39689,7 +39741,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="85" spans="1:26" hidden="1">
+    <row r="85" spans="1:26">
       <c r="A85" t="str">
         <f t="shared" si="6"/>
         <v>DNA</v>
@@ -39738,7 +39790,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="86" spans="1:26" hidden="1">
+    <row r="86" spans="1:26">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
         <v>SMG Gun</v>
@@ -39803,7 +39855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:26" hidden="1">
+    <row r="87" spans="1:26">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
         <v>Grenade</v>
@@ -39865,7 +39917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" hidden="1">
+    <row r="88" spans="1:26">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
         <v>Bazooka Cannon</v>
@@ -39928,7 +39980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:26" hidden="1">
+    <row r="89" spans="1:26">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
         <v>Vulcan Cannon</v>
@@ -39991,7 +40043,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:26" hidden="1">
+    <row r="90" spans="1:26">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
         <v>Tank Cannon</v>
@@ -40060,7 +40112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:26" hidden="1">
+    <row r="91" spans="1:26">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
         <v>Fire Gun</v>
@@ -40128,7 +40180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" hidden="1">
+    <row r="92" spans="1:26">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
         <v>Missile Cannon</v>
@@ -40190,7 +40242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:26" hidden="1">
+    <row r="93" spans="1:26">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
         <v>NukeBomb</v>
@@ -40252,7 +40304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:26" hidden="1">
+    <row r="94" spans="1:26">
       <c r="A94" t="str">
         <f t="shared" si="6"/>
         <v>Giant Armor</v>
@@ -40296,7 +40348,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="95" spans="1:26" hidden="1">
+    <row r="95" spans="1:26">
       <c r="A95" t="str">
         <f t="shared" si="6"/>
         <v>Army Helm</v>
@@ -40340,7 +40392,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="96" spans="1:26" hidden="1">
+    <row r="96" spans="1:26">
       <c r="A96" t="str">
         <f t="shared" si="6"/>
         <v>Army Armor</v>
@@ -40384,7 +40436,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="97" spans="1:26" hidden="1">
+    <row r="97" spans="1:27">
       <c r="A97" t="str">
         <f t="shared" si="6"/>
         <v>Geta Boot</v>
@@ -40428,7 +40480,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="98" spans="1:26" hidden="1">
+    <row r="98" spans="1:27">
       <c r="A98" t="str">
         <f t="shared" si="6"/>
         <v>Sypha</v>
@@ -40483,7 +40535,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="99" spans="1:26" hidden="1">
+    <row r="99" spans="1:27">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
         <v>Coin</v>
@@ -40548,7 +40600,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:26" hidden="1">
+    <row r="100" spans="1:27">
       <c r="A100" t="str">
         <f t="shared" si="6"/>
         <v>Kimono Armor</v>
@@ -40592,7 +40644,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="101" spans="1:26" hidden="1">
+    <row r="101" spans="1:27">
       <c r="A101" t="str">
         <f t="shared" si="6"/>
         <v>Samurai Shield</v>
@@ -40646,7 +40698,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:26" hidden="1">
+    <row r="102" spans="1:27">
       <c r="A102" t="str">
         <f t="shared" si="6"/>
         <v>Muramas</v>
@@ -40706,7 +40758,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="103" spans="1:26" hidden="1">
+    <row r="103" spans="1:27">
       <c r="A103" t="str">
         <f t="shared" si="6"/>
         <v>Gungnir Spear</v>
@@ -40769,7 +40821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26" hidden="1">
+    <row r="104" spans="1:27">
       <c r="A104" t="str">
         <f t="shared" si="6"/>
         <v>Laser Sword</v>
@@ -40825,8 +40877,14 @@
       <c r="T104" t="s">
         <v>2307</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" hidden="1">
+      <c r="U104" t="s">
+        <v>2343</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
       <c r="A105" t="str">
         <f t="shared" si="6"/>
         <v>Psi Knife</v>
@@ -40883,7 +40941,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="106" spans="1:26" hidden="1">
+    <row r="106" spans="1:27">
       <c r="A106" t="str">
         <f t="shared" si="6"/>
         <v>Psi Sword</v>
@@ -40940,7 +40998,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="107" spans="1:26" hidden="1">
+    <row r="107" spans="1:27">
       <c r="A107" t="str">
         <f t="shared" si="6"/>
         <v>Laser Gun</v>
@@ -41000,7 +41058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:26" hidden="1">
+    <row r="108" spans="1:27">
       <c r="A108" t="str">
         <f t="shared" si="6"/>
         <v>SpeedUp</v>
@@ -41055,7 +41113,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="109" spans="1:26" hidden="1">
+    <row r="109" spans="1:27">
       <c r="A109" t="str">
         <f t="shared" si="6"/>
         <v>Rocket</v>
@@ -41120,7 +41178,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:26" hidden="1">
+    <row r="110" spans="1:27">
       <c r="A110" t="str">
         <f t="shared" si="6"/>
         <v>Psi Gun</v>
@@ -41177,7 +41235,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="111" spans="1:26" hidden="1">
+    <row r="111" spans="1:27">
       <c r="A111" t="str">
         <f t="shared" si="6"/>
         <v>Giant Helm</v>
@@ -41221,7 +41279,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="112" spans="1:26" hidden="1">
+    <row r="112" spans="1:27">
       <c r="A112" t="str">
         <f t="shared" si="6"/>
         <v>Hyper Cannon</v>
@@ -41277,7 +41335,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="113" spans="1:26" hidden="1">
+    <row r="113" spans="1:26">
       <c r="A113" t="str">
         <f t="shared" si="6"/>
         <v>Battle Armor</v>
@@ -41321,7 +41379,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="114" spans="1:26" hidden="1">
+    <row r="114" spans="1:26">
       <c r="A114" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Parasuit </v>
@@ -41366,7 +41424,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="115" spans="1:26" hidden="1">
+    <row r="115" spans="1:26">
       <c r="A115" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Door </v>
@@ -41408,7 +41466,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="116" spans="1:26" hidden="1">
+    <row r="116" spans="1:26">
       <c r="A116" t="str">
         <f t="shared" si="6"/>
         <v>Micron Potion</v>
@@ -41452,7 +41510,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="117" spans="1:26" hidden="1">
+    <row r="117" spans="1:26">
       <c r="A117" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Key </v>
@@ -41494,7 +41552,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="118" spans="1:26" hidden="1">
+    <row r="118" spans="1:26">
       <c r="A118" t="str">
         <f t="shared" si="6"/>
         <v>Masmune Magi</v>
@@ -41554,7 +41612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:26" hidden="1">
+    <row r="119" spans="1:26">
       <c r="A119" t="str">
         <f t="shared" si="6"/>
         <v>Aegis Magi</v>
@@ -41614,7 +41672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:26" hidden="1">
+    <row r="120" spans="1:26">
       <c r="A120" t="str">
         <f t="shared" si="6"/>
         <v>Heart Magi</v>
@@ -41668,7 +41726,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="121" spans="1:26" hidden="1">
+    <row r="121" spans="1:26">
       <c r="A121" t="str">
         <f t="shared" si="6"/>
         <v>Pegasus Magi</v>
@@ -41713,7 +41771,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="122" spans="1:26" hidden="1">
+    <row r="122" spans="1:26">
       <c r="A122" t="str">
         <f t="shared" si="6"/>
         <v>Selfix</v>
@@ -41761,7 +41819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:26" hidden="1">
+    <row r="123" spans="1:26">
       <c r="A123" t="str">
         <f t="shared" si="6"/>
         <v>Seven Sword</v>
@@ -41796,7 +41854,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="43" t="s">
-        <v>1992</v>
+        <v>2585</v>
       </c>
       <c r="L123" s="19"/>
       <c r="M123" s="19"/>
@@ -41812,13 +41870,16 @@
         <v>15</v>
       </c>
       <c r="S123" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="T123" t="s">
         <v>2307</v>
       </c>
-    </row>
-    <row r="124" spans="1:26" hidden="1">
+      <c r="Y123" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26">
       <c r="A124" t="str">
         <f t="shared" si="6"/>
         <v>Nail</v>
@@ -41873,7 +41934,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="125" spans="1:26" hidden="1">
+    <row r="125" spans="1:26">
       <c r="A125" t="str">
         <f t="shared" si="6"/>
         <v>Tusk</v>
@@ -41928,7 +41989,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="126" spans="1:26" hidden="1">
+    <row r="126" spans="1:26">
       <c r="A126" t="str">
         <f t="shared" si="6"/>
         <v>Tongue</v>
@@ -41983,7 +42044,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="127" spans="1:26" hidden="1">
+    <row r="127" spans="1:26">
       <c r="A127" t="str">
         <f t="shared" si="6"/>
         <v>Stab</v>
@@ -42038,7 +42099,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="128" spans="1:26" hidden="1">
+    <row r="128" spans="1:26">
       <c r="A128" t="str">
         <f t="shared" si="6"/>
         <v>Branch</v>
@@ -42093,7 +42154,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="129" spans="1:25" hidden="1">
+    <row r="129" spans="1:27">
       <c r="A129" t="str">
         <f t="shared" si="6"/>
         <v>Bash</v>
@@ -42148,7 +42209,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="130" spans="1:25" hidden="1">
+    <row r="130" spans="1:27">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="11">B130</f>
         <v>Punch</v>
@@ -42203,7 +42264,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="131" spans="1:25" hidden="1">
+    <row r="131" spans="1:27">
       <c r="A131" t="str">
         <f t="shared" si="11"/>
         <v>Kick</v>
@@ -42258,7 +42319,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="132" spans="1:25" hidden="1">
+    <row r="132" spans="1:27">
       <c r="A132" t="str">
         <f t="shared" si="11"/>
         <v>Horn</v>
@@ -42313,7 +42374,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1">
+    <row r="133" spans="1:27">
       <c r="A133" t="str">
         <f t="shared" si="11"/>
         <v>Thorn</v>
@@ -42368,7 +42429,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1">
+    <row r="134" spans="1:27">
       <c r="A134" t="str">
         <f t="shared" si="11"/>
         <v>Sword</v>
@@ -42423,7 +42484,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1">
+    <row r="135" spans="1:27">
       <c r="A135" t="str">
         <f t="shared" si="11"/>
         <v>Head</v>
@@ -42478,7 +42539,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1">
+    <row r="136" spans="1:27">
       <c r="A136" t="str">
         <f t="shared" si="11"/>
         <v>Beak</v>
@@ -42533,7 +42594,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="137" spans="1:25" hidden="1">
+    <row r="137" spans="1:27">
       <c r="A137" t="str">
         <f t="shared" si="11"/>
         <v>Tail</v>
@@ -42587,8 +42648,11 @@
       <c r="T137" t="s">
         <v>2307</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" hidden="1">
+      <c r="AA137" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
       <c r="A138" t="str">
         <f t="shared" si="11"/>
         <v>Pincer</v>
@@ -42643,7 +42707,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="139" spans="1:25" hidden="1">
+    <row r="139" spans="1:27">
       <c r="A139" t="str">
         <f t="shared" si="11"/>
         <v>Fin</v>
@@ -42698,7 +42762,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="140" spans="1:25" hidden="1">
+    <row r="140" spans="1:27">
       <c r="A140" t="str">
         <f t="shared" si="11"/>
         <v>Tentacle</v>
@@ -42753,7 +42817,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="141" spans="1:25" hidden="1">
+    <row r="141" spans="1:27">
       <c r="A141" t="str">
         <f t="shared" si="11"/>
         <v>W-Pincer</v>
@@ -42809,7 +42873,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="142" spans="1:25" hidden="1">
+    <row r="142" spans="1:27">
       <c r="A142" t="str">
         <f t="shared" si="11"/>
         <v>W-Attack</v>
@@ -42867,7 +42931,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="143" spans="1:25" hidden="1">
+    <row r="143" spans="1:27">
       <c r="A143" t="str">
         <f t="shared" si="11"/>
         <v>4-Heads</v>
@@ -42925,7 +42989,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1">
+    <row r="144" spans="1:27">
       <c r="A144" t="str">
         <f t="shared" si="11"/>
         <v>8-Legs</v>
@@ -42983,7 +43047,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="145" spans="1:27" hidden="1">
+    <row r="145" spans="1:27">
       <c r="A145" t="str">
         <f t="shared" si="11"/>
         <v>Touch</v>
@@ -43042,7 +43106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:27" hidden="1">
+    <row r="146" spans="1:27">
       <c r="A146" t="str">
         <f t="shared" si="11"/>
         <v>Saw</v>
@@ -43095,7 +43159,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="147" spans="1:27" hidden="1">
+    <row r="147" spans="1:27">
       <c r="A147" t="str">
         <f t="shared" si="11"/>
         <v>Dissolve</v>
@@ -43154,7 +43218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:27" hidden="1">
+    <row r="148" spans="1:27">
       <c r="A148" t="str">
         <f t="shared" si="11"/>
         <v>Absorb</v>
@@ -43213,7 +43277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:27" hidden="1">
+    <row r="149" spans="1:27">
       <c r="A149" t="str">
         <f t="shared" si="11"/>
         <v>Cure</v>
@@ -43269,7 +43333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:27" hidden="1">
+    <row r="150" spans="1:27">
       <c r="A150" t="str">
         <f t="shared" si="11"/>
         <v>Defense</v>
@@ -43319,7 +43383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:27" hidden="1">
+    <row r="151" spans="1:27">
       <c r="A151" t="str">
         <f t="shared" si="11"/>
         <v>Shell</v>
@@ -43369,7 +43433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:27" hidden="1">
+    <row r="152" spans="1:27">
       <c r="A152" t="str">
         <f t="shared" si="11"/>
         <v>Mirror</v>
@@ -43416,7 +43480,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="153" spans="1:27" hidden="1">
+    <row r="153" spans="1:27">
       <c r="A153" t="str">
         <f t="shared" si="11"/>
         <v>Backlash</v>
@@ -43469,7 +43533,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="154" spans="1:27" hidden="1">
+    <row r="154" spans="1:27">
       <c r="A154" t="str">
         <f t="shared" si="11"/>
         <v>Burning</v>
@@ -43525,7 +43589,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="155" spans="1:27" hidden="1">
+    <row r="155" spans="1:27">
       <c r="A155" t="str">
         <f t="shared" si="11"/>
         <v>2-Swords</v>
@@ -43581,7 +43645,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="156" spans="1:27" hidden="1">
+    <row r="156" spans="1:27">
       <c r="A156" t="str">
         <f t="shared" si="11"/>
         <v>2-Tusks</v>
@@ -43637,7 +43701,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="157" spans="1:27" hidden="1">
+    <row r="157" spans="1:27">
       <c r="A157" t="str">
         <f t="shared" si="11"/>
         <v>3-Heads</v>
@@ -43695,7 +43759,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="158" spans="1:27" hidden="1">
+    <row r="158" spans="1:27">
       <c r="A158" t="str">
         <f t="shared" si="11"/>
         <v>3-Horns</v>
@@ -43753,7 +43817,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="159" spans="1:27" hidden="1">
+    <row r="159" spans="1:27">
       <c r="A159" t="str">
         <f t="shared" si="11"/>
         <v>6-Arms</v>
@@ -43809,7 +43873,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="160" spans="1:27" hidden="1">
+    <row r="160" spans="1:27">
       <c r="A160" t="str">
         <f t="shared" si="11"/>
         <v>Critical</v>
@@ -43865,7 +43929,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:27" hidden="1">
+    <row r="161" spans="1:27">
       <c r="A161" t="str">
         <f t="shared" si="11"/>
         <v>Axe</v>
@@ -43920,7 +43984,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="162" spans="1:27" hidden="1">
+    <row r="162" spans="1:27">
       <c r="A162" t="str">
         <f t="shared" si="11"/>
         <v>Honey</v>
@@ -43976,7 +44040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:27" hidden="1">
+    <row r="163" spans="1:27">
       <c r="A163" t="str">
         <f t="shared" si="11"/>
         <v>Heal</v>
@@ -44032,7 +44096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:27" hidden="1">
+    <row r="164" spans="1:27">
       <c r="A164" t="str">
         <f t="shared" si="11"/>
         <v>MegaCure</v>
@@ -44092,7 +44156,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="165" spans="1:27" hidden="1">
+    <row r="165" spans="1:27">
       <c r="A165" t="str">
         <f t="shared" si="11"/>
         <v>W-Kick</v>
@@ -44148,7 +44212,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="166" spans="1:27" hidden="1">
+    <row r="166" spans="1:27">
       <c r="A166" t="str">
         <f t="shared" si="11"/>
         <v>ParaNail</v>
@@ -44201,7 +44265,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="167" spans="1:27" hidden="1">
+    <row r="167" spans="1:27">
       <c r="A167" t="str">
         <f t="shared" si="11"/>
         <v>Wind Up</v>
@@ -44254,7 +44318,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="168" spans="1:27" hidden="1">
+    <row r="168" spans="1:27">
       <c r="A168" t="str">
         <f t="shared" si="11"/>
         <v>Tie Up</v>
@@ -44307,7 +44371,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="169" spans="1:27" hidden="1">
+    <row r="169" spans="1:27">
       <c r="A169" t="str">
         <f t="shared" si="11"/>
         <v>Breath</v>
@@ -44360,7 +44424,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="170" spans="1:27" hidden="1">
+    <row r="170" spans="1:27">
       <c r="A170" t="str">
         <f t="shared" si="11"/>
         <v>Poison</v>
@@ -44413,7 +44477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:27" hidden="1">
+    <row r="171" spans="1:27">
       <c r="A171" t="str">
         <f t="shared" si="11"/>
         <v>P-Skin</v>
@@ -44466,7 +44530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:27" hidden="1">
+    <row r="172" spans="1:27">
       <c r="A172" t="str">
         <f t="shared" si="11"/>
         <v>ParaSkin</v>
@@ -44519,7 +44583,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="173" spans="1:27" hidden="1">
+    <row r="173" spans="1:27">
       <c r="A173" t="str">
         <f t="shared" si="11"/>
         <v>Petrify</v>
@@ -44572,7 +44636,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="174" spans="1:27" hidden="1">
+    <row r="174" spans="1:27">
       <c r="A174" t="str">
         <f t="shared" si="11"/>
         <v>StonSkin</v>
@@ -44625,7 +44689,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="175" spans="1:27" hidden="1">
+    <row r="175" spans="1:27">
       <c r="A175" t="str">
         <f t="shared" si="11"/>
         <v>Thunder</v>
@@ -44681,7 +44745,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:27" hidden="1">
+    <row r="176" spans="1:27">
       <c r="A176" t="str">
         <f t="shared" si="11"/>
         <v>Ice</v>
@@ -44737,7 +44801,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="177" spans="1:24" hidden="1">
+    <row r="177" spans="1:24">
       <c r="A177" t="str">
         <f t="shared" si="11"/>
         <v>Fire</v>
@@ -44793,7 +44857,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:24" hidden="1">
+    <row r="178" spans="1:24">
       <c r="A178" t="str">
         <f t="shared" si="11"/>
         <v>Flame</v>
@@ -44849,7 +44913,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:24" hidden="1">
+    <row r="179" spans="1:24">
       <c r="A179" t="str">
         <f t="shared" si="11"/>
         <v>Gas</v>
@@ -44905,7 +44969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:24" hidden="1">
+    <row r="180" spans="1:24">
       <c r="A180" t="str">
         <f t="shared" si="11"/>
         <v>Blizzard</v>
@@ -44961,7 +45025,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="181" spans="1:24" hidden="1">
+    <row r="181" spans="1:24">
       <c r="A181" t="str">
         <f t="shared" si="11"/>
         <v>Lightning</v>
@@ -45017,7 +45081,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:24" hidden="1">
+    <row r="182" spans="1:24">
       <c r="A182" t="str">
         <f t="shared" si="11"/>
         <v>Beam</v>
@@ -45070,7 +45134,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="183" spans="1:24" hidden="1">
+    <row r="183" spans="1:24">
       <c r="A183" t="str">
         <f t="shared" si="11"/>
         <v>P-Blast</v>
@@ -45123,7 +45187,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="184" spans="1:24" hidden="1">
+    <row r="184" spans="1:24">
       <c r="A184" t="str">
         <f t="shared" si="11"/>
         <v>Dispel</v>
@@ -45179,7 +45243,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="185" spans="1:24" hidden="1">
+    <row r="185" spans="1:24">
       <c r="A185" t="str">
         <f t="shared" si="11"/>
         <v>D-Beam</v>
@@ -45235,7 +45299,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="186" spans="1:24" hidden="1">
+    <row r="186" spans="1:24">
       <c r="A186" t="str">
         <f t="shared" si="11"/>
         <v>Squirt</v>
@@ -45291,7 +45355,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="187" spans="1:24" hidden="1">
+    <row r="187" spans="1:24">
       <c r="A187" t="str">
         <f t="shared" si="11"/>
         <v>SunBurst</v>
@@ -45347,7 +45411,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="188" spans="1:24" hidden="1">
+    <row r="188" spans="1:24">
       <c r="A188" t="str">
         <f t="shared" si="11"/>
         <v>SleepGas</v>
@@ -45400,7 +45464,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="189" spans="1:24" hidden="1">
+    <row r="189" spans="1:24">
       <c r="A189" t="str">
         <f t="shared" si="11"/>
         <v>Sleep</v>
@@ -45453,7 +45517,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="190" spans="1:24" hidden="1">
+    <row r="190" spans="1:24">
       <c r="A190" t="str">
         <f t="shared" si="11"/>
         <v>StonGaze</v>
@@ -45506,7 +45570,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="191" spans="1:24" hidden="1">
+    <row r="191" spans="1:24">
       <c r="A191" t="str">
         <f t="shared" si="11"/>
         <v>Stone</v>
@@ -45559,7 +45623,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="192" spans="1:24" hidden="1">
+    <row r="192" spans="1:24">
       <c r="A192" t="str">
         <f t="shared" si="11"/>
         <v>StoneGas</v>
@@ -45612,7 +45676,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:25" hidden="1">
+    <row r="193" spans="1:25">
       <c r="A193" t="str">
         <f t="shared" si="11"/>
         <v>FatalGas</v>
@@ -45665,7 +45729,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="194" spans="1:25" hidden="1">
+    <row r="194" spans="1:25">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A258" si="14">B194</f>
         <v>X-Gaze</v>
@@ -45718,7 +45782,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="195" spans="1:25" hidden="1">
+    <row r="195" spans="1:25">
       <c r="A195" t="str">
         <f t="shared" si="14"/>
         <v>Erase</v>
@@ -45771,7 +45835,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="196" spans="1:25" hidden="1">
+    <row r="196" spans="1:25">
       <c r="A196" t="str">
         <f t="shared" si="14"/>
         <v>Blind</v>
@@ -45824,7 +45888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:25" hidden="1">
+    <row r="197" spans="1:25">
       <c r="A197" t="str">
         <f t="shared" si="14"/>
         <v>Flash</v>
@@ -45877,7 +45941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:25" hidden="1">
+    <row r="198" spans="1:25">
       <c r="A198" t="str">
         <f t="shared" si="14"/>
         <v>Ink</v>
@@ -45930,7 +45994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:25" hidden="1">
+    <row r="199" spans="1:25">
       <c r="A199" t="str">
         <f t="shared" si="14"/>
         <v>PoisonCloud</v>
@@ -45983,7 +46047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:25" hidden="1">
+    <row r="200" spans="1:25">
       <c r="A200" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -46036,7 +46100,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="201" spans="1:25" hidden="1">
+    <row r="201" spans="1:25">
       <c r="A201" t="str">
         <f t="shared" si="14"/>
         <v>Stunner</v>
@@ -46089,7 +46153,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="202" spans="1:25" hidden="1">
+    <row r="202" spans="1:25">
       <c r="A202" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -46142,7 +46206,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="203" spans="1:25" hidden="1">
+    <row r="203" spans="1:25">
       <c r="A203" t="str">
         <f t="shared" si="14"/>
         <v>Charm</v>
@@ -46195,7 +46259,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="204" spans="1:25" hidden="1">
+    <row r="204" spans="1:25">
       <c r="A204" t="str">
         <f t="shared" si="14"/>
         <v>Hypnos</v>
@@ -46248,7 +46312,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="205" spans="1:25" hidden="1">
+    <row r="205" spans="1:25">
       <c r="A205" t="str">
         <f t="shared" si="14"/>
         <v>Sand</v>
@@ -46301,7 +46365,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="206" spans="1:25" hidden="1">
+    <row r="206" spans="1:25">
       <c r="A206" t="str">
         <f t="shared" si="14"/>
         <v>Cobweb</v>
@@ -46354,7 +46418,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="207" spans="1:25" hidden="1">
+    <row r="207" spans="1:25">
       <c r="A207" t="str">
         <f t="shared" si="14"/>
         <v>Blitz</v>
@@ -46407,7 +46471,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="208" spans="1:25" hidden="1">
+    <row r="208" spans="1:25">
       <c r="A208" t="str">
         <f t="shared" si="14"/>
         <v>Drain</v>
@@ -46460,7 +46524,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="209" spans="1:25" hidden="1">
+    <row r="209" spans="1:25">
       <c r="A209" t="str">
         <f t="shared" si="14"/>
         <v>Stench</v>
@@ -46513,7 +46577,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="210" spans="1:25" hidden="1">
+    <row r="210" spans="1:25">
       <c r="A210" t="str">
         <f t="shared" si="14"/>
         <v>Haste</v>
@@ -46566,7 +46630,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="211" spans="1:25" hidden="1">
+    <row r="211" spans="1:25">
       <c r="A211" t="str">
         <f t="shared" si="14"/>
         <v>Tornado</v>
@@ -46619,7 +46683,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="212" spans="1:25" hidden="1">
+    <row r="212" spans="1:25">
       <c r="A212" t="str">
         <f t="shared" si="14"/>
         <v>Quake</v>
@@ -46675,7 +46739,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="213" spans="1:25" hidden="1">
+    <row r="213" spans="1:25">
       <c r="A213" t="str">
         <f t="shared" si="14"/>
         <v>Whirl</v>
@@ -46728,7 +46792,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="214" spans="1:25" hidden="1">
+    <row r="214" spans="1:25">
       <c r="A214" t="str">
         <f t="shared" si="14"/>
         <v>Flare</v>
@@ -46781,7 +46845,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="215" spans="1:25" hidden="1">
+    <row r="215" spans="1:25">
       <c r="A215" t="str">
         <f t="shared" si="14"/>
         <v>Steal</v>
@@ -46834,7 +46898,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="216" spans="1:25" hidden="1">
+    <row r="216" spans="1:25">
       <c r="A216" t="str">
         <f t="shared" si="14"/>
         <v>Explode</v>
@@ -46890,7 +46954,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="217" spans="1:25" hidden="1">
+    <row r="217" spans="1:25">
       <c r="A217" t="str">
         <f t="shared" si="14"/>
         <v>Acid</v>
@@ -46946,7 +47010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:25" hidden="1">
+    <row r="218" spans="1:25">
       <c r="A218" t="str">
         <f t="shared" si="14"/>
         <v>Riddle</v>
@@ -46999,7 +47063,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="219" spans="1:25" hidden="1">
+    <row r="219" spans="1:25">
       <c r="A219" t="str">
         <f t="shared" si="14"/>
         <v>CursSong</v>
@@ -47052,7 +47116,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="220" spans="1:25" hidden="1">
+    <row r="220" spans="1:25">
       <c r="A220" t="str">
         <f t="shared" si="14"/>
         <v>MadSong</v>
@@ -47193,7 +47257,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="223" spans="1:25" hidden="1">
+    <row r="223" spans="1:25">
       <c r="A223" t="str">
         <f t="shared" si="14"/>
         <v>Multiply</v>
@@ -47886,7 +47950,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="237" spans="1:27" hidden="1">
+    <row r="237" spans="1:27">
       <c r="A237" t="str">
         <f t="shared" si="14"/>
         <v>Teleport</v>
@@ -47926,7 +47990,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="238" spans="1:27" hidden="1">
+    <row r="238" spans="1:27">
       <c r="A238" t="str">
         <f t="shared" si="14"/>
         <v>Remedy</v>
@@ -48022,7 +48086,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="240" spans="1:27" hidden="1">
+    <row r="240" spans="1:27">
       <c r="A240" t="str">
         <f t="shared" si="14"/>
         <v>PoisonBurst</v>
@@ -48078,7 +48142,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="241" spans="1:26" hidden="1">
+    <row r="241" spans="1:27">
       <c r="A241" t="str">
         <f t="shared" si="14"/>
         <v>FlareApollo</v>
@@ -48124,7 +48188,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="242" spans="1:26" hidden="1">
+    <row r="242" spans="1:27">
       <c r="A242" t="str">
         <f t="shared" si="14"/>
         <v>Smasher</v>
@@ -48168,7 +48232,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="243" spans="1:26">
+    <row r="243" spans="1:27">
       <c r="A243" t="str">
         <f t="shared" si="14"/>
         <v>Recover</v>
@@ -48208,7 +48272,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="244" spans="1:26" hidden="1">
+    <row r="244" spans="1:27">
       <c r="A244" t="str">
         <f t="shared" si="14"/>
         <v>Power Magi</v>
@@ -48253,7 +48317,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="245" spans="1:26" hidden="1">
+    <row r="245" spans="1:27">
       <c r="A245" t="str">
         <f t="shared" si="14"/>
         <v>Speed Magi</v>
@@ -48298,7 +48362,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="246" spans="1:26" hidden="1">
+    <row r="246" spans="1:27">
       <c r="A246" t="str">
         <f t="shared" si="14"/>
         <v>Mana Magi</v>
@@ -48343,7 +48407,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="247" spans="1:26" hidden="1">
+    <row r="247" spans="1:27">
       <c r="A247" t="str">
         <f t="shared" si="14"/>
         <v>Defense Magi</v>
@@ -48388,7 +48452,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="248" spans="1:26" hidden="1">
+    <row r="248" spans="1:27">
       <c r="A248" t="str">
         <f t="shared" si="14"/>
         <v>Fire Magi</v>
@@ -48436,7 +48500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:26" hidden="1">
+    <row r="249" spans="1:27">
       <c r="A249" t="str">
         <f t="shared" si="14"/>
         <v>Ice Magi</v>
@@ -48484,7 +48548,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:26" hidden="1">
+    <row r="250" spans="1:27">
       <c r="A250" t="str">
         <f t="shared" si="14"/>
         <v>Thunder Magi</v>
@@ -48532,7 +48596,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:26" hidden="1">
+    <row r="251" spans="1:27">
       <c r="A251" t="str">
         <f t="shared" si="14"/>
         <v>Poison Magi</v>
@@ -48580,7 +48644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:26" hidden="1">
+    <row r="252" spans="1:27">
       <c r="A252" t="str">
         <f t="shared" si="14"/>
         <v>CatClaw</v>
@@ -48636,8 +48700,14 @@
       <c r="T252" t="s">
         <v>2307</v>
       </c>
-    </row>
-    <row r="253" spans="1:26" hidden="1">
+      <c r="U252" t="s">
+        <v>2343</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27">
       <c r="A253" t="str">
         <f t="shared" si="14"/>
         <v>Vampic Sword</v>
@@ -48700,7 +48770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:26" hidden="1">
+    <row r="254" spans="1:27">
       <c r="A254" t="str">
         <f t="shared" si="14"/>
         <v>Glass Sword</v>
@@ -48765,7 +48835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:26" hidden="1">
+    <row r="255" spans="1:27">
       <c r="A255" t="str">
         <f t="shared" si="14"/>
         <v>Revenge Sword</v>
@@ -48819,7 +48889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:26" hidden="1">
+    <row r="256" spans="1:27">
       <c r="A256" t="str">
         <f t="shared" si="14"/>
         <v>Bow</v>
@@ -48886,7 +48956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:27" hidden="1">
+    <row r="257" spans="1:27">
       <c r="A257" t="str">
         <f t="shared" si="14"/>
         <v>Sabre</v>
@@ -48942,6 +49012,12 @@
       <c r="T257" t="s">
         <v>2307</v>
       </c>
+      <c r="U257" t="s">
+        <v>2343</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>2582</v>
+      </c>
     </row>
     <row r="258" spans="1:27">
       <c r="A258" t="str">
@@ -48973,11 +49049,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AA258">
-    <filterColumn colId="18">
-      <filters>
-        <filter val="Trait"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:AA257">
       <sortCondition ref="E1:E257"/>
     </sortState>
@@ -48988,8 +49059,13 @@
     <sortCondition ref="T2:T213"/>
     <sortCondition ref="F2:F213"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A258">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ECD664-51E9-4592-AD98-0571B73D1F4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-225" windowWidth="28755" windowHeight="12540"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -28,13 +29,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$AA$258</definedName>
     <definedName name="Item_Hex" localSheetId="7">'Item Hex'!$A$1:$U$137</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item Hex" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item Hex" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Action IV\Documents\GitHub\pillar\Item Hex.txt" delimited="0">
       <textFields count="17">
         <textField type="text"/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11979" uniqueCount="2586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11978" uniqueCount="2586">
   <si>
     <t>Monster</t>
   </si>
@@ -7824,7 +7825,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot; $(&quot;#,##0.00&quot;)&quot;;&quot; $-&quot;#&quot; &quot;;@&quot; &quot;"/>
   </numFmts>
@@ -8598,7 +8599,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel_BuiltIn_Currency" xfId="2"/>
+    <cellStyle name="Excel_BuiltIn_Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -8631,7 +8632,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Item Hex" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Item Hex" connectionId="1" xr16:uid="{00000000-0016-0000-0700-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8710,6 +8711,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8745,6 +8763,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8920,12 +8955,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
@@ -24844,7 +24879,7 @@
         <v>2365</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252" s="117">
         <v>1</v>
@@ -24870,13 +24905,11 @@
       <c r="O252" s="126" t="s">
         <v>441</v>
       </c>
-      <c r="P252" s="126" t="s">
-        <v>49</v>
-      </c>
+      <c r="P252" s="126"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A252">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24885,7 +24918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -25428,7 +25461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N162"/>
   <sheetViews>
@@ -30920,7 +30953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T117"/>
   <sheetViews>
@@ -35069,12 +35102,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AA258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -49048,7 +49081,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA258">
+  <autoFilter ref="A1:AA258" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <sortState ref="A2:AA257">
       <sortCondition ref="E1:E257"/>
     </sortState>
@@ -49060,7 +49093,7 @@
     <sortCondition ref="F2:F213"/>
   </sortState>
   <conditionalFormatting sqref="A2:A258">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49070,7 +49103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W257"/>
   <sheetViews>
@@ -61397,7 +61430,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W257">
+  <autoFilter ref="A1:W257" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <filterColumn colId="17">
       <filters>
         <filter val="Magic"/>
@@ -61409,7 +61442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B242"/>
   <sheetViews>
@@ -63009,7 +63042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -63861,7 +63894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -72932,7 +72965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I16"/>
   <sheetViews>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ECD664-51E9-4592-AD98-0571B73D1F4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A5BF2-D0AC-46EB-B15E-A87538E3C0B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11978" uniqueCount="2586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12231" uniqueCount="2597">
   <si>
     <t>Monster</t>
   </si>
@@ -7820,6 +7820,39 @@
   </si>
   <si>
     <t>Damage=Str*15; attack up to 7 times, depending on Agl vs mob;</t>
+  </si>
+  <si>
+    <t>Accurate</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Aberration</t>
+  </si>
+  <si>
+    <t>Aquatic</t>
+  </si>
+  <si>
+    <t>Great Reptile</t>
+  </si>
+  <si>
+    <t>Flyer</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>God</t>
+  </si>
+  <si>
+    <t>Mutant</t>
   </si>
 </sst>
 </file>
@@ -8166,7 +8199,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -8597,6 +8630,9 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_BuiltIn_Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -8957,11 +8993,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V252"/>
+  <dimension ref="A1:W252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C253" sqref="C253"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W253" sqref="W253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8976,7 +9012,7 @@
     <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24.75">
+    <row r="1" spans="1:23" ht="24.75">
       <c r="A1" t="s">
         <v>2320</v>
       </c>
@@ -9043,8 +9079,11 @@
       <c r="V1" s="4" t="s">
         <v>2330</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="140" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="str">
         <f>B2</f>
         <v>Mushroom</v>
@@ -9104,8 +9143,11 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">B3</f>
         <v>Champgno</v>
@@ -9167,8 +9209,11 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Shiitake</v>
@@ -9234,8 +9279,11 @@
         <v>22</v>
       </c>
       <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Toadstol</v>
@@ -9303,8 +9351,11 @@
       <c r="V5" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Flower</v>
@@ -9360,8 +9411,11 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>P-Flower</v>
@@ -9423,8 +9477,11 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>F-Flower</v>
@@ -9488,8 +9545,11 @@
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>SunPlant</v>
@@ -9555,8 +9615,11 @@
         <v>38</v>
       </c>
       <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>DarkRose</v>
@@ -9624,8 +9687,11 @@
       <c r="V10" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>MapleMan</v>
@@ -9683,8 +9749,11 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>LiveOrk</v>
@@ -9744,8 +9813,11 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>EvilPine</v>
@@ -9807,8 +9879,11 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>MadCedar</v>
@@ -9874,8 +9949,11 @@
         <v>60</v>
       </c>
       <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Treant</v>
@@ -9943,8 +10021,11 @@
       <c r="V15" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Pebble</v>
@@ -10000,8 +10081,11 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Cobble</v>
@@ -10059,8 +10143,11 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Boulder</v>
@@ -10122,8 +10209,11 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="7"/>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Rock</v>
@@ -10189,8 +10279,11 @@
         <v>70</v>
       </c>
       <c r="V19" s="7"/>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Earth</v>
@@ -10258,8 +10351,11 @@
       <c r="V20" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Woodman</v>
@@ -10315,8 +10411,11 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="7"/>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Clayman</v>
@@ -10376,8 +10475,11 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="7"/>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Stoneman</v>
@@ -10439,8 +10541,11 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="7"/>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Ironman</v>
@@ -10506,8 +10611,11 @@
         <v>70</v>
       </c>
       <c r="V24" s="7"/>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Mazin</v>
@@ -10575,8 +10683,11 @@
       <c r="V25" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Hofud</v>
@@ -10634,8 +10745,11 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="7"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Gae Bolg</v>
@@ -10697,8 +10811,11 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="7"/>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Answerer</v>
@@ -10762,8 +10879,11 @@
       </c>
       <c r="U28" s="6"/>
       <c r="V28" s="7"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Moaner</v>
@@ -10829,8 +10949,11 @@
         <v>70</v>
       </c>
       <c r="V29" s="7"/>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Kusanagi</v>
@@ -10898,8 +11021,11 @@
       <c r="V30" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Slime</v>
@@ -10955,8 +11081,11 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="7"/>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Jelly</v>
@@ -11014,8 +11143,11 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="7"/>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Tororo</v>
@@ -11077,8 +11209,11 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="7"/>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Pudding</v>
@@ -11144,8 +11279,11 @@
         <v>139</v>
       </c>
       <c r="V34" s="7"/>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>SlimeGod</v>
@@ -11213,8 +11351,11 @@
       <c r="V35" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Worm</v>
@@ -11270,8 +11411,11 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="7"/>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>P-Worm</v>
@@ -11331,8 +11475,11 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="7"/>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>LavaWorm</v>
@@ -11396,8 +11543,11 @@
       </c>
       <c r="U38" s="6"/>
       <c r="V38" s="7"/>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>SandWorm</v>
@@ -11463,8 +11613,11 @@
         <v>139</v>
       </c>
       <c r="V39" s="7"/>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>GigaWorm</v>
@@ -11532,8 +11685,11 @@
       <c r="V40" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Big Eye</v>
@@ -11591,8 +11747,11 @@
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="7"/>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Gazer</v>
@@ -11654,8 +11813,11 @@
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="7"/>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Watcher</v>
@@ -11719,8 +11881,11 @@
       </c>
       <c r="U43" s="6"/>
       <c r="V43" s="7"/>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Evil Eye</v>
@@ -11786,8 +11951,11 @@
         <v>139</v>
       </c>
       <c r="V44" s="7"/>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Beholder</v>
@@ -11855,8 +12023,11 @@
       <c r="V45" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Spider</v>
@@ -11910,8 +12081,11 @@
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="7"/>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>P-Spider</v>
@@ -11969,8 +12143,11 @@
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="7"/>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Tarantla</v>
@@ -12032,8 +12209,11 @@
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="7"/>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>F-Spider</v>
@@ -12099,8 +12279,11 @@
         <v>69</v>
       </c>
       <c r="V49" s="7"/>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Arachne</v>
@@ -12168,8 +12351,11 @@
       <c r="V50" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Beetle</v>
@@ -12225,8 +12411,11 @@
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="7"/>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Chafer</v>
@@ -12286,8 +12475,11 @@
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="7"/>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Ant Lion</v>
@@ -12349,8 +12541,11 @@
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="7"/>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>C-Fisher</v>
@@ -12416,8 +12611,11 @@
         <v>139</v>
       </c>
       <c r="V54" s="7"/>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Scarab</v>
@@ -12485,8 +12683,11 @@
       <c r="V55" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Moth</v>
@@ -12544,8 +12745,11 @@
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="7"/>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Swallow</v>
@@ -12607,8 +12811,11 @@
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="7"/>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>FireMoth</v>
@@ -12672,8 +12879,11 @@
       </c>
       <c r="U58" s="6"/>
       <c r="V58" s="7"/>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Gloom</v>
@@ -12739,8 +12949,11 @@
         <v>139</v>
       </c>
       <c r="V59" s="7"/>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Madame</v>
@@ -12808,8 +13021,11 @@
       <c r="V60" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Octopus</v>
@@ -12867,8 +13083,11 @@
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="7"/>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Amoeba</v>
@@ -12926,8 +13145,11 @@
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="7"/>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Ammonite</v>
@@ -12991,8 +13213,11 @@
       </c>
       <c r="U63" s="6"/>
       <c r="V63" s="7"/>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Squid</v>
@@ -13058,8 +13283,11 @@
         <v>50</v>
       </c>
       <c r="V64" s="7"/>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Kraken</v>
@@ -13127,8 +13355,11 @@
       <c r="V65" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>Barracud</v>
@@ -13184,8 +13415,11 @@
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="7"/>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A130" si="1">B67</f>
         <v>Piranha</v>
@@ -13247,8 +13481,11 @@
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="7"/>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>Shark</v>
@@ -13312,8 +13549,11 @@
       </c>
       <c r="U68" s="6"/>
       <c r="V68" s="7"/>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>Gunfish</v>
@@ -13379,8 +13619,11 @@
         <v>50</v>
       </c>
       <c r="V69" s="7"/>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>Leviathn</v>
@@ -13448,8 +13691,11 @@
       <c r="V70" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>Crab</v>
@@ -13505,8 +13751,11 @@
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
       <c r="V71" s="7"/>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>Hermit</v>
@@ -13568,8 +13817,11 @@
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="7"/>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>Ice Crab</v>
@@ -13633,8 +13885,11 @@
       </c>
       <c r="U73" s="6"/>
       <c r="V73" s="7"/>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>KingCrab</v>
@@ -13700,8 +13955,11 @@
         <v>232</v>
       </c>
       <c r="V74" s="7"/>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>Dagon</v>
@@ -13769,8 +14027,11 @@
       <c r="V75" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>Toad</v>
@@ -13826,8 +14087,11 @@
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="7"/>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>P-Toad</v>
@@ -13889,8 +14153,11 @@
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
       <c r="V77" s="7"/>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="W77" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>HugeToad</v>
@@ -13954,8 +14221,11 @@
       </c>
       <c r="U78" s="6"/>
       <c r="V78" s="7"/>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>GianToad</v>
@@ -14021,8 +14291,11 @@
         <v>214</v>
       </c>
       <c r="V79" s="7"/>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="W79" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>KingToad</v>
@@ -14090,8 +14363,11 @@
       <c r="V80" s="10" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="W80" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>Snake</v>
@@ -14147,8 +14423,11 @@
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
       <c r="V81" s="7"/>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="W81" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>Serpent</v>
@@ -14210,8 +14489,11 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
       <c r="V82" s="7"/>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="W82" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>Anaconda</v>
@@ -14275,8 +14557,11 @@
       </c>
       <c r="U83" s="6"/>
       <c r="V83" s="7"/>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>Hydra</v>
@@ -14342,8 +14627,11 @@
         <v>60</v>
       </c>
       <c r="V84" s="7"/>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="W84" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>Jorgandr</v>
@@ -14411,8 +14699,11 @@
       <c r="V85" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="W85" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>Tortoise</v>
@@ -14470,8 +14761,11 @@
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="7"/>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="W86" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>Turtle</v>
@@ -14531,8 +14825,11 @@
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="7"/>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="W87" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>Adamant</v>
@@ -14596,8 +14893,11 @@
       </c>
       <c r="U88" s="6"/>
       <c r="V88" s="7"/>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="W88" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>D-Turtle</v>
@@ -14661,8 +14961,11 @@
       </c>
       <c r="U89" s="6"/>
       <c r="V89" s="7"/>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="W89" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>Gen-Bu</v>
@@ -14730,8 +15033,11 @@
       <c r="V90" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="W90" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>Lizard</v>
@@ -14787,8 +15093,11 @@
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="7"/>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="W91" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>Cameleon</v>
@@ -14846,8 +15155,11 @@
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="7"/>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="W92" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>Komodo</v>
@@ -14909,8 +15221,11 @@
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="7"/>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="W93" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>Salamand</v>
@@ -14976,8 +15291,11 @@
         <v>38</v>
       </c>
       <c r="V94" s="7"/>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="W94" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>Basilisk</v>
@@ -15045,8 +15363,11 @@
       <c r="V95" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="W95" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>Rhino</v>
@@ -15102,8 +15423,11 @@
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="7"/>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="W96" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>Triceras</v>
@@ -15165,8 +15489,11 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="7"/>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="W97" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>Dinosaur</v>
@@ -15230,8 +15557,11 @@
       </c>
       <c r="U98" s="6"/>
       <c r="V98" s="7"/>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="W98" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>T Rex</v>
@@ -15297,8 +15627,11 @@
         <v>38</v>
       </c>
       <c r="V99" s="7"/>
-    </row>
-    <row r="100" spans="1:22">
+      <c r="W99" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>Behemoth</v>
@@ -15366,8 +15699,11 @@
       <c r="V100" s="10" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="101" spans="1:22">
+      <c r="W100" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>Baby-D</v>
@@ -15427,8 +15763,11 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="7"/>
-    </row>
-    <row r="102" spans="1:22">
+      <c r="W101" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>Young-D</v>
@@ -15490,8 +15829,11 @@
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
       <c r="V102" s="7"/>
-    </row>
-    <row r="103" spans="1:22">
+      <c r="W102" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>Dragon</v>
@@ -15555,8 +15897,11 @@
       </c>
       <c r="U103" s="6"/>
       <c r="V103" s="7"/>
-    </row>
-    <row r="104" spans="1:22">
+      <c r="W103" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>Great-D</v>
@@ -15622,8 +15967,11 @@
         <v>139</v>
       </c>
       <c r="V104" s="7"/>
-    </row>
-    <row r="105" spans="1:22">
+      <c r="W104" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>Sei-Ryu</v>
@@ -15691,8 +16039,11 @@
       <c r="V105" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" spans="1:22">
+      <c r="W105" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>BabyWyrm</v>
@@ -15748,8 +16099,11 @@
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
       <c r="V106" s="7"/>
-    </row>
-    <row r="107" spans="1:22">
+      <c r="W106" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>Wyrm Kid</v>
@@ -15807,8 +16161,11 @@
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
       <c r="V107" s="7"/>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="W107" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>Wyvern</v>
@@ -15870,8 +16227,11 @@
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
       <c r="V108" s="7"/>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="W108" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>Wyrm</v>
@@ -15937,8 +16297,11 @@
         <v>139</v>
       </c>
       <c r="V109" s="7"/>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="W109" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>FengLung</v>
@@ -16006,8 +16369,11 @@
       <c r="V110" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="111" spans="1:22">
+      <c r="W110" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>Eagle</v>
@@ -16063,8 +16429,11 @@
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
       <c r="V111" s="7"/>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="W111" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>Thunder</v>
@@ -16124,8 +16493,11 @@
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
       <c r="V112" s="7"/>
-    </row>
-    <row r="113" spans="1:22">
+      <c r="W112" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>Cocatris</v>
@@ -16189,8 +16561,11 @@
       </c>
       <c r="U113" s="6"/>
       <c r="V113" s="7"/>
-    </row>
-    <row r="114" spans="1:22">
+      <c r="W113" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>Roc</v>
@@ -16256,8 +16631,11 @@
         <v>139</v>
       </c>
       <c r="V114" s="7"/>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="W114" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>Su-Zaku</v>
@@ -16325,8 +16703,11 @@
       <c r="V115" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="116" spans="1:22">
+      <c r="W115" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>Raven</v>
@@ -16384,8 +16765,11 @@
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
       <c r="V116" s="7"/>
-    </row>
-    <row r="117" spans="1:22">
+      <c r="W116" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>Harpy</v>
@@ -16445,8 +16829,11 @@
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
       <c r="V117" s="7"/>
-    </row>
-    <row r="118" spans="1:22">
+      <c r="W117" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>Ten-Gu</v>
@@ -16510,8 +16897,11 @@
       </c>
       <c r="U118" s="6"/>
       <c r="V118" s="7"/>
-    </row>
-    <row r="119" spans="1:22">
+      <c r="W118" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>Garuda</v>
@@ -16577,8 +16967,11 @@
         <v>139</v>
       </c>
       <c r="V119" s="7"/>
-    </row>
-    <row r="120" spans="1:22">
+      <c r="W119" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>Nike</v>
@@ -16646,8 +17039,11 @@
       <c r="V120" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="121" spans="1:22">
+      <c r="W120" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>Jaguar</v>
@@ -16701,8 +17097,11 @@
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
       <c r="V121" s="7"/>
-    </row>
-    <row r="122" spans="1:22">
+      <c r="W121" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>SabreCat</v>
@@ -16760,8 +17159,11 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
       <c r="V122" s="7"/>
-    </row>
-    <row r="123" spans="1:22">
+      <c r="W122" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>SnowCat</v>
@@ -16823,8 +17225,11 @@
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
       <c r="V123" s="7"/>
-    </row>
-    <row r="124" spans="1:22">
+      <c r="W123" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>BlackCat</v>
@@ -16888,8 +17293,11 @@
       </c>
       <c r="U124" s="6"/>
       <c r="V124" s="7"/>
-    </row>
-    <row r="125" spans="1:22">
+      <c r="W124" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>Byak-Ko</v>
@@ -16957,8 +17365,11 @@
       <c r="V125" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="126" spans="1:22">
+      <c r="W125" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>Silver</v>
@@ -17014,8 +17425,11 @@
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
       <c r="V126" s="7"/>
-    </row>
-    <row r="127" spans="1:22">
+      <c r="W126" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>Kelpie</v>
@@ -17073,8 +17487,11 @@
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
       <c r="V127" s="7"/>
-    </row>
-    <row r="128" spans="1:22">
+      <c r="W127" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>Nitemare</v>
@@ -17138,8 +17555,11 @@
       </c>
       <c r="U128" s="6"/>
       <c r="V128" s="7"/>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="W128" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>Sleipnir</v>
@@ -17205,8 +17625,11 @@
         <v>70</v>
       </c>
       <c r="V129" s="7"/>
-    </row>
-    <row r="130" spans="1:22">
+      <c r="W129" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
         <v>Unicorn</v>
@@ -17274,8 +17697,11 @@
       <c r="V130" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="131" spans="1:22">
+      <c r="W130" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" t="str">
         <f t="shared" ref="A131:A194" si="2">B131</f>
         <v>Griffon</v>
@@ -17333,8 +17759,11 @@
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
       <c r="V131" s="7"/>
-    </row>
-    <row r="132" spans="1:22">
+      <c r="W131" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>Mantcore</v>
@@ -17396,8 +17825,11 @@
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
       <c r="V132" s="7"/>
-    </row>
-    <row r="133" spans="1:22">
+      <c r="W132" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>Chimera</v>
@@ -17461,8 +17893,11 @@
       </c>
       <c r="U133" s="6"/>
       <c r="V133" s="7"/>
-    </row>
-    <row r="134" spans="1:22">
+      <c r="W133" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>Sphinx</v>
@@ -17528,8 +17963,11 @@
         <v>139</v>
       </c>
       <c r="V134" s="7"/>
-    </row>
-    <row r="135" spans="1:22">
+      <c r="W134" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>Kirin</v>
@@ -17597,8 +18035,11 @@
       <c r="V135" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="136" spans="1:22">
+      <c r="W135" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>Fly</v>
@@ -17656,8 +18097,11 @@
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
       <c r="V136" s="7"/>
-    </row>
-    <row r="137" spans="1:22">
+      <c r="W136" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>Hornet</v>
@@ -17719,8 +18163,11 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="7"/>
-    </row>
-    <row r="138" spans="1:22">
+      <c r="W137" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>Mosquito</v>
@@ -17784,8 +18231,11 @@
       </c>
       <c r="U138" s="6"/>
       <c r="V138" s="7"/>
-    </row>
-    <row r="139" spans="1:22">
+      <c r="W138" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>Cicada</v>
@@ -17853,8 +18303,11 @@
       <c r="V139" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="140" spans="1:22">
+      <c r="W139" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>Mantis</v>
@@ -17922,8 +18375,11 @@
       <c r="V140" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:22">
+      <c r="W140" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>WereRat</v>
@@ -17979,8 +18435,11 @@
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
       <c r="V141" s="7"/>
-    </row>
-    <row r="142" spans="1:22">
+      <c r="W141" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>WereWolf</v>
@@ -18040,8 +18499,11 @@
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
       <c r="V142" s="7"/>
-    </row>
-    <row r="143" spans="1:22">
+      <c r="W142" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>CatWoman</v>
@@ -18105,8 +18567,11 @@
       </c>
       <c r="U143" s="6"/>
       <c r="V143" s="7"/>
-    </row>
-    <row r="144" spans="1:22">
+      <c r="W143" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>Rakshasa</v>
@@ -18172,8 +18637,11 @@
         <v>33</v>
       </c>
       <c r="V144" s="7"/>
-    </row>
-    <row r="145" spans="1:22">
+      <c r="W144" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>Anubis</v>
@@ -18241,8 +18709,11 @@
       <c r="V145" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="146" spans="1:22">
+      <c r="W145" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>Medusa</v>
@@ -18300,8 +18771,11 @@
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
       <c r="V146" s="7"/>
-    </row>
-    <row r="147" spans="1:22">
+      <c r="W146" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>Lamia</v>
@@ -18363,8 +18837,11 @@
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="7"/>
-    </row>
-    <row r="148" spans="1:22">
+      <c r="W147" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>Naga</v>
@@ -18428,8 +18905,11 @@
       </c>
       <c r="U148" s="6"/>
       <c r="V148" s="7"/>
-    </row>
-    <row r="149" spans="1:22">
+      <c r="W148" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>Scylla</v>
@@ -18495,8 +18975,11 @@
         <v>55</v>
       </c>
       <c r="V149" s="7"/>
-    </row>
-    <row r="150" spans="1:22">
+      <c r="W149" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>Lilith</v>
@@ -18564,8 +19047,11 @@
       <c r="V150" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="151" spans="1:22">
+      <c r="W150" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>Goblin</v>
@@ -18619,8 +19105,11 @@
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
       <c r="V151" s="7"/>
-    </row>
-    <row r="152" spans="1:22">
+      <c r="W151" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>Oni</v>
@@ -18676,8 +19165,11 @@
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
       <c r="V152" s="7"/>
-    </row>
-    <row r="153" spans="1:22">
+      <c r="W152" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>Ogre</v>
@@ -18739,8 +19231,11 @@
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
       <c r="V153" s="7"/>
-    </row>
-    <row r="154" spans="1:22">
+      <c r="W153" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>Giant</v>
@@ -18806,8 +19301,11 @@
         <v>160</v>
       </c>
       <c r="V154" s="7"/>
-    </row>
-    <row r="155" spans="1:22">
+      <c r="W154" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>Susano-O</v>
@@ -18875,8 +19373,11 @@
       <c r="V155" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="156" spans="1:22">
+      <c r="W155" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>Fiend</v>
@@ -18932,8 +19433,11 @@
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
       <c r="V156" s="7"/>
-    </row>
-    <row r="157" spans="1:22">
+      <c r="W156" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>Mephisto</v>
@@ -18995,8 +19499,11 @@
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
       <c r="V157" s="7"/>
-    </row>
-    <row r="158" spans="1:22">
+      <c r="W157" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>Demon</v>
@@ -19060,8 +19567,11 @@
       </c>
       <c r="U158" s="6"/>
       <c r="V158" s="7"/>
-    </row>
-    <row r="159" spans="1:22">
+      <c r="W158" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>DemoLoad</v>
@@ -19127,8 +19637,11 @@
         <v>139</v>
       </c>
       <c r="V159" s="7"/>
-    </row>
-    <row r="160" spans="1:22">
+      <c r="W159" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>Athtalot</v>
@@ -19196,8 +19709,11 @@
       <c r="V160" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="161" spans="1:22">
+      <c r="W160" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>Sprite</v>
@@ -19257,8 +19773,11 @@
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
       <c r="V161" s="7"/>
-    </row>
-    <row r="162" spans="1:22">
+      <c r="W161" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>Fairy</v>
@@ -19320,8 +19839,11 @@
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="7"/>
-    </row>
-    <row r="163" spans="1:22">
+      <c r="W162" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>Nymph</v>
@@ -19385,8 +19907,11 @@
       </c>
       <c r="U163" s="6"/>
       <c r="V163" s="7"/>
-    </row>
-    <row r="164" spans="1:22">
+      <c r="W163" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>Sylph</v>
@@ -19452,8 +19977,11 @@
         <v>139</v>
       </c>
       <c r="V164" s="7"/>
-    </row>
-    <row r="165" spans="1:22">
+      <c r="W164" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>Titania</v>
@@ -19521,8 +20049,11 @@
       <c r="V165" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="166" spans="1:22">
+      <c r="W165" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>Skelton</v>
@@ -19580,8 +20111,11 @@
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
       <c r="V166" s="7"/>
-    </row>
-    <row r="167" spans="1:22">
+      <c r="W166" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>Red Bone</v>
@@ -19641,8 +20175,11 @@
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
       <c r="V167" s="7"/>
-    </row>
-    <row r="168" spans="1:22">
+      <c r="W167" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>Warrior</v>
@@ -19706,8 +20243,11 @@
       </c>
       <c r="U168" s="6"/>
       <c r="V168" s="7"/>
-    </row>
-    <row r="169" spans="1:22">
+      <c r="W168" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>BoneKing</v>
@@ -19773,8 +20313,11 @@
         <v>42</v>
       </c>
       <c r="V169" s="7"/>
-    </row>
-    <row r="170" spans="1:22">
+      <c r="W169" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>Lich</v>
@@ -19842,8 +20385,11 @@
       <c r="V170" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="171" spans="1:22">
+      <c r="W170" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>Zombie</v>
@@ -19901,8 +20447,11 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="7"/>
-    </row>
-    <row r="172" spans="1:22">
+      <c r="W171" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>Ghoul</v>
@@ -19962,8 +20511,11 @@
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
       <c r="V172" s="7"/>
-    </row>
-    <row r="173" spans="1:22">
+      <c r="W172" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>Ghast</v>
@@ -20029,8 +20581,11 @@
         <v>60</v>
       </c>
       <c r="V173" s="7"/>
-    </row>
-    <row r="174" spans="1:22">
+      <c r="W173" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>Wight</v>
@@ -20096,8 +20651,11 @@
         <v>42</v>
       </c>
       <c r="V174" s="7"/>
-    </row>
-    <row r="175" spans="1:22">
+      <c r="W174" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>Revenant</v>
@@ -20165,8 +20723,11 @@
       <c r="V175" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="176" spans="1:22">
+      <c r="W175" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>O-Bake</v>
@@ -20226,8 +20787,11 @@
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
       <c r="V176" s="7"/>
-    </row>
-    <row r="177" spans="1:22">
+      <c r="W176" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>Phantom</v>
@@ -20289,8 +20853,11 @@
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
       <c r="V177" s="7"/>
-    </row>
-    <row r="178" spans="1:22">
+      <c r="W177" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>Wraith</v>
@@ -20354,8 +20921,11 @@
       </c>
       <c r="U178" s="6"/>
       <c r="V178" s="7"/>
-    </row>
-    <row r="179" spans="1:22">
+      <c r="W178" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>Spector</v>
@@ -20421,8 +20991,11 @@
         <v>139</v>
       </c>
       <c r="V179" s="7"/>
-    </row>
-    <row r="180" spans="1:22">
+      <c r="W179" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>Ghost</v>
@@ -20490,8 +21063,11 @@
       <c r="V180" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="181" spans="1:22">
+      <c r="W180" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>Asigaru</v>
@@ -20545,8 +21121,11 @@
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
       <c r="V181" s="7"/>
-    </row>
-    <row r="182" spans="1:22">
+      <c r="W181" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>Samurai</v>
@@ -20602,8 +21181,11 @@
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
       <c r="V182" s="7"/>
-    </row>
-    <row r="183" spans="1:22">
+      <c r="W182" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>Ninja</v>
@@ -20667,8 +21249,11 @@
       </c>
       <c r="U183" s="6"/>
       <c r="V183" s="7"/>
-    </row>
-    <row r="184" spans="1:22">
+      <c r="W183" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>Musashi</v>
@@ -20734,8 +21319,11 @@
         <v>547</v>
       </c>
       <c r="V184" s="10"/>
-    </row>
-    <row r="185" spans="1:22">
+      <c r="W184" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>Hatamoto</v>
@@ -20795,8 +21383,11 @@
       <c r="T185" s="14"/>
       <c r="U185" s="9"/>
       <c r="V185" s="10"/>
-    </row>
-    <row r="186" spans="1:22">
+      <c r="W185" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>Gang</v>
@@ -20850,8 +21441,11 @@
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
       <c r="V186" s="7"/>
-    </row>
-    <row r="187" spans="1:22">
+      <c r="W186" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>Wh. Belt</v>
@@ -20909,8 +21503,11 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="7"/>
-    </row>
-    <row r="188" spans="1:22">
+      <c r="W187" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>Killer</v>
@@ -20974,8 +21571,11 @@
       </c>
       <c r="U188" s="6"/>
       <c r="V188" s="7"/>
-    </row>
-    <row r="189" spans="1:22">
+      <c r="W188" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>Bl. Belt</v>
@@ -21041,8 +21641,11 @@
         <v>569</v>
       </c>
       <c r="V189" s="10"/>
-    </row>
-    <row r="190" spans="1:22">
+      <c r="W189" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>TianLung</v>
@@ -21104,8 +21707,11 @@
       <c r="T190" s="9"/>
       <c r="U190" s="9"/>
       <c r="V190" s="10"/>
-    </row>
-    <row r="191" spans="1:22">
+      <c r="W190" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>Trooper</v>
@@ -21161,8 +21767,11 @@
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>
       <c r="V191" s="7"/>
-    </row>
-    <row r="192" spans="1:22">
+      <c r="W191" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>Guard</v>
@@ -21220,8 +21829,11 @@
       <c r="T192" s="6"/>
       <c r="U192" s="6"/>
       <c r="V192" s="7"/>
-    </row>
-    <row r="193" spans="1:22">
+      <c r="W192" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>Knight</v>
@@ -21285,8 +21897,11 @@
       </c>
       <c r="U193" s="6"/>
       <c r="V193" s="7"/>
-    </row>
-    <row r="194" spans="1:22">
+      <c r="W193" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23">
       <c r="A194" t="str">
         <f t="shared" si="2"/>
         <v>Paladin</v>
@@ -21352,8 +21967,11 @@
         <v>597</v>
       </c>
       <c r="V194" s="10"/>
-    </row>
-    <row r="195" spans="1:22">
+      <c r="W194" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23">
       <c r="A195" t="str">
         <f t="shared" ref="A195:A252" si="3">B195</f>
         <v>Fenrir</v>
@@ -21415,8 +22033,11 @@
       <c r="T195" s="9"/>
       <c r="U195" s="9"/>
       <c r="V195" s="10"/>
-    </row>
-    <row r="196" spans="1:22">
+      <c r="W195" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>Terorist</v>
@@ -21472,8 +22093,11 @@
       <c r="T196" s="6"/>
       <c r="U196" s="6"/>
       <c r="V196" s="7"/>
-    </row>
-    <row r="197" spans="1:22">
+      <c r="W196" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>Mercenar</v>
@@ -21533,8 +22157,11 @@
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
       <c r="V197" s="7"/>
-    </row>
-    <row r="198" spans="1:22">
+      <c r="W197" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>Commando</v>
@@ -21598,8 +22225,11 @@
       </c>
       <c r="U198" s="6"/>
       <c r="V198" s="7"/>
-    </row>
-    <row r="199" spans="1:22">
+      <c r="W198" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>SS</v>
@@ -21665,8 +22295,11 @@
         <v>614</v>
       </c>
       <c r="V199" s="10"/>
-    </row>
-    <row r="200" spans="1:22">
+      <c r="W199" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>EchigoYa</v>
@@ -21724,8 +22357,11 @@
       <c r="T200" s="9"/>
       <c r="U200" s="9"/>
       <c r="V200" s="10"/>
-    </row>
-    <row r="201" spans="1:22">
+      <c r="W200" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>Conjurer</v>
@@ -21781,8 +22417,11 @@
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="7"/>
-    </row>
-    <row r="202" spans="1:22">
+      <c r="W201" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>Magician</v>
@@ -21842,8 +22481,11 @@
       <c r="T202" s="6"/>
       <c r="U202" s="6"/>
       <c r="V202" s="7"/>
-    </row>
-    <row r="203" spans="1:22">
+      <c r="W202" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>Sorcerer</v>
@@ -21907,8 +22549,11 @@
       </c>
       <c r="U203" s="6"/>
       <c r="V203" s="7"/>
-    </row>
-    <row r="204" spans="1:22">
+      <c r="W203" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>Wizard</v>
@@ -21974,8 +22619,11 @@
         <v>645</v>
       </c>
       <c r="V204" s="10"/>
-    </row>
-    <row r="205" spans="1:22">
+      <c r="W204" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>ROBO-28</v>
@@ -22031,8 +22679,11 @@
       <c r="T205" s="12"/>
       <c r="U205" s="12"/>
       <c r="V205" s="16"/>
-    </row>
-    <row r="206" spans="1:22">
+      <c r="W205" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>ROBO-Z</v>
@@ -22092,8 +22743,11 @@
       <c r="T206" s="6"/>
       <c r="U206" s="6"/>
       <c r="V206" s="7"/>
-    </row>
-    <row r="207" spans="1:22">
+      <c r="W206" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>Ridean</v>
@@ -22157,8 +22811,11 @@
       </c>
       <c r="U207" s="6"/>
       <c r="V207" s="7"/>
-    </row>
-    <row r="208" spans="1:22">
+      <c r="W207" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>G-7</v>
@@ -22224,8 +22881,11 @@
         <v>42</v>
       </c>
       <c r="V208" s="10"/>
-    </row>
-    <row r="209" spans="1:22">
+      <c r="W208" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>Dunatis</v>
@@ -22285,8 +22945,11 @@
       <c r="T209" s="9"/>
       <c r="U209" s="9"/>
       <c r="V209" s="10"/>
-    </row>
-    <row r="210" spans="1:22">
+      <c r="W209" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>MechBug</v>
@@ -22344,8 +23007,11 @@
       <c r="T210" s="6"/>
       <c r="U210" s="6"/>
       <c r="V210" s="7"/>
-    </row>
-    <row r="211" spans="1:22">
+      <c r="W210" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>Hawk</v>
@@ -22405,8 +23071,11 @@
       <c r="T211" s="6"/>
       <c r="U211" s="6"/>
       <c r="V211" s="7"/>
-    </row>
-    <row r="212" spans="1:22">
+      <c r="W211" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>Falcon</v>
@@ -22470,8 +23139,11 @@
       </c>
       <c r="U212" s="6"/>
       <c r="V212" s="7"/>
-    </row>
-    <row r="213" spans="1:22">
+      <c r="W212" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>Intrcept</v>
@@ -22537,8 +23209,11 @@
         <v>42</v>
       </c>
       <c r="V213" s="10"/>
-    </row>
-    <row r="214" spans="1:22">
+      <c r="W213" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>Plasma</v>
@@ -22594,8 +23269,11 @@
       <c r="T214" s="12"/>
       <c r="U214" s="12"/>
       <c r="V214" s="16"/>
-    </row>
-    <row r="215" spans="1:22">
+      <c r="W214" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>Phagocyt</v>
@@ -22653,8 +23331,11 @@
       <c r="T215" s="6"/>
       <c r="U215" s="6"/>
       <c r="V215" s="7"/>
-    </row>
-    <row r="216" spans="1:22">
+      <c r="W215" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>Corpuscl</v>
@@ -22718,8 +23399,11 @@
       </c>
       <c r="U216" s="6"/>
       <c r="V216" s="7"/>
-    </row>
-    <row r="217" spans="1:22">
+      <c r="W216" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>Cancer</v>
@@ -22785,8 +23469,11 @@
         <v>38</v>
       </c>
       <c r="V217" s="10"/>
-    </row>
-    <row r="218" spans="1:22">
+      <c r="W217" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>Grippe</v>
@@ -22842,8 +23529,11 @@
       <c r="T218" s="12"/>
       <c r="U218" s="12"/>
       <c r="V218" s="16"/>
-    </row>
-    <row r="219" spans="1:22">
+      <c r="W218" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>Virus</v>
@@ -22901,8 +23591,11 @@
       <c r="T219" s="6"/>
       <c r="U219" s="6"/>
       <c r="V219" s="7"/>
-    </row>
-    <row r="220" spans="1:22">
+      <c r="W219" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>Pathogen</v>
@@ -22964,8 +23657,11 @@
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
       <c r="V220" s="7"/>
-    </row>
-    <row r="221" spans="1:22">
+      <c r="W220" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>Plague</v>
@@ -23031,8 +23727,11 @@
         <v>60</v>
       </c>
       <c r="V221" s="10"/>
-    </row>
-    <row r="222" spans="1:22">
+      <c r="W221" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>Teacher</v>
@@ -23090,8 +23789,11 @@
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="7"/>
-    </row>
-    <row r="223" spans="1:22">
+      <c r="W222" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v>Cleric</v>
@@ -23157,8 +23859,11 @@
         <v>700</v>
       </c>
       <c r="V223" s="7"/>
-    </row>
-    <row r="224" spans="1:22">
+      <c r="W223" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v>Unknown</v>
@@ -23220,8 +23925,11 @@
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
       <c r="V224" s="7"/>
-    </row>
-    <row r="225" spans="1:22">
+      <c r="W224" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v>Girl1</v>
@@ -23277,8 +23985,11 @@
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="7"/>
-    </row>
-    <row r="226" spans="1:22">
+      <c r="W225" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v>Guardian</v>
@@ -23340,8 +24051,11 @@
       <c r="T226" s="6"/>
       <c r="U226" s="6"/>
       <c r="V226" s="7"/>
-    </row>
-    <row r="227" spans="1:22">
+      <c r="W226" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v>Girl2</v>
@@ -23397,8 +24111,11 @@
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
       <c r="V227" s="7"/>
-    </row>
-    <row r="228" spans="1:22">
+      <c r="W227" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v>Detectiv</v>
@@ -23458,8 +24175,11 @@
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
       <c r="V228" s="7"/>
-    </row>
-    <row r="229" spans="1:22">
+      <c r="W228" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v>Samurai</v>
@@ -23523,8 +24243,11 @@
       </c>
       <c r="U229" s="6"/>
       <c r="V229" s="7"/>
-    </row>
-    <row r="230" spans="1:22">
+      <c r="W229" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v>Guardian</v>
@@ -23588,8 +24311,11 @@
       </c>
       <c r="U230" s="6"/>
       <c r="V230" s="7"/>
-    </row>
-    <row r="231" spans="1:22">
+      <c r="W230" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v>Ancient</v>
@@ -23657,8 +24383,11 @@
       <c r="V231" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="232" spans="1:22">
+      <c r="W231" s="126" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v>Haniwa</v>
@@ -23722,8 +24451,11 @@
       </c>
       <c r="U232" s="6"/>
       <c r="V232" s="7"/>
-    </row>
-    <row r="233" spans="1:22">
+      <c r="W232" s="126" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v>Dolphin</v>
@@ -23791,8 +24523,11 @@
       <c r="V233" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="234" spans="1:22">
+      <c r="W233" s="126" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v>OdinCrow</v>
@@ -23858,8 +24593,11 @@
         <v>139</v>
       </c>
       <c r="V234" s="7"/>
-    </row>
-    <row r="235" spans="1:22">
+      <c r="W234" s="126" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v>WarMach</v>
@@ -23921,8 +24659,11 @@
       <c r="T235" s="9"/>
       <c r="U235" s="9"/>
       <c r="V235" s="10"/>
-    </row>
-    <row r="236" spans="1:22">
+      <c r="W235" s="126" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v>Human  M</v>
@@ -23978,8 +24719,11 @@
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
       <c r="V236" s="7"/>
-    </row>
-    <row r="237" spans="1:22">
+      <c r="W236" s="126" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v>Human  F</v>
@@ -24035,8 +24779,11 @@
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="7"/>
-    </row>
-    <row r="238" spans="1:22">
+      <c r="W237" s="126" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
         <v>Mutant M</v>
@@ -24094,8 +24841,11 @@
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
       <c r="V238" s="7"/>
-    </row>
-    <row r="239" spans="1:22">
+      <c r="W238" s="126" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
         <v>Mutant F</v>
@@ -24153,8 +24903,11 @@
       <c r="T239" s="6"/>
       <c r="U239" s="6"/>
       <c r="V239" s="7"/>
-    </row>
-    <row r="240" spans="1:22">
+      <c r="W239" s="126" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
         <v>Robot</v>
@@ -24210,8 +24963,11 @@
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
       <c r="V240" s="7"/>
-    </row>
-    <row r="241" spans="1:22">
+      <c r="W240" s="126" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
         <v>Slime</v>
@@ -24267,8 +25023,11 @@
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
       <c r="V241" s="7"/>
-    </row>
-    <row r="242" spans="1:22">
+      <c r="W241" s="126" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
         <v>Baby-D</v>
@@ -24326,8 +25085,11 @@
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
       <c r="V242" s="7"/>
-    </row>
-    <row r="243" spans="1:22">
+      <c r="W242" s="126" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
         <v>Imp</v>
@@ -24383,8 +25145,11 @@
       <c r="T243" s="9"/>
       <c r="U243" s="9"/>
       <c r="V243" s="10"/>
-    </row>
-    <row r="244" spans="1:22">
+      <c r="W243" s="126" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
         <v>Ashura</v>
@@ -24446,8 +25211,11 @@
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
       <c r="V244" s="7"/>
-    </row>
-    <row r="245" spans="1:22">
+      <c r="W244" s="126" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
         <v>Venus</v>
@@ -24509,8 +25277,11 @@
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
       <c r="V245" s="7"/>
-    </row>
-    <row r="246" spans="1:22">
+      <c r="W245" s="126" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
         <v>Sho-gun</v>
@@ -24572,8 +25343,11 @@
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
       <c r="V246" s="7"/>
-    </row>
-    <row r="247" spans="1:22">
+      <c r="W246" s="126" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
         <v>Magnate</v>
@@ -24637,8 +25411,11 @@
       </c>
       <c r="U247" s="6"/>
       <c r="V247" s="7"/>
-    </row>
-    <row r="248" spans="1:22">
+      <c r="W247" s="126" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
         <v>Odin</v>
@@ -24700,8 +25477,11 @@
       <c r="T248" s="6"/>
       <c r="U248" s="6"/>
       <c r="V248" s="7"/>
-    </row>
-    <row r="249" spans="1:22">
+      <c r="W248" s="126" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
         <v>Minion</v>
@@ -24763,8 +25543,11 @@
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
       <c r="V249" s="7"/>
-    </row>
-    <row r="250" spans="1:22">
+      <c r="W249" s="126" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
         <v>Apollo</v>
@@ -24816,8 +25599,11 @@
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
       <c r="V250" s="7"/>
-    </row>
-    <row r="251" spans="1:22">
+      <c r="W250" s="126" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
         <v>Arsenal</v>
@@ -24869,8 +25655,11 @@
       <c r="T251" s="9"/>
       <c r="U251" s="9"/>
       <c r="V251" s="10"/>
-    </row>
-    <row r="252" spans="1:22">
+      <c r="W251" s="126" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
         <v>Jerk</v>
@@ -24906,6 +25695,9 @@
         <v>441</v>
       </c>
       <c r="P252" s="126"/>
+      <c r="W252" s="126" t="s">
+        <v>2596</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A252">
@@ -35103,12 +35895,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AA258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35203,7 +35995,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" hidden="1">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">B2</f>
         <v>Hammer</v>
@@ -35258,7 +36050,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" hidden="1">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Long Sword</v>
@@ -35315,7 +36107,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" hidden="1">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Axe</v>
@@ -35372,7 +36164,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" hidden="1">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Battle Sword</v>
@@ -35429,7 +36221,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" hidden="1">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Katana</v>
@@ -35486,7 +36278,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" hidden="1">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Gold Sword</v>
@@ -35969,7 +36761,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" hidden="1">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Defend Sword</v>
@@ -36034,7 +36826,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" hidden="1">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Rune Axe</v>
@@ -36145,7 +36937,7 @@
         <v>5</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S17" t="s">
         <v>2345</v>
@@ -36160,7 +36952,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" hidden="1">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -36227,7 +37019,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" hidden="1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Shield</v>
@@ -36281,7 +37073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" hidden="1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Silver Shield</v>
@@ -36335,7 +37127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" hidden="1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Gold Shield</v>
@@ -36389,7 +37181,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" hidden="1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Flame Shield</v>
@@ -36446,7 +37238,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" hidden="1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Ice Shield</v>
@@ -36503,7 +37295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" hidden="1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Shield</v>
@@ -36560,7 +37352,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" hidden="1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Cure Potion</v>
@@ -36617,7 +37409,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" hidden="1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>X-Cure Potion</v>
@@ -36674,7 +37466,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" hidden="1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Curse Potion</v>
@@ -36728,7 +37520,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" hidden="1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EyeDrop</v>
@@ -36782,7 +37574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" hidden="1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Abacus</v>
@@ -36837,7 +37629,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" hidden="1">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Xcalibr Sword</v>
@@ -36902,7 +37694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" hidden="1">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
@@ -36966,7 +37758,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" hidden="1">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Cure Book</v>
@@ -37326,7 +38118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Sleep Book</v>
@@ -37383,7 +38175,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Stone Book</v>
@@ -37560,7 +38352,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" hidden="1">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Wizard Staff</v>
@@ -37617,7 +38409,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" hidden="1">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Heal Staff</v>
@@ -37677,7 +38469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" hidden="1">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Flare Book</v>
@@ -37734,7 +38526,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" hidden="1">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Helm</v>
@@ -37778,7 +38570,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" hidden="1">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Silver Helm</v>
@@ -37822,7 +38614,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" hidden="1">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Gold Helm</v>
@@ -37866,7 +38658,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" hidden="1">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Helm</v>
@@ -37913,7 +38705,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" hidden="1">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Armor</v>
@@ -37957,7 +38749,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" hidden="1">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Silver Armor</v>
@@ -38001,7 +38793,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" hidden="1">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Gold Armor</v>
@@ -38045,7 +38837,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" hidden="1">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Armor</v>
@@ -38092,7 +38884,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" hidden="1">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Arthur Armor</v>
@@ -38139,7 +38931,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" hidden="1">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Glove</v>
@@ -38183,7 +38975,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" hidden="1">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Silver Glove</v>
@@ -38227,7 +39019,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" hidden="1">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Gold Glove</v>
@@ -38271,7 +39063,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" hidden="1">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Giant Glove</v>
@@ -38315,7 +39107,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" hidden="1">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Ninja Glove</v>
@@ -38362,7 +39154,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" hidden="1">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Hermes Boot</v>
@@ -38406,7 +39198,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" hidden="1">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Hecate Boot</v>
@@ -38450,7 +39242,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" hidden="1">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Elixier</v>
@@ -38502,7 +39294,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" hidden="1">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Soft Potion</v>
@@ -38556,7 +39348,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" hidden="1">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Power Potion</v>
@@ -38600,7 +39392,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" hidden="1">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Speed Potion</v>
@@ -38644,7 +39436,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" hidden="1">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Magic Potion</v>
@@ -38688,7 +39480,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" hidden="1">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="6">B66</f>
         <v>Body Potion</v>
@@ -38732,7 +39524,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" hidden="1">
       <c r="A67" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Tent </v>
@@ -38774,7 +39566,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" hidden="1">
       <c r="A68" t="str">
         <f t="shared" si="6"/>
         <v>Whip</v>
@@ -38836,7 +39628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" hidden="1">
       <c r="A69" t="str">
         <f t="shared" si="6"/>
         <v>Blitz Whip</v>
@@ -38899,7 +39691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" hidden="1">
       <c r="A70" t="str">
         <f t="shared" si="6"/>
         <v>ChainSaw</v>
@@ -38954,7 +39746,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" hidden="1">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
         <v>Counter</v>
@@ -39008,7 +39800,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" hidden="1">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
         <v>Colt Gun</v>
@@ -39079,7 +39871,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" hidden="1">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
         <v>Musket Gun</v>
@@ -39148,7 +39940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" hidden="1">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
         <v>Magnum Gun</v>
@@ -39217,7 +40009,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" hidden="1">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
         <v>Chop Art</v>
@@ -39276,7 +40068,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" hidden="1">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
         <v>Kick Art</v>
@@ -39332,7 +40124,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" hidden="1">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
         <v>HeadBut Art</v>
@@ -39388,7 +40180,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" hidden="1">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
         <v>X-Kick Art</v>
@@ -39444,7 +40236,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" hidden="1">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
         <v>Jyudo Art</v>
@@ -39500,7 +40292,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" hidden="1">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
         <v>Karate Art</v>
@@ -39558,7 +40350,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" hidden="1">
       <c r="A81" t="str">
         <f t="shared" si="6"/>
         <v>Temptat</v>
@@ -39613,7 +40405,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" hidden="1">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
         <v>StunGun</v>
@@ -39670,7 +40462,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" hidden="1">
       <c r="A83" t="str">
         <f t="shared" si="6"/>
         <v>Heat</v>
@@ -39719,7 +40511,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" hidden="1">
       <c r="A84" t="str">
         <f t="shared" si="6"/>
         <v>ComVirus</v>
@@ -39774,7 +40566,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" hidden="1">
       <c r="A85" t="str">
         <f t="shared" si="6"/>
         <v>DNA</v>
@@ -39823,7 +40615,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" hidden="1">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
         <v>SMG Gun</v>
@@ -39888,7 +40680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" hidden="1">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
         <v>Grenade</v>
@@ -39950,7 +40742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" hidden="1">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
         <v>Bazooka Cannon</v>
@@ -40013,7 +40805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" hidden="1">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
         <v>Vulcan Cannon</v>
@@ -40076,7 +40868,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" hidden="1">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
         <v>Tank Cannon</v>
@@ -40213,7 +41005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" hidden="1">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
         <v>Missile Cannon</v>
@@ -40275,7 +41067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" hidden="1">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
         <v>NukeBomb</v>
@@ -40337,7 +41129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" hidden="1">
       <c r="A94" t="str">
         <f t="shared" si="6"/>
         <v>Giant Armor</v>
@@ -40381,7 +41173,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" hidden="1">
       <c r="A95" t="str">
         <f t="shared" si="6"/>
         <v>Army Helm</v>
@@ -40425,7 +41217,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" hidden="1">
       <c r="A96" t="str">
         <f t="shared" si="6"/>
         <v>Army Armor</v>
@@ -40469,7 +41261,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" hidden="1">
       <c r="A97" t="str">
         <f t="shared" si="6"/>
         <v>Geta Boot</v>
@@ -40513,7 +41305,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" hidden="1">
       <c r="A98" t="str">
         <f t="shared" si="6"/>
         <v>Sypha</v>
@@ -40568,7 +41360,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" hidden="1">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
         <v>Coin</v>
@@ -40633,7 +41425,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" hidden="1">
       <c r="A100" t="str">
         <f t="shared" si="6"/>
         <v>Kimono Armor</v>
@@ -40677,7 +41469,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" hidden="1">
       <c r="A101" t="str">
         <f t="shared" si="6"/>
         <v>Samurai Shield</v>
@@ -40791,7 +41583,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" hidden="1">
       <c r="A103" t="str">
         <f t="shared" si="6"/>
         <v>Gungnir Spear</v>
@@ -40902,7 +41694,7 @@
         <v>5</v>
       </c>
       <c r="R104">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="S104" t="s">
         <v>2345</v>
@@ -40917,7 +41709,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" hidden="1">
       <c r="A105" t="str">
         <f t="shared" si="6"/>
         <v>Psi Knife</v>
@@ -40974,7 +41766,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" hidden="1">
       <c r="A106" t="str">
         <f t="shared" si="6"/>
         <v>Psi Sword</v>
@@ -41031,7 +41823,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" hidden="1">
       <c r="A107" t="str">
         <f t="shared" si="6"/>
         <v>Laser Gun</v>
@@ -41091,7 +41883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" hidden="1">
       <c r="A108" t="str">
         <f t="shared" si="6"/>
         <v>SpeedUp</v>
@@ -41146,7 +41938,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" hidden="1">
       <c r="A109" t="str">
         <f t="shared" si="6"/>
         <v>Rocket</v>
@@ -41211,7 +42003,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" hidden="1">
       <c r="A110" t="str">
         <f t="shared" si="6"/>
         <v>Psi Gun</v>
@@ -41268,7 +42060,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" hidden="1">
       <c r="A111" t="str">
         <f t="shared" si="6"/>
         <v>Giant Helm</v>
@@ -41312,7 +42104,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" hidden="1">
       <c r="A112" t="str">
         <f t="shared" si="6"/>
         <v>Hyper Cannon</v>
@@ -41368,7 +42160,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" hidden="1">
       <c r="A113" t="str">
         <f t="shared" si="6"/>
         <v>Battle Armor</v>
@@ -41412,7 +42204,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" hidden="1">
       <c r="A114" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Parasuit </v>
@@ -41457,7 +42249,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" hidden="1">
       <c r="A115" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Door </v>
@@ -41499,7 +42291,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" hidden="1">
       <c r="A116" t="str">
         <f t="shared" si="6"/>
         <v>Micron Potion</v>
@@ -41543,7 +42335,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" hidden="1">
       <c r="A117" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Key </v>
@@ -41645,7 +42437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" hidden="1">
       <c r="A119" t="str">
         <f t="shared" si="6"/>
         <v>Aegis Magi</v>
@@ -41705,7 +42497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" hidden="1">
       <c r="A120" t="str">
         <f t="shared" si="6"/>
         <v>Heart Magi</v>
@@ -41759,7 +42551,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" hidden="1">
       <c r="A121" t="str">
         <f t="shared" si="6"/>
         <v>Pegasus Magi</v>
@@ -41804,7 +42596,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" hidden="1">
       <c r="A122" t="str">
         <f t="shared" si="6"/>
         <v>Selfix</v>
@@ -41852,7 +42644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" hidden="1">
       <c r="A123" t="str">
         <f t="shared" si="6"/>
         <v>Seven Sword</v>
@@ -41912,7 +42704,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" hidden="1">
       <c r="A124" t="str">
         <f t="shared" si="6"/>
         <v>Nail</v>
@@ -41967,7 +42759,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" hidden="1">
       <c r="A125" t="str">
         <f t="shared" si="6"/>
         <v>Tusk</v>
@@ -42022,7 +42814,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" hidden="1">
       <c r="A126" t="str">
         <f t="shared" si="6"/>
         <v>Tongue</v>
@@ -42077,7 +42869,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" hidden="1">
       <c r="A127" t="str">
         <f t="shared" si="6"/>
         <v>Stab</v>
@@ -42132,7 +42924,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" hidden="1">
       <c r="A128" t="str">
         <f t="shared" si="6"/>
         <v>Branch</v>
@@ -42187,7 +42979,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" hidden="1">
       <c r="A129" t="str">
         <f t="shared" si="6"/>
         <v>Bash</v>
@@ -42242,7 +43034,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" hidden="1">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="11">B130</f>
         <v>Punch</v>
@@ -42297,7 +43089,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" hidden="1">
       <c r="A131" t="str">
         <f t="shared" si="11"/>
         <v>Kick</v>
@@ -42352,7 +43144,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" hidden="1">
       <c r="A132" t="str">
         <f t="shared" si="11"/>
         <v>Horn</v>
@@ -42407,7 +43199,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" hidden="1">
       <c r="A133" t="str">
         <f t="shared" si="11"/>
         <v>Thorn</v>
@@ -42462,7 +43254,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" hidden="1">
       <c r="A134" t="str">
         <f t="shared" si="11"/>
         <v>Sword</v>
@@ -42517,7 +43309,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" hidden="1">
       <c r="A135" t="str">
         <f t="shared" si="11"/>
         <v>Head</v>
@@ -42572,7 +43364,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" hidden="1">
       <c r="A136" t="str">
         <f t="shared" si="11"/>
         <v>Beak</v>
@@ -42627,7 +43419,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" hidden="1">
       <c r="A137" t="str">
         <f t="shared" si="11"/>
         <v>Tail</v>
@@ -42685,7 +43477,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" hidden="1">
       <c r="A138" t="str">
         <f t="shared" si="11"/>
         <v>Pincer</v>
@@ -42740,7 +43532,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" hidden="1">
       <c r="A139" t="str">
         <f t="shared" si="11"/>
         <v>Fin</v>
@@ -42795,7 +43587,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" hidden="1">
       <c r="A140" t="str">
         <f t="shared" si="11"/>
         <v>Tentacle</v>
@@ -42850,7 +43642,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" hidden="1">
       <c r="A141" t="str">
         <f t="shared" si="11"/>
         <v>W-Pincer</v>
@@ -42906,7 +43698,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" hidden="1">
       <c r="A142" t="str">
         <f t="shared" si="11"/>
         <v>W-Attack</v>
@@ -42964,7 +43756,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" hidden="1">
       <c r="A143" t="str">
         <f t="shared" si="11"/>
         <v>4-Heads</v>
@@ -43022,7 +43814,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" hidden="1">
       <c r="A144" t="str">
         <f t="shared" si="11"/>
         <v>8-Legs</v>
@@ -43080,7 +43872,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" hidden="1">
       <c r="A145" t="str">
         <f t="shared" si="11"/>
         <v>Touch</v>
@@ -43139,7 +43931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" hidden="1">
       <c r="A146" t="str">
         <f t="shared" si="11"/>
         <v>Saw</v>
@@ -43192,7 +43984,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" hidden="1">
       <c r="A147" t="str">
         <f t="shared" si="11"/>
         <v>Dissolve</v>
@@ -43251,7 +44043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" hidden="1">
       <c r="A148" t="str">
         <f t="shared" si="11"/>
         <v>Absorb</v>
@@ -43310,7 +44102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" hidden="1">
       <c r="A149" t="str">
         <f t="shared" si="11"/>
         <v>Cure</v>
@@ -43366,7 +44158,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" hidden="1">
       <c r="A150" t="str">
         <f t="shared" si="11"/>
         <v>Defense</v>
@@ -43416,7 +44208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" hidden="1">
       <c r="A151" t="str">
         <f t="shared" si="11"/>
         <v>Shell</v>
@@ -43466,7 +44258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" hidden="1">
       <c r="A152" t="str">
         <f t="shared" si="11"/>
         <v>Mirror</v>
@@ -43513,7 +44305,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" hidden="1">
       <c r="A153" t="str">
         <f t="shared" si="11"/>
         <v>Backlash</v>
@@ -43622,7 +44414,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" hidden="1">
       <c r="A155" t="str">
         <f t="shared" si="11"/>
         <v>2-Swords</v>
@@ -43678,7 +44470,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" hidden="1">
       <c r="A156" t="str">
         <f t="shared" si="11"/>
         <v>2-Tusks</v>
@@ -43734,7 +44526,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" hidden="1">
       <c r="A157" t="str">
         <f t="shared" si="11"/>
         <v>3-Heads</v>
@@ -43792,7 +44584,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" hidden="1">
       <c r="A158" t="str">
         <f t="shared" si="11"/>
         <v>3-Horns</v>
@@ -43850,7 +44642,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" hidden="1">
       <c r="A159" t="str">
         <f t="shared" si="11"/>
         <v>6-Arms</v>
@@ -43906,7 +44698,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" hidden="1">
       <c r="A160" t="str">
         <f t="shared" si="11"/>
         <v>Critical</v>
@@ -43962,7 +44754,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" hidden="1">
       <c r="A161" t="str">
         <f t="shared" si="11"/>
         <v>Axe</v>
@@ -44017,7 +44809,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" hidden="1">
       <c r="A162" t="str">
         <f t="shared" si="11"/>
         <v>Honey</v>
@@ -44073,7 +44865,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" hidden="1">
       <c r="A163" t="str">
         <f t="shared" si="11"/>
         <v>Heal</v>
@@ -44129,7 +44921,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" hidden="1">
       <c r="A164" t="str">
         <f t="shared" si="11"/>
         <v>MegaCure</v>
@@ -44189,7 +44981,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" hidden="1">
       <c r="A165" t="str">
         <f t="shared" si="11"/>
         <v>W-Kick</v>
@@ -44245,7 +45037,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" hidden="1">
       <c r="A166" t="str">
         <f t="shared" si="11"/>
         <v>ParaNail</v>
@@ -44298,7 +45090,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" hidden="1">
       <c r="A167" t="str">
         <f t="shared" si="11"/>
         <v>Wind Up</v>
@@ -44351,7 +45143,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" hidden="1">
       <c r="A168" t="str">
         <f t="shared" si="11"/>
         <v>Tie Up</v>
@@ -44404,7 +45196,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" hidden="1">
       <c r="A169" t="str">
         <f t="shared" si="11"/>
         <v>Breath</v>
@@ -44457,7 +45249,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" hidden="1">
       <c r="A170" t="str">
         <f t="shared" si="11"/>
         <v>Poison</v>
@@ -44510,7 +45302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" hidden="1">
       <c r="A171" t="str">
         <f t="shared" si="11"/>
         <v>P-Skin</v>
@@ -44563,7 +45355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" hidden="1">
       <c r="A172" t="str">
         <f t="shared" si="11"/>
         <v>ParaSkin</v>
@@ -44616,7 +45408,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" hidden="1">
       <c r="A173" t="str">
         <f t="shared" si="11"/>
         <v>Petrify</v>
@@ -44669,7 +45461,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" hidden="1">
       <c r="A174" t="str">
         <f t="shared" si="11"/>
         <v>StonSkin</v>
@@ -45114,7 +45906,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:24">
+    <row r="182" spans="1:24" hidden="1">
       <c r="A182" t="str">
         <f t="shared" si="11"/>
         <v>Beam</v>
@@ -45167,7 +45959,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="183" spans="1:24">
+    <row r="183" spans="1:24" hidden="1">
       <c r="A183" t="str">
         <f t="shared" si="11"/>
         <v>P-Blast</v>
@@ -45444,7 +46236,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="188" spans="1:24">
+    <row r="188" spans="1:24" hidden="1">
       <c r="A188" t="str">
         <f t="shared" si="11"/>
         <v>SleepGas</v>
@@ -45497,7 +46289,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="189" spans="1:24">
+    <row r="189" spans="1:24" hidden="1">
       <c r="A189" t="str">
         <f t="shared" si="11"/>
         <v>Sleep</v>
@@ -45550,7 +46342,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="190" spans="1:24">
+    <row r="190" spans="1:24" hidden="1">
       <c r="A190" t="str">
         <f t="shared" si="11"/>
         <v>StonGaze</v>
@@ -45603,7 +46395,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="191" spans="1:24">
+    <row r="191" spans="1:24" hidden="1">
       <c r="A191" t="str">
         <f t="shared" si="11"/>
         <v>Stone</v>
@@ -45656,7 +46448,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="192" spans="1:24">
+    <row r="192" spans="1:24" hidden="1">
       <c r="A192" t="str">
         <f t="shared" si="11"/>
         <v>StoneGas</v>
@@ -45709,7 +46501,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:25">
+    <row r="193" spans="1:25" hidden="1">
       <c r="A193" t="str">
         <f t="shared" si="11"/>
         <v>FatalGas</v>
@@ -45762,7 +46554,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="194" spans="1:25">
+    <row r="194" spans="1:25" hidden="1">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A258" si="14">B194</f>
         <v>X-Gaze</v>
@@ -45815,7 +46607,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="195" spans="1:25">
+    <row r="195" spans="1:25" hidden="1">
       <c r="A195" t="str">
         <f t="shared" si="14"/>
         <v>Erase</v>
@@ -45868,7 +46660,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="196" spans="1:25">
+    <row r="196" spans="1:25" hidden="1">
       <c r="A196" t="str">
         <f t="shared" si="14"/>
         <v>Blind</v>
@@ -45921,7 +46713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:25">
+    <row r="197" spans="1:25" hidden="1">
       <c r="A197" t="str">
         <f t="shared" si="14"/>
         <v>Flash</v>
@@ -45974,7 +46766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:25">
+    <row r="198" spans="1:25" hidden="1">
       <c r="A198" t="str">
         <f t="shared" si="14"/>
         <v>Ink</v>
@@ -46027,7 +46819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:25">
+    <row r="199" spans="1:25" hidden="1">
       <c r="A199" t="str">
         <f t="shared" si="14"/>
         <v>PoisonCloud</v>
@@ -46080,7 +46872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:25">
+    <row r="200" spans="1:25" hidden="1">
       <c r="A200" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -46133,7 +46925,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="201" spans="1:25">
+    <row r="201" spans="1:25" hidden="1">
       <c r="A201" t="str">
         <f t="shared" si="14"/>
         <v>Stunner</v>
@@ -46186,7 +46978,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="202" spans="1:25">
+    <row r="202" spans="1:25" hidden="1">
       <c r="A202" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -46239,7 +47031,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="203" spans="1:25">
+    <row r="203" spans="1:25" hidden="1">
       <c r="A203" t="str">
         <f t="shared" si="14"/>
         <v>Charm</v>
@@ -46292,7 +47084,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="204" spans="1:25">
+    <row r="204" spans="1:25" hidden="1">
       <c r="A204" t="str">
         <f t="shared" si="14"/>
         <v>Hypnos</v>
@@ -46345,7 +47137,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="205" spans="1:25">
+    <row r="205" spans="1:25" hidden="1">
       <c r="A205" t="str">
         <f t="shared" si="14"/>
         <v>Sand</v>
@@ -46398,7 +47190,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="206" spans="1:25">
+    <row r="206" spans="1:25" hidden="1">
       <c r="A206" t="str">
         <f t="shared" si="14"/>
         <v>Cobweb</v>
@@ -46451,7 +47243,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="207" spans="1:25">
+    <row r="207" spans="1:25" hidden="1">
       <c r="A207" t="str">
         <f t="shared" si="14"/>
         <v>Blitz</v>
@@ -46504,7 +47296,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="208" spans="1:25">
+    <row r="208" spans="1:25" hidden="1">
       <c r="A208" t="str">
         <f t="shared" si="14"/>
         <v>Drain</v>
@@ -46557,7 +47349,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="209" spans="1:25">
+    <row r="209" spans="1:25" hidden="1">
       <c r="A209" t="str">
         <f t="shared" si="14"/>
         <v>Stench</v>
@@ -46610,7 +47402,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="210" spans="1:25">
+    <row r="210" spans="1:25" hidden="1">
       <c r="A210" t="str">
         <f t="shared" si="14"/>
         <v>Haste</v>
@@ -46663,7 +47455,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="211" spans="1:25">
+    <row r="211" spans="1:25" hidden="1">
       <c r="A211" t="str">
         <f t="shared" si="14"/>
         <v>Tornado</v>
@@ -46772,7 +47564,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="213" spans="1:25">
+    <row r="213" spans="1:25" hidden="1">
       <c r="A213" t="str">
         <f t="shared" si="14"/>
         <v>Whirl</v>
@@ -46825,7 +47617,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="214" spans="1:25">
+    <row r="214" spans="1:25" hidden="1">
       <c r="A214" t="str">
         <f t="shared" si="14"/>
         <v>Flare</v>
@@ -46878,7 +47670,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="215" spans="1:25">
+    <row r="215" spans="1:25" hidden="1">
       <c r="A215" t="str">
         <f t="shared" si="14"/>
         <v>Steal</v>
@@ -46931,7 +47723,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="216" spans="1:25">
+    <row r="216" spans="1:25" hidden="1">
       <c r="A216" t="str">
         <f t="shared" si="14"/>
         <v>Explode</v>
@@ -47043,7 +47835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:25">
+    <row r="218" spans="1:25" hidden="1">
       <c r="A218" t="str">
         <f t="shared" si="14"/>
         <v>Riddle</v>
@@ -47096,7 +47888,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="219" spans="1:25">
+    <row r="219" spans="1:25" hidden="1">
       <c r="A219" t="str">
         <f t="shared" si="14"/>
         <v>CursSong</v>
@@ -47149,7 +47941,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="220" spans="1:25">
+    <row r="220" spans="1:25" hidden="1">
       <c r="A220" t="str">
         <f t="shared" si="14"/>
         <v>MadSong</v>
@@ -47202,7 +47994,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="221" spans="1:25">
+    <row r="221" spans="1:25" hidden="1">
       <c r="A221" t="str">
         <f t="shared" si="14"/>
         <v>Surprise</v>
@@ -47246,7 +48038,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="222" spans="1:25">
+    <row r="222" spans="1:25" hidden="1">
       <c r="A222" t="str">
         <f t="shared" si="14"/>
         <v>Warning</v>
@@ -47290,7 +48082,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="223" spans="1:25">
+    <row r="223" spans="1:25" hidden="1">
       <c r="A223" t="str">
         <f t="shared" si="14"/>
         <v>Multiply</v>
@@ -47337,7 +48129,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="224" spans="1:25">
+    <row r="224" spans="1:25" hidden="1">
       <c r="A224" t="str">
         <f t="shared" si="14"/>
         <v>O-Quake</v>
@@ -47386,7 +48178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="225" spans="1:27">
+    <row r="225" spans="1:27" hidden="1">
       <c r="A225" t="str">
         <f t="shared" si="14"/>
         <v>O-Change</v>
@@ -47435,7 +48227,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="226" spans="1:27">
+    <row r="226" spans="1:27" hidden="1">
       <c r="A226" t="str">
         <f t="shared" si="14"/>
         <v>O-Fire</v>
@@ -47484,7 +48276,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="227" spans="1:27">
+    <row r="227" spans="1:27" hidden="1">
       <c r="A227" t="str">
         <f t="shared" si="14"/>
         <v>O-Poison</v>
@@ -47533,7 +48325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:27">
+    <row r="228" spans="1:27" hidden="1">
       <c r="A228" t="str">
         <f t="shared" si="14"/>
         <v>O-Damage</v>
@@ -47582,7 +48374,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="229" spans="1:27">
+    <row r="229" spans="1:27" hidden="1">
       <c r="A229" t="str">
         <f t="shared" si="14"/>
         <v>O-Weapon</v>
@@ -47631,7 +48423,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="230" spans="1:27">
+    <row r="230" spans="1:27" hidden="1">
       <c r="A230" t="str">
         <f t="shared" si="14"/>
         <v>O-Pa/Po</v>
@@ -47680,7 +48472,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="231" spans="1:27">
+    <row r="231" spans="1:27" hidden="1">
       <c r="A231" t="str">
         <f t="shared" si="14"/>
         <v>O-Para</v>
@@ -47729,7 +48521,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="232" spans="1:27">
+    <row r="232" spans="1:27" hidden="1">
       <c r="A232" t="str">
         <f t="shared" si="14"/>
         <v>O-Ice</v>
@@ -47778,7 +48570,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="233" spans="1:27">
+    <row r="233" spans="1:27" hidden="1">
       <c r="A233" t="str">
         <f t="shared" si="14"/>
         <v>O-Stone</v>
@@ -47827,7 +48619,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="234" spans="1:27">
+    <row r="234" spans="1:27" hidden="1">
       <c r="A234" t="str">
         <f t="shared" si="14"/>
         <v>X-Fire</v>
@@ -47879,7 +48671,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="235" spans="1:27">
+    <row r="235" spans="1:27" hidden="1">
       <c r="A235" t="str">
         <f t="shared" si="14"/>
         <v>X-Ice</v>
@@ -47931,7 +48723,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="236" spans="1:27">
+    <row r="236" spans="1:27" hidden="1">
       <c r="A236" t="str">
         <f t="shared" si="14"/>
         <v>X-Thunder</v>
@@ -47983,7 +48775,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="237" spans="1:27">
+    <row r="237" spans="1:27" hidden="1">
       <c r="A237" t="str">
         <f t="shared" si="14"/>
         <v>Teleport</v>
@@ -48023,7 +48815,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="238" spans="1:27">
+    <row r="238" spans="1:27" hidden="1">
       <c r="A238" t="str">
         <f t="shared" si="14"/>
         <v>Remedy</v>
@@ -48070,7 +48862,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="239" spans="1:27">
+    <row r="239" spans="1:27" hidden="1">
       <c r="A239" t="str">
         <f t="shared" si="14"/>
         <v>O-All</v>
@@ -48119,7 +48911,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" hidden="1">
       <c r="A240" t="str">
         <f t="shared" si="14"/>
         <v>PoisonBurst</v>
@@ -48175,7 +48967,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" hidden="1">
       <c r="A241" t="str">
         <f t="shared" si="14"/>
         <v>FlareApollo</v>
@@ -48221,7 +49013,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" hidden="1">
       <c r="A242" t="str">
         <f t="shared" si="14"/>
         <v>Smasher</v>
@@ -48265,7 +49057,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" hidden="1">
       <c r="A243" t="str">
         <f t="shared" si="14"/>
         <v>Recover</v>
@@ -48305,7 +49097,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" hidden="1">
       <c r="A244" t="str">
         <f t="shared" si="14"/>
         <v>Power Magi</v>
@@ -48350,7 +49142,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" hidden="1">
       <c r="A245" t="str">
         <f t="shared" si="14"/>
         <v>Speed Magi</v>
@@ -48395,7 +49187,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" hidden="1">
       <c r="A246" t="str">
         <f t="shared" si="14"/>
         <v>Mana Magi</v>
@@ -48440,7 +49232,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" hidden="1">
       <c r="A247" t="str">
         <f t="shared" si="14"/>
         <v>Defense Magi</v>
@@ -48485,7 +49277,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" hidden="1">
       <c r="A248" t="str">
         <f t="shared" si="14"/>
         <v>Fire Magi</v>
@@ -48533,7 +49325,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" hidden="1">
       <c r="A249" t="str">
         <f t="shared" si="14"/>
         <v>Ice Magi</v>
@@ -48581,7 +49373,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" hidden="1">
       <c r="A250" t="str">
         <f t="shared" si="14"/>
         <v>Thunder Magi</v>
@@ -48629,7 +49421,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" hidden="1">
       <c r="A251" t="str">
         <f t="shared" si="14"/>
         <v>Poison Magi</v>
@@ -48725,7 +49517,7 @@
         <v>5</v>
       </c>
       <c r="R252">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="S252" t="s">
         <v>2345</v>
@@ -48740,7 +49532,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" hidden="1">
       <c r="A253" t="str">
         <f t="shared" si="14"/>
         <v>Vampic Sword</v>
@@ -48867,8 +49659,11 @@
       <c r="W254">
         <v>100</v>
       </c>
-    </row>
-    <row r="255" spans="1:27">
+      <c r="Y254" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27" hidden="1">
       <c r="A255" t="str">
         <f t="shared" si="14"/>
         <v>Revenge Sword</v>
@@ -48922,7 +49717,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" hidden="1">
       <c r="A256" t="str">
         <f t="shared" si="14"/>
         <v>Bow</v>
@@ -49037,7 +49832,7 @@
         <v>5</v>
       </c>
       <c r="R257">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S257" t="s">
         <v>2345</v>
@@ -49052,7 +49847,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" hidden="1">
       <c r="A258" t="str">
         <f t="shared" si="14"/>
         <v>O-Dragon</v>
@@ -49082,6 +49877,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AA258" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="All Enemies"/>
+        <filter val="Counter"/>
+        <filter val="Group"/>
+        <filter val="Single"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="20">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A2:AA257">
       <sortCondition ref="E1:E257"/>
     </sortState>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A5BF2-D0AC-46EB-B15E-A87538E3C0B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC230A81-EB22-4340-BF91-B2D402C578DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12231" uniqueCount="2597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12227" uniqueCount="2597">
   <si>
     <t>Monster</t>
   </si>
@@ -8995,9 +8995,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W253" sqref="W253"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O229" sqref="O229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35898,9 +35898,9 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AA258"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="U252" sqref="U252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36335,7 +36335,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" hidden="1">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Coral Sword</v>
@@ -36395,7 +36395,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" hidden="1">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Ogre Axe</v>
@@ -36455,7 +36455,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" hidden="1">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Sword</v>
@@ -36515,7 +36515,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" hidden="1">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Sun Sword</v>
@@ -36575,7 +36575,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" hidden="1">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Flame Sword</v>
@@ -36637,7 +36637,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" hidden="1">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Ice Sword</v>
@@ -36699,7 +36699,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" hidden="1">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Axe</v>
@@ -36889,7 +36889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" hidden="1">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Rapier</v>
@@ -36945,9 +36945,6 @@
       <c r="T17" t="s">
         <v>2307</v>
       </c>
-      <c r="U17" t="s">
-        <v>2343</v>
-      </c>
       <c r="AA17" t="s">
         <v>2583</v>
       </c>
@@ -37818,7 +37815,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" hidden="1">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Prayer Book</v>
@@ -37878,7 +37875,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" hidden="1">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Fire Book</v>
@@ -37938,7 +37935,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" hidden="1">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Ice Book</v>
@@ -37998,7 +37995,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" hidden="1">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Book</v>
@@ -38058,7 +38055,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" hidden="1">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Fog Book</v>
@@ -38232,7 +38229,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Death Book</v>
@@ -38292,7 +38289,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" hidden="1">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Mage Staff</v>
@@ -40937,7 +40934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" hidden="1">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
         <v>Fire Gun</v>
@@ -41523,7 +41520,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" hidden="1">
       <c r="A102" t="str">
         <f t="shared" si="6"/>
         <v>Muramas</v>
@@ -41646,7 +41643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" hidden="1">
       <c r="A104" t="str">
         <f t="shared" si="6"/>
         <v>Laser Sword</v>
@@ -41702,9 +41699,6 @@
       <c r="T104" t="s">
         <v>2307</v>
       </c>
-      <c r="U104" t="s">
-        <v>2343</v>
-      </c>
       <c r="AA104" t="s">
         <v>2580</v>
       </c>
@@ -42377,7 +42371,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" hidden="1">
       <c r="A118" t="str">
         <f t="shared" si="6"/>
         <v>Masmune Magi</v>
@@ -44358,7 +44352,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" hidden="1">
       <c r="A154" t="str">
         <f t="shared" si="11"/>
         <v>Burning</v>
@@ -45514,7 +45508,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" hidden="1">
       <c r="A175" t="str">
         <f t="shared" si="11"/>
         <v>Thunder</v>
@@ -45570,7 +45564,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" hidden="1">
       <c r="A176" t="str">
         <f t="shared" si="11"/>
         <v>Ice</v>
@@ -45626,7 +45620,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:24" hidden="1">
       <c r="A177" t="str">
         <f t="shared" si="11"/>
         <v>Fire</v>
@@ -45682,7 +45676,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:24">
+    <row r="178" spans="1:24" hidden="1">
       <c r="A178" t="str">
         <f t="shared" si="11"/>
         <v>Flame</v>
@@ -45738,7 +45732,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:24">
+    <row r="179" spans="1:24" hidden="1">
       <c r="A179" t="str">
         <f t="shared" si="11"/>
         <v>Gas</v>
@@ -45794,7 +45788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:24">
+    <row r="180" spans="1:24" hidden="1">
       <c r="A180" t="str">
         <f t="shared" si="11"/>
         <v>Blizzard</v>
@@ -45850,7 +45844,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="181" spans="1:24">
+    <row r="181" spans="1:24" hidden="1">
       <c r="A181" t="str">
         <f t="shared" si="11"/>
         <v>Lightning</v>
@@ -46012,7 +46006,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="184" spans="1:24">
+    <row r="184" spans="1:24" hidden="1">
       <c r="A184" t="str">
         <f t="shared" si="11"/>
         <v>Dispel</v>
@@ -46068,7 +46062,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="185" spans="1:24">
+    <row r="185" spans="1:24" hidden="1">
       <c r="A185" t="str">
         <f t="shared" si="11"/>
         <v>D-Beam</v>
@@ -46124,7 +46118,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="186" spans="1:24">
+    <row r="186" spans="1:24" hidden="1">
       <c r="A186" t="str">
         <f t="shared" si="11"/>
         <v>Squirt</v>
@@ -46180,7 +46174,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="187" spans="1:24">
+    <row r="187" spans="1:24" hidden="1">
       <c r="A187" t="str">
         <f t="shared" si="11"/>
         <v>SunBurst</v>
@@ -47508,7 +47502,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="212" spans="1:25">
+    <row r="212" spans="1:25" hidden="1">
       <c r="A212" t="str">
         <f t="shared" si="14"/>
         <v>Quake</v>
@@ -47779,7 +47773,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="217" spans="1:25">
+    <row r="217" spans="1:25" hidden="1">
       <c r="A217" t="str">
         <f t="shared" si="14"/>
         <v>Acid</v>
@@ -47994,7 +47988,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="221" spans="1:25" hidden="1">
+    <row r="221" spans="1:25">
       <c r="A221" t="str">
         <f t="shared" si="14"/>
         <v>Surprise</v>
@@ -48038,7 +48032,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="222" spans="1:25" hidden="1">
+    <row r="222" spans="1:25">
       <c r="A222" t="str">
         <f t="shared" si="14"/>
         <v>Warning</v>
@@ -48129,7 +48123,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="224" spans="1:25" hidden="1">
+    <row r="224" spans="1:25">
       <c r="A224" t="str">
         <f t="shared" si="14"/>
         <v>O-Quake</v>
@@ -48178,7 +48172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="225" spans="1:27" hidden="1">
+    <row r="225" spans="1:27">
       <c r="A225" t="str">
         <f t="shared" si="14"/>
         <v>O-Change</v>
@@ -48227,7 +48221,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="226" spans="1:27" hidden="1">
+    <row r="226" spans="1:27">
       <c r="A226" t="str">
         <f t="shared" si="14"/>
         <v>O-Fire</v>
@@ -48276,7 +48270,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="227" spans="1:27" hidden="1">
+    <row r="227" spans="1:27">
       <c r="A227" t="str">
         <f t="shared" si="14"/>
         <v>O-Poison</v>
@@ -48325,7 +48319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:27" hidden="1">
+    <row r="228" spans="1:27">
       <c r="A228" t="str">
         <f t="shared" si="14"/>
         <v>O-Damage</v>
@@ -48374,7 +48368,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="229" spans="1:27" hidden="1">
+    <row r="229" spans="1:27">
       <c r="A229" t="str">
         <f t="shared" si="14"/>
         <v>O-Weapon</v>
@@ -48423,7 +48417,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="230" spans="1:27" hidden="1">
+    <row r="230" spans="1:27">
       <c r="A230" t="str">
         <f t="shared" si="14"/>
         <v>O-Pa/Po</v>
@@ -48472,7 +48466,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="231" spans="1:27" hidden="1">
+    <row r="231" spans="1:27">
       <c r="A231" t="str">
         <f t="shared" si="14"/>
         <v>O-Para</v>
@@ -48521,7 +48515,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="232" spans="1:27" hidden="1">
+    <row r="232" spans="1:27">
       <c r="A232" t="str">
         <f t="shared" si="14"/>
         <v>O-Ice</v>
@@ -48570,7 +48564,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="233" spans="1:27" hidden="1">
+    <row r="233" spans="1:27">
       <c r="A233" t="str">
         <f t="shared" si="14"/>
         <v>O-Stone</v>
@@ -48619,7 +48613,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="234" spans="1:27" hidden="1">
+    <row r="234" spans="1:27">
       <c r="A234" t="str">
         <f t="shared" si="14"/>
         <v>X-Fire</v>
@@ -48671,7 +48665,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="235" spans="1:27" hidden="1">
+    <row r="235" spans="1:27">
       <c r="A235" t="str">
         <f t="shared" si="14"/>
         <v>X-Ice</v>
@@ -48723,7 +48717,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="236" spans="1:27" hidden="1">
+    <row r="236" spans="1:27">
       <c r="A236" t="str">
         <f t="shared" si="14"/>
         <v>X-Thunder</v>
@@ -48862,7 +48856,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="239" spans="1:27" hidden="1">
+    <row r="239" spans="1:27">
       <c r="A239" t="str">
         <f t="shared" si="14"/>
         <v>O-All</v>
@@ -49057,7 +49051,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="243" spans="1:27" hidden="1">
+    <row r="243" spans="1:27">
       <c r="A243" t="str">
         <f t="shared" si="14"/>
         <v>Recover</v>
@@ -49469,7 +49463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" hidden="1">
       <c r="A252" t="str">
         <f t="shared" si="14"/>
         <v>CatClaw</v>
@@ -49525,9 +49519,6 @@
       <c r="T252" t="s">
         <v>2307</v>
       </c>
-      <c r="U252" t="s">
-        <v>2343</v>
-      </c>
       <c r="AA252" t="s">
         <v>2581</v>
       </c>
@@ -49595,7 +49586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" hidden="1">
       <c r="A254" t="str">
         <f t="shared" si="14"/>
         <v>Glass Sword</v>
@@ -49784,7 +49775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" hidden="1">
       <c r="A257" t="str">
         <f t="shared" si="14"/>
         <v>Sabre</v>
@@ -49840,14 +49831,11 @@
       <c r="T257" t="s">
         <v>2307</v>
       </c>
-      <c r="U257" t="s">
-        <v>2343</v>
-      </c>
       <c r="AA257" t="s">
         <v>2582</v>
       </c>
     </row>
-    <row r="258" spans="1:27" hidden="1">
+    <row r="258" spans="1:27">
       <c r="A258" t="str">
         <f t="shared" si="14"/>
         <v>O-Dragon</v>
@@ -49877,18 +49865,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AA258" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="19">
+    <filterColumn colId="18">
       <filters>
-        <filter val="All Enemies"/>
-        <filter val="Counter"/>
-        <filter val="Group"/>
-        <filter val="Single"/>
+        <filter val="Trait"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="20">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
     <sortState ref="A2:AA257">
       <sortCondition ref="E1:E257"/>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F439CA-75AD-4A51-A651-7506AA9E56EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5CD7C0-C8BC-432E-80A6-65ED64C9955C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12237" uniqueCount="2605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12238" uniqueCount="2606">
   <si>
     <t>Monster</t>
   </si>
@@ -7877,6 +7877,9 @@
   </si>
   <si>
     <t>Human F</t>
+  </si>
+  <si>
+    <t>Hatchling</t>
   </si>
 </sst>
 </file>
@@ -8654,7 +8657,7 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9020,8 +9023,8 @@
   <dimension ref="A1:W253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9034,6 +9037,7 @@
     <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="134" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.75">
@@ -9167,7 +9171,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="7"/>
-      <c r="W2" t="s">
+      <c r="W2" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9233,7 +9237,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="7"/>
-      <c r="W3" t="s">
+      <c r="W3" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9303,7 +9307,7 @@
         <v>22</v>
       </c>
       <c r="V4" s="7"/>
-      <c r="W4" t="s">
+      <c r="W4" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9375,7 +9379,7 @@
       <c r="V5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9435,7 +9439,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="7"/>
-      <c r="W6" t="s">
+      <c r="W6" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9501,7 +9505,7 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="7"/>
-      <c r="W7" t="s">
+      <c r="W7" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9569,7 +9573,7 @@
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="7"/>
-      <c r="W8" t="s">
+      <c r="W8" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9639,7 +9643,7 @@
         <v>38</v>
       </c>
       <c r="V9" s="7"/>
-      <c r="W9" t="s">
+      <c r="W9" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9711,7 +9715,7 @@
       <c r="V10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9773,7 +9777,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="7"/>
-      <c r="W11" t="s">
+      <c r="W11" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9837,7 +9841,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="7"/>
-      <c r="W12" t="s">
+      <c r="W12" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9903,7 +9907,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="7"/>
-      <c r="W13" t="s">
+      <c r="W13" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -9973,7 +9977,7 @@
         <v>60</v>
       </c>
       <c r="V14" s="7"/>
-      <c r="W14" t="s">
+      <c r="W14" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -10045,7 +10049,7 @@
       <c r="V15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="134" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -10105,7 +10109,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="7"/>
-      <c r="W16" t="s">
+      <c r="W16" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10167,7 +10171,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="7"/>
-      <c r="W17" t="s">
+      <c r="W17" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10233,7 +10237,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="7"/>
-      <c r="W18" t="s">
+      <c r="W18" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10303,7 +10307,7 @@
         <v>70</v>
       </c>
       <c r="V19" s="7"/>
-      <c r="W19" t="s">
+      <c r="W19" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10375,7 +10379,7 @@
       <c r="V20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10435,7 +10439,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="7"/>
-      <c r="W21" t="s">
+      <c r="W21" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10499,7 +10503,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="7"/>
-      <c r="W22" t="s">
+      <c r="W22" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10565,7 +10569,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="7"/>
-      <c r="W23" t="s">
+      <c r="W23" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10635,7 +10639,7 @@
         <v>70</v>
       </c>
       <c r="V24" s="7"/>
-      <c r="W24" t="s">
+      <c r="W24" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10707,7 +10711,7 @@
       <c r="V25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10769,7 +10773,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="7"/>
-      <c r="W26" t="s">
+      <c r="W26" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10835,7 +10839,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="7"/>
-      <c r="W27" t="s">
+      <c r="W27" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10903,7 +10907,7 @@
       </c>
       <c r="U28" s="6"/>
       <c r="V28" s="7"/>
-      <c r="W28" t="s">
+      <c r="W28" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10973,7 +10977,7 @@
         <v>70</v>
       </c>
       <c r="V29" s="7"/>
-      <c r="W29" t="s">
+      <c r="W29" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -11045,7 +11049,7 @@
       <c r="V30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" s="134" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -11105,7 +11109,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="7"/>
-      <c r="W31" t="s">
+      <c r="W31" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11167,7 +11171,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="7"/>
-      <c r="W32" t="s">
+      <c r="W32" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11233,7 +11237,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="7"/>
-      <c r="W33" t="s">
+      <c r="W33" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11303,7 +11307,7 @@
         <v>139</v>
       </c>
       <c r="V34" s="7"/>
-      <c r="W34" t="s">
+      <c r="W34" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11375,7 +11379,7 @@
       <c r="V35" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11435,7 +11439,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="7"/>
-      <c r="W36" t="s">
+      <c r="W36" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11499,7 +11503,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="7"/>
-      <c r="W37" t="s">
+      <c r="W37" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11567,7 +11571,7 @@
       </c>
       <c r="U38" s="6"/>
       <c r="V38" s="7"/>
-      <c r="W38" t="s">
+      <c r="W38" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11637,7 +11641,7 @@
         <v>139</v>
       </c>
       <c r="V39" s="7"/>
-      <c r="W39" t="s">
+      <c r="W39" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11709,7 +11713,7 @@
       <c r="V40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W40" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11771,7 +11775,7 @@
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="7"/>
-      <c r="W41" t="s">
+      <c r="W41" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11837,7 +11841,7 @@
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="7"/>
-      <c r="W42" t="s">
+      <c r="W42" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11905,7 +11909,7 @@
       </c>
       <c r="U43" s="6"/>
       <c r="V43" s="7"/>
-      <c r="W43" t="s">
+      <c r="W43" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -11975,7 +11979,7 @@
         <v>139</v>
       </c>
       <c r="V44" s="7"/>
-      <c r="W44" t="s">
+      <c r="W44" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -12047,7 +12051,7 @@
       <c r="V45" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W45" t="s">
+      <c r="W45" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -12105,7 +12109,7 @@
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="7"/>
-      <c r="W46" t="s">
+      <c r="W46" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12167,7 +12171,7 @@
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="7"/>
-      <c r="W47" t="s">
+      <c r="W47" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12233,7 +12237,7 @@
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="7"/>
-      <c r="W48" t="s">
+      <c r="W48" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12303,7 +12307,7 @@
         <v>69</v>
       </c>
       <c r="V49" s="7"/>
-      <c r="W49" t="s">
+      <c r="W49" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12375,7 +12379,7 @@
       <c r="V50" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W50" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12435,7 +12439,7 @@
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="7"/>
-      <c r="W51" t="s">
+      <c r="W51" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12499,7 +12503,7 @@
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="7"/>
-      <c r="W52" t="s">
+      <c r="W52" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12565,7 +12569,7 @@
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="7"/>
-      <c r="W53" t="s">
+      <c r="W53" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12635,7 +12639,7 @@
         <v>139</v>
       </c>
       <c r="V54" s="7"/>
-      <c r="W54" t="s">
+      <c r="W54" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12707,7 +12711,7 @@
       <c r="V55" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W55" t="s">
+      <c r="W55" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12769,7 +12773,7 @@
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="7"/>
-      <c r="W56" t="s">
+      <c r="W56" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12835,7 +12839,7 @@
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="7"/>
-      <c r="W57" t="s">
+      <c r="W57" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12903,7 +12907,7 @@
       </c>
       <c r="U58" s="6"/>
       <c r="V58" s="7"/>
-      <c r="W58" t="s">
+      <c r="W58" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -12973,7 +12977,7 @@
         <v>139</v>
       </c>
       <c r="V59" s="7"/>
-      <c r="W59" t="s">
+      <c r="W59" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -13045,7 +13049,7 @@
       <c r="V60" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W60" t="s">
+      <c r="W60" s="134" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -13107,7 +13111,7 @@
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="7"/>
-      <c r="W61" t="s">
+      <c r="W61" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13169,7 +13173,7 @@
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="7"/>
-      <c r="W62" t="s">
+      <c r="W62" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13237,7 +13241,7 @@
       </c>
       <c r="U63" s="6"/>
       <c r="V63" s="7"/>
-      <c r="W63" t="s">
+      <c r="W63" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13307,7 +13311,7 @@
         <v>50</v>
       </c>
       <c r="V64" s="7"/>
-      <c r="W64" t="s">
+      <c r="W64" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13379,7 +13383,7 @@
       <c r="V65" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W65" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13439,7 +13443,7 @@
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="7"/>
-      <c r="W66" t="s">
+      <c r="W66" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13505,7 +13509,7 @@
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="7"/>
-      <c r="W67" t="s">
+      <c r="W67" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13573,7 +13577,7 @@
       </c>
       <c r="U68" s="6"/>
       <c r="V68" s="7"/>
-      <c r="W68" t="s">
+      <c r="W68" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13643,7 +13647,7 @@
         <v>50</v>
       </c>
       <c r="V69" s="7"/>
-      <c r="W69" t="s">
+      <c r="W69" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13715,7 +13719,7 @@
       <c r="V70" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W70" t="s">
+      <c r="W70" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13775,7 +13779,7 @@
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
       <c r="V71" s="7"/>
-      <c r="W71" t="s">
+      <c r="W71" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13841,7 +13845,7 @@
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="7"/>
-      <c r="W72" t="s">
+      <c r="W72" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13909,7 +13913,7 @@
       </c>
       <c r="U73" s="6"/>
       <c r="V73" s="7"/>
-      <c r="W73" t="s">
+      <c r="W73" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -13979,7 +13983,7 @@
         <v>232</v>
       </c>
       <c r="V74" s="7"/>
-      <c r="W74" t="s">
+      <c r="W74" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -14051,7 +14055,7 @@
       <c r="V75" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W75" t="s">
+      <c r="W75" s="134" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -14111,7 +14115,7 @@
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="7"/>
-      <c r="W76" t="s">
+      <c r="W76" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14177,7 +14181,7 @@
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
       <c r="V77" s="7"/>
-      <c r="W77" t="s">
+      <c r="W77" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14245,7 +14249,7 @@
       </c>
       <c r="U78" s="6"/>
       <c r="V78" s="7"/>
-      <c r="W78" t="s">
+      <c r="W78" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14315,7 +14319,7 @@
         <v>214</v>
       </c>
       <c r="V79" s="7"/>
-      <c r="W79" t="s">
+      <c r="W79" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14387,7 +14391,7 @@
       <c r="V80" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="W80" t="s">
+      <c r="W80" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14447,7 +14451,7 @@
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
       <c r="V81" s="7"/>
-      <c r="W81" t="s">
+      <c r="W81" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14513,7 +14517,7 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
       <c r="V82" s="7"/>
-      <c r="W82" t="s">
+      <c r="W82" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14581,7 +14585,7 @@
       </c>
       <c r="U83" s="6"/>
       <c r="V83" s="7"/>
-      <c r="W83" t="s">
+      <c r="W83" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14651,7 +14655,7 @@
         <v>60</v>
       </c>
       <c r="V84" s="7"/>
-      <c r="W84" t="s">
+      <c r="W84" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14723,7 +14727,7 @@
       <c r="V85" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W85" t="s">
+      <c r="W85" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14785,7 +14789,7 @@
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="7"/>
-      <c r="W86" t="s">
+      <c r="W86" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14849,7 +14853,7 @@
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="7"/>
-      <c r="W87" t="s">
+      <c r="W87" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14917,7 +14921,7 @@
       </c>
       <c r="U88" s="6"/>
       <c r="V88" s="7"/>
-      <c r="W88" t="s">
+      <c r="W88" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -14985,7 +14989,7 @@
       </c>
       <c r="U89" s="6"/>
       <c r="V89" s="7"/>
-      <c r="W89" t="s">
+      <c r="W89" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -15057,7 +15061,7 @@
       <c r="V90" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="W90" t="s">
+      <c r="W90" s="134" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -15117,7 +15121,7 @@
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="7"/>
-      <c r="W91" t="s">
+      <c r="W91" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15179,7 +15183,7 @@
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="7"/>
-      <c r="W92" t="s">
+      <c r="W92" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15245,7 +15249,7 @@
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="7"/>
-      <c r="W93" t="s">
+      <c r="W93" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15315,7 +15319,7 @@
         <v>38</v>
       </c>
       <c r="V94" s="7"/>
-      <c r="W94" t="s">
+      <c r="W94" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15387,7 +15391,7 @@
       <c r="V95" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="W95" t="s">
+      <c r="W95" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15447,7 +15451,7 @@
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="7"/>
-      <c r="W96" t="s">
+      <c r="W96" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15513,7 +15517,7 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="7"/>
-      <c r="W97" t="s">
+      <c r="W97" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15581,7 +15585,7 @@
       </c>
       <c r="U98" s="6"/>
       <c r="V98" s="7"/>
-      <c r="W98" t="s">
+      <c r="W98" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15651,7 +15655,7 @@
         <v>38</v>
       </c>
       <c r="V99" s="7"/>
-      <c r="W99" t="s">
+      <c r="W99" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15723,7 +15727,7 @@
       <c r="V100" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="W100" t="s">
+      <c r="W100" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15787,7 +15791,7 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="7"/>
-      <c r="W101" t="s">
+      <c r="W101" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15853,7 +15857,7 @@
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
       <c r="V102" s="7"/>
-      <c r="W102" t="s">
+      <c r="W102" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15921,7 +15925,7 @@
       </c>
       <c r="U103" s="6"/>
       <c r="V103" s="7"/>
-      <c r="W103" t="s">
+      <c r="W103" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -15991,7 +15995,7 @@
         <v>139</v>
       </c>
       <c r="V104" s="7"/>
-      <c r="W104" t="s">
+      <c r="W104" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -16063,7 +16067,7 @@
       <c r="V105" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="W105" t="s">
+      <c r="W105" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -16123,7 +16127,7 @@
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
       <c r="V106" s="7"/>
-      <c r="W106" t="s">
+      <c r="W106" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16185,7 +16189,7 @@
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
       <c r="V107" s="7"/>
-      <c r="W107" t="s">
+      <c r="W107" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16251,7 +16255,7 @@
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
       <c r="V108" s="7"/>
-      <c r="W108" t="s">
+      <c r="W108" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16321,7 +16325,7 @@
         <v>139</v>
       </c>
       <c r="V109" s="7"/>
-      <c r="W109" t="s">
+      <c r="W109" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16393,7 +16397,7 @@
       <c r="V110" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="W110" t="s">
+      <c r="W110" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16453,7 +16457,7 @@
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
       <c r="V111" s="7"/>
-      <c r="W111" t="s">
+      <c r="W111" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16517,7 +16521,7 @@
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
       <c r="V112" s="7"/>
-      <c r="W112" t="s">
+      <c r="W112" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16585,7 +16589,7 @@
       </c>
       <c r="U113" s="6"/>
       <c r="V113" s="7"/>
-      <c r="W113" t="s">
+      <c r="W113" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16655,7 +16659,7 @@
         <v>139</v>
       </c>
       <c r="V114" s="7"/>
-      <c r="W114" t="s">
+      <c r="W114" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16727,7 +16731,7 @@
       <c r="V115" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="W115" t="s">
+      <c r="W115" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16789,7 +16793,7 @@
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
       <c r="V116" s="7"/>
-      <c r="W116" t="s">
+      <c r="W116" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16853,7 +16857,7 @@
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
       <c r="V117" s="7"/>
-      <c r="W117" t="s">
+      <c r="W117" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16921,7 +16925,7 @@
       </c>
       <c r="U118" s="6"/>
       <c r="V118" s="7"/>
-      <c r="W118" t="s">
+      <c r="W118" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -16991,7 +16995,7 @@
         <v>139</v>
       </c>
       <c r="V119" s="7"/>
-      <c r="W119" t="s">
+      <c r="W119" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -17063,7 +17067,7 @@
       <c r="V120" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W120" t="s">
+      <c r="W120" s="134" t="s">
         <v>2590</v>
       </c>
     </row>
@@ -17121,7 +17125,7 @@
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
       <c r="V121" s="7"/>
-      <c r="W121" t="s">
+      <c r="W121" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17183,7 +17187,7 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
       <c r="V122" s="7"/>
-      <c r="W122" t="s">
+      <c r="W122" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17249,7 +17253,7 @@
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
       <c r="V123" s="7"/>
-      <c r="W123" t="s">
+      <c r="W123" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17317,7 +17321,7 @@
       </c>
       <c r="U124" s="6"/>
       <c r="V124" s="7"/>
-      <c r="W124" t="s">
+      <c r="W124" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17389,7 +17393,7 @@
       <c r="V125" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="W125" t="s">
+      <c r="W125" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17449,7 +17453,7 @@
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
       <c r="V126" s="7"/>
-      <c r="W126" t="s">
+      <c r="W126" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17511,7 +17515,7 @@
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
       <c r="V127" s="7"/>
-      <c r="W127" t="s">
+      <c r="W127" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17579,7 +17583,7 @@
       </c>
       <c r="U128" s="6"/>
       <c r="V128" s="7"/>
-      <c r="W128" t="s">
+      <c r="W128" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17649,7 +17653,7 @@
         <v>70</v>
       </c>
       <c r="V129" s="7"/>
-      <c r="W129" t="s">
+      <c r="W129" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17721,7 +17725,7 @@
       <c r="V130" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="W130" t="s">
+      <c r="W130" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17783,7 +17787,7 @@
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
       <c r="V131" s="7"/>
-      <c r="W131" t="s">
+      <c r="W131" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17849,7 +17853,7 @@
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
       <c r="V132" s="7"/>
-      <c r="W132" t="s">
+      <c r="W132" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17917,7 +17921,7 @@
       </c>
       <c r="U133" s="6"/>
       <c r="V133" s="7"/>
-      <c r="W133" t="s">
+      <c r="W133" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -17987,7 +17991,7 @@
         <v>139</v>
       </c>
       <c r="V134" s="7"/>
-      <c r="W134" t="s">
+      <c r="W134" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -18059,7 +18063,7 @@
       <c r="V135" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="W135" t="s">
+      <c r="W135" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -18121,7 +18125,7 @@
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
       <c r="V136" s="7"/>
-      <c r="W136" t="s">
+      <c r="W136" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18187,7 +18191,7 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="7"/>
-      <c r="W137" t="s">
+      <c r="W137" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18255,7 +18259,7 @@
       </c>
       <c r="U138" s="6"/>
       <c r="V138" s="7"/>
-      <c r="W138" t="s">
+      <c r="W138" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18327,7 +18331,7 @@
       <c r="V139" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="W139" t="s">
+      <c r="W139" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18399,7 +18403,7 @@
       <c r="V140" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W140" t="s">
+      <c r="W140" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18459,7 +18463,7 @@
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
       <c r="V141" s="7"/>
-      <c r="W141" t="s">
+      <c r="W141" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18523,7 +18527,7 @@
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
       <c r="V142" s="7"/>
-      <c r="W142" t="s">
+      <c r="W142" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18591,7 +18595,7 @@
       </c>
       <c r="U143" s="6"/>
       <c r="V143" s="7"/>
-      <c r="W143" t="s">
+      <c r="W143" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18661,7 +18665,7 @@
         <v>33</v>
       </c>
       <c r="V144" s="7"/>
-      <c r="W144" t="s">
+      <c r="W144" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18733,7 +18737,7 @@
       <c r="V145" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="W145" t="s">
+      <c r="W145" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18795,7 +18799,7 @@
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
       <c r="V146" s="7"/>
-      <c r="W146" t="s">
+      <c r="W146" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18861,7 +18865,7 @@
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="7"/>
-      <c r="W147" t="s">
+      <c r="W147" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18929,7 +18933,7 @@
       </c>
       <c r="U148" s="6"/>
       <c r="V148" s="7"/>
-      <c r="W148" t="s">
+      <c r="W148" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -18999,7 +19003,7 @@
         <v>55</v>
       </c>
       <c r="V149" s="7"/>
-      <c r="W149" t="s">
+      <c r="W149" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -19071,7 +19075,7 @@
       <c r="V150" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="W150" t="s">
+      <c r="W150" s="134" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -19129,7 +19133,7 @@
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
       <c r="V151" s="7"/>
-      <c r="W151" t="s">
+      <c r="W151" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19189,7 +19193,7 @@
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
       <c r="V152" s="7"/>
-      <c r="W152" t="s">
+      <c r="W152" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19255,7 +19259,7 @@
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
       <c r="V153" s="7"/>
-      <c r="W153" t="s">
+      <c r="W153" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19325,7 +19329,7 @@
         <v>160</v>
       </c>
       <c r="V154" s="7"/>
-      <c r="W154" t="s">
+      <c r="W154" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19397,7 +19401,7 @@
       <c r="V155" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="W155" t="s">
+      <c r="W155" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19457,7 +19461,7 @@
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
       <c r="V156" s="7"/>
-      <c r="W156" t="s">
+      <c r="W156" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19523,7 +19527,7 @@
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
       <c r="V157" s="7"/>
-      <c r="W157" t="s">
+      <c r="W157" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19591,7 +19595,7 @@
       </c>
       <c r="U158" s="6"/>
       <c r="V158" s="7"/>
-      <c r="W158" t="s">
+      <c r="W158" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19661,7 +19665,7 @@
         <v>139</v>
       </c>
       <c r="V159" s="7"/>
-      <c r="W159" t="s">
+      <c r="W159" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19733,7 +19737,7 @@
       <c r="V160" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W160" t="s">
+      <c r="W160" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19797,7 +19801,7 @@
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
       <c r="V161" s="7"/>
-      <c r="W161" t="s">
+      <c r="W161" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19863,7 +19867,7 @@
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="7"/>
-      <c r="W162" t="s">
+      <c r="W162" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -19931,7 +19935,7 @@
       </c>
       <c r="U163" s="6"/>
       <c r="V163" s="7"/>
-      <c r="W163" t="s">
+      <c r="W163" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -20001,7 +20005,7 @@
         <v>139</v>
       </c>
       <c r="V164" s="7"/>
-      <c r="W164" t="s">
+      <c r="W164" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -20073,7 +20077,7 @@
       <c r="V165" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W165" t="s">
+      <c r="W165" s="134" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -20135,7 +20139,7 @@
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
       <c r="V166" s="7"/>
-      <c r="W166" t="s">
+      <c r="W166" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20199,7 +20203,7 @@
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
       <c r="V167" s="7"/>
-      <c r="W167" t="s">
+      <c r="W167" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20267,7 +20271,7 @@
       </c>
       <c r="U168" s="6"/>
       <c r="V168" s="7"/>
-      <c r="W168" t="s">
+      <c r="W168" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20337,7 +20341,7 @@
         <v>42</v>
       </c>
       <c r="V169" s="7"/>
-      <c r="W169" t="s">
+      <c r="W169" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20409,7 +20413,7 @@
       <c r="V170" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="W170" t="s">
+      <c r="W170" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20471,7 +20475,7 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="7"/>
-      <c r="W171" t="s">
+      <c r="W171" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20535,7 +20539,7 @@
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
       <c r="V172" s="7"/>
-      <c r="W172" t="s">
+      <c r="W172" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20605,7 +20609,7 @@
         <v>60</v>
       </c>
       <c r="V173" s="7"/>
-      <c r="W173" t="s">
+      <c r="W173" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20675,7 +20679,7 @@
         <v>42</v>
       </c>
       <c r="V174" s="7"/>
-      <c r="W174" t="s">
+      <c r="W174" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20747,7 +20751,7 @@
       <c r="V175" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="W175" t="s">
+      <c r="W175" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20811,7 +20815,7 @@
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
       <c r="V176" s="7"/>
-      <c r="W176" t="s">
+      <c r="W176" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20877,7 +20881,7 @@
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
       <c r="V177" s="7"/>
-      <c r="W177" t="s">
+      <c r="W177" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20945,7 +20949,7 @@
       </c>
       <c r="U178" s="6"/>
       <c r="V178" s="7"/>
-      <c r="W178" t="s">
+      <c r="W178" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -21015,7 +21019,7 @@
         <v>139</v>
       </c>
       <c r="V179" s="7"/>
-      <c r="W179" t="s">
+      <c r="W179" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -21087,7 +21091,7 @@
       <c r="V180" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="W180" t="s">
+      <c r="W180" s="134" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -21145,7 +21149,7 @@
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
       <c r="V181" s="7"/>
-      <c r="W181" t="s">
+      <c r="W181" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21205,7 +21209,7 @@
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
       <c r="V182" s="7"/>
-      <c r="W182" t="s">
+      <c r="W182" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21273,7 +21277,7 @@
       </c>
       <c r="U183" s="6"/>
       <c r="V183" s="7"/>
-      <c r="W183" t="s">
+      <c r="W183" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21343,7 +21347,7 @@
         <v>547</v>
       </c>
       <c r="V184" s="10"/>
-      <c r="W184" t="s">
+      <c r="W184" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21407,7 +21411,7 @@
       <c r="T185" s="14"/>
       <c r="U185" s="9"/>
       <c r="V185" s="10"/>
-      <c r="W185" t="s">
+      <c r="W185" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21465,7 +21469,7 @@
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
       <c r="V186" s="7"/>
-      <c r="W186" t="s">
+      <c r="W186" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21527,7 +21531,7 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="7"/>
-      <c r="W187" t="s">
+      <c r="W187" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21595,7 +21599,7 @@
       </c>
       <c r="U188" s="6"/>
       <c r="V188" s="7"/>
-      <c r="W188" t="s">
+      <c r="W188" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21665,7 +21669,7 @@
         <v>569</v>
       </c>
       <c r="V189" s="10"/>
-      <c r="W189" t="s">
+      <c r="W189" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21731,7 +21735,7 @@
       <c r="T190" s="9"/>
       <c r="U190" s="9"/>
       <c r="V190" s="10"/>
-      <c r="W190" t="s">
+      <c r="W190" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -21791,7 +21795,7 @@
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>
       <c r="V191" s="7"/>
-      <c r="W191" t="s">
+      <c r="W191" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21853,7 +21857,7 @@
       <c r="T192" s="6"/>
       <c r="U192" s="6"/>
       <c r="V192" s="7"/>
-      <c r="W192" t="s">
+      <c r="W192" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21921,7 +21925,7 @@
       </c>
       <c r="U193" s="6"/>
       <c r="V193" s="7"/>
-      <c r="W193" t="s">
+      <c r="W193" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -21991,7 +21995,7 @@
         <v>597</v>
       </c>
       <c r="V194" s="10"/>
-      <c r="W194" t="s">
+      <c r="W194" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -22057,7 +22061,7 @@
       <c r="T195" s="9"/>
       <c r="U195" s="9"/>
       <c r="V195" s="10"/>
-      <c r="W195" t="s">
+      <c r="W195" s="134" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -22117,7 +22121,7 @@
       <c r="T196" s="6"/>
       <c r="U196" s="6"/>
       <c r="V196" s="7"/>
-      <c r="W196" t="s">
+      <c r="W196" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -22181,7 +22185,7 @@
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
       <c r="V197" s="7"/>
-      <c r="W197" t="s">
+      <c r="W197" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -22249,7 +22253,7 @@
       </c>
       <c r="U198" s="6"/>
       <c r="V198" s="7"/>
-      <c r="W198" t="s">
+      <c r="W198" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -22319,7 +22323,7 @@
         <v>614</v>
       </c>
       <c r="V199" s="10"/>
-      <c r="W199" t="s">
+      <c r="W199" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -22381,7 +22385,7 @@
       <c r="T200" s="9"/>
       <c r="U200" s="9"/>
       <c r="V200" s="10"/>
-      <c r="W200" t="s">
+      <c r="W200" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -22441,7 +22445,7 @@
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="7"/>
-      <c r="W201" t="s">
+      <c r="W201" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -22505,7 +22509,7 @@
       <c r="T202" s="6"/>
       <c r="U202" s="6"/>
       <c r="V202" s="7"/>
-      <c r="W202" t="s">
+      <c r="W202" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -22573,7 +22577,7 @@
       </c>
       <c r="U203" s="6"/>
       <c r="V203" s="7"/>
-      <c r="W203" t="s">
+      <c r="W203" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -22643,7 +22647,7 @@
         <v>645</v>
       </c>
       <c r="V204" s="10"/>
-      <c r="W204" t="s">
+      <c r="W204" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -22703,7 +22707,7 @@
       <c r="T205" s="12"/>
       <c r="U205" s="12"/>
       <c r="V205" s="16"/>
-      <c r="W205" t="s">
+      <c r="W205" s="134" t="s">
         <v>750</v>
       </c>
     </row>
@@ -22767,7 +22771,7 @@
       <c r="T206" s="6"/>
       <c r="U206" s="6"/>
       <c r="V206" s="7"/>
-      <c r="W206" t="s">
+      <c r="W206" s="134" t="s">
         <v>750</v>
       </c>
     </row>
@@ -22835,7 +22839,7 @@
       </c>
       <c r="U207" s="6"/>
       <c r="V207" s="7"/>
-      <c r="W207" t="s">
+      <c r="W207" s="134" t="s">
         <v>750</v>
       </c>
     </row>
@@ -22905,7 +22909,7 @@
         <v>42</v>
       </c>
       <c r="V208" s="10"/>
-      <c r="W208" t="s">
+      <c r="W208" s="134" t="s">
         <v>750</v>
       </c>
     </row>
@@ -22969,7 +22973,7 @@
       <c r="T209" s="9"/>
       <c r="U209" s="9"/>
       <c r="V209" s="10"/>
-      <c r="W209" t="s">
+      <c r="W209" s="134" t="s">
         <v>750</v>
       </c>
     </row>
@@ -23031,7 +23035,7 @@
       <c r="T210" s="6"/>
       <c r="U210" s="6"/>
       <c r="V210" s="7"/>
-      <c r="W210" t="s">
+      <c r="W210" s="134" t="s">
         <v>750</v>
       </c>
     </row>
@@ -23095,7 +23099,7 @@
       <c r="T211" s="6"/>
       <c r="U211" s="6"/>
       <c r="V211" s="7"/>
-      <c r="W211" t="s">
+      <c r="W211" s="134" t="s">
         <v>750</v>
       </c>
     </row>
@@ -23163,7 +23167,7 @@
       </c>
       <c r="U212" s="6"/>
       <c r="V212" s="7"/>
-      <c r="W212" t="s">
+      <c r="W212" s="134" t="s">
         <v>750</v>
       </c>
     </row>
@@ -23233,7 +23237,7 @@
         <v>42</v>
       </c>
       <c r="V213" s="10"/>
-      <c r="W213" t="s">
+      <c r="W213" s="134" t="s">
         <v>750</v>
       </c>
     </row>
@@ -23293,7 +23297,7 @@
       <c r="T214" s="12"/>
       <c r="U214" s="12"/>
       <c r="V214" s="16"/>
-      <c r="W214" t="s">
+      <c r="W214" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -23355,7 +23359,7 @@
       <c r="T215" s="6"/>
       <c r="U215" s="6"/>
       <c r="V215" s="7"/>
-      <c r="W215" t="s">
+      <c r="W215" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -23423,7 +23427,7 @@
       </c>
       <c r="U216" s="6"/>
       <c r="V216" s="7"/>
-      <c r="W216" t="s">
+      <c r="W216" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -23493,7 +23497,7 @@
         <v>38</v>
       </c>
       <c r="V217" s="10"/>
-      <c r="W217" t="s">
+      <c r="W217" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -23553,7 +23557,7 @@
       <c r="T218" s="12"/>
       <c r="U218" s="12"/>
       <c r="V218" s="16"/>
-      <c r="W218" t="s">
+      <c r="W218" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -23615,7 +23619,7 @@
       <c r="T219" s="6"/>
       <c r="U219" s="6"/>
       <c r="V219" s="7"/>
-      <c r="W219" t="s">
+      <c r="W219" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -23681,7 +23685,7 @@
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
       <c r="V220" s="7"/>
-      <c r="W220" t="s">
+      <c r="W220" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -23751,7 +23755,7 @@
         <v>60</v>
       </c>
       <c r="V221" s="10"/>
-      <c r="W221" t="s">
+      <c r="W221" s="134" t="s">
         <v>2587</v>
       </c>
     </row>
@@ -23813,7 +23817,7 @@
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="7"/>
-      <c r="W222" t="s">
+      <c r="W222" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -23883,7 +23887,7 @@
         <v>700</v>
       </c>
       <c r="V223" s="7"/>
-      <c r="W223" t="s">
+      <c r="W223" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -23949,7 +23953,7 @@
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
       <c r="V224" s="7"/>
-      <c r="W224" t="s">
+      <c r="W224" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -24009,7 +24013,7 @@
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="7"/>
-      <c r="W225" t="s">
+      <c r="W225" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -24075,7 +24079,7 @@
       <c r="T226" s="6"/>
       <c r="U226" s="6"/>
       <c r="V226" s="7"/>
-      <c r="W226" t="s">
+      <c r="W226" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -24135,7 +24139,7 @@
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
       <c r="V227" s="7"/>
-      <c r="W227" t="s">
+      <c r="W227" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -24199,7 +24203,7 @@
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
       <c r="V228" s="7"/>
-      <c r="W228" t="s">
+      <c r="W228" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -24267,7 +24271,7 @@
       </c>
       <c r="U229" s="6"/>
       <c r="V229" s="7"/>
-      <c r="W229" t="s">
+      <c r="W229" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -24335,7 +24339,7 @@
       </c>
       <c r="U230" s="6"/>
       <c r="V230" s="7"/>
-      <c r="W230" t="s">
+      <c r="W230" s="134" t="s">
         <v>2592</v>
       </c>
     </row>
@@ -25054,10 +25058,10 @@
     <row r="242" spans="1:23">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
-        <v>Baby-D</v>
+        <v>Hatchling</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>333</v>
+        <v>2605</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>9</v>
@@ -25109,7 +25113,7 @@
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
       <c r="V242" s="7"/>
-      <c r="W242" s="126" t="s">
+      <c r="W242" s="134" t="s">
         <v>2589</v>
       </c>
     </row>
@@ -25753,22 +25757,25 @@
         <v>30</v>
       </c>
       <c r="O253" s="126" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P253" s="126" t="s">
+        <v>2366</v>
+      </c>
+      <c r="Q253" t="s">
         <v>482</v>
-      </c>
-      <c r="Q253" t="s">
-        <v>2366</v>
       </c>
       <c r="R253" t="s">
         <v>643</v>
       </c>
       <c r="S253" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="T253" t="s">
         <v>135</v>
+      </c>
+      <c r="W253" s="126" t="s">
+        <v>2594</v>
       </c>
     </row>
   </sheetData>
@@ -35967,7 +35974,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4" filterMode="1"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AA258"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -36067,7 +36074,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1">
+    <row r="2" spans="1:27">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">B2</f>
         <v>Hammer</v>
@@ -36122,7 +36129,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1">
+    <row r="3" spans="1:27">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Long Sword</v>
@@ -36179,7 +36186,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1">
+    <row r="4" spans="1:27">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Axe</v>
@@ -36236,7 +36243,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1">
+    <row r="5" spans="1:27">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Battle Sword</v>
@@ -36293,7 +36300,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1">
+    <row r="6" spans="1:27">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Katana</v>
@@ -36350,7 +36357,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1">
+    <row r="7" spans="1:27">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Gold Sword</v>
@@ -36407,7 +36414,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1">
+    <row r="8" spans="1:27">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Coral Sword</v>
@@ -36467,7 +36474,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1">
+    <row r="9" spans="1:27">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Ogre Axe</v>
@@ -36527,7 +36534,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1">
+    <row r="10" spans="1:27">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Sword</v>
@@ -36587,7 +36594,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1">
+    <row r="11" spans="1:27">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Sun Sword</v>
@@ -36647,7 +36654,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1">
+    <row r="12" spans="1:27">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Flame Sword</v>
@@ -36709,7 +36716,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1">
+    <row r="13" spans="1:27">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Ice Sword</v>
@@ -36771,7 +36778,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1">
+    <row r="14" spans="1:27">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Axe</v>
@@ -36833,7 +36840,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1">
+    <row r="15" spans="1:27">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Defend Sword</v>
@@ -36898,7 +36905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1">
+    <row r="16" spans="1:27">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Rune Axe</v>
@@ -36961,7 +36968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1">
+    <row r="17" spans="1:27">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Rapier</v>
@@ -37021,7 +37028,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="18" spans="1:27" hidden="1">
+    <row r="18" spans="1:27">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -37088,7 +37095,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1">
+    <row r="19" spans="1:27">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Shield</v>
@@ -37142,7 +37149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:27" hidden="1">
+    <row r="20" spans="1:27">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Silver Shield</v>
@@ -37196,7 +37203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:27" hidden="1">
+    <row r="21" spans="1:27">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Gold Shield</v>
@@ -37250,7 +37257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:27" hidden="1">
+    <row r="22" spans="1:27">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Flame Shield</v>
@@ -37307,7 +37314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1">
+    <row r="23" spans="1:27">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Ice Shield</v>
@@ -37364,7 +37371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:27" hidden="1">
+    <row r="24" spans="1:27">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Shield</v>
@@ -37421,7 +37428,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:27" hidden="1">
+    <row r="25" spans="1:27">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Cure Potion</v>
@@ -37478,7 +37485,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:27" hidden="1">
+    <row r="26" spans="1:27">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>X-Cure Potion</v>
@@ -37535,7 +37542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:27" hidden="1">
+    <row r="27" spans="1:27">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Curse Potion</v>
@@ -37589,7 +37596,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="28" spans="1:27" hidden="1">
+    <row r="28" spans="1:27">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EyeDrop</v>
@@ -37643,7 +37650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:27" hidden="1">
+    <row r="29" spans="1:27">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Abacus</v>
@@ -37698,7 +37705,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1">
+    <row r="30" spans="1:27">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Xcalibr Sword</v>
@@ -37763,7 +37770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" hidden="1">
+    <row r="31" spans="1:27">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
@@ -37827,7 +37834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:27" hidden="1">
+    <row r="32" spans="1:27">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Cure Book</v>
@@ -37887,7 +37894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1">
+    <row r="33" spans="1:25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Prayer Book</v>
@@ -37947,7 +37954,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1">
+    <row r="34" spans="1:25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Fire Book</v>
@@ -38007,7 +38014,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:25" hidden="1">
+    <row r="35" spans="1:25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Ice Book</v>
@@ -38067,7 +38074,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1">
+    <row r="36" spans="1:25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Book</v>
@@ -38127,7 +38134,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:25" hidden="1">
+    <row r="37" spans="1:25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Fog Book</v>
@@ -38361,7 +38368,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1">
+    <row r="41" spans="1:25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Mage Staff</v>
@@ -38478,7 +38485,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1">
+    <row r="43" spans="1:25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Heal Staff</v>
@@ -38538,7 +38545,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1">
+    <row r="44" spans="1:25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Flare Book</v>
@@ -38595,7 +38602,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1">
+    <row r="45" spans="1:25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Helm</v>
@@ -38639,7 +38646,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1">
+    <row r="46" spans="1:25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Silver Helm</v>
@@ -38683,7 +38690,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1">
+    <row r="47" spans="1:25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Gold Helm</v>
@@ -38727,7 +38734,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1">
+    <row r="48" spans="1:25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Helm</v>
@@ -38774,7 +38781,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="49" spans="1:25" hidden="1">
+    <row r="49" spans="1:25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Armor</v>
@@ -38818,7 +38825,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="50" spans="1:25" hidden="1">
+    <row r="50" spans="1:25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Silver Armor</v>
@@ -38862,7 +38869,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1">
+    <row r="51" spans="1:25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Gold Armor</v>
@@ -38906,7 +38913,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1">
+    <row r="52" spans="1:25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Armor</v>
@@ -38953,7 +38960,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1">
+    <row r="53" spans="1:25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Arthur Armor</v>
@@ -39000,7 +39007,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1">
+    <row r="54" spans="1:25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Glove</v>
@@ -39044,7 +39051,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1">
+    <row r="55" spans="1:25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Silver Glove</v>
@@ -39088,7 +39095,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1">
+    <row r="56" spans="1:25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Gold Glove</v>
@@ -39132,7 +39139,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1">
+    <row r="57" spans="1:25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Giant Glove</v>
@@ -39176,7 +39183,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1">
+    <row r="58" spans="1:25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Ninja Glove</v>
@@ -39223,7 +39230,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1">
+    <row r="59" spans="1:25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Hermes Boot</v>
@@ -39267,7 +39274,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1">
+    <row r="60" spans="1:25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Hecate Boot</v>
@@ -39311,7 +39318,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1">
+    <row r="61" spans="1:25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Elixier</v>
@@ -39363,7 +39370,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1">
+    <row r="62" spans="1:25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Soft Potion</v>
@@ -39417,7 +39424,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1">
+    <row r="63" spans="1:25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Power Potion</v>
@@ -39461,7 +39468,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1">
+    <row r="64" spans="1:25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Speed Potion</v>
@@ -39505,7 +39512,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1">
+    <row r="65" spans="1:27">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Magic Potion</v>
@@ -39549,7 +39556,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="66" spans="1:27" hidden="1">
+    <row r="66" spans="1:27">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="6">B66</f>
         <v>Body Potion</v>
@@ -39593,7 +39600,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1">
+    <row r="67" spans="1:27">
       <c r="A67" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Tent </v>
@@ -39635,7 +39642,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1">
+    <row r="68" spans="1:27">
       <c r="A68" t="str">
         <f t="shared" si="6"/>
         <v>Whip</v>
@@ -39697,7 +39704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1">
+    <row r="69" spans="1:27">
       <c r="A69" t="str">
         <f t="shared" si="6"/>
         <v>Blitz Whip</v>
@@ -39760,7 +39767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1">
+    <row r="70" spans="1:27">
       <c r="A70" t="str">
         <f t="shared" si="6"/>
         <v>ChainSaw</v>
@@ -39815,7 +39822,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1">
+    <row r="71" spans="1:27">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
         <v>Counter</v>
@@ -39869,7 +39876,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1">
+    <row r="72" spans="1:27">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
         <v>Colt Gun</v>
@@ -39940,7 +39947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1">
+    <row r="73" spans="1:27">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
         <v>Musket Gun</v>
@@ -40009,7 +40016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:27" hidden="1">
+    <row r="74" spans="1:27">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
         <v>Magnum Gun</v>
@@ -40078,7 +40085,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:27" hidden="1">
+    <row r="75" spans="1:27">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
         <v>Chop Art</v>
@@ -40137,7 +40144,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1">
+    <row r="76" spans="1:27">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
         <v>Kick Art</v>
@@ -40193,7 +40200,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1">
+    <row r="77" spans="1:27">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
         <v>HeadBut Art</v>
@@ -40249,7 +40256,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="78" spans="1:27" hidden="1">
+    <row r="78" spans="1:27">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
         <v>Roundhouse Art</v>
@@ -40308,7 +40315,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1">
+    <row r="79" spans="1:27">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
         <v>Jyudo Art</v>
@@ -40364,7 +40371,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1">
+    <row r="80" spans="1:27">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
         <v>Karate Art</v>
@@ -40534,7 +40541,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="83" spans="1:26" hidden="1">
+    <row r="83" spans="1:26">
       <c r="A83" t="str">
         <f t="shared" si="6"/>
         <v>Heat</v>
@@ -40583,7 +40590,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="84" spans="1:26" hidden="1">
+    <row r="84" spans="1:26">
       <c r="A84" t="str">
         <f t="shared" si="6"/>
         <v>ComVirus</v>
@@ -40638,7 +40645,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="85" spans="1:26" hidden="1">
+    <row r="85" spans="1:26">
       <c r="A85" t="str">
         <f t="shared" si="6"/>
         <v>DNA</v>
@@ -40687,7 +40694,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="86" spans="1:26" hidden="1">
+    <row r="86" spans="1:26">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
         <v>SMG Gun</v>
@@ -40752,7 +40759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:26" hidden="1">
+    <row r="87" spans="1:26">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
         <v>Grenade</v>
@@ -40814,7 +40821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" hidden="1">
+    <row r="88" spans="1:26">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
         <v>Bazooka Cannon</v>
@@ -40877,7 +40884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:26" hidden="1">
+    <row r="89" spans="1:26">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
         <v>Vulcan Cannon</v>
@@ -40940,7 +40947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:26" hidden="1">
+    <row r="90" spans="1:26">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
         <v>Tank Cannon</v>
@@ -41009,7 +41016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:26" hidden="1">
+    <row r="91" spans="1:26">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
         <v>Fire Gun</v>
@@ -41077,7 +41084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:26" hidden="1">
+    <row r="92" spans="1:26">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
         <v>Missile Cannon</v>
@@ -41139,7 +41146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:26" hidden="1">
+    <row r="93" spans="1:26">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
         <v>NukeBomb</v>
@@ -41201,7 +41208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:26" hidden="1">
+    <row r="94" spans="1:26">
       <c r="A94" t="str">
         <f t="shared" si="6"/>
         <v>Giant Armor</v>
@@ -41245,7 +41252,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="95" spans="1:26" hidden="1">
+    <row r="95" spans="1:26">
       <c r="A95" t="str">
         <f t="shared" si="6"/>
         <v>Army Helm</v>
@@ -41289,7 +41296,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="96" spans="1:26" hidden="1">
+    <row r="96" spans="1:26">
       <c r="A96" t="str">
         <f t="shared" si="6"/>
         <v>Army Armor</v>
@@ -41333,7 +41340,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="97" spans="1:27" hidden="1">
+    <row r="97" spans="1:27">
       <c r="A97" t="str">
         <f t="shared" si="6"/>
         <v>Geta Boot</v>
@@ -41377,7 +41384,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="98" spans="1:27" hidden="1">
+    <row r="98" spans="1:27">
       <c r="A98" t="str">
         <f t="shared" si="6"/>
         <v>Sypha</v>
@@ -41435,7 +41442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:27" hidden="1">
+    <row r="99" spans="1:27">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
         <v>Coin</v>
@@ -41500,7 +41507,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:27" hidden="1">
+    <row r="100" spans="1:27">
       <c r="A100" t="str">
         <f t="shared" si="6"/>
         <v>Kimono Armor</v>
@@ -41544,7 +41551,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="101" spans="1:27" hidden="1">
+    <row r="101" spans="1:27">
       <c r="A101" t="str">
         <f t="shared" si="6"/>
         <v>Samurai Shield</v>
@@ -41598,7 +41605,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:27" hidden="1">
+    <row r="102" spans="1:27">
       <c r="A102" t="str">
         <f t="shared" si="6"/>
         <v>Muramas</v>
@@ -41658,7 +41665,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="103" spans="1:27" hidden="1">
+    <row r="103" spans="1:27">
       <c r="A103" t="str">
         <f t="shared" si="6"/>
         <v>Gungnir Spear</v>
@@ -41721,7 +41728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27" hidden="1">
+    <row r="104" spans="1:27">
       <c r="A104" t="str">
         <f t="shared" si="6"/>
         <v>Laser Sword</v>
@@ -41781,7 +41788,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="105" spans="1:27" hidden="1">
+    <row r="105" spans="1:27">
       <c r="A105" t="str">
         <f t="shared" si="6"/>
         <v>Psi Knife</v>
@@ -41838,7 +41845,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="106" spans="1:27" hidden="1">
+    <row r="106" spans="1:27">
       <c r="A106" t="str">
         <f t="shared" si="6"/>
         <v>Psi Sword</v>
@@ -41895,7 +41902,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="107" spans="1:27" hidden="1">
+    <row r="107" spans="1:27">
       <c r="A107" t="str">
         <f t="shared" si="6"/>
         <v>Laser Gun</v>
@@ -41955,7 +41962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:27" hidden="1">
+    <row r="108" spans="1:27">
       <c r="A108" t="str">
         <f t="shared" si="6"/>
         <v>SpeedUp</v>
@@ -42010,7 +42017,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="109" spans="1:27" hidden="1">
+    <row r="109" spans="1:27">
       <c r="A109" t="str">
         <f t="shared" si="6"/>
         <v>Rocket</v>
@@ -42075,7 +42082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:27" hidden="1">
+    <row r="110" spans="1:27">
       <c r="A110" t="str">
         <f t="shared" si="6"/>
         <v>Psi Gun</v>
@@ -42132,7 +42139,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="111" spans="1:27" hidden="1">
+    <row r="111" spans="1:27">
       <c r="A111" t="str">
         <f t="shared" si="6"/>
         <v>Giant Helm</v>
@@ -42176,7 +42183,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1">
+    <row r="112" spans="1:27">
       <c r="A112" t="str">
         <f t="shared" si="6"/>
         <v>Hyper Cannon</v>
@@ -42232,7 +42239,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="113" spans="1:26" hidden="1">
+    <row r="113" spans="1:26">
       <c r="A113" t="str">
         <f t="shared" si="6"/>
         <v>Battle Armor</v>
@@ -42276,7 +42283,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="114" spans="1:26" hidden="1">
+    <row r="114" spans="1:26">
       <c r="A114" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Parasuit </v>
@@ -42321,7 +42328,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="115" spans="1:26" hidden="1">
+    <row r="115" spans="1:26">
       <c r="A115" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Door </v>
@@ -42363,7 +42370,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="116" spans="1:26" hidden="1">
+    <row r="116" spans="1:26">
       <c r="A116" t="str">
         <f t="shared" si="6"/>
         <v>Micron Potion</v>
@@ -42407,7 +42414,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="117" spans="1:26" hidden="1">
+    <row r="117" spans="1:26">
       <c r="A117" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Key </v>
@@ -42449,7 +42456,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="118" spans="1:26" hidden="1">
+    <row r="118" spans="1:26">
       <c r="A118" t="str">
         <f t="shared" si="6"/>
         <v>Masmune Magi</v>
@@ -42509,7 +42516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:26" hidden="1">
+    <row r="119" spans="1:26">
       <c r="A119" t="str">
         <f t="shared" si="6"/>
         <v>Aegis Magi</v>
@@ -42569,7 +42576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:26" hidden="1">
+    <row r="120" spans="1:26">
       <c r="A120" t="str">
         <f t="shared" si="6"/>
         <v>Heart Magi</v>
@@ -42623,7 +42630,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="121" spans="1:26" hidden="1">
+    <row r="121" spans="1:26">
       <c r="A121" t="str">
         <f t="shared" si="6"/>
         <v>Pegasus Magi</v>
@@ -42668,7 +42675,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="122" spans="1:26" hidden="1">
+    <row r="122" spans="1:26">
       <c r="A122" t="str">
         <f t="shared" si="6"/>
         <v>Selfix</v>
@@ -42716,7 +42723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:26" hidden="1">
+    <row r="123" spans="1:26">
       <c r="A123" t="str">
         <f t="shared" si="6"/>
         <v>Seven Sword</v>
@@ -42776,7 +42783,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="124" spans="1:26" hidden="1">
+    <row r="124" spans="1:26">
       <c r="A124" t="str">
         <f t="shared" si="6"/>
         <v>Nail</v>
@@ -42831,7 +42838,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="125" spans="1:26" hidden="1">
+    <row r="125" spans="1:26">
       <c r="A125" t="str">
         <f t="shared" si="6"/>
         <v>Tusk</v>
@@ -42886,7 +42893,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="126" spans="1:26" hidden="1">
+    <row r="126" spans="1:26">
       <c r="A126" t="str">
         <f t="shared" si="6"/>
         <v>Tongue</v>
@@ -42941,7 +42948,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="127" spans="1:26" hidden="1">
+    <row r="127" spans="1:26">
       <c r="A127" t="str">
         <f t="shared" si="6"/>
         <v>Stab</v>
@@ -42996,7 +43003,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="128" spans="1:26" hidden="1">
+    <row r="128" spans="1:26">
       <c r="A128" t="str">
         <f t="shared" si="6"/>
         <v>Branch</v>
@@ -43051,7 +43058,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="129" spans="1:27" hidden="1">
+    <row r="129" spans="1:27">
       <c r="A129" t="str">
         <f t="shared" si="6"/>
         <v>Bash</v>
@@ -43106,7 +43113,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="130" spans="1:27" hidden="1">
+    <row r="130" spans="1:27">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="11">B130</f>
         <v>Punch</v>
@@ -43161,7 +43168,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="131" spans="1:27" hidden="1">
+    <row r="131" spans="1:27">
       <c r="A131" t="str">
         <f t="shared" si="11"/>
         <v>Kick</v>
@@ -43216,7 +43223,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="132" spans="1:27" hidden="1">
+    <row r="132" spans="1:27">
       <c r="A132" t="str">
         <f t="shared" si="11"/>
         <v>Horn</v>
@@ -43271,7 +43278,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="133" spans="1:27" hidden="1">
+    <row r="133" spans="1:27">
       <c r="A133" t="str">
         <f t="shared" si="11"/>
         <v>Thorn</v>
@@ -43326,7 +43333,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="134" spans="1:27" hidden="1">
+    <row r="134" spans="1:27">
       <c r="A134" t="str">
         <f t="shared" si="11"/>
         <v>Sword</v>
@@ -43381,7 +43388,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="135" spans="1:27" hidden="1">
+    <row r="135" spans="1:27">
       <c r="A135" t="str">
         <f t="shared" si="11"/>
         <v>Head</v>
@@ -43436,7 +43443,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="136" spans="1:27" hidden="1">
+    <row r="136" spans="1:27">
       <c r="A136" t="str">
         <f t="shared" si="11"/>
         <v>Beak</v>
@@ -43491,7 +43498,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="137" spans="1:27" hidden="1">
+    <row r="137" spans="1:27">
       <c r="A137" t="str">
         <f t="shared" si="11"/>
         <v>Tail</v>
@@ -43549,7 +43556,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="138" spans="1:27" hidden="1">
+    <row r="138" spans="1:27">
       <c r="A138" t="str">
         <f t="shared" si="11"/>
         <v>Pincer</v>
@@ -43604,7 +43611,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="139" spans="1:27" hidden="1">
+    <row r="139" spans="1:27">
       <c r="A139" t="str">
         <f t="shared" si="11"/>
         <v>Fin</v>
@@ -43659,7 +43666,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="140" spans="1:27" hidden="1">
+    <row r="140" spans="1:27">
       <c r="A140" t="str">
         <f t="shared" si="11"/>
         <v>Tentacle</v>
@@ -43714,7 +43721,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="141" spans="1:27" hidden="1">
+    <row r="141" spans="1:27">
       <c r="A141" t="str">
         <f t="shared" si="11"/>
         <v>W-Pincer</v>
@@ -43770,7 +43777,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="142" spans="1:27" hidden="1">
+    <row r="142" spans="1:27">
       <c r="A142" t="str">
         <f t="shared" si="11"/>
         <v>W-Attack</v>
@@ -43828,7 +43835,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="143" spans="1:27" hidden="1">
+    <row r="143" spans="1:27">
       <c r="A143" t="str">
         <f t="shared" si="11"/>
         <v>4-Heads</v>
@@ -43886,7 +43893,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="144" spans="1:27" hidden="1">
+    <row r="144" spans="1:27">
       <c r="A144" t="str">
         <f t="shared" si="11"/>
         <v>8-Legs</v>
@@ -43944,7 +43951,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="145" spans="1:27" hidden="1">
+    <row r="145" spans="1:27">
       <c r="A145" t="str">
         <f t="shared" si="11"/>
         <v>Touch</v>
@@ -44003,7 +44010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:27" hidden="1">
+    <row r="146" spans="1:27">
       <c r="A146" t="str">
         <f t="shared" si="11"/>
         <v>Saw</v>
@@ -44056,7 +44063,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="147" spans="1:27" hidden="1">
+    <row r="147" spans="1:27">
       <c r="A147" t="str">
         <f t="shared" si="11"/>
         <v>Dissolve</v>
@@ -44115,7 +44122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:27" hidden="1">
+    <row r="148" spans="1:27">
       <c r="A148" t="str">
         <f t="shared" si="11"/>
         <v>Absorb</v>
@@ -44174,7 +44181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:27" hidden="1">
+    <row r="149" spans="1:27">
       <c r="A149" t="str">
         <f t="shared" si="11"/>
         <v>Cure</v>
@@ -44230,7 +44237,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:27" hidden="1">
+    <row r="150" spans="1:27">
       <c r="A150" t="str">
         <f t="shared" si="11"/>
         <v>Defense</v>
@@ -44280,7 +44287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:27" hidden="1">
+    <row r="151" spans="1:27">
       <c r="A151" t="str">
         <f t="shared" si="11"/>
         <v>Shell</v>
@@ -44330,7 +44337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:27" hidden="1">
+    <row r="152" spans="1:27">
       <c r="A152" t="str">
         <f t="shared" si="11"/>
         <v>Mirror</v>
@@ -44377,7 +44384,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="153" spans="1:27" hidden="1">
+    <row r="153" spans="1:27">
       <c r="A153" t="str">
         <f t="shared" si="11"/>
         <v>Backlash</v>
@@ -44430,7 +44437,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="154" spans="1:27" hidden="1">
+    <row r="154" spans="1:27">
       <c r="A154" t="str">
         <f t="shared" si="11"/>
         <v>Burning</v>
@@ -44486,7 +44493,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="155" spans="1:27" hidden="1">
+    <row r="155" spans="1:27">
       <c r="A155" t="str">
         <f t="shared" si="11"/>
         <v>2-Swords</v>
@@ -44542,7 +44549,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="156" spans="1:27" hidden="1">
+    <row r="156" spans="1:27">
       <c r="A156" t="str">
         <f t="shared" si="11"/>
         <v>2-Tusks</v>
@@ -44598,7 +44605,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="157" spans="1:27" hidden="1">
+    <row r="157" spans="1:27">
       <c r="A157" t="str">
         <f t="shared" si="11"/>
         <v>3-Heads</v>
@@ -44656,7 +44663,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="158" spans="1:27" hidden="1">
+    <row r="158" spans="1:27">
       <c r="A158" t="str">
         <f t="shared" si="11"/>
         <v>3-Horns</v>
@@ -44714,7 +44721,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="159" spans="1:27" hidden="1">
+    <row r="159" spans="1:27">
       <c r="A159" t="str">
         <f t="shared" si="11"/>
         <v>6-Arms</v>
@@ -44770,7 +44777,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="160" spans="1:27" hidden="1">
+    <row r="160" spans="1:27">
       <c r="A160" t="str">
         <f t="shared" si="11"/>
         <v>Critical</v>
@@ -44826,7 +44833,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:27" hidden="1">
+    <row r="161" spans="1:27">
       <c r="A161" t="str">
         <f t="shared" si="11"/>
         <v>Axe</v>
@@ -44881,7 +44888,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="162" spans="1:27" hidden="1">
+    <row r="162" spans="1:27">
       <c r="A162" t="str">
         <f t="shared" si="11"/>
         <v>Honey</v>
@@ -44937,7 +44944,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:27" hidden="1">
+    <row r="163" spans="1:27">
       <c r="A163" t="str">
         <f t="shared" si="11"/>
         <v>Heal</v>
@@ -44993,7 +45000,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:27" hidden="1">
+    <row r="164" spans="1:27">
       <c r="A164" t="str">
         <f t="shared" si="11"/>
         <v>MegaCure</v>
@@ -45053,7 +45060,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="165" spans="1:27" hidden="1">
+    <row r="165" spans="1:27">
       <c r="A165" t="str">
         <f t="shared" si="11"/>
         <v>W-Kick</v>
@@ -45586,7 +45593,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="175" spans="1:27" hidden="1">
+    <row r="175" spans="1:27">
       <c r="A175" t="str">
         <f t="shared" si="11"/>
         <v>Thunder</v>
@@ -45642,7 +45649,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:27" hidden="1">
+    <row r="176" spans="1:27">
       <c r="A176" t="str">
         <f t="shared" si="11"/>
         <v>Ice</v>
@@ -45698,7 +45705,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="177" spans="1:24" hidden="1">
+    <row r="177" spans="1:24">
       <c r="A177" t="str">
         <f t="shared" si="11"/>
         <v>Fire</v>
@@ -45754,7 +45761,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:24" hidden="1">
+    <row r="178" spans="1:24">
       <c r="A178" t="str">
         <f t="shared" si="11"/>
         <v>Flame</v>
@@ -45810,7 +45817,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:24" hidden="1">
+    <row r="179" spans="1:24">
       <c r="A179" t="str">
         <f t="shared" si="11"/>
         <v>Gas</v>
@@ -45866,7 +45873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:24" hidden="1">
+    <row r="180" spans="1:24">
       <c r="A180" t="str">
         <f t="shared" si="11"/>
         <v>Blizzard</v>
@@ -45922,7 +45929,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="181" spans="1:24" hidden="1">
+    <row r="181" spans="1:24">
       <c r="A181" t="str">
         <f t="shared" si="11"/>
         <v>Lightning</v>
@@ -45978,7 +45985,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:24" hidden="1">
+    <row r="182" spans="1:24">
       <c r="A182" t="str">
         <f t="shared" si="11"/>
         <v>Beam</v>
@@ -46031,7 +46038,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="183" spans="1:24" hidden="1">
+    <row r="183" spans="1:24">
       <c r="A183" t="str">
         <f t="shared" si="11"/>
         <v>P-Blast</v>
@@ -46084,7 +46091,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="184" spans="1:24" hidden="1">
+    <row r="184" spans="1:24">
       <c r="A184" t="str">
         <f t="shared" si="11"/>
         <v>Dispel</v>
@@ -46140,7 +46147,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="185" spans="1:24" hidden="1">
+    <row r="185" spans="1:24">
       <c r="A185" t="str">
         <f t="shared" si="11"/>
         <v>D-Beam</v>
@@ -46196,7 +46203,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="186" spans="1:24" hidden="1">
+    <row r="186" spans="1:24">
       <c r="A186" t="str">
         <f t="shared" si="11"/>
         <v>Squirt</v>
@@ -46252,7 +46259,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="187" spans="1:24" hidden="1">
+    <row r="187" spans="1:24">
       <c r="A187" t="str">
         <f t="shared" si="11"/>
         <v>SunBurst</v>
@@ -47215,7 +47222,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="205" spans="1:27" hidden="1">
+    <row r="205" spans="1:27">
       <c r="A205" t="str">
         <f t="shared" si="14"/>
         <v>Sand</v>
@@ -47268,7 +47275,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="206" spans="1:27" hidden="1">
+    <row r="206" spans="1:27">
       <c r="A206" t="str">
         <f t="shared" si="14"/>
         <v>Cobweb</v>
@@ -47321,7 +47328,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="207" spans="1:27" hidden="1">
+    <row r="207" spans="1:27">
       <c r="A207" t="str">
         <f t="shared" si="14"/>
         <v>Blitz</v>
@@ -47374,7 +47381,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="208" spans="1:27" hidden="1">
+    <row r="208" spans="1:27">
       <c r="A208" t="str">
         <f t="shared" si="14"/>
         <v>Drain</v>
@@ -47427,7 +47434,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="209" spans="1:25" hidden="1">
+    <row r="209" spans="1:25">
       <c r="A209" t="str">
         <f t="shared" si="14"/>
         <v>Stench</v>
@@ -47480,7 +47487,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="210" spans="1:25" hidden="1">
+    <row r="210" spans="1:25">
       <c r="A210" t="str">
         <f t="shared" si="14"/>
         <v>Haste</v>
@@ -47533,7 +47540,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="211" spans="1:25" hidden="1">
+    <row r="211" spans="1:25">
       <c r="A211" t="str">
         <f t="shared" si="14"/>
         <v>Tornado</v>
@@ -47586,7 +47593,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="212" spans="1:25" hidden="1">
+    <row r="212" spans="1:25">
       <c r="A212" t="str">
         <f t="shared" si="14"/>
         <v>Quake</v>
@@ -47642,7 +47649,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="213" spans="1:25" hidden="1">
+    <row r="213" spans="1:25">
       <c r="A213" t="str">
         <f t="shared" si="14"/>
         <v>Whirl</v>
@@ -47695,7 +47702,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="214" spans="1:25" hidden="1">
+    <row r="214" spans="1:25">
       <c r="A214" t="str">
         <f t="shared" si="14"/>
         <v>Flare</v>
@@ -47748,7 +47755,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="215" spans="1:25" hidden="1">
+    <row r="215" spans="1:25">
       <c r="A215" t="str">
         <f t="shared" si="14"/>
         <v>Steal</v>
@@ -47801,7 +47808,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="216" spans="1:25" hidden="1">
+    <row r="216" spans="1:25">
       <c r="A216" t="str">
         <f t="shared" si="14"/>
         <v>Explode</v>
@@ -47857,7 +47864,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="217" spans="1:25" hidden="1">
+    <row r="217" spans="1:25">
       <c r="A217" t="str">
         <f t="shared" si="14"/>
         <v>Acid</v>
@@ -48072,7 +48079,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="221" spans="1:25" hidden="1">
+    <row r="221" spans="1:25">
       <c r="A221" t="str">
         <f t="shared" si="14"/>
         <v>Surprise</v>
@@ -48116,7 +48123,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="222" spans="1:25" hidden="1">
+    <row r="222" spans="1:25">
       <c r="A222" t="str">
         <f t="shared" si="14"/>
         <v>Warning</v>
@@ -48160,7 +48167,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="223" spans="1:25" hidden="1">
+    <row r="223" spans="1:25">
       <c r="A223" t="str">
         <f t="shared" si="14"/>
         <v>Multiply</v>
@@ -48207,7 +48214,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="224" spans="1:25" hidden="1">
+    <row r="224" spans="1:25">
       <c r="A224" t="str">
         <f t="shared" si="14"/>
         <v>O-Quake</v>
@@ -48256,7 +48263,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="225" spans="1:27" hidden="1">
+    <row r="225" spans="1:27">
       <c r="A225" t="str">
         <f t="shared" si="14"/>
         <v>O-Change</v>
@@ -48305,7 +48312,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="226" spans="1:27" hidden="1">
+    <row r="226" spans="1:27">
       <c r="A226" t="str">
         <f t="shared" si="14"/>
         <v>O-Fire</v>
@@ -48354,7 +48361,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="227" spans="1:27" hidden="1">
+    <row r="227" spans="1:27">
       <c r="A227" t="str">
         <f t="shared" si="14"/>
         <v>O-Poison</v>
@@ -48403,7 +48410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:27" hidden="1">
+    <row r="228" spans="1:27">
       <c r="A228" t="str">
         <f t="shared" si="14"/>
         <v>O-Damage</v>
@@ -48452,7 +48459,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="229" spans="1:27" hidden="1">
+    <row r="229" spans="1:27">
       <c r="A229" t="str">
         <f t="shared" si="14"/>
         <v>O-Weapon</v>
@@ -48501,7 +48508,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="230" spans="1:27" hidden="1">
+    <row r="230" spans="1:27">
       <c r="A230" t="str">
         <f t="shared" si="14"/>
         <v>O-Pa/Po</v>
@@ -48550,7 +48557,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="231" spans="1:27" hidden="1">
+    <row r="231" spans="1:27">
       <c r="A231" t="str">
         <f t="shared" si="14"/>
         <v>O-Para</v>
@@ -48599,7 +48606,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="232" spans="1:27" hidden="1">
+    <row r="232" spans="1:27">
       <c r="A232" t="str">
         <f t="shared" si="14"/>
         <v>O-Ice</v>
@@ -48648,7 +48655,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="233" spans="1:27" hidden="1">
+    <row r="233" spans="1:27">
       <c r="A233" t="str">
         <f t="shared" si="14"/>
         <v>O-Stone</v>
@@ -48697,7 +48704,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="234" spans="1:27" hidden="1">
+    <row r="234" spans="1:27">
       <c r="A234" t="str">
         <f t="shared" si="14"/>
         <v>X-Fire</v>
@@ -48749,7 +48756,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="235" spans="1:27" hidden="1">
+    <row r="235" spans="1:27">
       <c r="A235" t="str">
         <f t="shared" si="14"/>
         <v>X-Ice</v>
@@ -48801,7 +48808,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="236" spans="1:27" hidden="1">
+    <row r="236" spans="1:27">
       <c r="A236" t="str">
         <f t="shared" si="14"/>
         <v>X-Thunder</v>
@@ -48853,7 +48860,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="237" spans="1:27" hidden="1">
+    <row r="237" spans="1:27">
       <c r="A237" t="str">
         <f t="shared" si="14"/>
         <v>Teleport</v>
@@ -48893,7 +48900,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="238" spans="1:27" hidden="1">
+    <row r="238" spans="1:27">
       <c r="A238" t="str">
         <f t="shared" si="14"/>
         <v>Remedy</v>
@@ -48940,7 +48947,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="239" spans="1:27" hidden="1">
+    <row r="239" spans="1:27">
       <c r="A239" t="str">
         <f t="shared" si="14"/>
         <v>O-All</v>
@@ -49045,7 +49052,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="241" spans="1:27" hidden="1">
+    <row r="241" spans="1:27">
       <c r="A241" t="str">
         <f t="shared" si="14"/>
         <v>FlareApollo</v>
@@ -49091,7 +49098,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="242" spans="1:27" hidden="1">
+    <row r="242" spans="1:27">
       <c r="A242" t="str">
         <f t="shared" si="14"/>
         <v>Smasher</v>
@@ -49135,7 +49142,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="243" spans="1:27" hidden="1">
+    <row r="243" spans="1:27">
       <c r="A243" t="str">
         <f t="shared" si="14"/>
         <v>Recover</v>
@@ -49175,7 +49182,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="244" spans="1:27" hidden="1">
+    <row r="244" spans="1:27">
       <c r="A244" t="str">
         <f t="shared" si="14"/>
         <v>Power Magi</v>
@@ -49220,7 +49227,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="245" spans="1:27" hidden="1">
+    <row r="245" spans="1:27">
       <c r="A245" t="str">
         <f t="shared" si="14"/>
         <v>Speed Magi</v>
@@ -49265,7 +49272,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="246" spans="1:27" hidden="1">
+    <row r="246" spans="1:27">
       <c r="A246" t="str">
         <f t="shared" si="14"/>
         <v>Mana Magi</v>
@@ -49310,7 +49317,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="247" spans="1:27" hidden="1">
+    <row r="247" spans="1:27">
       <c r="A247" t="str">
         <f t="shared" si="14"/>
         <v>Defense Magi</v>
@@ -49355,7 +49362,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="248" spans="1:27" hidden="1">
+    <row r="248" spans="1:27">
       <c r="A248" t="str">
         <f t="shared" si="14"/>
         <v>Fire Magi</v>
@@ -49403,7 +49410,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:27" hidden="1">
+    <row r="249" spans="1:27">
       <c r="A249" t="str">
         <f t="shared" si="14"/>
         <v>Ice Magi</v>
@@ -49451,7 +49458,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:27" hidden="1">
+    <row r="250" spans="1:27">
       <c r="A250" t="str">
         <f t="shared" si="14"/>
         <v>Thunder Magi</v>
@@ -49499,7 +49506,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:27" hidden="1">
+    <row r="251" spans="1:27">
       <c r="A251" t="str">
         <f t="shared" si="14"/>
         <v>Poison Magi</v>
@@ -49547,7 +49554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:27" hidden="1">
+    <row r="252" spans="1:27">
       <c r="A252" t="str">
         <f t="shared" si="14"/>
         <v>CatClaw</v>
@@ -49607,7 +49614,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="253" spans="1:27" hidden="1">
+    <row r="253" spans="1:27">
       <c r="A253" t="str">
         <f t="shared" si="14"/>
         <v>Vampic Sword</v>
@@ -49670,7 +49677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:27" hidden="1">
+    <row r="254" spans="1:27">
       <c r="A254" t="str">
         <f t="shared" si="14"/>
         <v>Glass Sword</v>
@@ -49738,7 +49745,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="255" spans="1:27" hidden="1">
+    <row r="255" spans="1:27">
       <c r="A255" t="str">
         <f t="shared" si="14"/>
         <v>Revenge Sword</v>
@@ -49792,7 +49799,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:27" hidden="1">
+    <row r="256" spans="1:27">
       <c r="A256" t="str">
         <f t="shared" si="14"/>
         <v>Bow</v>
@@ -49859,7 +49866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:27" hidden="1">
+    <row r="257" spans="1:27">
       <c r="A257" t="str">
         <f t="shared" si="14"/>
         <v>Sabre</v>
@@ -49919,7 +49926,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="258" spans="1:27" hidden="1">
+    <row r="258" spans="1:27">
       <c r="A258" t="str">
         <f t="shared" si="14"/>
         <v>O-Dragon</v>
@@ -49949,11 +49956,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AA258" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="23">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState ref="A2:AA257">
       <sortCondition ref="E1:E257"/>
     </sortState>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5CD7C0-C8BC-432E-80A6-65ED64C9955C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E8F555-9E5C-41EE-B5FF-64DFA0D99887}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12238" uniqueCount="2606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12237" uniqueCount="2606">
   <si>
     <t>Monster</t>
   </si>
@@ -9022,9 +9022,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B242" sqref="B242"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q183" sqref="Q183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12630,7 +12630,7 @@
         <v>101</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>209</v>
+        <v>2338</v>
       </c>
       <c r="T54" s="6" t="s">
         <v>160</v>
@@ -17053,7 +17053,7 @@
         <v>25</v>
       </c>
       <c r="R120" s="9" t="s">
-        <v>209</v>
+        <v>2338</v>
       </c>
       <c r="S120" s="9" t="s">
         <v>55</v>
@@ -35974,12 +35974,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AA258"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y81" sqref="Y81"/>
+      <selection pane="bottomLeft" activeCell="T152" sqref="T152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36074,7 +36074,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" hidden="1">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">B2</f>
         <v>Hammer</v>
@@ -36129,7 +36129,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" hidden="1">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Long Sword</v>
@@ -36186,7 +36186,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" hidden="1">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Axe</v>
@@ -36243,7 +36243,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" hidden="1">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Battle Sword</v>
@@ -36300,7 +36300,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" hidden="1">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Katana</v>
@@ -36357,7 +36357,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" hidden="1">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Gold Sword</v>
@@ -36414,7 +36414,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" hidden="1">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Coral Sword</v>
@@ -36474,7 +36474,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" hidden="1">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Ogre Axe</v>
@@ -36534,7 +36534,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" hidden="1">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Sword</v>
@@ -36594,7 +36594,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" hidden="1">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Sun Sword</v>
@@ -36654,7 +36654,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" hidden="1">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Flame Sword</v>
@@ -36716,7 +36716,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" hidden="1">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Ice Sword</v>
@@ -36778,7 +36778,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" hidden="1">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Axe</v>
@@ -36840,7 +36840,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" hidden="1">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Defend Sword</v>
@@ -36905,7 +36905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" hidden="1">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Rune Axe</v>
@@ -36968,7 +36968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" hidden="1">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Rapier</v>
@@ -37028,7 +37028,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" hidden="1">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -37095,7 +37095,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" hidden="1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Shield</v>
@@ -37149,7 +37149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" hidden="1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Silver Shield</v>
@@ -37203,7 +37203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" hidden="1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Gold Shield</v>
@@ -37257,7 +37257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" hidden="1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Flame Shield</v>
@@ -37314,7 +37314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" hidden="1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Ice Shield</v>
@@ -37371,7 +37371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" hidden="1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Shield</v>
@@ -37428,7 +37428,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" hidden="1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Cure Potion</v>
@@ -37485,7 +37485,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" hidden="1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>X-Cure Potion</v>
@@ -37542,7 +37542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" hidden="1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Curse Potion</v>
@@ -37596,7 +37596,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" hidden="1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EyeDrop</v>
@@ -37650,7 +37650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" hidden="1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Abacus</v>
@@ -37705,7 +37705,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" hidden="1">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Xcalibr Sword</v>
@@ -37770,7 +37770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" hidden="1">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
@@ -37834,7 +37834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" hidden="1">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Cure Book</v>
@@ -37894,7 +37894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" hidden="1">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Prayer Book</v>
@@ -37954,7 +37954,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" hidden="1">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Fire Book</v>
@@ -38014,7 +38014,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" hidden="1">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Ice Book</v>
@@ -38074,7 +38074,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" hidden="1">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Book</v>
@@ -38134,7 +38134,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" hidden="1">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Fog Book</v>
@@ -38194,7 +38194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" hidden="1">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Sleep Book</v>
@@ -38251,7 +38251,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" hidden="1">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Stone Book</v>
@@ -38308,7 +38308,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" hidden="1">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Death Book</v>
@@ -38368,7 +38368,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" hidden="1">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Mage Staff</v>
@@ -38428,7 +38428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" hidden="1">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Wizard Staff</v>
@@ -38485,7 +38485,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" hidden="1">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Heal Staff</v>
@@ -38545,7 +38545,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" hidden="1">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Flare Book</v>
@@ -38602,7 +38602,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" hidden="1">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Helm</v>
@@ -38646,7 +38646,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" hidden="1">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Silver Helm</v>
@@ -38690,7 +38690,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" hidden="1">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Gold Helm</v>
@@ -38734,7 +38734,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" hidden="1">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Helm</v>
@@ -38781,7 +38781,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" hidden="1">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Armor</v>
@@ -38825,7 +38825,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" hidden="1">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Silver Armor</v>
@@ -38869,7 +38869,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" hidden="1">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Gold Armor</v>
@@ -38913,7 +38913,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" hidden="1">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Armor</v>
@@ -38960,7 +38960,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" hidden="1">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Arthur Armor</v>
@@ -39007,7 +39007,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" hidden="1">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Glove</v>
@@ -39051,7 +39051,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" hidden="1">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Silver Glove</v>
@@ -39095,7 +39095,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" hidden="1">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Gold Glove</v>
@@ -39139,7 +39139,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" hidden="1">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Giant Glove</v>
@@ -39183,7 +39183,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" hidden="1">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Ninja Glove</v>
@@ -39230,7 +39230,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" hidden="1">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Hermes Boot</v>
@@ -39274,7 +39274,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" hidden="1">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Hecate Boot</v>
@@ -39318,7 +39318,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" hidden="1">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Elixier</v>
@@ -39370,7 +39370,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" hidden="1">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Soft Potion</v>
@@ -39424,7 +39424,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" hidden="1">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Power Potion</v>
@@ -39468,7 +39468,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" hidden="1">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Speed Potion</v>
@@ -39512,7 +39512,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" hidden="1">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Magic Potion</v>
@@ -39556,7 +39556,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" hidden="1">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="6">B66</f>
         <v>Body Potion</v>
@@ -39600,7 +39600,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" hidden="1">
       <c r="A67" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Tent </v>
@@ -39642,7 +39642,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" hidden="1">
       <c r="A68" t="str">
         <f t="shared" si="6"/>
         <v>Whip</v>
@@ -39704,7 +39704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" hidden="1">
       <c r="A69" t="str">
         <f t="shared" si="6"/>
         <v>Blitz Whip</v>
@@ -39767,7 +39767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" hidden="1">
       <c r="A70" t="str">
         <f t="shared" si="6"/>
         <v>ChainSaw</v>
@@ -39822,7 +39822,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" hidden="1">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
         <v>Counter</v>
@@ -39876,7 +39876,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" hidden="1">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
         <v>Colt Gun</v>
@@ -39947,7 +39947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" hidden="1">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
         <v>Musket Gun</v>
@@ -40016,7 +40016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" hidden="1">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
         <v>Magnum Gun</v>
@@ -40085,7 +40085,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" hidden="1">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
         <v>Chop Art</v>
@@ -40144,7 +40144,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" hidden="1">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
         <v>Kick Art</v>
@@ -40200,7 +40200,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" hidden="1">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
         <v>HeadBut Art</v>
@@ -40256,7 +40256,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" hidden="1">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
         <v>Roundhouse Art</v>
@@ -40315,7 +40315,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" hidden="1">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
         <v>Jyudo Art</v>
@@ -40371,7 +40371,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" hidden="1">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
         <v>Karate Art</v>
@@ -40429,7 +40429,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" hidden="1">
       <c r="A81" t="str">
         <f t="shared" si="6"/>
         <v>Temptat</v>
@@ -40484,7 +40484,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" hidden="1">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
         <v>StunGun</v>
@@ -40541,7 +40541,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" hidden="1">
       <c r="A83" t="str">
         <f t="shared" si="6"/>
         <v>Heat</v>
@@ -40590,7 +40590,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" hidden="1">
       <c r="A84" t="str">
         <f t="shared" si="6"/>
         <v>ComVirus</v>
@@ -40645,7 +40645,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" hidden="1">
       <c r="A85" t="str">
         <f t="shared" si="6"/>
         <v>DNA</v>
@@ -40694,7 +40694,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" hidden="1">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
         <v>SMG Gun</v>
@@ -40759,7 +40759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" hidden="1">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
         <v>Grenade</v>
@@ -40821,7 +40821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" hidden="1">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
         <v>Bazooka Cannon</v>
@@ -40884,7 +40884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" hidden="1">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
         <v>Vulcan Cannon</v>
@@ -40947,7 +40947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" hidden="1">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
         <v>Tank Cannon</v>
@@ -41016,7 +41016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" hidden="1">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
         <v>Fire Gun</v>
@@ -41084,7 +41084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" hidden="1">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
         <v>Missile Cannon</v>
@@ -41146,7 +41146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" hidden="1">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
         <v>NukeBomb</v>
@@ -41208,7 +41208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" hidden="1">
       <c r="A94" t="str">
         <f t="shared" si="6"/>
         <v>Giant Armor</v>
@@ -41252,7 +41252,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" hidden="1">
       <c r="A95" t="str">
         <f t="shared" si="6"/>
         <v>Army Helm</v>
@@ -41296,7 +41296,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" hidden="1">
       <c r="A96" t="str">
         <f t="shared" si="6"/>
         <v>Army Armor</v>
@@ -41340,7 +41340,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" hidden="1">
       <c r="A97" t="str">
         <f t="shared" si="6"/>
         <v>Geta Boot</v>
@@ -41384,7 +41384,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" hidden="1">
       <c r="A98" t="str">
         <f t="shared" si="6"/>
         <v>Sypha</v>
@@ -41442,7 +41442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" hidden="1">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
         <v>Coin</v>
@@ -41507,7 +41507,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" hidden="1">
       <c r="A100" t="str">
         <f t="shared" si="6"/>
         <v>Kimono Armor</v>
@@ -41551,7 +41551,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" hidden="1">
       <c r="A101" t="str">
         <f t="shared" si="6"/>
         <v>Samurai Shield</v>
@@ -41605,7 +41605,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" hidden="1">
       <c r="A102" t="str">
         <f t="shared" si="6"/>
         <v>Muramas</v>
@@ -41665,7 +41665,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" hidden="1">
       <c r="A103" t="str">
         <f t="shared" si="6"/>
         <v>Gungnir Spear</v>
@@ -41728,7 +41728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" hidden="1">
       <c r="A104" t="str">
         <f t="shared" si="6"/>
         <v>Laser Sword</v>
@@ -41788,7 +41788,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" hidden="1">
       <c r="A105" t="str">
         <f t="shared" si="6"/>
         <v>Psi Knife</v>
@@ -41845,7 +41845,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" hidden="1">
       <c r="A106" t="str">
         <f t="shared" si="6"/>
         <v>Psi Sword</v>
@@ -41902,7 +41902,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" hidden="1">
       <c r="A107" t="str">
         <f t="shared" si="6"/>
         <v>Laser Gun</v>
@@ -41962,7 +41962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" hidden="1">
       <c r="A108" t="str">
         <f t="shared" si="6"/>
         <v>SpeedUp</v>
@@ -42017,7 +42017,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" hidden="1">
       <c r="A109" t="str">
         <f t="shared" si="6"/>
         <v>Rocket</v>
@@ -42082,7 +42082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" hidden="1">
       <c r="A110" t="str">
         <f t="shared" si="6"/>
         <v>Psi Gun</v>
@@ -42139,7 +42139,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" hidden="1">
       <c r="A111" t="str">
         <f t="shared" si="6"/>
         <v>Giant Helm</v>
@@ -42183,7 +42183,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" hidden="1">
       <c r="A112" t="str">
         <f t="shared" si="6"/>
         <v>Hyper Cannon</v>
@@ -42239,7 +42239,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" hidden="1">
       <c r="A113" t="str">
         <f t="shared" si="6"/>
         <v>Battle Armor</v>
@@ -42283,7 +42283,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" hidden="1">
       <c r="A114" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Parasuit </v>
@@ -42328,7 +42328,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" hidden="1">
       <c r="A115" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Door </v>
@@ -42370,7 +42370,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" hidden="1">
       <c r="A116" t="str">
         <f t="shared" si="6"/>
         <v>Micron Potion</v>
@@ -42414,7 +42414,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" hidden="1">
       <c r="A117" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Key </v>
@@ -42456,7 +42456,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" hidden="1">
       <c r="A118" t="str">
         <f t="shared" si="6"/>
         <v>Masmune Magi</v>
@@ -42516,7 +42516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" hidden="1">
       <c r="A119" t="str">
         <f t="shared" si="6"/>
         <v>Aegis Magi</v>
@@ -42576,7 +42576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" hidden="1">
       <c r="A120" t="str">
         <f t="shared" si="6"/>
         <v>Heart Magi</v>
@@ -42630,7 +42630,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" hidden="1">
       <c r="A121" t="str">
         <f t="shared" si="6"/>
         <v>Pegasus Magi</v>
@@ -42675,7 +42675,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" hidden="1">
       <c r="A122" t="str">
         <f t="shared" si="6"/>
         <v>Selfix</v>
@@ -42723,7 +42723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" hidden="1">
       <c r="A123" t="str">
         <f t="shared" si="6"/>
         <v>Seven Sword</v>
@@ -42783,7 +42783,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" hidden="1">
       <c r="A124" t="str">
         <f t="shared" si="6"/>
         <v>Nail</v>
@@ -42838,7 +42838,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" hidden="1">
       <c r="A125" t="str">
         <f t="shared" si="6"/>
         <v>Tusk</v>
@@ -42893,7 +42893,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" hidden="1">
       <c r="A126" t="str">
         <f t="shared" si="6"/>
         <v>Tongue</v>
@@ -42948,7 +42948,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" hidden="1">
       <c r="A127" t="str">
         <f t="shared" si="6"/>
         <v>Stab</v>
@@ -43003,7 +43003,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" hidden="1">
       <c r="A128" t="str">
         <f t="shared" si="6"/>
         <v>Branch</v>
@@ -43058,7 +43058,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" hidden="1">
       <c r="A129" t="str">
         <f t="shared" si="6"/>
         <v>Bash</v>
@@ -43113,7 +43113,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" hidden="1">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="11">B130</f>
         <v>Punch</v>
@@ -43168,7 +43168,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" hidden="1">
       <c r="A131" t="str">
         <f t="shared" si="11"/>
         <v>Kick</v>
@@ -43223,7 +43223,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" hidden="1">
       <c r="A132" t="str">
         <f t="shared" si="11"/>
         <v>Horn</v>
@@ -43278,7 +43278,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" hidden="1">
       <c r="A133" t="str">
         <f t="shared" si="11"/>
         <v>Thorn</v>
@@ -43333,7 +43333,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" hidden="1">
       <c r="A134" t="str">
         <f t="shared" si="11"/>
         <v>Sword</v>
@@ -43388,7 +43388,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" hidden="1">
       <c r="A135" t="str">
         <f t="shared" si="11"/>
         <v>Head</v>
@@ -43443,7 +43443,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" hidden="1">
       <c r="A136" t="str">
         <f t="shared" si="11"/>
         <v>Beak</v>
@@ -43498,7 +43498,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" hidden="1">
       <c r="A137" t="str">
         <f t="shared" si="11"/>
         <v>Tail</v>
@@ -43556,7 +43556,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" hidden="1">
       <c r="A138" t="str">
         <f t="shared" si="11"/>
         <v>Pincer</v>
@@ -43611,7 +43611,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" hidden="1">
       <c r="A139" t="str">
         <f t="shared" si="11"/>
         <v>Fin</v>
@@ -43666,7 +43666,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" hidden="1">
       <c r="A140" t="str">
         <f t="shared" si="11"/>
         <v>Tentacle</v>
@@ -43721,7 +43721,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" hidden="1">
       <c r="A141" t="str">
         <f t="shared" si="11"/>
         <v>W-Pincer</v>
@@ -43777,7 +43777,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" hidden="1">
       <c r="A142" t="str">
         <f t="shared" si="11"/>
         <v>W-Attack</v>
@@ -43835,7 +43835,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" hidden="1">
       <c r="A143" t="str">
         <f t="shared" si="11"/>
         <v>4-Heads</v>
@@ -43893,7 +43893,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" hidden="1">
       <c r="A144" t="str">
         <f t="shared" si="11"/>
         <v>8-Legs</v>
@@ -43951,7 +43951,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" hidden="1">
       <c r="A145" t="str">
         <f t="shared" si="11"/>
         <v>Touch</v>
@@ -44010,7 +44010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" hidden="1">
       <c r="A146" t="str">
         <f t="shared" si="11"/>
         <v>Saw</v>
@@ -44063,7 +44063,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" hidden="1">
       <c r="A147" t="str">
         <f t="shared" si="11"/>
         <v>Dissolve</v>
@@ -44122,7 +44122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" hidden="1">
       <c r="A148" t="str">
         <f t="shared" si="11"/>
         <v>Absorb</v>
@@ -44181,7 +44181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" hidden="1">
       <c r="A149" t="str">
         <f t="shared" si="11"/>
         <v>Cure</v>
@@ -44237,7 +44237,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" hidden="1">
       <c r="A150" t="str">
         <f t="shared" si="11"/>
         <v>Defense</v>
@@ -44287,7 +44287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" hidden="1">
       <c r="A151" t="str">
         <f t="shared" si="11"/>
         <v>Shell</v>
@@ -44384,7 +44384,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" hidden="1">
       <c r="A153" t="str">
         <f t="shared" si="11"/>
         <v>Backlash</v>
@@ -44437,7 +44437,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" hidden="1">
       <c r="A154" t="str">
         <f t="shared" si="11"/>
         <v>Burning</v>
@@ -44489,11 +44489,8 @@
       <c r="U154" t="s">
         <v>159</v>
       </c>
-      <c r="Y154" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27">
+    </row>
+    <row r="155" spans="1:27" hidden="1">
       <c r="A155" t="str">
         <f t="shared" si="11"/>
         <v>2-Swords</v>
@@ -44549,7 +44546,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" hidden="1">
       <c r="A156" t="str">
         <f t="shared" si="11"/>
         <v>2-Tusks</v>
@@ -44605,7 +44602,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" hidden="1">
       <c r="A157" t="str">
         <f t="shared" si="11"/>
         <v>3-Heads</v>
@@ -44663,7 +44660,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" hidden="1">
       <c r="A158" t="str">
         <f t="shared" si="11"/>
         <v>3-Horns</v>
@@ -44721,7 +44718,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" hidden="1">
       <c r="A159" t="str">
         <f t="shared" si="11"/>
         <v>6-Arms</v>
@@ -44777,7 +44774,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" hidden="1">
       <c r="A160" t="str">
         <f t="shared" si="11"/>
         <v>Critical</v>
@@ -44833,7 +44830,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" hidden="1">
       <c r="A161" t="str">
         <f t="shared" si="11"/>
         <v>Axe</v>
@@ -44888,7 +44885,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" hidden="1">
       <c r="A162" t="str">
         <f t="shared" si="11"/>
         <v>Honey</v>
@@ -44944,7 +44941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" hidden="1">
       <c r="A163" t="str">
         <f t="shared" si="11"/>
         <v>Heal</v>
@@ -45000,7 +44997,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" hidden="1">
       <c r="A164" t="str">
         <f t="shared" si="11"/>
         <v>MegaCure</v>
@@ -45060,7 +45057,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" hidden="1">
       <c r="A165" t="str">
         <f t="shared" si="11"/>
         <v>W-Kick</v>
@@ -45116,7 +45113,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" hidden="1">
       <c r="A166" t="str">
         <f t="shared" si="11"/>
         <v>ParaNail</v>
@@ -45169,7 +45166,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" hidden="1">
       <c r="A167" t="str">
         <f t="shared" si="11"/>
         <v>Wind Up</v>
@@ -45222,7 +45219,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" hidden="1">
       <c r="A168" t="str">
         <f t="shared" si="11"/>
         <v>Tie Up</v>
@@ -45275,7 +45272,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" hidden="1">
       <c r="A169" t="str">
         <f t="shared" si="11"/>
         <v>Breath</v>
@@ -45328,7 +45325,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" hidden="1">
       <c r="A170" t="str">
         <f t="shared" si="11"/>
         <v>Poison</v>
@@ -45381,7 +45378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" hidden="1">
       <c r="A171" t="str">
         <f t="shared" si="11"/>
         <v>P-Skin</v>
@@ -45434,7 +45431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" hidden="1">
       <c r="A172" t="str">
         <f t="shared" si="11"/>
         <v>ParaSkin</v>
@@ -45487,7 +45484,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" hidden="1">
       <c r="A173" t="str">
         <f t="shared" si="11"/>
         <v>Petrify</v>
@@ -45540,7 +45537,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" hidden="1">
       <c r="A174" t="str">
         <f t="shared" si="11"/>
         <v>StonSkin</v>
@@ -45593,7 +45590,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" hidden="1">
       <c r="A175" t="str">
         <f t="shared" si="11"/>
         <v>Thunder</v>
@@ -45649,7 +45646,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" hidden="1">
       <c r="A176" t="str">
         <f t="shared" si="11"/>
         <v>Ice</v>
@@ -45705,7 +45702,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:24" hidden="1">
       <c r="A177" t="str">
         <f t="shared" si="11"/>
         <v>Fire</v>
@@ -45761,7 +45758,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:24">
+    <row r="178" spans="1:24" hidden="1">
       <c r="A178" t="str">
         <f t="shared" si="11"/>
         <v>Flame</v>
@@ -45817,7 +45814,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:24">
+    <row r="179" spans="1:24" hidden="1">
       <c r="A179" t="str">
         <f t="shared" si="11"/>
         <v>Gas</v>
@@ -45873,7 +45870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:24">
+    <row r="180" spans="1:24" hidden="1">
       <c r="A180" t="str">
         <f t="shared" si="11"/>
         <v>Blizzard</v>
@@ -45929,7 +45926,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="181" spans="1:24">
+    <row r="181" spans="1:24" hidden="1">
       <c r="A181" t="str">
         <f t="shared" si="11"/>
         <v>Lightning</v>
@@ -45985,7 +45982,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:24">
+    <row r="182" spans="1:24" hidden="1">
       <c r="A182" t="str">
         <f t="shared" si="11"/>
         <v>Beam</v>
@@ -46038,7 +46035,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="183" spans="1:24">
+    <row r="183" spans="1:24" hidden="1">
       <c r="A183" t="str">
         <f t="shared" si="11"/>
         <v>P-Blast</v>
@@ -46091,7 +46088,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="184" spans="1:24">
+    <row r="184" spans="1:24" hidden="1">
       <c r="A184" t="str">
         <f t="shared" si="11"/>
         <v>Dispel</v>
@@ -46147,7 +46144,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="185" spans="1:24">
+    <row r="185" spans="1:24" hidden="1">
       <c r="A185" t="str">
         <f t="shared" si="11"/>
         <v>D-Beam</v>
@@ -46203,7 +46200,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="186" spans="1:24">
+    <row r="186" spans="1:24" hidden="1">
       <c r="A186" t="str">
         <f t="shared" si="11"/>
         <v>Squirt</v>
@@ -46259,7 +46256,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="187" spans="1:24">
+    <row r="187" spans="1:24" hidden="1">
       <c r="A187" t="str">
         <f t="shared" si="11"/>
         <v>SunBurst</v>
@@ -46315,7 +46312,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="188" spans="1:24">
+    <row r="188" spans="1:24" hidden="1">
       <c r="A188" t="str">
         <f t="shared" si="11"/>
         <v>SleepGas</v>
@@ -46368,7 +46365,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="189" spans="1:24">
+    <row r="189" spans="1:24" hidden="1">
       <c r="A189" t="str">
         <f t="shared" si="11"/>
         <v>Sleep</v>
@@ -46421,7 +46418,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="190" spans="1:24">
+    <row r="190" spans="1:24" hidden="1">
       <c r="A190" t="str">
         <f t="shared" si="11"/>
         <v>StonGaze</v>
@@ -46474,7 +46471,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="191" spans="1:24">
+    <row r="191" spans="1:24" hidden="1">
       <c r="A191" t="str">
         <f t="shared" si="11"/>
         <v>Stone</v>
@@ -46527,7 +46524,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="192" spans="1:24">
+    <row r="192" spans="1:24" hidden="1">
       <c r="A192" t="str">
         <f t="shared" si="11"/>
         <v>StoneGas</v>
@@ -46580,7 +46577,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:27" hidden="1">
       <c r="A193" t="str">
         <f t="shared" si="11"/>
         <v>FatalGas</v>
@@ -46633,7 +46630,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="194" spans="1:27">
+    <row r="194" spans="1:27" hidden="1">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A258" si="14">B194</f>
         <v>DeathGaze</v>
@@ -46689,7 +46686,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" hidden="1">
       <c r="A195" t="str">
         <f t="shared" si="14"/>
         <v>Erase</v>
@@ -46742,7 +46739,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:27" hidden="1">
       <c r="A196" t="str">
         <f t="shared" si="14"/>
         <v>Blind</v>
@@ -46795,7 +46792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" hidden="1">
       <c r="A197" t="str">
         <f t="shared" si="14"/>
         <v>Flash</v>
@@ -46848,7 +46845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:27" hidden="1">
       <c r="A198" t="str">
         <f t="shared" si="14"/>
         <v>Ink</v>
@@ -46901,7 +46898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:27" hidden="1">
       <c r="A199" t="str">
         <f t="shared" si="14"/>
         <v>PoisonCloud</v>
@@ -46954,7 +46951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:27">
+    <row r="200" spans="1:27" hidden="1">
       <c r="A200" t="str">
         <f t="shared" si="14"/>
         <v>EvilEye</v>
@@ -47010,7 +47007,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="201" spans="1:27">
+    <row r="201" spans="1:27" hidden="1">
       <c r="A201" t="str">
         <f t="shared" si="14"/>
         <v>Stunner</v>
@@ -47063,7 +47060,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="202" spans="1:27">
+    <row r="202" spans="1:27" hidden="1">
       <c r="A202" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -47116,7 +47113,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="203" spans="1:27">
+    <row r="203" spans="1:27" hidden="1">
       <c r="A203" t="str">
         <f t="shared" si="14"/>
         <v>Charm</v>
@@ -47169,7 +47166,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="204" spans="1:27">
+    <row r="204" spans="1:27" hidden="1">
       <c r="A204" t="str">
         <f t="shared" si="14"/>
         <v>Hypnos</v>
@@ -47222,7 +47219,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="205" spans="1:27">
+    <row r="205" spans="1:27" hidden="1">
       <c r="A205" t="str">
         <f t="shared" si="14"/>
         <v>Sand</v>
@@ -47275,7 +47272,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="206" spans="1:27">
+    <row r="206" spans="1:27" hidden="1">
       <c r="A206" t="str">
         <f t="shared" si="14"/>
         <v>Cobweb</v>
@@ -47328,7 +47325,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="207" spans="1:27">
+    <row r="207" spans="1:27" hidden="1">
       <c r="A207" t="str">
         <f t="shared" si="14"/>
         <v>Blitz</v>
@@ -47381,7 +47378,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="208" spans="1:27">
+    <row r="208" spans="1:27" hidden="1">
       <c r="A208" t="str">
         <f t="shared" si="14"/>
         <v>Drain</v>
@@ -47434,7 +47431,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="209" spans="1:25">
+    <row r="209" spans="1:25" hidden="1">
       <c r="A209" t="str">
         <f t="shared" si="14"/>
         <v>Stench</v>
@@ -47487,7 +47484,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="210" spans="1:25">
+    <row r="210" spans="1:25" hidden="1">
       <c r="A210" t="str">
         <f t="shared" si="14"/>
         <v>Haste</v>
@@ -47540,7 +47537,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="211" spans="1:25">
+    <row r="211" spans="1:25" hidden="1">
       <c r="A211" t="str">
         <f t="shared" si="14"/>
         <v>Tornado</v>
@@ -47593,7 +47590,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="212" spans="1:25">
+    <row r="212" spans="1:25" hidden="1">
       <c r="A212" t="str">
         <f t="shared" si="14"/>
         <v>Quake</v>
@@ -47649,7 +47646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="213" spans="1:25">
+    <row r="213" spans="1:25" hidden="1">
       <c r="A213" t="str">
         <f t="shared" si="14"/>
         <v>Whirl</v>
@@ -47702,7 +47699,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="214" spans="1:25">
+    <row r="214" spans="1:25" hidden="1">
       <c r="A214" t="str">
         <f t="shared" si="14"/>
         <v>Flare</v>
@@ -47755,7 +47752,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="215" spans="1:25">
+    <row r="215" spans="1:25" hidden="1">
       <c r="A215" t="str">
         <f t="shared" si="14"/>
         <v>Steal</v>
@@ -47808,7 +47805,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="216" spans="1:25">
+    <row r="216" spans="1:25" hidden="1">
       <c r="A216" t="str">
         <f t="shared" si="14"/>
         <v>Explode</v>
@@ -47864,7 +47861,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="217" spans="1:25">
+    <row r="217" spans="1:25" hidden="1">
       <c r="A217" t="str">
         <f t="shared" si="14"/>
         <v>Acid</v>
@@ -47920,7 +47917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:25">
+    <row r="218" spans="1:25" hidden="1">
       <c r="A218" t="str">
         <f t="shared" si="14"/>
         <v>Riddle</v>
@@ -47973,7 +47970,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="219" spans="1:25">
+    <row r="219" spans="1:25" hidden="1">
       <c r="A219" t="str">
         <f t="shared" si="14"/>
         <v>CursSong</v>
@@ -48026,7 +48023,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="220" spans="1:25">
+    <row r="220" spans="1:25" hidden="1">
       <c r="A220" t="str">
         <f t="shared" si="14"/>
         <v>MadSong</v>
@@ -48079,7 +48076,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="221" spans="1:25">
+    <row r="221" spans="1:25" hidden="1">
       <c r="A221" t="str">
         <f t="shared" si="14"/>
         <v>Surprise</v>
@@ -48123,7 +48120,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="222" spans="1:25">
+    <row r="222" spans="1:25" hidden="1">
       <c r="A222" t="str">
         <f t="shared" si="14"/>
         <v>Warning</v>
@@ -48167,7 +48164,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="223" spans="1:25">
+    <row r="223" spans="1:25" hidden="1">
       <c r="A223" t="str">
         <f t="shared" si="14"/>
         <v>Multiply</v>
@@ -48214,7 +48211,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="224" spans="1:25">
+    <row r="224" spans="1:25" hidden="1">
       <c r="A224" t="str">
         <f t="shared" si="14"/>
         <v>O-Quake</v>
@@ -48263,7 +48260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="225" spans="1:27">
+    <row r="225" spans="1:27" hidden="1">
       <c r="A225" t="str">
         <f t="shared" si="14"/>
         <v>O-Change</v>
@@ -48312,7 +48309,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="226" spans="1:27">
+    <row r="226" spans="1:27" hidden="1">
       <c r="A226" t="str">
         <f t="shared" si="14"/>
         <v>O-Fire</v>
@@ -48361,7 +48358,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="227" spans="1:27">
+    <row r="227" spans="1:27" hidden="1">
       <c r="A227" t="str">
         <f t="shared" si="14"/>
         <v>O-Poison</v>
@@ -48410,7 +48407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:27">
+    <row r="228" spans="1:27" hidden="1">
       <c r="A228" t="str">
         <f t="shared" si="14"/>
         <v>O-Damage</v>
@@ -48459,7 +48456,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="229" spans="1:27">
+    <row r="229" spans="1:27" hidden="1">
       <c r="A229" t="str">
         <f t="shared" si="14"/>
         <v>O-Weapon</v>
@@ -48508,7 +48505,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="230" spans="1:27">
+    <row r="230" spans="1:27" hidden="1">
       <c r="A230" t="str">
         <f t="shared" si="14"/>
         <v>O-Pa/Po</v>
@@ -48557,7 +48554,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="231" spans="1:27">
+    <row r="231" spans="1:27" hidden="1">
       <c r="A231" t="str">
         <f t="shared" si="14"/>
         <v>O-Para</v>
@@ -48606,7 +48603,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="232" spans="1:27">
+    <row r="232" spans="1:27" hidden="1">
       <c r="A232" t="str">
         <f t="shared" si="14"/>
         <v>O-Ice</v>
@@ -48655,7 +48652,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="233" spans="1:27">
+    <row r="233" spans="1:27" hidden="1">
       <c r="A233" t="str">
         <f t="shared" si="14"/>
         <v>O-Stone</v>
@@ -48704,7 +48701,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="234" spans="1:27">
+    <row r="234" spans="1:27" hidden="1">
       <c r="A234" t="str">
         <f t="shared" si="14"/>
         <v>X-Fire</v>
@@ -48756,7 +48753,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="235" spans="1:27">
+    <row r="235" spans="1:27" hidden="1">
       <c r="A235" t="str">
         <f t="shared" si="14"/>
         <v>X-Ice</v>
@@ -48808,7 +48805,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="236" spans="1:27">
+    <row r="236" spans="1:27" hidden="1">
       <c r="A236" t="str">
         <f t="shared" si="14"/>
         <v>X-Thunder</v>
@@ -48860,7 +48857,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="237" spans="1:27">
+    <row r="237" spans="1:27" hidden="1">
       <c r="A237" t="str">
         <f t="shared" si="14"/>
         <v>Teleport</v>
@@ -48900,7 +48897,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="238" spans="1:27">
+    <row r="238" spans="1:27" hidden="1">
       <c r="A238" t="str">
         <f t="shared" si="14"/>
         <v>Remedy</v>
@@ -48947,7 +48944,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="239" spans="1:27">
+    <row r="239" spans="1:27" hidden="1">
       <c r="A239" t="str">
         <f t="shared" si="14"/>
         <v>O-All</v>
@@ -48996,7 +48993,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" hidden="1">
       <c r="A240" t="str">
         <f t="shared" si="14"/>
         <v>PoisonBurst</v>
@@ -49052,7 +49049,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" hidden="1">
       <c r="A241" t="str">
         <f t="shared" si="14"/>
         <v>FlareApollo</v>
@@ -49098,7 +49095,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" hidden="1">
       <c r="A242" t="str">
         <f t="shared" si="14"/>
         <v>Smasher</v>
@@ -49142,7 +49139,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" hidden="1">
       <c r="A243" t="str">
         <f t="shared" si="14"/>
         <v>Recover</v>
@@ -49182,7 +49179,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" hidden="1">
       <c r="A244" t="str">
         <f t="shared" si="14"/>
         <v>Power Magi</v>
@@ -49227,7 +49224,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" hidden="1">
       <c r="A245" t="str">
         <f t="shared" si="14"/>
         <v>Speed Magi</v>
@@ -49272,7 +49269,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" hidden="1">
       <c r="A246" t="str">
         <f t="shared" si="14"/>
         <v>Mana Magi</v>
@@ -49317,7 +49314,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" hidden="1">
       <c r="A247" t="str">
         <f t="shared" si="14"/>
         <v>Defense Magi</v>
@@ -49362,7 +49359,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" hidden="1">
       <c r="A248" t="str">
         <f t="shared" si="14"/>
         <v>Fire Magi</v>
@@ -49410,7 +49407,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" hidden="1">
       <c r="A249" t="str">
         <f t="shared" si="14"/>
         <v>Ice Magi</v>
@@ -49458,7 +49455,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" hidden="1">
       <c r="A250" t="str">
         <f t="shared" si="14"/>
         <v>Thunder Magi</v>
@@ -49506,7 +49503,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" hidden="1">
       <c r="A251" t="str">
         <f t="shared" si="14"/>
         <v>Poison Magi</v>
@@ -49554,7 +49551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" hidden="1">
       <c r="A252" t="str">
         <f t="shared" si="14"/>
         <v>CatClaw</v>
@@ -49614,7 +49611,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" hidden="1">
       <c r="A253" t="str">
         <f t="shared" si="14"/>
         <v>Vampic Sword</v>
@@ -49677,7 +49674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" hidden="1">
       <c r="A254" t="str">
         <f t="shared" si="14"/>
         <v>Glass Sword</v>
@@ -49745,7 +49742,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" hidden="1">
       <c r="A255" t="str">
         <f t="shared" si="14"/>
         <v>Revenge Sword</v>
@@ -49799,7 +49796,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" hidden="1">
       <c r="A256" t="str">
         <f t="shared" si="14"/>
         <v>Bow</v>
@@ -49866,7 +49863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" hidden="1">
       <c r="A257" t="str">
         <f t="shared" si="14"/>
         <v>Sabre</v>
@@ -49926,7 +49923,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" hidden="1">
       <c r="A258" t="str">
         <f t="shared" si="14"/>
         <v>O-Dragon</v>
@@ -49956,6 +49953,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AA258" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="Reflect"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:AA257">
       <sortCondition ref="E1:E257"/>
     </sortState>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E8F555-9E5C-41EE-B5FF-64DFA0D99887}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52B6599-561A-42A3-AE40-73C63B64A8F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9024,7 +9024,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q183" sqref="Q183"/>
+      <selection pane="bottomLeft" activeCell="O172" sqref="O172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35979,7 +35979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T152" sqref="T152"/>
+      <selection pane="bottomLeft" activeCell="R154" sqref="R154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39822,7 +39822,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1">
+    <row r="71" spans="1:27">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
         <v>Counter</v>
@@ -39867,6 +39867,9 @@
         <v>1738</v>
       </c>
       <c r="Q71" t="s">
+        <v>4</v>
+      </c>
+      <c r="R71">
         <v>4</v>
       </c>
       <c r="S71" t="s">
@@ -44337,7 +44340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" hidden="1">
       <c r="A152" t="str">
         <f t="shared" si="11"/>
         <v>Mirror</v>
@@ -44384,7 +44387,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="153" spans="1:27" hidden="1">
+    <row r="153" spans="1:27">
       <c r="A153" t="str">
         <f t="shared" si="11"/>
         <v>Backlash</v>
@@ -44427,6 +44430,9 @@
       <c r="Q153" t="s">
         <v>4</v>
       </c>
+      <c r="R153">
+        <v>4</v>
+      </c>
       <c r="S153" t="s">
         <v>2343</v>
       </c>
@@ -44437,7 +44443,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="154" spans="1:27" hidden="1">
+    <row r="154" spans="1:27">
       <c r="A154" t="str">
         <f t="shared" si="11"/>
         <v>Burning</v>
@@ -44480,6 +44486,9 @@
       <c r="Q154" t="s">
         <v>6</v>
       </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
       <c r="S154" t="s">
         <v>1844</v>
       </c>
@@ -45378,7 +45387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:27" hidden="1">
+    <row r="171" spans="1:27">
       <c r="A171" t="str">
         <f t="shared" si="11"/>
         <v>P-Skin</v>
@@ -45431,7 +45440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:27" hidden="1">
+    <row r="172" spans="1:27">
       <c r="A172" t="str">
         <f t="shared" si="11"/>
         <v>ParaSkin</v>
@@ -45537,7 +45546,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="174" spans="1:27" hidden="1">
+    <row r="174" spans="1:27">
       <c r="A174" t="str">
         <f t="shared" si="11"/>
         <v>StonSkin</v>
@@ -49742,7 +49751,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="255" spans="1:27" hidden="1">
+    <row r="255" spans="1:27">
       <c r="A255" t="str">
         <f t="shared" si="14"/>
         <v>Revenge Sword</v>
@@ -49789,6 +49798,9 @@
       <c r="Q255" t="s">
         <v>4</v>
       </c>
+      <c r="R255">
+        <v>4</v>
+      </c>
       <c r="S255" t="s">
         <v>2343</v>
       </c>
@@ -49955,7 +49967,7 @@
   <autoFilter ref="A1:AA258" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="19">
       <filters>
-        <filter val="Reflect"/>
+        <filter val="Counter"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:AA257">

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52B6599-561A-42A3-AE40-73C63B64A8F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4839F-ECCF-4930-BC14-D52FD04C5FE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12237" uniqueCount="2606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12237" uniqueCount="2604">
   <si>
     <t>Monster</t>
   </si>
@@ -7177,9 +7177,6 @@
     <t>Stun</t>
   </si>
   <si>
-    <t>Holy</t>
-  </si>
-  <si>
     <t>Debuff</t>
   </si>
   <si>
@@ -7814,9 +7811,6 @@
   </si>
   <si>
     <t>Damage=Str*15; attack up to 7 times, depending on Agl vs mob;</t>
-  </si>
-  <si>
-    <t>Accurate</t>
   </si>
   <si>
     <t>Family</t>
@@ -9023,8 +9017,8 @@
   <dimension ref="A1:W253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O172" sqref="O172"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9108,7 +9102,7 @@
         <v>2328</v>
       </c>
       <c r="W1" s="140" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -10110,7 +10104,7 @@
       <c r="U16" s="6"/>
       <c r="V16" s="7"/>
       <c r="W16" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -10172,7 +10166,7 @@
       <c r="U17" s="6"/>
       <c r="V17" s="7"/>
       <c r="W17" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -10238,7 +10232,7 @@
       <c r="U18" s="6"/>
       <c r="V18" s="7"/>
       <c r="W18" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -10308,7 +10302,7 @@
       </c>
       <c r="V19" s="7"/>
       <c r="W19" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -10380,7 +10374,7 @@
         <v>70</v>
       </c>
       <c r="W20" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -10440,7 +10434,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="7"/>
       <c r="W21" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -10504,7 +10498,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="7"/>
       <c r="W22" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -10570,7 +10564,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="7"/>
       <c r="W23" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -10640,7 +10634,7 @@
       </c>
       <c r="V24" s="7"/>
       <c r="W24" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -10712,7 +10706,7 @@
         <v>70</v>
       </c>
       <c r="W25" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -10774,7 +10768,7 @@
       <c r="U26" s="6"/>
       <c r="V26" s="7"/>
       <c r="W26" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -10840,7 +10834,7 @@
       <c r="U27" s="6"/>
       <c r="V27" s="7"/>
       <c r="W27" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -10908,7 +10902,7 @@
       <c r="U28" s="6"/>
       <c r="V28" s="7"/>
       <c r="W28" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -10978,7 +10972,7 @@
       </c>
       <c r="V29" s="7"/>
       <c r="W29" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -11050,7 +11044,7 @@
         <v>70</v>
       </c>
       <c r="W30" s="134" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -11110,7 +11104,7 @@
       <c r="U31" s="6"/>
       <c r="V31" s="7"/>
       <c r="W31" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -11172,7 +11166,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="7"/>
       <c r="W32" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -11238,7 +11232,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="7"/>
       <c r="W33" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -11308,7 +11302,7 @@
       </c>
       <c r="V34" s="7"/>
       <c r="W34" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -11380,7 +11374,7 @@
         <v>139</v>
       </c>
       <c r="W35" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -11440,7 +11434,7 @@
       <c r="U36" s="6"/>
       <c r="V36" s="7"/>
       <c r="W36" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -11504,7 +11498,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="7"/>
       <c r="W37" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -11572,7 +11566,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="7"/>
       <c r="W38" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -11642,7 +11636,7 @@
       </c>
       <c r="V39" s="7"/>
       <c r="W39" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -11714,7 +11708,7 @@
         <v>50</v>
       </c>
       <c r="W40" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -11776,7 +11770,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="7"/>
       <c r="W41" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -11842,7 +11836,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="7"/>
       <c r="W42" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -11910,7 +11904,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="7"/>
       <c r="W43" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -11967,7 +11961,7 @@
         <v>165</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="S44" s="6" t="s">
         <v>173</v>
@@ -11980,7 +11974,7 @@
       </c>
       <c r="V44" s="7"/>
       <c r="W44" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -12040,7 +12034,7 @@
         <v>173</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="T45" s="9" t="s">
         <v>69</v>
@@ -12052,7 +12046,7 @@
         <v>139</v>
       </c>
       <c r="W45" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -13112,7 +13106,7 @@
       <c r="U61" s="6"/>
       <c r="V61" s="7"/>
       <c r="W61" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -13174,7 +13168,7 @@
       <c r="U62" s="6"/>
       <c r="V62" s="7"/>
       <c r="W62" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -13242,7 +13236,7 @@
       <c r="U63" s="6"/>
       <c r="V63" s="7"/>
       <c r="W63" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -13312,7 +13306,7 @@
       </c>
       <c r="V64" s="7"/>
       <c r="W64" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -13384,7 +13378,7 @@
         <v>50</v>
       </c>
       <c r="W65" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -13444,7 +13438,7 @@
       <c r="U66" s="6"/>
       <c r="V66" s="7"/>
       <c r="W66" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -13510,7 +13504,7 @@
       <c r="U67" s="6"/>
       <c r="V67" s="7"/>
       <c r="W67" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -13578,7 +13572,7 @@
       <c r="U68" s="6"/>
       <c r="V68" s="7"/>
       <c r="W68" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -13648,7 +13642,7 @@
       </c>
       <c r="V69" s="7"/>
       <c r="W69" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -13720,7 +13714,7 @@
         <v>50</v>
       </c>
       <c r="W70" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -13780,7 +13774,7 @@
       <c r="U71" s="6"/>
       <c r="V71" s="7"/>
       <c r="W71" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -13846,7 +13840,7 @@
       <c r="U72" s="6"/>
       <c r="V72" s="7"/>
       <c r="W72" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -13914,7 +13908,7 @@
       <c r="U73" s="6"/>
       <c r="V73" s="7"/>
       <c r="W73" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -13984,7 +13978,7 @@
       </c>
       <c r="V74" s="7"/>
       <c r="W74" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -14056,7 +14050,7 @@
         <v>50</v>
       </c>
       <c r="W75" s="134" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -15122,7 +15116,7 @@
       <c r="U91" s="6"/>
       <c r="V91" s="7"/>
       <c r="W91" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -15184,7 +15178,7 @@
       <c r="U92" s="6"/>
       <c r="V92" s="7"/>
       <c r="W92" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -15250,7 +15244,7 @@
       <c r="U93" s="6"/>
       <c r="V93" s="7"/>
       <c r="W93" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -15320,7 +15314,7 @@
       </c>
       <c r="V94" s="7"/>
       <c r="W94" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -15392,7 +15386,7 @@
         <v>70</v>
       </c>
       <c r="W95" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -15452,7 +15446,7 @@
       <c r="U96" s="6"/>
       <c r="V96" s="7"/>
       <c r="W96" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -15518,7 +15512,7 @@
       <c r="U97" s="6"/>
       <c r="V97" s="7"/>
       <c r="W97" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -15586,7 +15580,7 @@
       <c r="U98" s="6"/>
       <c r="V98" s="7"/>
       <c r="W98" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -15656,7 +15650,7 @@
       </c>
       <c r="V99" s="7"/>
       <c r="W99" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -15728,7 +15722,7 @@
         <v>214</v>
       </c>
       <c r="W100" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -15792,7 +15786,7 @@
       <c r="U101" s="6"/>
       <c r="V101" s="7"/>
       <c r="W101" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -15858,7 +15852,7 @@
       <c r="U102" s="6"/>
       <c r="V102" s="7"/>
       <c r="W102" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -15926,7 +15920,7 @@
       <c r="U103" s="6"/>
       <c r="V103" s="7"/>
       <c r="W103" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -15996,7 +15990,7 @@
       </c>
       <c r="V104" s="7"/>
       <c r="W104" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -16053,7 +16047,7 @@
         <v>150</v>
       </c>
       <c r="R105" s="9" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="S105" s="9" t="s">
         <v>101</v>
@@ -16068,7 +16062,7 @@
         <v>105</v>
       </c>
       <c r="W105" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -16128,7 +16122,7 @@
       <c r="U106" s="6"/>
       <c r="V106" s="7"/>
       <c r="W106" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -16190,7 +16184,7 @@
       <c r="U107" s="6"/>
       <c r="V107" s="7"/>
       <c r="W107" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -16256,7 +16250,7 @@
       <c r="U108" s="6"/>
       <c r="V108" s="7"/>
       <c r="W108" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -16319,14 +16313,14 @@
         <v>25</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="U109" s="6" t="s">
         <v>139</v>
       </c>
       <c r="V109" s="7"/>
       <c r="W109" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -16386,7 +16380,7 @@
         <v>25</v>
       </c>
       <c r="S110" s="9" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="T110" s="9" t="s">
         <v>110</v>
@@ -16398,7 +16392,7 @@
         <v>105</v>
       </c>
       <c r="W110" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -16458,7 +16452,7 @@
       <c r="U111" s="6"/>
       <c r="V111" s="7"/>
       <c r="W111" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -16522,7 +16516,7 @@
       <c r="U112" s="6"/>
       <c r="V112" s="7"/>
       <c r="W112" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -16590,7 +16584,7 @@
       <c r="U113" s="6"/>
       <c r="V113" s="7"/>
       <c r="W113" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -16660,7 +16654,7 @@
       </c>
       <c r="V114" s="7"/>
       <c r="W114" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -16732,7 +16726,7 @@
         <v>105</v>
       </c>
       <c r="W115" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -16794,7 +16788,7 @@
       <c r="U116" s="6"/>
       <c r="V116" s="7"/>
       <c r="W116" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -16858,7 +16852,7 @@
       <c r="U117" s="6"/>
       <c r="V117" s="7"/>
       <c r="W117" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -16926,7 +16920,7 @@
       <c r="U118" s="6"/>
       <c r="V118" s="7"/>
       <c r="W118" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -16996,7 +16990,7 @@
       </c>
       <c r="V119" s="7"/>
       <c r="W119" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -17068,7 +17062,7 @@
         <v>139</v>
       </c>
       <c r="W120" s="134" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -17126,7 +17120,7 @@
       <c r="U121" s="6"/>
       <c r="V121" s="7"/>
       <c r="W121" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -17188,7 +17182,7 @@
       <c r="U122" s="6"/>
       <c r="V122" s="7"/>
       <c r="W122" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -17254,7 +17248,7 @@
       <c r="U123" s="6"/>
       <c r="V123" s="7"/>
       <c r="W123" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -17322,7 +17316,7 @@
       <c r="U124" s="6"/>
       <c r="V124" s="7"/>
       <c r="W124" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -17394,7 +17388,7 @@
         <v>105</v>
       </c>
       <c r="W125" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -17454,7 +17448,7 @@
       <c r="U126" s="6"/>
       <c r="V126" s="7"/>
       <c r="W126" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -17516,7 +17510,7 @@
       <c r="U127" s="6"/>
       <c r="V127" s="7"/>
       <c r="W127" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -17576,7 +17570,7 @@
         <v>98</v>
       </c>
       <c r="S128" s="6" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="T128" s="6" t="s">
         <v>50</v>
@@ -17584,7 +17578,7 @@
       <c r="U128" s="6"/>
       <c r="V128" s="7"/>
       <c r="W128" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -17654,7 +17648,7 @@
       </c>
       <c r="V129" s="7"/>
       <c r="W129" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -17726,7 +17720,7 @@
         <v>70</v>
       </c>
       <c r="W130" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -17788,7 +17782,7 @@
       <c r="U131" s="6"/>
       <c r="V131" s="7"/>
       <c r="W131" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -17854,7 +17848,7 @@
       <c r="U132" s="6"/>
       <c r="V132" s="7"/>
       <c r="W132" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -17922,7 +17916,7 @@
       <c r="U133" s="6"/>
       <c r="V133" s="7"/>
       <c r="W133" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -17992,7 +17986,7 @@
       </c>
       <c r="V134" s="7"/>
       <c r="W134" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -18064,7 +18058,7 @@
         <v>105</v>
       </c>
       <c r="W135" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -19717,7 +19711,7 @@
         <v>108</v>
       </c>
       <c r="P160" s="9" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="Q160" s="9" t="s">
         <v>485</v>
@@ -21071,7 +21065,7 @@
         <v>431</v>
       </c>
       <c r="P180" s="9" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="Q180" s="9" t="s">
         <v>390</v>
@@ -21150,7 +21144,7 @@
       <c r="U181" s="6"/>
       <c r="V181" s="7"/>
       <c r="W181" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -21210,7 +21204,7 @@
       <c r="U182" s="6"/>
       <c r="V182" s="7"/>
       <c r="W182" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -21278,7 +21272,7 @@
       <c r="U183" s="6"/>
       <c r="V183" s="7"/>
       <c r="W183" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -21348,7 +21342,7 @@
       </c>
       <c r="V184" s="10"/>
       <c r="W184" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -21412,7 +21406,7 @@
       <c r="U185" s="9"/>
       <c r="V185" s="10"/>
       <c r="W185" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -21470,7 +21464,7 @@
       <c r="U186" s="6"/>
       <c r="V186" s="7"/>
       <c r="W186" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -21532,7 +21526,7 @@
       <c r="U187" s="6"/>
       <c r="V187" s="7"/>
       <c r="W187" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -21600,7 +21594,7 @@
       <c r="U188" s="6"/>
       <c r="V188" s="7"/>
       <c r="W188" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -21657,7 +21651,7 @@
         <v>558</v>
       </c>
       <c r="R189" s="9" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="S189" s="9" t="s">
         <v>567</v>
@@ -21670,7 +21664,7 @@
       </c>
       <c r="V189" s="10"/>
       <c r="W189" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -21724,7 +21718,7 @@
         <v>37</v>
       </c>
       <c r="Q190" s="9" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="R190" s="9" t="s">
         <v>101</v>
@@ -21736,7 +21730,7 @@
       <c r="U190" s="9"/>
       <c r="V190" s="10"/>
       <c r="W190" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -21796,7 +21790,7 @@
       <c r="U191" s="6"/>
       <c r="V191" s="7"/>
       <c r="W191" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -21858,7 +21852,7 @@
       <c r="U192" s="6"/>
       <c r="V192" s="7"/>
       <c r="W192" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -21926,7 +21920,7 @@
       <c r="U193" s="6"/>
       <c r="V193" s="7"/>
       <c r="W193" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -21996,7 +21990,7 @@
       </c>
       <c r="V194" s="10"/>
       <c r="W194" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -22062,7 +22056,7 @@
       <c r="U195" s="9"/>
       <c r="V195" s="10"/>
       <c r="W195" s="134" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -22122,7 +22116,7 @@
       <c r="U196" s="6"/>
       <c r="V196" s="7"/>
       <c r="W196" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -22186,7 +22180,7 @@
       <c r="U197" s="6"/>
       <c r="V197" s="7"/>
       <c r="W197" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -22234,7 +22228,7 @@
         <v>612</v>
       </c>
       <c r="O198" s="6" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="P198" s="6" t="s">
         <v>613</v>
@@ -22254,7 +22248,7 @@
       <c r="U198" s="6"/>
       <c r="V198" s="7"/>
       <c r="W198" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -22324,7 +22318,7 @@
       </c>
       <c r="V199" s="10"/>
       <c r="W199" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -22386,7 +22380,7 @@
       <c r="U200" s="9"/>
       <c r="V200" s="10"/>
       <c r="W200" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -22446,7 +22440,7 @@
       <c r="U201" s="6"/>
       <c r="V201" s="7"/>
       <c r="W201" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -22510,7 +22504,7 @@
       <c r="U202" s="6"/>
       <c r="V202" s="7"/>
       <c r="W202" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -22578,7 +22572,7 @@
       <c r="U203" s="6"/>
       <c r="V203" s="7"/>
       <c r="W203" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -22648,7 +22642,7 @@
       </c>
       <c r="V204" s="10"/>
       <c r="W204" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -23298,7 +23292,7 @@
       <c r="U214" s="12"/>
       <c r="V214" s="16"/>
       <c r="W214" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -23360,7 +23354,7 @@
       <c r="U215" s="6"/>
       <c r="V215" s="7"/>
       <c r="W215" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -23428,7 +23422,7 @@
       <c r="U216" s="6"/>
       <c r="V216" s="7"/>
       <c r="W216" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -23498,7 +23492,7 @@
       </c>
       <c r="V217" s="10"/>
       <c r="W217" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -23558,7 +23552,7 @@
       <c r="U218" s="12"/>
       <c r="V218" s="16"/>
       <c r="W218" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -23620,7 +23614,7 @@
       <c r="U219" s="6"/>
       <c r="V219" s="7"/>
       <c r="W219" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -23686,7 +23680,7 @@
       <c r="U220" s="6"/>
       <c r="V220" s="7"/>
       <c r="W220" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -23756,7 +23750,7 @@
       </c>
       <c r="V221" s="10"/>
       <c r="W221" s="134" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -23818,7 +23812,7 @@
       <c r="U222" s="6"/>
       <c r="V222" s="7"/>
       <c r="W222" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -23888,7 +23882,7 @@
       </c>
       <c r="V223" s="7"/>
       <c r="W223" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -23954,7 +23948,7 @@
       <c r="U224" s="6"/>
       <c r="V224" s="7"/>
       <c r="W224" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -24014,7 +24008,7 @@
       <c r="U225" s="6"/>
       <c r="V225" s="7"/>
       <c r="W225" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -24080,7 +24074,7 @@
       <c r="U226" s="6"/>
       <c r="V226" s="7"/>
       <c r="W226" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -24131,7 +24125,7 @@
         <v>558</v>
       </c>
       <c r="P227" s="6" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="Q227" s="6"/>
       <c r="R227" s="6"/>
@@ -24140,7 +24134,7 @@
       <c r="U227" s="6"/>
       <c r="V227" s="7"/>
       <c r="W227" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -24204,7 +24198,7 @@
       <c r="U228" s="6"/>
       <c r="V228" s="7"/>
       <c r="W228" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -24272,7 +24266,7 @@
       <c r="U229" s="6"/>
       <c r="V229" s="7"/>
       <c r="W229" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -24340,7 +24334,7 @@
       <c r="U230" s="6"/>
       <c r="V230" s="7"/>
       <c r="W230" s="134" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -24412,7 +24406,7 @@
         <v>33</v>
       </c>
       <c r="W231" s="126" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -24552,7 +24546,7 @@
         <v>50</v>
       </c>
       <c r="W233" s="126" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -24622,7 +24616,7 @@
       </c>
       <c r="V234" s="7"/>
       <c r="W234" s="126" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -24697,7 +24691,7 @@
         <v>Human M</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>9</v>
@@ -24748,7 +24742,7 @@
       <c r="U236" s="6"/>
       <c r="V236" s="7"/>
       <c r="W236" s="126" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -24757,7 +24751,7 @@
         <v>Human F</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>9</v>
@@ -24808,7 +24802,7 @@
       <c r="U237" s="6"/>
       <c r="V237" s="7"/>
       <c r="W237" s="126" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -24870,7 +24864,7 @@
       <c r="U238" s="6"/>
       <c r="V238" s="7"/>
       <c r="W238" s="126" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -24932,7 +24926,7 @@
       <c r="U239" s="6"/>
       <c r="V239" s="7"/>
       <c r="W239" s="126" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -25052,7 +25046,7 @@
       <c r="U241" s="6"/>
       <c r="V241" s="7"/>
       <c r="W241" s="126" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -25061,7 +25055,7 @@
         <v>Hatchling</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>9</v>
@@ -25114,7 +25108,7 @@
       <c r="U242" s="6"/>
       <c r="V242" s="7"/>
       <c r="W242" s="134" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -25240,7 +25234,7 @@
       <c r="U244" s="6"/>
       <c r="V244" s="7"/>
       <c r="W244" s="126" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -25306,7 +25300,7 @@
       <c r="U245" s="6"/>
       <c r="V245" s="7"/>
       <c r="W245" s="126" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -25372,7 +25366,7 @@
       <c r="U246" s="6"/>
       <c r="V246" s="7"/>
       <c r="W246" s="126" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -25440,7 +25434,7 @@
       <c r="U247" s="6"/>
       <c r="V247" s="7"/>
       <c r="W247" s="126" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -25491,7 +25485,7 @@
         <v>770</v>
       </c>
       <c r="P248" s="6" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="Q248" s="6" t="s">
         <v>441</v>
@@ -25506,7 +25500,7 @@
       <c r="U248" s="6"/>
       <c r="V248" s="7"/>
       <c r="W248" s="126" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -25566,13 +25560,13 @@
         <v>268</v>
       </c>
       <c r="S249" s="6" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
       <c r="V249" s="7"/>
       <c r="W249" s="126" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -25628,7 +25622,7 @@
       <c r="U250" s="6"/>
       <c r="V250" s="7"/>
       <c r="W250" s="126" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -25724,7 +25718,7 @@
       </c>
       <c r="P252" s="126"/>
       <c r="W252" s="126" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -25733,7 +25727,7 @@
         <v>SuperJerk</v>
       </c>
       <c r="B253" s="124" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="C253">
         <v>3</v>
@@ -25775,7 +25769,7 @@
         <v>135</v>
       </c>
       <c r="W253" s="126" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
   </sheetData>
@@ -35979,7 +35973,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R154" sqref="R154"/>
+      <selection pane="bottomLeft" activeCell="Y122" sqref="Y122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36011,7 +36005,7 @@
         <v>1642</v>
       </c>
       <c r="E1" s="135" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="F1" s="88" t="s">
         <v>1643</v>
@@ -36059,7 +36053,7 @@
         <v>2369</v>
       </c>
       <c r="W1" s="121" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="X1" s="121" t="s">
         <v>2362</v>
@@ -36651,7 +36645,7 @@
         <v>2305</v>
       </c>
       <c r="U11" t="s">
-        <v>2371</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="12" spans="1:27" hidden="1">
@@ -37025,7 +37019,7 @@
         <v>2305</v>
       </c>
       <c r="AA17" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="18" spans="1:27" hidden="1">
@@ -37422,7 +37416,7 @@
         <v>2306</v>
       </c>
       <c r="Y24" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="Z24">
         <v>90</v>
@@ -37592,7 +37586,7 @@
       <c r="T27" t="s">
         <v>2308</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="X27" t="s">
         <v>1766</v>
       </c>
     </row>
@@ -37646,7 +37640,7 @@
       <c r="T28" t="s">
         <v>2308</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="X28" t="s">
         <v>25</v>
       </c>
     </row>
@@ -37951,7 +37945,7 @@
         <v>2309</v>
       </c>
       <c r="U33" t="s">
-        <v>2371</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="34" spans="1:25" hidden="1">
@@ -38463,7 +38457,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="43" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
@@ -38957,7 +38951,7 @@
         <v>1816</v>
       </c>
       <c r="U52" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="53" spans="1:25" hidden="1">
@@ -39366,8 +39360,11 @@
       <c r="T61" t="s">
         <v>2308</v>
       </c>
+      <c r="X61" t="s">
+        <v>2573</v>
+      </c>
       <c r="Y61" t="s">
-        <v>2574</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:25" hidden="1">
@@ -39420,7 +39417,7 @@
       <c r="T62" t="s">
         <v>2308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="X62" t="s">
         <v>482</v>
       </c>
     </row>
@@ -39642,7 +39639,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1">
+    <row r="68" spans="1:27">
       <c r="A68" t="str">
         <f t="shared" si="6"/>
         <v>Whip</v>
@@ -39698,13 +39695,13 @@
         <v>2305</v>
       </c>
       <c r="Y68" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="Z68">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1">
+    <row r="69" spans="1:27">
       <c r="A69" t="str">
         <f t="shared" si="6"/>
         <v>Blitz Whip</v>
@@ -39761,13 +39758,13 @@
         <v>2305</v>
       </c>
       <c r="Y69" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="Z69">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1">
+    <row r="70" spans="1:27">
       <c r="A70" t="str">
         <f t="shared" si="6"/>
         <v>ChainSaw</v>
@@ -39819,10 +39816,10 @@
         <v>2305</v>
       </c>
       <c r="Y70" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" hidden="1">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
         <v>Counter</v>
@@ -40269,7 +40266,7 @@
         <v>Roundhouse Art</v>
       </c>
       <c r="C78" s="94" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="D78" s="96" t="s">
         <v>2317</v>
@@ -40315,7 +40312,7 @@
         <v>2305</v>
       </c>
       <c r="AA78" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="79" spans="1:27" hidden="1">
@@ -40681,7 +40678,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="43" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
@@ -41665,7 +41662,7 @@
         <v>2305</v>
       </c>
       <c r="U102" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="103" spans="1:27" hidden="1">
@@ -41788,7 +41785,7 @@
         <v>2305</v>
       </c>
       <c r="AA104" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="105" spans="1:27" hidden="1">
@@ -42008,7 +42005,7 @@
         <v>5</v>
       </c>
       <c r="S108" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="T108" t="s">
         <v>2307</v>
@@ -42186,7 +42183,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="112" spans="1:27" hidden="1">
+    <row r="112" spans="1:27">
       <c r="A112" t="str">
         <f t="shared" si="6"/>
         <v>Hyper Cannon</v>
@@ -42328,7 +42325,7 @@
         <v>1816</v>
       </c>
       <c r="U114" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="115" spans="1:26" hidden="1">
@@ -42570,7 +42567,7 @@
         <v>2306</v>
       </c>
       <c r="U119" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="Y119" t="s">
         <v>572</v>
@@ -42629,8 +42626,8 @@
       <c r="T120" t="s">
         <v>2311</v>
       </c>
-      <c r="Y120" t="s">
-        <v>2573</v>
+      <c r="X120" t="s">
+        <v>2572</v>
       </c>
     </row>
     <row r="121" spans="1:26" hidden="1">
@@ -42678,7 +42675,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="122" spans="1:26" hidden="1">
+    <row r="122" spans="1:26">
       <c r="A122" t="str">
         <f t="shared" si="6"/>
         <v>Selfix</v>
@@ -42711,7 +42708,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="43" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="P122" s="5">
         <v>1</v>
@@ -42720,13 +42717,13 @@
         <v>1816</v>
       </c>
       <c r="Y122" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="Z122">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:26" hidden="1">
+    <row r="123" spans="1:26">
       <c r="A123" t="str">
         <f t="shared" si="6"/>
         <v>Seven Sword</v>
@@ -42761,7 +42758,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="43" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="L123" s="19"/>
       <c r="M123" s="19"/>
@@ -43556,7 +43553,7 @@
         <v>2305</v>
       </c>
       <c r="AA137" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="138" spans="1:27" hidden="1">
@@ -43724,7 +43721,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="141" spans="1:27" hidden="1">
+    <row r="141" spans="1:27">
       <c r="A141" t="str">
         <f t="shared" si="11"/>
         <v>W-Pincer</v>
@@ -43780,7 +43777,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="142" spans="1:27" hidden="1">
+    <row r="142" spans="1:27">
       <c r="A142" t="str">
         <f t="shared" si="11"/>
         <v>W-Attack</v>
@@ -43838,7 +43835,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="143" spans="1:27" hidden="1">
+    <row r="143" spans="1:27">
       <c r="A143" t="str">
         <f t="shared" si="11"/>
         <v>4-Heads</v>
@@ -43896,7 +43893,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="144" spans="1:27" hidden="1">
+    <row r="144" spans="1:27">
       <c r="A144" t="str">
         <f t="shared" si="11"/>
         <v>8-Legs</v>
@@ -43954,7 +43951,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="145" spans="1:27" hidden="1">
+    <row r="145" spans="1:27">
       <c r="A145" t="str">
         <f t="shared" si="11"/>
         <v>Touch</v>
@@ -44013,7 +44010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:27" hidden="1">
+    <row r="146" spans="1:27">
       <c r="A146" t="str">
         <f t="shared" si="11"/>
         <v>Saw</v>
@@ -44063,10 +44060,10 @@
         <v>2305</v>
       </c>
       <c r="Y146" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27" hidden="1">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
       <c r="A147" t="str">
         <f t="shared" si="11"/>
         <v>Dissolve</v>
@@ -44125,7 +44122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:27" hidden="1">
+    <row r="148" spans="1:27">
       <c r="A148" t="str">
         <f t="shared" si="11"/>
         <v>Absorb</v>
@@ -44387,7 +44384,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" hidden="1">
       <c r="A153" t="str">
         <f t="shared" si="11"/>
         <v>Backlash</v>
@@ -44397,7 +44394,7 @@
         <v>Backlash</v>
       </c>
       <c r="C153" s="94" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D153" s="96"/>
       <c r="E153" s="136">
@@ -44440,10 +44437,10 @@
         <v>121</v>
       </c>
       <c r="AA153" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" hidden="1">
       <c r="A154" t="str">
         <f t="shared" si="11"/>
         <v>Burning</v>
@@ -44499,7 +44496,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:27" hidden="1">
+    <row r="155" spans="1:27">
       <c r="A155" t="str">
         <f t="shared" si="11"/>
         <v>2-Swords</v>
@@ -44555,7 +44552,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="156" spans="1:27" hidden="1">
+    <row r="156" spans="1:27">
       <c r="A156" t="str">
         <f t="shared" si="11"/>
         <v>2-Tusks</v>
@@ -44611,7 +44608,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="157" spans="1:27" hidden="1">
+    <row r="157" spans="1:27">
       <c r="A157" t="str">
         <f t="shared" si="11"/>
         <v>3-Heads</v>
@@ -44669,7 +44666,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="158" spans="1:27" hidden="1">
+    <row r="158" spans="1:27">
       <c r="A158" t="str">
         <f t="shared" si="11"/>
         <v>3-Horns</v>
@@ -44727,7 +44724,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="159" spans="1:27" hidden="1">
+    <row r="159" spans="1:27">
       <c r="A159" t="str">
         <f t="shared" si="11"/>
         <v>6-Arms</v>
@@ -44783,7 +44780,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="160" spans="1:27" hidden="1">
+    <row r="160" spans="1:27">
       <c r="A160" t="str">
         <f t="shared" si="11"/>
         <v>Critical</v>
@@ -45012,7 +45009,7 @@
         <v>MegaCure</v>
       </c>
       <c r="B164" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="C164" s="94" t="s">
         <v>75</v>
@@ -45063,10 +45060,10 @@
         <v>74</v>
       </c>
       <c r="AA164" t="s">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="165" spans="1:27" hidden="1">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165" t="str">
         <f t="shared" si="11"/>
         <v>W-Kick</v>
@@ -45387,7 +45384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" hidden="1">
       <c r="A171" t="str">
         <f t="shared" si="11"/>
         <v>P-Skin</v>
@@ -45440,7 +45437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" hidden="1">
       <c r="A172" t="str">
         <f t="shared" si="11"/>
         <v>ParaSkin</v>
@@ -45546,7 +45543,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" hidden="1">
       <c r="A174" t="str">
         <f t="shared" si="11"/>
         <v>StonSkin</v>
@@ -45945,7 +45942,7 @@
         <v>Lightning</v>
       </c>
       <c r="C181" s="94" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D181" s="96"/>
       <c r="E181" s="136">
@@ -46150,7 +46147,7 @@
         <v>2309</v>
       </c>
       <c r="U184" t="s">
-        <v>2371</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="185" spans="1:24" hidden="1">
@@ -46206,7 +46203,7 @@
         <v>2309</v>
       </c>
       <c r="U185" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="186" spans="1:24" hidden="1">
@@ -46318,7 +46315,7 @@
         <v>2309</v>
       </c>
       <c r="U187" t="s">
-        <v>2371</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="188" spans="1:24" hidden="1">
@@ -46649,7 +46646,7 @@
         <v>DeathGaze</v>
       </c>
       <c r="C194" s="94" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="D194" s="96"/>
       <c r="E194" s="136">
@@ -46692,7 +46689,7 @@
         <v>2370</v>
       </c>
       <c r="AA194" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="195" spans="1:27" hidden="1">
@@ -46970,7 +46967,7 @@
         <v>EvilEye</v>
       </c>
       <c r="C200" s="94" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="D200" s="96"/>
       <c r="E200" s="136">
@@ -47013,7 +47010,7 @@
         <v>1766</v>
       </c>
       <c r="AA200" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="201" spans="1:27" hidden="1">
@@ -47269,7 +47266,7 @@
         <v>1</v>
       </c>
       <c r="S205" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="T205" t="s">
         <v>2309</v>
@@ -47322,7 +47319,7 @@
         <v>1</v>
       </c>
       <c r="S206" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="T206" t="s">
         <v>2309</v>
@@ -47375,7 +47372,7 @@
         <v>2012</v>
       </c>
       <c r="S207" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="T207" t="s">
         <v>2309</v>
@@ -47428,7 +47425,7 @@
         <v>1</v>
       </c>
       <c r="S208" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="T208" t="s">
         <v>2305</v>
@@ -47481,7 +47478,7 @@
         <v>1</v>
       </c>
       <c r="S209" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="T209" t="s">
         <v>2305</v>
@@ -47534,7 +47531,7 @@
         <v>2012</v>
       </c>
       <c r="S210" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="T210" t="s">
         <v>2307</v>
@@ -47761,7 +47758,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="215" spans="1:25" hidden="1">
+    <row r="215" spans="1:25">
       <c r="A215" t="str">
         <f t="shared" si="14"/>
         <v>Steal</v>
@@ -47814,7 +47811,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="216" spans="1:25" hidden="1">
+    <row r="216" spans="1:25">
       <c r="A216" t="str">
         <f t="shared" si="14"/>
         <v>Explode</v>
@@ -47867,7 +47864,7 @@
         <v>0</v>
       </c>
       <c r="Y216" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="217" spans="1:25" hidden="1">
@@ -48214,7 +48211,7 @@
         <v>1</v>
       </c>
       <c r="S223" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="T223" t="s">
         <v>2307</v>
@@ -48462,7 +48459,7 @@
         <v>2352</v>
       </c>
       <c r="U228" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="229" spans="1:27" hidden="1">
@@ -48609,7 +48606,7 @@
         <v>2352</v>
       </c>
       <c r="U231" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="232" spans="1:27" hidden="1">
@@ -48759,7 +48756,7 @@
         <v>159</v>
       </c>
       <c r="Y234" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="235" spans="1:27" hidden="1">
@@ -48811,7 +48808,7 @@
         <v>441</v>
       </c>
       <c r="Y235" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="236" spans="1:27" hidden="1">
@@ -48863,7 +48860,7 @@
         <v>242</v>
       </c>
       <c r="Y236" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="237" spans="1:27" hidden="1">
@@ -48999,7 +48996,7 @@
         <v>2352</v>
       </c>
       <c r="U239" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="240" spans="1:27" hidden="1">
@@ -49617,10 +49614,10 @@
         <v>2305</v>
       </c>
       <c r="AA252" t="s">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="253" spans="1:27" hidden="1">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27">
       <c r="A253" t="str">
         <f t="shared" si="14"/>
         <v>Vampic Sword</v>
@@ -49747,11 +49744,8 @@
       <c r="W254">
         <v>100</v>
       </c>
-      <c r="Y254" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="255" spans="1:27">
+    </row>
+    <row r="255" spans="1:27" hidden="1">
       <c r="A255" t="str">
         <f t="shared" si="14"/>
         <v>Revenge Sword</v>
@@ -49932,7 +49926,7 @@
         <v>2305</v>
       </c>
       <c r="AA257" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="258" spans="1:27" hidden="1">
@@ -49957,17 +49951,25 @@
         <v>2352</v>
       </c>
       <c r="U258" t="s">
+        <v>2574</v>
+      </c>
+      <c r="AA258" t="s">
         <v>2575</v>
-      </c>
-      <c r="AA258" t="s">
-        <v>2576</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA258" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="19">
+    <filterColumn colId="24">
       <filters>
-        <filter val="Counter"/>
+        <filter val="Absorb"/>
+        <filter val="Critical"/>
+        <filter val="Cut"/>
+        <filter val="Erase"/>
+        <filter val="Multi"/>
+        <filter val="Regen"/>
+        <filter val="Sacrifice"/>
+        <filter val="Steal"/>
+        <filter val="WindUp"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:AA257">
@@ -63053,7 +63055,7 @@
     <row r="110" spans="1:2">
       <c r="A110" s="101"/>
       <c r="B110" s="101" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -63579,7 +63581,7 @@
     <row r="190" spans="1:2">
       <c r="A190" s="101"/>
       <c r="B190" s="101" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -64812,7 +64814,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="134" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C1" s="137" t="s">
         <v>2345</v>
@@ -64872,7 +64874,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="134" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B2" s="117" t="e">
         <f>VLOOKUP(C2,Weapon!B1:Z258,2,FALSE)</f>
@@ -64900,7 +64902,7 @@
         <v>77</v>
       </c>
       <c r="J2" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="K2" s="134" t="s">
         <v>599</v>
@@ -64938,7 +64940,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="134" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B3" s="117" t="e">
         <f>VLOOKUP(C3,#REF!,2,FALSE)</f>
@@ -64966,7 +64968,7 @@
         <v>77</v>
       </c>
       <c r="J3" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="K3" s="134" t="s">
         <v>599</v>
@@ -65005,7 +65007,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="134" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B4" s="117" t="e">
         <f>VLOOKUP(C4,#REF!,2,FALSE)</f>
@@ -65071,7 +65073,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="134" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B5" s="117" t="e">
         <f>VLOOKUP(C5,#REF!,2,FALSE)</f>
@@ -65105,7 +65107,7 @@
         <v>57</v>
       </c>
       <c r="L5" s="117" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="M5" s="139">
         <v>7</v>
@@ -65129,7 +65131,7 @@
         <v>1681</v>
       </c>
       <c r="T5" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="U5" s="134" t="s">
         <v>57</v>
@@ -65137,7 +65139,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="134" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B6" s="117" t="e">
         <f>VLOOKUP(C6,#REF!,2,FALSE)</f>
@@ -65192,7 +65194,7 @@
         <v>1688</v>
       </c>
       <c r="S6" s="134" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="T6" s="134" t="s">
         <v>1689</v>
@@ -65203,7 +65205,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="134" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B7" s="117" t="e">
         <f>VLOOKUP(C7,#REF!,2,FALSE)</f>
@@ -65269,7 +65271,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="134" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B8" s="117" t="e">
         <f>VLOOKUP(C8,#REF!,2,FALSE)</f>
@@ -65335,7 +65337,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="134" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B9" s="117" t="e">
         <f>VLOOKUP(C9,#REF!,2,FALSE)</f>
@@ -65363,7 +65365,7 @@
         <v>77</v>
       </c>
       <c r="J9" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="K9" s="134" t="s">
         <v>599</v>
@@ -65401,7 +65403,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="134" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B10" s="117" t="e">
         <f>VLOOKUP(C10,#REF!,2,FALSE)</f>
@@ -65467,7 +65469,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="134" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B11" s="117" t="e">
         <f>VLOOKUP(C11,#REF!,2,FALSE)</f>
@@ -65492,7 +65494,7 @@
         <v>545</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="J11" s="134" t="s">
         <v>1725</v>
@@ -65501,7 +65503,7 @@
         <v>57</v>
       </c>
       <c r="L11" s="117" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="M11" s="139">
         <v>19</v>
@@ -65533,7 +65535,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="134" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B12" s="117" t="e">
         <f>VLOOKUP(C12,#REF!,2,FALSE)</f>
@@ -65599,7 +65601,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="134" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B13" s="117" t="e">
         <f>VLOOKUP(C13,#REF!,2,FALSE)</f>
@@ -65624,7 +65626,7 @@
         <v>714</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="J13" s="134" t="s">
         <v>1733</v>
@@ -65665,7 +65667,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="134" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B14" s="117" t="e">
         <f>VLOOKUP(C14,#REF!,2,FALSE)</f>
@@ -65731,7 +65733,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="134" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B15" s="117" t="e">
         <f>VLOOKUP(C15,#REF!,2,FALSE)</f>
@@ -65797,7 +65799,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="134" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B16" s="117" t="e">
         <f>VLOOKUP(C16,#REF!,2,FALSE)</f>
@@ -65863,7 +65865,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="134" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B17" s="117" t="e">
         <f>VLOOKUP(C17,#REF!,2,FALSE)</f>
@@ -65885,7 +65887,7 @@
         <v>128</v>
       </c>
       <c r="H17" s="134" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="I17" s="134" t="s">
         <v>776</v>
@@ -65897,7 +65899,7 @@
         <v>1500</v>
       </c>
       <c r="L17" s="117" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="M17" s="139">
         <v>31</v>
@@ -65929,7 +65931,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="134" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B18" s="117" t="e">
         <f>VLOOKUP(C18,#REF!,2,FALSE)</f>
@@ -65995,7 +65997,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="134" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B19" s="117" t="e">
         <f>VLOOKUP(C19,#REF!,2,FALSE)</f>
@@ -66050,7 +66052,7 @@
         <v>1778</v>
       </c>
       <c r="S19" s="134" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="T19" s="134" t="s">
         <v>1733</v>
@@ -66061,7 +66063,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="134" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B20" s="117" t="e">
         <f>VLOOKUP(C20,#REF!,2,FALSE)</f>
@@ -66116,7 +66118,7 @@
         <v>1678</v>
       </c>
       <c r="S20" s="134" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="T20" s="134" t="s">
         <v>1784</v>
@@ -66127,7 +66129,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="134" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B21" s="117" t="e">
         <f>VLOOKUP(C21,#REF!,2,FALSE)</f>
@@ -66188,12 +66190,12 @@
         <v>487</v>
       </c>
       <c r="U21" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="134" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B22" s="117" t="e">
         <f>VLOOKUP(C22,#REF!,2,FALSE)</f>
@@ -66259,7 +66261,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="134" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B23" s="117" t="e">
         <f>VLOOKUP(C23,#REF!,2,FALSE)</f>
@@ -66325,7 +66327,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="134" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B24" s="117" t="e">
         <f>VLOOKUP(C24,#REF!,2,FALSE)</f>
@@ -66391,7 +66393,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="134" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B25" s="117" t="e">
         <f>VLOOKUP(C25,#REF!,2,FALSE)</f>
@@ -66457,7 +66459,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="134" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B26" s="117" t="e">
         <f>VLOOKUP(C26,#REF!,2,FALSE)</f>
@@ -66488,7 +66490,7 @@
         <v>1684</v>
       </c>
       <c r="K26" s="134" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="L26" s="117" t="s">
         <v>699</v>
@@ -66523,7 +66525,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="134" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B27" s="117" t="e">
         <f>VLOOKUP(C27,#REF!,2,FALSE)</f>
@@ -66589,7 +66591,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="134" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B28" s="117" t="e">
         <f>VLOOKUP(C28,#REF!,2,FALSE)</f>
@@ -66605,7 +66607,7 @@
         <v>77</v>
       </c>
       <c r="F28" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="G28" s="134" t="s">
         <v>77</v>
@@ -66655,7 +66657,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="134" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B29" s="117" t="e">
         <f>VLOOKUP(C29,#REF!,2,FALSE)</f>
@@ -66721,7 +66723,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="134" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B30" s="117" t="e">
         <f>VLOOKUP(C30,#REF!,2,FALSE)</f>
@@ -66737,7 +66739,7 @@
         <v>77</v>
       </c>
       <c r="F30" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="G30" s="134" t="s">
         <v>77</v>
@@ -66755,7 +66757,7 @@
         <v>77</v>
       </c>
       <c r="L30" s="117" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="M30" s="139">
         <v>57</v>
@@ -66767,7 +66769,7 @@
         <v>77</v>
       </c>
       <c r="P30" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="Q30" s="134" t="s">
         <v>77</v>
@@ -66787,7 +66789,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="134" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B31" s="117" t="e">
         <f>VLOOKUP(C31,#REF!,2,FALSE)</f>
@@ -66853,7 +66855,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="134" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B32" s="117" t="e">
         <f>VLOOKUP(C32,#REF!,2,FALSE)</f>
@@ -66919,7 +66921,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="134" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B33" s="117" t="e">
         <f>VLOOKUP(C33,#REF!,2,FALSE)</f>
@@ -66935,7 +66937,7 @@
         <v>77</v>
       </c>
       <c r="F33" s="134" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="G33" s="134" t="s">
         <v>77</v>
@@ -66953,7 +66955,7 @@
         <v>77</v>
       </c>
       <c r="L33" s="117" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="M33" s="139">
         <v>63</v>
@@ -66985,7 +66987,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="134" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B34" s="117" t="e">
         <f>VLOOKUP(C34,#REF!,2,FALSE)</f>
@@ -67051,7 +67053,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="134" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B35" s="117" t="e">
         <f>VLOOKUP(C35,#REF!,2,FALSE)</f>
@@ -67085,7 +67087,7 @@
         <v>1500</v>
       </c>
       <c r="L35" s="117" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="M35" s="139">
         <v>67</v>
@@ -67117,7 +67119,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="134" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B36" s="117" t="e">
         <f>VLOOKUP(C36,#REF!,2,FALSE)</f>
@@ -67151,7 +67153,7 @@
         <v>1500</v>
       </c>
       <c r="L36" s="117" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="M36" s="139">
         <v>69</v>
@@ -67183,7 +67185,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="134" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B37" s="117" t="e">
         <f>VLOOKUP(C37,#REF!,2,FALSE)</f>
@@ -67217,7 +67219,7 @@
         <v>1500</v>
       </c>
       <c r="L37" s="117" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="M37" s="139">
         <v>71</v>
@@ -67249,7 +67251,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="134" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B38" s="117" t="e">
         <f>VLOOKUP(C38,#REF!,2,FALSE)</f>
@@ -67277,7 +67279,7 @@
         <v>776</v>
       </c>
       <c r="J38" s="134" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="K38" s="134" t="s">
         <v>182</v>
@@ -67315,7 +67317,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="134" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B39" s="117" t="e">
         <f>VLOOKUP(C39,#REF!,2,FALSE)</f>
@@ -67343,7 +67345,7 @@
         <v>1667</v>
       </c>
       <c r="J39" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="K39" s="134" t="s">
         <v>523</v>
@@ -67373,7 +67375,7 @@
         <v>77</v>
       </c>
       <c r="T39" s="134" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="U39" s="134" t="s">
         <v>334</v>
@@ -67381,7 +67383,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="134" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B40" s="117" t="e">
         <f>VLOOKUP(C40,#REF!,2,FALSE)</f>
@@ -67409,7 +67411,7 @@
         <v>1801</v>
       </c>
       <c r="J40" s="134" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K40" s="134" t="s">
         <v>545</v>
@@ -67436,10 +67438,10 @@
         <v>465</v>
       </c>
       <c r="S40" s="134" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="T40" s="134" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="U40" s="134" t="s">
         <v>545</v>
@@ -67447,7 +67449,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="134" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B41" s="117" t="e">
         <f>VLOOKUP(C41,#REF!,2,FALSE)</f>
@@ -67472,16 +67474,16 @@
         <v>27</v>
       </c>
       <c r="I41" s="134" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="J41" s="134" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K41" s="134" t="s">
         <v>545</v>
       </c>
       <c r="L41" s="117" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="M41" s="139">
         <v>79</v>
@@ -67505,7 +67507,7 @@
         <v>27</v>
       </c>
       <c r="T41" s="134" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="U41" s="134" t="s">
         <v>334</v>
@@ -67513,7 +67515,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="134" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B42" s="117" t="e">
         <f>VLOOKUP(C42,#REF!,2,FALSE)</f>
@@ -67547,7 +67549,7 @@
         <v>334</v>
       </c>
       <c r="L42" s="117" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="M42" s="139">
         <v>81</v>
@@ -67579,7 +67581,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="134" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B43" s="117" t="e">
         <f>VLOOKUP(C43,#REF!,2,FALSE)</f>
@@ -67613,7 +67615,7 @@
         <v>334</v>
       </c>
       <c r="L43" s="117" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="M43" s="139">
         <v>83</v>
@@ -67634,7 +67636,7 @@
         <v>1007</v>
       </c>
       <c r="S43" s="134" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="T43" s="134" t="s">
         <v>1879</v>
@@ -67645,7 +67647,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="134" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B44" s="117" t="e">
         <f>VLOOKUP(C44,#REF!,2,FALSE)</f>
@@ -67711,7 +67713,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="134" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B45" s="117" t="e">
         <f>VLOOKUP(C45,#REF!,2,FALSE)</f>
@@ -67777,7 +67779,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="134" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B46" s="117" t="e">
         <f>VLOOKUP(C46,#REF!,2,FALSE)</f>
@@ -67843,7 +67845,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="134" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B47" s="117" t="e">
         <f>VLOOKUP(C47,#REF!,2,FALSE)</f>
@@ -67871,7 +67873,7 @@
         <v>77</v>
       </c>
       <c r="J47" s="134" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="K47" s="134" t="s">
         <v>35</v>
@@ -67901,7 +67903,7 @@
         <v>77</v>
       </c>
       <c r="T47" s="134" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="U47" s="134" t="s">
         <v>696</v>
@@ -67909,7 +67911,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="134" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B48" s="117" t="e">
         <f>VLOOKUP(C48,#REF!,2,FALSE)</f>
@@ -67931,7 +67933,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="134" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="I48" s="134" t="s">
         <v>77</v>
@@ -67967,7 +67969,7 @@
         <v>77</v>
       </c>
       <c r="T48" s="134" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="U48" s="134" t="s">
         <v>35</v>
@@ -67975,7 +67977,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="134" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B49" s="117" t="e">
         <f>VLOOKUP(C49,#REF!,2,FALSE)</f>
@@ -68041,7 +68043,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="134" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B50" s="117" t="e">
         <f>VLOOKUP(C50,#REF!,2,FALSE)</f>
@@ -68063,10 +68065,10 @@
         <v>446</v>
       </c>
       <c r="H50" s="134" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="I50" s="134" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="J50" s="134" t="s">
         <v>1681</v>
@@ -68096,7 +68098,7 @@
         <v>1778</v>
       </c>
       <c r="S50" s="134" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="T50" s="134" t="s">
         <v>1912</v>
@@ -68107,7 +68109,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="134" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B51" s="117" t="e">
         <f>VLOOKUP(C51,#REF!,2,FALSE)</f>
@@ -68173,7 +68175,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="134" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B52" s="117" t="e">
         <f>VLOOKUP(C52,#REF!,2,FALSE)</f>
@@ -68207,7 +68209,7 @@
         <v>77</v>
       </c>
       <c r="L52" s="117" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="M52" s="139">
         <v>101</v>
@@ -68239,7 +68241,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="134" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B53" s="117" t="e">
         <f>VLOOKUP(C53,#REF!,2,FALSE)</f>
@@ -68267,7 +68269,7 @@
         <v>77</v>
       </c>
       <c r="J53" s="134" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="K53" s="134" t="s">
         <v>1714</v>
@@ -68297,7 +68299,7 @@
         <v>465</v>
       </c>
       <c r="T53" s="134" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="U53" s="134" t="s">
         <v>163</v>
@@ -68305,7 +68307,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="134" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B54" s="117" t="e">
         <f>VLOOKUP(C54,#REF!,2,FALSE)</f>
@@ -68330,7 +68332,7 @@
         <v>523</v>
       </c>
       <c r="I54" s="134" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="J54" s="134" t="s">
         <v>460</v>
@@ -68357,10 +68359,10 @@
         <v>545</v>
       </c>
       <c r="R54" s="134" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="S54" s="134" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="T54" s="134" t="s">
         <v>1891</v>
@@ -68371,7 +68373,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="134" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B55" s="117" t="e">
         <f>VLOOKUP(C55,#REF!,2,FALSE)</f>
@@ -68405,7 +68407,7 @@
         <v>57</v>
       </c>
       <c r="L55" s="117" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="M55" s="139">
         <v>107</v>
@@ -68437,7 +68439,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="134" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B56" s="117" t="e">
         <f>VLOOKUP(C56,#REF!,2,FALSE)</f>
@@ -68503,7 +68505,7 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="134" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B57" s="117" t="e">
         <f>VLOOKUP(C57,#REF!,2,FALSE)</f>
@@ -68569,7 +68571,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="134" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B58" s="117" t="e">
         <f>VLOOKUP(C58,#REF!,2,FALSE)</f>
@@ -68627,7 +68629,7 @@
         <v>188</v>
       </c>
       <c r="T58" s="134" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="U58" s="134" t="s">
         <v>334</v>
@@ -68635,7 +68637,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="134" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B59" s="117" t="e">
         <f>VLOOKUP(C59,#REF!,2,FALSE)</f>
@@ -68701,7 +68703,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="134" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B60" s="117" t="e">
         <f>VLOOKUP(C60,#REF!,2,FALSE)</f>
@@ -68767,7 +68769,7 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="134" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B61" s="117" t="e">
         <f>VLOOKUP(C61,#REF!,2,FALSE)</f>
@@ -68801,7 +68803,7 @@
         <v>77</v>
       </c>
       <c r="L61" s="117" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="M61" s="139">
         <v>119</v>
@@ -68833,7 +68835,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="134" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B62" s="117" t="e">
         <f>VLOOKUP(C62,#REF!,2,FALSE)</f>
@@ -68867,7 +68869,7 @@
         <v>1500</v>
       </c>
       <c r="L62" s="117" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="M62" s="139">
         <v>121</v>
@@ -68899,7 +68901,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="134" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B63" s="117" t="e">
         <f>VLOOKUP(C63,#REF!,2,FALSE)</f>
@@ -68951,10 +68953,10 @@
         <v>696</v>
       </c>
       <c r="R63" s="134" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="S63" s="134" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="T63" s="134" t="s">
         <v>460</v>
@@ -68965,7 +68967,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="134" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B64" s="117" t="e">
         <f>VLOOKUP(C64,#REF!,2,FALSE)</f>
@@ -69031,7 +69033,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="134" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B65" s="117" t="e">
         <f>VLOOKUP(C65,#REF!,2,FALSE)</f>
@@ -69097,7 +69099,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="134" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="B66" s="117" t="e">
         <f>VLOOKUP(C66,#REF!,2,FALSE)</f>
@@ -69125,7 +69127,7 @@
         <v>77</v>
       </c>
       <c r="J66" s="134" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="K66" s="134" t="s">
         <v>334</v>
@@ -69163,7 +69165,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="134" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B67" s="117" t="e">
         <f>VLOOKUP(C67,#REF!,2,FALSE)</f>
@@ -69229,7 +69231,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="134" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B68" s="117" t="e">
         <f>VLOOKUP(C68,#REF!,2,FALSE)</f>
@@ -69295,7 +69297,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="134" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B69" s="117" t="e">
         <f>VLOOKUP(C69,#REF!,2,FALSE)</f>
@@ -69323,7 +69325,7 @@
         <v>77</v>
       </c>
       <c r="J69" s="134" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="K69" s="134" t="s">
         <v>334</v>
@@ -69361,7 +69363,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="134" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B70" s="117" t="e">
         <f>VLOOKUP(C70,#REF!,2,FALSE)</f>
@@ -69427,7 +69429,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="134" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B71" s="117" t="e">
         <f>VLOOKUP(C71,#REF!,2,FALSE)</f>
@@ -69493,7 +69495,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="134" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B72" s="117" t="e">
         <f>VLOOKUP(C72,#REF!,2,FALSE)</f>
@@ -69521,7 +69523,7 @@
         <v>77</v>
       </c>
       <c r="J72" s="134" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K72" s="134" t="s">
         <v>1714</v>
@@ -69551,7 +69553,7 @@
         <v>77</v>
       </c>
       <c r="T72" s="134" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="U72" s="134" t="s">
         <v>334</v>
@@ -69559,7 +69561,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="134" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B73" s="117" t="e">
         <f>VLOOKUP(C73,#REF!,2,FALSE)</f>
@@ -69625,7 +69627,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="134" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B74" s="117" t="e">
         <f>VLOOKUP(C74,#REF!,2,FALSE)</f>
@@ -69653,7 +69655,7 @@
         <v>77</v>
       </c>
       <c r="J74" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="K74" s="134" t="s">
         <v>334</v>
@@ -69691,7 +69693,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="134" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B75" s="117" t="e">
         <f>VLOOKUP(C75,#REF!,2,FALSE)</f>
@@ -69757,7 +69759,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="134" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B76" s="117" t="e">
         <f>VLOOKUP(C76,#REF!,2,FALSE)</f>
@@ -69785,7 +69787,7 @@
         <v>1002</v>
       </c>
       <c r="J76" s="134" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="K76" s="134" t="s">
         <v>334</v>
@@ -69812,7 +69814,7 @@
         <v>545</v>
       </c>
       <c r="S76" s="134" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="T76" s="134" t="s">
         <v>2009</v>
@@ -69823,7 +69825,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="134" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B77" s="117" t="e">
         <f>VLOOKUP(C77,#REF!,2,FALSE)</f>
@@ -69851,7 +69853,7 @@
         <v>1667</v>
       </c>
       <c r="J77" s="134" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="K77" s="134" t="s">
         <v>162</v>
@@ -69889,7 +69891,7 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="134" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B78" s="117" t="e">
         <f>VLOOKUP(C78,#REF!,2,FALSE)</f>
@@ -69955,7 +69957,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="134" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B79" s="117" t="e">
         <f>VLOOKUP(C79,#REF!,2,FALSE)</f>
@@ -70021,7 +70023,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="134" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B80" s="117" t="e">
         <f>VLOOKUP(C80,#REF!,2,FALSE)</f>
@@ -70087,7 +70089,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="134" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B81" s="117" t="e">
         <f>VLOOKUP(C81,#REF!,2,FALSE)</f>
@@ -70153,7 +70155,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="134" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B82" s="117" t="e">
         <f>VLOOKUP(C82,#REF!,2,FALSE)</f>
@@ -70219,7 +70221,7 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="134" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B83" s="117" t="e">
         <f>VLOOKUP(C83,#REF!,2,FALSE)</f>
@@ -70285,7 +70287,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="134" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B84" s="117" t="e">
         <f>VLOOKUP(C84,#REF!,2,FALSE)</f>
@@ -70351,7 +70353,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="134" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B85" s="117" t="e">
         <f>VLOOKUP(C85,#REF!,2,FALSE)</f>
@@ -70379,7 +70381,7 @@
         <v>77</v>
       </c>
       <c r="J85" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="K85" s="134" t="s">
         <v>599</v>
@@ -70417,7 +70419,7 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="134" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B86" s="117" t="e">
         <f>VLOOKUP(C86,#REF!,2,FALSE)</f>
@@ -70451,7 +70453,7 @@
         <v>1500</v>
       </c>
       <c r="L86" s="117" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="M86" s="139">
         <v>169</v>
@@ -70483,7 +70485,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="134" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B87" s="117" t="e">
         <f>VLOOKUP(C87,#REF!,2,FALSE)</f>
@@ -70549,7 +70551,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="134" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B88" s="117" t="e">
         <f>VLOOKUP(C88,#REF!,2,FALSE)</f>
@@ -70615,7 +70617,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="134" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B89" s="117" t="e">
         <f>VLOOKUP(C89,#REF!,2,FALSE)</f>
@@ -70681,7 +70683,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="134" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B90" s="117" t="e">
         <f>VLOOKUP(C90,#REF!,2,FALSE)</f>
@@ -70747,7 +70749,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="134" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B91" s="117" t="e">
         <f>VLOOKUP(C91,#REF!,2,FALSE)</f>
@@ -70805,7 +70807,7 @@
         <v>162</v>
       </c>
       <c r="T91" s="134" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="U91" s="134" t="s">
         <v>1793</v>
@@ -70813,7 +70815,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="134" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B92" s="117" t="e">
         <f>VLOOKUP(C92,#REF!,2,FALSE)</f>
@@ -70879,7 +70881,7 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="134" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B93" s="117" t="e">
         <f>VLOOKUP(C93,Weapon!A1:Z258,2,FALSE)</f>
@@ -70910,7 +70912,7 @@
         <v>487</v>
       </c>
       <c r="K93" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="L93" s="117" t="s">
         <v>159</v>
@@ -70945,7 +70947,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="134" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B94" s="117" t="e">
         <f>VLOOKUP(C94,#REF!,2,FALSE)</f>
@@ -70955,7 +70957,7 @@
         <v>184</v>
       </c>
       <c r="D94" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E94" s="134" t="s">
         <v>77</v>
@@ -70985,7 +70987,7 @@
         <v>185</v>
       </c>
       <c r="N94" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="O94" s="134" t="s">
         <v>77</v>
@@ -71011,7 +71013,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="134" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B95" s="117" t="e">
         <f>VLOOKUP(C95,#REF!,2,FALSE)</f>
@@ -71021,7 +71023,7 @@
         <v>186</v>
       </c>
       <c r="D95" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E95" s="134" t="s">
         <v>77</v>
@@ -71042,16 +71044,16 @@
         <v>1826</v>
       </c>
       <c r="K95" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="L95" s="117" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="M95" s="139">
         <v>187</v>
       </c>
       <c r="N95" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="O95" s="134" t="s">
         <v>77</v>
@@ -71077,7 +71079,7 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="134" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B96" s="117" t="e">
         <f>VLOOKUP(C96,#REF!,2,FALSE)</f>
@@ -71117,7 +71119,7 @@
         <v>189</v>
       </c>
       <c r="N96" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="O96" s="134" t="s">
         <v>77</v>
@@ -71143,7 +71145,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="134" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B97" s="117" t="e">
         <f>VLOOKUP(C97,#REF!,2,FALSE)</f>
@@ -71168,7 +71170,7 @@
         <v>1678</v>
       </c>
       <c r="I97" s="134" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="J97" s="134" t="s">
         <v>1784</v>
@@ -71209,7 +71211,7 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="134" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B98" s="117" t="e">
         <f>VLOOKUP(C98,#REF!,2,FALSE)</f>
@@ -71264,7 +71266,7 @@
         <v>1678</v>
       </c>
       <c r="S98" s="134" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="T98" s="134" t="s">
         <v>2042</v>
@@ -71275,7 +71277,7 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="134" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B99" s="117" t="e">
         <f>VLOOKUP(C99,#REF!,2,FALSE)</f>
@@ -71341,7 +71343,7 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="134" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B100" s="117" t="e">
         <f>VLOOKUP(C100,#REF!,2,FALSE)</f>
@@ -71407,7 +71409,7 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="134" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B101" s="117" t="e">
         <f>VLOOKUP(C101,#REF!,2,FALSE)</f>
@@ -71473,7 +71475,7 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="134" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B102" s="117" t="e">
         <f>VLOOKUP(C102,#REF!,2,FALSE)</f>
@@ -71539,7 +71541,7 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="134" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B103" s="117" t="e">
         <f>VLOOKUP(C103,#REF!,2,FALSE)</f>
@@ -71605,7 +71607,7 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="134" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B104" s="117" t="e">
         <f>VLOOKUP(C104,#REF!,2,FALSE)</f>
@@ -71671,7 +71673,7 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" s="134" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B105" s="117" t="e">
         <f>VLOOKUP(C105,#REF!,2,FALSE)</f>
@@ -71737,7 +71739,7 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" s="134" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B106" s="117" t="e">
         <f>VLOOKUP(C106,#REF!,2,FALSE)</f>
@@ -71803,7 +71805,7 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="134" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B107" s="117" t="e">
         <f>VLOOKUP(C107,#REF!,2,FALSE)</f>
@@ -71869,7 +71871,7 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="134" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B108" s="117" t="e">
         <f>VLOOKUP(C108,#REF!,2,FALSE)</f>
@@ -71935,7 +71937,7 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="134" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B109" s="117" t="e">
         <f>VLOOKUP(C109,#REF!,2,FALSE)</f>
@@ -72001,7 +72003,7 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="134" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B110" s="117" t="e">
         <f>VLOOKUP(C110,#REF!,2,FALSE)</f>
@@ -72041,7 +72043,7 @@
         <v>217</v>
       </c>
       <c r="N110" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="O110" s="134" t="s">
         <v>77</v>
@@ -72059,7 +72061,7 @@
         <v>77</v>
       </c>
       <c r="T110" s="134" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="U110" s="134" t="s">
         <v>36</v>
@@ -72067,7 +72069,7 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="134" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B111" s="117" t="e">
         <f>VLOOKUP(C111,#REF!,2,FALSE)</f>
@@ -72077,7 +72079,7 @@
         <v>218</v>
       </c>
       <c r="D111" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E111" s="134" t="s">
         <v>77</v>
@@ -72107,7 +72109,7 @@
         <v>219</v>
       </c>
       <c r="N111" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="O111" s="134" t="s">
         <v>77</v>
@@ -72133,7 +72135,7 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" s="134" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B112" s="117" t="e">
         <f>VLOOKUP(C112,#REF!,2,FALSE)</f>
@@ -72143,7 +72145,7 @@
         <v>220</v>
       </c>
       <c r="D112" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E112" s="134" t="s">
         <v>77</v>
@@ -72164,7 +72166,7 @@
         <v>1684</v>
       </c>
       <c r="K112" s="134" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="L112" s="117" t="s">
         <v>202</v>
@@ -72173,7 +72175,7 @@
         <v>221</v>
       </c>
       <c r="N112" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="O112" s="134" t="s">
         <v>77</v>
@@ -72199,7 +72201,7 @@
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="134" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B113" s="117" t="e">
         <f>VLOOKUP(C113,#REF!,2,FALSE)</f>
@@ -72209,7 +72211,7 @@
         <v>222</v>
       </c>
       <c r="D113" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E113" s="134" t="s">
         <v>77</v>
@@ -72239,7 +72241,7 @@
         <v>223</v>
       </c>
       <c r="N113" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="O113" s="134" t="s">
         <v>77</v>
@@ -72265,7 +72267,7 @@
     </row>
     <row r="114" spans="1:21">
       <c r="A114" s="134" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B114" s="117" t="e">
         <f>VLOOKUP(C114,#REF!,2,FALSE)</f>
@@ -72275,7 +72277,7 @@
         <v>224</v>
       </c>
       <c r="D114" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E114" s="134" t="s">
         <v>77</v>
@@ -72305,7 +72307,7 @@
         <v>225</v>
       </c>
       <c r="N114" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="O114" s="134" t="s">
         <v>77</v>
@@ -72331,7 +72333,7 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" s="134" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B115" s="117" t="e">
         <f>VLOOKUP(C115,#REF!,2,FALSE)</f>
@@ -72341,7 +72343,7 @@
         <v>226</v>
       </c>
       <c r="D115" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E115" s="134" t="s">
         <v>77</v>
@@ -72397,7 +72399,7 @@
     </row>
     <row r="116" spans="1:21">
       <c r="A116" s="134" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B116" s="117" t="e">
         <f>VLOOKUP(C116,#REF!,2,FALSE)</f>
@@ -72463,7 +72465,7 @@
     </row>
     <row r="117" spans="1:21">
       <c r="A117" s="134" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B117" s="117" t="e">
         <f>VLOOKUP(C117,#REF!,2,FALSE)</f>
@@ -72479,7 +72481,7 @@
         <v>77</v>
       </c>
       <c r="F117" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="G117" s="134" t="s">
         <v>77</v>
@@ -72509,7 +72511,7 @@
         <v>77</v>
       </c>
       <c r="P117" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="Q117" s="134" t="s">
         <v>77</v>
@@ -72529,7 +72531,7 @@
     </row>
     <row r="118" spans="1:21">
       <c r="A118" s="134" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B118" s="117" t="e">
         <f>VLOOKUP(C118,#REF!,2,FALSE)</f>
@@ -72545,7 +72547,7 @@
         <v>77</v>
       </c>
       <c r="F118" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="G118" s="134" t="s">
         <v>77</v>
@@ -72575,7 +72577,7 @@
         <v>77</v>
       </c>
       <c r="P118" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="Q118" s="134" t="s">
         <v>77</v>
@@ -72595,7 +72597,7 @@
     </row>
     <row r="119" spans="1:21">
       <c r="A119" s="134" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B119" s="117" t="e">
         <f>VLOOKUP(C119,#REF!,2,FALSE)</f>
@@ -72611,7 +72613,7 @@
         <v>77</v>
       </c>
       <c r="F119" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="G119" s="134" t="s">
         <v>77</v>
@@ -72641,7 +72643,7 @@
         <v>77</v>
       </c>
       <c r="P119" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="Q119" s="134" t="s">
         <v>77</v>
@@ -72661,7 +72663,7 @@
     </row>
     <row r="120" spans="1:21">
       <c r="A120" s="134" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B120" s="117" t="e">
         <f>VLOOKUP(C120,#REF!,2,FALSE)</f>
@@ -72677,7 +72679,7 @@
         <v>77</v>
       </c>
       <c r="F120" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="G120" s="134" t="s">
         <v>77</v>
@@ -72707,7 +72709,7 @@
         <v>77</v>
       </c>
       <c r="P120" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="Q120" s="134" t="s">
         <v>77</v>
@@ -72727,7 +72729,7 @@
     </row>
     <row r="121" spans="1:21">
       <c r="A121" s="134" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B121" s="117" t="e">
         <f>VLOOKUP(C121,#REF!,2,FALSE)</f>
@@ -72743,7 +72745,7 @@
         <v>77</v>
       </c>
       <c r="F121" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="G121" s="134" t="s">
         <v>77</v>
@@ -72773,7 +72775,7 @@
         <v>77</v>
       </c>
       <c r="P121" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="Q121" s="134" t="s">
         <v>77</v>
@@ -72793,7 +72795,7 @@
     </row>
     <row r="122" spans="1:21">
       <c r="A122" s="134" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B122" s="117" t="e">
         <f>VLOOKUP(C122,#REF!,2,FALSE)</f>
@@ -72859,7 +72861,7 @@
     </row>
     <row r="123" spans="1:21">
       <c r="A123" s="134" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B123" s="117" t="e">
         <f>VLOOKUP(C123,#REF!,2,FALSE)</f>
@@ -72925,7 +72927,7 @@
     </row>
     <row r="124" spans="1:21">
       <c r="A124" s="134" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B124" s="117" t="e">
         <f>VLOOKUP(C124,#REF!,2,FALSE)</f>
@@ -72971,7 +72973,7 @@
         <v>77</v>
       </c>
       <c r="P124" s="134" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="Q124" s="134" t="s">
         <v>77</v>
@@ -72980,7 +72982,7 @@
         <v>77</v>
       </c>
       <c r="S124" s="134" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="T124" s="134" t="s">
         <v>460</v>
@@ -72991,7 +72993,7 @@
     </row>
     <row r="125" spans="1:21">
       <c r="A125" s="134" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B125" s="117" t="e">
         <f>VLOOKUP(C125,#REF!,2,FALSE)</f>
@@ -73001,7 +73003,7 @@
         <v>246</v>
       </c>
       <c r="D125" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E125" s="134" t="s">
         <v>77</v>
@@ -73043,10 +73045,10 @@
         <v>599</v>
       </c>
       <c r="R125" s="134" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="S125" s="134" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="T125" s="134" t="s">
         <v>460</v>
@@ -73057,7 +73059,7 @@
     </row>
     <row r="126" spans="1:21">
       <c r="A126" s="134" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B126" s="117" t="e">
         <f>VLOOKUP(C126,#REF!,2,FALSE)</f>
@@ -73123,7 +73125,7 @@
     </row>
     <row r="127" spans="1:21">
       <c r="A127" s="134" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B127" s="117" t="e">
         <f>VLOOKUP(C127,#REF!,2,FALSE)</f>
@@ -73133,7 +73135,7 @@
         <v>250</v>
       </c>
       <c r="D127" s="134" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E127" s="134" t="s">
         <v>77</v>
@@ -73154,7 +73156,7 @@
         <v>1684</v>
       </c>
       <c r="K127" s="134" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="L127" s="117" t="e">
         <v>#N/A</v>
@@ -73189,7 +73191,7 @@
     </row>
     <row r="128" spans="1:21">
       <c r="A128" s="134" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B128" s="117" t="e">
         <f>VLOOKUP(C128,#REF!,2,FALSE)</f>
@@ -73214,7 +73216,7 @@
         <v>93</v>
       </c>
       <c r="I128" s="134" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="J128" s="134" t="s">
         <v>1757</v>
@@ -73255,7 +73257,7 @@
     </row>
     <row r="129" spans="1:21">
       <c r="A129" s="134" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B129" s="117" t="e">
         <f>VLOOKUP(C129,#REF!,2,FALSE)</f>
@@ -73321,7 +73323,7 @@
     </row>
     <row r="130" spans="1:21">
       <c r="A130" s="134" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B130" s="117" t="e">
         <f>VLOOKUP(C130,#REF!,2,FALSE)</f>
@@ -73355,7 +73357,7 @@
         <v>128</v>
       </c>
       <c r="L130" s="117" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="M130" s="139">
         <v>257</v>
@@ -73387,7 +73389,7 @@
     </row>
     <row r="131" spans="1:21">
       <c r="A131" s="134" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B131" s="117" t="e">
         <f>VLOOKUP(C131,#REF!,2,FALSE)</f>
@@ -73421,7 +73423,7 @@
         <v>128</v>
       </c>
       <c r="L131" s="117" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="M131" s="139">
         <v>259</v>
@@ -73453,7 +73455,7 @@
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="134" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B132" s="117" t="e">
         <f>VLOOKUP(C132,#REF!,2,FALSE)</f>
@@ -73487,7 +73489,7 @@
         <v>128</v>
       </c>
       <c r="L132" s="117" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="M132" s="139">
         <v>261</v>
@@ -73519,7 +73521,7 @@
     </row>
     <row r="133" spans="1:21">
       <c r="A133" s="134" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B133" s="117" t="e">
         <f>VLOOKUP(C133,#REF!,2,FALSE)</f>
@@ -73553,7 +73555,7 @@
         <v>128</v>
       </c>
       <c r="L133" s="117" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="M133" s="139">
         <v>263</v>
@@ -73585,7 +73587,7 @@
     </row>
     <row r="134" spans="1:21">
       <c r="A134" s="134" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B134" s="117" t="e">
         <f>VLOOKUP(C134,#REF!,2,FALSE)</f>
@@ -73637,10 +73639,10 @@
         <v>696</v>
       </c>
       <c r="R134" s="134" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="S134" s="134" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="T134" s="134" t="s">
         <v>460</v>
@@ -73651,7 +73653,7 @@
     </row>
     <row r="135" spans="1:21">
       <c r="A135" s="134" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B135" s="117" t="e">
         <f>VLOOKUP(C135,#REF!,2,FALSE)</f>
@@ -73717,7 +73719,7 @@
     </row>
     <row r="136" spans="1:21">
       <c r="A136" s="134" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B136" s="117" t="e">
         <f>VLOOKUP(C136,#REF!,2,FALSE)</f>
@@ -73783,7 +73785,7 @@
     </row>
     <row r="137" spans="1:21">
       <c r="A137" s="134" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B137" s="117" t="e">
         <f>VLOOKUP(C137,#REF!,2,FALSE)</f>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20147CF7-0A24-4D00-B861-3BC322583F4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="20490" windowHeight="7350" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -28,13 +29,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$AD$258</definedName>
     <definedName name="Item_Hex" localSheetId="7">'Item Hex'!$A$1:$U$137</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item Hex" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item Hex" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Action IV\Documents\GitHub\pillar\Item Hex.txt" delimited="0">
       <textFields count="17">
         <textField type="text"/>
@@ -7887,7 +7888,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot; $(&quot;#,##0.00&quot;)&quot;;&quot; $-&quot;#&quot; &quot;;@&quot; &quot;"/>
   </numFmts>
@@ -8664,11 +8665,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel_BuiltIn_Currency" xfId="2"/>
+    <cellStyle name="Excel_BuiltIn_Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8697,7 +8712,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Item Hex" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Item Hex" connectionId="1" xr16:uid="{00000000-0016-0000-0700-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8776,6 +8791,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8811,6 +8843,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8986,7 +9035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W253"/>
   <sheetViews>
@@ -25748,7 +25797,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A253">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25757,7 +25806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -26300,7 +26349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N162"/>
   <sheetViews>
@@ -31792,7 +31841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T117"/>
   <sheetViews>
@@ -35941,13 +35990,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AD258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50796,7 +50845,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD258">
+  <autoFilter ref="A1:AD258" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="21">
       <filters>
         <filter val="Armor"/>
@@ -50813,7 +50862,7 @@
     <sortCondition ref="F2:F213"/>
   </sortState>
   <conditionalFormatting sqref="A2:A258">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50823,7 +50872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -63149,13 +63198,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W257"/>
+  <autoFilter ref="A1:W257" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B242"/>
   <sheetViews>
@@ -64755,7 +64804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -65607,7 +65656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -74678,7 +74727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I16"/>
   <sheetViews>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20147CF7-0A24-4D00-B861-3BC322583F4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -26,16 +25,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Items!$A$1:$W$257</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$AD$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$AE$258</definedName>
     <definedName name="Item_Hex" localSheetId="7">'Item Hex'!$A$1:$U$137</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item Hex" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item Hex" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Action IV\Documents\GitHub\pillar\Item Hex.txt" delimited="0">
       <textFields count="17">
         <textField type="text"/>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12249" uniqueCount="2607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12269" uniqueCount="2608">
   <si>
     <t>Monster</t>
   </si>
@@ -7883,12 +7882,15 @@
   </si>
   <si>
     <t>Str, Agl</t>
+  </si>
+  <si>
+    <t>Race Bonus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot; $(&quot;#,##0.00&quot;)&quot;;&quot; $-&quot;#&quot; &quot;;@&quot; &quot;"/>
   </numFmts>
@@ -8665,25 +8667,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel_BuiltIn_Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel_BuiltIn_Currency" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -8712,7 +8700,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Item Hex" connectionId="1" xr16:uid="{00000000-0016-0000-0700-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Item Hex" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8791,23 +8779,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8843,23 +8814,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9035,7 +8989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W253"/>
   <sheetViews>
@@ -25797,7 +25751,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A253">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25806,7 +25760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -26349,7 +26303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N162"/>
   <sheetViews>
@@ -31841,7 +31795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T117"/>
   <sheetViews>
@@ -35990,13 +35944,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" filterMode="1"/>
-  <dimension ref="A1:AD258"/>
+  <dimension ref="A1:AE258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D262" sqref="D262"/>
+      <pane xSplit="2" ySplit="17" topLeftCell="T61" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="Z259" sqref="Z259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36014,10 +35970,10 @@
     <col min="20" max="20" width="9.85546875" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="40.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>2318</v>
       </c>
@@ -36100,10 +36056,13 @@
         <v>2356</v>
       </c>
       <c r="AD1" s="121" t="s">
+        <v>2607</v>
+      </c>
+      <c r="AE1" s="121" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="2" spans="1:30" hidden="1">
+    <row r="2" spans="1:31" hidden="1">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">B2</f>
         <v>Hammer</v>
@@ -36161,7 +36120,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="3" spans="1:30" hidden="1">
+    <row r="3" spans="1:31" hidden="1">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Long Sword</v>
@@ -36221,7 +36180,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="4" spans="1:30" hidden="1">
+    <row r="4" spans="1:31" hidden="1">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Axe</v>
@@ -36281,7 +36240,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="5" spans="1:30" hidden="1">
+    <row r="5" spans="1:31" hidden="1">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Battle Sword</v>
@@ -36341,7 +36300,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="6" spans="1:30" hidden="1">
+    <row r="6" spans="1:31" hidden="1">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Katana</v>
@@ -36401,7 +36360,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="7" spans="1:30" hidden="1">
+    <row r="7" spans="1:31" hidden="1">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Gold Sword</v>
@@ -36461,7 +36420,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="8" spans="1:30" hidden="1">
+    <row r="8" spans="1:31" hidden="1">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Coral Sword</v>
@@ -36524,7 +36483,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="9" spans="1:30" hidden="1">
+    <row r="9" spans="1:31" hidden="1">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Ogre Axe</v>
@@ -36587,7 +36546,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="10" spans="1:30" hidden="1">
+    <row r="10" spans="1:31" hidden="1">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Sword</v>
@@ -36650,7 +36609,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:30" hidden="1">
+    <row r="11" spans="1:31" hidden="1">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Sun Sword</v>
@@ -36713,7 +36672,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="12" spans="1:30" hidden="1">
+    <row r="12" spans="1:31" hidden="1">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Flame Sword</v>
@@ -36778,7 +36737,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:30" hidden="1">
+    <row r="13" spans="1:31" hidden="1">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Ice Sword</v>
@@ -36843,7 +36802,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:30" hidden="1">
+    <row r="14" spans="1:31" hidden="1">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Axe</v>
@@ -36908,7 +36867,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:30" hidden="1">
+    <row r="15" spans="1:31" hidden="1">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Defend Sword</v>
@@ -36976,7 +36935,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:30" hidden="1">
+    <row r="16" spans="1:31" hidden="1">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Rune Axe</v>
@@ -37042,7 +37001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:30" hidden="1">
+    <row r="17" spans="1:31" hidden="1">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Rapier</v>
@@ -37093,7 +37052,7 @@
         <v>5</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V17" t="s">
         <v>2343</v>
@@ -37101,11 +37060,14 @@
       <c r="W17" t="s">
         <v>2305</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AB17" t="s">
+        <v>2341</v>
+      </c>
+      <c r="AE17" t="s">
         <v>2580</v>
       </c>
     </row>
-    <row r="18" spans="1:30" hidden="1">
+    <row r="18" spans="1:31">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -37172,10 +37134,10 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" hidden="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" hidden="1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Shield</v>
@@ -37232,7 +37194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:30" hidden="1">
+    <row r="20" spans="1:31" hidden="1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Silver Shield</v>
@@ -37289,7 +37251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:30" hidden="1">
+    <row r="21" spans="1:31" hidden="1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Gold Shield</v>
@@ -37346,7 +37308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:30" hidden="1">
+    <row r="22" spans="1:31" hidden="1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Flame Shield</v>
@@ -37406,7 +37368,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:30" hidden="1">
+    <row r="23" spans="1:31" hidden="1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Ice Shield</v>
@@ -37466,7 +37428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:30" hidden="1">
+    <row r="24" spans="1:31" hidden="1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Shield</v>
@@ -37526,7 +37488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:30" hidden="1">
+    <row r="25" spans="1:31" hidden="1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Cure Potion</v>
@@ -37586,7 +37548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:30" hidden="1">
+    <row r="26" spans="1:31" hidden="1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>X-Cure Potion</v>
@@ -37646,7 +37608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:30" hidden="1">
+    <row r="27" spans="1:31" hidden="1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Curse Potion</v>
@@ -37703,7 +37665,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="28" spans="1:30" hidden="1">
+    <row r="28" spans="1:31" hidden="1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EyeDrop</v>
@@ -37760,7 +37722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:30" hidden="1">
+    <row r="29" spans="1:31" hidden="1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Abacus</v>
@@ -37818,7 +37780,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="30" spans="1:30" hidden="1">
+    <row r="30" spans="1:31" hidden="1">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Xcalibr Sword</v>
@@ -37886,7 +37848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" hidden="1">
+    <row r="31" spans="1:31">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
@@ -37952,8 +37914,11 @@
       <c r="Z31">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" hidden="1">
+      <c r="AC31">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" hidden="1">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Cure Book</v>
@@ -38760,7 +38725,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" hidden="1">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Helm</v>
@@ -38809,7 +38774,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" hidden="1">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Silver Helm</v>
@@ -38858,7 +38823,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" hidden="1">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Gold Helm</v>
@@ -38907,7 +38872,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" hidden="1">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Helm</v>
@@ -38959,7 +38924,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" hidden="1">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Armor</v>
@@ -39008,7 +38973,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" hidden="1">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Silver Armor</v>
@@ -39057,7 +39022,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" hidden="1">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Gold Armor</v>
@@ -39106,7 +39071,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" hidden="1">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Armor</v>
@@ -39158,7 +39123,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" hidden="1">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Arthur Armor</v>
@@ -39210,7 +39175,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" hidden="1">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Glove</v>
@@ -39259,7 +39224,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" hidden="1">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Silver Glove</v>
@@ -39308,7 +39273,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" hidden="1">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Gold Glove</v>
@@ -39357,7 +39322,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" hidden="1">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Giant Glove</v>
@@ -39410,7 +39375,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" hidden="1">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Ninja Glove</v>
@@ -39462,7 +39427,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" hidden="1">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Hermes Boot</v>
@@ -39515,7 +39480,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" hidden="1">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Hecate Boot</v>
@@ -39777,7 +39742,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="65" spans="1:30" hidden="1">
+    <row r="65" spans="1:31" hidden="1">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Magic Potion</v>
@@ -39824,7 +39789,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="66" spans="1:30" hidden="1">
+    <row r="66" spans="1:31" hidden="1">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="6">B66</f>
         <v>Body Potion</v>
@@ -39871,7 +39836,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="67" spans="1:30" hidden="1">
+    <row r="67" spans="1:31" hidden="1">
       <c r="A67" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Tent </v>
@@ -39916,7 +39881,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="68" spans="1:30" hidden="1">
+    <row r="68" spans="1:31" hidden="1">
       <c r="A68" t="str">
         <f t="shared" si="6"/>
         <v>Whip</v>
@@ -39981,7 +39946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:30" hidden="1">
+    <row r="69" spans="1:31" hidden="1">
       <c r="A69" t="str">
         <f t="shared" si="6"/>
         <v>Blitz Whip</v>
@@ -40047,7 +40012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:30" hidden="1">
+    <row r="70" spans="1:31" hidden="1">
       <c r="A70" t="str">
         <f t="shared" si="6"/>
         <v>ChainSaw</v>
@@ -40105,7 +40070,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="71" spans="1:30" hidden="1">
+    <row r="71" spans="1:31" hidden="1">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
         <v>Counter</v>
@@ -40165,7 +40130,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:30" hidden="1">
+    <row r="72" spans="1:31">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
         <v>Colt Gun</v>
@@ -40238,8 +40203,11 @@
       <c r="AC72">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:30" hidden="1">
+      <c r="AD72" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
         <v>Musket Gun</v>
@@ -40310,8 +40278,11 @@
       <c r="AC73">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:30" hidden="1">
+      <c r="AD73" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
         <v>Magnum Gun</v>
@@ -40382,8 +40353,11 @@
       <c r="AC74">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:30" hidden="1">
+      <c r="AD74" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" hidden="1">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
         <v>Chop Art</v>
@@ -40441,11 +40415,11 @@
       <c r="W75" t="s">
         <v>2305</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AE75" t="s">
         <v>2314</v>
       </c>
     </row>
-    <row r="76" spans="1:30" hidden="1">
+    <row r="76" spans="1:31" hidden="1">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
         <v>Kick Art</v>
@@ -40504,7 +40478,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="77" spans="1:30" hidden="1">
+    <row r="77" spans="1:31" hidden="1">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
         <v>HeadBut Art</v>
@@ -40563,7 +40537,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="78" spans="1:30" hidden="1">
+    <row r="78" spans="1:31" hidden="1">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
         <v>Roundhouse Art</v>
@@ -40621,11 +40595,11 @@
       <c r="W78" t="s">
         <v>2305</v>
       </c>
-      <c r="AD78" t="s">
+      <c r="AE78" t="s">
         <v>2599</v>
       </c>
     </row>
-    <row r="79" spans="1:30" hidden="1">
+    <row r="79" spans="1:31" hidden="1">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
         <v>Jyudo Art</v>
@@ -40684,7 +40658,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="80" spans="1:30" hidden="1">
+    <row r="80" spans="1:31" hidden="1">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
         <v>Karate Art</v>
@@ -40745,7 +40719,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="81" spans="1:29" hidden="1">
+    <row r="81" spans="1:30" hidden="1">
       <c r="A81" t="str">
         <f t="shared" si="6"/>
         <v>Temptat</v>
@@ -40803,7 +40777,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="82" spans="1:29" hidden="1">
+    <row r="82" spans="1:30" hidden="1">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
         <v>StunGun</v>
@@ -40863,7 +40837,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="83" spans="1:29" hidden="1">
+    <row r="83" spans="1:30" hidden="1">
       <c r="A83" t="str">
         <f t="shared" si="6"/>
         <v>Heat</v>
@@ -40915,7 +40889,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="84" spans="1:29" hidden="1">
+    <row r="84" spans="1:30" hidden="1">
       <c r="A84" t="str">
         <f t="shared" si="6"/>
         <v>ComVirus</v>
@@ -40973,7 +40947,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="85" spans="1:29" hidden="1">
+    <row r="85" spans="1:30" hidden="1">
       <c r="A85" t="str">
         <f t="shared" si="6"/>
         <v>DNA</v>
@@ -41025,7 +40999,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="86" spans="1:29" hidden="1">
+    <row r="86" spans="1:30">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
         <v>SMG Gun</v>
@@ -41092,8 +41066,14 @@
         <f>Y86*0.1</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" hidden="1">
+      <c r="AC86">
+        <v>999</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
         <v>Grenade</v>
@@ -41157,8 +41137,11 @@
       <c r="Z87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" hidden="1">
+      <c r="AC87">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
         <v>Bazooka Cannon</v>
@@ -41223,8 +41206,14 @@
         <f>Y88*0.1</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="89" spans="1:29" hidden="1">
+      <c r="AC88">
+        <v>999</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
         <v>Vulcan Cannon</v>
@@ -41289,8 +41278,14 @@
         <f>Y89*0.1</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="90" spans="1:29" hidden="1">
+      <c r="AC89">
+        <v>999</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
         <v>Tank Cannon</v>
@@ -41361,8 +41356,11 @@
       <c r="AC90">
         <v>70</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" hidden="1">
+      <c r="AD90" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
         <v>Fire Gun</v>
@@ -41432,8 +41430,14 @@
         <f>Y91*0.1</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" hidden="1">
+      <c r="AC91">
+        <v>999</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
         <v>Missile Cannon</v>
@@ -41497,8 +41501,14 @@
       <c r="Z92">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" hidden="1">
+      <c r="AC92">
+        <v>999</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
         <v>NukeBomb</v>
@@ -41562,8 +41572,11 @@
       <c r="Z93">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:29">
+      <c r="AC93">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" hidden="1">
       <c r="A94" t="str">
         <f t="shared" si="6"/>
         <v>Giant Armor</v>
@@ -41616,7 +41629,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:30" hidden="1">
       <c r="A95" t="str">
         <f t="shared" si="6"/>
         <v>Army Helm</v>
@@ -41665,7 +41678,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:30" hidden="1">
       <c r="A96" t="str">
         <f t="shared" si="6"/>
         <v>Army Armor</v>
@@ -41714,7 +41727,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:31" hidden="1">
       <c r="A97" t="str">
         <f t="shared" si="6"/>
         <v>Geta Boot</v>
@@ -41767,7 +41780,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="98" spans="1:30" hidden="1">
+    <row r="98" spans="1:31" hidden="1">
       <c r="A98" t="str">
         <f t="shared" si="6"/>
         <v>Sypha</v>
@@ -41828,7 +41841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:30" hidden="1">
+    <row r="99" spans="1:31">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
         <v>Coin</v>
@@ -41896,7 +41909,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:31" hidden="1">
       <c r="A100" t="str">
         <f t="shared" si="6"/>
         <v>Kimono Armor</v>
@@ -41949,7 +41962,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="101" spans="1:30" hidden="1">
+    <row r="101" spans="1:31" hidden="1">
       <c r="A101" t="str">
         <f t="shared" si="6"/>
         <v>Samurai Shield</v>
@@ -42006,7 +42019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:30" hidden="1">
+    <row r="102" spans="1:31" hidden="1">
       <c r="A102" t="str">
         <f t="shared" si="6"/>
         <v>Muramas</v>
@@ -42069,7 +42082,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="103" spans="1:30" hidden="1">
+    <row r="103" spans="1:31" hidden="1">
       <c r="A103" t="str">
         <f t="shared" si="6"/>
         <v>Gungnir Spear</v>
@@ -42135,7 +42148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30" hidden="1">
+    <row r="104" spans="1:31" hidden="1">
       <c r="A104" t="str">
         <f t="shared" si="6"/>
         <v>Laser Sword</v>
@@ -42186,7 +42199,7 @@
         <v>5</v>
       </c>
       <c r="U104">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="V104" t="s">
         <v>2343</v>
@@ -42194,11 +42207,14 @@
       <c r="W104" t="s">
         <v>2305</v>
       </c>
-      <c r="AD104" t="s">
+      <c r="AB104" t="s">
+        <v>2341</v>
+      </c>
+      <c r="AE104" t="s">
         <v>2577</v>
       </c>
     </row>
-    <row r="105" spans="1:30" hidden="1">
+    <row r="105" spans="1:31" hidden="1">
       <c r="A105" t="str">
         <f t="shared" si="6"/>
         <v>Psi Knife</v>
@@ -42258,7 +42274,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="106" spans="1:30" hidden="1">
+    <row r="106" spans="1:31" hidden="1">
       <c r="A106" t="str">
         <f t="shared" si="6"/>
         <v>Psi Sword</v>
@@ -42318,7 +42334,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="107" spans="1:30" hidden="1">
+    <row r="107" spans="1:31">
       <c r="A107" t="str">
         <f t="shared" si="6"/>
         <v>Laser Gun</v>
@@ -42380,8 +42396,14 @@
       <c r="Z107">
         <v>50</v>
       </c>
-    </row>
-    <row r="108" spans="1:30" hidden="1">
+      <c r="AC107">
+        <v>999</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" hidden="1">
       <c r="A108" t="str">
         <f t="shared" si="6"/>
         <v>SpeedUp</v>
@@ -42439,7 +42461,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="109" spans="1:30" hidden="1">
+    <row r="109" spans="1:31">
       <c r="A109" t="str">
         <f t="shared" si="6"/>
         <v>Rocket</v>
@@ -42506,8 +42528,11 @@
       <c r="AC109">
         <v>87</v>
       </c>
-    </row>
-    <row r="110" spans="1:30" hidden="1">
+      <c r="AD109" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" hidden="1">
       <c r="A110" t="str">
         <f t="shared" si="6"/>
         <v>Psi Gun</v>
@@ -42567,7 +42592,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:31" hidden="1">
       <c r="A111" t="str">
         <f t="shared" si="6"/>
         <v>Giant Helm</v>
@@ -42620,7 +42645,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="112" spans="1:30" hidden="1">
+    <row r="112" spans="1:31" hidden="1">
       <c r="A112" t="str">
         <f t="shared" si="6"/>
         <v>Hyper Cannon</v>
@@ -42669,6 +42694,9 @@
       <c r="S112" s="5">
         <v>16</v>
       </c>
+      <c r="T112" t="s">
+        <v>2362</v>
+      </c>
       <c r="V112" t="s">
         <v>2344</v>
       </c>
@@ -42679,7 +42707,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" hidden="1">
       <c r="A113" t="str">
         <f t="shared" si="6"/>
         <v>Battle Armor</v>
@@ -42732,7 +42760,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" hidden="1">
       <c r="A114" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Parasuit </v>
@@ -43154,7 +43182,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:29" hidden="1">
       <c r="A122" t="str">
         <f t="shared" si="6"/>
         <v>Selfix</v>
@@ -43558,7 +43586,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="129" spans="1:30" hidden="1">
+    <row r="129" spans="1:31" hidden="1">
       <c r="A129" t="str">
         <f t="shared" si="6"/>
         <v>Bash</v>
@@ -43616,7 +43644,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="130" spans="1:30" hidden="1">
+    <row r="130" spans="1:31" hidden="1">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="11">B130</f>
         <v>Punch</v>
@@ -43674,7 +43702,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="131" spans="1:30" hidden="1">
+    <row r="131" spans="1:31" hidden="1">
       <c r="A131" t="str">
         <f t="shared" si="11"/>
         <v>Kick</v>
@@ -43732,7 +43760,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="132" spans="1:30" hidden="1">
+    <row r="132" spans="1:31" hidden="1">
       <c r="A132" t="str">
         <f t="shared" si="11"/>
         <v>Horn</v>
@@ -43790,7 +43818,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="133" spans="1:30" hidden="1">
+    <row r="133" spans="1:31" hidden="1">
       <c r="A133" t="str">
         <f t="shared" si="11"/>
         <v>Thorn</v>
@@ -43848,7 +43876,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="134" spans="1:30" hidden="1">
+    <row r="134" spans="1:31" hidden="1">
       <c r="A134" t="str">
         <f t="shared" si="11"/>
         <v>Sword</v>
@@ -43906,7 +43934,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="135" spans="1:30" hidden="1">
+    <row r="135" spans="1:31" hidden="1">
       <c r="A135" t="str">
         <f t="shared" si="11"/>
         <v>Head</v>
@@ -43964,7 +43992,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="136" spans="1:30" hidden="1">
+    <row r="136" spans="1:31" hidden="1">
       <c r="A136" t="str">
         <f t="shared" si="11"/>
         <v>Beak</v>
@@ -44022,7 +44050,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="137" spans="1:30" hidden="1">
+    <row r="137" spans="1:31" hidden="1">
       <c r="A137" t="str">
         <f t="shared" si="11"/>
         <v>Tail</v>
@@ -44079,11 +44107,11 @@
       <c r="W137" t="s">
         <v>2305</v>
       </c>
-      <c r="AD137" t="s">
+      <c r="AE137" t="s">
         <v>2581</v>
       </c>
     </row>
-    <row r="138" spans="1:30" hidden="1">
+    <row r="138" spans="1:31" hidden="1">
       <c r="A138" t="str">
         <f t="shared" si="11"/>
         <v>Pincer</v>
@@ -44141,7 +44169,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="139" spans="1:30" hidden="1">
+    <row r="139" spans="1:31" hidden="1">
       <c r="A139" t="str">
         <f t="shared" si="11"/>
         <v>Fin</v>
@@ -44199,7 +44227,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="140" spans="1:30" hidden="1">
+    <row r="140" spans="1:31" hidden="1">
       <c r="A140" t="str">
         <f t="shared" si="11"/>
         <v>Tentacle</v>
@@ -44257,7 +44285,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="141" spans="1:30" hidden="1">
+    <row r="141" spans="1:31" hidden="1">
       <c r="A141" t="str">
         <f t="shared" si="11"/>
         <v>W-Pincer</v>
@@ -44316,7 +44344,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="142" spans="1:30" hidden="1">
+    <row r="142" spans="1:31" hidden="1">
       <c r="A142" t="str">
         <f t="shared" si="11"/>
         <v>W-Attack</v>
@@ -44377,7 +44405,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="143" spans="1:30" hidden="1">
+    <row r="143" spans="1:31" hidden="1">
       <c r="A143" t="str">
         <f t="shared" si="11"/>
         <v>4-Heads</v>
@@ -44438,7 +44466,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="144" spans="1:30" hidden="1">
+    <row r="144" spans="1:31" hidden="1">
       <c r="A144" t="str">
         <f t="shared" si="11"/>
         <v>8-Legs</v>
@@ -44499,7 +44527,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="145" spans="1:30" hidden="1">
+    <row r="145" spans="1:31" hidden="1">
       <c r="A145" t="str">
         <f t="shared" si="11"/>
         <v>Touch</v>
@@ -44561,7 +44589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:30" hidden="1">
+    <row r="146" spans="1:31" hidden="1">
       <c r="A146" t="str">
         <f t="shared" si="11"/>
         <v>Saw</v>
@@ -44617,7 +44645,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="147" spans="1:30" hidden="1">
+    <row r="147" spans="1:31" hidden="1">
       <c r="A147" t="str">
         <f t="shared" si="11"/>
         <v>Dissolve</v>
@@ -44679,7 +44707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:30" hidden="1">
+    <row r="148" spans="1:31" hidden="1">
       <c r="A148" t="str">
         <f t="shared" si="11"/>
         <v>Absorb</v>
@@ -44741,7 +44769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:30" hidden="1">
+    <row r="149" spans="1:31" hidden="1">
       <c r="A149" t="str">
         <f t="shared" si="11"/>
         <v>Cure</v>
@@ -44800,7 +44828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:30" hidden="1">
+    <row r="150" spans="1:31" hidden="1">
       <c r="A150" t="str">
         <f t="shared" si="11"/>
         <v>Defense</v>
@@ -44853,7 +44881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:30" hidden="1">
+    <row r="151" spans="1:31" hidden="1">
       <c r="A151" t="str">
         <f t="shared" si="11"/>
         <v>Shell</v>
@@ -44906,7 +44934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:30" hidden="1">
+    <row r="152" spans="1:31" hidden="1">
       <c r="A152" t="str">
         <f t="shared" si="11"/>
         <v>Mirror</v>
@@ -44956,7 +44984,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="153" spans="1:30" hidden="1">
+    <row r="153" spans="1:31" hidden="1">
       <c r="A153" t="str">
         <f t="shared" si="11"/>
         <v>Backlash</v>
@@ -45011,11 +45039,11 @@
       <c r="W153" t="s">
         <v>121</v>
       </c>
-      <c r="AD153" t="s">
+      <c r="AE153" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="154" spans="1:30" hidden="1">
+    <row r="154" spans="1:31" hidden="1">
       <c r="A154" t="str">
         <f t="shared" si="11"/>
         <v>Burning</v>
@@ -45074,7 +45102,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:30" hidden="1">
+    <row r="155" spans="1:31" hidden="1">
       <c r="A155" t="str">
         <f t="shared" si="11"/>
         <v>2-Swords</v>
@@ -45133,7 +45161,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="156" spans="1:30" hidden="1">
+    <row r="156" spans="1:31" hidden="1">
       <c r="A156" t="str">
         <f t="shared" si="11"/>
         <v>2-Tusks</v>
@@ -45192,7 +45220,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="157" spans="1:30" hidden="1">
+    <row r="157" spans="1:31" hidden="1">
       <c r="A157" t="str">
         <f t="shared" si="11"/>
         <v>3-Heads</v>
@@ -45253,7 +45281,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="158" spans="1:30" hidden="1">
+    <row r="158" spans="1:31" hidden="1">
       <c r="A158" t="str">
         <f t="shared" si="11"/>
         <v>3-Horns</v>
@@ -45314,7 +45342,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="159" spans="1:30" hidden="1">
+    <row r="159" spans="1:31" hidden="1">
       <c r="A159" t="str">
         <f t="shared" si="11"/>
         <v>6-Arms</v>
@@ -45373,7 +45401,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="160" spans="1:30" hidden="1">
+    <row r="160" spans="1:31" hidden="1">
       <c r="A160" t="str">
         <f t="shared" si="11"/>
         <v>Critical</v>
@@ -45432,7 +45460,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:30" hidden="1">
+    <row r="161" spans="1:31" hidden="1">
       <c r="A161" t="str">
         <f t="shared" si="11"/>
         <v>Axe</v>
@@ -45490,7 +45518,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="162" spans="1:30" hidden="1">
+    <row r="162" spans="1:31" hidden="1">
       <c r="A162" t="str">
         <f t="shared" si="11"/>
         <v>Honey</v>
@@ -45549,7 +45577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:30" hidden="1">
+    <row r="163" spans="1:31" hidden="1">
       <c r="A163" t="str">
         <f t="shared" si="11"/>
         <v>Heal</v>
@@ -45608,7 +45636,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:30" hidden="1">
+    <row r="164" spans="1:31" hidden="1">
       <c r="A164" t="str">
         <f t="shared" si="11"/>
         <v>MegaCure</v>
@@ -45667,11 +45695,11 @@
       <c r="AB164" t="s">
         <v>74</v>
       </c>
-      <c r="AD164" t="s">
+      <c r="AE164" t="s">
         <v>2374</v>
       </c>
     </row>
-    <row r="165" spans="1:30" hidden="1">
+    <row r="165" spans="1:31" hidden="1">
       <c r="A165" t="str">
         <f t="shared" si="11"/>
         <v>W-Kick</v>
@@ -45730,7 +45758,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="166" spans="1:30" hidden="1">
+    <row r="166" spans="1:31" hidden="1">
       <c r="A166" t="str">
         <f t="shared" si="11"/>
         <v>ParaNail</v>
@@ -45786,7 +45814,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="167" spans="1:30" hidden="1">
+    <row r="167" spans="1:31" hidden="1">
       <c r="A167" t="str">
         <f t="shared" si="11"/>
         <v>Wind Up</v>
@@ -45842,7 +45870,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="168" spans="1:30" hidden="1">
+    <row r="168" spans="1:31" hidden="1">
       <c r="A168" t="str">
         <f t="shared" si="11"/>
         <v>Tie Up</v>
@@ -45898,7 +45926,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="169" spans="1:30" hidden="1">
+    <row r="169" spans="1:31" hidden="1">
       <c r="A169" t="str">
         <f t="shared" si="11"/>
         <v>Breath</v>
@@ -45954,7 +45982,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="170" spans="1:30" hidden="1">
+    <row r="170" spans="1:31" hidden="1">
       <c r="A170" t="str">
         <f t="shared" si="11"/>
         <v>Poison</v>
@@ -46010,7 +46038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:30" hidden="1">
+    <row r="171" spans="1:31" hidden="1">
       <c r="A171" t="str">
         <f t="shared" si="11"/>
         <v>P-Skin</v>
@@ -46066,7 +46094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:30" hidden="1">
+    <row r="172" spans="1:31" hidden="1">
       <c r="A172" t="str">
         <f t="shared" si="11"/>
         <v>ParaSkin</v>
@@ -46122,7 +46150,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="173" spans="1:30" hidden="1">
+    <row r="173" spans="1:31" hidden="1">
       <c r="A173" t="str">
         <f t="shared" si="11"/>
         <v>Petrify</v>
@@ -46178,7 +46206,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="174" spans="1:30" hidden="1">
+    <row r="174" spans="1:31" hidden="1">
       <c r="A174" t="str">
         <f t="shared" si="11"/>
         <v>StonSkin</v>
@@ -46234,7 +46262,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="175" spans="1:30" hidden="1">
+    <row r="175" spans="1:31" hidden="1">
       <c r="A175" t="str">
         <f t="shared" si="11"/>
         <v>Thunder</v>
@@ -46293,7 +46321,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:30" hidden="1">
+    <row r="176" spans="1:31" hidden="1">
       <c r="A176" t="str">
         <f t="shared" si="11"/>
         <v>Ice</v>
@@ -47275,7 +47303,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:30" hidden="1">
+    <row r="193" spans="1:31" hidden="1">
       <c r="A193" t="str">
         <f t="shared" si="11"/>
         <v>FatalGas</v>
@@ -47331,7 +47359,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="194" spans="1:30" hidden="1">
+    <row r="194" spans="1:31" hidden="1">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A258" si="14">B194</f>
         <v>DeathGaze</v>
@@ -47386,11 +47414,11 @@
       <c r="AA194" t="s">
         <v>2370</v>
       </c>
-      <c r="AD194" t="s">
+      <c r="AE194" t="s">
         <v>2597</v>
       </c>
     </row>
-    <row r="195" spans="1:30" hidden="1">
+    <row r="195" spans="1:31" hidden="1">
       <c r="A195" t="str">
         <f t="shared" si="14"/>
         <v>Erase</v>
@@ -47446,7 +47474,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="196" spans="1:30" hidden="1">
+    <row r="196" spans="1:31" hidden="1">
       <c r="A196" t="str">
         <f t="shared" si="14"/>
         <v>Blind</v>
@@ -47502,7 +47530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:30" hidden="1">
+    <row r="197" spans="1:31" hidden="1">
       <c r="A197" t="str">
         <f t="shared" si="14"/>
         <v>Flash</v>
@@ -47558,7 +47586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:30" hidden="1">
+    <row r="198" spans="1:31" hidden="1">
       <c r="A198" t="str">
         <f t="shared" si="14"/>
         <v>Ink</v>
@@ -47614,7 +47642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:30" hidden="1">
+    <row r="199" spans="1:31" hidden="1">
       <c r="A199" t="str">
         <f t="shared" si="14"/>
         <v>PoisonCloud</v>
@@ -47670,7 +47698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:30" hidden="1">
+    <row r="200" spans="1:31" hidden="1">
       <c r="A200" t="str">
         <f t="shared" si="14"/>
         <v>EvilEye</v>
@@ -47725,11 +47753,11 @@
       <c r="AA200" t="s">
         <v>1766</v>
       </c>
-      <c r="AD200" t="s">
+      <c r="AE200" t="s">
         <v>2594</v>
       </c>
     </row>
-    <row r="201" spans="1:30" hidden="1">
+    <row r="201" spans="1:31" hidden="1">
       <c r="A201" t="str">
         <f t="shared" si="14"/>
         <v>Stunner</v>
@@ -47785,7 +47813,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="202" spans="1:30" hidden="1">
+    <row r="202" spans="1:31" hidden="1">
       <c r="A202" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -47841,7 +47869,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="203" spans="1:30" hidden="1">
+    <row r="203" spans="1:31" hidden="1">
       <c r="A203" t="str">
         <f t="shared" si="14"/>
         <v>Charm</v>
@@ -47897,7 +47925,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="204" spans="1:30" hidden="1">
+    <row r="204" spans="1:31" hidden="1">
       <c r="A204" t="str">
         <f t="shared" si="14"/>
         <v>Hypnos</v>
@@ -47953,7 +47981,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="205" spans="1:30" hidden="1">
+    <row r="205" spans="1:31" hidden="1">
       <c r="A205" t="str">
         <f t="shared" si="14"/>
         <v>Sand</v>
@@ -48009,7 +48037,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="206" spans="1:30" hidden="1">
+    <row r="206" spans="1:31" hidden="1">
       <c r="A206" t="str">
         <f t="shared" si="14"/>
         <v>Cobweb</v>
@@ -48065,7 +48093,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="207" spans="1:30" hidden="1">
+    <row r="207" spans="1:31" hidden="1">
       <c r="A207" t="str">
         <f t="shared" si="14"/>
         <v>Blitz</v>
@@ -48121,7 +48149,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="208" spans="1:30" hidden="1">
+    <row r="208" spans="1:31" hidden="1">
       <c r="A208" t="str">
         <f t="shared" si="14"/>
         <v>Drain</v>
@@ -49054,7 +49082,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="225" spans="1:30" hidden="1">
+    <row r="225" spans="1:31" hidden="1">
       <c r="A225" t="str">
         <f t="shared" si="14"/>
         <v>O-Change</v>
@@ -49106,7 +49134,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="226" spans="1:30" hidden="1">
+    <row r="226" spans="1:31" hidden="1">
       <c r="A226" t="str">
         <f t="shared" si="14"/>
         <v>O-Fire</v>
@@ -49158,7 +49186,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="227" spans="1:30" hidden="1">
+    <row r="227" spans="1:31" hidden="1">
       <c r="A227" t="str">
         <f t="shared" si="14"/>
         <v>O-Poison</v>
@@ -49210,7 +49238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:30" hidden="1">
+    <row r="228" spans="1:31" hidden="1">
       <c r="A228" t="str">
         <f t="shared" si="14"/>
         <v>O-Damage</v>
@@ -49262,7 +49290,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="229" spans="1:30" hidden="1">
+    <row r="229" spans="1:31" hidden="1">
       <c r="A229" t="str">
         <f t="shared" si="14"/>
         <v>O-Weapon</v>
@@ -49314,7 +49342,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="230" spans="1:30" hidden="1">
+    <row r="230" spans="1:31" hidden="1">
       <c r="A230" t="str">
         <f t="shared" si="14"/>
         <v>O-Pa/Po</v>
@@ -49366,7 +49394,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="231" spans="1:30" hidden="1">
+    <row r="231" spans="1:31" hidden="1">
       <c r="A231" t="str">
         <f t="shared" si="14"/>
         <v>O-Para</v>
@@ -49418,7 +49446,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="232" spans="1:30" hidden="1">
+    <row r="232" spans="1:31" hidden="1">
       <c r="A232" t="str">
         <f t="shared" si="14"/>
         <v>O-Ice</v>
@@ -49470,7 +49498,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="233" spans="1:30" hidden="1">
+    <row r="233" spans="1:31" hidden="1">
       <c r="A233" t="str">
         <f t="shared" si="14"/>
         <v>O-Stone</v>
@@ -49522,7 +49550,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="234" spans="1:30" hidden="1">
+    <row r="234" spans="1:31" hidden="1">
       <c r="A234" t="str">
         <f t="shared" si="14"/>
         <v>X-Fire</v>
@@ -49577,7 +49605,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="235" spans="1:30" hidden="1">
+    <row r="235" spans="1:31" hidden="1">
       <c r="A235" t="str">
         <f t="shared" si="14"/>
         <v>X-Ice</v>
@@ -49632,7 +49660,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="236" spans="1:30" hidden="1">
+    <row r="236" spans="1:31" hidden="1">
       <c r="A236" t="str">
         <f t="shared" si="14"/>
         <v>X-Thunder</v>
@@ -49687,7 +49715,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="237" spans="1:30" hidden="1">
+    <row r="237" spans="1:31" hidden="1">
       <c r="A237" t="str">
         <f t="shared" si="14"/>
         <v>Teleport</v>
@@ -49730,7 +49758,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="238" spans="1:30" hidden="1">
+    <row r="238" spans="1:31" hidden="1">
       <c r="A238" t="str">
         <f t="shared" si="14"/>
         <v>Remedy</v>
@@ -49773,14 +49801,20 @@
       <c r="S238" s="5">
         <v>1</v>
       </c>
+      <c r="T238" t="s">
+        <v>2362</v>
+      </c>
       <c r="V238" t="s">
         <v>1844</v>
       </c>
       <c r="W238" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="239" spans="1:30" hidden="1">
+        <v>2308</v>
+      </c>
+      <c r="AA238" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31" hidden="1">
       <c r="A239" t="str">
         <f t="shared" si="14"/>
         <v>O-All</v>
@@ -49832,7 +49866,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="240" spans="1:30" hidden="1">
+    <row r="240" spans="1:31" hidden="1">
       <c r="A240" t="str">
         <f t="shared" si="14"/>
         <v>PoisonBurst</v>
@@ -49887,11 +49921,11 @@
       <c r="AA240" t="s">
         <v>20</v>
       </c>
-      <c r="AD240" t="s">
+      <c r="AE240" t="s">
         <v>2367</v>
       </c>
     </row>
-    <row r="241" spans="1:30" hidden="1">
+    <row r="241" spans="1:31" hidden="1">
       <c r="A241" t="str">
         <f t="shared" si="14"/>
         <v>FlareApollo</v>
@@ -49940,7 +49974,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="242" spans="1:30" hidden="1">
+    <row r="242" spans="1:31" hidden="1">
       <c r="A242" t="str">
         <f t="shared" si="14"/>
         <v>Smasher</v>
@@ -49987,7 +50021,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="243" spans="1:30" hidden="1">
+    <row r="243" spans="1:31" hidden="1">
       <c r="A243" t="str">
         <f t="shared" si="14"/>
         <v>Recover</v>
@@ -50030,7 +50064,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="244" spans="1:30" hidden="1">
+    <row r="244" spans="1:31" hidden="1">
       <c r="A244" t="str">
         <f t="shared" si="14"/>
         <v>Power Magi</v>
@@ -50078,7 +50112,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="245" spans="1:30" hidden="1">
+    <row r="245" spans="1:31" hidden="1">
       <c r="A245" t="str">
         <f t="shared" si="14"/>
         <v>Speed Magi</v>
@@ -50126,7 +50160,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="246" spans="1:30" hidden="1">
+    <row r="246" spans="1:31" hidden="1">
       <c r="A246" t="str">
         <f t="shared" si="14"/>
         <v>Mana Magi</v>
@@ -50174,7 +50208,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="247" spans="1:30" hidden="1">
+    <row r="247" spans="1:31" hidden="1">
       <c r="A247" t="str">
         <f t="shared" si="14"/>
         <v>Defense Magi</v>
@@ -50222,7 +50256,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="248" spans="1:30" hidden="1">
+    <row r="248" spans="1:31" hidden="1">
       <c r="A248" t="str">
         <f t="shared" si="14"/>
         <v>Fire Magi</v>
@@ -50273,7 +50307,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:30" hidden="1">
+    <row r="249" spans="1:31" hidden="1">
       <c r="A249" t="str">
         <f t="shared" si="14"/>
         <v>Ice Magi</v>
@@ -50324,7 +50358,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:30" hidden="1">
+    <row r="250" spans="1:31" hidden="1">
       <c r="A250" t="str">
         <f t="shared" si="14"/>
         <v>Thunder Magi</v>
@@ -50375,7 +50409,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:30" hidden="1">
+    <row r="251" spans="1:31" hidden="1">
       <c r="A251" t="str">
         <f t="shared" si="14"/>
         <v>Poison Magi</v>
@@ -50426,7 +50460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:30" hidden="1">
+    <row r="252" spans="1:31" hidden="1">
       <c r="A252" t="str">
         <f t="shared" si="14"/>
         <v>CatClaw</v>
@@ -50477,7 +50511,7 @@
         <v>5</v>
       </c>
       <c r="U252">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="V252" t="s">
         <v>2343</v>
@@ -50485,11 +50519,14 @@
       <c r="W252" t="s">
         <v>2305</v>
       </c>
-      <c r="AD252" t="s">
+      <c r="AB252" t="s">
+        <v>2341</v>
+      </c>
+      <c r="AE252" t="s">
         <v>2578</v>
       </c>
     </row>
-    <row r="253" spans="1:30" hidden="1">
+    <row r="253" spans="1:31" hidden="1">
       <c r="A253" t="str">
         <f t="shared" si="14"/>
         <v>Vampic Sword</v>
@@ -50555,7 +50592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:30" hidden="1">
+    <row r="254" spans="1:31">
       <c r="A254" t="str">
         <f t="shared" si="14"/>
         <v>Glass Sword</v>
@@ -50623,7 +50660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:30" hidden="1">
+    <row r="255" spans="1:31" hidden="1">
       <c r="A255" t="str">
         <f t="shared" si="14"/>
         <v>Revenge Sword</v>
@@ -50683,7 +50720,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:30" hidden="1">
+    <row r="256" spans="1:31">
       <c r="A256" t="str">
         <f t="shared" si="14"/>
         <v>Bow</v>
@@ -50746,14 +50783,14 @@
       <c r="Y256">
         <v>50</v>
       </c>
-      <c r="Z256">
-        <v>0</v>
+      <c r="Z256" t="s">
+        <v>4</v>
       </c>
       <c r="AC256">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="257" spans="1:30" hidden="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:31" hidden="1">
       <c r="A257" t="str">
         <f t="shared" si="14"/>
         <v>Sabre</v>
@@ -50804,7 +50841,7 @@
         <v>5</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V257" t="s">
         <v>2343</v>
@@ -50812,11 +50849,14 @@
       <c r="W257" t="s">
         <v>2305</v>
       </c>
-      <c r="AD257" t="s">
+      <c r="AB257" t="s">
+        <v>2341</v>
+      </c>
+      <c r="AE257" t="s">
         <v>2579</v>
       </c>
     </row>
-    <row r="258" spans="1:30" hidden="1">
+    <row r="258" spans="1:31" hidden="1">
       <c r="A258" t="str">
         <f t="shared" si="14"/>
         <v>O-Dragon</v>
@@ -50840,15 +50880,21 @@
       <c r="X258" t="s">
         <v>2574</v>
       </c>
-      <c r="AD258" t="s">
+      <c r="AE258" t="s">
         <v>2575</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD258" xr:uid="{00000000-0009-0000-0000-000003000000}">
+  <autoFilter ref="A1:AE258">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="Set"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="21">
       <filters>
-        <filter val="Armor"/>
+        <filter val="Melee"/>
+        <filter val="Ranged"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:AA257">
@@ -50862,7 +50908,7 @@
     <sortCondition ref="F2:F213"/>
   </sortState>
   <conditionalFormatting sqref="A2:A258">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50872,7 +50918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -63198,13 +63244,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W257" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:W257"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B242"/>
   <sheetViews>
@@ -64804,7 +64850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -65656,7 +65702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -74727,7 +74773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I16"/>
   <sheetViews>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -35949,10 +35949,10 @@
   <dimension ref="A1:AE258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="17" topLeftCell="T61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="17" topLeftCell="N18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="Z259" sqref="Z259"/>
+      <selection pane="bottomRight" activeCell="X244" sqref="X244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37067,7 +37067,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" hidden="1">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -37848,7 +37848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" hidden="1">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
@@ -40130,7 +40130,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" hidden="1">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
         <v>Colt Gun</v>
@@ -40207,7 +40207,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" hidden="1">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
         <v>Musket Gun</v>
@@ -40282,7 +40282,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" hidden="1">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
         <v>Magnum Gun</v>
@@ -40999,7 +40999,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:30" hidden="1">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
         <v>SMG Gun</v>
@@ -41073,7 +41073,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:30" hidden="1">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
         <v>Grenade</v>
@@ -41141,7 +41141,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" hidden="1">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
         <v>Bazooka Cannon</v>
@@ -41213,7 +41213,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:30" hidden="1">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
         <v>Vulcan Cannon</v>
@@ -41285,7 +41285,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:30" hidden="1">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
         <v>Tank Cannon</v>
@@ -41360,7 +41360,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="91" spans="1:30">
+    <row r="91" spans="1:30" hidden="1">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
         <v>Fire Gun</v>
@@ -41437,7 +41437,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" hidden="1">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
         <v>Missile Cannon</v>
@@ -41508,7 +41508,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:30" hidden="1">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
         <v>NukeBomb</v>
@@ -41841,7 +41841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" hidden="1">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
         <v>Coin</v>
@@ -42334,7 +42334,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" hidden="1">
       <c r="A107" t="str">
         <f t="shared" si="6"/>
         <v>Laser Gun</v>
@@ -42461,7 +42461,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" hidden="1">
       <c r="A109" t="str">
         <f t="shared" si="6"/>
         <v>Rocket</v>
@@ -42951,7 +42951,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="118" spans="1:29" hidden="1">
+    <row r="118" spans="1:29">
       <c r="A118" t="str">
         <f t="shared" si="6"/>
         <v>Masmune Magi</v>
@@ -43004,17 +43004,17 @@
       <c r="W118" t="s">
         <v>2305</v>
       </c>
-      <c r="X118" t="s">
-        <v>2341</v>
-      </c>
       <c r="Y118">
         <v>500</v>
       </c>
       <c r="Z118">
         <v>100</v>
       </c>
-    </row>
-    <row r="119" spans="1:29" hidden="1">
+      <c r="AB118" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
       <c r="A119" t="str">
         <f t="shared" si="6"/>
         <v>Aegis Magi</v>
@@ -43077,7 +43077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:29" hidden="1">
+    <row r="120" spans="1:29">
       <c r="A120" t="str">
         <f t="shared" si="6"/>
         <v>Heart Magi</v>
@@ -43134,7 +43134,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="121" spans="1:29" hidden="1">
+    <row r="121" spans="1:29">
       <c r="A121" t="str">
         <f t="shared" si="6"/>
         <v>Pegasus Magi</v>
@@ -50064,7 +50064,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="244" spans="1:31" hidden="1">
+    <row r="244" spans="1:31">
       <c r="A244" t="str">
         <f t="shared" si="14"/>
         <v>Power Magi</v>
@@ -50111,8 +50111,14 @@
       <c r="V244" t="s">
         <v>2347</v>
       </c>
-    </row>
-    <row r="245" spans="1:31" hidden="1">
+      <c r="Y244">
+        <v>5</v>
+      </c>
+      <c r="Z244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31">
       <c r="A245" t="str">
         <f t="shared" si="14"/>
         <v>Speed Magi</v>
@@ -50160,7 +50166,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="246" spans="1:31" hidden="1">
+    <row r="246" spans="1:31">
       <c r="A246" t="str">
         <f t="shared" si="14"/>
         <v>Mana Magi</v>
@@ -50208,7 +50214,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="247" spans="1:31" hidden="1">
+    <row r="247" spans="1:31">
       <c r="A247" t="str">
         <f t="shared" si="14"/>
         <v>Defense Magi</v>
@@ -50256,7 +50262,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="248" spans="1:31" hidden="1">
+    <row r="248" spans="1:31">
       <c r="A248" t="str">
         <f t="shared" si="14"/>
         <v>Fire Magi</v>
@@ -50307,7 +50313,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:31" hidden="1">
+    <row r="249" spans="1:31">
       <c r="A249" t="str">
         <f t="shared" si="14"/>
         <v>Ice Magi</v>
@@ -50358,7 +50364,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:31" hidden="1">
+    <row r="250" spans="1:31">
       <c r="A250" t="str">
         <f t="shared" si="14"/>
         <v>Thunder Magi</v>
@@ -50409,7 +50415,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:31" hidden="1">
+    <row r="251" spans="1:31">
       <c r="A251" t="str">
         <f t="shared" si="14"/>
         <v>Poison Magi</v>
@@ -50592,7 +50598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:31">
+    <row r="254" spans="1:31" hidden="1">
       <c r="A254" t="str">
         <f t="shared" si="14"/>
         <v>Glass Sword</v>
@@ -50720,7 +50726,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:31">
+    <row r="256" spans="1:31" hidden="1">
       <c r="A256" t="str">
         <f t="shared" si="14"/>
         <v>Bow</v>
@@ -50886,15 +50892,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AE258">
-    <filterColumn colId="19">
-      <filters>
-        <filter val="Set"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="21">
       <filters>
-        <filter val="Melee"/>
-        <filter val="Ranged"/>
+        <filter val="MAGI"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:AA257">

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrummel\source\repos\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BEB95A-3D10-4A9B-8040-3A8201939464}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -26,16 +25,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Items!$A$1:$W$257</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$AE$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Weapon!$A$1:$AF$258</definedName>
     <definedName name="Item_Hex" localSheetId="7">'Item Hex'!$A$1:$U$137</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item Hex" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item Hex" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Action IV\Documents\GitHub\pillar\Item Hex.txt" delimited="0">
       <textFields count="17">
         <textField type="text"/>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12272" uniqueCount="2608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12277" uniqueCount="2610">
   <si>
     <t>Monster</t>
   </si>
@@ -7886,12 +7885,18 @@
   </si>
   <si>
     <t>Race Bonus</t>
+  </si>
+  <si>
+    <t>Absorb ability</t>
+  </si>
+  <si>
+    <t>Hits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot; $(&quot;#,##0.00&quot;)&quot;;&quot; $-&quot;#&quot; &quot;;@&quot; &quot;"/>
   </numFmts>
@@ -8625,7 +8630,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel_BuiltIn_Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel_BuiltIn_Currency" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -8658,7 +8663,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Item Hex" connectionId="1" xr16:uid="{00000000-0016-0000-0700-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Item Hex" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8737,23 +8742,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8789,23 +8777,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8981,17 +8952,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O45" sqref="O45:V45"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q99" sqref="Q99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="3" max="4" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="13.140625" bestFit="1" customWidth="1"/>
@@ -25751,7 +25724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -26294,7 +26267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N162"/>
   <sheetViews>
@@ -31786,7 +31759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T117"/>
   <sheetViews>
@@ -35935,15 +35908,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" filterMode="1"/>
-  <dimension ref="A1:AE258"/>
+  <dimension ref="A1:AF258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC215" sqref="AC215"/>
+      <selection pane="bottomRight" activeCell="AB165" sqref="AB165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35961,9 +35934,10 @@
     <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="40.28515625" customWidth="1"/>
     <col min="27" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>2318</v>
       </c>
@@ -36043,16 +36017,19 @@
         <v>2342</v>
       </c>
       <c r="AC1" s="5" t="s">
+        <v>2609</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>2356</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>2607</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="2" spans="1:31" hidden="1">
+    <row r="2" spans="1:32" hidden="1">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">B2</f>
         <v>Hammer</v>
@@ -36110,7 +36087,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1">
+    <row r="3" spans="1:32" hidden="1">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Long Sword</v>
@@ -36170,7 +36147,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1">
+    <row r="4" spans="1:32" hidden="1">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Axe</v>
@@ -36230,7 +36207,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="5" spans="1:31" hidden="1">
+    <row r="5" spans="1:32" hidden="1">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Battle Sword</v>
@@ -36290,7 +36267,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="6" spans="1:31" hidden="1">
+    <row r="6" spans="1:32" hidden="1">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Katana</v>
@@ -36350,7 +36327,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="7" spans="1:31" hidden="1">
+    <row r="7" spans="1:32" hidden="1">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Gold Sword</v>
@@ -36410,7 +36387,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="8" spans="1:31" hidden="1">
+    <row r="8" spans="1:32" hidden="1">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Coral Sword</v>
@@ -36473,7 +36450,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="9" spans="1:31" hidden="1">
+    <row r="9" spans="1:32" hidden="1">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Ogre Axe</v>
@@ -36536,7 +36513,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="10" spans="1:31" hidden="1">
+    <row r="10" spans="1:32" hidden="1">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Sword</v>
@@ -36599,7 +36576,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:31" hidden="1">
+    <row r="11" spans="1:32" hidden="1">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Sun Sword</v>
@@ -36662,7 +36639,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="12" spans="1:31" hidden="1">
+    <row r="12" spans="1:32" hidden="1">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Flame Sword</v>
@@ -36727,7 +36704,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:31" hidden="1">
+    <row r="13" spans="1:32" hidden="1">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Ice Sword</v>
@@ -36792,7 +36769,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:31" hidden="1">
+    <row r="14" spans="1:32" hidden="1">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Thunder Axe</v>
@@ -36857,7 +36834,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:31" hidden="1">
+    <row r="15" spans="1:32" hidden="1">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Defend Sword</v>
@@ -36921,11 +36898,11 @@
       <c r="AB15" t="s">
         <v>2306</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:31" hidden="1">
+    <row r="16" spans="1:32" hidden="1">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Rune Axe</v>
@@ -36987,11 +36964,11 @@
       <c r="AB16" t="s">
         <v>2312</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:31" hidden="1">
+    <row r="17" spans="1:32" hidden="1">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Rapier</v>
@@ -37053,11 +37030,11 @@
       <c r="AB17" t="s">
         <v>2341</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>2580</v>
       </c>
     </row>
-    <row r="18" spans="1:31" hidden="1">
+    <row r="18" spans="1:32" hidden="1">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -37123,11 +37100,11 @@
       <c r="Z18">
         <v>0</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:31" hidden="1">
+    <row r="19" spans="1:32" hidden="1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Bronze Shield</v>
@@ -37180,11 +37157,11 @@
       <c r="W19" t="s">
         <v>2306</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:31" hidden="1">
+    <row r="20" spans="1:32" hidden="1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Silver Shield</v>
@@ -37237,11 +37214,11 @@
       <c r="W20" t="s">
         <v>2306</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:31" hidden="1">
+    <row r="21" spans="1:32" hidden="1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Gold Shield</v>
@@ -37294,11 +37271,11 @@
       <c r="W21" t="s">
         <v>2306</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:31" hidden="1">
+    <row r="22" spans="1:32" hidden="1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Flame Shield</v>
@@ -37354,11 +37331,11 @@
       <c r="AB22" t="s">
         <v>270</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:31" hidden="1">
+    <row r="23" spans="1:32" hidden="1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Ice Shield</v>
@@ -37414,11 +37391,11 @@
       <c r="AB23" t="s">
         <v>50</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1">
+    <row r="24" spans="1:32" hidden="1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Dragon Shield</v>
@@ -37474,11 +37451,11 @@
       <c r="AB24" t="s">
         <v>2576</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:31" hidden="1">
+    <row r="25" spans="1:32" hidden="1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Cure Potion</v>
@@ -37538,7 +37515,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:31" hidden="1">
+    <row r="26" spans="1:32" hidden="1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>X-Cure Potion</v>
@@ -37598,7 +37575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:31" hidden="1">
+    <row r="27" spans="1:32" hidden="1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Curse Potion</v>
@@ -37655,7 +37632,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="28" spans="1:31" hidden="1">
+    <row r="28" spans="1:32" hidden="1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EyeDrop</v>
@@ -37712,7 +37689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" hidden="1">
+    <row r="29" spans="1:32" hidden="1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Abacus</v>
@@ -37770,7 +37747,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="30" spans="1:31" hidden="1">
+    <row r="30" spans="1:32" hidden="1">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Xcalibr Sword</v>
@@ -37838,7 +37815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" hidden="1">
+    <row r="31" spans="1:32" hidden="1">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
@@ -37904,11 +37881,11 @@
       <c r="Z31">
         <v>84</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>999</v>
       </c>
     </row>
-    <row r="32" spans="1:31" hidden="1">
+    <row r="32" spans="1:32" hidden="1">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Cure Book</v>
@@ -39732,7 +39709,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="65" spans="1:31" hidden="1">
+    <row r="65" spans="1:32" hidden="1">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Magic Potion</v>
@@ -39779,7 +39756,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="66" spans="1:31" hidden="1">
+    <row r="66" spans="1:32" hidden="1">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="6">B66</f>
         <v>Body Potion</v>
@@ -39826,7 +39803,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="67" spans="1:31" hidden="1">
+    <row r="67" spans="1:32" hidden="1">
       <c r="A67" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Tent </v>
@@ -39871,7 +39848,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="68" spans="1:31" hidden="1">
+    <row r="68" spans="1:32" hidden="1">
       <c r="A68" t="str">
         <f t="shared" si="6"/>
         <v>Whip</v>
@@ -39932,11 +39909,11 @@
       <c r="AB68" t="s">
         <v>2600</v>
       </c>
-      <c r="AC68">
+      <c r="AD68">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:31" hidden="1">
+    <row r="69" spans="1:32" hidden="1">
       <c r="A69" t="str">
         <f t="shared" si="6"/>
         <v>Blitz Whip</v>
@@ -39998,11 +39975,11 @@
       <c r="AB69" t="s">
         <v>2600</v>
       </c>
-      <c r="AC69">
+      <c r="AD69">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:32" hidden="1">
       <c r="A70" t="str">
         <f t="shared" si="6"/>
         <v>ChainSaw</v>
@@ -40060,7 +40037,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="71" spans="1:31" hidden="1">
+    <row r="71" spans="1:32" hidden="1">
       <c r="A71" t="str">
         <f t="shared" si="6"/>
         <v>Counter</v>
@@ -40120,7 +40097,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:31" hidden="1">
+    <row r="72" spans="1:32" hidden="1">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
         <v>Colt Gun</v>
@@ -40190,14 +40167,14 @@
       <c r="Z72">
         <v>45</v>
       </c>
-      <c r="AC72">
+      <c r="AD72">
         <v>45</v>
       </c>
-      <c r="AD72" t="s">
+      <c r="AE72" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="73" spans="1:31" hidden="1">
+    <row r="73" spans="1:32" hidden="1">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
         <v>Musket Gun</v>
@@ -40265,14 +40242,14 @@
       <c r="Z73">
         <v>75</v>
       </c>
-      <c r="AC73">
+      <c r="AD73">
         <v>100</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AE73" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="74" spans="1:31" hidden="1">
+    <row r="74" spans="1:32" hidden="1">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
         <v>Magnum Gun</v>
@@ -40340,14 +40317,14 @@
       <c r="Z74">
         <v>150</v>
       </c>
-      <c r="AC74">
+      <c r="AD74">
         <v>150</v>
       </c>
-      <c r="AD74" t="s">
+      <c r="AE74" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="75" spans="1:31" hidden="1">
+    <row r="75" spans="1:32" hidden="1">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
         <v>Chop Art</v>
@@ -40405,11 +40382,11 @@
       <c r="W75" t="s">
         <v>2305</v>
       </c>
-      <c r="AE75" t="s">
+      <c r="AF75" t="s">
         <v>2314</v>
       </c>
     </row>
-    <row r="76" spans="1:31" hidden="1">
+    <row r="76" spans="1:32" hidden="1">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
         <v>Kick Art</v>
@@ -40468,7 +40445,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="77" spans="1:31" hidden="1">
+    <row r="77" spans="1:32" hidden="1">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
         <v>HeadBut Art</v>
@@ -40527,7 +40504,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="78" spans="1:31" hidden="1">
+    <row r="78" spans="1:32" hidden="1">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
         <v>Roundhouse Art</v>
@@ -40585,11 +40562,11 @@
       <c r="W78" t="s">
         <v>2305</v>
       </c>
-      <c r="AE78" t="s">
+      <c r="AF78" t="s">
         <v>2599</v>
       </c>
     </row>
-    <row r="79" spans="1:31" hidden="1">
+    <row r="79" spans="1:32" hidden="1">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
         <v>Jyudo Art</v>
@@ -40648,7 +40625,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="80" spans="1:31" hidden="1">
+    <row r="80" spans="1:32" hidden="1">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
         <v>Karate Art</v>
@@ -40709,7 +40686,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="81" spans="1:30" hidden="1">
+    <row r="81" spans="1:31" hidden="1">
       <c r="A81" t="str">
         <f t="shared" si="6"/>
         <v>Temptat</v>
@@ -40767,7 +40744,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="82" spans="1:30" hidden="1">
+    <row r="82" spans="1:31" hidden="1">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
         <v>StunGun</v>
@@ -40827,7 +40804,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="83" spans="1:30" hidden="1">
+    <row r="83" spans="1:31" hidden="1">
       <c r="A83" t="str">
         <f t="shared" si="6"/>
         <v>Heat</v>
@@ -40879,7 +40856,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="84" spans="1:30" hidden="1">
+    <row r="84" spans="1:31" hidden="1">
       <c r="A84" t="str">
         <f t="shared" si="6"/>
         <v>ComVirus</v>
@@ -40937,7 +40914,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="85" spans="1:30" hidden="1">
+    <row r="85" spans="1:31" hidden="1">
       <c r="A85" t="str">
         <f t="shared" si="6"/>
         <v>DNA</v>
@@ -40989,7 +40966,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="86" spans="1:30" hidden="1">
+    <row r="86" spans="1:31" hidden="1">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
         <v>SMG Gun</v>
@@ -41056,14 +41033,14 @@
         <f>Y86*0.1</f>
         <v>25</v>
       </c>
-      <c r="AC86">
+      <c r="AD86">
         <v>999</v>
       </c>
-      <c r="AD86" t="s">
+      <c r="AE86" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="87" spans="1:30" hidden="1">
+    <row r="87" spans="1:31" hidden="1">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
         <v>Grenade</v>
@@ -41127,11 +41104,11 @@
       <c r="Z87">
         <v>0</v>
       </c>
-      <c r="AC87">
+      <c r="AD87">
         <v>999</v>
       </c>
     </row>
-    <row r="88" spans="1:30" hidden="1">
+    <row r="88" spans="1:31" hidden="1">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
         <v>Bazooka Cannon</v>
@@ -41196,14 +41173,14 @@
         <f>Y88*0.1</f>
         <v>49</v>
       </c>
-      <c r="AC88">
+      <c r="AD88">
         <v>999</v>
       </c>
-      <c r="AD88" t="s">
+      <c r="AE88" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="89" spans="1:30" hidden="1">
+    <row r="89" spans="1:31" hidden="1">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
         <v>Vulcan Cannon</v>
@@ -41268,14 +41245,14 @@
         <f>Y89*0.1</f>
         <v>66</v>
       </c>
-      <c r="AC89">
+      <c r="AD89">
         <v>999</v>
       </c>
-      <c r="AD89" t="s">
+      <c r="AE89" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="90" spans="1:30" hidden="1">
+    <row r="90" spans="1:31" hidden="1">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
         <v>Tank Cannon</v>
@@ -41343,14 +41320,14 @@
       <c r="AB90" t="s">
         <v>2306</v>
       </c>
-      <c r="AC90">
+      <c r="AD90">
         <v>70</v>
       </c>
-      <c r="AD90" t="s">
+      <c r="AE90" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="91" spans="1:30" hidden="1">
+    <row r="91" spans="1:31" hidden="1">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
         <v>Fire Gun</v>
@@ -41420,14 +41397,14 @@
         <f>Y91*0.1</f>
         <v>25</v>
       </c>
-      <c r="AC91">
+      <c r="AD91">
         <v>999</v>
       </c>
-      <c r="AD91" t="s">
+      <c r="AE91" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="92" spans="1:30" hidden="1">
+    <row r="92" spans="1:31" hidden="1">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
         <v>Missile Cannon</v>
@@ -41491,14 +41468,14 @@
       <c r="Z92">
         <v>100</v>
       </c>
-      <c r="AC92">
+      <c r="AD92">
         <v>999</v>
       </c>
-      <c r="AD92" t="s">
+      <c r="AE92" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="93" spans="1:30" hidden="1">
+    <row r="93" spans="1:31" hidden="1">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
         <v>NukeBomb</v>
@@ -41562,11 +41539,11 @@
       <c r="Z93">
         <v>100</v>
       </c>
-      <c r="AC93">
+      <c r="AD93">
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="1:30" hidden="1">
+    <row r="94" spans="1:31" hidden="1">
       <c r="A94" t="str">
         <f t="shared" si="6"/>
         <v>Giant Armor</v>
@@ -41619,7 +41596,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="95" spans="1:30" hidden="1">
+    <row r="95" spans="1:31" hidden="1">
       <c r="A95" t="str">
         <f t="shared" si="6"/>
         <v>Army Helm</v>
@@ -41668,7 +41645,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="96" spans="1:30" hidden="1">
+    <row r="96" spans="1:31" hidden="1">
       <c r="A96" t="str">
         <f t="shared" si="6"/>
         <v>Army Armor</v>
@@ -41717,7 +41694,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="97" spans="1:31" hidden="1">
+    <row r="97" spans="1:32" hidden="1">
       <c r="A97" t="str">
         <f t="shared" si="6"/>
         <v>Geta Boot</v>
@@ -41770,7 +41747,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="98" spans="1:31" hidden="1">
+    <row r="98" spans="1:32" hidden="1">
       <c r="A98" t="str">
         <f t="shared" si="6"/>
         <v>Sypha</v>
@@ -41827,11 +41804,11 @@
       <c r="AB98" t="s">
         <v>2306</v>
       </c>
-      <c r="AC98">
+      <c r="AD98">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:31" hidden="1">
+    <row r="99" spans="1:32" hidden="1">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
         <v>Coin</v>
@@ -41895,11 +41872,11 @@
       <c r="Z99">
         <v>0</v>
       </c>
-      <c r="AC99">
+      <c r="AD99">
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:31" hidden="1">
+    <row r="100" spans="1:32" hidden="1">
       <c r="A100" t="str">
         <f t="shared" si="6"/>
         <v>Kimono Armor</v>
@@ -41952,7 +41929,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="101" spans="1:31" hidden="1">
+    <row r="101" spans="1:32" hidden="1">
       <c r="A101" t="str">
         <f t="shared" si="6"/>
         <v>Samurai Shield</v>
@@ -42005,11 +41982,11 @@
       <c r="W101" t="s">
         <v>2306</v>
       </c>
-      <c r="AC101">
+      <c r="AD101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:31" hidden="1">
+    <row r="102" spans="1:32" hidden="1">
       <c r="A102" t="str">
         <f t="shared" si="6"/>
         <v>Muramas</v>
@@ -42072,7 +42049,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="103" spans="1:31" hidden="1">
+    <row r="103" spans="1:32" hidden="1">
       <c r="A103" t="str">
         <f t="shared" si="6"/>
         <v>Gungnir Spear</v>
@@ -42138,7 +42115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:31" hidden="1">
+    <row r="104" spans="1:32" hidden="1">
       <c r="A104" t="str">
         <f t="shared" si="6"/>
         <v>Laser Sword</v>
@@ -42200,11 +42177,11 @@
       <c r="AB104" t="s">
         <v>2341</v>
       </c>
-      <c r="AE104" t="s">
+      <c r="AF104" t="s">
         <v>2577</v>
       </c>
     </row>
-    <row r="105" spans="1:31" hidden="1">
+    <row r="105" spans="1:32" hidden="1">
       <c r="A105" t="str">
         <f t="shared" si="6"/>
         <v>Psi Knife</v>
@@ -42264,7 +42241,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="106" spans="1:31" hidden="1">
+    <row r="106" spans="1:32" hidden="1">
       <c r="A106" t="str">
         <f t="shared" si="6"/>
         <v>Psi Sword</v>
@@ -42324,7 +42301,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="107" spans="1:31" hidden="1">
+    <row r="107" spans="1:32" hidden="1">
       <c r="A107" t="str">
         <f t="shared" si="6"/>
         <v>Laser Gun</v>
@@ -42386,14 +42363,14 @@
       <c r="Z107">
         <v>50</v>
       </c>
-      <c r="AC107">
+      <c r="AD107">
         <v>999</v>
       </c>
-      <c r="AD107" t="s">
+      <c r="AE107" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="108" spans="1:31" hidden="1">
+    <row r="108" spans="1:32" hidden="1">
       <c r="A108" t="str">
         <f t="shared" si="6"/>
         <v>SpeedUp</v>
@@ -42451,7 +42428,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="109" spans="1:31" hidden="1">
+    <row r="109" spans="1:32" hidden="1">
       <c r="A109" t="str">
         <f t="shared" si="6"/>
         <v>Rocket</v>
@@ -42515,14 +42492,14 @@
       <c r="Z109">
         <v>55</v>
       </c>
-      <c r="AC109">
+      <c r="AD109">
         <v>87</v>
       </c>
-      <c r="AD109" t="s">
+      <c r="AE109" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="110" spans="1:31" hidden="1">
+    <row r="110" spans="1:32" hidden="1">
       <c r="A110" t="str">
         <f t="shared" si="6"/>
         <v>Psi Gun</v>
@@ -42582,7 +42559,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="111" spans="1:31" hidden="1">
+    <row r="111" spans="1:32" hidden="1">
       <c r="A111" t="str">
         <f t="shared" si="6"/>
         <v>Giant Helm</v>
@@ -42635,7 +42612,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:32" hidden="1">
       <c r="A112" t="str">
         <f t="shared" si="6"/>
         <v>Hyper Cannon</v>
@@ -42697,7 +42674,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="113" spans="1:29" hidden="1">
+    <row r="113" spans="1:30" hidden="1">
       <c r="A113" t="str">
         <f t="shared" si="6"/>
         <v>Battle Armor</v>
@@ -42750,7 +42727,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="114" spans="1:29" hidden="1">
+    <row r="114" spans="1:30" hidden="1">
       <c r="A114" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Parasuit </v>
@@ -42804,7 +42781,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="115" spans="1:29" hidden="1">
+    <row r="115" spans="1:30" hidden="1">
       <c r="A115" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Door </v>
@@ -42849,7 +42826,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="116" spans="1:29" hidden="1">
+    <row r="116" spans="1:30" hidden="1">
       <c r="A116" t="str">
         <f t="shared" si="6"/>
         <v>Micron Potion</v>
@@ -42896,7 +42873,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="117" spans="1:29" hidden="1">
+    <row r="117" spans="1:30" hidden="1">
       <c r="A117" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">Key </v>
@@ -42941,7 +42918,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="118" spans="1:29" hidden="1">
+    <row r="118" spans="1:30" hidden="1">
       <c r="A118" t="str">
         <f t="shared" si="6"/>
         <v>Masmune Magi</v>
@@ -43007,7 +42984,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="119" spans="1:29" hidden="1">
+    <row r="119" spans="1:30" hidden="1">
       <c r="A119" t="str">
         <f t="shared" si="6"/>
         <v>Aegis Magi</v>
@@ -43066,11 +43043,11 @@
       <c r="AB119" t="s">
         <v>572</v>
       </c>
-      <c r="AC119">
+      <c r="AD119">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:29" hidden="1">
+    <row r="120" spans="1:30" hidden="1">
       <c r="A120" t="str">
         <f t="shared" si="6"/>
         <v>Heart Magi</v>
@@ -43127,7 +43104,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="121" spans="1:29" hidden="1">
+    <row r="121" spans="1:30" hidden="1">
       <c r="A121" t="str">
         <f t="shared" si="6"/>
         <v>Pegasus Magi</v>
@@ -43175,7 +43152,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="122" spans="1:29" hidden="1">
+    <row r="122" spans="1:30" hidden="1">
       <c r="A122" t="str">
         <f t="shared" si="6"/>
         <v>Selfix</v>
@@ -43222,11 +43199,11 @@
       <c r="AB122" t="s">
         <v>2385</v>
       </c>
-      <c r="AC122">
+      <c r="AD122">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:30">
       <c r="A123" t="str">
         <f t="shared" si="6"/>
         <v>Seven Sword</v>
@@ -43288,8 +43265,11 @@
       <c r="AB123" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="124" spans="1:29" hidden="1">
+      <c r="AC123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" hidden="1">
       <c r="A124" t="str">
         <f t="shared" si="6"/>
         <v>Nail</v>
@@ -43347,7 +43327,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="125" spans="1:29" hidden="1">
+    <row r="125" spans="1:30" hidden="1">
       <c r="A125" t="str">
         <f t="shared" si="6"/>
         <v>Tusk</v>
@@ -43405,7 +43385,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="126" spans="1:29" hidden="1">
+    <row r="126" spans="1:30" hidden="1">
       <c r="A126" t="str">
         <f t="shared" si="6"/>
         <v>Tongue</v>
@@ -43463,7 +43443,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="127" spans="1:29" hidden="1">
+    <row r="127" spans="1:30" hidden="1">
       <c r="A127" t="str">
         <f t="shared" si="6"/>
         <v>Stab</v>
@@ -43521,7 +43501,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="128" spans="1:29" hidden="1">
+    <row r="128" spans="1:30" hidden="1">
       <c r="A128" t="str">
         <f t="shared" si="6"/>
         <v>Branch</v>
@@ -43579,7 +43559,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="129" spans="1:31" hidden="1">
+    <row r="129" spans="1:32" hidden="1">
       <c r="A129" t="str">
         <f t="shared" si="6"/>
         <v>Bash</v>
@@ -43637,7 +43617,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="130" spans="1:31" hidden="1">
+    <row r="130" spans="1:32" hidden="1">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="11">B130</f>
         <v>Punch</v>
@@ -43695,7 +43675,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="131" spans="1:31" hidden="1">
+    <row r="131" spans="1:32" hidden="1">
       <c r="A131" t="str">
         <f t="shared" si="11"/>
         <v>Kick</v>
@@ -43753,7 +43733,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="132" spans="1:31" hidden="1">
+    <row r="132" spans="1:32" hidden="1">
       <c r="A132" t="str">
         <f t="shared" si="11"/>
         <v>Horn</v>
@@ -43811,7 +43791,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="133" spans="1:31" hidden="1">
+    <row r="133" spans="1:32" hidden="1">
       <c r="A133" t="str">
         <f t="shared" si="11"/>
         <v>Thorn</v>
@@ -43869,7 +43849,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="134" spans="1:31" hidden="1">
+    <row r="134" spans="1:32" hidden="1">
       <c r="A134" t="str">
         <f t="shared" si="11"/>
         <v>Sword</v>
@@ -43927,7 +43907,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="135" spans="1:31" hidden="1">
+    <row r="135" spans="1:32" hidden="1">
       <c r="A135" t="str">
         <f t="shared" si="11"/>
         <v>Head</v>
@@ -43985,7 +43965,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="136" spans="1:31" hidden="1">
+    <row r="136" spans="1:32" hidden="1">
       <c r="A136" t="str">
         <f t="shared" si="11"/>
         <v>Beak</v>
@@ -44043,7 +44023,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="137" spans="1:31" hidden="1">
+    <row r="137" spans="1:32" hidden="1">
       <c r="A137" t="str">
         <f t="shared" si="11"/>
         <v>Tail</v>
@@ -44100,11 +44080,11 @@
       <c r="W137" t="s">
         <v>2305</v>
       </c>
-      <c r="AE137" t="s">
+      <c r="AF137" t="s">
         <v>2581</v>
       </c>
     </row>
-    <row r="138" spans="1:31" hidden="1">
+    <row r="138" spans="1:32" hidden="1">
       <c r="A138" t="str">
         <f t="shared" si="11"/>
         <v>Pincer</v>
@@ -44162,7 +44142,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="139" spans="1:31" hidden="1">
+    <row r="139" spans="1:32" hidden="1">
       <c r="A139" t="str">
         <f t="shared" si="11"/>
         <v>Fin</v>
@@ -44220,7 +44200,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="140" spans="1:31" hidden="1">
+    <row r="140" spans="1:32" hidden="1">
       <c r="A140" t="str">
         <f t="shared" si="11"/>
         <v>Tentacle</v>
@@ -44278,7 +44258,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="141" spans="1:31">
+    <row r="141" spans="1:32">
       <c r="A141" t="str">
         <f t="shared" si="11"/>
         <v>W-Pincer</v>
@@ -44336,8 +44316,11 @@
       <c r="AB141" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="142" spans="1:31">
+      <c r="AC141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32">
       <c r="A142" t="str">
         <f t="shared" si="11"/>
         <v>W-Attack</v>
@@ -44397,8 +44380,11 @@
       <c r="AB142" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="143" spans="1:31">
+      <c r="AC142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32">
       <c r="A143" t="str">
         <f t="shared" si="11"/>
         <v>4-Heads</v>
@@ -44458,8 +44444,11 @@
       <c r="AB143" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="144" spans="1:31">
+      <c r="AC143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32">
       <c r="A144" t="str">
         <f t="shared" si="11"/>
         <v>8-Legs</v>
@@ -44519,8 +44508,11 @@
       <c r="AB144" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="145" spans="1:31">
+      <c r="AC144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:32" hidden="1">
       <c r="A145" t="str">
         <f t="shared" si="11"/>
         <v>Touch</v>
@@ -44576,13 +44568,16 @@
         <v>2305</v>
       </c>
       <c r="AB145" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC145">
+        <v>431</v>
+      </c>
+      <c r="AD145">
         <v>25</v>
       </c>
-    </row>
-    <row r="146" spans="1:31">
+      <c r="AF145" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="146" spans="1:32" hidden="1">
       <c r="A146" t="str">
         <f t="shared" si="11"/>
         <v>Saw</v>
@@ -44638,7 +44633,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="147" spans="1:31">
+    <row r="147" spans="1:32" hidden="1">
       <c r="A147" t="str">
         <f t="shared" si="11"/>
         <v>Dissolve</v>
@@ -44694,13 +44689,16 @@
         <v>2305</v>
       </c>
       <c r="AB147" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC147">
+        <v>130</v>
+      </c>
+      <c r="AD147">
         <v>33</v>
       </c>
-    </row>
-    <row r="148" spans="1:31">
+      <c r="AF147" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="148" spans="1:32" hidden="1">
       <c r="A148" t="str">
         <f t="shared" si="11"/>
         <v>Absorb</v>
@@ -44758,11 +44756,14 @@
       <c r="AB148" t="s">
         <v>54</v>
       </c>
-      <c r="AC148">
+      <c r="AD148">
         <v>25</v>
       </c>
-    </row>
-    <row r="149" spans="1:31" hidden="1">
+      <c r="AF148" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="149" spans="1:32" hidden="1">
       <c r="A149" t="str">
         <f t="shared" si="11"/>
         <v>Cure</v>
@@ -44821,7 +44822,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:31" hidden="1">
+    <row r="150" spans="1:32" hidden="1">
       <c r="A150" t="str">
         <f t="shared" si="11"/>
         <v>Defense</v>
@@ -44870,11 +44871,11 @@
       <c r="W150" t="s">
         <v>2306</v>
       </c>
-      <c r="AC150">
+      <c r="AD150">
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:31" hidden="1">
+    <row r="151" spans="1:32" hidden="1">
       <c r="A151" t="str">
         <f t="shared" si="11"/>
         <v>Shell</v>
@@ -44923,11 +44924,11 @@
       <c r="W151" t="s">
         <v>2306</v>
       </c>
-      <c r="AC151">
+      <c r="AD151">
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:31" hidden="1">
+    <row r="152" spans="1:32" hidden="1">
       <c r="A152" t="str">
         <f t="shared" si="11"/>
         <v>Mirror</v>
@@ -44977,7 +44978,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="153" spans="1:31" hidden="1">
+    <row r="153" spans="1:32" hidden="1">
       <c r="A153" t="str">
         <f t="shared" si="11"/>
         <v>Backlash</v>
@@ -45032,11 +45033,11 @@
       <c r="W153" t="s">
         <v>121</v>
       </c>
-      <c r="AE153" t="s">
+      <c r="AF153" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="154" spans="1:31" hidden="1">
+    <row r="154" spans="1:32" hidden="1">
       <c r="A154" t="str">
         <f t="shared" si="11"/>
         <v>Burning</v>
@@ -45095,7 +45096,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:31">
+    <row r="155" spans="1:32">
       <c r="A155" t="str">
         <f t="shared" si="11"/>
         <v>2-Swords</v>
@@ -45153,8 +45154,11 @@
       <c r="AB155" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="156" spans="1:31">
+      <c r="AC155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:32">
       <c r="A156" t="str">
         <f t="shared" si="11"/>
         <v>2-Tusks</v>
@@ -45212,8 +45216,11 @@
       <c r="AB156" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="157" spans="1:31">
+      <c r="AC156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:32">
       <c r="A157" t="str">
         <f t="shared" si="11"/>
         <v>3-Heads</v>
@@ -45273,8 +45280,11 @@
       <c r="AB157" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="158" spans="1:31">
+      <c r="AC157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:32">
       <c r="A158" t="str">
         <f t="shared" si="11"/>
         <v>3-Horns</v>
@@ -45334,8 +45344,11 @@
       <c r="AB158" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="159" spans="1:31">
+      <c r="AC158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:32">
       <c r="A159" t="str">
         <f t="shared" si="11"/>
         <v>6-Arms</v>
@@ -45393,8 +45406,11 @@
       <c r="AB159" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="160" spans="1:31">
+      <c r="AC159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:32" hidden="1">
       <c r="A160" t="str">
         <f t="shared" si="11"/>
         <v>Critical</v>
@@ -45453,7 +45469,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:31" hidden="1">
+    <row r="161" spans="1:32" hidden="1">
       <c r="A161" t="str">
         <f t="shared" si="11"/>
         <v>Axe</v>
@@ -45511,7 +45527,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="162" spans="1:31" hidden="1">
+    <row r="162" spans="1:32" hidden="1">
       <c r="A162" t="str">
         <f t="shared" si="11"/>
         <v>Honey</v>
@@ -45570,7 +45586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:31" hidden="1">
+    <row r="163" spans="1:32" hidden="1">
       <c r="A163" t="str">
         <f t="shared" si="11"/>
         <v>Heal</v>
@@ -45629,7 +45645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:31" hidden="1">
+    <row r="164" spans="1:32" hidden="1">
       <c r="A164" t="str">
         <f t="shared" si="11"/>
         <v>MegaCure</v>
@@ -45688,11 +45704,11 @@
       <c r="AB164" t="s">
         <v>74</v>
       </c>
-      <c r="AE164" t="s">
+      <c r="AF164" t="s">
         <v>2374</v>
       </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:32">
       <c r="A165" t="str">
         <f t="shared" si="11"/>
         <v>W-Kick</v>
@@ -45750,8 +45766,11 @@
       <c r="AB165" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="166" spans="1:31" hidden="1">
+      <c r="AC165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:32" hidden="1">
       <c r="A166" t="str">
         <f t="shared" si="11"/>
         <v>ParaNail</v>
@@ -45807,7 +45826,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="167" spans="1:31" hidden="1">
+    <row r="167" spans="1:32" hidden="1">
       <c r="A167" t="str">
         <f t="shared" si="11"/>
         <v>Wind Up</v>
@@ -45863,7 +45882,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="168" spans="1:31" hidden="1">
+    <row r="168" spans="1:32" hidden="1">
       <c r="A168" t="str">
         <f t="shared" si="11"/>
         <v>Tie Up</v>
@@ -45919,7 +45938,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="169" spans="1:31" hidden="1">
+    <row r="169" spans="1:32" hidden="1">
       <c r="A169" t="str">
         <f t="shared" si="11"/>
         <v>Breath</v>
@@ -45975,7 +45994,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="170" spans="1:31" hidden="1">
+    <row r="170" spans="1:32" hidden="1">
       <c r="A170" t="str">
         <f t="shared" si="11"/>
         <v>Poison</v>
@@ -46031,7 +46050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:31" hidden="1">
+    <row r="171" spans="1:32" hidden="1">
       <c r="A171" t="str">
         <f t="shared" si="11"/>
         <v>P-Skin</v>
@@ -46087,7 +46106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:31" hidden="1">
+    <row r="172" spans="1:32" hidden="1">
       <c r="A172" t="str">
         <f t="shared" si="11"/>
         <v>ParaSkin</v>
@@ -46143,7 +46162,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="173" spans="1:31" hidden="1">
+    <row r="173" spans="1:32" hidden="1">
       <c r="A173" t="str">
         <f t="shared" si="11"/>
         <v>Petrify</v>
@@ -46199,7 +46218,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="174" spans="1:31" hidden="1">
+    <row r="174" spans="1:32" hidden="1">
       <c r="A174" t="str">
         <f t="shared" si="11"/>
         <v>StonSkin</v>
@@ -46255,7 +46274,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="175" spans="1:31" hidden="1">
+    <row r="175" spans="1:32" hidden="1">
       <c r="A175" t="str">
         <f t="shared" si="11"/>
         <v>Thunder</v>
@@ -46314,7 +46333,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:31" hidden="1">
+    <row r="176" spans="1:32" hidden="1">
       <c r="A176" t="str">
         <f t="shared" si="11"/>
         <v>Ice</v>
@@ -47296,7 +47315,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193" spans="1:31" hidden="1">
+    <row r="193" spans="1:32" hidden="1">
       <c r="A193" t="str">
         <f t="shared" si="11"/>
         <v>FatalGas</v>
@@ -47352,7 +47371,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="194" spans="1:31" hidden="1">
+    <row r="194" spans="1:32" hidden="1">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A258" si="14">B194</f>
         <v>DeathGaze</v>
@@ -47407,11 +47426,11 @@
       <c r="AA194" t="s">
         <v>2370</v>
       </c>
-      <c r="AE194" t="s">
+      <c r="AF194" t="s">
         <v>2597</v>
       </c>
     </row>
-    <row r="195" spans="1:31" hidden="1">
+    <row r="195" spans="1:32" hidden="1">
       <c r="A195" t="str">
         <f t="shared" si="14"/>
         <v>Erase</v>
@@ -47467,7 +47486,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="196" spans="1:31" hidden="1">
+    <row r="196" spans="1:32" hidden="1">
       <c r="A196" t="str">
         <f t="shared" si="14"/>
         <v>Blind</v>
@@ -47523,7 +47542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:31" hidden="1">
+    <row r="197" spans="1:32" hidden="1">
       <c r="A197" t="str">
         <f t="shared" si="14"/>
         <v>Flash</v>
@@ -47579,7 +47598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:31" hidden="1">
+    <row r="198" spans="1:32" hidden="1">
       <c r="A198" t="str">
         <f t="shared" si="14"/>
         <v>Ink</v>
@@ -47635,7 +47654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:31" hidden="1">
+    <row r="199" spans="1:32" hidden="1">
       <c r="A199" t="str">
         <f t="shared" si="14"/>
         <v>PoisonCloud</v>
@@ -47691,7 +47710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:31" hidden="1">
+    <row r="200" spans="1:32" hidden="1">
       <c r="A200" t="str">
         <f t="shared" si="14"/>
         <v>EvilEye</v>
@@ -47746,11 +47765,11 @@
       <c r="AA200" t="s">
         <v>1766</v>
       </c>
-      <c r="AE200" t="s">
+      <c r="AF200" t="s">
         <v>2594</v>
       </c>
     </row>
-    <row r="201" spans="1:31" hidden="1">
+    <row r="201" spans="1:32" hidden="1">
       <c r="A201" t="str">
         <f t="shared" si="14"/>
         <v>Stunner</v>
@@ -47806,7 +47825,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="202" spans="1:31" hidden="1">
+    <row r="202" spans="1:32" hidden="1">
       <c r="A202" t="str">
         <f t="shared" si="14"/>
         <v>Gaze</v>
@@ -47862,7 +47881,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="203" spans="1:31" hidden="1">
+    <row r="203" spans="1:32" hidden="1">
       <c r="A203" t="str">
         <f t="shared" si="14"/>
         <v>Charm</v>
@@ -47918,7 +47937,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="204" spans="1:31" hidden="1">
+    <row r="204" spans="1:32" hidden="1">
       <c r="A204" t="str">
         <f t="shared" si="14"/>
         <v>Hypnos</v>
@@ -47974,7 +47993,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="205" spans="1:31" hidden="1">
+    <row r="205" spans="1:32" hidden="1">
       <c r="A205" t="str">
         <f t="shared" si="14"/>
         <v>Sand</v>
@@ -48030,7 +48049,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="206" spans="1:31" hidden="1">
+    <row r="206" spans="1:32" hidden="1">
       <c r="A206" t="str">
         <f t="shared" si="14"/>
         <v>Cobweb</v>
@@ -48086,7 +48105,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="207" spans="1:31" hidden="1">
+    <row r="207" spans="1:32" hidden="1">
       <c r="A207" t="str">
         <f t="shared" si="14"/>
         <v>Blitz</v>
@@ -48142,7 +48161,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="208" spans="1:31" hidden="1">
+    <row r="208" spans="1:32" hidden="1">
       <c r="A208" t="str">
         <f t="shared" si="14"/>
         <v>Drain</v>
@@ -48537,7 +48556,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="215" spans="1:28">
+    <row r="215" spans="1:28" hidden="1">
       <c r="A215" t="str">
         <f t="shared" si="14"/>
         <v>Steal</v>
@@ -49078,7 +49097,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="225" spans="1:31" hidden="1">
+    <row r="225" spans="1:32" hidden="1">
       <c r="A225" t="str">
         <f t="shared" si="14"/>
         <v>O-Change</v>
@@ -49130,7 +49149,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="226" spans="1:31" hidden="1">
+    <row r="226" spans="1:32" hidden="1">
       <c r="A226" t="str">
         <f t="shared" si="14"/>
         <v>O-Fire</v>
@@ -49182,7 +49201,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="227" spans="1:31" hidden="1">
+    <row r="227" spans="1:32" hidden="1">
       <c r="A227" t="str">
         <f t="shared" si="14"/>
         <v>O-Poison</v>
@@ -49234,7 +49253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:31" hidden="1">
+    <row r="228" spans="1:32" hidden="1">
       <c r="A228" t="str">
         <f t="shared" si="14"/>
         <v>O-Damage</v>
@@ -49286,7 +49305,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="229" spans="1:31" hidden="1">
+    <row r="229" spans="1:32" hidden="1">
       <c r="A229" t="str">
         <f t="shared" si="14"/>
         <v>O-Weapon</v>
@@ -49338,7 +49357,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="230" spans="1:31" hidden="1">
+    <row r="230" spans="1:32" hidden="1">
       <c r="A230" t="str">
         <f t="shared" si="14"/>
         <v>O-Pa/Po</v>
@@ -49390,7 +49409,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="231" spans="1:31" hidden="1">
+    <row r="231" spans="1:32" hidden="1">
       <c r="A231" t="str">
         <f t="shared" si="14"/>
         <v>O-Para</v>
@@ -49442,7 +49461,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="232" spans="1:31" hidden="1">
+    <row r="232" spans="1:32" hidden="1">
       <c r="A232" t="str">
         <f t="shared" si="14"/>
         <v>O-Ice</v>
@@ -49494,7 +49513,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="233" spans="1:31" hidden="1">
+    <row r="233" spans="1:32" hidden="1">
       <c r="A233" t="str">
         <f t="shared" si="14"/>
         <v>O-Stone</v>
@@ -49546,7 +49565,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="234" spans="1:31" hidden="1">
+    <row r="234" spans="1:32" hidden="1">
       <c r="A234" t="str">
         <f t="shared" si="14"/>
         <v>X-Fire</v>
@@ -49601,7 +49620,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="235" spans="1:31" hidden="1">
+    <row r="235" spans="1:32" hidden="1">
       <c r="A235" t="str">
         <f t="shared" si="14"/>
         <v>X-Ice</v>
@@ -49656,7 +49675,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="236" spans="1:31" hidden="1">
+    <row r="236" spans="1:32" hidden="1">
       <c r="A236" t="str">
         <f t="shared" si="14"/>
         <v>X-Thunder</v>
@@ -49711,7 +49730,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="237" spans="1:31" hidden="1">
+    <row r="237" spans="1:32" hidden="1">
       <c r="A237" t="str">
         <f t="shared" si="14"/>
         <v>Teleport</v>
@@ -49754,7 +49773,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="238" spans="1:31" hidden="1">
+    <row r="238" spans="1:32" hidden="1">
       <c r="A238" t="str">
         <f t="shared" si="14"/>
         <v>Remedy</v>
@@ -49810,7 +49829,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="239" spans="1:31" hidden="1">
+    <row r="239" spans="1:32" hidden="1">
       <c r="A239" t="str">
         <f t="shared" si="14"/>
         <v>O-All</v>
@@ -49862,7 +49881,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="240" spans="1:31" hidden="1">
+    <row r="240" spans="1:32" hidden="1">
       <c r="A240" t="str">
         <f t="shared" si="14"/>
         <v>PoisonBurst</v>
@@ -49917,11 +49936,11 @@
       <c r="AA240" t="s">
         <v>20</v>
       </c>
-      <c r="AE240" t="s">
+      <c r="AF240" t="s">
         <v>2367</v>
       </c>
     </row>
-    <row r="241" spans="1:31" hidden="1">
+    <row r="241" spans="1:32" hidden="1">
       <c r="A241" t="str">
         <f t="shared" si="14"/>
         <v>FlareApollo</v>
@@ -49970,7 +49989,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="242" spans="1:31" hidden="1">
+    <row r="242" spans="1:32" hidden="1">
       <c r="A242" t="str">
         <f t="shared" si="14"/>
         <v>Smasher</v>
@@ -50017,7 +50036,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="243" spans="1:31" hidden="1">
+    <row r="243" spans="1:32" hidden="1">
       <c r="A243" t="str">
         <f t="shared" si="14"/>
         <v>Recover</v>
@@ -50062,11 +50081,11 @@
       <c r="AB243" t="s">
         <v>2385</v>
       </c>
-      <c r="AC243">
+      <c r="AD243">
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:31" hidden="1">
+    <row r="244" spans="1:32" hidden="1">
       <c r="A244" t="str">
         <f t="shared" si="14"/>
         <v>Power Magi</v>
@@ -50120,7 +50139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:31" hidden="1">
+    <row r="245" spans="1:32" hidden="1">
       <c r="A245" t="str">
         <f t="shared" si="14"/>
         <v>Speed Magi</v>
@@ -50168,7 +50187,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="246" spans="1:31" hidden="1">
+    <row r="246" spans="1:32" hidden="1">
       <c r="A246" t="str">
         <f t="shared" si="14"/>
         <v>Mana Magi</v>
@@ -50216,7 +50235,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="247" spans="1:31" hidden="1">
+    <row r="247" spans="1:32" hidden="1">
       <c r="A247" t="str">
         <f t="shared" si="14"/>
         <v>Defense Magi</v>
@@ -50264,7 +50283,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="248" spans="1:31" hidden="1">
+    <row r="248" spans="1:32" hidden="1">
       <c r="A248" t="str">
         <f t="shared" si="14"/>
         <v>Fire Magi</v>
@@ -50315,7 +50334,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:31" hidden="1">
+    <row r="249" spans="1:32" hidden="1">
       <c r="A249" t="str">
         <f t="shared" si="14"/>
         <v>Ice Magi</v>
@@ -50366,7 +50385,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="250" spans="1:31" hidden="1">
+    <row r="250" spans="1:32" hidden="1">
       <c r="A250" t="str">
         <f t="shared" si="14"/>
         <v>Thunder Magi</v>
@@ -50417,7 +50436,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="251" spans="1:31" hidden="1">
+    <row r="251" spans="1:32" hidden="1">
       <c r="A251" t="str">
         <f t="shared" si="14"/>
         <v>Poison Magi</v>
@@ -50468,7 +50487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:31" hidden="1">
+    <row r="252" spans="1:32" hidden="1">
       <c r="A252" t="str">
         <f t="shared" si="14"/>
         <v>CatClaw</v>
@@ -50530,11 +50549,11 @@
       <c r="AB252" t="s">
         <v>2341</v>
       </c>
-      <c r="AE252" t="s">
+      <c r="AF252" t="s">
         <v>2578</v>
       </c>
     </row>
-    <row r="253" spans="1:31">
+    <row r="253" spans="1:32" hidden="1">
       <c r="A253" t="str">
         <f t="shared" si="14"/>
         <v>Vampic Sword</v>
@@ -50594,13 +50613,16 @@
         <v>2305</v>
       </c>
       <c r="AB253" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC253">
+        <v>431</v>
+      </c>
+      <c r="AD253">
         <v>25</v>
       </c>
-    </row>
-    <row r="254" spans="1:31" hidden="1">
+      <c r="AF253" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="254" spans="1:32" hidden="1">
       <c r="A254" t="str">
         <f t="shared" si="14"/>
         <v>Glass Sword</v>
@@ -50668,7 +50690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:31" hidden="1">
+    <row r="255" spans="1:32" hidden="1">
       <c r="A255" t="str">
         <f t="shared" si="14"/>
         <v>Revenge Sword</v>
@@ -50728,7 +50750,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:31" hidden="1">
+    <row r="256" spans="1:32" hidden="1">
       <c r="A256" t="str">
         <f t="shared" si="14"/>
         <v>Bow</v>
@@ -50794,11 +50816,11 @@
       <c r="Z256" t="s">
         <v>4</v>
       </c>
-      <c r="AC256">
+      <c r="AD256">
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:31" hidden="1">
+    <row r="257" spans="1:32" hidden="1">
       <c r="A257" t="str">
         <f t="shared" si="14"/>
         <v>Sabre</v>
@@ -50860,11 +50882,11 @@
       <c r="AB257" t="s">
         <v>2341</v>
       </c>
-      <c r="AE257" t="s">
+      <c r="AF257" t="s">
         <v>2579</v>
       </c>
     </row>
-    <row r="258" spans="1:31" hidden="1">
+    <row r="258" spans="1:32" hidden="1">
       <c r="A258" t="str">
         <f t="shared" si="14"/>
         <v>O-Dragon</v>
@@ -50888,20 +50910,15 @@
       <c r="X258" t="s">
         <v>2574</v>
       </c>
-      <c r="AE258" t="s">
+      <c r="AF258" t="s">
         <v>2575</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE258" xr:uid="{00000000-0009-0000-0000-000003000000}">
+  <autoFilter ref="A1:AF258">
     <filterColumn colId="27">
       <filters>
-        <filter val="Absorb"/>
-        <filter val="Critical"/>
-        <filter val="Cut"/>
-        <filter val="Erase"/>
         <filter val="Multi"/>
-        <filter val="Steal"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:AA257">
@@ -50925,7 +50942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -63251,13 +63268,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W257" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:W257"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B242"/>
   <sheetViews>
@@ -64857,7 +64874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
@@ -65709,7 +65726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U137"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
@@ -65802,7 +65819,7 @@
         <v>2399</v>
       </c>
       <c r="B2" t="e">
-        <f>VLOOKUP(C2,Weapon!B1:AC258,2,FALSE)</f>
+        <f>VLOOKUP(C2,Weapon!B1:AD258,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C2" s="124">
@@ -71808,7 +71825,7 @@
         <v>2505</v>
       </c>
       <c r="B93" t="e">
-        <f>VLOOKUP(C93,Weapon!A1:AC258,2,FALSE)</f>
+        <f>VLOOKUP(C93,Weapon!A1:AD258,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C93" s="124">
@@ -74779,7 +74796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I16"/>
   <sheetViews>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D39A6AB-50CB-41B2-BAA8-05541D1350B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95564A71-257F-42DD-AAD4-ED41D829D419}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <sheet name="Move Prob - %" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Monster!$A$1:$X$253</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Weapon!$A$1:$AG$259</definedName>
     <definedName name="Item_Hex" localSheetId="8">'Item Hex'!$A$1:$U$137</definedName>
   </definedNames>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10897" uniqueCount="2642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10905" uniqueCount="2646">
   <si>
     <t>Monster</t>
   </si>
@@ -7135,9 +7136,6 @@
     <t>Formerly Counter</t>
   </si>
   <si>
-    <t>Wicked</t>
-  </si>
-  <si>
     <t>Sacrifice</t>
   </si>
   <si>
@@ -7988,6 +7986,21 @@
   </si>
   <si>
     <t>HeadButt</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Strong against Fire, Ice, Thunder, Poison</t>
+  </si>
+  <si>
+    <t>Pierce, Never miss</t>
+  </si>
+  <si>
+    <t>Never miss</t>
+  </si>
+  <si>
+    <t>Block, Never miss</t>
   </si>
 </sst>
 </file>
@@ -9115,12 +9128,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:X253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <selection pane="bottomLeft" activeCell="Q196" sqref="Q196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9129,7 +9142,9 @@
     <col min="3" max="3" width="4.7109375" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -9150,7 +9165,7 @@
         <v>2292</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1563</v>
@@ -9210,10 +9225,10 @@
         <v>2317</v>
       </c>
       <c r="X1" s="125" t="s">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" hidden="1">
       <c r="A2" t="str">
         <f>B2</f>
         <v>Mushroom</v>
@@ -9281,7 +9296,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" hidden="1">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="1">B3</f>
         <v>Champgno</v>
@@ -9351,7 +9366,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" hidden="1">
       <c r="A4" t="str">
         <f t="shared" si="1"/>
         <v>Shiitake</v>
@@ -9425,7 +9440,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" hidden="1">
       <c r="A5" t="str">
         <f t="shared" si="1"/>
         <v>Toadstol</v>
@@ -9501,7 +9516,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" hidden="1">
       <c r="A6" t="str">
         <f t="shared" si="1"/>
         <v>Flower</v>
@@ -9565,7 +9580,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" hidden="1">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
         <v>P-Flower</v>
@@ -9635,7 +9650,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" hidden="1">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
         <v>F-Flower</v>
@@ -9707,7 +9722,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" hidden="1">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
         <v>SunPlant</v>
@@ -9781,7 +9796,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" hidden="1">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
         <v>DarkRose</v>
@@ -9857,7 +9872,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" hidden="1">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
         <v>MapleMan</v>
@@ -9923,7 +9938,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" hidden="1">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
         <v>LiveOrk</v>
@@ -9991,7 +10006,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" hidden="1">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
         <v>EvilPine</v>
@@ -10061,7 +10076,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" hidden="1">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
         <v>MadCedar</v>
@@ -10135,7 +10150,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" hidden="1">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
         <v>Treant</v>
@@ -10211,7 +10226,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" hidden="1">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>Pebble</v>
@@ -10272,7 +10287,7 @@
       <c r="V16" s="6"/>
       <c r="W16" s="7"/>
       <c r="X16" s="121" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -10338,10 +10353,10 @@
       <c r="V17" s="6"/>
       <c r="W17" s="7"/>
       <c r="X17" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" hidden="1">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
         <v>Boulder</v>
@@ -10408,10 +10423,10 @@
       <c r="V18" s="6"/>
       <c r="W18" s="7"/>
       <c r="X18" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" hidden="1">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
         <v>Rock</v>
@@ -10482,10 +10497,10 @@
       </c>
       <c r="W19" s="7"/>
       <c r="X19" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" hidden="1">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v>Earth</v>
@@ -10558,7 +10573,7 @@
         <v>70</v>
       </c>
       <c r="X20" s="121" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -10622,10 +10637,10 @@
       <c r="V21" s="6"/>
       <c r="W21" s="7"/>
       <c r="X21" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" hidden="1">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>Clayman</v>
@@ -10690,10 +10705,10 @@
       <c r="V22" s="6"/>
       <c r="W22" s="7"/>
       <c r="X22" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" hidden="1">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v>Stoneman</v>
@@ -10760,10 +10775,10 @@
       <c r="V23" s="6"/>
       <c r="W23" s="7"/>
       <c r="X23" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" hidden="1">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v>Ironman</v>
@@ -10834,10 +10849,10 @@
       </c>
       <c r="W24" s="7"/>
       <c r="X24" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" hidden="1">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
         <v>Mazin</v>
@@ -10910,10 +10925,10 @@
         <v>70</v>
       </c>
       <c r="X25" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" hidden="1">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
         <v>Hofud</v>
@@ -10976,10 +10991,10 @@
       <c r="V26" s="6"/>
       <c r="W26" s="7"/>
       <c r="X26" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" hidden="1">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
         <v>Gae Bolg</v>
@@ -11046,10 +11061,10 @@
       <c r="V27" s="6"/>
       <c r="W27" s="7"/>
       <c r="X27" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" hidden="1">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
         <v>Answerer</v>
@@ -11118,10 +11133,10 @@
       <c r="V28" s="6"/>
       <c r="W28" s="7"/>
       <c r="X28" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" hidden="1">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
         <v>Moaner</v>
@@ -11192,10 +11207,10 @@
       </c>
       <c r="W29" s="7"/>
       <c r="X29" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" hidden="1">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
         <v>Kusanagi</v>
@@ -11268,10 +11283,10 @@
         <v>70</v>
       </c>
       <c r="X30" s="121" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" hidden="1">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
         <v>Slime</v>
@@ -11332,10 +11347,10 @@
       <c r="V31" s="6"/>
       <c r="W31" s="7"/>
       <c r="X31" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" hidden="1">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
         <v>Jelly</v>
@@ -11398,10 +11413,10 @@
       <c r="V32" s="6"/>
       <c r="W32" s="7"/>
       <c r="X32" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" hidden="1">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>Tororo</v>
@@ -11468,10 +11483,10 @@
       <c r="V33" s="6"/>
       <c r="W33" s="7"/>
       <c r="X33" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" hidden="1">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>Pudding</v>
@@ -11542,10 +11557,10 @@
       </c>
       <c r="W34" s="7"/>
       <c r="X34" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" hidden="1">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>SlimeGod</v>
@@ -11618,7 +11633,7 @@
         <v>139</v>
       </c>
       <c r="X35" s="121" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -11682,10 +11697,10 @@
       <c r="V36" s="6"/>
       <c r="W36" s="7"/>
       <c r="X36" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" hidden="1">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>P-Worm</v>
@@ -11750,10 +11765,10 @@
       <c r="V37" s="6"/>
       <c r="W37" s="7"/>
       <c r="X37" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" hidden="1">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>LavaWorm</v>
@@ -11822,10 +11837,10 @@
       <c r="V38" s="6"/>
       <c r="W38" s="7"/>
       <c r="X38" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" hidden="1">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>SandWorm</v>
@@ -11896,10 +11911,10 @@
       </c>
       <c r="W39" s="7"/>
       <c r="X39" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" hidden="1">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>GigaWorm</v>
@@ -11972,10 +11987,10 @@
         <v>50</v>
       </c>
       <c r="X40" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" hidden="1">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>Big Eye</v>
@@ -12038,10 +12053,10 @@
       <c r="V41" s="6"/>
       <c r="W41" s="7"/>
       <c r="X41" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" hidden="1">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>Gazer</v>
@@ -12108,10 +12123,10 @@
       <c r="V42" s="6"/>
       <c r="W42" s="7"/>
       <c r="X42" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" hidden="1">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>Watcher</v>
@@ -12180,10 +12195,10 @@
       <c r="V43" s="6"/>
       <c r="W43" s="7"/>
       <c r="X43" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" hidden="1">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>Evil Eye</v>
@@ -12241,7 +12256,7 @@
         <v>165</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="T44" s="6" t="s">
         <v>173</v>
@@ -12254,10 +12269,10 @@
       </c>
       <c r="W44" s="7"/>
       <c r="X44" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" hidden="1">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>Beholder</v>
@@ -12318,7 +12333,7 @@
         <v>173</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="U45" s="9" t="s">
         <v>69</v>
@@ -12330,10 +12345,10 @@
         <v>139</v>
       </c>
       <c r="X45" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" hidden="1">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>Spider</v>
@@ -12395,7 +12410,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" hidden="1">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>P-Spider</v>
@@ -12461,7 +12476,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" hidden="1">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>Tarantla</v>
@@ -12531,7 +12546,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" hidden="1">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>F-Spider</v>
@@ -12605,7 +12620,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" hidden="1">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>Arachne</v>
@@ -12681,7 +12696,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" hidden="1">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>Beetle</v>
@@ -12745,7 +12760,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" hidden="1">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>Chafer</v>
@@ -12813,7 +12828,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" hidden="1">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>Ant Lion</v>
@@ -12883,7 +12898,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" hidden="1">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>C-Fisher</v>
@@ -12957,7 +12972,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" hidden="1">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>Scarab</v>
@@ -13033,7 +13048,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" hidden="1">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>Moth</v>
@@ -13099,7 +13114,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" hidden="1">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>Swallow</v>
@@ -13169,7 +13184,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" hidden="1">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>FireMoth</v>
@@ -13241,7 +13256,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" hidden="1">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>Gloom</v>
@@ -13315,7 +13330,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" hidden="1">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>Madame</v>
@@ -13391,7 +13406,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" hidden="1">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>Octopus</v>
@@ -13454,7 +13469,7 @@
       <c r="V61" s="6"/>
       <c r="W61" s="7"/>
       <c r="X61" s="121" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -13520,10 +13535,10 @@
       <c r="V62" s="6"/>
       <c r="W62" s="7"/>
       <c r="X62" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" hidden="1">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>Ammonite</v>
@@ -13592,10 +13607,10 @@
       <c r="V63" s="6"/>
       <c r="W63" s="7"/>
       <c r="X63" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" hidden="1">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>Squid</v>
@@ -13666,10 +13681,10 @@
       </c>
       <c r="W64" s="7"/>
       <c r="X64" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" hidden="1">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>Kraken</v>
@@ -13742,10 +13757,10 @@
         <v>50</v>
       </c>
       <c r="X65" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" hidden="1">
       <c r="A66" t="str">
         <f t="shared" si="1"/>
         <v>Barracud</v>
@@ -13806,10 +13821,10 @@
       <c r="V66" s="6"/>
       <c r="W66" s="7"/>
       <c r="X66" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" hidden="1">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A130" si="4">B67</f>
         <v>Piranha</v>
@@ -13876,10 +13891,10 @@
       <c r="V67" s="6"/>
       <c r="W67" s="7"/>
       <c r="X67" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" hidden="1">
       <c r="A68" t="str">
         <f t="shared" si="4"/>
         <v>Shark</v>
@@ -13948,10 +13963,10 @@
       <c r="V68" s="6"/>
       <c r="W68" s="7"/>
       <c r="X68" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" hidden="1">
       <c r="A69" t="str">
         <f t="shared" si="4"/>
         <v>Gunfish</v>
@@ -14022,10 +14037,10 @@
       </c>
       <c r="W69" s="7"/>
       <c r="X69" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" hidden="1">
       <c r="A70" t="str">
         <f t="shared" si="4"/>
         <v>Leviathn</v>
@@ -14098,7 +14113,7 @@
         <v>50</v>
       </c>
       <c r="X70" s="121" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -14162,10 +14177,10 @@
       <c r="V71" s="6"/>
       <c r="W71" s="7"/>
       <c r="X71" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" hidden="1">
       <c r="A72" t="str">
         <f t="shared" si="4"/>
         <v>Hermit</v>
@@ -14232,10 +14247,10 @@
       <c r="V72" s="6"/>
       <c r="W72" s="7"/>
       <c r="X72" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" hidden="1">
       <c r="A73" t="str">
         <f t="shared" si="4"/>
         <v>Ice Crab</v>
@@ -14304,10 +14319,10 @@
       <c r="V73" s="6"/>
       <c r="W73" s="7"/>
       <c r="X73" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" hidden="1">
       <c r="A74" t="str">
         <f t="shared" si="4"/>
         <v>KingCrab</v>
@@ -14378,10 +14393,10 @@
       </c>
       <c r="W74" s="7"/>
       <c r="X74" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" hidden="1">
       <c r="A75" t="str">
         <f t="shared" si="4"/>
         <v>Dagon</v>
@@ -14454,10 +14469,10 @@
         <v>50</v>
       </c>
       <c r="X75" s="121" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" hidden="1">
       <c r="A76" t="str">
         <f t="shared" si="4"/>
         <v>Toad</v>
@@ -14521,7 +14536,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" hidden="1">
       <c r="A77" t="str">
         <f t="shared" si="4"/>
         <v>P-Toad</v>
@@ -14591,7 +14606,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" hidden="1">
       <c r="A78" t="str">
         <f t="shared" si="4"/>
         <v>HugeToad</v>
@@ -14663,7 +14678,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" hidden="1">
       <c r="A79" t="str">
         <f t="shared" si="4"/>
         <v>GianToad</v>
@@ -14737,7 +14752,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" hidden="1">
       <c r="A80" t="str">
         <f t="shared" si="4"/>
         <v>KingToad</v>
@@ -14813,7 +14828,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" hidden="1">
       <c r="A81" t="str">
         <f t="shared" si="4"/>
         <v>Snake</v>
@@ -14877,7 +14892,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" hidden="1">
       <c r="A82" t="str">
         <f t="shared" si="4"/>
         <v>Serpent</v>
@@ -14947,7 +14962,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" hidden="1">
       <c r="A83" t="str">
         <f t="shared" si="4"/>
         <v>Anaconda</v>
@@ -15019,7 +15034,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" hidden="1">
       <c r="A84" t="str">
         <f t="shared" si="4"/>
         <v>Hydra</v>
@@ -15093,7 +15108,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" hidden="1">
       <c r="A85" t="str">
         <f t="shared" si="4"/>
         <v>Jorgandr</v>
@@ -15169,7 +15184,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" hidden="1">
       <c r="A86" t="str">
         <f t="shared" si="4"/>
         <v>Tortoise</v>
@@ -15235,7 +15250,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" hidden="1">
       <c r="A87" t="str">
         <f t="shared" si="4"/>
         <v>Turtle</v>
@@ -15303,7 +15318,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" hidden="1">
       <c r="A88" t="str">
         <f t="shared" si="4"/>
         <v>Adamant</v>
@@ -15375,7 +15390,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" hidden="1">
       <c r="A89" t="str">
         <f t="shared" si="4"/>
         <v>D-Turtle</v>
@@ -15447,7 +15462,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" hidden="1">
       <c r="A90" t="str">
         <f t="shared" si="4"/>
         <v>Gen-Bu</v>
@@ -15523,7 +15538,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" hidden="1">
       <c r="A91" t="str">
         <f t="shared" si="4"/>
         <v>Lizard</v>
@@ -15584,10 +15599,10 @@
       <c r="V91" s="6"/>
       <c r="W91" s="7"/>
       <c r="X91" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" hidden="1">
       <c r="A92" t="str">
         <f t="shared" si="4"/>
         <v>Cameleon</v>
@@ -15650,10 +15665,10 @@
       <c r="V92" s="6"/>
       <c r="W92" s="7"/>
       <c r="X92" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" hidden="1">
       <c r="A93" t="str">
         <f t="shared" si="4"/>
         <v>Komodo</v>
@@ -15720,10 +15735,10 @@
       <c r="V93" s="6"/>
       <c r="W93" s="7"/>
       <c r="X93" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" hidden="1">
       <c r="A94" t="str">
         <f t="shared" si="4"/>
         <v>Salamand</v>
@@ -15794,10 +15809,10 @@
       </c>
       <c r="W94" s="7"/>
       <c r="X94" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" hidden="1">
       <c r="A95" t="str">
         <f t="shared" si="4"/>
         <v>Basilisk</v>
@@ -15870,7 +15885,7 @@
         <v>70</v>
       </c>
       <c r="X95" s="121" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -15934,10 +15949,10 @@
       <c r="V96" s="6"/>
       <c r="W96" s="7"/>
       <c r="X96" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" hidden="1">
       <c r="A97" t="str">
         <f t="shared" si="4"/>
         <v>Triceras</v>
@@ -16004,10 +16019,10 @@
       <c r="V97" s="6"/>
       <c r="W97" s="7"/>
       <c r="X97" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" hidden="1">
       <c r="A98" t="str">
         <f t="shared" si="4"/>
         <v>Dinosaur</v>
@@ -16076,10 +16091,10 @@
       <c r="V98" s="6"/>
       <c r="W98" s="7"/>
       <c r="X98" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" hidden="1">
       <c r="A99" t="str">
         <f t="shared" si="4"/>
         <v>T Rex</v>
@@ -16150,10 +16165,10 @@
       </c>
       <c r="W99" s="7"/>
       <c r="X99" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" hidden="1">
       <c r="A100" t="str">
         <f t="shared" si="4"/>
         <v>Behemoth</v>
@@ -16226,10 +16241,10 @@
         <v>213</v>
       </c>
       <c r="X100" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" hidden="1">
       <c r="A101" t="str">
         <f t="shared" si="4"/>
         <v>Baby-D</v>
@@ -16294,10 +16309,10 @@
       <c r="V101" s="6"/>
       <c r="W101" s="7"/>
       <c r="X101" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" hidden="1">
       <c r="A102" t="str">
         <f t="shared" si="4"/>
         <v>Young-D</v>
@@ -16364,10 +16379,10 @@
       <c r="V102" s="6"/>
       <c r="W102" s="7"/>
       <c r="X102" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" hidden="1">
       <c r="A103" t="str">
         <f t="shared" si="4"/>
         <v>Dragon</v>
@@ -16436,10 +16451,10 @@
       <c r="V103" s="6"/>
       <c r="W103" s="7"/>
       <c r="X103" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" hidden="1">
       <c r="A104" t="str">
         <f t="shared" si="4"/>
         <v>Great-D</v>
@@ -16510,10 +16525,10 @@
       </c>
       <c r="W104" s="7"/>
       <c r="X104" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" hidden="1">
       <c r="A105" t="str">
         <f t="shared" si="4"/>
         <v>Sei-Ryu</v>
@@ -16571,7 +16586,7 @@
         <v>150</v>
       </c>
       <c r="S105" s="9" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="T105" s="9" t="s">
         <v>101</v>
@@ -16586,10 +16601,10 @@
         <v>105</v>
       </c>
       <c r="X105" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" hidden="1">
       <c r="A106" t="str">
         <f t="shared" si="4"/>
         <v>BabyWyrm</v>
@@ -16650,10 +16665,10 @@
       <c r="V106" s="6"/>
       <c r="W106" s="7"/>
       <c r="X106" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" hidden="1">
       <c r="A107" t="str">
         <f t="shared" si="4"/>
         <v>Wyrm Kid</v>
@@ -16716,10 +16731,10 @@
       <c r="V107" s="6"/>
       <c r="W107" s="7"/>
       <c r="X107" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" hidden="1">
       <c r="A108" t="str">
         <f t="shared" si="4"/>
         <v>Wyvern</v>
@@ -16786,10 +16801,10 @@
       <c r="V108" s="6"/>
       <c r="W108" s="7"/>
       <c r="X108" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" hidden="1">
       <c r="A109" t="str">
         <f t="shared" si="4"/>
         <v>Wyrm</v>
@@ -16853,17 +16868,17 @@
         <v>25</v>
       </c>
       <c r="U109" s="6" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="V109" s="6" t="s">
         <v>139</v>
       </c>
       <c r="W109" s="7"/>
       <c r="X109" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" hidden="1">
       <c r="A110" t="str">
         <f t="shared" si="4"/>
         <v>FengLung</v>
@@ -16924,7 +16939,7 @@
         <v>25</v>
       </c>
       <c r="T110" s="9" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="U110" s="9" t="s">
         <v>110</v>
@@ -16936,10 +16951,10 @@
         <v>105</v>
       </c>
       <c r="X110" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" hidden="1">
       <c r="A111" t="str">
         <f t="shared" si="4"/>
         <v>Eagle</v>
@@ -17000,10 +17015,10 @@
       <c r="V111" s="6"/>
       <c r="W111" s="7"/>
       <c r="X111" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" hidden="1">
       <c r="A112" t="str">
         <f t="shared" si="4"/>
         <v>Thunder</v>
@@ -17068,10 +17083,10 @@
       <c r="V112" s="6"/>
       <c r="W112" s="7"/>
       <c r="X112" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" hidden="1">
       <c r="A113" t="str">
         <f t="shared" si="4"/>
         <v>Cocatris</v>
@@ -17140,10 +17155,10 @@
       <c r="V113" s="6"/>
       <c r="W113" s="7"/>
       <c r="X113" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" hidden="1">
       <c r="A114" t="str">
         <f t="shared" si="4"/>
         <v>Roc</v>
@@ -17214,10 +17229,10 @@
       </c>
       <c r="W114" s="7"/>
       <c r="X114" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" hidden="1">
       <c r="A115" t="str">
         <f t="shared" si="4"/>
         <v>Su-Zaku</v>
@@ -17290,10 +17305,10 @@
         <v>105</v>
       </c>
       <c r="X115" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" hidden="1">
       <c r="A116" t="str">
         <f t="shared" si="4"/>
         <v>Raven</v>
@@ -17356,10 +17371,10 @@
       <c r="V116" s="6"/>
       <c r="W116" s="7"/>
       <c r="X116" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" hidden="1">
       <c r="A117" t="str">
         <f t="shared" si="4"/>
         <v>Harpy</v>
@@ -17424,10 +17439,10 @@
       <c r="V117" s="6"/>
       <c r="W117" s="7"/>
       <c r="X117" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" hidden="1">
       <c r="A118" t="str">
         <f t="shared" si="4"/>
         <v>Ten-Gu</v>
@@ -17496,10 +17511,10 @@
       <c r="V118" s="6"/>
       <c r="W118" s="7"/>
       <c r="X118" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" hidden="1">
       <c r="A119" t="str">
         <f t="shared" si="4"/>
         <v>Garuda</v>
@@ -17570,10 +17585,10 @@
       </c>
       <c r="W119" s="7"/>
       <c r="X119" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" hidden="1">
       <c r="A120" t="str">
         <f t="shared" si="4"/>
         <v>Nike</v>
@@ -17646,10 +17661,10 @@
         <v>139</v>
       </c>
       <c r="X120" s="121" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" hidden="1">
       <c r="A121" t="str">
         <f t="shared" si="4"/>
         <v>Jaguar</v>
@@ -17708,10 +17723,10 @@
       <c r="V121" s="6"/>
       <c r="W121" s="7"/>
       <c r="X121" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" hidden="1">
       <c r="A122" t="str">
         <f t="shared" si="4"/>
         <v>SabreCat</v>
@@ -17774,10 +17789,10 @@
       <c r="V122" s="6"/>
       <c r="W122" s="7"/>
       <c r="X122" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" hidden="1">
       <c r="A123" t="str">
         <f t="shared" si="4"/>
         <v>SnowCat</v>
@@ -17844,10 +17859,10 @@
       <c r="V123" s="6"/>
       <c r="W123" s="7"/>
       <c r="X123" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" hidden="1">
       <c r="A124" t="str">
         <f t="shared" si="4"/>
         <v>BlackCat</v>
@@ -17916,10 +17931,10 @@
       <c r="V124" s="6"/>
       <c r="W124" s="7"/>
       <c r="X124" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" hidden="1">
       <c r="A125" t="str">
         <f t="shared" si="4"/>
         <v>Byak-Ko</v>
@@ -17992,7 +18007,7 @@
         <v>105</v>
       </c>
       <c r="X125" s="121" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -18056,10 +18071,10 @@
       <c r="V126" s="6"/>
       <c r="W126" s="7"/>
       <c r="X126" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" hidden="1">
       <c r="A127" t="str">
         <f t="shared" si="4"/>
         <v>Kelpie</v>
@@ -18122,10 +18137,10 @@
       <c r="V127" s="6"/>
       <c r="W127" s="7"/>
       <c r="X127" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" hidden="1">
       <c r="A128" t="str">
         <f t="shared" si="4"/>
         <v>Nitemare</v>
@@ -18186,7 +18201,7 @@
         <v>98</v>
       </c>
       <c r="T128" s="6" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="U128" s="6" t="s">
         <v>50</v>
@@ -18194,10 +18209,10 @@
       <c r="V128" s="6"/>
       <c r="W128" s="7"/>
       <c r="X128" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" hidden="1">
       <c r="A129" t="str">
         <f t="shared" si="4"/>
         <v>Sleipnir</v>
@@ -18268,10 +18283,10 @@
       </c>
       <c r="W129" s="7"/>
       <c r="X129" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" hidden="1">
       <c r="A130" t="str">
         <f t="shared" si="4"/>
         <v>Unicorn</v>
@@ -18344,10 +18359,10 @@
         <v>70</v>
       </c>
       <c r="X130" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="131" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" hidden="1">
       <c r="A131" t="str">
         <f t="shared" ref="A131:A194" si="6">B131</f>
         <v>Griffon</v>
@@ -18410,10 +18425,10 @@
       <c r="V131" s="6"/>
       <c r="W131" s="7"/>
       <c r="X131" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" hidden="1">
       <c r="A132" t="str">
         <f t="shared" si="6"/>
         <v>Mantcore</v>
@@ -18480,10 +18495,10 @@
       <c r="V132" s="6"/>
       <c r="W132" s="7"/>
       <c r="X132" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" hidden="1">
       <c r="A133" t="str">
         <f t="shared" si="6"/>
         <v>Chimera</v>
@@ -18552,10 +18567,10 @@
       <c r="V133" s="6"/>
       <c r="W133" s="7"/>
       <c r="X133" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" hidden="1">
       <c r="A134" t="str">
         <f t="shared" si="6"/>
         <v>Sphinx</v>
@@ -18626,10 +18641,10 @@
       </c>
       <c r="W134" s="7"/>
       <c r="X134" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" hidden="1">
       <c r="A135" t="str">
         <f t="shared" si="6"/>
         <v>Kirin</v>
@@ -18702,10 +18717,10 @@
         <v>105</v>
       </c>
       <c r="X135" s="121" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" hidden="1">
       <c r="A136" t="str">
         <f t="shared" si="6"/>
         <v>Fly</v>
@@ -18771,7 +18786,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" hidden="1">
       <c r="A137" t="str">
         <f t="shared" si="6"/>
         <v>Hornet</v>
@@ -18841,7 +18856,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" hidden="1">
       <c r="A138" t="str">
         <f t="shared" si="6"/>
         <v>Mosquito</v>
@@ -18913,7 +18928,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" hidden="1">
       <c r="A139" t="str">
         <f t="shared" si="6"/>
         <v>Cicada</v>
@@ -18989,7 +19004,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" hidden="1">
       <c r="A140" t="str">
         <f t="shared" si="6"/>
         <v>Mantis</v>
@@ -19065,7 +19080,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" hidden="1">
       <c r="A141" t="str">
         <f t="shared" si="6"/>
         <v>WereRat</v>
@@ -19129,7 +19144,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" hidden="1">
       <c r="A142" t="str">
         <f t="shared" si="6"/>
         <v>WereWolf</v>
@@ -19197,7 +19212,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" hidden="1">
       <c r="A143" t="str">
         <f t="shared" si="6"/>
         <v>CatWoman</v>
@@ -19269,7 +19284,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" hidden="1">
       <c r="A144" t="str">
         <f t="shared" si="6"/>
         <v>Rakshasa</v>
@@ -19343,7 +19358,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" hidden="1">
       <c r="A145" t="str">
         <f t="shared" si="6"/>
         <v>Anubis</v>
@@ -19419,7 +19434,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" hidden="1">
       <c r="A146" t="str">
         <f t="shared" si="6"/>
         <v>Medusa</v>
@@ -19485,7 +19500,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" hidden="1">
       <c r="A147" t="str">
         <f t="shared" si="6"/>
         <v>Lamia</v>
@@ -19555,7 +19570,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" hidden="1">
       <c r="A148" t="str">
         <f t="shared" si="6"/>
         <v>Naga</v>
@@ -19627,7 +19642,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" hidden="1">
       <c r="A149" t="str">
         <f t="shared" si="6"/>
         <v>Scylla</v>
@@ -19701,7 +19716,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" hidden="1">
       <c r="A150" t="str">
         <f t="shared" si="6"/>
         <v>Lilith</v>
@@ -19777,7 +19792,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:24" hidden="1">
       <c r="A151" t="str">
         <f t="shared" si="6"/>
         <v>Goblin</v>
@@ -19903,7 +19918,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:24" hidden="1">
       <c r="A153" t="str">
         <f t="shared" si="6"/>
         <v>Ogre</v>
@@ -19973,7 +19988,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:24" hidden="1">
       <c r="A154" t="str">
         <f t="shared" si="6"/>
         <v>Giant</v>
@@ -20047,7 +20062,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:24" hidden="1">
       <c r="A155" t="str">
         <f t="shared" si="6"/>
         <v>Susano-O</v>
@@ -20187,7 +20202,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" hidden="1">
       <c r="A157" t="str">
         <f t="shared" si="6"/>
         <v>Mephisto</v>
@@ -20257,7 +20272,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:24" hidden="1">
       <c r="A158" t="str">
         <f t="shared" si="6"/>
         <v>Demon</v>
@@ -20329,7 +20344,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:24" hidden="1">
       <c r="A159" t="str">
         <f t="shared" si="6"/>
         <v>DemoLoad</v>
@@ -20403,7 +20418,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:24" hidden="1">
       <c r="A160" t="str">
         <f t="shared" si="6"/>
         <v>Athtalot</v>
@@ -20455,7 +20470,7 @@
         <v>108</v>
       </c>
       <c r="Q160" s="9" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="R160" s="9" t="s">
         <v>483</v>
@@ -20479,7 +20494,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="161" spans="1:24">
+    <row r="161" spans="1:24" hidden="1">
       <c r="A161" t="str">
         <f t="shared" si="6"/>
         <v>Sprite</v>
@@ -20547,7 +20562,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="162" spans="1:24">
+    <row r="162" spans="1:24" hidden="1">
       <c r="A162" t="str">
         <f t="shared" si="6"/>
         <v>Fairy</v>
@@ -20617,7 +20632,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="163" spans="1:24">
+    <row r="163" spans="1:24" hidden="1">
       <c r="A163" t="str">
         <f t="shared" si="6"/>
         <v>Nymph</v>
@@ -20689,7 +20704,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="164" spans="1:24">
+    <row r="164" spans="1:24" hidden="1">
       <c r="A164" t="str">
         <f t="shared" si="6"/>
         <v>Sylph</v>
@@ -20763,7 +20778,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="165" spans="1:24">
+    <row r="165" spans="1:24" hidden="1">
       <c r="A165" t="str">
         <f t="shared" si="6"/>
         <v>Titania</v>
@@ -20839,7 +20854,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="166" spans="1:24">
+    <row r="166" spans="1:24" hidden="1">
       <c r="A166" t="str">
         <f t="shared" si="6"/>
         <v>Skelton</v>
@@ -20905,12 +20920,12 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="167" spans="1:24">
+    <row r="167" spans="1:24" hidden="1">
       <c r="A167" t="str">
         <f t="shared" si="6"/>
         <v>Red Bone</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="11" t="s">
         <v>498</v>
       </c>
       <c r="C167" s="5" t="s">
@@ -20973,7 +20988,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="168" spans="1:24">
+    <row r="168" spans="1:24" hidden="1">
       <c r="A168" t="str">
         <f t="shared" si="6"/>
         <v>Warrior</v>
@@ -21045,7 +21060,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="169" spans="1:24">
+    <row r="169" spans="1:24" hidden="1">
       <c r="A169" t="str">
         <f t="shared" si="6"/>
         <v>BoneKing</v>
@@ -21119,7 +21134,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="170" spans="1:24">
+    <row r="170" spans="1:24" hidden="1">
       <c r="A170" t="str">
         <f t="shared" si="6"/>
         <v>Lich</v>
@@ -21195,7 +21210,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="171" spans="1:24">
+    <row r="171" spans="1:24" hidden="1">
       <c r="A171" t="str">
         <f t="shared" si="6"/>
         <v>Zombie</v>
@@ -21261,7 +21276,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="172" spans="1:24">
+    <row r="172" spans="1:24" hidden="1">
       <c r="A172" t="str">
         <f t="shared" si="6"/>
         <v>Ghoul</v>
@@ -21329,7 +21344,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="173" spans="1:24">
+    <row r="173" spans="1:24" hidden="1">
       <c r="A173" t="str">
         <f t="shared" si="6"/>
         <v>Ghast</v>
@@ -21403,7 +21418,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="174" spans="1:24">
+    <row r="174" spans="1:24" hidden="1">
       <c r="A174" t="str">
         <f t="shared" si="6"/>
         <v>Wight</v>
@@ -21477,7 +21492,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="175" spans="1:24">
+    <row r="175" spans="1:24" hidden="1">
       <c r="A175" t="str">
         <f t="shared" si="6"/>
         <v>Revenant</v>
@@ -21553,7 +21568,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="176" spans="1:24">
+    <row r="176" spans="1:24" hidden="1">
       <c r="A176" t="str">
         <f t="shared" si="6"/>
         <v>O-Bake</v>
@@ -21621,7 +21636,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:24" hidden="1">
       <c r="A177" t="str">
         <f t="shared" si="6"/>
         <v>Phantom</v>
@@ -21691,7 +21706,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="178" spans="1:24">
+    <row r="178" spans="1:24" hidden="1">
       <c r="A178" t="str">
         <f t="shared" si="6"/>
         <v>Wraith</v>
@@ -21763,7 +21778,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="179" spans="1:24">
+    <row r="179" spans="1:24" hidden="1">
       <c r="A179" t="str">
         <f t="shared" si="6"/>
         <v>Spector</v>
@@ -21837,7 +21852,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="180" spans="1:24">
+    <row r="180" spans="1:24" hidden="1">
       <c r="A180" t="str">
         <f t="shared" si="6"/>
         <v>Ghost</v>
@@ -21889,7 +21904,7 @@
         <v>429</v>
       </c>
       <c r="Q180" s="9" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="R180" s="9" t="s">
         <v>388</v>
@@ -21913,7 +21928,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="181" spans="1:24">
+    <row r="181" spans="1:24" hidden="1">
       <c r="A181" t="str">
         <f t="shared" si="6"/>
         <v>Asigaru</v>
@@ -21972,7 +21987,7 @@
       <c r="V181" s="6"/>
       <c r="W181" s="7"/>
       <c r="X181" s="121" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -22036,10 +22051,10 @@
       <c r="V182" s="6"/>
       <c r="W182" s="7"/>
       <c r="X182" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="183" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" hidden="1">
       <c r="A183" t="str">
         <f t="shared" si="6"/>
         <v>Ninja</v>
@@ -22108,10 +22123,10 @@
       <c r="V183" s="6"/>
       <c r="W183" s="7"/>
       <c r="X183" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="184" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" hidden="1">
       <c r="A184" t="str">
         <f t="shared" si="6"/>
         <v>Musashi</v>
@@ -22182,10 +22197,10 @@
       </c>
       <c r="W184" s="10"/>
       <c r="X184" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="185" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" hidden="1">
       <c r="A185" t="str">
         <f t="shared" si="6"/>
         <v>Hatamoto</v>
@@ -22250,10 +22265,10 @@
       <c r="V185" s="9"/>
       <c r="W185" s="10"/>
       <c r="X185" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="186" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" hidden="1">
       <c r="A186" t="str">
         <f t="shared" si="6"/>
         <v>Gang</v>
@@ -22312,10 +22327,10 @@
       <c r="V186" s="6"/>
       <c r="W186" s="7"/>
       <c r="X186" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="187" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" hidden="1">
       <c r="A187" t="str">
         <f t="shared" si="6"/>
         <v>Wh. Belt</v>
@@ -22378,10 +22393,10 @@
       <c r="V187" s="6"/>
       <c r="W187" s="7"/>
       <c r="X187" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="188" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" hidden="1">
       <c r="A188" t="str">
         <f t="shared" si="6"/>
         <v>Killer</v>
@@ -22450,10 +22465,10 @@
       <c r="V188" s="6"/>
       <c r="W188" s="7"/>
       <c r="X188" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="189" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" hidden="1">
       <c r="A189" t="str">
         <f t="shared" si="6"/>
         <v>Bl. Belt</v>
@@ -22511,7 +22526,7 @@
         <v>556</v>
       </c>
       <c r="S189" s="9" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="T189" s="9" t="s">
         <v>565</v>
@@ -22524,10 +22539,10 @@
       </c>
       <c r="W189" s="10"/>
       <c r="X189" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="190" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" hidden="1">
       <c r="A190" t="str">
         <f t="shared" si="6"/>
         <v>TianLung</v>
@@ -22582,7 +22597,7 @@
         <v>37</v>
       </c>
       <c r="R190" s="9" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="S190" s="9" t="s">
         <v>101</v>
@@ -22594,10 +22609,10 @@
       <c r="V190" s="9"/>
       <c r="W190" s="10"/>
       <c r="X190" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="191" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" hidden="1">
       <c r="A191" t="str">
         <f t="shared" si="6"/>
         <v>Trooper</v>
@@ -22658,10 +22673,10 @@
       <c r="V191" s="6"/>
       <c r="W191" s="7"/>
       <c r="X191" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="192" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" hidden="1">
       <c r="A192" t="str">
         <f t="shared" si="6"/>
         <v>Guard</v>
@@ -22724,10 +22739,10 @@
       <c r="V192" s="6"/>
       <c r="W192" s="7"/>
       <c r="X192" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="193" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" hidden="1">
       <c r="A193" t="str">
         <f t="shared" si="6"/>
         <v>Knight</v>
@@ -22796,10 +22811,10 @@
       <c r="V193" s="6"/>
       <c r="W193" s="7"/>
       <c r="X193" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="194" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" hidden="1">
       <c r="A194" t="str">
         <f t="shared" si="6"/>
         <v>Paladin</v>
@@ -22870,10 +22885,10 @@
       </c>
       <c r="W194" s="10"/>
       <c r="X194" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="195" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" hidden="1">
       <c r="A195" t="str">
         <f t="shared" ref="A195:A253" si="8">B195</f>
         <v>Fenrir</v>
@@ -22940,7 +22955,7 @@
       <c r="V195" s="9"/>
       <c r="W195" s="10"/>
       <c r="X195" s="121" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -23004,10 +23019,10 @@
       <c r="V196" s="6"/>
       <c r="W196" s="7"/>
       <c r="X196" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="197" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" hidden="1">
       <c r="A197" t="str">
         <f t="shared" si="8"/>
         <v>Mercenar</v>
@@ -23072,10 +23087,10 @@
       <c r="V197" s="6"/>
       <c r="W197" s="7"/>
       <c r="X197" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="198" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" hidden="1">
       <c r="A198" t="str">
         <f t="shared" si="8"/>
         <v>Commando</v>
@@ -23124,7 +23139,7 @@
         <v>610</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="Q198" s="6" t="s">
         <v>611</v>
@@ -23144,10 +23159,10 @@
       <c r="V198" s="6"/>
       <c r="W198" s="7"/>
       <c r="X198" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="199" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" hidden="1">
       <c r="A199" t="str">
         <f t="shared" si="8"/>
         <v>SS</v>
@@ -23218,10 +23233,10 @@
       </c>
       <c r="W199" s="10"/>
       <c r="X199" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="200" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" hidden="1">
       <c r="A200" t="str">
         <f t="shared" si="8"/>
         <v>EchigoYa</v>
@@ -23284,7 +23299,7 @@
       <c r="V200" s="9"/>
       <c r="W200" s="10"/>
       <c r="X200" s="121" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -23348,10 +23363,10 @@
       <c r="V201" s="6"/>
       <c r="W201" s="7"/>
       <c r="X201" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="202" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" hidden="1">
       <c r="A202" t="str">
         <f t="shared" si="8"/>
         <v>Magician</v>
@@ -23416,10 +23431,10 @@
       <c r="V202" s="6"/>
       <c r="W202" s="7"/>
       <c r="X202" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="203" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" hidden="1">
       <c r="A203" t="str">
         <f t="shared" si="8"/>
         <v>Sorcerer</v>
@@ -23488,10 +23503,10 @@
       <c r="V203" s="6"/>
       <c r="W203" s="7"/>
       <c r="X203" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="204" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" hidden="1">
       <c r="A204" t="str">
         <f t="shared" si="8"/>
         <v>Wizard</v>
@@ -23562,7 +23577,7 @@
       </c>
       <c r="W204" s="10"/>
       <c r="X204" s="121" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -23629,7 +23644,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="206" spans="1:24">
+    <row r="206" spans="1:24" hidden="1">
       <c r="A206" t="str">
         <f t="shared" si="8"/>
         <v>ROBO-Z</v>
@@ -23697,7 +23712,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="207" spans="1:24">
+    <row r="207" spans="1:24" hidden="1">
       <c r="A207" t="str">
         <f t="shared" si="8"/>
         <v>Ridean</v>
@@ -23769,7 +23784,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="208" spans="1:24">
+    <row r="208" spans="1:24" hidden="1">
       <c r="A208" t="str">
         <f t="shared" si="8"/>
         <v>G-7</v>
@@ -23843,7 +23858,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="209" spans="1:24">
+    <row r="209" spans="1:24" hidden="1">
       <c r="A209" t="str">
         <f t="shared" si="8"/>
         <v>Dunatis</v>
@@ -23911,7 +23926,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="210" spans="1:24">
+    <row r="210" spans="1:24" hidden="1">
       <c r="A210" t="str">
         <f t="shared" si="8"/>
         <v>MechBug</v>
@@ -23977,7 +23992,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="211" spans="1:24">
+    <row r="211" spans="1:24" hidden="1">
       <c r="A211" t="str">
         <f t="shared" si="8"/>
         <v>Hawk</v>
@@ -24045,7 +24060,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="212" spans="1:24">
+    <row r="212" spans="1:24" hidden="1">
       <c r="A212" t="str">
         <f t="shared" si="8"/>
         <v>Falcon</v>
@@ -24117,7 +24132,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="213" spans="1:24">
+    <row r="213" spans="1:24" hidden="1">
       <c r="A213" t="str">
         <f t="shared" si="8"/>
         <v>Intrcept</v>
@@ -24252,10 +24267,10 @@
       <c r="V214" s="12"/>
       <c r="W214" s="16"/>
       <c r="X214" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="215" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" hidden="1">
       <c r="A215" t="str">
         <f t="shared" si="8"/>
         <v>Phagocyt</v>
@@ -24318,10 +24333,10 @@
       <c r="V215" s="6"/>
       <c r="W215" s="7"/>
       <c r="X215" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="216" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" hidden="1">
       <c r="A216" t="str">
         <f t="shared" si="8"/>
         <v>Corpuscl</v>
@@ -24390,10 +24405,10 @@
       <c r="V216" s="6"/>
       <c r="W216" s="7"/>
       <c r="X216" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="217" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" hidden="1">
       <c r="A217" t="str">
         <f t="shared" si="8"/>
         <v>Cancer</v>
@@ -24464,7 +24479,7 @@
       </c>
       <c r="W217" s="10"/>
       <c r="X217" s="121" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -24528,10 +24543,10 @@
       <c r="V218" s="12"/>
       <c r="W218" s="16"/>
       <c r="X218" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="219" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" hidden="1">
       <c r="A219" t="str">
         <f t="shared" si="8"/>
         <v>Virus</v>
@@ -24594,10 +24609,10 @@
       <c r="V219" s="6"/>
       <c r="W219" s="7"/>
       <c r="X219" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="220" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" hidden="1">
       <c r="A220" t="str">
         <f t="shared" si="8"/>
         <v>Pathogen</v>
@@ -24664,10 +24679,10 @@
       <c r="V220" s="6"/>
       <c r="W220" s="7"/>
       <c r="X220" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="221" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" hidden="1">
       <c r="A221" t="str">
         <f t="shared" si="8"/>
         <v>Plague</v>
@@ -24738,10 +24753,10 @@
       </c>
       <c r="W221" s="10"/>
       <c r="X221" s="121" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="222" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" hidden="1">
       <c r="A222" t="str">
         <f t="shared" si="8"/>
         <v>Teacher</v>
@@ -24804,10 +24819,10 @@
       <c r="V222" s="6"/>
       <c r="W222" s="7"/>
       <c r="X222" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="223" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" hidden="1">
       <c r="A223" t="str">
         <f t="shared" si="8"/>
         <v>Cleric</v>
@@ -24878,10 +24893,10 @@
       </c>
       <c r="W223" s="7"/>
       <c r="X223" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="224" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" hidden="1">
       <c r="A224" t="str">
         <f t="shared" si="8"/>
         <v>Unknown</v>
@@ -24948,10 +24963,10 @@
       <c r="V224" s="6"/>
       <c r="W224" s="7"/>
       <c r="X224" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="225" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" hidden="1">
       <c r="A225" t="str">
         <f t="shared" si="8"/>
         <v>Girl1</v>
@@ -25012,10 +25027,10 @@
       <c r="V225" s="6"/>
       <c r="W225" s="7"/>
       <c r="X225" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="226" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" hidden="1">
       <c r="A226" t="str">
         <f t="shared" si="8"/>
         <v>Guardian</v>
@@ -25082,10 +25097,10 @@
       <c r="V226" s="6"/>
       <c r="W226" s="7"/>
       <c r="X226" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="227" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" hidden="1">
       <c r="A227" t="str">
         <f t="shared" si="8"/>
         <v>Girl2</v>
@@ -25137,7 +25152,7 @@
         <v>556</v>
       </c>
       <c r="Q227" s="6" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="R227" s="6"/>
       <c r="S227" s="6"/>
@@ -25146,10 +25161,10 @@
       <c r="V227" s="6"/>
       <c r="W227" s="7"/>
       <c r="X227" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="228" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" hidden="1">
       <c r="A228" t="str">
         <f t="shared" si="8"/>
         <v>Detectiv</v>
@@ -25214,10 +25229,10 @@
       <c r="V228" s="6"/>
       <c r="W228" s="7"/>
       <c r="X228" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="229" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" hidden="1">
       <c r="A229" t="str">
         <f t="shared" si="8"/>
         <v>Samurai</v>
@@ -25286,10 +25301,10 @@
       <c r="V229" s="6"/>
       <c r="W229" s="7"/>
       <c r="X229" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="230" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" hidden="1">
       <c r="A230" t="str">
         <f t="shared" si="8"/>
         <v>Guardian</v>
@@ -25358,10 +25373,10 @@
       <c r="V230" s="6"/>
       <c r="W230" s="7"/>
       <c r="X230" s="121" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="231" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" hidden="1">
       <c r="A231" t="str">
         <f t="shared" si="8"/>
         <v>Ancient</v>
@@ -25434,10 +25449,10 @@
         <v>33</v>
       </c>
       <c r="X231" s="6" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="232" spans="1:24">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" hidden="1">
       <c r="A232" t="str">
         <f t="shared" si="8"/>
         <v>Haniwa</v>
@@ -25509,7 +25524,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="233" spans="1:24">
+    <row r="233" spans="1:24" hidden="1">
       <c r="A233" t="str">
         <f t="shared" si="8"/>
         <v>Dolphin</v>
@@ -25582,10 +25597,10 @@
         <v>50</v>
       </c>
       <c r="X233" s="6" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="234" spans="1:24">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" hidden="1">
       <c r="A234" t="str">
         <f t="shared" si="8"/>
         <v>OdinCrow</v>
@@ -25656,10 +25671,10 @@
       </c>
       <c r="W234" s="7"/>
       <c r="X234" s="6" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" hidden="1">
       <c r="A235" t="str">
         <f t="shared" si="8"/>
         <v>WarMach</v>
@@ -25729,13 +25744,13 @@
         <v>748</v>
       </c>
     </row>
-    <row r="236" spans="1:24">
+    <row r="236" spans="1:24" hidden="1">
       <c r="A236" t="str">
         <f t="shared" si="8"/>
         <v>Human M</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>9</v>
@@ -25790,16 +25805,16 @@
       <c r="V236" s="6"/>
       <c r="W236" s="7"/>
       <c r="X236" s="6" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" hidden="1">
       <c r="A237" t="str">
         <f t="shared" si="8"/>
         <v>Human F</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>9</v>
@@ -25854,10 +25869,10 @@
       <c r="V237" s="6"/>
       <c r="W237" s="7"/>
       <c r="X237" s="6" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="238" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" hidden="1">
       <c r="A238" t="str">
         <f t="shared" si="8"/>
         <v>Mutant M</v>
@@ -25920,10 +25935,10 @@
       <c r="V238" s="6"/>
       <c r="W238" s="7"/>
       <c r="X238" s="6" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="239" spans="1:24">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" hidden="1">
       <c r="A239" t="str">
         <f t="shared" si="8"/>
         <v>Mutant F</v>
@@ -25986,10 +26001,10 @@
       <c r="V239" s="6"/>
       <c r="W239" s="7"/>
       <c r="X239" s="6" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="240" spans="1:24">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" hidden="1">
       <c r="A240" t="str">
         <f t="shared" si="8"/>
         <v>Robot</v>
@@ -26053,7 +26068,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="241" spans="1:24">
+    <row r="241" spans="1:24" hidden="1">
       <c r="A241" t="str">
         <f t="shared" si="8"/>
         <v>Slime</v>
@@ -26114,16 +26129,16 @@
       <c r="V241" s="6"/>
       <c r="W241" s="7"/>
       <c r="X241" s="6" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="242" spans="1:24">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" hidden="1">
       <c r="A242" t="str">
         <f t="shared" si="8"/>
         <v>Hatchling</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>9</v>
@@ -26180,10 +26195,10 @@
       <c r="V242" s="6"/>
       <c r="W242" s="7"/>
       <c r="X242" s="121" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" hidden="1">
       <c r="A243" t="str">
         <f t="shared" si="8"/>
         <v>Imp</v>
@@ -26247,7 +26262,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="244" spans="1:24">
+    <row r="244" spans="1:24" hidden="1">
       <c r="A244" t="str">
         <f t="shared" si="8"/>
         <v>Ashura</v>
@@ -26314,10 +26329,10 @@
       <c r="V244" s="6"/>
       <c r="W244" s="7"/>
       <c r="X244" s="6" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" hidden="1">
       <c r="A245" t="str">
         <f t="shared" si="8"/>
         <v>Venus</v>
@@ -26384,10 +26399,10 @@
       <c r="V245" s="6"/>
       <c r="W245" s="7"/>
       <c r="X245" s="6" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" hidden="1">
       <c r="A246" t="str">
         <f t="shared" si="8"/>
         <v>Sho-gun</v>
@@ -26454,10 +26469,10 @@
       <c r="V246" s="6"/>
       <c r="W246" s="7"/>
       <c r="X246" s="6" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" hidden="1">
       <c r="A247" t="str">
         <f t="shared" si="8"/>
         <v>Magnate</v>
@@ -26526,10 +26541,10 @@
       <c r="V247" s="6"/>
       <c r="W247" s="7"/>
       <c r="X247" s="6" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" hidden="1">
       <c r="A248" t="str">
         <f t="shared" si="8"/>
         <v>Odin</v>
@@ -26581,7 +26596,7 @@
         <v>768</v>
       </c>
       <c r="Q248" s="6" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="R248" s="6" t="s">
         <v>439</v>
@@ -26596,10 +26611,10 @@
       <c r="V248" s="6"/>
       <c r="W248" s="7"/>
       <c r="X248" s="6" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" hidden="1">
       <c r="A249" t="str">
         <f t="shared" si="8"/>
         <v>Minion</v>
@@ -26660,16 +26675,16 @@
         <v>267</v>
       </c>
       <c r="T249" s="6" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="U249" s="6"/>
       <c r="V249" s="6"/>
       <c r="W249" s="7"/>
       <c r="X249" s="6" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" hidden="1">
       <c r="A250" t="str">
         <f t="shared" si="8"/>
         <v>Apollo</v>
@@ -26726,10 +26741,10 @@
       <c r="V250" s="6"/>
       <c r="W250" s="7"/>
       <c r="X250" s="6" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" hidden="1">
       <c r="A251" t="str">
         <f t="shared" si="8"/>
         <v>Arsenal</v>
@@ -26789,7 +26804,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="252" spans="1:24">
+    <row r="252" spans="1:24" hidden="1">
       <c r="A252" t="str">
         <f t="shared" si="8"/>
         <v>Jerk</v>
@@ -26830,16 +26845,16 @@
       </c>
       <c r="Q252" s="6"/>
       <c r="X252" s="6" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" hidden="1">
       <c r="A253" t="str">
         <f t="shared" si="8"/>
         <v>SuperJerk</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C253">
         <v>3</v>
@@ -26885,16 +26900,24 @@
         <v>135</v>
       </c>
       <c r="X253" s="6" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X253" xr:uid="{BF094668-7A42-428C-8430-3CCEFAD0B568}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="A2:A253">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27387,7 +27410,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27940,48 +27963,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="127" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B1" s="127" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C1" s="127" t="s">
         <v>2603</v>
-      </c>
-      <c r="C1" s="127" t="s">
-        <v>2604</v>
       </c>
       <c r="D1" s="127" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="127" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>2593</v>
+      </c>
+      <c r="G1" s="127" t="s">
         <v>2605</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="H1" s="127" t="s">
         <v>2594</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="I1" s="127" t="s">
         <v>2606</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="J1" s="127" t="s">
         <v>2595</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="K1" s="127" t="s">
+        <v>2608</v>
+      </c>
+      <c r="L1" s="127" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M1" s="127" t="s">
         <v>2607</v>
-      </c>
-      <c r="J1" s="127" t="s">
-        <v>2596</v>
-      </c>
-      <c r="K1" s="127" t="s">
-        <v>2609</v>
-      </c>
-      <c r="L1" s="127" t="s">
-        <v>2597</v>
-      </c>
-      <c r="M1" s="127" t="s">
-        <v>2608</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="127" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B2" s="128">
         <v>0</v>
@@ -28022,7 +28045,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="127" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B3" s="128">
         <v>5</v>
@@ -28086,22 +28109,22 @@
         <v>1563</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C1" s="126" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D1" s="126" t="s">
         <v>2598</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="E1" s="126" t="s">
         <v>2599</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="F1" s="126" t="s">
         <v>2600</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="G1" s="126" t="s">
         <v>2601</v>
-      </c>
-      <c r="G1" s="126" t="s">
-        <v>2602</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -37961,10 +37984,10 @@
   <dimension ref="A1:AG259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U260" sqref="U260"/>
+      <selection pane="bottomRight" activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37981,7 +38004,8 @@
     <col min="21" max="21" width="9.85546875" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="40.28515625" customWidth="1"/>
-    <col min="28" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37999,7 +38023,7 @@
         <v>1640</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="F1" s="88" t="s">
         <v>1641</v>
@@ -38014,10 +38038,10 @@
         <v>115</v>
       </c>
       <c r="J1" s="89" t="s">
+        <v>2582</v>
+      </c>
+      <c r="K1" s="89" t="s">
         <v>2583</v>
-      </c>
-      <c r="K1" s="89" t="s">
-        <v>2584</v>
       </c>
       <c r="L1" s="90" t="s">
         <v>1644</v>
@@ -38038,7 +38062,7 @@
         <v>1648</v>
       </c>
       <c r="T1" s="93" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="U1" s="93" t="s">
         <v>2294</v>
@@ -38068,13 +38092,13 @@
         <v>2329</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>2338</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>2347</v>
@@ -39140,10 +39164,10 @@
         <v>2295</v>
       </c>
       <c r="AG17" t="s">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" hidden="1">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -39209,8 +39233,8 @@
       <c r="Z18">
         <v>320</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
+      <c r="AA18" t="s">
+        <v>4</v>
       </c>
       <c r="AE18">
         <v>100</v>
@@ -39579,7 +39603,7 @@
         <v>2296</v>
       </c>
       <c r="AC24" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="AE24">
         <v>90</v>
@@ -39633,7 +39657,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W25" t="s">
         <v>2332</v>
@@ -39696,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W26" t="s">
         <v>2332</v>
@@ -39759,7 +39783,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W27" t="s">
         <v>2332</v>
@@ -39819,7 +39843,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W28" t="s">
         <v>2332</v>
@@ -39965,7 +39989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" hidden="1">
+    <row r="31" spans="1:33">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
@@ -40034,8 +40058,8 @@
       <c r="AA31">
         <v>84</v>
       </c>
-      <c r="AE31">
-        <v>999</v>
+      <c r="AC31" t="s">
+        <v>2644</v>
       </c>
     </row>
     <row r="32" spans="1:33" hidden="1">
@@ -40736,7 +40760,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="43" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
@@ -40936,7 +40960,7 @@
         <v>1741</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W45" t="s">
         <v>1813</v>
@@ -40988,7 +41012,7 @@
         <v>1745</v>
       </c>
       <c r="T46" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W46" t="s">
         <v>1813</v>
@@ -41040,7 +41064,7 @@
         <v>1748</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W47" t="s">
         <v>1813</v>
@@ -41092,7 +41116,7 @@
         <v>1705</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W48" t="s">
         <v>1813</v>
@@ -41147,7 +41171,7 @@
         <v>1741</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W49" t="s">
         <v>1813</v>
@@ -41199,7 +41223,7 @@
         <v>1745</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W50" t="s">
         <v>1813</v>
@@ -41251,7 +41275,7 @@
         <v>1748</v>
       </c>
       <c r="T51" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W51" t="s">
         <v>1813</v>
@@ -41303,13 +41327,13 @@
         <v>1751</v>
       </c>
       <c r="T52" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W52" t="s">
         <v>1813</v>
       </c>
       <c r="Y52" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="53" spans="1:29" hidden="1">
@@ -41358,7 +41382,7 @@
         <v>1705</v>
       </c>
       <c r="T53" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W53" t="s">
         <v>1813</v>
@@ -41413,7 +41437,7 @@
         <v>1741</v>
       </c>
       <c r="T54" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W54" t="s">
         <v>1813</v>
@@ -41465,7 +41489,7 @@
         <v>1745</v>
       </c>
       <c r="T55" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W55" t="s">
         <v>1813</v>
@@ -41517,7 +41541,7 @@
         <v>1748</v>
       </c>
       <c r="T56" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W56" t="s">
         <v>1813</v>
@@ -41573,7 +41597,7 @@
         <v>1751</v>
       </c>
       <c r="T57" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W57" t="s">
         <v>1813</v>
@@ -41625,7 +41649,7 @@
         <v>1705</v>
       </c>
       <c r="T58" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W58" t="s">
         <v>1813</v>
@@ -41684,7 +41708,7 @@
         <v>1748</v>
       </c>
       <c r="T59" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W59" t="s">
         <v>1813</v>
@@ -41740,7 +41764,7 @@
         <v>1751</v>
       </c>
       <c r="T60" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W60" t="s">
         <v>1813</v>
@@ -41792,7 +41816,7 @@
         <v>1</v>
       </c>
       <c r="T61" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W61" t="s">
         <v>2332</v>
@@ -41804,7 +41828,7 @@
         <v>999</v>
       </c>
       <c r="AB61" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="AC61" t="s">
         <v>74</v>
@@ -41858,7 +41882,7 @@
         <v>1</v>
       </c>
       <c r="T62" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W62" t="s">
         <v>2332</v>
@@ -41914,7 +41938,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W63" t="s">
         <v>2332</v>
@@ -41964,7 +41988,7 @@
         <v>1</v>
       </c>
       <c r="T64" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W64" t="s">
         <v>2332</v>
@@ -42014,7 +42038,7 @@
         <v>1</v>
       </c>
       <c r="T65" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W65" t="s">
         <v>2332</v>
@@ -42064,7 +42088,7 @@
         <v>1</v>
       </c>
       <c r="T66" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W66" t="s">
         <v>2332</v>
@@ -42112,7 +42136,7 @@
         <v>1</v>
       </c>
       <c r="T67" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W67" t="s">
         <v>2332</v>
@@ -42181,7 +42205,7 @@
         <v>2295</v>
       </c>
       <c r="AC68" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="AE68">
         <v>57</v>
@@ -42251,7 +42275,7 @@
         <v>2295</v>
       </c>
       <c r="AC69" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="AE69">
         <v>60</v>
@@ -42316,7 +42340,7 @@
         <v>2295</v>
       </c>
       <c r="AC70" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="AE70">
         <v>10</v>
@@ -42386,7 +42410,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:33" hidden="1">
+    <row r="72" spans="1:33">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
         <v>Colt Gun</v>
@@ -42466,7 +42490,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="73" spans="1:33" hidden="1">
+    <row r="73" spans="1:33">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
         <v>Musket Gun</v>
@@ -42544,7 +42568,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="74" spans="1:33" hidden="1">
+    <row r="74" spans="1:33">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
         <v>Magnum Gun</v>
@@ -42622,7 +42646,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" hidden="1">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
         <v>Strike</v>
@@ -42632,7 +42656,7 @@
         <v>Strike</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>2306</v>
@@ -42672,10 +42696,10 @@
         <v>1733</v>
       </c>
       <c r="T75" s="5" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="U75" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="V75">
         <v>4</v>
@@ -42690,7 +42714,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" hidden="1">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
         <v>Elbow</v>
@@ -42700,7 +42724,7 @@
         <v>Elbow</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>2306</v>
@@ -42740,10 +42764,10 @@
         <v>1869</v>
       </c>
       <c r="T76" s="5" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="U76" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -42755,10 +42779,10 @@
         <v>2295</v>
       </c>
       <c r="AG76" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" hidden="1">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
         <v>HeadButt</v>
@@ -42768,7 +42792,7 @@
         <v>HeadButt</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>2306</v>
@@ -42808,10 +42832,10 @@
         <v>1736</v>
       </c>
       <c r="T77" s="5" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="U77" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="V77">
         <v>6</v>
@@ -42823,7 +42847,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" hidden="1">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
         <v>Roundhouse</v>
@@ -42833,7 +42857,7 @@
         <v>Roundhouse</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>2306</v>
@@ -42873,10 +42897,10 @@
         <v>1874</v>
       </c>
       <c r="T78" s="5" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="U78" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="V78">
         <v>7</v>
@@ -42888,10 +42912,10 @@
         <v>2295</v>
       </c>
       <c r="AG78" t="s">
-        <v>2578</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" hidden="1">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
         <v>Jyudo</v>
@@ -42941,10 +42965,10 @@
         <v>1778</v>
       </c>
       <c r="T79" s="5" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="U79" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="V79">
         <v>9</v>
@@ -42956,7 +42980,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" hidden="1">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
         <v>Karate</v>
@@ -43008,10 +43032,10 @@
         <v>1880</v>
       </c>
       <c r="T80" s="5" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="U80" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="V80">
         <v>12</v>
@@ -43084,7 +43108,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="82" spans="1:33" hidden="1">
+    <row r="82" spans="1:33">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
         <v>StunGun</v>
@@ -43153,7 +43177,7 @@
         <v>1884</v>
       </c>
       <c r="AG82" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="83" spans="1:33" hidden="1">
@@ -43321,7 +43345,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="43" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="O85" s="19"/>
       <c r="P85" s="19"/>
@@ -43346,10 +43370,10 @@
         <v>10</v>
       </c>
       <c r="AG85" t="s">
-        <v>2589</v>
-      </c>
-    </row>
-    <row r="86" spans="1:33" hidden="1">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
         <v>SMG Gun</v>
@@ -43420,13 +43444,13 @@
         <v>25</v>
       </c>
       <c r="AE86">
-        <v>999</v>
+        <v>45</v>
       </c>
       <c r="AF86" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="87" spans="1:33" hidden="1">
+    <row r="87" spans="1:33">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
         <v>Grenade</v>
@@ -43493,11 +43517,11 @@
       <c r="AA87">
         <v>0</v>
       </c>
-      <c r="AE87">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:33" hidden="1">
+      <c r="AC87" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
         <v>Bazooka</v>
@@ -43566,13 +43590,13 @@
         <v>49</v>
       </c>
       <c r="AE88">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="AF88" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="89" spans="1:33" hidden="1">
+    <row r="89" spans="1:33">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
         <v>Vulcan</v>
@@ -43641,13 +43665,13 @@
         <v>66</v>
       </c>
       <c r="AE89">
-        <v>999</v>
+        <v>150</v>
       </c>
       <c r="AF89" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="90" spans="1:33" hidden="1">
+    <row r="90" spans="1:33">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
         <v>Tank</v>
@@ -43716,7 +43740,7 @@
         <v>85</v>
       </c>
       <c r="AC90" t="s">
-        <v>2296</v>
+        <v>2645</v>
       </c>
       <c r="AE90">
         <v>70</v>
@@ -43725,7 +43749,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="91" spans="1:33" hidden="1">
+    <row r="91" spans="1:33">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
         <v>Fire Gun</v>
@@ -43798,14 +43822,14 @@
         <f>Z91*0.1</f>
         <v>25</v>
       </c>
-      <c r="AE91">
-        <v>999</v>
+      <c r="AC91" t="s">
+        <v>2644</v>
       </c>
       <c r="AF91" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="92" spans="1:33" hidden="1">
+    <row r="92" spans="1:33">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
         <v>Missile</v>
@@ -43872,14 +43896,14 @@
       <c r="AA92">
         <v>100</v>
       </c>
-      <c r="AE92">
-        <v>999</v>
+      <c r="AC92" t="s">
+        <v>2644</v>
       </c>
       <c r="AF92" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="93" spans="1:33" hidden="1">
+    <row r="93" spans="1:33">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
         <v>NukeBomb</v>
@@ -43929,7 +43953,7 @@
         <v>16</v>
       </c>
       <c r="T93" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="U93" t="s">
         <v>2340</v>
@@ -43946,8 +43970,8 @@
       <c r="AA93">
         <v>100</v>
       </c>
-      <c r="AE93">
-        <v>999</v>
+      <c r="AC93" t="s">
+        <v>2644</v>
       </c>
     </row>
     <row r="94" spans="1:33" hidden="1">
@@ -44000,7 +44024,7 @@
         <v>1751</v>
       </c>
       <c r="T94" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W94" t="s">
         <v>1813</v>
@@ -44052,7 +44076,7 @@
         <v>1751</v>
       </c>
       <c r="T95" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W95" t="s">
         <v>1813</v>
@@ -44104,7 +44128,7 @@
         <v>1915</v>
       </c>
       <c r="T96" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W96" t="s">
         <v>1813</v>
@@ -44160,7 +44184,7 @@
         <v>1745</v>
       </c>
       <c r="T97" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W97" t="s">
         <v>1813</v>
@@ -44234,7 +44258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:33" hidden="1">
+    <row r="99" spans="1:33">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
         <v>Coin</v>
@@ -44299,7 +44323,7 @@
         <v>50</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE99">
         <v>80</v>
@@ -44355,7 +44379,7 @@
         <v>1741</v>
       </c>
       <c r="T100" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W100" t="s">
         <v>1813</v>
@@ -44485,7 +44509,7 @@
         <v>2295</v>
       </c>
       <c r="Y102" t="s">
-        <v>2357</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="103" spans="1:33" hidden="1">
@@ -44622,7 +44646,7 @@
         <v>2295</v>
       </c>
       <c r="AG104" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="105" spans="1:33" hidden="1">
@@ -44751,7 +44775,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="107" spans="1:33" hidden="1">
+    <row r="107" spans="1:33">
       <c r="A107" t="str">
         <f t="shared" si="12"/>
         <v>Laser Gun</v>
@@ -44816,8 +44840,8 @@
       <c r="AA107">
         <v>50</v>
       </c>
-      <c r="AE107">
-        <v>999</v>
+      <c r="AC107" t="s">
+        <v>2643</v>
       </c>
       <c r="AF107" t="s">
         <v>748</v>
@@ -44890,7 +44914,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="109" spans="1:33" hidden="1">
+    <row r="109" spans="1:33">
       <c r="A109" t="str">
         <f t="shared" si="12"/>
         <v>Rocket</v>
@@ -45077,7 +45101,7 @@
         <v>1751</v>
       </c>
       <c r="T111" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W111" t="s">
         <v>1813</v>
@@ -45133,7 +45157,7 @@
         <v>16</v>
       </c>
       <c r="T112" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="U112" t="s">
         <v>2341</v>
@@ -45198,7 +45222,7 @@
         <v>1925</v>
       </c>
       <c r="T113" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W113" t="s">
         <v>1813</v>
@@ -45234,7 +45258,7 @@
         <v>73</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="K114" s="5">
         <v>15</v>
@@ -45252,13 +45276,13 @@
         <v>1962</v>
       </c>
       <c r="T114" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W114" t="s">
         <v>1813</v>
       </c>
       <c r="Y114" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="115" spans="1:31" hidden="1">
@@ -45303,7 +45327,7 @@
         <v>1</v>
       </c>
       <c r="T115" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W115" t="s">
         <v>2332</v>
@@ -45353,7 +45377,7 @@
         <v>1</v>
       </c>
       <c r="T116" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W116" t="s">
         <v>2333</v>
@@ -45401,13 +45425,13 @@
         <v>1</v>
       </c>
       <c r="T117" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W117" t="s">
         <v>2333</v>
       </c>
     </row>
-    <row r="118" spans="1:31" hidden="1">
+    <row r="118" spans="1:31">
       <c r="A118" t="str">
         <f t="shared" si="12"/>
         <v>Masmune Magi</v>
@@ -45455,7 +45479,7 @@
         <v>1</v>
       </c>
       <c r="T118" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="U118" t="s">
         <v>2340</v>
@@ -45524,7 +45548,7 @@
         <v>1</v>
       </c>
       <c r="T119" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W119" t="s">
         <v>2334</v>
@@ -45533,7 +45557,7 @@
         <v>2296</v>
       </c>
       <c r="Y119" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="AC119" t="s">
         <v>570</v>
@@ -45590,7 +45614,7 @@
         <v>1</v>
       </c>
       <c r="T120" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W120" t="s">
         <v>2334</v>
@@ -45602,7 +45626,7 @@
         <v>999</v>
       </c>
       <c r="AB120" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="AC120" t="s">
         <v>74</v>
@@ -45653,7 +45677,7 @@
         <v>1</v>
       </c>
       <c r="T121" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W121" t="s">
         <v>2334</v>
@@ -45695,19 +45719,19 @@
         <v>0</v>
       </c>
       <c r="N122" s="43" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="S122" s="5">
         <v>1</v>
       </c>
       <c r="T122" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W122" t="s">
         <v>1813</v>
       </c>
       <c r="AC122" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="AE122">
         <v>10</v>
@@ -45751,7 +45775,7 @@
         <v>0</v>
       </c>
       <c r="N123" s="43" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="O123" s="19"/>
       <c r="P123" s="19"/>
@@ -46648,7 +46672,7 @@
         <v>2295</v>
       </c>
       <c r="AG137" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="138" spans="1:33" hidden="1">
@@ -47161,7 +47185,7 @@
         <v>25</v>
       </c>
       <c r="AG145" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="146" spans="1:33" hidden="1">
@@ -47221,7 +47245,7 @@
         <v>2295</v>
       </c>
       <c r="AC146" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="AE146">
         <v>10</v>
@@ -47293,7 +47317,7 @@
         <v>33</v>
       </c>
       <c r="AG147" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="148" spans="1:33" hidden="1">
@@ -47362,7 +47386,7 @@
         <v>25</v>
       </c>
       <c r="AG148" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="149" spans="1:33" hidden="1">
@@ -48350,7 +48374,7 @@
         <v>2298</v>
       </c>
       <c r="AB164" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="AC164" t="s">
         <v>74</v>
@@ -48484,7 +48508,7 @@
         <v>1884</v>
       </c>
       <c r="AG166" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="167" spans="1:33" hidden="1">
@@ -49347,7 +49371,7 @@
         <v>Lightning</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="5">
@@ -49580,7 +49604,7 @@
         <v>2299</v>
       </c>
       <c r="Y184" t="s">
-        <v>1486</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="185" spans="1:28" hidden="1">
@@ -49643,7 +49667,7 @@
         <v>2299</v>
       </c>
       <c r="Y185" t="s">
-        <v>2357</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="186" spans="1:28" hidden="1">
@@ -49769,7 +49793,7 @@
         <v>2299</v>
       </c>
       <c r="Y187" t="s">
-        <v>1486</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="188" spans="1:28" hidden="1">
@@ -50136,7 +50160,7 @@
         <v>DeathGaze</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="D194" s="6"/>
       <c r="E194" s="5">
@@ -50185,7 +50209,7 @@
         <v>2349</v>
       </c>
       <c r="AG194" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="195" spans="1:33" hidden="1">
@@ -50493,7 +50517,7 @@
         <v>EvilEye</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="5">
@@ -50542,7 +50566,7 @@
         <v>1764</v>
       </c>
       <c r="AG200" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="201" spans="1:33" hidden="1">
@@ -51474,7 +51498,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="216" spans="1:29" hidden="1">
+    <row r="216" spans="1:29">
       <c r="A216" t="str">
         <f t="shared" si="19"/>
         <v>Explode</v>
@@ -51536,7 +51560,7 @@
         <v>0</v>
       </c>
       <c r="AC216" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="217" spans="1:29" hidden="1">
@@ -51823,7 +51847,7 @@
         <v>1</v>
       </c>
       <c r="T221" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W221" t="s">
         <v>2335</v>
@@ -51873,7 +51897,7 @@
         <v>1</v>
       </c>
       <c r="T222" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W222" t="s">
         <v>2335</v>
@@ -51981,7 +52005,7 @@
         <v>1</v>
       </c>
       <c r="T224" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W224" t="s">
         <v>2335</v>
@@ -52036,7 +52060,7 @@
         <v>1</v>
       </c>
       <c r="T225" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W225" t="s">
         <v>2335</v>
@@ -52091,7 +52115,7 @@
         <v>1</v>
       </c>
       <c r="T226" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W226" t="s">
         <v>2335</v>
@@ -52146,7 +52170,7 @@
         <v>1</v>
       </c>
       <c r="T227" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W227" t="s">
         <v>2335</v>
@@ -52201,13 +52225,13 @@
         <v>1</v>
       </c>
       <c r="T228" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W228" t="s">
         <v>2335</v>
       </c>
       <c r="Y228" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="229" spans="1:33" hidden="1">
@@ -52256,7 +52280,7 @@
         <v>1</v>
       </c>
       <c r="T229" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W229" t="s">
         <v>2335</v>
@@ -52311,7 +52335,7 @@
         <v>1</v>
       </c>
       <c r="T230" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W230" t="s">
         <v>2335</v>
@@ -52366,13 +52390,13 @@
         <v>1</v>
       </c>
       <c r="T231" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W231" t="s">
         <v>2335</v>
       </c>
       <c r="Y231" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="232" spans="1:33" hidden="1">
@@ -52421,7 +52445,7 @@
         <v>1</v>
       </c>
       <c r="T232" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W232" t="s">
         <v>2335</v>
@@ -52476,7 +52500,7 @@
         <v>1</v>
       </c>
       <c r="T233" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W233" t="s">
         <v>2335</v>
@@ -52531,7 +52555,7 @@
         <v>1</v>
       </c>
       <c r="T234" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W234" t="s">
         <v>2335</v>
@@ -52540,7 +52564,7 @@
         <v>159</v>
       </c>
       <c r="AC234" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="235" spans="1:33" hidden="1">
@@ -52589,7 +52613,7 @@
         <v>1</v>
       </c>
       <c r="T235" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W235" t="s">
         <v>2335</v>
@@ -52598,7 +52622,7 @@
         <v>439</v>
       </c>
       <c r="AC235" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="236" spans="1:33" hidden="1">
@@ -52647,7 +52671,7 @@
         <v>1</v>
       </c>
       <c r="T236" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W236" t="s">
         <v>2335</v>
@@ -52656,7 +52680,7 @@
         <v>241</v>
       </c>
       <c r="AC236" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="237" spans="1:33" hidden="1">
@@ -52699,7 +52723,7 @@
         <v>1</v>
       </c>
       <c r="T237" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W237" t="s">
         <v>2138</v>
@@ -52761,7 +52785,7 @@
         <v>2298</v>
       </c>
       <c r="AB238" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="239" spans="1:33" hidden="1">
@@ -52810,13 +52834,13 @@
         <v>1</v>
       </c>
       <c r="T239" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W239" t="s">
         <v>2335</v>
       </c>
       <c r="Y239" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="240" spans="1:33" hidden="1">
@@ -52927,7 +52951,7 @@
         <v>1</v>
       </c>
       <c r="T241" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W241" t="s">
         <v>2337</v>
@@ -52977,7 +53001,7 @@
         <v>1</v>
       </c>
       <c r="T242" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W242" t="s">
         <v>2337</v>
@@ -53023,13 +53047,13 @@
         <v>1</v>
       </c>
       <c r="T243" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W243" t="s">
         <v>2335</v>
       </c>
       <c r="AC243" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="AE243">
         <v>10</v>
@@ -53525,7 +53549,7 @@
         <v>2295</v>
       </c>
       <c r="AG252" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="253" spans="1:33" hidden="1">
@@ -53598,10 +53622,10 @@
         <v>25</v>
       </c>
       <c r="AG253" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="254" spans="1:33" hidden="1">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="254" spans="1:33">
       <c r="A254" t="str">
         <f t="shared" si="26"/>
         <v>Glass Sword</v>
@@ -53651,7 +53675,7 @@
         <v>1689</v>
       </c>
       <c r="T254" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="U254" t="s">
         <v>2340</v>
@@ -53662,14 +53686,14 @@
       <c r="X254" t="s">
         <v>2295</v>
       </c>
-      <c r="Y254" t="s">
-        <v>2328</v>
-      </c>
       <c r="Z254">
         <v>1000</v>
       </c>
       <c r="AA254">
         <v>100</v>
+      </c>
+      <c r="AC254" t="s">
+        <v>2643</v>
       </c>
     </row>
     <row r="255" spans="1:33" hidden="1">
@@ -53736,7 +53760,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:33" hidden="1">
+    <row r="256" spans="1:33">
       <c r="A256" t="str">
         <f t="shared" si="26"/>
         <v>Bow</v>
@@ -53806,7 +53830,7 @@
         <v>4</v>
       </c>
       <c r="AE256">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:33" hidden="1">
@@ -53873,7 +53897,7 @@
         <v>2295</v>
       </c>
       <c r="AG257" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="258" spans="1:33" hidden="1">
@@ -53891,20 +53915,23 @@
       <c r="D258" s="6" t="s">
         <v>2081</v>
       </c>
+      <c r="N258" s="43" t="s">
+        <v>2642</v>
+      </c>
       <c r="S258" s="5">
         <v>1</v>
       </c>
       <c r="T258" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="W258" t="s">
         <v>2335</v>
       </c>
       <c r="Y258" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AG258" t="s">
         <v>2553</v>
-      </c>
-      <c r="AG258" t="s">
-        <v>2554</v>
       </c>
     </row>
     <row r="259" spans="1:33" hidden="1">
@@ -53913,10 +53940,10 @@
         <v>Tremor</v>
       </c>
       <c r="B259" t="s">
+        <v>2589</v>
+      </c>
+      <c r="N259" s="43" t="s">
         <v>2590</v>
-      </c>
-      <c r="N259" s="43" t="s">
-        <v>2591</v>
       </c>
       <c r="T259" s="5" t="s">
         <v>6</v>
@@ -53936,9 +53963,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AG259" xr:uid="{00000000-0009-0000-0000-000005000000}">
-    <filterColumn colId="19">
+    <filterColumn colId="20">
       <filters>
-        <filter val="Mix"/>
+        <filter val="Set"/>
       </filters>
     </filterColumn>
     <sortState ref="A38:AG240">
@@ -54685,7 +54712,7 @@
     <row r="110" spans="1:2">
       <c r="A110" s="98"/>
       <c r="B110" s="98" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -55211,7 +55238,7 @@
     <row r="190" spans="1:2">
       <c r="A190" s="98"/>
       <c r="B190" s="98" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -56444,7 +56471,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="121" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="C1" s="122" t="s">
         <v>2332</v>
@@ -56504,7 +56531,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="121" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B2" t="s">
         <v>477</v>
@@ -56531,7 +56558,7 @@
         <v>77</v>
       </c>
       <c r="J2" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="K2" s="121" t="s">
         <v>597</v>
@@ -56569,7 +56596,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="121" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B3" t="s">
         <v>503</v>
@@ -56596,7 +56623,7 @@
         <v>77</v>
       </c>
       <c r="J3" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="K3" s="121" t="s">
         <v>597</v>
@@ -56634,7 +56661,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="121" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B4" t="s">
         <v>540</v>
@@ -56699,10 +56726,10 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="121" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B5" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C5" s="124">
         <v>6</v>
@@ -56732,7 +56759,7 @@
         <v>57</v>
       </c>
       <c r="L5" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="M5" s="124">
         <v>7</v>
@@ -56756,7 +56783,7 @@
         <v>1679</v>
       </c>
       <c r="T5" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="U5" s="121" t="s">
         <v>57</v>
@@ -56764,7 +56791,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="121" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B6" t="s">
         <v>590</v>
@@ -56818,7 +56845,7 @@
         <v>1686</v>
       </c>
       <c r="S6" s="121" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="T6" s="121" t="s">
         <v>1687</v>
@@ -56829,7 +56856,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="121" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B7" t="s">
         <v>583</v>
@@ -56894,7 +56921,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="121" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B8" t="s">
         <v>2272</v>
@@ -56959,10 +56986,10 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="121" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B9" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="C9" s="124">
         <v>14</v>
@@ -56986,7 +57013,7 @@
         <v>77</v>
       </c>
       <c r="J9" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="K9" s="121" t="s">
         <v>597</v>
@@ -57024,7 +57051,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="121" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B10" t="s">
         <v>1123</v>
@@ -57089,10 +57116,10 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="121" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B11" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="C11" s="124">
         <v>18</v>
@@ -57113,7 +57140,7 @@
         <v>543</v>
       </c>
       <c r="I11" s="121" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="J11" s="121" t="s">
         <v>1723</v>
@@ -57122,7 +57149,7 @@
         <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="M11" s="124">
         <v>19</v>
@@ -57154,10 +57181,10 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="121" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B12" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="C12" s="124">
         <v>20</v>
@@ -57219,7 +57246,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="121" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B13" t="s">
         <v>2276</v>
@@ -57243,7 +57270,7 @@
         <v>712</v>
       </c>
       <c r="I13" s="121" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="J13" s="121" t="s">
         <v>1731</v>
@@ -57284,7 +57311,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="121" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B14" t="s">
         <v>2249</v>
@@ -57349,7 +57376,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="121" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B15" t="s">
         <v>585</v>
@@ -57414,7 +57441,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="121" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B16" t="s">
         <v>592</v>
@@ -57479,7 +57506,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="121" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B17" t="s">
         <v>549</v>
@@ -57500,7 +57527,7 @@
         <v>128</v>
       </c>
       <c r="H17" s="121" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="I17" s="121" t="s">
         <v>774</v>
@@ -57512,7 +57539,7 @@
         <v>1498</v>
       </c>
       <c r="L17" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="M17" s="124">
         <v>31</v>
@@ -57544,7 +57571,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="121" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B18" t="s">
         <v>1768</v>
@@ -57609,10 +57636,10 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="121" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B19" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C19" s="124">
         <v>34</v>
@@ -57663,7 +57690,7 @@
         <v>1776</v>
       </c>
       <c r="S19" s="121" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="T19" s="121" t="s">
         <v>1731</v>
@@ -57674,7 +57701,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="121" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B20" t="s">
         <v>627</v>
@@ -57728,7 +57755,7 @@
         <v>1676</v>
       </c>
       <c r="S20" s="121" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="T20" s="121" t="s">
         <v>1782</v>
@@ -57739,7 +57766,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="121" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B21" t="s">
         <v>630</v>
@@ -57799,12 +57826,12 @@
         <v>485</v>
       </c>
       <c r="U21" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="121" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B22" t="s">
         <v>634</v>
@@ -57869,7 +57896,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="121" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B23" t="s">
         <v>626</v>
@@ -57934,7 +57961,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="121" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B24" t="s">
         <v>637</v>
@@ -57999,7 +58026,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="121" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B25" t="s">
         <v>641</v>
@@ -58064,7 +58091,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="121" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B26" t="s">
         <v>642</v>
@@ -58094,7 +58121,7 @@
         <v>1682</v>
       </c>
       <c r="K26" s="121" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="L26" t="s">
         <v>697</v>
@@ -58129,7 +58156,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="121" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B27" t="s">
         <v>537</v>
@@ -58194,7 +58221,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="121" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B28" t="s">
         <v>593</v>
@@ -58209,7 +58236,7 @@
         <v>77</v>
       </c>
       <c r="F28" s="121" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G28" s="121" t="s">
         <v>77</v>
@@ -58259,7 +58286,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="121" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B29" t="s">
         <v>2270</v>
@@ -58324,7 +58351,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="121" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B30" t="s">
         <v>595</v>
@@ -58339,7 +58366,7 @@
         <v>77</v>
       </c>
       <c r="F30" s="121" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G30" s="121" t="s">
         <v>77</v>
@@ -58357,7 +58384,7 @@
         <v>77</v>
       </c>
       <c r="L30" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="M30" s="124">
         <v>57</v>
@@ -58369,7 +58396,7 @@
         <v>77</v>
       </c>
       <c r="P30" s="121" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="Q30" s="121" t="s">
         <v>77</v>
@@ -58389,7 +58416,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="121" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B31" t="s">
         <v>698</v>
@@ -58454,7 +58481,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="121" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B32" t="s">
         <v>2271</v>
@@ -58519,7 +58546,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="121" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B33" t="s">
         <v>594</v>
@@ -58534,7 +58561,7 @@
         <v>77</v>
       </c>
       <c r="F33" s="121" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="G33" s="121" t="s">
         <v>77</v>
@@ -58552,7 +58579,7 @@
         <v>77</v>
       </c>
       <c r="L33" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="M33" s="124">
         <v>63</v>
@@ -58584,10 +58611,10 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="121" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B34" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C34" s="124">
         <v>64</v>
@@ -58649,10 +58676,10 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="121" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B35" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C35" s="124">
         <v>66</v>
@@ -58682,7 +58709,7 @@
         <v>1498</v>
       </c>
       <c r="L35" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="M35" s="124">
         <v>67</v>
@@ -58714,10 +58741,10 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="121" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B36" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="C36" s="124">
         <v>68</v>
@@ -58747,7 +58774,7 @@
         <v>1498</v>
       </c>
       <c r="L36" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="M36" s="124">
         <v>69</v>
@@ -58779,7 +58806,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="121" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B37" t="s">
         <v>1306</v>
@@ -58812,7 +58839,7 @@
         <v>1498</v>
       </c>
       <c r="L37" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="M37" s="124">
         <v>71</v>
@@ -58844,7 +58871,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="121" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B38" t="s">
         <v>1847</v>
@@ -58871,7 +58898,7 @@
         <v>774</v>
       </c>
       <c r="J38" s="121" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="K38" s="121" t="s">
         <v>181</v>
@@ -58909,7 +58936,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="121" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B39" t="s">
         <v>559</v>
@@ -58936,7 +58963,7 @@
         <v>1665</v>
       </c>
       <c r="J39" s="121" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="K39" s="121" t="s">
         <v>521</v>
@@ -58966,7 +58993,7 @@
         <v>77</v>
       </c>
       <c r="T39" s="121" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="U39" s="121" t="s">
         <v>333</v>
@@ -58974,7 +59001,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="121" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B40" t="s">
         <v>602</v>
@@ -59001,7 +59028,7 @@
         <v>1799</v>
       </c>
       <c r="J40" s="121" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="K40" s="121" t="s">
         <v>543</v>
@@ -59028,10 +59055,10 @@
         <v>463</v>
       </c>
       <c r="S40" s="121" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="T40" s="121" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="U40" s="121" t="s">
         <v>543</v>
@@ -59039,10 +59066,10 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="121" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B41" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C41" s="124">
         <v>78</v>
@@ -59063,16 +59090,16 @@
         <v>27</v>
       </c>
       <c r="I41" s="121" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="J41" s="121" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="K41" s="121" t="s">
         <v>543</v>
       </c>
       <c r="L41" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="M41" s="124">
         <v>79</v>
@@ -59096,7 +59123,7 @@
         <v>27</v>
       </c>
       <c r="T41" s="121" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="U41" s="121" t="s">
         <v>333</v>
@@ -59104,10 +59131,10 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="121" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B42" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C42" s="124">
         <v>80</v>
@@ -59137,7 +59164,7 @@
         <v>333</v>
       </c>
       <c r="L42" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="M42" s="124">
         <v>81</v>
@@ -59169,10 +59196,10 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="121" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B43" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C43" s="124">
         <v>82</v>
@@ -59202,7 +59229,7 @@
         <v>333</v>
       </c>
       <c r="L43" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="M43" s="124">
         <v>83</v>
@@ -59223,7 +59250,7 @@
         <v>1005</v>
       </c>
       <c r="S43" s="121" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="T43" s="121" t="s">
         <v>1875</v>
@@ -59234,10 +59261,10 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="121" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B44" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="C44" s="124">
         <v>84</v>
@@ -59299,7 +59326,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="121" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B45" t="s">
         <v>560</v>
@@ -59364,7 +59391,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="121" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B46" t="s">
         <v>688</v>
@@ -59429,7 +59456,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="121" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B47" t="s">
         <v>607</v>
@@ -59456,7 +59483,7 @@
         <v>77</v>
       </c>
       <c r="J47" s="121" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="K47" s="121" t="s">
         <v>35</v>
@@ -59486,7 +59513,7 @@
         <v>77</v>
       </c>
       <c r="T47" s="121" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="U47" s="121" t="s">
         <v>694</v>
@@ -59494,10 +59521,10 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="121" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B48" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C48" s="124">
         <v>92</v>
@@ -59515,7 +59542,7 @@
         <v>199</v>
       </c>
       <c r="H48" s="121" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="I48" s="121" t="s">
         <v>77</v>
@@ -59551,7 +59578,7 @@
         <v>77</v>
       </c>
       <c r="T48" s="121" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="U48" s="121" t="s">
         <v>35</v>
@@ -59559,7 +59586,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="121" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B49" t="s">
         <v>618</v>
@@ -59624,7 +59651,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="121" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B50" t="s">
         <v>617</v>
@@ -59645,10 +59672,10 @@
         <v>444</v>
       </c>
       <c r="H50" s="121" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="I50" s="121" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="J50" s="121" t="s">
         <v>1679</v>
@@ -59678,7 +59705,7 @@
         <v>1776</v>
       </c>
       <c r="S50" s="121" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="T50" s="121" t="s">
         <v>1907</v>
@@ -59689,7 +59716,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="121" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B51" t="s">
         <v>2250</v>
@@ -59754,7 +59781,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="121" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B52" t="s">
         <v>612</v>
@@ -59787,7 +59814,7 @@
         <v>77</v>
       </c>
       <c r="L52" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="M52" s="124">
         <v>101</v>
@@ -59819,7 +59846,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="121" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B53" t="s">
         <v>708</v>
@@ -59846,7 +59873,7 @@
         <v>77</v>
       </c>
       <c r="J53" s="121" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="K53" s="121" t="s">
         <v>1712</v>
@@ -59876,7 +59903,7 @@
         <v>463</v>
       </c>
       <c r="T53" s="121" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="U53" s="121" t="s">
         <v>163</v>
@@ -59884,7 +59911,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="121" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B54" t="s">
         <v>710</v>
@@ -59908,7 +59935,7 @@
         <v>521</v>
       </c>
       <c r="I54" s="121" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="J54" s="121" t="s">
         <v>458</v>
@@ -59935,10 +59962,10 @@
         <v>543</v>
       </c>
       <c r="R54" s="121" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="S54" s="121" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="T54" s="121" t="s">
         <v>1887</v>
@@ -59949,7 +59976,7 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="121" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B55" t="s">
         <v>1926</v>
@@ -59982,7 +60009,7 @@
         <v>57</v>
       </c>
       <c r="L55" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="M55" s="124">
         <v>107</v>
@@ -60014,7 +60041,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="121" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B56" t="s">
         <v>615</v>
@@ -60079,7 +60106,7 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="121" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B57" t="s">
         <v>622</v>
@@ -60144,7 +60171,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="121" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B58" t="s">
         <v>1945</v>
@@ -60201,7 +60228,7 @@
         <v>187</v>
       </c>
       <c r="T58" s="121" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="U58" s="121" t="s">
         <v>333</v>
@@ -60209,10 +60236,10 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="121" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B59" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C59" s="124">
         <v>114</v>
@@ -60274,10 +60301,10 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="121" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B60" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="C60" s="124">
         <v>116</v>
@@ -60339,10 +60366,10 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="121" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B61" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="C61" s="124">
         <v>118</v>
@@ -60372,7 +60399,7 @@
         <v>77</v>
       </c>
       <c r="L61" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="M61" s="124">
         <v>119</v>
@@ -60404,10 +60431,10 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="121" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B62" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C62" s="124">
         <v>120</v>
@@ -60437,7 +60464,7 @@
         <v>1498</v>
       </c>
       <c r="L62" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="M62" s="124">
         <v>121</v>
@@ -60469,7 +60496,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="121" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B63" t="s">
         <v>721</v>
@@ -60520,10 +60547,10 @@
         <v>694</v>
       </c>
       <c r="R63" s="121" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="S63" s="121" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="T63" s="121" t="s">
         <v>458</v>
@@ -60534,7 +60561,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="121" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B64" t="s">
         <v>723</v>
@@ -60599,7 +60626,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="121" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B65" t="s">
         <v>656</v>
@@ -60664,7 +60691,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="121" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B66" t="s">
         <v>316</v>
@@ -60691,7 +60718,7 @@
         <v>77</v>
       </c>
       <c r="J66" s="121" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="K66" s="121" t="s">
         <v>333</v>
@@ -60729,7 +60756,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="121" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B67" t="s">
         <v>277</v>
@@ -60794,7 +60821,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="121" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B68" t="s">
         <v>59</v>
@@ -60859,7 +60886,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="121" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
@@ -60886,7 +60913,7 @@
         <v>77</v>
       </c>
       <c r="J69" s="121" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="K69" s="121" t="s">
         <v>333</v>
@@ -60924,7 +60951,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="121" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B70" t="s">
         <v>197</v>
@@ -60989,7 +61016,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="121" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B71" t="s">
         <v>108</v>
@@ -61054,7 +61081,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="121" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B72" t="s">
         <v>346</v>
@@ -61081,7 +61108,7 @@
         <v>77</v>
       </c>
       <c r="J72" s="121" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="K72" s="121" t="s">
         <v>1712</v>
@@ -61111,7 +61138,7 @@
         <v>77</v>
       </c>
       <c r="T72" s="121" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="U72" s="121" t="s">
         <v>333</v>
@@ -61119,7 +61146,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="121" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B73" t="s">
         <v>205</v>
@@ -61184,7 +61211,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="121" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B74" t="s">
         <v>229</v>
@@ -61211,7 +61238,7 @@
         <v>77</v>
       </c>
       <c r="J74" s="121" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="K74" s="121" t="s">
         <v>333</v>
@@ -61249,7 +61276,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="121" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B75" t="s">
         <v>118</v>
@@ -61314,7 +61341,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="121" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B76" t="s">
         <v>237</v>
@@ -61341,7 +61368,7 @@
         <v>1000</v>
       </c>
       <c r="J76" s="121" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="K76" s="121" t="s">
         <v>333</v>
@@ -61368,7 +61395,7 @@
         <v>543</v>
       </c>
       <c r="S76" s="121" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="T76" s="121" t="s">
         <v>2002</v>
@@ -61379,7 +61406,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="121" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B77" t="s">
         <v>502</v>
@@ -61406,7 +61433,7 @@
         <v>1665</v>
       </c>
       <c r="J77" s="121" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="K77" s="121" t="s">
         <v>162</v>
@@ -61444,7 +61471,7 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="121" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B78" t="s">
         <v>54</v>
@@ -61509,7 +61536,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="121" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B79" t="s">
         <v>115</v>
@@ -61574,7 +61601,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="121" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B80" t="e">
         <v>#N/A</v>
@@ -61639,7 +61666,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="121" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B81" t="s">
         <v>2355</v>
@@ -61704,7 +61731,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="121" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B82" t="s">
         <v>428</v>
@@ -61769,7 +61796,7 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="121" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B83" t="s">
         <v>412</v>
@@ -61834,7 +61861,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="121" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B84" t="s">
         <v>456</v>
@@ -61899,7 +61926,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="121" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B85" t="s">
         <v>503</v>
@@ -61926,7 +61953,7 @@
         <v>77</v>
       </c>
       <c r="J85" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="K85" s="121" t="s">
         <v>597</v>
@@ -61964,7 +61991,7 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="121" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B86" t="s">
         <v>74</v>
@@ -62029,7 +62056,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="121" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B87" t="s">
         <v>402</v>
@@ -62094,7 +62121,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="121" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B88" t="s">
         <v>65</v>
@@ -62159,7 +62186,7 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="121" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B89" t="s">
         <v>394</v>
@@ -62224,7 +62251,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="121" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B90" t="e">
         <v>#N/A</v>
@@ -62289,7 +62316,7 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="121" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B91" t="s">
         <v>268</v>
@@ -62346,7 +62373,7 @@
         <v>162</v>
       </c>
       <c r="T91" s="121" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="U91" s="121" t="s">
         <v>1791</v>
@@ -62354,7 +62381,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="121" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B92" t="s">
         <v>362</v>
@@ -62419,7 +62446,7 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="121" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B93" t="s">
         <v>439</v>
@@ -62449,7 +62476,7 @@
         <v>485</v>
       </c>
       <c r="K93" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="L93" t="s">
         <v>159</v>
@@ -62484,7 +62511,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="121" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B94" t="s">
         <v>49</v>
@@ -62493,7 +62520,7 @@
         <v>184</v>
       </c>
       <c r="D94" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E94" s="121" t="s">
         <v>77</v>
@@ -62523,7 +62550,7 @@
         <v>185</v>
       </c>
       <c r="N94" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="O94" s="121" t="s">
         <v>77</v>
@@ -62549,7 +62576,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="121" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B95" t="s">
         <v>267</v>
@@ -62558,7 +62585,7 @@
         <v>186</v>
       </c>
       <c r="D95" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E95" s="121" t="s">
         <v>77</v>
@@ -62579,16 +62606,16 @@
         <v>1823</v>
       </c>
       <c r="K95" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="L95" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="M95" s="124">
         <v>187</v>
       </c>
       <c r="N95" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="O95" s="121" t="s">
         <v>77</v>
@@ -62614,7 +62641,7 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="121" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B96" t="s">
         <v>109</v>
@@ -62653,7 +62680,7 @@
         <v>189</v>
       </c>
       <c r="N96" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="O96" s="121" t="s">
         <v>77</v>
@@ -62679,7 +62706,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="121" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B97" t="s">
         <v>442</v>
@@ -62703,7 +62730,7 @@
         <v>1676</v>
       </c>
       <c r="I97" s="121" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="J97" s="121" t="s">
         <v>1782</v>
@@ -62744,7 +62771,7 @@
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="121" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="B98" t="s">
         <v>257</v>
@@ -62798,7 +62825,7 @@
         <v>1676</v>
       </c>
       <c r="S98" s="121" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="T98" s="121" t="s">
         <v>2035</v>
@@ -62809,7 +62836,7 @@
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="121" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B99" t="s">
         <v>21</v>
@@ -62874,7 +62901,7 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="121" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B100" t="s">
         <v>173</v>
@@ -62939,7 +62966,7 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="121" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B101" t="s">
         <v>84</v>
@@ -63004,10 +63031,10 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="121" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B102" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="C102" s="124">
         <v>200</v>
@@ -63069,7 +63096,7 @@
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="121" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B103" t="s">
         <v>25</v>
@@ -63134,7 +63161,7 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="121" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B104" t="s">
         <v>230</v>
@@ -63199,10 +63226,10 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" s="121" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B105" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="C105" s="124">
         <v>206</v>
@@ -63264,7 +63291,7 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" s="121" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B106" t="s">
         <v>165</v>
@@ -63329,7 +63356,7 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="121" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B107" t="s">
         <v>143</v>
@@ -63394,7 +63421,7 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="121" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B108" t="s">
         <v>185</v>
@@ -63459,7 +63486,7 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="121" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B109" t="s">
         <v>429</v>
@@ -63524,7 +63551,7 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="121" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B110" t="s">
         <v>2326</v>
@@ -63563,7 +63590,7 @@
         <v>217</v>
       </c>
       <c r="N110" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="O110" s="121" t="s">
         <v>77</v>
@@ -63581,7 +63608,7 @@
         <v>77</v>
       </c>
       <c r="T110" s="121" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="U110" s="121" t="s">
         <v>36</v>
@@ -63589,7 +63616,7 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="121" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B111" t="s">
         <v>88</v>
@@ -63598,7 +63625,7 @@
         <v>218</v>
       </c>
       <c r="D111" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E111" s="121" t="s">
         <v>77</v>
@@ -63628,7 +63655,7 @@
         <v>219</v>
       </c>
       <c r="N111" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="O111" s="121" t="s">
         <v>77</v>
@@ -63654,7 +63681,7 @@
     </row>
     <row r="112" spans="1:21">
       <c r="A112" s="121" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B112" t="s">
         <v>483</v>
@@ -63663,7 +63690,7 @@
         <v>220</v>
       </c>
       <c r="D112" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E112" s="121" t="s">
         <v>77</v>
@@ -63684,7 +63711,7 @@
         <v>1682</v>
       </c>
       <c r="K112" s="121" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="L112" t="s">
         <v>201</v>
@@ -63693,7 +63720,7 @@
         <v>221</v>
       </c>
       <c r="N112" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="O112" s="121" t="s">
         <v>77</v>
@@ -63719,7 +63746,7 @@
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="121" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B113" t="s">
         <v>179</v>
@@ -63728,7 +63755,7 @@
         <v>222</v>
       </c>
       <c r="D113" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E113" s="121" t="s">
         <v>77</v>
@@ -63758,7 +63785,7 @@
         <v>223</v>
       </c>
       <c r="N113" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="O113" s="121" t="s">
         <v>77</v>
@@ -63784,7 +63811,7 @@
     </row>
     <row r="114" spans="1:21">
       <c r="A114" s="121" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B114" t="s">
         <v>68</v>
@@ -63793,7 +63820,7 @@
         <v>224</v>
       </c>
       <c r="D114" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E114" s="121" t="s">
         <v>77</v>
@@ -63823,7 +63850,7 @@
         <v>225</v>
       </c>
       <c r="N114" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="O114" s="121" t="s">
         <v>77</v>
@@ -63849,7 +63876,7 @@
     </row>
     <row r="115" spans="1:21">
       <c r="A115" s="121" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B115" t="s">
         <v>288</v>
@@ -63858,7 +63885,7 @@
         <v>226</v>
       </c>
       <c r="D115" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E115" s="121" t="s">
         <v>77</v>
@@ -63914,7 +63941,7 @@
     </row>
     <row r="116" spans="1:21">
       <c r="A116" s="121" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B116" t="s">
         <v>69</v>
@@ -63979,7 +64006,7 @@
     </row>
     <row r="117" spans="1:21">
       <c r="A117" s="121" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B117" t="s">
         <v>139</v>
@@ -63994,7 +64021,7 @@
         <v>77</v>
       </c>
       <c r="F117" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="G117" s="121" t="s">
         <v>77</v>
@@ -64024,7 +64051,7 @@
         <v>77</v>
       </c>
       <c r="P117" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="Q117" s="121" t="s">
         <v>77</v>
@@ -64044,7 +64071,7 @@
     </row>
     <row r="118" spans="1:21">
       <c r="A118" s="121" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B118" t="s">
         <v>50</v>
@@ -64059,7 +64086,7 @@
         <v>77</v>
       </c>
       <c r="F118" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="G118" s="121" t="s">
         <v>77</v>
@@ -64089,7 +64116,7 @@
         <v>77</v>
       </c>
       <c r="P118" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="Q118" s="121" t="s">
         <v>77</v>
@@ -64109,7 +64136,7 @@
     </row>
     <row r="119" spans="1:21">
       <c r="A119" s="121" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B119" t="s">
         <v>105</v>
@@ -64124,7 +64151,7 @@
         <v>77</v>
       </c>
       <c r="F119" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="G119" s="121" t="s">
         <v>77</v>
@@ -64154,7 +64181,7 @@
         <v>77</v>
       </c>
       <c r="P119" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="Q119" s="121" t="s">
         <v>77</v>
@@ -64174,7 +64201,7 @@
     </row>
     <row r="120" spans="1:21">
       <c r="A120" s="121" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B120" t="s">
         <v>42</v>
@@ -64189,7 +64216,7 @@
         <v>77</v>
       </c>
       <c r="F120" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="G120" s="121" t="s">
         <v>77</v>
@@ -64219,7 +64246,7 @@
         <v>77</v>
       </c>
       <c r="P120" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="Q120" s="121" t="s">
         <v>77</v>
@@ -64239,7 +64266,7 @@
     </row>
     <row r="121" spans="1:21">
       <c r="A121" s="121" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B121" t="s">
         <v>269</v>
@@ -64254,7 +64281,7 @@
         <v>77</v>
       </c>
       <c r="F121" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="G121" s="121" t="s">
         <v>77</v>
@@ -64284,7 +64311,7 @@
         <v>77</v>
       </c>
       <c r="P121" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="Q121" s="121" t="s">
         <v>77</v>
@@ -64304,7 +64331,7 @@
     </row>
     <row r="122" spans="1:21">
       <c r="A122" s="121" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B122" t="s">
         <v>60</v>
@@ -64369,7 +64396,7 @@
     </row>
     <row r="123" spans="1:21">
       <c r="A123" s="121" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B123" t="s">
         <v>231</v>
@@ -64434,7 +64461,7 @@
     </row>
     <row r="124" spans="1:21">
       <c r="A124" s="121" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B124" t="s">
         <v>2336</v>
@@ -64479,7 +64506,7 @@
         <v>77</v>
       </c>
       <c r="P124" s="121" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="Q124" s="121" t="s">
         <v>77</v>
@@ -64488,7 +64515,7 @@
         <v>77</v>
       </c>
       <c r="S124" s="121" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="T124" s="121" t="s">
         <v>458</v>
@@ -64499,7 +64526,7 @@
     </row>
     <row r="125" spans="1:21">
       <c r="A125" s="121" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B125" t="s">
         <v>2345</v>
@@ -64508,7 +64535,7 @@
         <v>246</v>
       </c>
       <c r="D125" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E125" s="121" t="s">
         <v>77</v>
@@ -64550,10 +64577,10 @@
         <v>597</v>
       </c>
       <c r="R125" s="121" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="S125" s="121" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="T125" s="121" t="s">
         <v>458</v>
@@ -64564,7 +64591,7 @@
     </row>
     <row r="126" spans="1:21">
       <c r="A126" s="121" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B126" t="e">
         <v>#N/A</v>
@@ -64629,16 +64656,16 @@
     </row>
     <row r="127" spans="1:21">
       <c r="A127" s="121" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B127" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="C127" s="124">
         <v>250</v>
       </c>
       <c r="D127" s="121" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E127" s="121" t="s">
         <v>77</v>
@@ -64659,7 +64686,7 @@
         <v>1682</v>
       </c>
       <c r="K127" s="121" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="L127" t="e">
         <v>#N/A</v>
@@ -64694,7 +64721,7 @@
     </row>
     <row r="128" spans="1:21">
       <c r="A128" s="121" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B128" t="e">
         <v>#N/A</v>
@@ -64718,7 +64745,7 @@
         <v>93</v>
       </c>
       <c r="I128" s="121" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="J128" s="121" t="s">
         <v>1755</v>
@@ -64759,7 +64786,7 @@
     </row>
     <row r="129" spans="1:21">
       <c r="A129" s="121" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B129" t="s">
         <v>33</v>
@@ -64824,10 +64851,10 @@
     </row>
     <row r="130" spans="1:21">
       <c r="A130" s="121" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B130" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C130" s="124">
         <v>256</v>
@@ -64857,7 +64884,7 @@
         <v>128</v>
       </c>
       <c r="L130" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="M130" s="124">
         <v>257</v>
@@ -64889,10 +64916,10 @@
     </row>
     <row r="131" spans="1:21">
       <c r="A131" s="121" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B131" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C131" s="124">
         <v>258</v>
@@ -64922,7 +64949,7 @@
         <v>128</v>
       </c>
       <c r="L131" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="M131" s="124">
         <v>259</v>
@@ -64954,10 +64981,10 @@
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="121" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B132" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C132" s="124">
         <v>260</v>
@@ -64987,7 +65014,7 @@
         <v>128</v>
       </c>
       <c r="L132" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="M132" s="124">
         <v>261</v>
@@ -65019,10 +65046,10 @@
     </row>
     <row r="133" spans="1:21">
       <c r="A133" s="121" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B133" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="C133" s="124">
         <v>262</v>
@@ -65052,7 +65079,7 @@
         <v>128</v>
       </c>
       <c r="L133" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="M133" s="124">
         <v>263</v>
@@ -65084,7 +65111,7 @@
     </row>
     <row r="134" spans="1:21">
       <c r="A134" s="121" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B134" t="e">
         <v>#N/A</v>
@@ -65135,10 +65162,10 @@
         <v>694</v>
       </c>
       <c r="R134" s="121" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="S134" s="121" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="T134" s="121" t="s">
         <v>458</v>
@@ -65149,7 +65176,7 @@
     </row>
     <row r="135" spans="1:21">
       <c r="A135" s="121" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B135" t="e">
         <v>#N/A</v>
@@ -65214,7 +65241,7 @@
     </row>
     <row r="136" spans="1:21">
       <c r="A136" s="121" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B136" t="e">
         <v>#N/A</v>
@@ -65279,7 +65306,7 @@
     </row>
     <row r="137" spans="1:21">
       <c r="A137" s="121" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B137" t="e">
         <v>#N/A</v>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95564A71-257F-42DD-AAD4-ED41D829D419}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1581134-730D-4E87-BC23-83BFE5C204D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <definedName name="Item_Hex" localSheetId="8">'Item Hex'!$A$1:$U$137</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10905" uniqueCount="2646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10914" uniqueCount="2646">
   <si>
     <t>Monster</t>
   </si>
@@ -7979,9 +7980,6 @@
     <t>Strike</t>
   </si>
   <si>
-    <t>Elbow</t>
-  </si>
-  <si>
     <t>Formerly Kick</t>
   </si>
   <si>
@@ -8001,6 +7999,9 @@
   </si>
   <si>
     <t>Block, Never miss</t>
+  </si>
+  <si>
+    <t>Flying Kick</t>
   </si>
 </sst>
 </file>
@@ -9128,12 +9129,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:X253"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q196" sqref="Q196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X256" sqref="X256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9228,7 +9229,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="2" spans="1:24" hidden="1">
+    <row r="2" spans="1:24">
       <c r="A2" t="str">
         <f>B2</f>
         <v>Mushroom</v>
@@ -9296,7 +9297,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="3" spans="1:24" hidden="1">
+    <row r="3" spans="1:24">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="1">B3</f>
         <v>Champgno</v>
@@ -9366,7 +9367,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="4" spans="1:24" hidden="1">
+    <row r="4" spans="1:24">
       <c r="A4" t="str">
         <f t="shared" si="1"/>
         <v>Shiitake</v>
@@ -9440,7 +9441,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="5" spans="1:24" hidden="1">
+    <row r="5" spans="1:24">
       <c r="A5" t="str">
         <f t="shared" si="1"/>
         <v>Toadstol</v>
@@ -9516,7 +9517,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="6" spans="1:24" hidden="1">
+    <row r="6" spans="1:24">
       <c r="A6" t="str">
         <f t="shared" si="1"/>
         <v>Flower</v>
@@ -9580,7 +9581,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="7" spans="1:24" hidden="1">
+    <row r="7" spans="1:24">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
         <v>P-Flower</v>
@@ -9650,7 +9651,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="8" spans="1:24" hidden="1">
+    <row r="8" spans="1:24">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
         <v>F-Flower</v>
@@ -9722,7 +9723,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1">
+    <row r="9" spans="1:24">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
         <v>SunPlant</v>
@@ -9796,7 +9797,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="10" spans="1:24" hidden="1">
+    <row r="10" spans="1:24">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
         <v>DarkRose</v>
@@ -9872,7 +9873,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1">
+    <row r="11" spans="1:24">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
         <v>MapleMan</v>
@@ -9938,7 +9939,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1">
+    <row r="12" spans="1:24">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
         <v>LiveOrk</v>
@@ -9953,7 +9954,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" ref="E12" si="2">HEX2DEC(D12)</f>
+        <f>HEX2DEC(D12)</f>
         <v>5</v>
       </c>
       <c r="F12" s="6">
@@ -10006,7 +10007,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1">
+    <row r="13" spans="1:24">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
         <v>EvilPine</v>
@@ -10076,7 +10077,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="14" spans="1:24" hidden="1">
+    <row r="14" spans="1:24">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
         <v>MadCedar</v>
@@ -10150,7 +10151,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1">
+    <row r="15" spans="1:24">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
         <v>Treant</v>
@@ -10226,7 +10227,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1">
+    <row r="16" spans="1:24">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>Pebble</v>
@@ -10356,7 +10357,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="18" spans="1:24" hidden="1">
+    <row r="18" spans="1:24">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
         <v>Boulder</v>
@@ -10426,7 +10427,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="19" spans="1:24" hidden="1">
+    <row r="19" spans="1:24">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
         <v>Rock</v>
@@ -10500,7 +10501,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="20" spans="1:24" hidden="1">
+    <row r="20" spans="1:24">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v>Earth</v>
@@ -10640,7 +10641,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="22" spans="1:24" hidden="1">
+    <row r="22" spans="1:24">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>Clayman</v>
@@ -10708,7 +10709,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="23" spans="1:24" hidden="1">
+    <row r="23" spans="1:24">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v>Stoneman</v>
@@ -10778,7 +10779,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="24" spans="1:24" hidden="1">
+    <row r="24" spans="1:24">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v>Ironman</v>
@@ -10852,7 +10853,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="25" spans="1:24" hidden="1">
+    <row r="25" spans="1:24">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
         <v>Mazin</v>
@@ -10928,7 +10929,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="26" spans="1:24" hidden="1">
+    <row r="26" spans="1:24">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
         <v>Hofud</v>
@@ -10994,7 +10995,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="27" spans="1:24" hidden="1">
+    <row r="27" spans="1:24">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
         <v>Gae Bolg</v>
@@ -11064,7 +11065,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="28" spans="1:24" hidden="1">
+    <row r="28" spans="1:24">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
         <v>Answerer</v>
@@ -11136,7 +11137,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="29" spans="1:24" hidden="1">
+    <row r="29" spans="1:24">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
         <v>Moaner</v>
@@ -11210,7 +11211,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="30" spans="1:24" hidden="1">
+    <row r="30" spans="1:24">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
         <v>Kusanagi</v>
@@ -11286,7 +11287,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="31" spans="1:24" hidden="1">
+    <row r="31" spans="1:24">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
         <v>Slime</v>
@@ -11350,7 +11351,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="32" spans="1:24" hidden="1">
+    <row r="32" spans="1:24">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
         <v>Jelly</v>
@@ -11416,7 +11417,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="33" spans="1:24" hidden="1">
+    <row r="33" spans="1:24">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>Tororo</v>
@@ -11486,7 +11487,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="34" spans="1:24" hidden="1">
+    <row r="34" spans="1:24">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>Pudding</v>
@@ -11560,7 +11561,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="35" spans="1:24" hidden="1">
+    <row r="35" spans="1:24">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>SlimeGod</v>
@@ -11700,7 +11701,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="37" spans="1:24" hidden="1">
+    <row r="37" spans="1:24">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>P-Worm</v>
@@ -11768,7 +11769,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="38" spans="1:24" hidden="1">
+    <row r="38" spans="1:24">
       <c r="A38" t="str">
         <f t="shared" si="1"/>
         <v>LavaWorm</v>
@@ -11840,7 +11841,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="39" spans="1:24" hidden="1">
+    <row r="39" spans="1:24">
       <c r="A39" t="str">
         <f t="shared" si="1"/>
         <v>SandWorm</v>
@@ -11914,7 +11915,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="40" spans="1:24" hidden="1">
+    <row r="40" spans="1:24">
       <c r="A40" t="str">
         <f t="shared" si="1"/>
         <v>GigaWorm</v>
@@ -11990,7 +11991,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="41" spans="1:24" hidden="1">
+    <row r="41" spans="1:24">
       <c r="A41" t="str">
         <f t="shared" si="1"/>
         <v>Big Eye</v>
@@ -12056,7 +12057,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="42" spans="1:24" hidden="1">
+    <row r="42" spans="1:24">
       <c r="A42" t="str">
         <f t="shared" si="1"/>
         <v>Gazer</v>
@@ -12126,7 +12127,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="43" spans="1:24" hidden="1">
+    <row r="43" spans="1:24">
       <c r="A43" t="str">
         <f t="shared" si="1"/>
         <v>Watcher</v>
@@ -12198,7 +12199,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="44" spans="1:24" hidden="1">
+    <row r="44" spans="1:24">
       <c r="A44" t="str">
         <f t="shared" si="1"/>
         <v>Evil Eye</v>
@@ -12272,7 +12273,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="45" spans="1:24" hidden="1">
+    <row r="45" spans="1:24">
       <c r="A45" t="str">
         <f t="shared" si="1"/>
         <v>Beholder</v>
@@ -12348,7 +12349,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="46" spans="1:24" hidden="1">
+    <row r="46" spans="1:24">
       <c r="A46" t="str">
         <f t="shared" si="1"/>
         <v>Spider</v>
@@ -12410,7 +12411,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="47" spans="1:24" hidden="1">
+    <row r="47" spans="1:24">
       <c r="A47" t="str">
         <f t="shared" si="1"/>
         <v>P-Spider</v>
@@ -12476,7 +12477,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="48" spans="1:24" hidden="1">
+    <row r="48" spans="1:24">
       <c r="A48" t="str">
         <f t="shared" si="1"/>
         <v>Tarantla</v>
@@ -12546,7 +12547,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="49" spans="1:24" hidden="1">
+    <row r="49" spans="1:24">
       <c r="A49" t="str">
         <f t="shared" si="1"/>
         <v>F-Spider</v>
@@ -12620,7 +12621,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="50" spans="1:24" hidden="1">
+    <row r="50" spans="1:24">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>Arachne</v>
@@ -12696,7 +12697,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="51" spans="1:24" hidden="1">
+    <row r="51" spans="1:24">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>Beetle</v>
@@ -12760,7 +12761,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="52" spans="1:24" hidden="1">
+    <row r="52" spans="1:24">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>Chafer</v>
@@ -12828,7 +12829,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="53" spans="1:24" hidden="1">
+    <row r="53" spans="1:24">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>Ant Lion</v>
@@ -12898,7 +12899,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="54" spans="1:24" hidden="1">
+    <row r="54" spans="1:24">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>C-Fisher</v>
@@ -12972,7 +12973,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="55" spans="1:24" hidden="1">
+    <row r="55" spans="1:24">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>Scarab</v>
@@ -13048,7 +13049,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="56" spans="1:24" hidden="1">
+    <row r="56" spans="1:24">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>Moth</v>
@@ -13114,7 +13115,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="57" spans="1:24" hidden="1">
+    <row r="57" spans="1:24">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>Swallow</v>
@@ -13184,7 +13185,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1">
+    <row r="58" spans="1:24">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>FireMoth</v>
@@ -13256,7 +13257,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="59" spans="1:24" hidden="1">
+    <row r="59" spans="1:24">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>Gloom</v>
@@ -13330,7 +13331,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="60" spans="1:24" hidden="1">
+    <row r="60" spans="1:24">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>Madame</v>
@@ -13406,7 +13407,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1">
+    <row r="61" spans="1:24">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>Octopus</v>
@@ -13538,7 +13539,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="63" spans="1:24" hidden="1">
+    <row r="63" spans="1:24">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>Ammonite</v>
@@ -13610,7 +13611,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1">
+    <row r="64" spans="1:24">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>Squid</v>
@@ -13684,7 +13685,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="65" spans="1:24" hidden="1">
+    <row r="65" spans="1:24">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>Kraken</v>
@@ -13760,7 +13761,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="66" spans="1:24" hidden="1">
+    <row r="66" spans="1:24">
       <c r="A66" t="str">
         <f t="shared" si="1"/>
         <v>Barracud</v>
@@ -13775,7 +13776,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" ref="E66:E129" si="3">HEX2DEC(D66)</f>
+        <f t="shared" ref="E66:E129" si="2">HEX2DEC(D66)</f>
         <v>2</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -13824,9 +13825,9 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="67" spans="1:24" hidden="1">
+    <row r="67" spans="1:24">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="4">B67</f>
+        <f t="shared" ref="A67:A130" si="3">B67</f>
         <v>Piranha</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -13839,7 +13840,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -13894,9 +13895,9 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="68" spans="1:24" hidden="1">
+    <row r="68" spans="1:24">
       <c r="A68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Shark</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -13909,7 +13910,7 @@
         <v>1593</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -13966,9 +13967,9 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="69" spans="1:24" hidden="1">
+    <row r="69" spans="1:24">
       <c r="A69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Gunfish</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -13981,7 +13982,7 @@
         <v>1426</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -14040,9 +14041,9 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="70" spans="1:24" hidden="1">
+    <row r="70" spans="1:24">
       <c r="A70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Leviathn</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -14055,7 +14056,7 @@
         <v>1432</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F70" s="9" t="s">
@@ -14118,7 +14119,7 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Crab</v>
       </c>
       <c r="B71" s="11" t="s">
@@ -14131,7 +14132,7 @@
         <v>11</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -14180,9 +14181,9 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="72" spans="1:24" hidden="1">
+    <row r="72" spans="1:24">
       <c r="A72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Hermit</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -14195,7 +14196,7 @@
         <v>15</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -14250,9 +14251,9 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="73" spans="1:24" hidden="1">
+    <row r="73" spans="1:24">
       <c r="A73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Ice Crab</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -14265,7 +14266,7 @@
         <v>1523</v>
       </c>
       <c r="E73" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -14322,9 +14323,9 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="74" spans="1:24" hidden="1">
+    <row r="74" spans="1:24">
       <c r="A74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>KingCrab</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -14337,7 +14338,7 @@
         <v>1426</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -14396,9 +14397,9 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="75" spans="1:24" hidden="1">
+    <row r="75" spans="1:24">
       <c r="A75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Dagon</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -14411,7 +14412,7 @@
         <v>1432</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F75" s="9" t="s">
@@ -14472,9 +14473,9 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="76" spans="1:24" hidden="1">
+    <row r="76" spans="1:24">
       <c r="A76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Toad</v>
       </c>
       <c r="B76" s="11" t="s">
@@ -14487,7 +14488,7 @@
         <v>9</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -14536,9 +14537,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="77" spans="1:24" hidden="1">
+    <row r="77" spans="1:24">
       <c r="A77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>P-Toad</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -14551,7 +14552,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -14606,9 +14607,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="78" spans="1:24" hidden="1">
+    <row r="78" spans="1:24">
       <c r="A78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>HugeToad</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -14621,7 +14622,7 @@
         <v>1523</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -14678,9 +14679,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="79" spans="1:24" hidden="1">
+    <row r="79" spans="1:24">
       <c r="A79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>GianToad</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -14693,7 +14694,7 @@
         <v>1426</v>
       </c>
       <c r="E79" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -14752,9 +14753,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="80" spans="1:24" hidden="1">
+    <row r="80" spans="1:24">
       <c r="A80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>KingToad</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -14767,7 +14768,7 @@
         <v>1432</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F80" s="9" t="s">
@@ -14828,9 +14829,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="81" spans="1:24" hidden="1">
+    <row r="81" spans="1:24">
       <c r="A81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Snake</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -14843,7 +14844,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -14892,9 +14893,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="82" spans="1:24" hidden="1">
+    <row r="82" spans="1:24">
       <c r="A82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Serpent</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -14907,7 +14908,7 @@
         <v>14</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -14962,9 +14963,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="83" spans="1:24" hidden="1">
+    <row r="83" spans="1:24">
       <c r="A83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Anaconda</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -14977,7 +14978,7 @@
         <v>15</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -15034,9 +15035,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="84" spans="1:24" hidden="1">
+    <row r="84" spans="1:24">
       <c r="A84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Hydra</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -15049,7 +15050,7 @@
         <v>1426</v>
       </c>
       <c r="E84" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -15108,9 +15109,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="85" spans="1:24" hidden="1">
+    <row r="85" spans="1:24">
       <c r="A85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Jorgandr</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -15123,7 +15124,7 @@
         <v>1432</v>
       </c>
       <c r="E85" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F85" s="9" t="s">
@@ -15184,9 +15185,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="86" spans="1:24" hidden="1">
+    <row r="86" spans="1:24">
       <c r="A86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Tortoise</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -15199,7 +15200,7 @@
         <v>12</v>
       </c>
       <c r="E86" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -15250,9 +15251,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="87" spans="1:24" hidden="1">
+    <row r="87" spans="1:24">
       <c r="A87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Turtle</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -15265,7 +15266,7 @@
         <v>13</v>
       </c>
       <c r="E87" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -15318,9 +15319,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="88" spans="1:24" hidden="1">
+    <row r="88" spans="1:24">
       <c r="A88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Adamant</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -15333,7 +15334,7 @@
         <v>1593</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -15390,9 +15391,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="89" spans="1:24" hidden="1">
+    <row r="89" spans="1:24">
       <c r="A89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>D-Turtle</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -15405,7 +15406,7 @@
         <v>1426</v>
       </c>
       <c r="E89" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -15462,9 +15463,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="90" spans="1:24" hidden="1">
+    <row r="90" spans="1:24">
       <c r="A90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Gen-Bu</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -15477,7 +15478,7 @@
         <v>1432</v>
       </c>
       <c r="E90" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F90" s="9" t="s">
@@ -15538,9 +15539,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="91" spans="1:24" hidden="1">
+    <row r="91" spans="1:24">
       <c r="A91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Lizard</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -15553,7 +15554,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -15602,9 +15603,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="92" spans="1:24" hidden="1">
+    <row r="92" spans="1:24">
       <c r="A92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Cameleon</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -15617,7 +15618,7 @@
         <v>12</v>
       </c>
       <c r="E92" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -15668,9 +15669,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="93" spans="1:24" hidden="1">
+    <row r="93" spans="1:24">
       <c r="A93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Komodo</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -15683,7 +15684,7 @@
         <v>14</v>
       </c>
       <c r="E93" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -15738,9 +15739,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="94" spans="1:24" hidden="1">
+    <row r="94" spans="1:24">
       <c r="A94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Salamand</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -15753,7 +15754,7 @@
         <v>1426</v>
       </c>
       <c r="E94" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -15812,9 +15813,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="95" spans="1:24" hidden="1">
+    <row r="95" spans="1:24">
       <c r="A95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Basilisk</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -15827,7 +15828,7 @@
         <v>1432</v>
       </c>
       <c r="E95" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F95" s="9" t="s">
@@ -15890,7 +15891,7 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Rhino</v>
       </c>
       <c r="B96" s="11" t="s">
@@ -15903,7 +15904,7 @@
         <v>11</v>
       </c>
       <c r="E96" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -15952,9 +15953,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="97" spans="1:24" hidden="1">
+    <row r="97" spans="1:24">
       <c r="A97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Triceras</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -15967,7 +15968,7 @@
         <v>14</v>
       </c>
       <c r="E97" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -16022,9 +16023,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="98" spans="1:24" hidden="1">
+    <row r="98" spans="1:24">
       <c r="A98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Dinosaur</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -16037,7 +16038,7 @@
         <v>1593</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -16094,9 +16095,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="99" spans="1:24" hidden="1">
+    <row r="99" spans="1:24">
       <c r="A99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>T Rex</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -16109,7 +16110,7 @@
         <v>1426</v>
       </c>
       <c r="E99" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -16168,9 +16169,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="100" spans="1:24" hidden="1">
+    <row r="100" spans="1:24">
       <c r="A100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Behemoth</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -16183,7 +16184,7 @@
         <v>1432</v>
       </c>
       <c r="E100" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F100" s="9" t="s">
@@ -16244,9 +16245,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="101" spans="1:24" hidden="1">
+    <row r="101" spans="1:24">
       <c r="A101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Baby-D</v>
       </c>
       <c r="B101" s="11" t="s">
@@ -16259,7 +16260,7 @@
         <v>13</v>
       </c>
       <c r="E101" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -16312,9 +16313,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="102" spans="1:24" hidden="1">
+    <row r="102" spans="1:24">
       <c r="A102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Young-D</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -16327,7 +16328,7 @@
         <v>1593</v>
       </c>
       <c r="E102" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F102" s="6" t="s">
@@ -16382,9 +16383,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="103" spans="1:24" hidden="1">
+    <row r="103" spans="1:24">
       <c r="A103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Dragon</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -16397,7 +16398,7 @@
         <v>1523</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -16454,9 +16455,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="104" spans="1:24" hidden="1">
+    <row r="104" spans="1:24">
       <c r="A104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Great-D</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -16469,7 +16470,7 @@
         <v>1426</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F104" s="6" t="s">
@@ -16528,9 +16529,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="105" spans="1:24" hidden="1">
+    <row r="105" spans="1:24">
       <c r="A105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Sei-Ryu</v>
       </c>
       <c r="B105" s="8" t="s">
@@ -16543,7 +16544,7 @@
         <v>1432</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F105" s="9" t="s">
@@ -16604,9 +16605,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="106" spans="1:24" hidden="1">
+    <row r="106" spans="1:24">
       <c r="A106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>BabyWyrm</v>
       </c>
       <c r="B106" s="11" t="s">
@@ -16619,7 +16620,7 @@
         <v>10</v>
       </c>
       <c r="E106" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -16668,9 +16669,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="107" spans="1:24" hidden="1">
+    <row r="107" spans="1:24">
       <c r="A107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Wyrm Kid</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -16683,7 +16684,7 @@
         <v>12</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -16734,9 +16735,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="108" spans="1:24" hidden="1">
+    <row r="108" spans="1:24">
       <c r="A108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Wyvern</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -16749,7 +16750,7 @@
         <v>15</v>
       </c>
       <c r="E108" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F108" s="6" t="s">
@@ -16804,9 +16805,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="109" spans="1:24" hidden="1">
+    <row r="109" spans="1:24">
       <c r="A109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Wyrm</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -16819,7 +16820,7 @@
         <v>1426</v>
       </c>
       <c r="E109" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -16878,9 +16879,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="110" spans="1:24" hidden="1">
+    <row r="110" spans="1:24">
       <c r="A110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>FengLung</v>
       </c>
       <c r="B110" s="8" t="s">
@@ -16893,7 +16894,7 @@
         <v>1432</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F110" s="9" t="s">
@@ -16954,9 +16955,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="111" spans="1:24" hidden="1">
+    <row r="111" spans="1:24">
       <c r="A111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Eagle</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -16969,7 +16970,7 @@
         <v>10</v>
       </c>
       <c r="E111" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F111" s="6" t="s">
@@ -17018,9 +17019,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="112" spans="1:24" hidden="1">
+    <row r="112" spans="1:24">
       <c r="A112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Thunder</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -17033,7 +17034,7 @@
         <v>13</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F112" s="6" t="s">
@@ -17086,9 +17087,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="113" spans="1:24" hidden="1">
+    <row r="113" spans="1:24">
       <c r="A113" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Cocatris</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -17101,7 +17102,7 @@
         <v>1523</v>
       </c>
       <c r="E113" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F113" s="6" t="s">
@@ -17158,9 +17159,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="114" spans="1:24" hidden="1">
+    <row r="114" spans="1:24">
       <c r="A114" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Roc</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -17173,7 +17174,7 @@
         <v>1426</v>
       </c>
       <c r="E114" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F114" s="6" t="s">
@@ -17232,9 +17233,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="115" spans="1:24" hidden="1">
+    <row r="115" spans="1:24">
       <c r="A115" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Su-Zaku</v>
       </c>
       <c r="B115" s="8" t="s">
@@ -17247,7 +17248,7 @@
         <v>1432</v>
       </c>
       <c r="E115" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F115" s="9" t="s">
@@ -17308,9 +17309,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="116" spans="1:24" hidden="1">
+    <row r="116" spans="1:24">
       <c r="A116" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Raven</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -17323,7 +17324,7 @@
         <v>12</v>
       </c>
       <c r="E116" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -17374,9 +17375,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="117" spans="1:24" hidden="1">
+    <row r="117" spans="1:24">
       <c r="A117" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Harpy</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -17389,7 +17390,7 @@
         <v>13</v>
       </c>
       <c r="E117" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F117" s="6" t="s">
@@ -17442,9 +17443,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="118" spans="1:24" hidden="1">
+    <row r="118" spans="1:24">
       <c r="A118" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Ten-Gu</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -17457,7 +17458,7 @@
         <v>1523</v>
       </c>
       <c r="E118" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F118" s="6" t="s">
@@ -17514,9 +17515,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="119" spans="1:24" hidden="1">
+    <row r="119" spans="1:24">
       <c r="A119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Garuda</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -17529,7 +17530,7 @@
         <v>1426</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -17588,9 +17589,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="120" spans="1:24" hidden="1">
+    <row r="120" spans="1:24">
       <c r="A120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Nike</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -17603,7 +17604,7 @@
         <v>1432</v>
       </c>
       <c r="E120" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F120" s="9" t="s">
@@ -17664,9 +17665,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="121" spans="1:24" hidden="1">
+    <row r="121" spans="1:24">
       <c r="A121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Jaguar</v>
       </c>
       <c r="B121" s="11" t="s">
@@ -17679,7 +17680,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -17726,9 +17727,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="122" spans="1:24" hidden="1">
+    <row r="122" spans="1:24">
       <c r="A122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>SabreCat</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -17741,7 +17742,7 @@
         <v>12</v>
       </c>
       <c r="E122" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F122" s="6" t="s">
@@ -17792,9 +17793,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="123" spans="1:24" hidden="1">
+    <row r="123" spans="1:24">
       <c r="A123" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>SnowCat</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -17807,7 +17808,7 @@
         <v>1593</v>
       </c>
       <c r="E123" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F123" s="6" t="s">
@@ -17862,9 +17863,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="124" spans="1:24" hidden="1">
+    <row r="124" spans="1:24">
       <c r="A124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>BlackCat</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -17877,7 +17878,7 @@
         <v>1426</v>
       </c>
       <c r="E124" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F124" s="6" t="s">
@@ -17934,9 +17935,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="125" spans="1:24" hidden="1">
+    <row r="125" spans="1:24">
       <c r="A125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Byak-Ko</v>
       </c>
       <c r="B125" s="8" t="s">
@@ -17949,7 +17950,7 @@
         <v>1432</v>
       </c>
       <c r="E125" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F125" s="9" t="s">
@@ -18012,7 +18013,7 @@
     </row>
     <row r="126" spans="1:24">
       <c r="A126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Silver</v>
       </c>
       <c r="B126" s="11" t="s">
@@ -18025,7 +18026,7 @@
         <v>11</v>
       </c>
       <c r="E126" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -18074,9 +18075,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="127" spans="1:24" hidden="1">
+    <row r="127" spans="1:24">
       <c r="A127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Kelpie</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -18089,7 +18090,7 @@
         <v>12</v>
       </c>
       <c r="E127" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -18140,9 +18141,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="128" spans="1:24" hidden="1">
+    <row r="128" spans="1:24">
       <c r="A128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Nitemare</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -18155,7 +18156,7 @@
         <v>1593</v>
       </c>
       <c r="E128" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F128" s="6" t="s">
@@ -18212,9 +18213,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1">
+    <row r="129" spans="1:24">
       <c r="A129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Sleipnir</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -18227,7 +18228,7 @@
         <v>1426</v>
       </c>
       <c r="E129" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F129" s="6" t="s">
@@ -18286,9 +18287,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1">
+    <row r="130" spans="1:24">
       <c r="A130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Unicorn</v>
       </c>
       <c r="B130" s="8" t="s">
@@ -18301,7 +18302,7 @@
         <v>1432</v>
       </c>
       <c r="E130" s="5">
-        <f t="shared" ref="E130:E193" si="5">HEX2DEC(D130)</f>
+        <f t="shared" ref="E130:E193" si="4">HEX2DEC(D130)</f>
         <v>11</v>
       </c>
       <c r="F130" s="9" t="s">
@@ -18362,9 +18363,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1">
+    <row r="131" spans="1:24">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="6">B131</f>
+        <f t="shared" ref="A131:A194" si="5">B131</f>
         <v>Griffon</v>
       </c>
       <c r="B131" s="11" t="s">
@@ -18377,7 +18378,7 @@
         <v>12</v>
       </c>
       <c r="E131" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F131" s="6" t="s">
@@ -18428,9 +18429,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="132" spans="1:24" hidden="1">
+    <row r="132" spans="1:24">
       <c r="A132" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Mantcore</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -18443,7 +18444,7 @@
         <v>14</v>
       </c>
       <c r="E132" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F132" s="6" t="s">
@@ -18498,9 +18499,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="133" spans="1:24" hidden="1">
+    <row r="133" spans="1:24">
       <c r="A133" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Chimera</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -18513,7 +18514,7 @@
         <v>1523</v>
       </c>
       <c r="E133" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F133" s="6" t="s">
@@ -18570,9 +18571,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="134" spans="1:24" hidden="1">
+    <row r="134" spans="1:24">
       <c r="A134" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Sphinx</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -18585,7 +18586,7 @@
         <v>1426</v>
       </c>
       <c r="E134" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F134" s="6" t="s">
@@ -18644,9 +18645,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="135" spans="1:24" hidden="1">
+    <row r="135" spans="1:24">
       <c r="A135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Kirin</v>
       </c>
       <c r="B135" s="8" t="s">
@@ -18659,7 +18660,7 @@
         <v>1432</v>
       </c>
       <c r="E135" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F135" s="9" t="s">
@@ -18720,9 +18721,9 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="136" spans="1:24" hidden="1">
+    <row r="136" spans="1:24">
       <c r="A136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Fly</v>
       </c>
       <c r="B136" s="11" t="s">
@@ -18735,7 +18736,7 @@
         <v>9</v>
       </c>
       <c r="E136" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F136" s="6" t="s">
@@ -18786,9 +18787,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="137" spans="1:24" hidden="1">
+    <row r="137" spans="1:24">
       <c r="A137" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Hornet</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -18801,7 +18802,7 @@
         <v>13</v>
       </c>
       <c r="E137" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F137" s="6" t="s">
@@ -18856,9 +18857,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="138" spans="1:24" hidden="1">
+    <row r="138" spans="1:24">
       <c r="A138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Mosquito</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -18871,7 +18872,7 @@
         <v>15</v>
       </c>
       <c r="E138" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F138" s="6" t="s">
@@ -18928,9 +18929,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="139" spans="1:24" hidden="1">
+    <row r="139" spans="1:24">
       <c r="A139" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Cicada</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -18943,7 +18944,7 @@
         <v>1426</v>
       </c>
       <c r="E139" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F139" s="6" t="s">
@@ -19004,9 +19005,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="140" spans="1:24" hidden="1">
+    <row r="140" spans="1:24">
       <c r="A140" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Mantis</v>
       </c>
       <c r="B140" s="8" t="s">
@@ -19019,7 +19020,7 @@
         <v>1432</v>
       </c>
       <c r="E140" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F140" s="9" t="s">
@@ -19080,9 +19081,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="141" spans="1:24" hidden="1">
+    <row r="141" spans="1:24">
       <c r="A141" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>WereRat</v>
       </c>
       <c r="B141" s="11" t="s">
@@ -19095,7 +19096,7 @@
         <v>10</v>
       </c>
       <c r="E141" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F141" s="6" t="s">
@@ -19144,9 +19145,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="142" spans="1:24" hidden="1">
+    <row r="142" spans="1:24">
       <c r="A142" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>WereWolf</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -19159,7 +19160,7 @@
         <v>13</v>
       </c>
       <c r="E142" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F142" s="6" t="s">
@@ -19212,9 +19213,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="143" spans="1:24" hidden="1">
+    <row r="143" spans="1:24">
       <c r="A143" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>CatWoman</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -19227,7 +19228,7 @@
         <v>1593</v>
       </c>
       <c r="E143" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F143" s="6" t="s">
@@ -19284,9 +19285,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="144" spans="1:24" hidden="1">
+    <row r="144" spans="1:24">
       <c r="A144" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Rakshasa</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -19299,7 +19300,7 @@
         <v>1426</v>
       </c>
       <c r="E144" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F144" s="6" t="s">
@@ -19358,9 +19359,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="145" spans="1:24" hidden="1">
+    <row r="145" spans="1:24">
       <c r="A145" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Anubis</v>
       </c>
       <c r="B145" s="8" t="s">
@@ -19373,7 +19374,7 @@
         <v>1432</v>
       </c>
       <c r="E145" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F145" s="9" t="s">
@@ -19434,9 +19435,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="146" spans="1:24" hidden="1">
+    <row r="146" spans="1:24">
       <c r="A146" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Medusa</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -19449,7 +19450,7 @@
         <v>12</v>
       </c>
       <c r="E146" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F146" s="6" t="s">
@@ -19500,9 +19501,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="147" spans="1:24" hidden="1">
+    <row r="147" spans="1:24">
       <c r="A147" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Lamia</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -19515,7 +19516,7 @@
         <v>1593</v>
       </c>
       <c r="E147" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F147" s="6" t="s">
@@ -19570,9 +19571,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="148" spans="1:24" hidden="1">
+    <row r="148" spans="1:24">
       <c r="A148" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Naga</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -19585,7 +19586,7 @@
         <v>1523</v>
       </c>
       <c r="E148" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F148" s="6" t="s">
@@ -19642,9 +19643,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="149" spans="1:24" hidden="1">
+    <row r="149" spans="1:24">
       <c r="A149" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Scylla</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -19657,7 +19658,7 @@
         <v>1426</v>
       </c>
       <c r="E149" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F149" s="6" t="s">
@@ -19716,9 +19717,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="150" spans="1:24" hidden="1">
+    <row r="150" spans="1:24">
       <c r="A150" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Lilith</v>
       </c>
       <c r="B150" s="8" t="s">
@@ -19731,7 +19732,7 @@
         <v>1432</v>
       </c>
       <c r="E150" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F150" s="9" t="s">
@@ -19792,9 +19793,9 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="151" spans="1:24" hidden="1">
+    <row r="151" spans="1:24">
       <c r="A151" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Goblin</v>
       </c>
       <c r="B151" s="11" t="s">
@@ -19807,7 +19808,7 @@
         <v>9</v>
       </c>
       <c r="E151" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F151" s="6" t="s">
@@ -19856,7 +19857,7 @@
     </row>
     <row r="152" spans="1:24">
       <c r="A152" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Oni</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -19869,7 +19870,7 @@
         <v>11</v>
       </c>
       <c r="E152" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F152" s="6" t="s">
@@ -19918,9 +19919,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="153" spans="1:24" hidden="1">
+    <row r="153" spans="1:24">
       <c r="A153" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Ogre</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -19933,7 +19934,7 @@
         <v>14</v>
       </c>
       <c r="E153" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F153" s="6" t="s">
@@ -19988,9 +19989,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="154" spans="1:24" hidden="1">
+    <row r="154" spans="1:24">
       <c r="A154" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Giant</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -20003,7 +20004,7 @@
         <v>1426</v>
       </c>
       <c r="E154" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F154" s="6" t="s">
@@ -20062,9 +20063,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="155" spans="1:24" hidden="1">
+    <row r="155" spans="1:24">
       <c r="A155" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Susano-O</v>
       </c>
       <c r="B155" s="8" t="s">
@@ -20077,7 +20078,7 @@
         <v>1432</v>
       </c>
       <c r="E155" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F155" s="9" t="s">
@@ -20140,7 +20141,7 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Fiend</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -20153,7 +20154,7 @@
         <v>11</v>
       </c>
       <c r="E156" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F156" s="6" t="s">
@@ -20202,9 +20203,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="157" spans="1:24" hidden="1">
+    <row r="157" spans="1:24">
       <c r="A157" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Mephisto</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -20217,7 +20218,7 @@
         <v>15</v>
       </c>
       <c r="E157" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F157" s="6" t="s">
@@ -20272,9 +20273,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="158" spans="1:24" hidden="1">
+    <row r="158" spans="1:24">
       <c r="A158" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Demon</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -20287,7 +20288,7 @@
         <v>1593</v>
       </c>
       <c r="E158" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F158" s="6" t="s">
@@ -20344,9 +20345,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="159" spans="1:24" hidden="1">
+    <row r="159" spans="1:24">
       <c r="A159" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>DemoLoad</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -20359,7 +20360,7 @@
         <v>1426</v>
       </c>
       <c r="E159" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F159" s="6" t="s">
@@ -20418,9 +20419,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="160" spans="1:24" hidden="1">
+    <row r="160" spans="1:24">
       <c r="A160" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Athtalot</v>
       </c>
       <c r="B160" s="8" t="s">
@@ -20433,7 +20434,7 @@
         <v>1432</v>
       </c>
       <c r="E160" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F160" s="9" t="s">
@@ -20494,9 +20495,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="161" spans="1:24" hidden="1">
+    <row r="161" spans="1:24">
       <c r="A161" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Sprite</v>
       </c>
       <c r="B161" s="11" t="s">
@@ -20509,7 +20510,7 @@
         <v>13</v>
       </c>
       <c r="E161" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F161" s="6" t="s">
@@ -20562,9 +20563,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="162" spans="1:24" hidden="1">
+    <row r="162" spans="1:24">
       <c r="A162" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Fairy</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -20577,7 +20578,7 @@
         <v>15</v>
       </c>
       <c r="E162" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F162" s="6" t="s">
@@ -20632,9 +20633,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="163" spans="1:24" hidden="1">
+    <row r="163" spans="1:24">
       <c r="A163" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Nymph</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -20647,7 +20648,7 @@
         <v>1523</v>
       </c>
       <c r="E163" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F163" s="6" t="s">
@@ -20704,9 +20705,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="164" spans="1:24" hidden="1">
+    <row r="164" spans="1:24">
       <c r="A164" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Sylph</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -20719,7 +20720,7 @@
         <v>1426</v>
       </c>
       <c r="E164" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F164" s="6" t="s">
@@ -20778,9 +20779,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="165" spans="1:24" hidden="1">
+    <row r="165" spans="1:24">
       <c r="A165" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Titania</v>
       </c>
       <c r="B165" s="8" t="s">
@@ -20793,7 +20794,7 @@
         <v>1432</v>
       </c>
       <c r="E165" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F165" s="9" t="s">
@@ -20854,9 +20855,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="166" spans="1:24" hidden="1">
+    <row r="166" spans="1:24">
       <c r="A166" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Skelton</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -20869,7 +20870,7 @@
         <v>9</v>
       </c>
       <c r="E166" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F166" s="6" t="s">
@@ -20920,9 +20921,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="167" spans="1:24" hidden="1">
+    <row r="167" spans="1:24">
       <c r="A167" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Red Bone</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -20935,7 +20936,7 @@
         <v>10</v>
       </c>
       <c r="E167" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F167" s="6" t="s">
@@ -20988,9 +20989,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="168" spans="1:24" hidden="1">
+    <row r="168" spans="1:24">
       <c r="A168" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Warrior</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -21003,7 +21004,7 @@
         <v>14</v>
       </c>
       <c r="E168" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F168" s="6" t="s">
@@ -21060,9 +21061,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="169" spans="1:24" hidden="1">
+    <row r="169" spans="1:24">
       <c r="A169" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>BoneKing</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -21075,7 +21076,7 @@
         <v>1426</v>
       </c>
       <c r="E169" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F169" s="6" t="s">
@@ -21134,9 +21135,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="170" spans="1:24" hidden="1">
+    <row r="170" spans="1:24">
       <c r="A170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Lich</v>
       </c>
       <c r="B170" s="8" t="s">
@@ -21149,7 +21150,7 @@
         <v>1432</v>
       </c>
       <c r="E170" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F170" s="9" t="s">
@@ -21210,9 +21211,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="171" spans="1:24" hidden="1">
+    <row r="171" spans="1:24">
       <c r="A171" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Zombie</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -21225,7 +21226,7 @@
         <v>10</v>
       </c>
       <c r="E171" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F171" s="6" t="s">
@@ -21276,9 +21277,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="172" spans="1:24" hidden="1">
+    <row r="172" spans="1:24">
       <c r="A172" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Ghoul</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -21291,7 +21292,7 @@
         <v>12</v>
       </c>
       <c r="E172" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -21344,9 +21345,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="173" spans="1:24" hidden="1">
+    <row r="173" spans="1:24">
       <c r="A173" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Ghast</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -21359,7 +21360,7 @@
         <v>1593</v>
       </c>
       <c r="E173" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F173" s="6" t="s">
@@ -21418,9 +21419,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="174" spans="1:24" hidden="1">
+    <row r="174" spans="1:24">
       <c r="A174" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Wight</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -21433,7 +21434,7 @@
         <v>1426</v>
       </c>
       <c r="E174" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F174" s="6" t="s">
@@ -21492,9 +21493,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="175" spans="1:24" hidden="1">
+    <row r="175" spans="1:24">
       <c r="A175" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Revenant</v>
       </c>
       <c r="B175" s="8" t="s">
@@ -21507,7 +21508,7 @@
         <v>1432</v>
       </c>
       <c r="E175" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F175" s="9" t="s">
@@ -21568,9 +21569,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="176" spans="1:24" hidden="1">
+    <row r="176" spans="1:24">
       <c r="A176" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>O-Bake</v>
       </c>
       <c r="B176" s="11" t="s">
@@ -21583,7 +21584,7 @@
         <v>13</v>
       </c>
       <c r="E176" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F176" s="6" t="s">
@@ -21636,9 +21637,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="177" spans="1:24" hidden="1">
+    <row r="177" spans="1:24">
       <c r="A177" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Phantom</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -21651,7 +21652,7 @@
         <v>15</v>
       </c>
       <c r="E177" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F177" s="6" t="s">
@@ -21706,9 +21707,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="178" spans="1:24" hidden="1">
+    <row r="178" spans="1:24">
       <c r="A178" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Wraith</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -21721,7 +21722,7 @@
         <v>1593</v>
       </c>
       <c r="E178" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F178" s="6" t="s">
@@ -21778,9 +21779,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="179" spans="1:24" hidden="1">
+    <row r="179" spans="1:24">
       <c r="A179" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Spector</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -21793,7 +21794,7 @@
         <v>1426</v>
       </c>
       <c r="E179" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F179" s="6" t="s">
@@ -21852,9 +21853,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="180" spans="1:24" hidden="1">
+    <row r="180" spans="1:24">
       <c r="A180" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Ghost</v>
       </c>
       <c r="B180" s="8" t="s">
@@ -21867,7 +21868,7 @@
         <v>1432</v>
       </c>
       <c r="E180" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F180" s="9" t="s">
@@ -21928,9 +21929,9 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="181" spans="1:24" hidden="1">
+    <row r="181" spans="1:24">
       <c r="A181" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Asigaru</v>
       </c>
       <c r="B181" s="11" t="s">
@@ -21943,7 +21944,7 @@
         <v>9</v>
       </c>
       <c r="E181" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F181" s="12" t="s">
@@ -21992,7 +21993,7 @@
     </row>
     <row r="182" spans="1:24">
       <c r="A182" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Samurai</v>
       </c>
       <c r="B182" s="5" t="s">
@@ -22005,7 +22006,7 @@
         <v>11</v>
       </c>
       <c r="E182" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F182" s="6" t="s">
@@ -22054,9 +22055,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="183" spans="1:24" hidden="1">
+    <row r="183" spans="1:24">
       <c r="A183" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Ninja</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -22069,7 +22070,7 @@
         <v>15</v>
       </c>
       <c r="E183" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F183" s="6" t="s">
@@ -22126,9 +22127,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="184" spans="1:24" hidden="1">
+    <row r="184" spans="1:24">
       <c r="A184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Musashi</v>
       </c>
       <c r="B184" s="8" t="s">
@@ -22141,7 +22142,7 @@
         <v>1426</v>
       </c>
       <c r="E184" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F184" s="9" t="s">
@@ -22200,9 +22201,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="185" spans="1:24" hidden="1">
+    <row r="185" spans="1:24">
       <c r="A185" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Hatamoto</v>
       </c>
       <c r="B185" s="13" t="s">
@@ -22215,7 +22216,7 @@
         <v>1432</v>
       </c>
       <c r="E185" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F185" s="9" t="s">
@@ -22268,9 +22269,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="186" spans="1:24" hidden="1">
+    <row r="186" spans="1:24">
       <c r="A186" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Gang</v>
       </c>
       <c r="B186" s="11" t="s">
@@ -22283,7 +22284,7 @@
         <v>9</v>
       </c>
       <c r="E186" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F186" s="6" t="s">
@@ -22330,9 +22331,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="187" spans="1:24" hidden="1">
+    <row r="187" spans="1:24">
       <c r="A187" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Wh. Belt</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -22345,7 +22346,7 @@
         <v>13</v>
       </c>
       <c r="E187" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F187" s="6" t="s">
@@ -22396,9 +22397,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="188" spans="1:24" hidden="1">
+    <row r="188" spans="1:24">
       <c r="A188" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Killer</v>
       </c>
       <c r="B188" s="5" t="s">
@@ -22411,7 +22412,7 @@
         <v>1593</v>
       </c>
       <c r="E188" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F188" s="6" t="s">
@@ -22468,9 +22469,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="189" spans="1:24" hidden="1">
+    <row r="189" spans="1:24">
       <c r="A189" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Bl. Belt</v>
       </c>
       <c r="B189" s="8" t="s">
@@ -22483,7 +22484,7 @@
         <v>1426</v>
       </c>
       <c r="E189" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F189" s="9" t="s">
@@ -22542,9 +22543,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="190" spans="1:24" hidden="1">
+    <row r="190" spans="1:24">
       <c r="A190" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>TianLung</v>
       </c>
       <c r="B190" s="13" t="s">
@@ -22557,7 +22558,7 @@
         <v>1432</v>
       </c>
       <c r="E190" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F190" s="9" t="s">
@@ -22612,9 +22613,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="191" spans="1:24" hidden="1">
+    <row r="191" spans="1:24">
       <c r="A191" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Trooper</v>
       </c>
       <c r="B191" s="11" t="s">
@@ -22627,7 +22628,7 @@
         <v>10</v>
       </c>
       <c r="E191" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F191" s="6" t="s">
@@ -22676,9 +22677,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="192" spans="1:24" hidden="1">
+    <row r="192" spans="1:24">
       <c r="A192" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Guard</v>
       </c>
       <c r="B192" s="5" t="s">
@@ -22691,7 +22692,7 @@
         <v>13</v>
       </c>
       <c r="E192" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F192" s="6" t="s">
@@ -22742,9 +22743,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="193" spans="1:24" hidden="1">
+    <row r="193" spans="1:24">
       <c r="A193" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Knight</v>
       </c>
       <c r="B193" s="5" t="s">
@@ -22757,7 +22758,7 @@
         <v>15</v>
       </c>
       <c r="E193" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F193" s="6" t="s">
@@ -22814,9 +22815,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="194" spans="1:24" hidden="1">
+    <row r="194" spans="1:24">
       <c r="A194" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>Paladin</v>
       </c>
       <c r="B194" s="8" t="s">
@@ -22829,7 +22830,7 @@
         <v>1426</v>
       </c>
       <c r="E194" s="5">
-        <f t="shared" ref="E194:E253" si="7">HEX2DEC(D194)</f>
+        <f t="shared" ref="E194:E253" si="6">HEX2DEC(D194)</f>
         <v>10</v>
       </c>
       <c r="F194" s="9" t="s">
@@ -22888,9 +22889,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="195" spans="1:24" hidden="1">
+    <row r="195" spans="1:24">
       <c r="A195" t="str">
-        <f t="shared" ref="A195:A253" si="8">B195</f>
+        <f t="shared" ref="A195:A255" si="7">B195</f>
         <v>Fenrir</v>
       </c>
       <c r="B195" s="13" t="s">
@@ -22903,7 +22904,7 @@
         <v>1432</v>
       </c>
       <c r="E195" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="F195" s="9" t="s">
@@ -22960,7 +22961,7 @@
     </row>
     <row r="196" spans="1:24">
       <c r="A196" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Terorist</v>
       </c>
       <c r="B196" s="11" t="s">
@@ -22973,7 +22974,7 @@
         <v>11</v>
       </c>
       <c r="E196" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="F196" s="6" t="s">
@@ -23022,9 +23023,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="197" spans="1:24" hidden="1">
+    <row r="197" spans="1:24">
       <c r="A197" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Mercenar</v>
       </c>
       <c r="B197" s="5" t="s">
@@ -23037,7 +23038,7 @@
         <v>14</v>
       </c>
       <c r="E197" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F197" s="6" t="s">
@@ -23090,9 +23091,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="198" spans="1:24" hidden="1">
+    <row r="198" spans="1:24">
       <c r="A198" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Commando</v>
       </c>
       <c r="B198" s="5" t="s">
@@ -23105,7 +23106,7 @@
         <v>15</v>
       </c>
       <c r="E198" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="F198" s="6" t="s">
@@ -23162,9 +23163,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="199" spans="1:24" hidden="1">
+    <row r="199" spans="1:24">
       <c r="A199" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>SS</v>
       </c>
       <c r="B199" s="8" t="s">
@@ -23177,7 +23178,7 @@
         <v>1426</v>
       </c>
       <c r="E199" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F199" s="9" t="s">
@@ -23236,9 +23237,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="200" spans="1:24" hidden="1">
+    <row r="200" spans="1:24">
       <c r="A200" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>EchigoYa</v>
       </c>
       <c r="B200" s="13" t="s">
@@ -23251,7 +23252,7 @@
         <v>1432</v>
       </c>
       <c r="E200" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="F200" s="9" t="s">
@@ -23304,7 +23305,7 @@
     </row>
     <row r="201" spans="1:24">
       <c r="A201" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Conjurer</v>
       </c>
       <c r="B201" s="11" t="s">
@@ -23317,7 +23318,7 @@
         <v>11</v>
       </c>
       <c r="E201" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="F201" s="6" t="s">
@@ -23366,9 +23367,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="202" spans="1:24" hidden="1">
+    <row r="202" spans="1:24">
       <c r="A202" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Magician</v>
       </c>
       <c r="B202" s="5" t="s">
@@ -23381,7 +23382,7 @@
         <v>14</v>
       </c>
       <c r="E202" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F202" s="6" t="s">
@@ -23434,9 +23435,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="203" spans="1:24" hidden="1">
+    <row r="203" spans="1:24">
       <c r="A203" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Sorcerer</v>
       </c>
       <c r="B203" s="5" t="s">
@@ -23449,7 +23450,7 @@
         <v>1523</v>
       </c>
       <c r="E203" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="F203" s="6" t="s">
@@ -23506,9 +23507,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="204" spans="1:24" hidden="1">
+    <row r="204" spans="1:24">
       <c r="A204" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Wizard</v>
       </c>
       <c r="B204" s="8" t="s">
@@ -23521,7 +23522,7 @@
         <v>1426</v>
       </c>
       <c r="E204" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F204" s="9" t="s">
@@ -23582,7 +23583,7 @@
     </row>
     <row r="205" spans="1:24">
       <c r="A205" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>ROBO-28</v>
       </c>
       <c r="B205" s="15" t="s">
@@ -23595,7 +23596,7 @@
         <v>11</v>
       </c>
       <c r="E205" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="F205" s="12" t="s">
@@ -23644,9 +23645,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="206" spans="1:24" hidden="1">
+    <row r="206" spans="1:24">
       <c r="A206" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>ROBO-Z</v>
       </c>
       <c r="B206" s="5" t="s">
@@ -23659,7 +23660,7 @@
         <v>13</v>
       </c>
       <c r="E206" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F206" s="6" t="s">
@@ -23712,9 +23713,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="207" spans="1:24" hidden="1">
+    <row r="207" spans="1:24">
       <c r="A207" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Ridean</v>
       </c>
       <c r="B207" s="5" t="s">
@@ -23727,7 +23728,7 @@
         <v>1523</v>
       </c>
       <c r="E207" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="F207" s="6" t="s">
@@ -23784,9 +23785,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="208" spans="1:24" hidden="1">
+    <row r="208" spans="1:24">
       <c r="A208" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>G-7</v>
       </c>
       <c r="B208" s="8" t="s">
@@ -23799,7 +23800,7 @@
         <v>1426</v>
       </c>
       <c r="E208" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F208" s="9" t="s">
@@ -23858,9 +23859,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="209" spans="1:24" hidden="1">
+    <row r="209" spans="1:24">
       <c r="A209" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Dunatis</v>
       </c>
       <c r="B209" s="13" t="s">
@@ -23873,7 +23874,7 @@
         <v>1432</v>
       </c>
       <c r="E209" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="F209" s="9" t="s">
@@ -23926,9 +23927,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="210" spans="1:24" hidden="1">
+    <row r="210" spans="1:24">
       <c r="A210" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>MechBug</v>
       </c>
       <c r="B210" s="11" t="s">
@@ -23941,7 +23942,7 @@
         <v>13</v>
       </c>
       <c r="E210" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F210" s="6" t="s">
@@ -23992,9 +23993,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="211" spans="1:24" hidden="1">
+    <row r="211" spans="1:24">
       <c r="A211" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Hawk</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -24007,7 +24008,7 @@
         <v>14</v>
       </c>
       <c r="E211" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F211" s="6" t="s">
@@ -24060,9 +24061,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="212" spans="1:24" hidden="1">
+    <row r="212" spans="1:24">
       <c r="A212" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Falcon</v>
       </c>
       <c r="B212" s="5" t="s">
@@ -24075,7 +24076,7 @@
         <v>1523</v>
       </c>
       <c r="E212" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="F212" s="6" t="s">
@@ -24132,9 +24133,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="213" spans="1:24" hidden="1">
+    <row r="213" spans="1:24">
       <c r="A213" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Intrcept</v>
       </c>
       <c r="B213" s="8" t="s">
@@ -24147,7 +24148,7 @@
         <v>1426</v>
       </c>
       <c r="E213" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F213" s="9" t="s">
@@ -24208,7 +24209,7 @@
     </row>
     <row r="214" spans="1:24">
       <c r="A214" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Plasma</v>
       </c>
       <c r="B214" s="15" t="s">
@@ -24221,7 +24222,7 @@
         <v>11</v>
       </c>
       <c r="E214" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="F214" s="12" t="s">
@@ -24270,9 +24271,9 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="215" spans="1:24" hidden="1">
+    <row r="215" spans="1:24">
       <c r="A215" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Phagocyt</v>
       </c>
       <c r="B215" s="5" t="s">
@@ -24285,7 +24286,7 @@
         <v>12</v>
       </c>
       <c r="E215" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F215" s="6" t="s">
@@ -24336,9 +24337,9 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="216" spans="1:24" hidden="1">
+    <row r="216" spans="1:24">
       <c r="A216" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Corpuscl</v>
       </c>
       <c r="B216" s="5" t="s">
@@ -24351,7 +24352,7 @@
         <v>14</v>
       </c>
       <c r="E216" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F216" s="6" t="s">
@@ -24408,9 +24409,9 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="217" spans="1:24" hidden="1">
+    <row r="217" spans="1:24">
       <c r="A217" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Cancer</v>
       </c>
       <c r="B217" s="8" t="s">
@@ -24423,7 +24424,7 @@
         <v>1426</v>
       </c>
       <c r="E217" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F217" s="9" t="s">
@@ -24484,7 +24485,7 @@
     </row>
     <row r="218" spans="1:24">
       <c r="A218" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Grippe</v>
       </c>
       <c r="B218" s="15" t="s">
@@ -24497,7 +24498,7 @@
         <v>11</v>
       </c>
       <c r="E218" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="F218" s="12" t="s">
@@ -24546,9 +24547,9 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="219" spans="1:24" hidden="1">
+    <row r="219" spans="1:24">
       <c r="A219" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Virus</v>
       </c>
       <c r="B219" s="5" t="s">
@@ -24561,7 +24562,7 @@
         <v>12</v>
       </c>
       <c r="E219" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F219" s="6" t="s">
@@ -24612,9 +24613,9 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="220" spans="1:24" hidden="1">
+    <row r="220" spans="1:24">
       <c r="A220" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Pathogen</v>
       </c>
       <c r="B220" s="5" t="s">
@@ -24627,7 +24628,7 @@
         <v>15</v>
       </c>
       <c r="E220" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="F220" s="6" t="s">
@@ -24682,9 +24683,9 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="221" spans="1:24" hidden="1">
+    <row r="221" spans="1:24">
       <c r="A221" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Plague</v>
       </c>
       <c r="B221" s="8" t="s">
@@ -24697,7 +24698,7 @@
         <v>1426</v>
       </c>
       <c r="E221" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F221" s="9" t="s">
@@ -24756,9 +24757,9 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="222" spans="1:24" hidden="1">
+    <row r="222" spans="1:24">
       <c r="A222" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Teacher</v>
       </c>
       <c r="B222" s="5" t="s">
@@ -24771,7 +24772,7 @@
         <v>1558</v>
       </c>
       <c r="E222" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F222" s="12">
@@ -24822,9 +24823,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="223" spans="1:24" hidden="1">
+    <row r="223" spans="1:24">
       <c r="A223" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Cleric</v>
       </c>
       <c r="B223" s="5" t="s">
@@ -24837,7 +24838,7 @@
         <v>1558</v>
       </c>
       <c r="E223" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F223" s="6" t="s">
@@ -24896,9 +24897,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="224" spans="1:24" hidden="1">
+    <row r="224" spans="1:24">
       <c r="A224" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Unknown</v>
       </c>
       <c r="B224" s="5" t="s">
@@ -24911,7 +24912,7 @@
         <v>1558</v>
       </c>
       <c r="E224" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F224" s="6">
@@ -24966,9 +24967,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="225" spans="1:24" hidden="1">
+    <row r="225" spans="1:24">
       <c r="A225" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Girl1</v>
       </c>
       <c r="B225" s="5" t="s">
@@ -24981,7 +24982,7 @@
         <v>1558</v>
       </c>
       <c r="E225" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F225" s="6" t="s">
@@ -25030,9 +25031,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="226" spans="1:24" hidden="1">
+    <row r="226" spans="1:24">
       <c r="A226" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Guardian</v>
       </c>
       <c r="B226" s="5" t="s">
@@ -25045,7 +25046,7 @@
         <v>1558</v>
       </c>
       <c r="E226" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F226" s="6">
@@ -25100,9 +25101,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="227" spans="1:24" hidden="1">
+    <row r="227" spans="1:24">
       <c r="A227" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Girl2</v>
       </c>
       <c r="B227" s="5" t="s">
@@ -25115,7 +25116,7 @@
         <v>1558</v>
       </c>
       <c r="E227" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F227" s="6" t="s">
@@ -25164,9 +25165,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="228" spans="1:24" hidden="1">
+    <row r="228" spans="1:24">
       <c r="A228" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Detectiv</v>
       </c>
       <c r="B228" s="5" t="s">
@@ -25179,7 +25180,7 @@
         <v>1558</v>
       </c>
       <c r="E228" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F228" s="6" t="s">
@@ -25232,9 +25233,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="229" spans="1:24" hidden="1">
+    <row r="229" spans="1:24">
       <c r="A229" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Samurai</v>
       </c>
       <c r="B229" s="5" t="s">
@@ -25247,7 +25248,7 @@
         <v>1558</v>
       </c>
       <c r="E229" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F229" s="6" t="s">
@@ -25304,9 +25305,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="230" spans="1:24" hidden="1">
+    <row r="230" spans="1:24">
       <c r="A230" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Guardian</v>
       </c>
       <c r="B230" s="5" t="s">
@@ -25319,7 +25320,7 @@
         <v>1558</v>
       </c>
       <c r="E230" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F230" s="6" t="s">
@@ -25376,9 +25377,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="231" spans="1:24" hidden="1">
+    <row r="231" spans="1:24">
       <c r="A231" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Ancient</v>
       </c>
       <c r="B231" s="8" t="s">
@@ -25391,7 +25392,7 @@
         <v>1558</v>
       </c>
       <c r="E231" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F231" s="9" t="s">
@@ -25452,9 +25453,9 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="232" spans="1:24" hidden="1">
+    <row r="232" spans="1:24">
       <c r="A232" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Haniwa</v>
       </c>
       <c r="B232" s="5" t="s">
@@ -25467,7 +25468,7 @@
         <v>2288</v>
       </c>
       <c r="E232" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="F232" s="6" t="s">
@@ -25524,9 +25525,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="233" spans="1:24" hidden="1">
+    <row r="233" spans="1:24">
       <c r="A233" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Dolphin</v>
       </c>
       <c r="B233" s="5" t="s">
@@ -25539,7 +25540,7 @@
         <v>1523</v>
       </c>
       <c r="E233" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="F233" s="6" t="s">
@@ -25600,9 +25601,9 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="234" spans="1:24" hidden="1">
+    <row r="234" spans="1:24">
       <c r="A234" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>OdinCrow</v>
       </c>
       <c r="B234" s="5" t="s">
@@ -25615,7 +25616,7 @@
         <v>15</v>
       </c>
       <c r="E234" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="F234" s="6" t="s">
@@ -25674,9 +25675,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="235" spans="1:24" hidden="1">
+    <row r="235" spans="1:24">
       <c r="A235" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>WarMach</v>
       </c>
       <c r="B235" s="8" t="s">
@@ -25689,7 +25690,7 @@
         <v>2290</v>
       </c>
       <c r="E235" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F235" s="9" t="s">
@@ -25744,9 +25745,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="236" spans="1:24" hidden="1">
+    <row r="236" spans="1:24">
       <c r="A236" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Human M</v>
       </c>
       <c r="B236" s="5" t="s">
@@ -25759,7 +25760,7 @@
         <v>1558</v>
       </c>
       <c r="E236" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F236" s="6">
@@ -25808,9 +25809,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="237" spans="1:24" hidden="1">
+    <row r="237" spans="1:24">
       <c r="A237" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Human F</v>
       </c>
       <c r="B237" s="5" t="s">
@@ -25823,7 +25824,7 @@
         <v>1558</v>
       </c>
       <c r="E237" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F237" s="6">
@@ -25872,9 +25873,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="238" spans="1:24" hidden="1">
+    <row r="238" spans="1:24">
       <c r="A238" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Mutant M</v>
       </c>
       <c r="B238" s="5" t="s">
@@ -25887,7 +25888,7 @@
         <v>1558</v>
       </c>
       <c r="E238" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F238" s="6">
@@ -25938,9 +25939,9 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="239" spans="1:24" hidden="1">
+    <row r="239" spans="1:24">
       <c r="A239" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Mutant F</v>
       </c>
       <c r="B239" s="5" t="s">
@@ -25953,7 +25954,7 @@
         <v>1558</v>
       </c>
       <c r="E239" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F239" s="6" t="s">
@@ -26004,9 +26005,9 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="240" spans="1:24" hidden="1">
+    <row r="240" spans="1:24">
       <c r="A240" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Robot</v>
       </c>
       <c r="B240" s="5" t="s">
@@ -26019,7 +26020,7 @@
         <v>1558</v>
       </c>
       <c r="E240" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F240" s="6" t="s">
@@ -26068,9 +26069,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="241" spans="1:24" hidden="1">
+    <row r="241" spans="1:24">
       <c r="A241" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Slime</v>
       </c>
       <c r="B241" s="5" t="s">
@@ -26083,7 +26084,7 @@
         <v>9</v>
       </c>
       <c r="E241" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F241" s="6" t="s">
@@ -26132,9 +26133,9 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="242" spans="1:24" hidden="1">
+    <row r="242" spans="1:24">
       <c r="A242" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Hatchling</v>
       </c>
       <c r="B242" s="5" t="s">
@@ -26147,7 +26148,7 @@
         <v>9</v>
       </c>
       <c r="E242" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F242" s="6" t="s">
@@ -26198,9 +26199,9 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="243" spans="1:24" hidden="1">
+    <row r="243" spans="1:24">
       <c r="A243" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Imp</v>
       </c>
       <c r="B243" s="8" t="s">
@@ -26213,7 +26214,7 @@
         <v>9</v>
       </c>
       <c r="E243" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F243" s="9" t="s">
@@ -26262,9 +26263,9 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="244" spans="1:24" hidden="1">
+    <row r="244" spans="1:24">
       <c r="A244" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Ashura</v>
       </c>
       <c r="B244" s="5" t="s">
@@ -26277,7 +26278,7 @@
         <v>15</v>
       </c>
       <c r="E244" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="F244" s="6">
@@ -26332,9 +26333,9 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="245" spans="1:24" hidden="1">
+    <row r="245" spans="1:24">
       <c r="A245" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Venus</v>
       </c>
       <c r="B245" s="5" t="s">
@@ -26347,7 +26348,7 @@
         <v>1523</v>
       </c>
       <c r="E245" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="F245" s="6" t="s">
@@ -26402,9 +26403,9 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="246" spans="1:24" hidden="1">
+    <row r="246" spans="1:24">
       <c r="A246" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Sho-gun</v>
       </c>
       <c r="B246" s="5" t="s">
@@ -26417,7 +26418,7 @@
         <v>15</v>
       </c>
       <c r="E246" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="F246" s="6" t="s">
@@ -26472,9 +26473,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="247" spans="1:24" hidden="1">
+    <row r="247" spans="1:24">
       <c r="A247" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Magnate</v>
       </c>
       <c r="B247" s="5" t="s">
@@ -26487,7 +26488,7 @@
         <v>2288</v>
       </c>
       <c r="E247" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="F247" s="6" t="s">
@@ -26544,9 +26545,9 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="248" spans="1:24" hidden="1">
+    <row r="248" spans="1:24">
       <c r="A248" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Odin</v>
       </c>
       <c r="B248" s="5" t="s">
@@ -26559,7 +26560,7 @@
         <v>2289</v>
       </c>
       <c r="E248" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F248" s="6" t="s">
@@ -26614,9 +26615,9 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="249" spans="1:24" hidden="1">
+    <row r="249" spans="1:24">
       <c r="A249" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Minion</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -26629,7 +26630,7 @@
         <v>2290</v>
       </c>
       <c r="E249" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F249" s="6" t="s">
@@ -26684,9 +26685,9 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="250" spans="1:24" hidden="1">
+    <row r="250" spans="1:24">
       <c r="A250" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Apollo</v>
       </c>
       <c r="B250" s="5" t="s">
@@ -26695,7 +26696,7 @@
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F250" s="6" t="s">
@@ -26744,9 +26745,9 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="251" spans="1:24" hidden="1">
+    <row r="251" spans="1:24">
       <c r="A251" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Arsenal</v>
       </c>
       <c r="B251" s="8" t="s">
@@ -26755,7 +26756,7 @@
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F251" s="9" t="s">
@@ -26804,9 +26805,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="252" spans="1:24" hidden="1">
+    <row r="252" spans="1:24">
       <c r="A252" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>Jerk</v>
       </c>
       <c r="B252" s="5" t="s">
@@ -26816,7 +26817,7 @@
         <v>0</v>
       </c>
       <c r="E252" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H252">
@@ -26848,9 +26849,9 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="253" spans="1:24" hidden="1">
+    <row r="253" spans="1:24">
       <c r="A253" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>SuperJerk</v>
       </c>
       <c r="B253" s="5" t="s">
@@ -26860,7 +26861,7 @@
         <v>3</v>
       </c>
       <c r="E253" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H253">
@@ -26903,15 +26904,33 @@
         <v>2570</v>
       </c>
     </row>
+    <row r="254" spans="1:24">
+      <c r="A254" t="str">
+        <f t="shared" si="7"/>
+        <v>Human</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>2568</v>
+      </c>
+      <c r="X254" s="121" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24">
+      <c r="A255" t="str">
+        <f t="shared" si="7"/>
+        <v>Mutant</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>2570</v>
+      </c>
+      <c r="X255" s="121" t="s">
+        <v>2570</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:X253" xr:uid="{BF094668-7A42-428C-8430-3CCEFAD0B568}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:A253">
+  <autoFilter ref="A1:X253" xr:uid="{BF094668-7A42-428C-8430-3CCEFAD0B568}"/>
+  <conditionalFormatting sqref="A2:A255">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
@@ -37983,11 +38002,11 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AG259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA18" sqref="AA18"/>
+      <selection pane="bottomRight" activeCell="U75" sqref="U75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39167,7 +39186,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" hidden="1">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Gold Bow</v>
@@ -39920,11 +39939,11 @@
     <row r="30" spans="1:33" hidden="1">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>Xcalibr Sword</v>
+        <v>Xcalibr</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" ref="B30:B37" si="5">CONCATENATE(C30, " ",D30)</f>
-        <v>Xcalibr Sword</v>
+        <f>C30</f>
+        <v>Xcalibr</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>1772</v>
@@ -39988,14 +40007,17 @@
       <c r="AA30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="AC30" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" hidden="1">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Samurai Bow</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B31:B37" si="5">CONCATENATE(C31, " ",D31)</f>
         <v>Samurai Bow</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -40055,11 +40077,11 @@
       <c r="Z31">
         <v>1000</v>
       </c>
-      <c r="AA31">
-        <v>84</v>
+      <c r="AA31" t="s">
+        <v>4</v>
       </c>
       <c r="AC31" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="32" spans="1:33" hidden="1">
@@ -42410,13 +42432,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" hidden="1">
       <c r="A72" t="str">
         <f t="shared" si="6"/>
         <v>Colt Gun</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" ref="B72:B74" si="10">CONCATENATE(C72, " ",D72)</f>
+        <f>CONCATENATE(C72, " ",D72)</f>
         <v>Colt Gun</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -42490,13 +42512,13 @@
         <v>748</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" hidden="1">
       <c r="A73" t="str">
         <f t="shared" si="6"/>
         <v>Musket Gun</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="10"/>
+        <f>CONCATENATE(C73, " ",D73)</f>
         <v>Musket Gun</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -42568,13 +42590,13 @@
         <v>748</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" hidden="1">
       <c r="A74" t="str">
         <f t="shared" si="6"/>
         <v>Magnum Gun</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="10"/>
+        <f>CONCATENATE(C74, " ",D74)</f>
         <v>Magnum Gun</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -42646,13 +42668,13 @@
         <v>748</v>
       </c>
     </row>
-    <row r="75" spans="1:33" hidden="1">
+    <row r="75" spans="1:33">
       <c r="A75" t="str">
         <f t="shared" si="6"/>
         <v>Strike</v>
       </c>
       <c r="B75" t="str">
-        <f>C75</f>
+        <f t="shared" ref="B75:B80" si="10">C75</f>
         <v>Strike</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -42714,17 +42736,17 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="76" spans="1:33" hidden="1">
+    <row r="76" spans="1:33">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
-        <v>Elbow</v>
+        <v>Flying Kick</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" ref="B76:B80" si="11">C76</f>
-        <v>Elbow</v>
+        <f t="shared" si="10"/>
+        <v>Flying Kick</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>2638</v>
+        <v>2645</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>2306</v>
@@ -42776,23 +42798,23 @@
         <v>2330</v>
       </c>
       <c r="X76" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="AG76" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" hidden="1">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="str">
         <f t="shared" si="6"/>
         <v>HeadButt</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>HeadButt</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>2306</v>
@@ -42846,14 +42868,17 @@
       <c r="X77" t="s">
         <v>2295</v>
       </c>
-    </row>
-    <row r="78" spans="1:33" hidden="1">
+      <c r="AC77" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
         <v>Roundhouse</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Roundhouse</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -42911,17 +42936,20 @@
       <c r="X78" t="s">
         <v>2295</v>
       </c>
+      <c r="AB78" t="s">
+        <v>1884</v>
+      </c>
       <c r="AG78" t="s">
         <v>2577</v>
       </c>
     </row>
-    <row r="79" spans="1:33" hidden="1">
+    <row r="79" spans="1:33">
       <c r="A79" t="str">
         <f t="shared" si="6"/>
         <v>Jyudo</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Jyudo</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -42979,14 +43007,17 @@
       <c r="X79" t="s">
         <v>2295</v>
       </c>
-    </row>
-    <row r="80" spans="1:33" hidden="1">
+      <c r="AC79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="str">
         <f t="shared" si="6"/>
         <v>Karate</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Karate</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -43108,7 +43139,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:33" hidden="1">
       <c r="A82" t="str">
         <f t="shared" si="6"/>
         <v>StunGun</v>
@@ -43373,7 +43404,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:33" hidden="1">
       <c r="A86" t="str">
         <f t="shared" si="6"/>
         <v>SMG Gun</v>
@@ -43450,7 +43481,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:33" hidden="1">
       <c r="A87" t="str">
         <f t="shared" si="6"/>
         <v>Grenade</v>
@@ -43518,10 +43549,10 @@
         <v>0</v>
       </c>
       <c r="AC87" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="88" spans="1:33">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" hidden="1">
       <c r="A88" t="str">
         <f t="shared" si="6"/>
         <v>Bazooka</v>
@@ -43596,7 +43627,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:33" hidden="1">
       <c r="A89" t="str">
         <f t="shared" si="6"/>
         <v>Vulcan</v>
@@ -43671,7 +43702,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:33" hidden="1">
       <c r="A90" t="str">
         <f t="shared" si="6"/>
         <v>Tank</v>
@@ -43740,7 +43771,7 @@
         <v>85</v>
       </c>
       <c r="AC90" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="AE90">
         <v>70</v>
@@ -43749,7 +43780,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" spans="1:33" hidden="1">
       <c r="A91" t="str">
         <f t="shared" si="6"/>
         <v>Fire Gun</v>
@@ -43823,13 +43854,13 @@
         <v>25</v>
       </c>
       <c r="AC91" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="AF91" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:33" hidden="1">
       <c r="A92" t="str">
         <f t="shared" si="6"/>
         <v>Missile</v>
@@ -43897,13 +43928,13 @@
         <v>100</v>
       </c>
       <c r="AC92" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="AF92" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:33" hidden="1">
       <c r="A93" t="str">
         <f t="shared" si="6"/>
         <v>NukeBomb</v>
@@ -43971,7 +44002,7 @@
         <v>100</v>
       </c>
       <c r="AC93" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="94" spans="1:33" hidden="1">
@@ -44258,7 +44289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:33" hidden="1">
       <c r="A99" t="str">
         <f t="shared" si="6"/>
         <v>Coin</v>
@@ -44447,7 +44478,7 @@
     </row>
     <row r="102" spans="1:33" hidden="1">
       <c r="A102" t="str">
-        <f t="shared" ref="A102:A165" si="12">B102</f>
+        <f t="shared" ref="A102:A165" si="11">B102</f>
         <v>Muramas</v>
       </c>
       <c r="B102" t="str">
@@ -44461,7 +44492,7 @@
         <v>108</v>
       </c>
       <c r="E102" s="5">
-        <f t="shared" ref="E102:E165" si="13">HEX2DEC(F102)</f>
+        <f t="shared" ref="E102:E165" si="12">HEX2DEC(F102)</f>
         <v>106</v>
       </c>
       <c r="F102" s="94" t="s">
@@ -44514,7 +44545,7 @@
     </row>
     <row r="103" spans="1:33" hidden="1">
       <c r="A103" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Gungnir</v>
       </c>
       <c r="B103" t="str">
@@ -44528,7 +44559,7 @@
         <v>1929</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>107</v>
       </c>
       <c r="F103" s="94" t="s">
@@ -44584,7 +44615,7 @@
     </row>
     <row r="104" spans="1:33" hidden="1">
       <c r="A104" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Laser Sword</v>
       </c>
       <c r="B104" t="str">
@@ -44598,7 +44629,7 @@
         <v>108</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>108</v>
       </c>
       <c r="F104" s="94" t="s">
@@ -44651,7 +44682,7 @@
     </row>
     <row r="105" spans="1:33" hidden="1">
       <c r="A105" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Psi Knife</v>
       </c>
       <c r="B105" t="str">
@@ -44665,7 +44696,7 @@
         <v>1718</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="F105" s="94" t="s">
@@ -44714,7 +44745,7 @@
     </row>
     <row r="106" spans="1:33" hidden="1">
       <c r="A106" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Psi Sword</v>
       </c>
       <c r="B106" t="str">
@@ -44728,7 +44759,7 @@
         <v>108</v>
       </c>
       <c r="E106" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>110</v>
       </c>
       <c r="F106" s="94" t="s">
@@ -44775,9 +44806,9 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="107" spans="1:33">
+    <row r="107" spans="1:33" hidden="1">
       <c r="A107" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Laser Gun</v>
       </c>
       <c r="B107" t="str">
@@ -44791,7 +44822,7 @@
         <v>1854</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>111</v>
       </c>
       <c r="F107" s="94" t="s">
@@ -44841,7 +44872,7 @@
         <v>50</v>
       </c>
       <c r="AC107" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="AF107" t="s">
         <v>748</v>
@@ -44849,7 +44880,7 @@
     </row>
     <row r="108" spans="1:33" hidden="1">
       <c r="A108" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>SpeedUp</v>
       </c>
       <c r="B108" t="str">
@@ -44861,7 +44892,7 @@
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="F108" s="94">
@@ -44914,9 +44945,9 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:33" hidden="1">
       <c r="A109" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Rocket</v>
       </c>
       <c r="B109" t="str">
@@ -44928,7 +44959,7 @@
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>113</v>
       </c>
       <c r="F109" s="94">
@@ -44990,11 +45021,11 @@
     </row>
     <row r="110" spans="1:33" hidden="1">
       <c r="A110" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Psi Gun</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" ref="B110:B121" si="14">CONCATENATE(C110, " ",D110)</f>
+        <f t="shared" ref="B110:B121" si="13">CONCATENATE(C110, " ",D110)</f>
         <v>Psi Gun</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -45004,7 +45035,7 @@
         <v>1854</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>114</v>
       </c>
       <c r="F110" s="94">
@@ -45053,11 +45084,11 @@
     </row>
     <row r="111" spans="1:33" hidden="1">
       <c r="A111" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Giant Helm</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>Giant Helm</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -45067,7 +45098,7 @@
         <v>1809</v>
       </c>
       <c r="E111" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="F111" s="94">
@@ -45109,11 +45140,11 @@
     </row>
     <row r="112" spans="1:33" hidden="1">
       <c r="A112" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Hyper Cannon</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>Hyper Cannon</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -45123,7 +45154,7 @@
         <v>1894</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>116</v>
       </c>
       <c r="F112" s="94">
@@ -45174,11 +45205,11 @@
     </row>
     <row r="113" spans="1:31" hidden="1">
       <c r="A113" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Battle Armor</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>Battle Armor</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -45188,7 +45219,7 @@
         <v>1813</v>
       </c>
       <c r="E113" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>117</v>
       </c>
       <c r="F113" s="94">
@@ -45230,11 +45261,11 @@
     </row>
     <row r="114" spans="1:31" hidden="1">
       <c r="A114" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Parasuit </v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Parasuit </v>
       </c>
       <c r="C114" s="5" t="s">
@@ -45242,7 +45273,7 @@
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>118</v>
       </c>
       <c r="F114" s="94">
@@ -45287,11 +45318,11 @@
     </row>
     <row r="115" spans="1:31" hidden="1">
       <c r="A115" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Door </v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Door </v>
       </c>
       <c r="C115" s="5" t="s">
@@ -45299,7 +45330,7 @@
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>119</v>
       </c>
       <c r="F115" s="94">
@@ -45335,11 +45366,11 @@
     </row>
     <row r="116" spans="1:31" hidden="1">
       <c r="A116" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Micron Potion</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>Micron Potion</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -45349,7 +45380,7 @@
         <v>1757</v>
       </c>
       <c r="E116" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="F116" s="94">
@@ -45385,11 +45416,11 @@
     </row>
     <row r="117" spans="1:31" hidden="1">
       <c r="A117" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">Key </v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Key </v>
       </c>
       <c r="C117" s="5" t="s">
@@ -45397,7 +45428,7 @@
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>121</v>
       </c>
       <c r="F117" s="94">
@@ -45431,13 +45462,13 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" spans="1:31" hidden="1">
       <c r="A118" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Masmune Magi</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>Masmune Magi</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -45447,7 +45478,7 @@
         <v>1970</v>
       </c>
       <c r="E118" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>122</v>
       </c>
       <c r="F118" s="94" t="s">
@@ -45502,11 +45533,11 @@
     </row>
     <row r="119" spans="1:31" hidden="1">
       <c r="A119" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Aegis Magi</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>Aegis Magi</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -45516,7 +45547,7 @@
         <v>1970</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>123</v>
       </c>
       <c r="F119" s="94" t="s">
@@ -45568,11 +45599,11 @@
     </row>
     <row r="120" spans="1:31" hidden="1">
       <c r="A120" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Heart Magi</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>Heart Magi</v>
       </c>
       <c r="C120" s="5" t="s">
@@ -45582,7 +45613,7 @@
         <v>1970</v>
       </c>
       <c r="E120" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>124</v>
       </c>
       <c r="F120" s="94" t="s">
@@ -45634,11 +45665,11 @@
     </row>
     <row r="121" spans="1:31" hidden="1">
       <c r="A121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Pegasus Magi</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>Pegasus Magi</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -45648,7 +45679,7 @@
         <v>1970</v>
       </c>
       <c r="E121" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>125</v>
       </c>
       <c r="F121" s="94" t="s">
@@ -45685,7 +45716,7 @@
     </row>
     <row r="122" spans="1:31" hidden="1">
       <c r="A122" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Selfix</v>
       </c>
       <c r="B122" t="str">
@@ -45697,7 +45728,7 @@
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>126</v>
       </c>
       <c r="F122" s="94" t="s">
@@ -45739,7 +45770,7 @@
     </row>
     <row r="123" spans="1:31" hidden="1">
       <c r="A123" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Seven Sword</v>
       </c>
       <c r="B123" t="str">
@@ -45753,7 +45784,7 @@
         <v>108</v>
       </c>
       <c r="E123" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>127</v>
       </c>
       <c r="F123" s="94" t="s">
@@ -45785,7 +45816,7 @@
         <v>16</v>
       </c>
       <c r="T123" s="5" t="str">
-        <f t="shared" ref="T123:T149" si="15">U123</f>
+        <f t="shared" ref="T123:T149" si="14">U123</f>
         <v>Str</v>
       </c>
       <c r="U123" t="s">
@@ -45806,11 +45837,11 @@
     </row>
     <row r="124" spans="1:31" hidden="1">
       <c r="A124" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Nail</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" ref="B124:B163" si="16">C124&amp;D124</f>
+        <f t="shared" ref="B124:B163" si="15">C124&amp;D124</f>
         <v>Nail</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -45818,7 +45849,7 @@
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
       <c r="F124" s="94">
@@ -45850,7 +45881,7 @@
         <v>1</v>
       </c>
       <c r="T124" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U124" t="s">
@@ -45868,11 +45899,11 @@
     </row>
     <row r="125" spans="1:31" hidden="1">
       <c r="A125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Tusk</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Tusk</v>
       </c>
       <c r="C125" s="5" t="s">
@@ -45880,7 +45911,7 @@
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>129</v>
       </c>
       <c r="F125" s="94">
@@ -45912,7 +45943,7 @@
         <v>1</v>
       </c>
       <c r="T125" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U125" t="s">
@@ -45930,11 +45961,11 @@
     </row>
     <row r="126" spans="1:31" hidden="1">
       <c r="A126" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Tongue</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Tongue</v>
       </c>
       <c r="C126" s="5" t="s">
@@ -45942,7 +45973,7 @@
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="F126" s="94">
@@ -45974,7 +46005,7 @@
         <v>1</v>
       </c>
       <c r="T126" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U126" t="s">
@@ -45992,11 +46023,11 @@
     </row>
     <row r="127" spans="1:31" hidden="1">
       <c r="A127" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Stab</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Stab</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -46004,7 +46035,7 @@
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>131</v>
       </c>
       <c r="F127" s="94">
@@ -46036,7 +46067,7 @@
         <v>1</v>
       </c>
       <c r="T127" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U127" t="s">
@@ -46054,11 +46085,11 @@
     </row>
     <row r="128" spans="1:31" hidden="1">
       <c r="A128" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Branch</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Branch</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -46066,7 +46097,7 @@
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>132</v>
       </c>
       <c r="F128" s="94">
@@ -46098,7 +46129,7 @@
         <v>1</v>
       </c>
       <c r="T128" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U128" t="s">
@@ -46116,11 +46147,11 @@
     </row>
     <row r="129" spans="1:33" hidden="1">
       <c r="A129" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Bash</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Bash</v>
       </c>
       <c r="C129" s="5" t="s">
@@ -46128,7 +46159,7 @@
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>133</v>
       </c>
       <c r="F129" s="94">
@@ -46160,7 +46191,7 @@
         <v>1</v>
       </c>
       <c r="T129" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U129" t="s">
@@ -46178,11 +46209,11 @@
     </row>
     <row r="130" spans="1:33" hidden="1">
       <c r="A130" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Punch</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Punch</v>
       </c>
       <c r="C130" s="5" t="s">
@@ -46190,7 +46221,7 @@
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>134</v>
       </c>
       <c r="F130" s="94">
@@ -46222,7 +46253,7 @@
         <v>1</v>
       </c>
       <c r="T130" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U130" t="s">
@@ -46240,11 +46271,11 @@
     </row>
     <row r="131" spans="1:33" hidden="1">
       <c r="A131" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Kick</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Kick</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -46252,7 +46283,7 @@
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="F131" s="94">
@@ -46284,7 +46315,7 @@
         <v>1</v>
       </c>
       <c r="T131" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U131" t="s">
@@ -46302,11 +46333,11 @@
     </row>
     <row r="132" spans="1:33" hidden="1">
       <c r="A132" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Horn</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Horn</v>
       </c>
       <c r="C132" s="5" t="s">
@@ -46314,7 +46345,7 @@
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>136</v>
       </c>
       <c r="F132" s="94">
@@ -46346,7 +46377,7 @@
         <v>1</v>
       </c>
       <c r="T132" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U132" t="s">
@@ -46364,11 +46395,11 @@
     </row>
     <row r="133" spans="1:33" hidden="1">
       <c r="A133" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Thorn</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Thorn</v>
       </c>
       <c r="C133" s="5" t="s">
@@ -46376,7 +46407,7 @@
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>137</v>
       </c>
       <c r="F133" s="94">
@@ -46408,7 +46439,7 @@
         <v>1</v>
       </c>
       <c r="T133" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U133" t="s">
@@ -46426,11 +46457,11 @@
     </row>
     <row r="134" spans="1:33" hidden="1">
       <c r="A134" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Sword</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Sword</v>
       </c>
       <c r="C134" s="5" t="s">
@@ -46438,7 +46469,7 @@
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>138</v>
       </c>
       <c r="F134" s="94" t="s">
@@ -46470,7 +46501,7 @@
         <v>1</v>
       </c>
       <c r="T134" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U134" t="s">
@@ -46488,11 +46519,11 @@
     </row>
     <row r="135" spans="1:33" hidden="1">
       <c r="A135" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Head</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Head</v>
       </c>
       <c r="C135" s="5" t="s">
@@ -46500,7 +46531,7 @@
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>139</v>
       </c>
       <c r="F135" s="94" t="s">
@@ -46532,7 +46563,7 @@
         <v>1</v>
       </c>
       <c r="T135" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U135" t="s">
@@ -46550,11 +46581,11 @@
     </row>
     <row r="136" spans="1:33" hidden="1">
       <c r="A136" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Beak</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Beak</v>
       </c>
       <c r="C136" s="5" t="s">
@@ -46562,7 +46593,7 @@
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
       <c r="F136" s="94" t="s">
@@ -46594,7 +46625,7 @@
         <v>1</v>
       </c>
       <c r="T136" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Agl</v>
       </c>
       <c r="U136" t="s">
@@ -46612,11 +46643,11 @@
     </row>
     <row r="137" spans="1:33" hidden="1">
       <c r="A137" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Tail</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Tail</v>
       </c>
       <c r="C137" s="5" t="s">
@@ -46624,7 +46655,7 @@
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>141</v>
       </c>
       <c r="F137" s="94" t="s">
@@ -46656,7 +46687,7 @@
         <v>1</v>
       </c>
       <c r="T137" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Agl</v>
       </c>
       <c r="U137" t="s">
@@ -46677,11 +46708,11 @@
     </row>
     <row r="138" spans="1:33" hidden="1">
       <c r="A138" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Pincer</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Pincer</v>
       </c>
       <c r="C138" s="5" t="s">
@@ -46689,7 +46720,7 @@
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="F138" s="94" t="s">
@@ -46721,7 +46752,7 @@
         <v>1</v>
       </c>
       <c r="T138" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U138" t="s">
@@ -46739,11 +46770,11 @@
     </row>
     <row r="139" spans="1:33" hidden="1">
       <c r="A139" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Fin</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Fin</v>
       </c>
       <c r="C139" s="5" t="s">
@@ -46751,7 +46782,7 @@
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
       <c r="F139" s="94" t="s">
@@ -46783,7 +46814,7 @@
         <v>1</v>
       </c>
       <c r="T139" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Agl</v>
       </c>
       <c r="U139" t="s">
@@ -46801,11 +46832,11 @@
     </row>
     <row r="140" spans="1:33" hidden="1">
       <c r="A140" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Tentacle</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Tentacle</v>
       </c>
       <c r="C140" s="5" t="s">
@@ -46813,7 +46844,7 @@
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>144</v>
       </c>
       <c r="F140" s="94">
@@ -46845,7 +46876,7 @@
         <v>1</v>
       </c>
       <c r="T140" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U140" t="s">
@@ -46863,11 +46894,11 @@
     </row>
     <row r="141" spans="1:33" hidden="1">
       <c r="A141" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>W-Pincer</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>W-Pincer</v>
       </c>
       <c r="C141" s="5" t="s">
@@ -46875,7 +46906,7 @@
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>145</v>
       </c>
       <c r="F141" s="94">
@@ -46905,7 +46936,7 @@
         <v>1</v>
       </c>
       <c r="T141" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U141" t="s">
@@ -46926,11 +46957,11 @@
     </row>
     <row r="142" spans="1:33" hidden="1">
       <c r="A142" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>W-Attack</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>W-Attack</v>
       </c>
       <c r="C142" s="5" t="s">
@@ -46938,7 +46969,7 @@
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>146</v>
       </c>
       <c r="F142" s="94">
@@ -46970,7 +47001,7 @@
         <v>1</v>
       </c>
       <c r="T142" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U142" t="s">
@@ -46991,11 +47022,11 @@
     </row>
     <row r="143" spans="1:33" hidden="1">
       <c r="A143" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4-Heads</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4-Heads</v>
       </c>
       <c r="C143" s="5" t="s">
@@ -47003,7 +47034,7 @@
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="F143" s="94">
@@ -47035,7 +47066,7 @@
         <v>1</v>
       </c>
       <c r="T143" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U143" t="s">
@@ -47056,11 +47087,11 @@
     </row>
     <row r="144" spans="1:33" hidden="1">
       <c r="A144" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8-Legs</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>8-Legs</v>
       </c>
       <c r="C144" s="5" t="s">
@@ -47068,7 +47099,7 @@
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="F144" s="94">
@@ -47100,7 +47131,7 @@
         <v>1</v>
       </c>
       <c r="T144" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U144" t="s">
@@ -47121,11 +47152,11 @@
     </row>
     <row r="145" spans="1:33" hidden="1">
       <c r="A145" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Touch</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Touch</v>
       </c>
       <c r="C145" s="5" t="s">
@@ -47133,7 +47164,7 @@
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>149</v>
       </c>
       <c r="F145" s="94">
@@ -47163,7 +47194,7 @@
         <v>1</v>
       </c>
       <c r="T145" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Mana</v>
       </c>
       <c r="U145" t="s">
@@ -47190,11 +47221,11 @@
     </row>
     <row r="146" spans="1:33" hidden="1">
       <c r="A146" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Saw</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Saw</v>
       </c>
       <c r="C146" s="5" t="s">
@@ -47202,7 +47233,7 @@
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="F146" s="94">
@@ -47232,7 +47263,7 @@
         <v>1</v>
       </c>
       <c r="T146" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Str</v>
       </c>
       <c r="U146" t="s">
@@ -47253,11 +47284,11 @@
     </row>
     <row r="147" spans="1:33" hidden="1">
       <c r="A147" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Dissolve</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Dissolve</v>
       </c>
       <c r="C147" s="5" t="s">
@@ -47265,7 +47296,7 @@
       </c>
       <c r="D147" s="6"/>
       <c r="E147" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="F147" s="94">
@@ -47295,7 +47326,7 @@
         <v>1</v>
       </c>
       <c r="T147" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Mana</v>
       </c>
       <c r="U147" t="s">
@@ -47322,11 +47353,11 @@
     </row>
     <row r="148" spans="1:33" hidden="1">
       <c r="A148" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Absorb</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Absorb</v>
       </c>
       <c r="C148" s="5" t="s">
@@ -47334,7 +47365,7 @@
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>152</v>
       </c>
       <c r="F148" s="94">
@@ -47364,7 +47395,7 @@
         <v>1</v>
       </c>
       <c r="T148" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Mana</v>
       </c>
       <c r="U148" t="s">
@@ -47391,11 +47422,11 @@
     </row>
     <row r="149" spans="1:33" hidden="1">
       <c r="A149" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Cure</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Cure</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -47403,7 +47434,7 @@
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>153</v>
       </c>
       <c r="F149" s="94">
@@ -47433,7 +47464,7 @@
         <v>2005</v>
       </c>
       <c r="T149" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Mana</v>
       </c>
       <c r="U149" t="s">
@@ -47454,11 +47485,11 @@
     </row>
     <row r="150" spans="1:33" hidden="1">
       <c r="A150" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Defense</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Defense</v>
       </c>
       <c r="C150" s="5" t="s">
@@ -47466,7 +47497,7 @@
       </c>
       <c r="D150" s="6"/>
       <c r="E150" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>154</v>
       </c>
       <c r="F150" s="94" t="s">
@@ -47510,11 +47541,11 @@
     </row>
     <row r="151" spans="1:33" hidden="1">
       <c r="A151" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Shell</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Shell</v>
       </c>
       <c r="C151" s="5" t="s">
@@ -47522,7 +47553,7 @@
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>155</v>
       </c>
       <c r="F151" s="94" t="s">
@@ -47566,11 +47597,11 @@
     </row>
     <row r="152" spans="1:33" hidden="1">
       <c r="A152" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Mirror</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Mirror</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -47578,7 +47609,7 @@
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>157</v>
       </c>
       <c r="F152" s="94" t="s">
@@ -47619,11 +47650,11 @@
     </row>
     <row r="153" spans="1:33" hidden="1">
       <c r="A153" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Backlash</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Backlash</v>
       </c>
       <c r="C153" s="5" t="s">
@@ -47631,7 +47662,7 @@
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>158</v>
       </c>
       <c r="F153" s="94" t="s">
@@ -47661,7 +47692,7 @@
         <v>1</v>
       </c>
       <c r="T153" s="5" t="str">
-        <f t="shared" ref="T153:T165" si="17">U153</f>
+        <f t="shared" ref="T153:T165" si="16">U153</f>
         <v>Str</v>
       </c>
       <c r="U153" t="s">
@@ -47682,11 +47713,11 @@
     </row>
     <row r="154" spans="1:33" hidden="1">
       <c r="A154" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Burning</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Burning</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -47694,7 +47725,7 @@
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>159</v>
       </c>
       <c r="F154" s="94" t="s">
@@ -47724,7 +47755,7 @@
         <v>1</v>
       </c>
       <c r="T154" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Mana</v>
       </c>
       <c r="U154" t="s">
@@ -47745,11 +47776,11 @@
     </row>
     <row r="155" spans="1:33" hidden="1">
       <c r="A155" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2-Swords</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2-Swords</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -47757,7 +47788,7 @@
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>160</v>
       </c>
       <c r="F155" s="94" t="s">
@@ -47787,7 +47818,7 @@
         <v>1</v>
       </c>
       <c r="T155" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Str</v>
       </c>
       <c r="U155" t="s">
@@ -47808,11 +47839,11 @@
     </row>
     <row r="156" spans="1:33" hidden="1">
       <c r="A156" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2-Tusks</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2-Tusks</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -47820,7 +47851,7 @@
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>161</v>
       </c>
       <c r="F156" s="94" t="s">
@@ -47850,7 +47881,7 @@
         <v>1</v>
       </c>
       <c r="T156" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Str</v>
       </c>
       <c r="U156" t="s">
@@ -47871,11 +47902,11 @@
     </row>
     <row r="157" spans="1:33" hidden="1">
       <c r="A157" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3-Heads</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3-Heads</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -47883,7 +47914,7 @@
       </c>
       <c r="D157" s="6"/>
       <c r="E157" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>162</v>
       </c>
       <c r="F157" s="94" t="s">
@@ -47915,7 +47946,7 @@
         <v>1</v>
       </c>
       <c r="T157" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Str</v>
       </c>
       <c r="U157" t="s">
@@ -47936,11 +47967,11 @@
     </row>
     <row r="158" spans="1:33" hidden="1">
       <c r="A158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3-Horns</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3-Horns</v>
       </c>
       <c r="C158" s="5" t="s">
@@ -47948,7 +47979,7 @@
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>163</v>
       </c>
       <c r="F158" s="94" t="s">
@@ -47980,7 +48011,7 @@
         <v>1</v>
       </c>
       <c r="T158" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Str</v>
       </c>
       <c r="U158" t="s">
@@ -48001,11 +48032,11 @@
     </row>
     <row r="159" spans="1:33" hidden="1">
       <c r="A159" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6-Arms</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>6-Arms</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -48013,7 +48044,7 @@
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>164</v>
       </c>
       <c r="F159" s="94" t="s">
@@ -48043,7 +48074,7 @@
         <v>1</v>
       </c>
       <c r="T159" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Str</v>
       </c>
       <c r="U159" t="s">
@@ -48064,11 +48095,11 @@
     </row>
     <row r="160" spans="1:33" hidden="1">
       <c r="A160" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Critical</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Critical</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -48076,7 +48107,7 @@
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>165</v>
       </c>
       <c r="F160" s="94" t="s">
@@ -48106,7 +48137,7 @@
         <v>1</v>
       </c>
       <c r="T160" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Str</v>
       </c>
       <c r="U160" t="s">
@@ -48127,11 +48158,11 @@
     </row>
     <row r="161" spans="1:33" hidden="1">
       <c r="A161" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Axe</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Axe</v>
       </c>
       <c r="C161" s="5" t="s">
@@ -48139,7 +48170,7 @@
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>166</v>
       </c>
       <c r="F161" s="94" t="s">
@@ -48171,7 +48202,7 @@
         <v>1</v>
       </c>
       <c r="T161" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Str</v>
       </c>
       <c r="U161" t="s">
@@ -48189,11 +48220,11 @@
     </row>
     <row r="162" spans="1:33" hidden="1">
       <c r="A162" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Honey</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Honey</v>
       </c>
       <c r="C162" s="5" t="s">
@@ -48201,7 +48232,7 @@
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>167</v>
       </c>
       <c r="F162" s="94" t="s">
@@ -48231,7 +48262,7 @@
         <v>2005</v>
       </c>
       <c r="T162" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Mana</v>
       </c>
       <c r="U162" t="s">
@@ -48252,11 +48283,11 @@
     </row>
     <row r="163" spans="1:33" hidden="1">
       <c r="A163" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Heal</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>Heal</v>
       </c>
       <c r="C163" s="5" t="s">
@@ -48264,7 +48295,7 @@
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>168</v>
       </c>
       <c r="F163" s="94" t="s">
@@ -48294,7 +48325,7 @@
         <v>2005</v>
       </c>
       <c r="T163" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Mana</v>
       </c>
       <c r="U163" t="s">
@@ -48315,7 +48346,7 @@
     </row>
     <row r="164" spans="1:33" hidden="1">
       <c r="A164" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>Life</v>
       </c>
       <c r="B164" t="s">
@@ -48328,7 +48359,7 @@
         <v>1757</v>
       </c>
       <c r="E164" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>169</v>
       </c>
       <c r="F164" s="94" t="s">
@@ -48358,7 +48389,7 @@
         <v>2005</v>
       </c>
       <c r="T164" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Mana</v>
       </c>
       <c r="U164" t="s">
@@ -48385,11 +48416,11 @@
     </row>
     <row r="165" spans="1:33" hidden="1">
       <c r="A165" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>W-Kick</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" ref="B165:B196" si="18">C165&amp;D165</f>
+        <f t="shared" ref="B165:B196" si="17">C165&amp;D165</f>
         <v>W-Kick</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -48397,7 +48428,7 @@
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>170</v>
       </c>
       <c r="F165" s="94" t="s">
@@ -48427,7 +48458,7 @@
         <v>1</v>
       </c>
       <c r="T165" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>Str</v>
       </c>
       <c r="U165" t="s">
@@ -48448,11 +48479,11 @@
     </row>
     <row r="166" spans="1:33" hidden="1">
       <c r="A166" t="str">
-        <f t="shared" ref="A166:A229" si="19">B166</f>
+        <f t="shared" ref="A166:A229" si="18">B166</f>
         <v>ParaNail</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>ParaNail</v>
       </c>
       <c r="C166" s="5" t="s">
@@ -48460,7 +48491,7 @@
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="5">
-        <f t="shared" ref="E166:E229" si="20">HEX2DEC(F166)</f>
+        <f t="shared" ref="E166:E229" si="19">HEX2DEC(F166)</f>
         <v>171</v>
       </c>
       <c r="F166" s="94" t="s">
@@ -48513,19 +48544,19 @@
     </row>
     <row r="167" spans="1:33" hidden="1">
       <c r="A167" t="str">
-        <f t="shared" si="19"/>
-        <v>Wind Up</v>
-      </c>
-      <c r="B167" t="str">
         <f t="shared" si="18"/>
         <v>Wind Up</v>
       </c>
+      <c r="B167" t="str">
+        <f t="shared" si="17"/>
+        <v>Wind Up</v>
+      </c>
       <c r="C167" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>172</v>
       </c>
       <c r="F167" s="94" t="s">
@@ -48572,19 +48603,19 @@
     </row>
     <row r="168" spans="1:33" hidden="1">
       <c r="A168" t="str">
-        <f t="shared" si="19"/>
-        <v>Tie Up</v>
-      </c>
-      <c r="B168" t="str">
         <f t="shared" si="18"/>
         <v>Tie Up</v>
       </c>
+      <c r="B168" t="str">
+        <f t="shared" si="17"/>
+        <v>Tie Up</v>
+      </c>
       <c r="C168" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>173</v>
       </c>
       <c r="F168" s="94" t="s">
@@ -48631,19 +48662,19 @@
     </row>
     <row r="169" spans="1:33" hidden="1">
       <c r="A169" t="str">
-        <f t="shared" si="19"/>
-        <v>Breath</v>
-      </c>
-      <c r="B169" t="str">
         <f t="shared" si="18"/>
         <v>Breath</v>
       </c>
+      <c r="B169" t="str">
+        <f t="shared" si="17"/>
+        <v>Breath</v>
+      </c>
       <c r="C169" s="5" t="s">
         <v>394</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>174</v>
       </c>
       <c r="F169" s="94" t="s">
@@ -48690,19 +48721,19 @@
     </row>
     <row r="170" spans="1:33" hidden="1">
       <c r="A170" t="str">
-        <f t="shared" si="19"/>
-        <v>Poison</v>
-      </c>
-      <c r="B170" t="str">
         <f t="shared" si="18"/>
         <v>Poison</v>
       </c>
+      <c r="B170" t="str">
+        <f t="shared" si="17"/>
+        <v>Poison</v>
+      </c>
       <c r="C170" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>175</v>
       </c>
       <c r="F170" s="94" t="s">
@@ -48749,19 +48780,19 @@
     </row>
     <row r="171" spans="1:33" hidden="1">
       <c r="A171" t="str">
-        <f t="shared" si="19"/>
-        <v>P-Skin</v>
-      </c>
-      <c r="B171" t="str">
         <f t="shared" si="18"/>
         <v>P-Skin</v>
       </c>
+      <c r="B171" t="str">
+        <f t="shared" si="17"/>
+        <v>P-Skin</v>
+      </c>
       <c r="C171" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>177</v>
       </c>
       <c r="F171" s="94" t="s">
@@ -48808,19 +48839,19 @@
     </row>
     <row r="172" spans="1:33" hidden="1">
       <c r="A172" t="str">
-        <f t="shared" si="19"/>
-        <v>ParaSkin</v>
-      </c>
-      <c r="B172" t="str">
         <f t="shared" si="18"/>
         <v>ParaSkin</v>
       </c>
+      <c r="B172" t="str">
+        <f t="shared" si="17"/>
+        <v>ParaSkin</v>
+      </c>
       <c r="C172" s="5" t="s">
         <v>268</v>
       </c>
       <c r="D172" s="6"/>
       <c r="E172" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>178</v>
       </c>
       <c r="F172" s="94" t="s">
@@ -48867,19 +48898,19 @@
     </row>
     <row r="173" spans="1:33" hidden="1">
       <c r="A173" t="str">
-        <f t="shared" si="19"/>
-        <v>Petrify</v>
-      </c>
-      <c r="B173" t="str">
         <f t="shared" si="18"/>
         <v>Petrify</v>
       </c>
+      <c r="B173" t="str">
+        <f t="shared" si="17"/>
+        <v>Petrify</v>
+      </c>
       <c r="C173" s="5" t="s">
         <v>361</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>179</v>
       </c>
       <c r="F173" s="94" t="s">
@@ -48926,19 +48957,19 @@
     </row>
     <row r="174" spans="1:33" hidden="1">
       <c r="A174" t="str">
-        <f t="shared" si="19"/>
-        <v>StonSkin</v>
-      </c>
-      <c r="B174" t="str">
         <f t="shared" si="18"/>
         <v>StonSkin</v>
       </c>
+      <c r="B174" t="str">
+        <f t="shared" si="17"/>
+        <v>StonSkin</v>
+      </c>
       <c r="C174" s="5" t="s">
         <v>362</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>180</v>
       </c>
       <c r="F174" s="94" t="s">
@@ -48985,19 +49016,19 @@
     </row>
     <row r="175" spans="1:33" hidden="1">
       <c r="A175" t="str">
-        <f t="shared" si="19"/>
-        <v>Thunder</v>
-      </c>
-      <c r="B175" t="str">
         <f t="shared" si="18"/>
         <v>Thunder</v>
       </c>
+      <c r="B175" t="str">
+        <f t="shared" si="17"/>
+        <v>Thunder</v>
+      </c>
       <c r="C175" s="5" t="s">
         <v>241</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>181</v>
       </c>
       <c r="F175" s="94" t="s">
@@ -49027,7 +49058,7 @@
         <v>2005</v>
       </c>
       <c r="T175" s="5" t="str">
-        <f t="shared" ref="T175:T187" si="21">U175</f>
+        <f t="shared" ref="T175:T187" si="20">U175</f>
         <v>Mana</v>
       </c>
       <c r="U175" t="s">
@@ -49048,19 +49079,19 @@
     </row>
     <row r="176" spans="1:33" hidden="1">
       <c r="A176" t="str">
-        <f t="shared" si="19"/>
-        <v>Ice</v>
-      </c>
-      <c r="B176" t="str">
         <f t="shared" si="18"/>
         <v>Ice</v>
       </c>
+      <c r="B176" t="str">
+        <f t="shared" si="17"/>
+        <v>Ice</v>
+      </c>
       <c r="C176" s="5" t="s">
         <v>439</v>
       </c>
       <c r="D176" s="6"/>
       <c r="E176" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>182</v>
       </c>
       <c r="F176" s="94" t="s">
@@ -49090,7 +49121,7 @@
         <v>2005</v>
       </c>
       <c r="T176" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U176" t="s">
@@ -49111,19 +49142,19 @@
     </row>
     <row r="177" spans="1:28" hidden="1">
       <c r="A177" t="str">
-        <f t="shared" si="19"/>
-        <v>Fire</v>
-      </c>
-      <c r="B177" t="str">
         <f t="shared" si="18"/>
         <v>Fire</v>
       </c>
+      <c r="B177" t="str">
+        <f t="shared" si="17"/>
+        <v>Fire</v>
+      </c>
       <c r="C177" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>183</v>
       </c>
       <c r="F177" s="94" t="s">
@@ -49153,7 +49184,7 @@
         <v>2005</v>
       </c>
       <c r="T177" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U177" t="s">
@@ -49174,19 +49205,19 @@
     </row>
     <row r="178" spans="1:28" hidden="1">
       <c r="A178" t="str">
-        <f t="shared" si="19"/>
-        <v>Flame</v>
-      </c>
-      <c r="B178" t="str">
         <f t="shared" si="18"/>
         <v>Flame</v>
       </c>
+      <c r="B178" t="str">
+        <f t="shared" si="17"/>
+        <v>Flame</v>
+      </c>
       <c r="C178" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D178" s="6"/>
       <c r="E178" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>184</v>
       </c>
       <c r="F178" s="94" t="s">
@@ -49216,7 +49247,7 @@
         <v>2005</v>
       </c>
       <c r="T178" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U178" t="s">
@@ -49237,19 +49268,19 @@
     </row>
     <row r="179" spans="1:28" hidden="1">
       <c r="A179" t="str">
-        <f t="shared" si="19"/>
-        <v>Gas</v>
-      </c>
-      <c r="B179" t="str">
         <f t="shared" si="18"/>
         <v>Gas</v>
       </c>
+      <c r="B179" t="str">
+        <f t="shared" si="17"/>
+        <v>Gas</v>
+      </c>
       <c r="C179" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D179" s="6"/>
       <c r="E179" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>185</v>
       </c>
       <c r="F179" s="94" t="s">
@@ -49279,7 +49310,7 @@
         <v>2005</v>
       </c>
       <c r="T179" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U179" t="s">
@@ -49300,19 +49331,19 @@
     </row>
     <row r="180" spans="1:28" hidden="1">
       <c r="A180" t="str">
-        <f t="shared" si="19"/>
-        <v>Blizzard</v>
-      </c>
-      <c r="B180" t="str">
         <f t="shared" si="18"/>
         <v>Blizzard</v>
       </c>
+      <c r="B180" t="str">
+        <f t="shared" si="17"/>
+        <v>Blizzard</v>
+      </c>
       <c r="C180" s="5" t="s">
         <v>267</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>186</v>
       </c>
       <c r="F180" s="94" t="s">
@@ -49342,7 +49373,7 @@
         <v>2005</v>
       </c>
       <c r="T180" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U180" t="s">
@@ -49363,19 +49394,19 @@
     </row>
     <row r="181" spans="1:28" hidden="1">
       <c r="A181" t="str">
-        <f t="shared" si="19"/>
-        <v>Lightning</v>
-      </c>
-      <c r="B181" t="str">
         <f t="shared" si="18"/>
         <v>Lightning</v>
       </c>
+      <c r="B181" t="str">
+        <f t="shared" si="17"/>
+        <v>Lightning</v>
+      </c>
       <c r="C181" s="5" t="s">
         <v>2361</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>187</v>
       </c>
       <c r="F181" s="94" t="s">
@@ -49405,7 +49436,7 @@
         <v>2005</v>
       </c>
       <c r="T181" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U181" t="s">
@@ -49426,19 +49457,19 @@
     </row>
     <row r="182" spans="1:28" hidden="1">
       <c r="A182" t="str">
-        <f t="shared" si="19"/>
-        <v>Beam</v>
-      </c>
-      <c r="B182" t="str">
         <f t="shared" si="18"/>
         <v>Beam</v>
       </c>
+      <c r="B182" t="str">
+        <f t="shared" si="17"/>
+        <v>Beam</v>
+      </c>
       <c r="C182" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>188</v>
       </c>
       <c r="F182" s="94" t="s">
@@ -49468,7 +49499,7 @@
         <v>1</v>
       </c>
       <c r="T182" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U182" t="s">
@@ -49486,19 +49517,19 @@
     </row>
     <row r="183" spans="1:28" hidden="1">
       <c r="A183" t="str">
-        <f t="shared" si="19"/>
-        <v>P-Blast</v>
-      </c>
-      <c r="B183" t="str">
         <f t="shared" si="18"/>
         <v>P-Blast</v>
       </c>
+      <c r="B183" t="str">
+        <f t="shared" si="17"/>
+        <v>P-Blast</v>
+      </c>
       <c r="C183" s="5" t="s">
         <v>142</v>
       </c>
       <c r="D183" s="6"/>
       <c r="E183" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>189</v>
       </c>
       <c r="F183" s="94" t="s">
@@ -49528,7 +49559,7 @@
         <v>2005</v>
       </c>
       <c r="T183" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U183" t="s">
@@ -49546,19 +49577,19 @@
     </row>
     <row r="184" spans="1:28" hidden="1">
       <c r="A184" t="str">
-        <f t="shared" si="19"/>
-        <v>Dispel</v>
-      </c>
-      <c r="B184" t="str">
         <f t="shared" si="18"/>
         <v>Dispel</v>
       </c>
+      <c r="B184" t="str">
+        <f t="shared" si="17"/>
+        <v>Dispel</v>
+      </c>
       <c r="C184" s="5" t="s">
         <v>442</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>190</v>
       </c>
       <c r="F184" s="94" t="s">
@@ -49588,7 +49619,7 @@
         <v>2005</v>
       </c>
       <c r="T184" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U184" t="s">
@@ -49604,24 +49635,24 @@
         <v>2299</v>
       </c>
       <c r="Y184" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="185" spans="1:28" hidden="1">
       <c r="A185" t="str">
-        <f t="shared" si="19"/>
-        <v>D-Beam</v>
-      </c>
-      <c r="B185" t="str">
         <f t="shared" si="18"/>
         <v>D-Beam</v>
       </c>
+      <c r="B185" t="str">
+        <f t="shared" si="17"/>
+        <v>D-Beam</v>
+      </c>
       <c r="C185" s="5" t="s">
         <v>178</v>
       </c>
       <c r="D185" s="6"/>
       <c r="E185" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>191</v>
       </c>
       <c r="F185" s="94" t="s">
@@ -49651,7 +49682,7 @@
         <v>1</v>
       </c>
       <c r="T185" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U185" t="s">
@@ -49672,19 +49703,19 @@
     </row>
     <row r="186" spans="1:28" hidden="1">
       <c r="A186" t="str">
-        <f t="shared" si="19"/>
-        <v>Squirt</v>
-      </c>
-      <c r="B186" t="str">
         <f t="shared" si="18"/>
         <v>Squirt</v>
       </c>
+      <c r="B186" t="str">
+        <f t="shared" si="17"/>
+        <v>Squirt</v>
+      </c>
       <c r="C186" s="5" t="s">
         <v>257</v>
       </c>
       <c r="D186" s="6"/>
       <c r="E186" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>192</v>
       </c>
       <c r="F186" s="94" t="s">
@@ -49714,7 +49745,7 @@
         <v>1</v>
       </c>
       <c r="T186" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U186" t="s">
@@ -49735,19 +49766,19 @@
     </row>
     <row r="187" spans="1:28" hidden="1">
       <c r="A187" t="str">
-        <f t="shared" si="19"/>
-        <v>SunBurst</v>
-      </c>
-      <c r="B187" t="str">
         <f t="shared" si="18"/>
         <v>SunBurst</v>
       </c>
+      <c r="B187" t="str">
+        <f t="shared" si="17"/>
+        <v>SunBurst</v>
+      </c>
       <c r="C187" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D187" s="6"/>
       <c r="E187" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>193</v>
       </c>
       <c r="F187" s="94" t="s">
@@ -49777,7 +49808,7 @@
         <v>1</v>
       </c>
       <c r="T187" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>Mana</v>
       </c>
       <c r="U187" t="s">
@@ -49793,24 +49824,24 @@
         <v>2299</v>
       </c>
       <c r="Y187" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="188" spans="1:28" hidden="1">
       <c r="A188" t="str">
-        <f t="shared" si="19"/>
-        <v>SleepGas</v>
-      </c>
-      <c r="B188" t="str">
         <f t="shared" si="18"/>
         <v>SleepGas</v>
       </c>
+      <c r="B188" t="str">
+        <f t="shared" si="17"/>
+        <v>SleepGas</v>
+      </c>
       <c r="C188" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>194</v>
       </c>
       <c r="F188" s="94" t="s">
@@ -49857,19 +49888,19 @@
     </row>
     <row r="189" spans="1:28" hidden="1">
       <c r="A189" t="str">
-        <f t="shared" si="19"/>
-        <v>Sleep</v>
-      </c>
-      <c r="B189" t="str">
         <f t="shared" si="18"/>
         <v>Sleep</v>
       </c>
+      <c r="B189" t="str">
+        <f t="shared" si="17"/>
+        <v>Sleep</v>
+      </c>
       <c r="C189" s="5" t="s">
         <v>465</v>
       </c>
       <c r="D189" s="6"/>
       <c r="E189" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>195</v>
       </c>
       <c r="F189" s="94" t="s">
@@ -49916,19 +49947,19 @@
     </row>
     <row r="190" spans="1:28" hidden="1">
       <c r="A190" t="str">
-        <f t="shared" si="19"/>
-        <v>StonGaze</v>
-      </c>
-      <c r="B190" t="str">
         <f t="shared" si="18"/>
         <v>StonGaze</v>
       </c>
+      <c r="B190" t="str">
+        <f t="shared" si="17"/>
+        <v>StonGaze</v>
+      </c>
       <c r="C190" s="5" t="s">
         <v>173</v>
       </c>
       <c r="D190" s="6"/>
       <c r="E190" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>196</v>
       </c>
       <c r="F190" s="94" t="s">
@@ -49975,19 +50006,19 @@
     </row>
     <row r="191" spans="1:28" hidden="1">
       <c r="A191" t="str">
-        <f t="shared" si="19"/>
-        <v>Stone</v>
-      </c>
-      <c r="B191" t="str">
         <f t="shared" si="18"/>
         <v>Stone</v>
       </c>
+      <c r="B191" t="str">
+        <f t="shared" si="17"/>
+        <v>Stone</v>
+      </c>
       <c r="C191" s="5" t="s">
         <v>480</v>
       </c>
       <c r="D191" s="6"/>
       <c r="E191" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>197</v>
       </c>
       <c r="F191" s="94" t="s">
@@ -50034,19 +50065,19 @@
     </row>
     <row r="192" spans="1:28" hidden="1">
       <c r="A192" t="str">
-        <f t="shared" si="19"/>
-        <v>StoneGas</v>
-      </c>
-      <c r="B192" t="str">
         <f t="shared" si="18"/>
         <v>StoneGas</v>
       </c>
+      <c r="B192" t="str">
+        <f t="shared" si="17"/>
+        <v>StoneGas</v>
+      </c>
       <c r="C192" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D192" s="6"/>
       <c r="E192" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>198</v>
       </c>
       <c r="F192" s="94" t="s">
@@ -50093,19 +50124,19 @@
     </row>
     <row r="193" spans="1:33" hidden="1">
       <c r="A193" t="str">
-        <f t="shared" si="19"/>
-        <v>FatalGas</v>
-      </c>
-      <c r="B193" t="str">
         <f t="shared" si="18"/>
         <v>FatalGas</v>
       </c>
+      <c r="B193" t="str">
+        <f t="shared" si="17"/>
+        <v>FatalGas</v>
+      </c>
       <c r="C193" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D193" s="6"/>
       <c r="E193" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>199</v>
       </c>
       <c r="F193" s="94" t="s">
@@ -50152,19 +50183,19 @@
     </row>
     <row r="194" spans="1:33" hidden="1">
       <c r="A194" t="str">
-        <f t="shared" si="19"/>
-        <v>DeathGaze</v>
-      </c>
-      <c r="B194" t="str">
         <f t="shared" si="18"/>
         <v>DeathGaze</v>
       </c>
+      <c r="B194" t="str">
+        <f t="shared" si="17"/>
+        <v>DeathGaze</v>
+      </c>
       <c r="C194" s="5" t="s">
         <v>2574</v>
       </c>
       <c r="D194" s="6"/>
       <c r="E194" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
       <c r="F194" s="94" t="s">
@@ -50214,19 +50245,19 @@
     </row>
     <row r="195" spans="1:33" hidden="1">
       <c r="A195" t="str">
-        <f t="shared" si="19"/>
-        <v>Erase</v>
-      </c>
-      <c r="B195" t="str">
         <f t="shared" si="18"/>
         <v>Erase</v>
       </c>
+      <c r="B195" t="str">
+        <f t="shared" si="17"/>
+        <v>Erase</v>
+      </c>
       <c r="C195" s="5" t="s">
         <v>388</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>201</v>
       </c>
       <c r="F195" s="94" t="s">
@@ -50273,19 +50304,19 @@
     </row>
     <row r="196" spans="1:33" hidden="1">
       <c r="A196" t="str">
-        <f t="shared" si="19"/>
-        <v>Blind</v>
-      </c>
-      <c r="B196" t="str">
         <f t="shared" si="18"/>
         <v>Blind</v>
       </c>
+      <c r="B196" t="str">
+        <f t="shared" si="17"/>
+        <v>Blind</v>
+      </c>
       <c r="C196" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="6"/>
       <c r="E196" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>202</v>
       </c>
       <c r="F196" s="94" t="s">
@@ -50332,11 +50363,11 @@
     </row>
     <row r="197" spans="1:33" hidden="1">
       <c r="A197" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Flash</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" ref="B197:B223" si="22">C197&amp;D197</f>
+        <f t="shared" ref="B197:B223" si="21">C197&amp;D197</f>
         <v>Flash</v>
       </c>
       <c r="C197" s="5" t="s">
@@ -50344,7 +50375,7 @@
       </c>
       <c r="D197" s="6"/>
       <c r="E197" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>203</v>
       </c>
       <c r="F197" s="94" t="s">
@@ -50391,11 +50422,11 @@
     </row>
     <row r="198" spans="1:33" hidden="1">
       <c r="A198" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Ink</v>
       </c>
       <c r="B198" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Ink</v>
       </c>
       <c r="C198" s="5" t="s">
@@ -50403,7 +50434,7 @@
       </c>
       <c r="D198" s="6"/>
       <c r="E198" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>204</v>
       </c>
       <c r="F198" s="94" t="s">
@@ -50450,11 +50481,11 @@
     </row>
     <row r="199" spans="1:33" hidden="1">
       <c r="A199" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>PoisonCloud</v>
       </c>
       <c r="B199" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>PoisonCloud</v>
       </c>
       <c r="C199" s="5" t="s">
@@ -50462,7 +50493,7 @@
       </c>
       <c r="D199" s="6"/>
       <c r="E199" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>205</v>
       </c>
       <c r="F199" s="94" t="s">
@@ -50509,11 +50540,11 @@
     </row>
     <row r="200" spans="1:33" hidden="1">
       <c r="A200" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>EvilEye</v>
       </c>
       <c r="B200" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>EvilEye</v>
       </c>
       <c r="C200" s="5" t="s">
@@ -50521,7 +50552,7 @@
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>206</v>
       </c>
       <c r="F200" s="94" t="s">
@@ -50571,11 +50602,11 @@
     </row>
     <row r="201" spans="1:33" hidden="1">
       <c r="A201" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Stunner</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Stunner</v>
       </c>
       <c r="C201" s="5" t="s">
@@ -50583,7 +50614,7 @@
       </c>
       <c r="D201" s="6"/>
       <c r="E201" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>207</v>
       </c>
       <c r="F201" s="94" t="s">
@@ -50630,11 +50661,11 @@
     </row>
     <row r="202" spans="1:33" hidden="1">
       <c r="A202" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Gaze</v>
       </c>
       <c r="B202" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Gaze</v>
       </c>
       <c r="C202" s="5" t="s">
@@ -50642,7 +50673,7 @@
       </c>
       <c r="D202" s="6"/>
       <c r="E202" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>208</v>
       </c>
       <c r="F202" s="94" t="s">
@@ -50689,11 +50720,11 @@
     </row>
     <row r="203" spans="1:33" hidden="1">
       <c r="A203" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Charm</v>
       </c>
       <c r="B203" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Charm</v>
       </c>
       <c r="C203" s="5" t="s">
@@ -50701,7 +50732,7 @@
       </c>
       <c r="D203" s="6"/>
       <c r="E203" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>209</v>
       </c>
       <c r="F203" s="94" t="s">
@@ -50748,11 +50779,11 @@
     </row>
     <row r="204" spans="1:33" hidden="1">
       <c r="A204" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Hypnos</v>
       </c>
       <c r="B204" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Hypnos</v>
       </c>
       <c r="C204" s="5" t="s">
@@ -50760,7 +50791,7 @@
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>210</v>
       </c>
       <c r="F204" s="94" t="s">
@@ -50807,11 +50838,11 @@
     </row>
     <row r="205" spans="1:33" hidden="1">
       <c r="A205" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Sand</v>
       </c>
       <c r="B205" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Sand</v>
       </c>
       <c r="C205" s="5" t="s">
@@ -50819,7 +50850,7 @@
       </c>
       <c r="D205" s="6"/>
       <c r="E205" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>211</v>
       </c>
       <c r="F205" s="94" t="s">
@@ -50872,11 +50903,11 @@
     </row>
     <row r="206" spans="1:33" hidden="1">
       <c r="A206" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Cobweb</v>
       </c>
       <c r="B206" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Cobweb</v>
       </c>
       <c r="C206" s="5" t="s">
@@ -50884,7 +50915,7 @@
       </c>
       <c r="D206" s="6"/>
       <c r="E206" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>212</v>
       </c>
       <c r="F206" s="94" t="s">
@@ -50937,11 +50968,11 @@
     </row>
     <row r="207" spans="1:33" hidden="1">
       <c r="A207" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Blitz</v>
       </c>
       <c r="B207" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Blitz</v>
       </c>
       <c r="C207" s="5" t="s">
@@ -50949,7 +50980,7 @@
       </c>
       <c r="D207" s="6"/>
       <c r="E207" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>213</v>
       </c>
       <c r="F207" s="94" t="s">
@@ -51002,11 +51033,11 @@
     </row>
     <row r="208" spans="1:33" hidden="1">
       <c r="A208" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Drain</v>
       </c>
       <c r="B208" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Drain</v>
       </c>
       <c r="C208" s="5" t="s">
@@ -51014,7 +51045,7 @@
       </c>
       <c r="D208" s="6"/>
       <c r="E208" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>214</v>
       </c>
       <c r="F208" s="94" t="s">
@@ -51067,11 +51098,11 @@
     </row>
     <row r="209" spans="1:29" hidden="1">
       <c r="A209" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Stench</v>
       </c>
       <c r="B209" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Stench</v>
       </c>
       <c r="C209" s="5" t="s">
@@ -51079,7 +51110,7 @@
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>215</v>
       </c>
       <c r="F209" s="94" t="s">
@@ -51132,11 +51163,11 @@
     </row>
     <row r="210" spans="1:29" hidden="1">
       <c r="A210" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Haste</v>
       </c>
       <c r="B210" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Haste</v>
       </c>
       <c r="C210" s="5" t="s">
@@ -51144,7 +51175,7 @@
       </c>
       <c r="D210" s="6"/>
       <c r="E210" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>216</v>
       </c>
       <c r="F210" s="94" t="s">
@@ -51197,11 +51228,11 @@
     </row>
     <row r="211" spans="1:29" hidden="1">
       <c r="A211" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Tornado</v>
       </c>
       <c r="B211" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Tornado</v>
       </c>
       <c r="C211" s="5" t="s">
@@ -51209,7 +51240,7 @@
       </c>
       <c r="D211" s="6"/>
       <c r="E211" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>217</v>
       </c>
       <c r="F211" s="94" t="s">
@@ -51257,11 +51288,11 @@
     </row>
     <row r="212" spans="1:29" hidden="1">
       <c r="A212" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Quake</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Quake</v>
       </c>
       <c r="C212" s="5" t="s">
@@ -51269,7 +51300,7 @@
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>218</v>
       </c>
       <c r="F212" s="94" t="s">
@@ -51320,11 +51351,11 @@
     </row>
     <row r="213" spans="1:29" hidden="1">
       <c r="A213" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Whirl</v>
       </c>
       <c r="B213" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Whirl</v>
       </c>
       <c r="C213" s="5" t="s">
@@ -51332,7 +51363,7 @@
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>219</v>
       </c>
       <c r="F213" s="94" t="s">
@@ -51380,11 +51411,11 @@
     </row>
     <row r="214" spans="1:29" hidden="1">
       <c r="A214" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Flare</v>
       </c>
       <c r="B214" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Flare</v>
       </c>
       <c r="C214" s="5" t="s">
@@ -51392,7 +51423,7 @@
       </c>
       <c r="D214" s="6"/>
       <c r="E214" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>220</v>
       </c>
       <c r="F214" s="94" t="s">
@@ -51440,11 +51471,11 @@
     </row>
     <row r="215" spans="1:29" hidden="1">
       <c r="A215" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Steal</v>
       </c>
       <c r="B215" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Steal</v>
       </c>
       <c r="C215" s="5" t="s">
@@ -51452,7 +51483,7 @@
       </c>
       <c r="D215" s="6"/>
       <c r="E215" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>221</v>
       </c>
       <c r="F215" s="94" t="s">
@@ -51498,13 +51529,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="216" spans="1:29">
+    <row r="216" spans="1:29" hidden="1">
       <c r="A216" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Explode</v>
       </c>
       <c r="B216" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Explode</v>
       </c>
       <c r="C216" s="5" t="s">
@@ -51512,7 +51543,7 @@
       </c>
       <c r="D216" s="6"/>
       <c r="E216" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>222</v>
       </c>
       <c r="F216" s="94" t="s">
@@ -51565,11 +51596,11 @@
     </row>
     <row r="217" spans="1:29" hidden="1">
       <c r="A217" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Acid</v>
       </c>
       <c r="B217" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Acid</v>
       </c>
       <c r="C217" s="5" t="s">
@@ -51577,7 +51608,7 @@
       </c>
       <c r="D217" s="6"/>
       <c r="E217" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>223</v>
       </c>
       <c r="F217" s="94" t="s">
@@ -51628,11 +51659,11 @@
     </row>
     <row r="218" spans="1:29" hidden="1">
       <c r="A218" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Riddle</v>
       </c>
       <c r="B218" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Riddle</v>
       </c>
       <c r="C218" s="5" t="s">
@@ -51640,7 +51671,7 @@
       </c>
       <c r="D218" s="6"/>
       <c r="E218" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>224</v>
       </c>
       <c r="F218" s="94" t="s">
@@ -51687,11 +51718,11 @@
     </row>
     <row r="219" spans="1:29" hidden="1">
       <c r="A219" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>CursSong</v>
       </c>
       <c r="B219" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>CursSong</v>
       </c>
       <c r="C219" s="5" t="s">
@@ -51699,7 +51730,7 @@
       </c>
       <c r="D219" s="6"/>
       <c r="E219" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>225</v>
       </c>
       <c r="F219" s="94" t="s">
@@ -51746,11 +51777,11 @@
     </row>
     <row r="220" spans="1:29" hidden="1">
       <c r="A220" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>MadSong</v>
       </c>
       <c r="B220" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>MadSong</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -51758,7 +51789,7 @@
       </c>
       <c r="D220" s="6"/>
       <c r="E220" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>226</v>
       </c>
       <c r="F220" s="94" t="s">
@@ -51805,11 +51836,11 @@
     </row>
     <row r="221" spans="1:29" hidden="1">
       <c r="A221" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Surprise</v>
       </c>
       <c r="B221" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Surprise</v>
       </c>
       <c r="C221" s="5" t="s">
@@ -51817,7 +51848,7 @@
       </c>
       <c r="D221" s="6"/>
       <c r="E221" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>227</v>
       </c>
       <c r="F221" s="94" t="s">
@@ -51855,11 +51886,11 @@
     </row>
     <row r="222" spans="1:29" hidden="1">
       <c r="A222" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Warning</v>
       </c>
       <c r="B222" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Warning</v>
       </c>
       <c r="C222" s="5" t="s">
@@ -51867,7 +51898,7 @@
       </c>
       <c r="D222" s="6"/>
       <c r="E222" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>228</v>
       </c>
       <c r="F222" s="94" t="s">
@@ -51905,11 +51936,11 @@
     </row>
     <row r="223" spans="1:29" hidden="1">
       <c r="A223" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Multiply</v>
       </c>
       <c r="B223" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>Multiply</v>
       </c>
       <c r="C223" s="5" t="s">
@@ -51917,7 +51948,7 @@
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>229</v>
       </c>
       <c r="F223" s="94" t="s">
@@ -51961,11 +51992,11 @@
     </row>
     <row r="224" spans="1:29" hidden="1">
       <c r="A224" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>O-Quake</v>
       </c>
       <c r="B224" t="str">
-        <f t="shared" ref="B224:B236" si="23">CONCATENATE(D224,"-",C224)</f>
+        <f t="shared" ref="B224:B236" si="22">CONCATENATE(D224,"-",C224)</f>
         <v>O-Quake</v>
       </c>
       <c r="C224" s="5" t="s">
@@ -51975,7 +52006,7 @@
         <v>2081</v>
       </c>
       <c r="E224" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>230</v>
       </c>
       <c r="F224" s="94" t="s">
@@ -52016,11 +52047,11 @@
     </row>
     <row r="225" spans="1:33" hidden="1">
       <c r="A225" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>O-Change</v>
       </c>
       <c r="B225" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>O-Change</v>
       </c>
       <c r="C225" s="5" t="s">
@@ -52030,7 +52061,7 @@
         <v>2081</v>
       </c>
       <c r="E225" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>231</v>
       </c>
       <c r="F225" s="94" t="s">
@@ -52071,11 +52102,11 @@
     </row>
     <row r="226" spans="1:33" hidden="1">
       <c r="A226" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>O-Fire</v>
       </c>
       <c r="B226" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>O-Fire</v>
       </c>
       <c r="C226" s="5" t="s">
@@ -52085,7 +52116,7 @@
         <v>2081</v>
       </c>
       <c r="E226" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>232</v>
       </c>
       <c r="F226" s="94" t="s">
@@ -52126,11 +52157,11 @@
     </row>
     <row r="227" spans="1:33" hidden="1">
       <c r="A227" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>O-Poison</v>
       </c>
       <c r="B227" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>O-Poison</v>
       </c>
       <c r="C227" s="5" t="s">
@@ -52140,7 +52171,7 @@
         <v>2081</v>
       </c>
       <c r="E227" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>233</v>
       </c>
       <c r="F227" s="94" t="s">
@@ -52181,11 +52212,11 @@
     </row>
     <row r="228" spans="1:33" hidden="1">
       <c r="A228" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>O-Damage</v>
       </c>
       <c r="B228" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>O-Damage</v>
       </c>
       <c r="C228" s="5" t="s">
@@ -52195,7 +52226,7 @@
         <v>2081</v>
       </c>
       <c r="E228" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>234</v>
       </c>
       <c r="F228" s="94" t="s">
@@ -52236,11 +52267,11 @@
     </row>
     <row r="229" spans="1:33" hidden="1">
       <c r="A229" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>O-Weapon</v>
       </c>
       <c r="B229" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>O-Weapon</v>
       </c>
       <c r="C229" s="5" t="s">
@@ -52250,7 +52281,7 @@
         <v>2081</v>
       </c>
       <c r="E229" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>235</v>
       </c>
       <c r="F229" s="94" t="s">
@@ -52291,11 +52322,11 @@
     </row>
     <row r="230" spans="1:33" hidden="1">
       <c r="A230" t="str">
-        <f t="shared" ref="A230:A240" si="24">B230</f>
+        <f t="shared" ref="A230:A240" si="23">B230</f>
         <v>O-Pa/Po</v>
       </c>
       <c r="B230" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>O-Pa/Po</v>
       </c>
       <c r="C230" s="5" t="s">
@@ -52305,7 +52336,7 @@
         <v>2081</v>
       </c>
       <c r="E230" s="5">
-        <f t="shared" ref="E230:E240" si="25">HEX2DEC(F230)</f>
+        <f t="shared" ref="E230:E240" si="24">HEX2DEC(F230)</f>
         <v>236</v>
       </c>
       <c r="F230" s="94" t="s">
@@ -52346,13 +52377,13 @@
     </row>
     <row r="231" spans="1:33" hidden="1">
       <c r="A231" t="str">
-        <f t="shared" si="24"/>
-        <v>O-Para</v>
-      </c>
-      <c r="B231" t="str">
         <f t="shared" si="23"/>
         <v>O-Para</v>
       </c>
+      <c r="B231" t="str">
+        <f t="shared" si="22"/>
+        <v>O-Para</v>
+      </c>
       <c r="C231" s="5" t="s">
         <v>2098</v>
       </c>
@@ -52360,7 +52391,7 @@
         <v>2081</v>
       </c>
       <c r="E231" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>237</v>
       </c>
       <c r="F231" s="94" t="s">
@@ -52401,13 +52432,13 @@
     </row>
     <row r="232" spans="1:33" hidden="1">
       <c r="A232" t="str">
-        <f t="shared" si="24"/>
-        <v>O-Ice</v>
-      </c>
-      <c r="B232" t="str">
         <f t="shared" si="23"/>
         <v>O-Ice</v>
       </c>
+      <c r="B232" t="str">
+        <f t="shared" si="22"/>
+        <v>O-Ice</v>
+      </c>
       <c r="C232" s="5" t="s">
         <v>439</v>
       </c>
@@ -52415,7 +52446,7 @@
         <v>2081</v>
       </c>
       <c r="E232" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>238</v>
       </c>
       <c r="F232" s="94" t="s">
@@ -52456,13 +52487,13 @@
     </row>
     <row r="233" spans="1:33" hidden="1">
       <c r="A233" t="str">
-        <f t="shared" si="24"/>
-        <v>O-Stone</v>
-      </c>
-      <c r="B233" t="str">
         <f t="shared" si="23"/>
         <v>O-Stone</v>
       </c>
+      <c r="B233" t="str">
+        <f t="shared" si="22"/>
+        <v>O-Stone</v>
+      </c>
       <c r="C233" s="5" t="s">
         <v>480</v>
       </c>
@@ -52470,7 +52501,7 @@
         <v>2081</v>
       </c>
       <c r="E233" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>239</v>
       </c>
       <c r="F233" s="94" t="s">
@@ -52511,13 +52542,13 @@
     </row>
     <row r="234" spans="1:33" hidden="1">
       <c r="A234" t="str">
-        <f t="shared" si="24"/>
-        <v>X-Fire</v>
-      </c>
-      <c r="B234" t="str">
         <f t="shared" si="23"/>
         <v>X-Fire</v>
       </c>
+      <c r="B234" t="str">
+        <f t="shared" si="22"/>
+        <v>X-Fire</v>
+      </c>
       <c r="C234" s="5" t="s">
         <v>159</v>
       </c>
@@ -52525,7 +52556,7 @@
         <v>2103</v>
       </c>
       <c r="E234" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>240</v>
       </c>
       <c r="F234" s="94" t="s">
@@ -52569,13 +52600,13 @@
     </row>
     <row r="235" spans="1:33" hidden="1">
       <c r="A235" t="str">
-        <f t="shared" si="24"/>
-        <v>X-Ice</v>
-      </c>
-      <c r="B235" t="str">
         <f t="shared" si="23"/>
         <v>X-Ice</v>
       </c>
+      <c r="B235" t="str">
+        <f t="shared" si="22"/>
+        <v>X-Ice</v>
+      </c>
       <c r="C235" s="5" t="s">
         <v>439</v>
       </c>
@@ -52583,7 +52614,7 @@
         <v>2103</v>
       </c>
       <c r="E235" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>241</v>
       </c>
       <c r="F235" s="94" t="s">
@@ -52627,13 +52658,13 @@
     </row>
     <row r="236" spans="1:33" hidden="1">
       <c r="A236" t="str">
-        <f t="shared" si="24"/>
-        <v>X-Thunder</v>
-      </c>
-      <c r="B236" t="str">
         <f t="shared" si="23"/>
         <v>X-Thunder</v>
       </c>
+      <c r="B236" t="str">
+        <f t="shared" si="22"/>
+        <v>X-Thunder</v>
+      </c>
       <c r="C236" s="5" t="s">
         <v>241</v>
       </c>
@@ -52641,7 +52672,7 @@
         <v>2103</v>
       </c>
       <c r="E236" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>242</v>
       </c>
       <c r="F236" s="94" t="s">
@@ -52685,7 +52716,7 @@
     </row>
     <row r="237" spans="1:33" hidden="1">
       <c r="A237" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>Teleport</v>
       </c>
       <c r="B237" t="str">
@@ -52697,7 +52728,7 @@
       </c>
       <c r="D237" s="6"/>
       <c r="E237" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>243</v>
       </c>
       <c r="F237" s="94" t="s">
@@ -52731,7 +52762,7 @@
     </row>
     <row r="238" spans="1:33" hidden="1">
       <c r="A238" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>Remedy</v>
       </c>
       <c r="B238" t="str">
@@ -52743,7 +52774,7 @@
       </c>
       <c r="D238" s="6"/>
       <c r="E238" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>244</v>
       </c>
       <c r="F238" s="94" t="s">
@@ -52790,7 +52821,7 @@
     </row>
     <row r="239" spans="1:33" hidden="1">
       <c r="A239" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>O-All</v>
       </c>
       <c r="B239" t="str">
@@ -52804,7 +52835,7 @@
         <v>2081</v>
       </c>
       <c r="E239" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>245</v>
       </c>
       <c r="F239" s="94" t="s">
@@ -52845,7 +52876,7 @@
     </row>
     <row r="240" spans="1:33" hidden="1">
       <c r="A240" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>PoisonBurst</v>
       </c>
       <c r="B240" t="str">
@@ -52857,7 +52888,7 @@
       </c>
       <c r="D240" s="6"/>
       <c r="E240" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>246</v>
       </c>
       <c r="F240" s="94" t="s">
@@ -52907,7 +52938,7 @@
     </row>
     <row r="241" spans="1:33" hidden="1">
       <c r="A241" t="str">
-        <f t="shared" ref="A241:A259" si="26">B241</f>
+        <f t="shared" ref="A241:A259" si="25">B241</f>
         <v>FlareApollo</v>
       </c>
       <c r="B241" t="str">
@@ -52921,7 +52952,7 @@
         <v>772</v>
       </c>
       <c r="E241" s="5">
-        <f t="shared" ref="E241:E251" si="27">HEX2DEC(F241)</f>
+        <f t="shared" ref="E241:E251" si="26">HEX2DEC(F241)</f>
         <v>250</v>
       </c>
       <c r="F241" s="94" t="s">
@@ -52959,7 +52990,7 @@
     </row>
     <row r="242" spans="1:33" hidden="1">
       <c r="A242" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Smasher</v>
       </c>
       <c r="B242" t="str">
@@ -52971,7 +53002,7 @@
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>253</v>
       </c>
       <c r="F242" s="94" t="s">
@@ -53009,7 +53040,7 @@
     </row>
     <row r="243" spans="1:33" hidden="1">
       <c r="A243" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Recover</v>
       </c>
       <c r="B243" t="s">
@@ -53020,7 +53051,7 @@
       </c>
       <c r="D243" s="6"/>
       <c r="E243" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>254</v>
       </c>
       <c r="F243" s="94" t="s">
@@ -53061,11 +53092,11 @@
     </row>
     <row r="244" spans="1:33" hidden="1">
       <c r="A244" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Power Magi</v>
       </c>
       <c r="B244" t="str">
-        <f t="shared" ref="B244:B251" si="28">CONCATENATE(C244, " ",D244)</f>
+        <f t="shared" ref="B244:B251" si="27">CONCATENATE(C244, " ",D244)</f>
         <v>Power Magi</v>
       </c>
       <c r="C244" s="5" t="s">
@@ -53075,7 +53106,7 @@
         <v>1970</v>
       </c>
       <c r="E244" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>256</v>
       </c>
       <c r="F244" s="94">
@@ -53118,11 +53149,11 @@
     </row>
     <row r="245" spans="1:33" hidden="1">
       <c r="A245" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Speed Magi</v>
       </c>
       <c r="B245" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Speed Magi</v>
       </c>
       <c r="C245" s="5" t="s">
@@ -53132,7 +53163,7 @@
         <v>1970</v>
       </c>
       <c r="E245" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>257</v>
       </c>
       <c r="F245" s="94" t="s">
@@ -53169,11 +53200,11 @@
     </row>
     <row r="246" spans="1:33" hidden="1">
       <c r="A246" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Mana Magi</v>
       </c>
       <c r="B246" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Mana Magi</v>
       </c>
       <c r="C246" s="5" t="s">
@@ -53183,7 +53214,7 @@
         <v>1970</v>
       </c>
       <c r="E246" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>258</v>
       </c>
       <c r="F246" s="94" t="s">
@@ -53220,11 +53251,11 @@
     </row>
     <row r="247" spans="1:33" hidden="1">
       <c r="A247" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Defense Magi</v>
       </c>
       <c r="B247" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Defense Magi</v>
       </c>
       <c r="C247" s="5" t="s">
@@ -53234,7 +53265,7 @@
         <v>1970</v>
       </c>
       <c r="E247" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>259</v>
       </c>
       <c r="F247" s="94" t="s">
@@ -53271,11 +53302,11 @@
     </row>
     <row r="248" spans="1:33" hidden="1">
       <c r="A248" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Fire Magi</v>
       </c>
       <c r="B248" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Fire Magi</v>
       </c>
       <c r="C248" s="5" t="s">
@@ -53285,7 +53316,7 @@
         <v>1970</v>
       </c>
       <c r="E248" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>260</v>
       </c>
       <c r="F248" s="94" t="s">
@@ -53325,11 +53356,11 @@
     </row>
     <row r="249" spans="1:33" hidden="1">
       <c r="A249" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Ice Magi</v>
       </c>
       <c r="B249" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Ice Magi</v>
       </c>
       <c r="C249" s="5" t="s">
@@ -53339,7 +53370,7 @@
         <v>1970</v>
       </c>
       <c r="E249" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>261</v>
       </c>
       <c r="F249" s="94" t="s">
@@ -53379,11 +53410,11 @@
     </row>
     <row r="250" spans="1:33" hidden="1">
       <c r="A250" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Thunder Magi</v>
       </c>
       <c r="B250" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Thunder Magi</v>
       </c>
       <c r="C250" s="5" t="s">
@@ -53393,7 +53424,7 @@
         <v>1970</v>
       </c>
       <c r="E250" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>262</v>
       </c>
       <c r="F250" s="94" t="s">
@@ -53433,11 +53464,11 @@
     </row>
     <row r="251" spans="1:33" hidden="1">
       <c r="A251" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Poison Magi</v>
       </c>
       <c r="B251" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Poison Magi</v>
       </c>
       <c r="C251" s="5" t="s">
@@ -53447,7 +53478,7 @@
         <v>1970</v>
       </c>
       <c r="E251" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>263</v>
       </c>
       <c r="F251" s="94" t="s">
@@ -53487,7 +53518,7 @@
     </row>
     <row r="252" spans="1:33" hidden="1">
       <c r="A252" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>CatClaw</v>
       </c>
       <c r="B252" t="str">
@@ -53501,7 +53532,7 @@
         <v>1718</v>
       </c>
       <c r="E252" s="5">
-        <f t="shared" ref="E252:E257" si="29">HEX2DEC(F252)</f>
+        <f t="shared" ref="E252:E257" si="28">HEX2DEC(F252)</f>
         <v>17</v>
       </c>
       <c r="F252" s="94">
@@ -53533,7 +53564,7 @@
         <v>1721</v>
       </c>
       <c r="T252" s="5" t="str">
-        <f t="shared" ref="T252:T257" si="30">U252</f>
+        <f t="shared" ref="T252:T257" si="29">U252</f>
         <v>Agl</v>
       </c>
       <c r="U252" t="s">
@@ -53554,7 +53585,7 @@
     </row>
     <row r="253" spans="1:33" hidden="1">
       <c r="A253" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Vampic Sword</v>
       </c>
       <c r="B253" t="str">
@@ -53568,7 +53599,7 @@
         <v>108</v>
       </c>
       <c r="E253" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="F253" s="94">
@@ -53600,7 +53631,7 @@
         <v>1</v>
       </c>
       <c r="T253" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>Mana</v>
       </c>
       <c r="U253" t="s">
@@ -53625,9 +53656,9 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="254" spans="1:33">
+    <row r="254" spans="1:33" hidden="1">
       <c r="A254" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Glass Sword</v>
       </c>
       <c r="B254" t="str">
@@ -53641,7 +53672,7 @@
         <v>108</v>
       </c>
       <c r="E254" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="F254" s="94">
@@ -53693,12 +53724,12 @@
         <v>100</v>
       </c>
       <c r="AC254" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="255" spans="1:33" hidden="1">
       <c r="A255" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Revenge Sword</v>
       </c>
       <c r="B255" t="str">
@@ -53712,7 +53743,7 @@
         <v>108</v>
       </c>
       <c r="E255" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="F255" s="94">
@@ -53744,7 +53775,7 @@
         <v>1668</v>
       </c>
       <c r="T255" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>Str</v>
       </c>
       <c r="U255" t="s">
@@ -53760,9 +53791,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="256" spans="1:33">
+    <row r="256" spans="1:33" hidden="1">
       <c r="A256" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Bow</v>
       </c>
       <c r="B256" t="str">
@@ -53776,7 +53807,7 @@
         <v>747</v>
       </c>
       <c r="E256" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="F256" s="94">
@@ -53835,7 +53866,7 @@
     </row>
     <row r="257" spans="1:33" hidden="1">
       <c r="A257" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Sabre</v>
       </c>
       <c r="B257" t="str">
@@ -53849,7 +53880,7 @@
         <v>108</v>
       </c>
       <c r="E257" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="F257" s="94">
@@ -53881,7 +53912,7 @@
         <v>1717</v>
       </c>
       <c r="T257" s="5" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>Agl</v>
       </c>
       <c r="U257" t="s">
@@ -53902,7 +53933,7 @@
     </row>
     <row r="258" spans="1:33" hidden="1">
       <c r="A258" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>O-Dragon</v>
       </c>
       <c r="B258" t="str">
@@ -53916,7 +53947,7 @@
         <v>2081</v>
       </c>
       <c r="N258" s="43" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="S258" s="5">
         <v>1</v>
@@ -53936,7 +53967,7 @@
     </row>
     <row r="259" spans="1:33" hidden="1">
       <c r="A259" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>Tremor</v>
       </c>
       <c r="B259" t="s">
@@ -53965,7 +53996,7 @@
   <autoFilter ref="A1:AG259" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="20">
       <filters>
-        <filter val="Set"/>
+        <filter val="Mix"/>
       </filters>
     </filterColumn>
     <sortState ref="A38:AG240">

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1581134-730D-4E87-BC23-83BFE5C204D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763E3014-50E5-4B8D-B375-B180FB87EEE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <definedName name="Item_Hex" localSheetId="8">'Item Hex'!$A$1:$U$137</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10914" uniqueCount="2646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10914" uniqueCount="2647">
   <si>
     <t>Monster</t>
   </si>
@@ -8002,6 +8001,9 @@
   </si>
   <si>
     <t>Flying Kick</t>
+  </si>
+  <si>
+    <t>Uses</t>
   </si>
 </sst>
 </file>
@@ -9132,9 +9134,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X256" sqref="X256"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P186" sqref="P186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38002,11 +38004,11 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AG259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U75" sqref="U75"/>
+      <selection pane="bottomRight" activeCell="Z76" sqref="Z76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38026,6 +38028,7 @@
     <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.7109375" customWidth="1"/>
+    <col min="33" max="33" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -42721,7 +42724,7 @@
         <v>2611</v>
       </c>
       <c r="U75" t="s">
-        <v>2611</v>
+        <v>2646</v>
       </c>
       <c r="V75">
         <v>4</v>
@@ -42789,7 +42792,7 @@
         <v>2611</v>
       </c>
       <c r="U76" t="s">
-        <v>2611</v>
+        <v>2646</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -42857,7 +42860,7 @@
         <v>2611</v>
       </c>
       <c r="U77" t="s">
-        <v>2611</v>
+        <v>2646</v>
       </c>
       <c r="V77">
         <v>6</v>
@@ -42925,7 +42928,7 @@
         <v>2611</v>
       </c>
       <c r="U78" t="s">
-        <v>2611</v>
+        <v>2646</v>
       </c>
       <c r="V78">
         <v>7</v>
@@ -42996,7 +42999,7 @@
         <v>2611</v>
       </c>
       <c r="U79" t="s">
-        <v>2611</v>
+        <v>2646</v>
       </c>
       <c r="V79">
         <v>9</v>
@@ -43066,7 +43069,7 @@
         <v>2611</v>
       </c>
       <c r="U80" t="s">
-        <v>2611</v>
+        <v>2646</v>
       </c>
       <c r="V80">
         <v>12</v>

--- a/FFL2 Data.xlsx
+++ b/FFL2 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Action IV\Documents\GitHub\pillar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763E3014-50E5-4B8D-B375-B180FB87EEE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4675A5-E814-4CFC-AEA7-BF0DF41BA122}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10914" uniqueCount="2647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10913" uniqueCount="2647">
   <si>
     <t>Monster</t>
   </si>
@@ -7793,9 +7793,6 @@
     <t>Formerly X-Gaze</t>
   </si>
   <si>
-    <t>Roundhouse</t>
-  </si>
-  <si>
     <t>Formerly X-Kick</t>
   </si>
   <si>
@@ -8000,10 +7997,13 @@
     <t>Block, Never miss</t>
   </si>
   <si>
-    <t>Flying Kick</t>
-  </si>
-  <si>
     <t>Uses</t>
+  </si>
+  <si>
+    <t>JumpKick</t>
+  </si>
+  <si>
+    <t>FlyingKick</t>
   </si>
 </sst>
 </file>
@@ -9134,9 +9134,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P186" sqref="P186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q228" sqref="Q228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9168,7 +9168,7 @@
         <v>2292</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1563</v>
@@ -22320,7 +22320,7 @@
         <v>553</v>
       </c>
       <c r="P186" s="6" t="s">
-        <v>19</v>
+        <v>2636</v>
       </c>
       <c r="Q186" s="6"/>
       <c r="R186" s="6"/>
@@ -22382,13 +22382,13 @@
         <v>555</v>
       </c>
       <c r="P187" s="6" t="s">
-        <v>19</v>
+        <v>2636</v>
       </c>
       <c r="Q187" s="6" t="s">
-        <v>98</v>
+        <v>2645</v>
       </c>
       <c r="R187" s="6" t="s">
-        <v>556</v>
+        <v>2638</v>
       </c>
       <c r="S187" s="6"/>
       <c r="T187" s="6"/>
@@ -22520,16 +22520,16 @@
         <v>563</v>
       </c>
       <c r="P189" s="9" t="s">
-        <v>19</v>
+        <v>2636</v>
       </c>
       <c r="Q189" s="9" t="s">
-        <v>98</v>
+        <v>2645</v>
       </c>
       <c r="R189" s="9" t="s">
-        <v>556</v>
+        <v>2638</v>
       </c>
       <c r="S189" s="9" t="s">
-        <v>2576</v>
+        <v>2646</v>
       </c>
       <c r="T189" s="9" t="s">
         <v>565</v>
@@ -23142,7 +23142,7 @@
         <v>610</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>2576</v>
+        <v>2638</v>
       </c>
       <c r="Q198" s="6" t="s">
         <v>611</v>
@@ -25018,10 +25018,10 @@
         <v>701</v>
       </c>
       <c r="P225" s="6" t="s">
-        <v>19</v>
+        <v>2636</v>
       </c>
       <c r="Q225" s="6" t="s">
-        <v>98</v>
+        <v>2645</v>
       </c>
       <c r="R225" s="6"/>
       <c r="S225" s="6"/>
@@ -25152,10 +25152,10 @@
         <v>704</v>
       </c>
       <c r="P227" s="6" t="s">
-        <v>556</v>
+        <v>2638</v>
       </c>
       <c r="Q227" s="6" t="s">
-        <v>2576</v>
+        <v>2646</v>
       </c>
       <c r="R227" s="6"/>
       <c r="S227" s="6"/>
@@ -25753,7 +25753,7 @@
         <v>Human M</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>9</v>
@@ -25817,7 +25817,7 @@
         <v>Human F</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>9</v>
@@ -26141,7 +26141,7 @@
         <v>Hatchling</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>9</v>
@@ -27984,43 +27984,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="127" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="B1" s="127" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1" s="127" t="s">
         <v>2602</v>
-      </c>
-      <c r="C1" s="127" t="s">
-        <v>2603</v>
       </c>
       <c r="D1" s="127" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="127" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>2592</v>
+      </c>
+      <c r="G1" s="127" t="s">
         <v>2604</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="H1" s="127" t="s">
         <v>2593</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="I1" s="127" t="s">
         <v>2605</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="J1" s="127" t="s">
         <v>2594</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="K1" s="127" t="s">
+        <v>2607</v>
+      </c>
+      <c r="L1" s="127" t="s">
+        <v>2595</v>
+      </c>
+      <c r="M1" s="127" t="s">
         <v>2606</v>
-      </c>
-      <c r="J1" s="127" t="s">
-        <v>2595</v>
-      </c>
-      <c r="K1" s="127" t="s">
-        <v>2608</v>
-      </c>
-      <c r="L1" s="127" t="s">
-        <v>2596</v>
-      </c>
-      <c r="M1" s="127" t="s">
-        <v>2607</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -28130,22 +28130,22 @@
         <v>1563</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="C1" s="126" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1" s="126" t="s">
         <v>2597</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="E1" s="126" t="s">
         <v>2598</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="F1" s="126" t="s">
         <v>2599</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="G1" s="126" t="s">
         <v>2600</v>
-      </c>
-      <c r="G1" s="126" t="s">
-        <v>2601</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -38004,11 +38004,11 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AG259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N75" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="T75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z76" sqref="Z76"/>
+      <selection pane="bottomRight" activeCell="AC80" sqref="AC80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38060,10 +38060,10 @@
         <v>115</v>
       </c>
       <c r="J1" s="89" t="s">
+        <v>2581</v>
+      </c>
+      <c r="K1" s="89" t="s">
         <v>2582</v>
-      </c>
-      <c r="K1" s="89" t="s">
-        <v>2583</v>
       </c>
       <c r="L1" s="90" t="s">
         <v>1644</v>
@@ -38084,7 +38084,7 @@
         <v>1648</v>
       </c>
       <c r="T1" s="93" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="U1" s="93" t="s">
         <v>2294</v>
@@ -38114,13 +38114,13 @@
         <v>2329</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>2338</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>2347</v>
@@ -39679,7 +39679,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W25" t="s">
         <v>2332</v>
@@ -39742,7 +39742,7 @@
         <v>1</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W26" t="s">
         <v>2332</v>
@@ -39805,7 +39805,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W27" t="s">
         <v>2332</v>
@@ -39865,7 +39865,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W28" t="s">
         <v>2332</v>
@@ -40011,7 +40011,7 @@
         <v>0</v>
       </c>
       <c r="AC30" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="31" spans="1:33" hidden="1">
@@ -40084,7 +40084,7 @@
         <v>4</v>
       </c>
       <c r="AC31" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="32" spans="1:33" hidden="1">
@@ -40985,7 +40985,7 @@
         <v>1741</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W45" t="s">
         <v>1813</v>
@@ -41037,7 +41037,7 @@
         <v>1745</v>
       </c>
       <c r="T46" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W46" t="s">
         <v>1813</v>
@@ -41089,7 +41089,7 @@
         <v>1748</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W47" t="s">
         <v>1813</v>
@@ -41141,7 +41141,7 @@
         <v>1705</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W48" t="s">
         <v>1813</v>
@@ -41196,7 +41196,7 @@
         <v>1741</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W49" t="s">
         <v>1813</v>
@@ -41248,7 +41248,7 @@
         <v>1745</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W50" t="s">
         <v>1813</v>
@@ -41300,7 +41300,7 @@
         <v>1748</v>
       </c>
       <c r="T51" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W51" t="s">
         <v>1813</v>
@@ -41352,7 +41352,7 @@
         <v>1751</v>
       </c>
       <c r="T52" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W52" t="s">
         <v>1813</v>
@@ -41407,7 +41407,7 @@
         <v>1705</v>
       </c>
       <c r="T53" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W53" t="s">
         <v>1813</v>
@@ -41462,7 +41462,7 @@
         <v>1741</v>
       </c>
       <c r="T54" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W54" t="s">
         <v>1813</v>
@@ -41514,7 +41514,7 @@
         <v>1745</v>
       </c>
       <c r="T55" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W55" t="s">
         <v>1813</v>
@@ -41566,7 +41566,7 @@
         <v>1748</v>
       </c>
       <c r="T56" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W56" t="s">
         <v>1813</v>
@@ -41622,7 +41622,7 @@
         <v>1751</v>
       </c>
       <c r="T57" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W57" t="s">
         <v>1813</v>
@@ -41674,7 +41674,7 @@
         <v>1705</v>
       </c>
       <c r="T58" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W58" t="s">
         <v>1813</v>
@@ -41733,7 +41733,7 @@
         <v>1748</v>
       </c>
       <c r="T59" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W59" t="s">
         <v>1813</v>
@@ -41789,7 +41789,7 @@
         <v>1751</v>
       </c>
       <c r="T60" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W60" t="s">
         <v>1813</v>
@@ -41841,7 +41841,7 @@
         <v>1</v>
       </c>
       <c r="T61" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W61" t="s">
         <v>2332</v>
@@ -41907,7 +41907,7 @@
         <v>1</v>
       </c>
       <c r="T62" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W62" t="s">
         <v>2332</v>
@@ -41963,7 +41963,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W63" t="s">
         <v>2332</v>
@@ -42013,7 +42013,7 @@
         <v>1</v>
       </c>
       <c r="T64" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W64" t="s">
         <v>2332</v>
@@ -42063,7 +42063,7 @@
         <v>1</v>
       </c>
       <c r="T65" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W65" t="s">
         <v>2332</v>
@@ -42113,7 +42113,7 @@
         <v>1</v>
       </c>
       <c r="T66" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W66" t="s">
         <v>2332</v>
@@ -42161,7 +42161,7 @@
         <v>1</v>
       </c>
       <c r="T67" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W67" t="s">
         <v>2332</v>
@@ -42230,7 +42230,7 @@
         <v>2295</v>
       </c>
       <c r="AC68" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="AE68">
         <v>57</v>
@@ -42300,7 +42300,7 @@
         <v>2295</v>
       </c>
       <c r="AC69" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="AE69">
         <v>60</v>
@@ -42681,7 +42681,7 @@
         <v>Strike</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>2306</v>
@@ -42694,7 +42694,7 @@
         <v>1864</v>
       </c>
       <c r="G75" s="5">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H75" s="5">
         <v>50</v>
@@ -42721,10 +42721,10 @@
         <v>1733</v>
       </c>
       <c r="T75" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="U75" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="V75">
         <v>4</v>
@@ -42734,6 +42734,9 @@
       </c>
       <c r="X75" t="s">
         <v>2295</v>
+      </c>
+      <c r="Z75">
+        <v>60</v>
       </c>
       <c r="AG75" t="s">
         <v>2303</v>
@@ -42742,11 +42745,11 @@
     <row r="76" spans="1:33">
       <c r="A76" t="str">
         <f t="shared" si="6"/>
-        <v>Flying Kick</v>
+        <v>JumpKick</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="10"/>
-        <v>Flying Kick</v>
+        <v>JumpKick</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2645</v>
@@ -42762,7 +42765,7 @@
         <v>50</v>
       </c>
       <c r="G76" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H76" s="5">
         <v>1400</v>
@@ -42789,10 +42792,10 @@
         <v>1869</v>
       </c>
       <c r="T76" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="U76" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -42801,10 +42804,13 @@
         <v>2330</v>
       </c>
       <c r="X76" t="s">
-        <v>2299</v>
+        <v>2295</v>
+      </c>
+      <c r="Z76">
+        <v>65</v>
       </c>
       <c r="AG76" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="77" spans="1:33">
@@ -42817,7 +42823,7 @@
         <v>HeadButt</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>2306</v>
@@ -42830,7 +42836,7 @@
         <v>51</v>
       </c>
       <c r="G77" s="5">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H77" s="5">
         <v>6800</v>
@@ -42857,10 +42863,10 @@
         <v>1736</v>
       </c>
       <c r="T77" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="U77" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="V77">
         <v>6</v>
@@ -42871,21 +42877,27 @@
       <c r="X77" t="s">
         <v>2295</v>
       </c>
+      <c r="Z77">
+        <v>65</v>
+      </c>
       <c r="AC77" t="s">
-        <v>2578</v>
+        <v>2577</v>
+      </c>
+      <c r="AE77">
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:33">
       <c r="A78" t="str">
         <f t="shared" si="6"/>
-        <v>Roundhouse</v>
+        <v>FlyingKick</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="10"/>
-        <v>Roundhouse</v>
+        <v>FlyingKick</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>2576</v>
+        <v>2646</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>2306</v>
@@ -42898,7 +42910,7 @@
         <v>52</v>
       </c>
       <c r="G78" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H78" s="5">
         <v>17000</v>
@@ -42925,10 +42937,10 @@
         <v>1874</v>
       </c>
       <c r="T78" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="U78" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="V78">
         <v>7</v>
@@ -42937,13 +42949,13 @@
         <v>2330</v>
       </c>
       <c r="X78" t="s">
-        <v>2295</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>1884</v>
+        <v>2299</v>
+      </c>
+      <c r="Z78">
+        <v>65</v>
       </c>
       <c r="AG78" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="79" spans="1:33">
@@ -42969,7 +42981,7 @@
         <v>53</v>
       </c>
       <c r="G79" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H79" s="5">
         <v>36000</v>
@@ -42996,10 +43008,10 @@
         <v>1778</v>
       </c>
       <c r="T79" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="U79" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="V79">
         <v>9</v>
@@ -43008,10 +43020,16 @@
         <v>2330</v>
       </c>
       <c r="X79" t="s">
-        <v>2295</v>
+        <v>121</v>
+      </c>
+      <c r="Z79">
+        <v>70</v>
       </c>
       <c r="AC79" t="s">
-        <v>121</v>
+        <v>2296</v>
+      </c>
+      <c r="AE79">
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:33">
@@ -43066,10 +43084,10 @@
         <v>1880</v>
       </c>
       <c r="T80" s="5" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="U80" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="V80">
         <v>12</v>
@@ -43079,6 +43097,12 @@
       </c>
       <c r="X80" t="s">
         <v>2295</v>
+      </c>
+      <c r="Z80">
+        <v>70</v>
+      </c>
+      <c r="AD80">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:33" hidden="1">
@@ -43211,7 +43235,7 @@
         <v>1884</v>
       </c>
       <c r="AG82" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="83" spans="1:33" hidden="1">
@@ -43404,7 +43428,7 @@
         <v>10</v>
       </c>
       <c r="AG85" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="86" spans="1:33" hidden="1">
@@ -43552,7 +43576,7 @@
         <v>0</v>
       </c>
       <c r="AC87" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="88" spans="1:33" hidden="1">
@@ -43774,7 +43798,7 @@
         <v>85</v>
       </c>
       <c r="AC90" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="AE90">
         <v>70</v>
@@ -43857,7 +43881,7 @@
         <v>25</v>
       </c>
       <c r="AC91" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="AF91" t="s">
         <v>748</v>
@@ -43931,7 +43955,7 @@
         <v>100</v>
       </c>
       <c r="AC92" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="AF92" t="s">
         <v>748</v>
@@ -43987,7 +44011,7 @@
         <v>16</v>
       </c>
       <c r="T93" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="U93" t="s">
         <v>2340</v>
@@ -44005,7 +44029,7 @@
         <v>100</v>
       </c>
       <c r="AC93" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="94" spans="1:33" hidden="1">
@@ -44058,7 +44082,7 @@
         <v>1751</v>
       </c>
       <c r="T94" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W94" t="s">
         <v>1813</v>
@@ -44110,7 +44134,7 @@
         <v>1751</v>
       </c>
       <c r="T95" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W95" t="s">
         <v>1813</v>
@@ -44162,7 +44186,7 @@
         <v>1915</v>
       </c>
       <c r="T96" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W96" t="s">
         <v>1813</v>
@@ -44218,7 +44242,7 @@
         <v>1745</v>
       </c>
       <c r="T97" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W97" t="s">
         <v>1813</v>
@@ -44413,7 +44437,7 @@
         <v>1741</v>
       </c>
       <c r="T100" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W100" t="s">
         <v>1813</v>
@@ -44875,7 +44899,7 @@
         <v>50</v>
       </c>
       <c r="AC107" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="AF107" t="s">
         <v>748</v>
@@ -45135,7 +45159,7 @@
         <v>1751</v>
       </c>
       <c r="T111" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W111" t="s">
         <v>1813</v>
@@ -45191,7 +45215,7 @@
         <v>16</v>
       </c>
       <c r="T112" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="U112" t="s">
         <v>2341</v>
@@ -45256,7 +45280,7 @@
         <v>1925</v>
       </c>
       <c r="T113" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W113" t="s">
         <v>1813</v>
@@ -45292,7 +45316,7 @@
         <v>73</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="K114" s="5">
         <v>15</v>
@@ -45310,7 +45334,7 @@
         <v>1962</v>
       </c>
       <c r="T114" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W114" t="s">
         <v>1813</v>
@@ -45361,7 +45385,7 @@
         <v>1</v>
       </c>
       <c r="T115" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W115" t="s">
         <v>2332</v>
@@ -45411,7 +45435,7 @@
         <v>1</v>
       </c>
       <c r="T116" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W116" t="s">
         <v>2333</v>
@@ -45459,7 +45483,7 @@
         <v>1</v>
       </c>
       <c r="T117" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W117" t="s">
         <v>2333</v>
@@ -45513,7 +45537,7 @@
         <v>1</v>
       </c>
       <c r="T118" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="U118" t="s">
         <v>2340</v>
@@ -45582,7 +45606,7 @@
         <v>1</v>
       </c>
       <c r="T119" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W119" t="s">
         <v>2334</v>
@@ -45648,7 +45672,7 @@
         <v>1</v>
       </c>
       <c r="T120" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W120" t="s">
         <v>2334</v>
@@ -45711,7 +45735,7 @@
         <v>1</v>
       </c>
       <c r="T121" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W121" t="s">
         <v>2334</v>
@@ -45759,7 +45783,7 @@
         <v>1</v>
       </c>
       <c r="T122" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W122" t="s">
         <v>1813</v>
@@ -47219,7 +47243,7 @@
         <v>25</v>
       </c>
       <c r="AG145" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="146" spans="1:33" hidden="1">
@@ -47351,7 +47375,7 @@
         <v>33</v>
       </c>
       <c r="AG147" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="148" spans="1:33" hidden="1">
@@ -47420,7 +47444,7 @@
         <v>25</v>
       </c>
       <c r="AG148" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="149" spans="1:33" hidden="1">
@@ -48542,7 +48566,7 @@
         <v>1884</v>
       </c>
       <c r="AG166" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="167" spans="1:33" hidden="1">
@@ -49638,7 +49662,7 @@
         <v>2299</v>
       </c>
       <c r="Y184" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="185" spans="1:28" hidden="1">
@@ -49827,7 +49851,7 @@
         <v>2299</v>
       </c>
       <c r="Y187" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="188" spans="1:28" hidden="1">
@@ -51881,7 +51905,7 @@
         <v>1</v>
       </c>
       <c r="T221" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W221" t="s">
         <v>2335</v>
@@ -51931,7 +51955,7 @@
         <v>1</v>
       </c>
       <c r="T222" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W222" t="s">
         <v>2335</v>
@@ -52039,7 +52063,7 @@
         <v>1</v>
       </c>
       <c r="T224" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W224" t="s">
         <v>2335</v>
@@ -52094,7 +52118,7 @@
         <v>1</v>
       </c>
       <c r="T225" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W225" t="s">
         <v>2335</v>
@@ -52149,7 +52173,7 @@
         <v>1</v>
       </c>
       <c r="T226" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W226" t="s">
         <v>2335</v>
@@ -52204,7 +52228,7 @@
         <v>1</v>
       </c>
       <c r="T227" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W227" t="s">
         <v>2335</v>
@@ -52259,7 +52283,7 @@
         <v>1</v>
       </c>
       <c r="T228" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W228" t="s">
         <v>2335</v>
@@ -52314,7 +52338,7 @@
         <v>1</v>
       </c>
       <c r="T229" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W229" t="s">
         <v>2335</v>
@@ -52369,7 +52393,7 @@
         <v>1</v>
       </c>
       <c r="T230" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W230" t="s">
         <v>2335</v>
@@ -52424,7 +52448,7 @@
         <v>1</v>
       </c>
       <c r="T231" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W231" t="s">
         <v>2335</v>
@@ -52479,7 +52503,7 @@
         <v>1</v>
       </c>
       <c r="T232" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W232" t="s">
         <v>2335</v>
@@ -52534,7 +52558,7 @@
         <v>1</v>
       </c>
       <c r="T233" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W233" t="s">
         <v>2335</v>
@@ -52589,7 +52613,7 @@
         <v>1</v>
       </c>
       <c r="T234" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W234" t="s">
         <v>2335</v>
@@ -52647,7 +52671,7 @@
         <v>1</v>
       </c>
       <c r="T235" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W235" t="s">
         <v>2335</v>
@@ -52705,7 +52729,7 @@
         <v>1</v>
       </c>
       <c r="T236" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W236" t="s">
         <v>2335</v>
@@ -52757,7 +52781,7 @@
         <v>1</v>
       </c>
       <c r="T237" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W237" t="s">
         <v>2138</v>
@@ -52868,7 +52892,7 @@
         <v>1</v>
       </c>
       <c r="T239" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W239" t="s">
         <v>2335</v>
@@ -52985,7 +53009,7 @@
         <v>1</v>
       </c>
       <c r="T241" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W241" t="s">
         <v>2337</v>
@@ -53035,7 +53059,7 @@
         <v>1</v>
       </c>
       <c r="T242" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W242" t="s">
         <v>2337</v>
@@ -53081,7 +53105,7 @@
         <v>1</v>
       </c>
       <c r="T243" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W243" t="s">
         <v>2335</v>
@@ -53656,7 +53680,7 @@
         <v>25</v>
       </c>
       <c r="AG253" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="254" spans="1:33" hidden="1">
@@ -53709,7 +53733,7 @@
         <v>1689</v>
       </c>
       <c r="T254" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="U254" t="s">
         <v>2340</v>
@@ -53727,7 +53751,7 @@
         <v>100</v>
       </c>
       <c r="AC254" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="255" spans="1:33" hidden="1">
@@ -53950,13 +53974,13 @@
         <v>2081</v>
       </c>
       <c r="N258" s="43" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="S258" s="5">
         <v>1</v>
       </c>
       <c r="T258" s="5" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="W258" t="s">
         <v>2335</v>
@@ -53974,10 +53998,10 @@
         <v>Tremor</v>
       </c>
       <c r="B259" t="s">
+        <v>2588</v>
+      </c>
+      <c r="N259" s="43" t="s">
         <v>2589</v>
-      </c>
-      <c r="N259" s="43" t="s">
-        <v>2590</v>
       </c>
       <c r="T259" s="5" t="s">
         <v>6</v>
@@ -56763,7 +56787,7 @@
         <v>2380</v>
       </c>
       <c r="B5" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="C5" s="124">
         <v>6</v>
@@ -57023,7 +57047,7 @@
         <v>2384</v>
       </c>
       <c r="B9" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C9" s="124">
         <v>14</v>
@@ -57153,7 +57177,7 @@
         <v>2426</v>
       </c>
       <c r="B11" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="C11" s="124">
         <v>18</v>
@@ -57218,7 +57242,7 @@
         <v>2427</v>
       </c>
       <c r="B12" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="C12" s="124">
         <v>20</v>
@@ -57673,7 +57697,7 @@
         <v>2434</v>
       </c>
       <c r="B19" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="C19" s="124">
         <v>34</v>
@@ -58648,7 +58672,7 @@
         <v>2444</v>
       </c>
       <c r="B34" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C34" s="124">
         <v>64</v>
@@ -58713,7 +58737,7 @@
         <v>2445</v>
       </c>
       <c r="B35" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C35" s="124">
         <v>66</v>
@@ -58778,7 +58802,7 @@
         <v>2390</v>
       </c>
       <c r="B36" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C36" s="124">
         <v>68</v>
@@ -59103,7 +59127,7 @@
         <v>2394</v>
       </c>
       <c r="B41" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="C41" s="124">
         <v>78</v>
@@ -59168,7 +59192,7 @@
         <v>2447</v>
       </c>
       <c r="B42" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C42" s="124">
         <v>80</v>
@@ -59233,7 +59257,7 @@
         <v>2448</v>
       </c>
       <c r="B43" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C43" s="124">
         <v>82</v>
@@ -59298,7 +59322,7 @@
         <v>2449</v>
       </c>
       <c r="B44" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C44" s="124">
         <v>84</v>
@@ -59558,7 +59582,7 @@
         <v>2453</v>
       </c>
       <c r="B48" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="C48" s="124">
         <v>92</v>
@@ -60273,7 +60297,7 @@
         <v>2459</v>
       </c>
       <c r="B59" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C59" s="124">
         <v>114</v>
@@ -60338,7 +60362,7 @@
         <v>2460</v>
       </c>
       <c r="B60" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C60" s="124">
         <v>116</v>
@@ -60403,7 +60427,7 @@
         <v>2461</v>
       </c>
       <c r="B61" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="C61" s="124">
         <v>118</v>
@@ -60468,7 +60492,7 @@
         <v>2462</v>
       </c>
       <c r="B62" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="C62" s="124">
         <v>120</v>
@@ -64693,7 +64717,7 @@
         <v>2507</v>
       </c>
       <c r="B127" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C127" s="124">
         <v>250</v>
@@ -64888,7 +64912,7 @@
         <v>2510</v>
       </c>
       <c r="B130" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="C130" s="124">
         <v>256</v>
@@ -64953,7 +64977,7 @@
         <v>2511</v>
       </c>
       <c r="B131" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C131" s="124">
         <v>258</v>
@@ -65018,7 +65042,7 @@
         <v>2420</v>
       </c>
       <c r="B132" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C132" s="124">
         <v>260</v>
@@ -65083,7 +65107,7 @@
         <v>2421</v>
       </c>
       <c r="B133" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C133" s="124">
         <v>262</v>
